--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15740" tabRatio="500" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="984">
   <si>
     <t>Hauling</t>
   </si>
@@ -545,9 +545,6 @@
   </si>
   <si>
     <t>Boldrin high</t>
-  </si>
-  <si>
-    <t>Boldrin low</t>
   </si>
   <si>
     <t>Baky and Eriksson, 2003</t>
@@ -2971,9 +2968,6 @@
     <t>Compost_CS_factor</t>
   </si>
   <si>
-    <t>2-14% of C in compost</t>
-  </si>
-  <si>
     <t>CS correction factor</t>
   </si>
   <si>
@@ -3089,21 +3083,6 @@
     <t>based upon 20km to field- not used</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>% of C applied</t>
-  </si>
-  <si>
-    <t>Bruun et al, 2006</t>
-  </si>
-  <si>
-    <t>Calculated by subracting CO2-C factor</t>
-  </si>
-  <si>
     <t>KgC/t FW</t>
   </si>
   <si>
@@ -3192,6 +3171,135 @@
   </si>
   <si>
     <t>AD_xportTofield</t>
+  </si>
+  <si>
+    <t>Grinder power rating</t>
+  </si>
+  <si>
+    <t>L/KWh</t>
+  </si>
+  <si>
+    <t>Grinder fuel usage</t>
+  </si>
+  <si>
+    <t>grinder diesel consumption rate</t>
+  </si>
+  <si>
+    <t>KgCO2e/t</t>
+  </si>
+  <si>
+    <t>Diesel emissions</t>
+  </si>
+  <si>
+    <t>estimated from USDA raw lettuce</t>
+  </si>
+  <si>
+    <t>USDA database, danish pastry (representative of a variety of breads, donuts and pastries)</t>
+  </si>
+  <si>
+    <t>USDA, canned food solids and liquids</t>
+  </si>
+  <si>
+    <t>based upon 2:0.36:0.67 from http://www.lundproduce.com/N-P-K-Value-of-Everything.html</t>
+  </si>
+  <si>
+    <t>USDA average of strawberries and salad</t>
+  </si>
+  <si>
+    <t>USDA estimated from various yogurts, ice creams, frozen yogurts (ice much lower</t>
+  </si>
+  <si>
+    <t>USDA based on fruit loops and apple jacks</t>
+  </si>
+  <si>
+    <t>USDA pasta (oatmeal and flour much higher aroud 3500 for each)</t>
+  </si>
+  <si>
+    <t>Potassium (K)(mg/kg)</t>
+  </si>
+  <si>
+    <t>Phosphorous (mg/kg) (P)</t>
+  </si>
+  <si>
+    <t>Based on cantelope rindhttp://www.lundproduce.com/N-P-K-Value-of-Everything.html</t>
+  </si>
+  <si>
+    <t>8-80KWh/t Berhardt.</t>
+  </si>
+  <si>
+    <t>%initial C</t>
+  </si>
+  <si>
+    <t>% C applied</t>
+  </si>
+  <si>
+    <t>4% to 14%</t>
+  </si>
+  <si>
+    <t>neglects CO, CH4 and VOC during combustion</t>
+  </si>
+  <si>
+    <t>kgC/ton waste</t>
+  </si>
+  <si>
+    <t>Baky and Eriksson (2003)</t>
+  </si>
+  <si>
+    <t>Kärrman et al., 2005).</t>
+  </si>
+  <si>
+    <t>during storage of digestate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2% to 14% </t>
+  </si>
+  <si>
+    <t>3.6% to 13.1%</t>
+  </si>
+  <si>
+    <t>Linzner and Mostbauer (2005),</t>
+  </si>
+  <si>
+    <t>Smith 2001</t>
+  </si>
+  <si>
+    <t>kgCO2e/twaste</t>
+  </si>
+  <si>
+    <t>Ad and compost</t>
+  </si>
+  <si>
+    <t>for putresibles (food waste and garden waste)</t>
+  </si>
+  <si>
+    <t>Based on Bruun et al., 2006</t>
+  </si>
+  <si>
+    <t>0 to 10.5% of initial C from Bernstadt</t>
+  </si>
+  <si>
+    <t>0-4.8% of initial C</t>
+  </si>
+  <si>
+    <t>% Initial C</t>
+  </si>
+  <si>
+    <t>Boldrin low,2009</t>
+  </si>
+  <si>
+    <t>Lee, 2007</t>
+  </si>
+  <si>
+    <t>0-4.8%</t>
+  </si>
+  <si>
+    <t>Bernstadt, 2012</t>
+  </si>
+  <si>
+    <t>Bernstadt,2012</t>
+  </si>
+  <si>
+    <t>0-10.5%</t>
   </si>
 </sst>
 </file>
@@ -3214,6 +3322,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3666,7 +3775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3910,8 +4019,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="443">
+  <cellStyleXfs count="445">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4355,8 +4473,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4778,9 +4898,36 @@
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="443">
+  <cellStyles count="445">
     <cellStyle name="Bad 2" xfId="17"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="18"/>
@@ -4999,6 +5146,7 @@
     <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="19"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -5215,6 +5363,7 @@
     <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="21"/>
@@ -5549,11 +5698,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2023099992"/>
-        <c:axId val="-2023096856"/>
+        <c:axId val="-2138986168"/>
+        <c:axId val="2091208856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2023099992"/>
+        <c:axId val="-2138986168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5563,7 +5712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023096856"/>
+        <c:crossAx val="2091208856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5571,7 +5720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023096856"/>
+        <c:axId val="2091208856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5582,7 +5731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023099992"/>
+        <c:crossAx val="-2138986168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6064,11 +6213,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2023285976"/>
-        <c:axId val="-2023283000"/>
+        <c:axId val="2091284840"/>
+        <c:axId val="2091287816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2023285976"/>
+        <c:axId val="2091284840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6078,7 +6227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023283000"/>
+        <c:crossAx val="2091287816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6086,7 +6235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023283000"/>
+        <c:axId val="2091287816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6115,7 +6264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023285976"/>
+        <c:crossAx val="2091284840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7167,11 +7316,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="-2022853144"/>
-        <c:axId val="-2022982904"/>
+        <c:axId val="-2091616280"/>
+        <c:axId val="-2091619112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2022853144"/>
+        <c:axId val="-2091616280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7191,7 +7340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2022982904"/>
+        <c:crossAx val="-2091619112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7199,7 +7348,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2022982904"/>
+        <c:axId val="-2091619112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7228,7 +7377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2022853144"/>
+        <c:crossAx val="-2091616280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7742,28 +7891,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="38.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="44" customFormat="1" ht="13" customHeight="1">
+    <row r="1" spans="1:20" s="44" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>14</v>
@@ -7772,7 +7922,7 @@
         <v>116</v>
       </c>
       <c r="D1" s="199" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>2</v>
@@ -7781,52 +7931,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C2" s="196">
         <f>J66</f>
         <v>0.44445499769952745</v>
       </c>
       <c r="F2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B3" t="s">
         <v>665</v>
-      </c>
-      <c r="B3" t="s">
-        <v>666</v>
       </c>
       <c r="C3" s="196">
         <f>J65</f>
         <v>0.53090857076072773</v>
       </c>
       <c r="F3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C4" s="196">
         <f>J67</f>
         <v>0.77143668844394409</v>
       </c>
       <c r="F4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -7838,7 +7988,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -7847,7 +7997,7 @@
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -7859,7 +8009,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="23" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -7868,47 +8018,47 @@
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C7" s="194">
         <v>0.45</v>
       </c>
       <c r="D7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="47" customFormat="1">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="47" customFormat="1">
       <c r="A8" s="116" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C8" s="198" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F8" s="120">
         <f>34003/1000000</f>
         <v>3.4002999999999999E-2</v>
       </c>
       <c r="G8" s="105" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H8" s="105"/>
       <c r="I8" s="105"/>
       <c r="J8" s="105"/>
     </row>
-    <row r="9" spans="1:18" s="47" customFormat="1">
+    <row r="9" spans="1:20" s="47" customFormat="1">
       <c r="A9" s="116" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B9" s="105"/>
       <c r="C9" s="198"/>
@@ -7918,12 +8068,12 @@
       <c r="I9" s="105"/>
       <c r="J9" s="105"/>
     </row>
-    <row r="10" spans="1:18" s="105" customFormat="1" ht="14">
+    <row r="10" spans="1:20" s="105" customFormat="1" ht="14">
       <c r="A10" s="105" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C10" s="198"/>
       <c r="D10" s="121">
@@ -7934,21 +8084,21 @@
         <v>79354</v>
       </c>
       <c r="G10" s="111" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H10" s="111"/>
       <c r="I10" s="111"/>
       <c r="J10" s="111"/>
       <c r="K10" s="105" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="105" customFormat="1" ht="14">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="105" customFormat="1" ht="14">
       <c r="A11" s="105" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C11" s="198"/>
       <c r="D11" s="121">
@@ -7959,21 +8109,21 @@
         <v>2</v>
       </c>
       <c r="G11" s="111" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H11" s="111"/>
       <c r="I11" s="111"/>
       <c r="J11" s="111"/>
       <c r="K11" s="105" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="27" customFormat="1" ht="14">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="27" customFormat="1" ht="14">
       <c r="A12" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C12" s="195"/>
       <c r="D12" s="122">
@@ -7984,35 +8134,37 @@
         <v>4.41</v>
       </c>
       <c r="G12" s="111" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H12" s="111"/>
       <c r="I12" s="111"/>
       <c r="J12" s="111"/>
       <c r="K12" s="105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N12" s="111"/>
-      <c r="R12" s="119"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="T12" s="119"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C13" s="271">
         <f>SUM(D10:D12)</f>
         <v>2.7204943424399999</v>
       </c>
       <c r="E13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>126</v>
@@ -8027,17 +8179,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:20">
       <c r="A15" s="43" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="197"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>117</v>
@@ -8055,9 +8207,9 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>117</v>
@@ -8075,9 +8227,9 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>117</v>
@@ -8095,9 +8247,9 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
@@ -8114,7 +8266,7 @@
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:17" s="45" customFormat="1">
+    <row r="20" spans="1:19" s="45" customFormat="1">
       <c r="A20" s="27" t="s">
         <v>134</v>
       </c>
@@ -8127,40 +8279,40 @@
       <c r="E20" s="27"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:19">
       <c r="A21" s="1"/>
-      <c r="P21" s="69"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="69"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1"/>
-      <c r="P22" s="69"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="69"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1"/>
-      <c r="P23" s="69" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="44" customFormat="1">
+      <c r="R23" s="69" t="s">
+        <v>766</v>
+      </c>
+      <c r="S23" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="44" customFormat="1">
       <c r="A24" s="45" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="37" thickBot="1">
+      <c r="A25" s="158" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="37" thickBot="1">
-      <c r="A25" s="158" t="s">
-        <v>662</v>
-      </c>
       <c r="B25" s="158" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C25" s="158" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D25" s="158" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E25" s="158" t="s">
         <v>49</v>
@@ -8169,39 +8321,45 @@
         <v>50</v>
       </c>
       <c r="G25" s="158" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H25" s="158" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I25" s="158" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J25" s="158" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K25" s="158" t="s">
+        <v>529</v>
+      </c>
+      <c r="L25" s="158" t="s">
         <v>530</v>
       </c>
-      <c r="L25" s="158" t="s">
+      <c r="M25" s="158" t="s">
         <v>531</v>
       </c>
-      <c r="M25" s="158" t="s">
+      <c r="N25" s="161" t="s">
         <v>532</v>
       </c>
-      <c r="N25" s="161" t="s">
+      <c r="O25" s="158" t="s">
         <v>533</v>
       </c>
-      <c r="O25" s="158" t="s">
-        <v>534</v>
-      </c>
-      <c r="P25" s="167" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="17" thickTop="1" thickBot="1">
+      <c r="P25" s="164" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q25" s="164" t="s">
+        <v>956</v>
+      </c>
+      <c r="R25" s="167" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A26" s="148" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B26" s="151"/>
       <c r="C26" s="154"/>
@@ -8217,10 +8375,12 @@
       <c r="M26" s="148"/>
       <c r="N26" s="151"/>
       <c r="O26" s="154"/>
-    </row>
-    <row r="27" spans="1:17" ht="16" thickBot="1">
+      <c r="P26" s="286"/>
+      <c r="Q26" s="286"/>
+    </row>
+    <row r="27" spans="1:19" ht="16" thickBot="1">
       <c r="A27" s="148" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B27" s="151">
         <v>0.3</v>
@@ -8266,28 +8426,30 @@
       <c r="O27" s="154">
         <v>0.84099999999999997</v>
       </c>
-      <c r="P27" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="16" thickBot="1">
+      <c r="P27" s="286"/>
+      <c r="Q27" s="286"/>
+      <c r="R27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="16" thickBot="1">
       <c r="A28" s="148" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B28" s="151" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C28" s="154"/>
       <c r="D28" s="148" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E28" s="257"/>
       <c r="F28" s="251"/>
       <c r="G28" s="148" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H28" s="151" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I28" s="154"/>
       <c r="J28" s="148" t="s">
@@ -8298,10 +8460,12 @@
       <c r="M28" s="159"/>
       <c r="N28" s="151"/>
       <c r="O28" s="154" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="16" thickBot="1">
+        <v>821</v>
+      </c>
+      <c r="P28" s="286"/>
+      <c r="Q28" s="286"/>
+    </row>
+    <row r="29" spans="1:19" ht="16" thickBot="1">
       <c r="A29" s="148" t="s">
         <v>2</v>
       </c>
@@ -8314,23 +8478,25 @@
       <c r="H29" s="151"/>
       <c r="I29" s="154"/>
       <c r="J29" s="148" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K29" s="151"/>
       <c r="L29" s="154" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M29" s="159" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N29" s="151" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O29" s="154" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16" thickBot="1">
+        <v>667</v>
+      </c>
+      <c r="P29" s="286"/>
+      <c r="Q29" s="286"/>
+    </row>
+    <row r="30" spans="1:19" ht="16" thickBot="1">
       <c r="A30" s="148"/>
       <c r="B30" s="151"/>
       <c r="C30" s="154"/>
@@ -8341,15 +8507,17 @@
       <c r="H30" s="151"/>
       <c r="I30" s="154"/>
       <c r="J30" s="148" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K30" s="151"/>
       <c r="L30" s="154"/>
       <c r="M30" s="188"/>
       <c r="N30" s="151"/>
       <c r="O30" s="154"/>
-    </row>
-    <row r="31" spans="1:17" ht="16" thickBot="1">
+      <c r="P30" s="286"/>
+      <c r="Q30" s="286"/>
+    </row>
+    <row r="31" spans="1:19" ht="16" thickBot="1">
       <c r="A31" s="148"/>
       <c r="B31" s="151"/>
       <c r="C31" s="154"/>
@@ -8368,8 +8536,10 @@
       <c r="M31" s="159"/>
       <c r="N31" s="151"/>
       <c r="O31" s="154"/>
-    </row>
-    <row r="32" spans="1:17" ht="16" thickBot="1">
+      <c r="P31" s="286"/>
+      <c r="Q31" s="286"/>
+    </row>
+    <row r="32" spans="1:19" ht="16" thickBot="1">
       <c r="A32" s="148"/>
       <c r="B32" s="151"/>
       <c r="C32" s="154"/>
@@ -8380,17 +8550,19 @@
       <c r="H32" s="151"/>
       <c r="I32" s="154"/>
       <c r="J32" s="148" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K32" s="151"/>
       <c r="L32" s="154"/>
       <c r="M32" s="159"/>
       <c r="N32" s="151"/>
       <c r="O32" s="154"/>
-    </row>
-    <row r="33" spans="1:20" ht="16" thickBot="1">
+      <c r="P32" s="286"/>
+      <c r="Q32" s="286"/>
+    </row>
+    <row r="33" spans="1:22" ht="16" thickBot="1">
       <c r="A33" s="148" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B33" s="151"/>
       <c r="C33" s="154"/>
@@ -8406,8 +8578,10 @@
       <c r="M33" s="188"/>
       <c r="N33" s="151"/>
       <c r="O33" s="154"/>
-    </row>
-    <row r="34" spans="1:20" ht="16" thickBot="1">
+      <c r="P33" s="286"/>
+      <c r="Q33" s="286"/>
+    </row>
+    <row r="34" spans="1:22" ht="16" thickBot="1">
       <c r="A34" s="148" t="s">
         <v>11</v>
       </c>
@@ -8439,11 +8613,13 @@
       <c r="M34" s="159"/>
       <c r="N34" s="151"/>
       <c r="O34" s="154"/>
-      <c r="P34" s="100" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="16" thickBot="1">
+      <c r="P34" s="286"/>
+      <c r="Q34" s="286"/>
+      <c r="R34" s="100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="16" thickBot="1">
       <c r="A35" s="149" t="s">
         <v>51</v>
       </c>
@@ -8484,16 +8660,18 @@
         <v>0.67123287671232879</v>
       </c>
       <c r="O35" s="155"/>
-      <c r="P35" s="24" t="s">
+      <c r="P35" s="286"/>
+      <c r="Q35" s="286"/>
+      <c r="R35" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="T35" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="V35" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="17" thickTop="1" thickBot="1">
       <c r="A36" s="148" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B36" s="151"/>
       <c r="C36" s="154"/>
@@ -8509,11 +8687,13 @@
       <c r="M36" s="188"/>
       <c r="N36" s="151"/>
       <c r="O36" s="154"/>
-      <c r="P36" s="24"/>
-    </row>
-    <row r="37" spans="1:20" ht="16" thickBot="1">
+      <c r="P36" s="286"/>
+      <c r="Q36" s="286"/>
+      <c r="R36" s="24"/>
+    </row>
+    <row r="37" spans="1:22" ht="16" thickBot="1">
       <c r="A37" s="148" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B37" s="151"/>
       <c r="C37" s="154"/>
@@ -8529,9 +8709,11 @@
       <c r="M37" s="159"/>
       <c r="N37" s="151"/>
       <c r="O37" s="154"/>
-      <c r="P37" s="24"/>
-    </row>
-    <row r="38" spans="1:20" ht="16" thickBot="1">
+      <c r="P37" s="286"/>
+      <c r="Q37" s="286"/>
+      <c r="R37" s="24"/>
+    </row>
+    <row r="38" spans="1:22" ht="16" thickBot="1">
       <c r="A38" s="148" t="s">
         <v>103</v>
       </c>
@@ -8568,16 +8750,18 @@
         <v>0.75268817204301086</v>
       </c>
       <c r="O38" s="154"/>
-      <c r="P38" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="16" thickBot="1">
+      <c r="P38" s="286"/>
+      <c r="Q38" s="286"/>
+      <c r="R38" t="s">
+        <v>421</v>
+      </c>
+      <c r="S38" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="16" thickBot="1">
       <c r="A39" s="247" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B39" s="248"/>
       <c r="C39" s="248"/>
@@ -8590,11 +8774,13 @@
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
-      <c r="P39" s="24"/>
-    </row>
-    <row r="40" spans="1:20" ht="16" thickBot="1">
+      <c r="P39" s="287"/>
+      <c r="Q39" s="287"/>
+      <c r="R39" s="24"/>
+    </row>
+    <row r="40" spans="1:22" ht="16" thickBot="1">
       <c r="A40" s="148" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B40" s="151">
         <v>0.91600000000000004</v>
@@ -8627,10 +8813,19 @@
       <c r="O40" s="263">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="16" thickBot="1">
+      <c r="P40" s="288">
+        <v>1400</v>
+      </c>
+      <c r="Q40" s="288">
+        <v>1200</v>
+      </c>
+      <c r="R40" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="16" thickBot="1">
       <c r="A41" s="148" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B41" s="151">
         <v>0.105</v>
@@ -8663,10 +8858,19 @@
       <c r="O41" s="264">
         <v>0.98179823692937196</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="16" thickBot="1">
+      <c r="P41" s="288">
+        <v>1380</v>
+      </c>
+      <c r="Q41" s="288">
+        <v>370</v>
+      </c>
+      <c r="R41" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="16" thickBot="1">
       <c r="A42" s="148" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B42" s="151">
         <v>0.29299999999999998</v>
@@ -8699,10 +8903,21 @@
       <c r="O42" s="264">
         <v>0.79927679923149053</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" ht="16" thickBot="1">
+      <c r="P42" s="290">
+        <f>G42*0.36/2</f>
+        <v>1434.528</v>
+      </c>
+      <c r="Q42" s="290">
+        <f>G42*0.67/2</f>
+        <v>2669.8160000000003</v>
+      </c>
+      <c r="R42" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="16" thickBot="1">
       <c r="A43" s="148" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B43" s="151">
         <v>7.6999999999999999E-2</v>
@@ -8735,10 +8950,19 @@
       <c r="O43" s="264">
         <v>0.97735385922437001</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" ht="16" thickBot="1">
+      <c r="P43" s="288">
+        <v>2315</v>
+      </c>
+      <c r="Q43" s="288">
+        <v>330</v>
+      </c>
+      <c r="R43" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="16" thickBot="1">
       <c r="A44" s="148" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B44" s="151">
         <v>0.46600000000000003</v>
@@ -8771,10 +8995,21 @@
       <c r="O44" s="264">
         <v>0.877478471550592</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" ht="16" thickBot="1">
+      <c r="P44" s="288">
+        <f>8000*0.4</f>
+        <v>3200</v>
+      </c>
+      <c r="Q44" s="288">
+        <f>3000*0.4</f>
+        <v>1200</v>
+      </c>
+      <c r="R44" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="16" thickBot="1">
       <c r="A45" s="148" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B45" s="151">
         <v>0.14299999999999999</v>
@@ -8807,10 +9042,19 @@
       <c r="O45" s="264">
         <v>0.56096498593100275</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="16" thickBot="1">
+      <c r="P45" s="294">
+        <v>1200</v>
+      </c>
+      <c r="Q45" s="288">
+        <v>977</v>
+      </c>
+      <c r="R45" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="16" thickBot="1">
       <c r="A46" s="148" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B46" s="151">
         <v>0.92700000000000005</v>
@@ -8843,10 +9087,19 @@
       <c r="O46" s="264">
         <v>0.82380040804253563</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" ht="16" thickBot="1">
+      <c r="P46" s="292">
+        <v>1170</v>
+      </c>
+      <c r="Q46" s="292">
+        <v>740</v>
+      </c>
+      <c r="R46" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="16" thickBot="1">
       <c r="A47" s="148" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B47" s="151">
         <v>3.7999999999999999E-2</v>
@@ -8879,10 +9132,19 @@
       <c r="O47" s="264">
         <v>0.90450759080277232</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" ht="16" thickBot="1">
+      <c r="P47" s="289">
+        <v>2300</v>
+      </c>
+      <c r="Q47" s="289">
+        <v>300</v>
+      </c>
+      <c r="R47" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="16" thickBot="1">
       <c r="A48" s="148" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B48" s="151">
         <v>0.92400000000000004</v>
@@ -8915,10 +9177,19 @@
       <c r="O48" s="264">
         <v>0.73736998705248713</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="16" thickBot="1">
+      <c r="P48" s="293">
+        <v>2010</v>
+      </c>
+      <c r="Q48" s="288">
+        <v>1630</v>
+      </c>
+      <c r="R48" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="16" thickBot="1">
       <c r="A49" s="149" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B49" s="152">
         <v>0.309</v>
@@ -8951,11 +9222,20 @@
       <c r="O49" s="265">
         <v>0.99060618444367532</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="16" thickTop="1"/>
-    <row r="54" spans="1:15" ht="16" thickBot="1">
+      <c r="P49" s="288">
+        <v>1500</v>
+      </c>
+      <c r="Q49" s="291">
+        <v>1100</v>
+      </c>
+      <c r="R49" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="16" thickTop="1"/>
+    <row r="54" spans="1:18" ht="16" thickBot="1">
       <c r="A54" s="149" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B54" s="152">
         <v>0.10199999999999999</v>
@@ -8979,69 +9259,71 @@
         <v>0.69</v>
       </c>
       <c r="O54" s="168"/>
-    </row>
-    <row r="55" spans="1:15" ht="16" thickTop="1">
+      <c r="P54" s="168"/>
+      <c r="Q54" s="168"/>
+    </row>
+    <row r="55" spans="1:18" ht="16" thickTop="1">
       <c r="A55" s="101"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
+        <v>487</v>
+      </c>
+      <c r="B57" t="s">
         <v>488</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>489</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="1:18" ht="17">
+      <c r="A58" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="17">
-      <c r="A58" t="s">
+      <c r="B58" s="127" t="s">
         <v>491</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="C58" t="s">
         <v>492</v>
       </c>
-      <c r="C58" t="s">
+      <c r="K58" s="128"/>
+    </row>
+    <row r="59" spans="1:18" ht="17">
+      <c r="A59" t="s">
         <v>493</v>
       </c>
-      <c r="K58" s="128"/>
-    </row>
-    <row r="59" spans="1:15" ht="17">
-      <c r="A59" t="s">
+      <c r="B59" s="127" t="s">
         <v>494</v>
       </c>
-      <c r="B59" s="127" t="s">
+      <c r="C59" s="128" t="s">
         <v>495</v>
       </c>
-      <c r="C59" s="128" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+    </row>
+    <row r="60" spans="1:18">
       <c r="M60" s="129"/>
       <c r="N60" s="130"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:18">
       <c r="A61" s="131"/>
       <c r="B61" s="132" t="s">
+        <v>496</v>
+      </c>
+      <c r="C61" s="132" t="s">
         <v>497</v>
       </c>
-      <c r="C61" s="132" t="s">
+      <c r="D61" s="132" t="s">
         <v>498</v>
-      </c>
-      <c r="D61" s="132" t="s">
-        <v>499</v>
       </c>
       <c r="E61" s="132" t="s">
         <v>55</v>
       </c>
       <c r="F61" s="132" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="133" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="133" t="s">
-        <v>501</v>
       </c>
       <c r="B62" s="134">
         <v>12.0107</v>
@@ -9059,45 +9341,45 @@
         <v>32.064999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:18">
       <c r="A64" s="135"/>
       <c r="B64" s="136" t="s">
+        <v>501</v>
+      </c>
+      <c r="C64" s="136" t="s">
         <v>502</v>
       </c>
-      <c r="C64" s="136" t="s">
+      <c r="D64" s="136" t="s">
         <v>503</v>
       </c>
-      <c r="D64" s="136" t="s">
+      <c r="E64" s="136" t="s">
         <v>504</v>
       </c>
-      <c r="E64" s="136" t="s">
+      <c r="F64" s="137" t="s">
         <v>505</v>
       </c>
-      <c r="F64" s="137" t="s">
+      <c r="G64" s="137" t="s">
         <v>506</v>
       </c>
-      <c r="G64" s="137" t="s">
+      <c r="H64" s="138" t="s">
         <v>507</v>
       </c>
-      <c r="H64" s="138" t="s">
+      <c r="I64" s="139" t="s">
         <v>508</v>
       </c>
-      <c r="I64" s="139" t="s">
+      <c r="J64" s="140" t="s">
         <v>509</v>
       </c>
-      <c r="J64" s="140" t="s">
+      <c r="K64" s="140" t="s">
         <v>510</v>
       </c>
-      <c r="K64" s="140" t="s">
+      <c r="L64" s="140" t="s">
         <v>511</v>
-      </c>
-      <c r="L64" s="140" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B65" s="141">
         <v>5</v>
@@ -9139,7 +9421,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="50" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B66" s="141">
         <v>6</v>
@@ -9179,7 +9461,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="50" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B67" s="144">
         <v>57</v>
@@ -9219,7 +9501,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="145" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B68" s="141">
         <v>40</v>
@@ -9253,7 +9535,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="145" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B69" s="146">
         <v>6</v>
@@ -9302,47 +9584,47 @@
     <row r="72" spans="1:14" ht="16" thickBot="1"/>
     <row r="73" spans="1:14" ht="17" thickTop="1" thickBot="1">
       <c r="A73" s="147" t="s">
+        <v>514</v>
+      </c>
+      <c r="B73" s="148" t="s">
         <v>515</v>
       </c>
-      <c r="B73" s="148" t="s">
+      <c r="C73" s="148" t="s">
         <v>516</v>
       </c>
-      <c r="C73" s="148" t="s">
+      <c r="D73" s="148" t="s">
         <v>517</v>
       </c>
-      <c r="D73" s="148" t="s">
+      <c r="E73" s="148" t="s">
         <v>518</v>
       </c>
-      <c r="E73" s="148" t="s">
+      <c r="F73" s="148" t="s">
         <v>519</v>
       </c>
-      <c r="F73" s="148" t="s">
+      <c r="G73" s="148" t="s">
         <v>520</v>
       </c>
-      <c r="G73" s="148" t="s">
+      <c r="H73" s="148" t="s">
         <v>521</v>
-      </c>
-      <c r="H73" s="148" t="s">
-        <v>522</v>
       </c>
       <c r="I73" s="148"/>
       <c r="J73" s="148"/>
       <c r="K73" s="148" t="s">
+        <v>522</v>
+      </c>
+      <c r="L73" s="148" t="s">
         <v>523</v>
       </c>
-      <c r="L73" s="148" t="s">
+      <c r="M73" s="149" t="s">
         <v>524</v>
       </c>
-      <c r="M73" s="149" t="s">
+      <c r="N73" s="149" t="s">
         <v>525</v>
-      </c>
-      <c r="N73" s="149" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16" thickBot="1">
       <c r="A75" s="150" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B75" s="151">
         <v>0.91600000000000004</v>
@@ -9382,7 +9664,7 @@
     </row>
     <row r="76" spans="1:14" ht="16" thickBot="1">
       <c r="A76" s="153" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B76" s="154">
         <v>0.97899999999999998</v>
@@ -9422,7 +9704,7 @@
     </row>
     <row r="77" spans="1:14" ht="16" thickBot="1">
       <c r="A77" s="156" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B77" s="157">
         <v>0.88900000000000001</v>
@@ -9462,7 +9744,7 @@
     </row>
     <row r="78" spans="1:14" ht="17" thickTop="1" thickBot="1">
       <c r="A78" s="158" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B78" s="159">
         <v>0.03</v>
@@ -9502,7 +9784,7 @@
     </row>
     <row r="79" spans="1:14" ht="17" thickTop="1" thickBot="1">
       <c r="A79" s="158" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B79" s="188">
         <v>0.11</v>
@@ -9542,7 +9824,7 @@
     </row>
     <row r="80" spans="1:14" ht="17" thickTop="1" thickBot="1">
       <c r="A80" s="158" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B80" s="188">
         <v>0.1</v>
@@ -9580,9 +9862,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="17" thickTop="1" thickBot="1">
+    <row r="81" spans="1:17" ht="17" thickTop="1" thickBot="1">
       <c r="A81" s="161" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B81" s="189">
         <v>0.76</v>
@@ -9620,9 +9902,9 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="16" thickTop="1">
+    <row r="82" spans="1:17" ht="16" thickTop="1">
       <c r="A82" s="164" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C82" s="165"/>
       <c r="D82" s="165"/>
@@ -9639,9 +9921,9 @@
         <v>0.54263731383696057</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:17">
       <c r="A83" s="167" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B83" s="168">
         <f t="shared" ref="B83:H83" si="3">B79*$J67</f>
@@ -9690,9 +9972,9 @@
         <v>7.7143668844394412E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:17">
       <c r="A84" s="167" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B84" s="168">
         <f t="shared" ref="B84:H84" si="4">B80*$J65</f>
@@ -9741,9 +10023,9 @@
         <v>7.4327199906501884E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:17">
       <c r="A85" s="167" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B85" s="168">
         <f t="shared" ref="B85:H85" si="5">$J66*B81</f>
@@ -9792,9 +10074,9 @@
         <v>0.30667394841267392</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:17">
       <c r="A86" s="167" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B86" s="168">
         <f>SUM(B83:B85)</f>
@@ -9846,10 +10128,12 @@
         <f>(1-N82)*N86*N76</f>
         <v>0.14862740074814412</v>
       </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="P86" s="168"/>
+      <c r="Q86" s="168"/>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="167" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B87" s="187">
         <f>B86*B75</f>
@@ -9930,7 +10214,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" s="72"/>
       <c r="L2" s="70"/>
@@ -9938,16 +10222,16 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
         <v>163</v>
       </c>
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
       <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
         <v>159</v>
-      </c>
-      <c r="F3" t="s">
-        <v>160</v>
       </c>
       <c r="K3" s="71"/>
       <c r="L3" s="70"/>
@@ -9956,7 +10240,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -9975,7 +10259,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5">
         <v>4.62</v>
@@ -9990,7 +10274,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6">
         <f>B4-B5</f>
@@ -10003,295 +10287,295 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
         <v>173</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>174</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" t="s">
         <v>175</v>
       </c>
-      <c r="E11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" t="s">
         <v>176</v>
       </c>
-      <c r="I11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>177</v>
-      </c>
-      <c r="K11" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
         <v>179</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>180</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>181</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>182</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>183</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>184</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>185</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>186</v>
-      </c>
-      <c r="K12" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" t="s">
         <v>189</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>190</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>191</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>192</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>193</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>194</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>195</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>196</v>
-      </c>
-      <c r="K13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B14">
         <v>14.2</v>
       </c>
       <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" t="s">
         <v>198</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>199</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>200</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>201</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>202</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>203</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>204</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>205</v>
-      </c>
-      <c r="K14" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" t="s">
         <v>207</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>208</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>209</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>210</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>211</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>212</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>213</v>
       </c>
-      <c r="J15" t="s">
-        <v>214</v>
-      </c>
       <c r="K15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B16">
         <v>13.5</v>
       </c>
       <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" t="s">
         <v>215</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>216</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>217</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>218</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>219</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>220</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>221</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>222</v>
-      </c>
-      <c r="K16" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17">
         <v>8.8000000000000007</v>
       </c>
       <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" t="s">
         <v>224</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>225</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>226</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>227</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>228</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>229</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>230</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>231</v>
-      </c>
-      <c r="K17" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B18">
         <v>13.8</v>
       </c>
       <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" t="s">
         <v>233</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>234</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>235</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>236</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>237</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>238</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>239</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>240</v>
-      </c>
-      <c r="K18" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C19">
         <v>1.0900000000000001</v>
@@ -10323,7 +10607,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -10358,7 +10642,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B21">
         <v>10.1</v>
@@ -10393,7 +10677,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -10428,7 +10712,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -10446,24 +10730,24 @@
         <v>0.4</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B24">
         <v>11.5</v>
@@ -10498,7 +10782,7 @@
     </row>
     <row r="26" spans="1:11" s="59" customFormat="1">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -10513,182 +10797,182 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
         <v>172</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>173</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>174</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" t="s">
         <v>175</v>
       </c>
-      <c r="E27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" t="s">
-        <v>167</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" t="s">
         <v>176</v>
       </c>
-      <c r="I27" t="s">
-        <v>169</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>177</v>
-      </c>
-      <c r="K27" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28">
         <v>14.1</v>
       </c>
       <c r="C28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" t="s">
         <v>247</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>248</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>249</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>250</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>251</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>252</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>253</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>254</v>
-      </c>
-      <c r="K28" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B29">
         <v>9.5</v>
       </c>
       <c r="C29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" t="s">
         <v>256</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>257</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>258</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>259</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>260</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>261</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>262</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>263</v>
-      </c>
-      <c r="K29" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B30">
         <v>9.5</v>
       </c>
       <c r="C30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" t="s">
         <v>265</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>266</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>267</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>268</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>269</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>270</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>271</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>272</v>
-      </c>
-      <c r="K30" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B31">
         <v>11.85</v>
       </c>
       <c r="C31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" t="s">
         <v>274</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>275</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="F31" t="s">
-        <v>250</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>277</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>278</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>279</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>280</v>
-      </c>
-      <c r="K31" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32">
         <v>0.27</v>
@@ -10720,7 +11004,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="59">
         <v>35.9</v>
@@ -10750,12 +11034,12 @@
         <v>4.3</v>
       </c>
       <c r="K33" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34">
         <v>12.3</v>
@@ -10790,7 +11074,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -10802,22 +11086,22 @@
         <v>92.1</v>
       </c>
       <c r="E35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F35" t="s">
         <v>301</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>302</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>303</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>304</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>305</v>
-      </c>
-      <c r="J35" t="s">
-        <v>306</v>
       </c>
       <c r="K35">
         <v>54</v>
@@ -10825,7 +11109,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B36">
         <v>9.9</v>
@@ -10855,12 +11139,12 @@
         <v>36</v>
       </c>
       <c r="K36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B37">
         <v>25.3</v>
@@ -10895,7 +11179,7 @@
     </row>
     <row r="38" spans="1:19" s="1" customFormat="1" ht="30">
       <c r="A38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38"/>
       <c r="C38">
@@ -10926,15 +11210,15 @@
         <v>12</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L39">
         <v>89</v>
@@ -10944,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O39">
         <v>88</v>
@@ -10959,37 +11243,37 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40">
         <v>9.4</v>
       </c>
       <c r="C40" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" t="s">
         <v>308</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>309</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>310</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>311</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>312</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>313</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
+        <v>266</v>
+      </c>
+      <c r="K40" t="s">
         <v>314</v>
-      </c>
-      <c r="J40" t="s">
-        <v>267</v>
-      </c>
-      <c r="K40" t="s">
-        <v>315</v>
       </c>
       <c r="L40">
         <v>70</v>
@@ -10999,7 +11283,7 @@
         <v>0.18506278916060806</v>
       </c>
       <c r="N40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O40">
         <v>20</v>
@@ -11014,37 +11298,37 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B41">
         <v>12.6</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
+        <v>315</v>
+      </c>
+      <c r="E41" t="s">
         <v>316</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>317</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>318</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>319</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>320</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>321</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>322</v>
-      </c>
-      <c r="K41" t="s">
-        <v>323</v>
       </c>
       <c r="L41">
         <v>78</v>
@@ -11064,37 +11348,37 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42">
         <v>10.5</v>
       </c>
       <c r="C42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" t="s">
         <v>324</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>323</v>
+      </c>
+      <c r="F42" t="s">
         <v>325</v>
       </c>
-      <c r="E42" t="s">
-        <v>324</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>326</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>327</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>328</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>329</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>330</v>
-      </c>
-      <c r="K42" t="s">
-        <v>331</v>
       </c>
       <c r="L42">
         <v>89</v>
@@ -11104,7 +11388,7 @@
         <v>1.0352941176470589</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O42">
         <v>90</v>
@@ -11125,10 +11409,10 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s">
         <v>242</v>
-      </c>
-      <c r="B43" t="s">
-        <v>243</v>
       </c>
       <c r="C43">
         <v>0.24</v>
@@ -11162,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q43" s="61">
         <f>O43*P43/(O$39*P$39)</f>
@@ -11171,7 +11455,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="B44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L44">
         <v>69</v>
@@ -11181,7 +11465,7 @@
         <v>5.4725710508922672E-2</v>
       </c>
       <c r="N44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q44" s="61">
         <f>O44*P44/(O$39*P$39)</f>
@@ -11191,23 +11475,23 @@
     <row r="45" spans="1:19" ht="60">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45">
@@ -11220,7 +11504,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B46">
         <v>88.1</v>
@@ -11233,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G46">
         <v>88</v>
@@ -11246,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K46">
         <v>85</v>
@@ -11261,7 +11545,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47">
         <v>35.9</v>
@@ -11274,7 +11558,7 @@
         <v>0.26440640800742959</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G47">
         <v>22</v>
@@ -11287,7 +11571,7 @@
         <v>0.19573863636363639</v>
       </c>
       <c r="J47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K47">
         <v>20</v>
@@ -11295,7 +11579,7 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B48" s="59">
         <v>20.8</v>
@@ -11308,7 +11592,7 @@
         <v>0.21543700340522137</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J48" s="60" t="s">
         <v>53</v>
@@ -11319,7 +11603,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B49">
         <v>84.7</v>
@@ -11332,7 +11616,7 @@
         <v>1.0160329171396143</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G49">
         <v>92</v>
@@ -11345,7 +11629,7 @@
         <v>1.0573347107438016</v>
       </c>
       <c r="J49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K49">
         <v>88</v>
@@ -11353,14 +11637,14 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D50" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F50" s="62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G50">
         <v>90</v>
@@ -11373,12 +11657,12 @@
         <v>0.38352272727272729</v>
       </c>
       <c r="J50" s="62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51">
         <v>65.5</v>
@@ -11391,14 +11675,14 @@
         <v>0.20867944484573317</v>
       </c>
       <c r="F51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I51" s="61">
         <f>G51*H51/(G$46*H$46)</f>
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K51">
         <v>6</v>
@@ -11406,7 +11690,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="J52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K52">
         <v>23</v>
@@ -11414,7 +11698,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="J53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K53">
         <v>5</v>
@@ -11422,26 +11706,26 @@
     </row>
     <row r="54" spans="1:11">
       <c r="J54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="63" t="s">
+        <v>346</v>
+      </c>
+      <c r="B60" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="C60" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="D60" s="63" t="s">
         <v>349</v>
-      </c>
-      <c r="D60" s="63" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B61" s="64">
         <v>91</v>
@@ -11455,7 +11739,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B62" s="65">
         <v>90</v>
@@ -11469,7 +11753,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B63" s="65">
         <v>89</v>
@@ -11478,12 +11762,12 @@
         <v>77</v>
       </c>
       <c r="D63" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B64" s="65">
         <v>12</v>
@@ -11497,7 +11781,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="65">
         <v>30</v>
@@ -11511,7 +11795,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B66" s="65">
         <v>87</v>
@@ -11525,7 +11809,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B67" s="65">
         <v>22</v>
@@ -11539,29 +11823,29 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="64" t="s">
-        <v>359</v>
-      </c>
-      <c r="B68" s="285">
+        <v>358</v>
+      </c>
+      <c r="B68" s="296">
         <v>90</v>
       </c>
-      <c r="C68" s="285">
+      <c r="C68" s="296">
         <v>87</v>
       </c>
-      <c r="D68" s="285">
+      <c r="D68" s="296">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="B69" s="285"/>
-      <c r="C69" s="285"/>
-      <c r="D69" s="285"/>
+        <v>359</v>
+      </c>
+      <c r="B69" s="296"/>
+      <c r="C69" s="296"/>
+      <c r="D69" s="296"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B70" s="65">
         <v>99</v>
@@ -11575,7 +11859,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B71" s="65">
         <v>92</v>
@@ -11589,7 +11873,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B72" s="65">
         <v>93</v>
@@ -11603,7 +11887,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B73" s="65">
         <v>89</v>
@@ -11617,7 +11901,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B74" s="65">
         <v>21</v>
@@ -11631,7 +11915,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B75" s="65">
         <v>14</v>
@@ -11645,7 +11929,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B76" s="65">
         <v>90</v>
@@ -11654,12 +11938,12 @@
         <v>75</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B77" s="65">
         <v>10</v>
@@ -11673,7 +11957,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B78" s="65">
         <v>90</v>
@@ -11687,7 +11971,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B79" s="65">
         <v>89</v>
@@ -11734,188 +12018,301 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
         <v>148</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>977</v>
+      </c>
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4">
+        <v>7.6</v>
+      </c>
+      <c r="C4">
+        <v>134.5</v>
+      </c>
+      <c r="D4" s="53">
+        <f>B4/C4</f>
+        <v>5.6505576208178435E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4">
+        <v>7.6</v>
+      </c>
+      <c r="H4">
+        <v>134.5</v>
+      </c>
+      <c r="I4" s="53">
+        <f>G4/H4</f>
+        <v>5.6505576208178435E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="53">
+        <f>B5/C5</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G5">
+        <v>1.8</v>
+      </c>
+      <c r="H5">
+        <v>113</v>
+      </c>
+      <c r="I5" s="53">
+        <f>G5/H5</f>
+        <v>1.5929203539823009E-2</v>
+      </c>
+      <c r="J5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>7.6</v>
-      </c>
-      <c r="B4">
-        <v>134.5</v>
-      </c>
-      <c r="C4" s="53">
-        <f>A4/B4</f>
-        <v>5.6505576208178435E-2</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="6" spans="1:10">
+      <c r="B6">
+        <v>21.5</v>
+      </c>
+      <c r="C6">
+        <v>365</v>
+      </c>
+      <c r="D6" s="53">
+        <f>B6/C6</f>
+        <v>5.8904109589041097E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6">
+        <v>12.3</v>
+      </c>
+      <c r="H6">
+        <v>130</v>
+      </c>
+      <c r="I6" s="53">
+        <f>G6/H6</f>
+        <v>9.4615384615384615E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7">
+        <v>0.24</v>
+      </c>
+      <c r="C7">
+        <v>190</v>
+      </c>
+      <c r="D7" s="53">
+        <f>B7/C7</f>
+        <v>1.2631578947368421E-3</v>
+      </c>
+      <c r="E7" t="s">
         <v>146</v>
       </c>
-      <c r="F4">
-        <v>7.6</v>
-      </c>
-      <c r="G4">
-        <v>134.5</v>
-      </c>
-      <c r="H4" s="53">
-        <f>F4/G4</f>
-        <v>5.6505576208178435E-2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>0.5</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5" s="53">
-        <f>A5/B5</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5">
-        <v>1.8</v>
-      </c>
-      <c r="G5">
-        <v>113</v>
-      </c>
-      <c r="H5" s="53">
-        <f>F5/G5</f>
-        <v>1.5929203539823009E-2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>21.5</v>
-      </c>
-      <c r="B6">
-        <v>365</v>
-      </c>
-      <c r="C6" s="53">
-        <f>A6/B6</f>
-        <v>5.8904109589041097E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6">
-        <v>12.3</v>
-      </c>
-      <c r="G6">
-        <v>130</v>
-      </c>
-      <c r="H6" s="53">
-        <f>F6/G6</f>
-        <v>9.4615384615384615E-2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>0.24</v>
-      </c>
-      <c r="B7">
-        <v>190</v>
-      </c>
-      <c r="C7" s="53">
-        <f>A7/B7</f>
-        <v>1.2631578947368421E-3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="53"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="C9" t="s">
-        <v>874</v>
-      </c>
-      <c r="D9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>935</v>
-      </c>
-      <c r="B11" t="s">
-        <v>913</v>
-      </c>
-      <c r="C11" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>916</v>
-      </c>
-      <c r="B12">
-        <v>0.04</v>
-      </c>
-      <c r="C12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E12" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>158</v>
+      </c>
+      <c r="D8" s="53">
+        <f>B8/C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="59" t="s">
+        <v>983</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>982</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="59" customFormat="1">
+      <c r="A13" s="59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>928</v>
+      </c>
+      <c r="B16" t="s">
+        <v>959</v>
+      </c>
+      <c r="C16" t="s">
+        <v>960</v>
+      </c>
+      <c r="D16" t="s">
+        <v>971</v>
+      </c>
+      <c r="F16" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>866</v>
+      </c>
+      <c r="C17" s="240" t="s">
+        <v>961</v>
+      </c>
+      <c r="E17" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>964</v>
+      </c>
+      <c r="E18" t="s">
+        <v>962</v>
+      </c>
+      <c r="F18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>794</v>
+        <v>965</v>
+      </c>
+      <c r="E19" t="s">
+        <v>966</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>970</v>
+      </c>
+      <c r="C21" s="295">
+        <v>0.08</v>
+      </c>
+      <c r="E21" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="59" customFormat="1">
+      <c r="A22" s="59" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>970</v>
+      </c>
+      <c r="C23" s="295">
+        <v>0.08</v>
+      </c>
+      <c r="E23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>540</v>
+      </c>
+      <c r="C24" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>969</v>
+      </c>
+      <c r="C25" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>970</v>
+      </c>
+      <c r="C26" s="295">
+        <v>0.08</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -11950,8 +12347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11966,31 +12363,31 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1" t="s">
+        <v>843</v>
+      </c>
+      <c r="G1" t="s">
         <v>808</v>
-      </c>
-      <c r="D1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F1" t="s">
-        <v>844</v>
-      </c>
-      <c r="G1" t="s">
-        <v>809</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O1">
         <v>0.453592</v>
@@ -11998,11 +12395,11 @@
     </row>
     <row r="2" spans="1:15" s="59" customFormat="1">
       <c r="A2" s="59" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -12010,11 +12407,11 @@
         <v>141</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="N2"/>
       <c r="O2" s="59" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -12027,10 +12424,10 @@
         <v>kgCO2e/L diesel</v>
       </c>
       <c r="C3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E3">
         <v>0.45</v>
@@ -12042,42 +12439,42 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L3" t="s">
         <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E4" s="69">
         <v>2.7204943424399999</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K4">
         <v>1180.6199999999999</v>
@@ -12096,16 +12493,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E5" s="69">
         <f>-N4</f>
@@ -12120,7 +12517,7 @@
         <v>-537.18234233351995</v>
       </c>
       <c r="J5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K5">
         <v>1520.2</v>
@@ -12138,16 +12535,16 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B6" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E6">
         <v>-6.8</v>
@@ -12159,13 +12556,13 @@
         <v>-4.7</v>
       </c>
       <c r="H6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K6">
         <v>2014.87</v>
@@ -12183,16 +12580,16 @@
     </row>
     <row r="7" spans="1:15" ht="30">
       <c r="A7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B7" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="D7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E7">
         <v>0.4</v>
@@ -12204,13 +12601,13 @@
         <v>0.6</v>
       </c>
       <c r="H7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K7">
         <v>1181.7</v>
@@ -12228,16 +12625,16 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" t="s">
+        <v>905</v>
+      </c>
+      <c r="C8" t="s">
         <v>907</v>
       </c>
-      <c r="C8" t="s">
-        <v>909</v>
-      </c>
       <c r="D8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E8" s="69">
         <v>0.3</v>
@@ -12249,18 +12646,18 @@
         <v>0.6</v>
       </c>
       <c r="H8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E9">
         <v>1.8</v>
@@ -12274,13 +12671,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E10">
         <v>0.96</v>
@@ -12294,16 +12691,16 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B11" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="C11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E11">
         <v>-388</v>
@@ -12320,7 +12717,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -12333,10 +12730,10 @@
         <v>L/t</v>
       </c>
       <c r="C13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E13" s="69">
         <v>5.8295314000000005</v>
@@ -12366,10 +12763,10 @@
         <v>%</v>
       </c>
       <c r="C14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E14">
         <v>0.1</v>
@@ -12399,10 +12796,10 @@
         <v>%</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E15" s="44">
         <f>'Landfill '!E9</f>
@@ -12433,10 +12830,10 @@
         <v>btu/kwh</v>
       </c>
       <c r="C16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E16">
         <f>'Landfill '!E22</f>
@@ -12459,16 +12856,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E17">
         <v>0.85</v>
@@ -12480,24 +12877,24 @@
         <v>0.9</v>
       </c>
       <c r="H17" t="s">
+        <v>804</v>
+      </c>
+      <c r="I17" t="s">
         <v>805</v>
-      </c>
-      <c r="I17" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E18">
         <v>0.9</v>
@@ -12509,7 +12906,7 @@
         <v>0.95</v>
       </c>
       <c r="H18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1">
@@ -12521,10 +12918,10 @@
         <v>fraction</v>
       </c>
       <c r="C19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -12536,7 +12933,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I19" s="6" t="str">
         <f>'Landfill '!K15</f>
@@ -12545,16 +12942,16 @@
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E20" s="6">
         <v>0.14399999999999999</v>
@@ -12566,34 +12963,34 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="59" customFormat="1">
       <c r="A21" s="59" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="str">
-        <f>AD!A12</f>
+        <f>AD!A16</f>
         <v xml:space="preserve">Methane conversion factor </v>
       </c>
       <c r="B22" t="str">
-        <f>AD!B12</f>
+        <f>AD!B16</f>
         <v>%</v>
       </c>
       <c r="C22" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E22">
-        <f>AD!E12</f>
+        <f>AD!E16</f>
         <v>0.84</v>
       </c>
       <c r="F22">
@@ -12603,30 +13000,30 @@
         <v>1</v>
       </c>
       <c r="H22" t="str">
-        <f>AD!H12</f>
+        <f>AD!H16</f>
         <v>Ebner et al, 2014</v>
       </c>
       <c r="I22" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="str">
-        <f>AD!A14</f>
+        <f>AD!A18</f>
         <v>Methane leaks</v>
       </c>
       <c r="B23" t="str">
-        <f>AD!B14</f>
+        <f>AD!B18</f>
         <v>% methane utilized</v>
       </c>
       <c r="C23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E23">
-        <f>AD!E14</f>
+        <f>AD!E18</f>
         <v>0.03</v>
       </c>
       <c r="F23">
@@ -12636,86 +13033,86 @@
         <v>0.1</v>
       </c>
       <c r="H23" t="str">
-        <f>AD!H14</f>
+        <f>AD!H18</f>
         <v>Ebner et al., 2014</v>
       </c>
       <c r="I23" t="str">
-        <f>AD!J14</f>
+        <f>AD!J18</f>
         <v>3% of methane utilized</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="str">
-        <f>AD!A16</f>
+        <f>AD!A20</f>
         <v>Methane incomplete combustion factor</v>
       </c>
       <c r="B24" t="str">
-        <f>AD!B16</f>
+        <f>AD!B20</f>
         <v>% methane utilized</v>
       </c>
       <c r="C24" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E24">
-        <f>AD!E16</f>
+        <f>AD!E20</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H24" t="str">
-        <f>AD!H16</f>
+        <f>AD!H20</f>
         <v>Dressler, 2012</v>
       </c>
       <c r="I24" t="str">
-        <f>AD!J16</f>
+        <f>AD!J20</f>
         <v>Hildesheim, Gottingen, Celle</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1">
       <c r="A25" s="12" t="str">
-        <f>AD!A17</f>
+        <f>AD!A21</f>
         <v>Incomplete combustion CH4IC</v>
       </c>
       <c r="B25" s="12" t="str">
-        <f>AD!B17</f>
+        <f>AD!B21</f>
         <v>kgCO2e/t</v>
       </c>
       <c r="C25" s="44"/>
       <c r="D25" s="44" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E25" s="12">
-        <f>AD!C17</f>
+        <f>AD!C21</f>
         <v>7.1078263200000009</v>
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="12">
-        <f>AD!D17</f>
+        <f>AD!D21</f>
         <v>0.378882</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="str">
-        <f>AD!A18</f>
+        <f>AD!A22</f>
         <v>Conversion Efficiency</v>
       </c>
       <c r="B26" t="str">
-        <f>AD!B18</f>
+        <f>AD!B22</f>
         <v>MWh/t</v>
       </c>
       <c r="C26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E26">
-        <f>AD!E18</f>
+        <f>AD!E22</f>
         <v>4.19318820416827</v>
       </c>
       <c r="F26">
@@ -12727,31 +13124,31 @@
         <v>4.5</v>
       </c>
       <c r="H26" t="str">
-        <f>AD!H18</f>
+        <f>AD!H22</f>
         <v>Ebner et al, 2014</v>
       </c>
       <c r="I26" t="str">
-        <f>AD!J18</f>
+        <f>AD!J22</f>
         <v>KWh/m3 methane 43% efficiency, if 1m3= 9.8 KWh</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="str">
-        <f>AD!A20</f>
+        <f>AD!A24</f>
         <v>Parasitic load</v>
       </c>
       <c r="B27" t="str">
-        <f>AD!B20</f>
+        <f>AD!B24</f>
         <v>% KWh generated</v>
       </c>
       <c r="C27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E27">
-        <f>AD!E20</f>
+        <f>AD!E24</f>
         <v>0.12</v>
       </c>
       <c r="F27">
@@ -12761,31 +13158,31 @@
         <v>0.2</v>
       </c>
       <c r="H27" t="str">
-        <f>AD!H20</f>
+        <f>AD!H24</f>
         <v>Ebner et al, 2015</v>
       </c>
       <c r="I27" t="str">
-        <f>AD!J20</f>
+        <f>AD!J24</f>
         <v>Parasitic load</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="str">
-        <f>AD!A26</f>
+        <f>AD!A30</f>
         <v>VS destruction</v>
       </c>
       <c r="B28" t="str">
-        <f>AD!B26</f>
+        <f>AD!B30</f>
         <v>%</v>
       </c>
       <c r="C28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E28">
-        <f>AD!E26</f>
+        <f>AD!E30</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="F28">
@@ -12795,31 +13192,31 @@
         <v>0.7</v>
       </c>
       <c r="H28" t="str">
-        <f>AD!H26</f>
+        <f>AD!H30</f>
         <v>Ebner et al., 2014</v>
       </c>
       <c r="I28" t="str">
-        <f>AD!J26</f>
+        <f>AD!J30</f>
         <v>assuming a 55% reduction in VS</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="str">
-        <f>AD!A28</f>
+        <f>AD!A32</f>
         <v>Effluent residual methane factor</v>
       </c>
       <c r="B29" t="str">
-        <f>AD!B28</f>
+        <f>AD!B32</f>
         <v>m3CH4/kgVS</v>
       </c>
       <c r="C29" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E29">
-        <f>AD!E28</f>
+        <f>AD!E32</f>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F29">
@@ -12829,27 +13226,27 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="H29" t="str">
-        <f>AD!H28</f>
+        <f>AD!H32</f>
         <v>Ebner et al., 2014</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="str">
-        <f>AD!A33</f>
+        <f>AD!A37</f>
         <v xml:space="preserve">Direct N2O emission factor </v>
       </c>
       <c r="B30" t="str">
-        <f>AD!B33</f>
+        <f>AD!B37</f>
         <v>kgCO2e/t</v>
       </c>
       <c r="C30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D30" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E30">
-        <f>AD!E33</f>
+        <f>AD!E37</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30">
@@ -12861,31 +13258,31 @@
         <v>0.01</v>
       </c>
       <c r="H30" t="str">
-        <f>AD!H33</f>
+        <f>AD!H37</f>
         <v>IPCC protocol, EF3=0.005</v>
       </c>
       <c r="I30" t="str">
-        <f>AD!I33</f>
+        <f>AD!I37</f>
         <v>assumes that N in is the same as N out adjusted for D losses</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="str">
-        <f>AD!A34</f>
+        <f>AD!A38</f>
         <v>Indirect N volitilization factor</v>
       </c>
       <c r="B31" t="str">
-        <f>AD!B34</f>
+        <f>AD!B38</f>
         <v>KgNvol/kg N</v>
       </c>
       <c r="C31" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E31">
-        <f>AD!E34</f>
+        <f>AD!E38</f>
         <v>0.26</v>
       </c>
       <c r="F31">
@@ -12895,31 +13292,31 @@
         <v>0.5</v>
       </c>
       <c r="H31" t="str">
-        <f>AD!H34</f>
+        <f>AD!H38</f>
         <v>FracGASMS=0.26</v>
       </c>
       <c r="I31">
-        <f>AD!I34</f>
+        <f>AD!I38</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="str">
-        <f>AD!A35</f>
+        <f>AD!A39</f>
         <v>Indirect N2O-N from NH3</v>
       </c>
       <c r="B32" t="str">
-        <f>AD!B35</f>
+        <f>AD!B39</f>
         <v>Kg N2O-N/kg N</v>
       </c>
       <c r="C32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E32">
-        <f>AD!E35</f>
+        <f>AD!E39</f>
         <v>0.01</v>
       </c>
       <c r="F32">
@@ -12929,26 +13326,26 @@
         <v>0.05</v>
       </c>
       <c r="H32" t="str">
-        <f>AD!H35</f>
+        <f>AD!H39</f>
         <v>IPCC, EF4=0.01</v>
       </c>
       <c r="I32" t="str">
-        <f>AD!I35</f>
+        <f>AD!I39</f>
         <v>assumes that N is is the same as N out adjusted for D losses</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="D33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E33">
         <v>0.4</v>
@@ -12962,13 +13359,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="D34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -12985,21 +13382,21 @@
         <v>38</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B36" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E36" s="69">
         <v>0.3</v>
@@ -13011,7 +13408,7 @@
         <v>0.6</v>
       </c>
       <c r="H36" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -13023,10 +13420,10 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="D37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -13038,10 +13435,10 @@
         <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I37" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -13054,10 +13451,10 @@
         <v>Kg N2O-N/kg N</v>
       </c>
       <c r="C38" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E38">
         <f>'Land application'!E13</f>
@@ -13076,17 +13473,17 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B39" t="str">
         <f>'Land application'!B16</f>
         <v>KgNvol/kg N</v>
       </c>
       <c r="C39" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E39">
         <f>'Land application'!E16</f>
@@ -13112,10 +13509,10 @@
         <v>23</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="D40" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E40">
         <v>0.2</v>
@@ -13127,21 +13524,21 @@
         <v>0.48</v>
       </c>
       <c r="H40" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I40" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D41" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E41">
         <v>0.01</v>
@@ -13152,22 +13549,22 @@
         <v>108</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B43" t="str">
         <f>compost!B13</f>
         <v>L/t</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -13179,21 +13576,21 @@
         <v>6</v>
       </c>
       <c r="H43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
+        <v>796</v>
+      </c>
+      <c r="B44" t="s">
         <v>797</v>
       </c>
-      <c r="B44" t="s">
-        <v>798</v>
-      </c>
       <c r="C44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D44" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -13205,7 +13602,7 @@
         <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="13" customHeight="1">
@@ -13218,10 +13615,10 @@
         <v>%/initial C</v>
       </c>
       <c r="C45" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E45">
         <v>0.57999999999999996</v>
@@ -13233,21 +13630,21 @@
         <v>0.83</v>
       </c>
       <c r="H45" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B46" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C46" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D46" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E46">
         <v>0.02</v>
@@ -13259,21 +13656,21 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H46" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B47" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C47" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D47" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E47">
         <v>5.0000000000000001E-3</v>
@@ -13285,7 +13682,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H47" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I47" t="str">
         <f>compost!H20</f>
@@ -13294,16 +13691,16 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>791</v>
+      </c>
+      <c r="B48" t="s">
         <v>792</v>
       </c>
-      <c r="B48" t="s">
-        <v>793</v>
-      </c>
       <c r="C48" s="15" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D48" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E48">
         <v>0.7</v>
@@ -13315,42 +13712,45 @@
         <v>0.9</v>
       </c>
       <c r="H48" t="s">
-        <v>794</v>
+        <v>793</v>
+      </c>
+      <c r="I48" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B49" t="str">
         <f>compost!B35</f>
         <v>%compost/fw</v>
       </c>
       <c r="C49" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E49">
         <v>0.4</v>
       </c>
       <c r="H49" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D50" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E50">
         <v>30</v>
@@ -13364,16 +13764,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
+        <v>798</v>
+      </c>
+      <c r="B51" t="s">
         <v>799</v>
       </c>
-      <c r="B51" t="s">
-        <v>800</v>
-      </c>
       <c r="C51" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="D51" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E51">
         <v>0.38</v>
@@ -13385,47 +13785,47 @@
         <v>0.51</v>
       </c>
       <c r="H51" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B52" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C52" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D52" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E52">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H52" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>881</v>
+      </c>
+      <c r="B53" t="s">
+        <v>885</v>
+      </c>
+      <c r="C53" t="s">
         <v>883</v>
       </c>
-      <c r="B53" t="s">
-        <v>887</v>
-      </c>
-      <c r="C53" t="s">
-        <v>885</v>
-      </c>
       <c r="D53" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E53">
         <v>1.6E-2</v>
       </c>
       <c r="H53" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -13479,19 +13879,19 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>2</v>
@@ -13503,12 +13903,12 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="T1" s="111" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="37" customFormat="1">
       <c r="A2" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C2" s="209">
         <f>C4+C5</f>
@@ -13517,15 +13917,15 @@
       <c r="D2" s="210"/>
       <c r="G2" s="54"/>
       <c r="K2" s="268" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="47" customFormat="1">
       <c r="A3" s="116" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="105" t="s">
         <v>463</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>464</v>
       </c>
       <c r="C3" s="211">
         <f>E3*G3</f>
@@ -13539,24 +13939,24 @@
       <c r="F3" s="118"/>
       <c r="G3" s="224"/>
       <c r="H3" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I3" s="267">
         <v>42010</v>
       </c>
       <c r="J3" s="266" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K3" s="105" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="111" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C4" s="213">
         <f>E3*G4</f>
@@ -13574,7 +13974,7 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="111" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B5" s="111" t="s">
         <v>30</v>
@@ -13588,16 +13988,16 @@
         <v>0.45</v>
       </c>
       <c r="H5" s="111" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I5" s="111"/>
       <c r="K5" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="37" customFormat="1">
       <c r="A6" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="209"/>
@@ -13612,10 +14012,10 @@
       </c>
       <c r="H7" s="111"/>
       <c r="I7" s="111" t="s">
+        <v>651</v>
+      </c>
+      <c r="K7" s="111" t="s">
         <v>652</v>
-      </c>
-      <c r="K7" s="111" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -13631,16 +14031,16 @@
       </c>
       <c r="F8" s="200"/>
       <c r="H8" s="114" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I8" s="114"/>
       <c r="K8" s="27" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="111" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B9" s="206" t="s">
         <v>23</v>
@@ -13653,15 +14053,15 @@
         <v>119</v>
       </c>
       <c r="I9" s="114" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K9" s="206" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="111" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B10" s="206" t="s">
         <v>23</v>
@@ -13674,10 +14074,10 @@
         <v>119</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K10" s="193" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y10" s="38" t="e">
         <f>#REF!*44/12</f>
@@ -13692,7 +14092,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="201">
         <f>Parameters!E27</f>
@@ -13753,7 +14153,7 @@
         <v>0.7</v>
       </c>
       <c r="K15" s="269" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q15" s="111"/>
     </row>
@@ -13775,7 +14175,7 @@
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1">
       <c r="A17" s="111" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B17" s="111" t="s">
         <v>60</v>
@@ -13811,7 +14211,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>133</v>
@@ -13821,7 +14221,7 @@
         <v>0.44377569147881474</v>
       </c>
       <c r="K19" s="111" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q19" s="111"/>
     </row>
@@ -13841,16 +14241,16 @@
         <v>35315</v>
       </c>
       <c r="H20" s="111" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I20" s="111"/>
       <c r="K20" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="269" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B21" s="269" t="s">
         <v>23</v>
@@ -13860,15 +14260,15 @@
       <c r="H21" s="111"/>
       <c r="I21" s="111"/>
       <c r="K21" s="269" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="206" t="s">
+        <v>678</v>
+      </c>
+      <c r="B22" s="206" t="s">
         <v>679</v>
-      </c>
-      <c r="B22" s="206" t="s">
-        <v>680</v>
       </c>
       <c r="D22" s="216"/>
       <c r="E22" s="195">
@@ -13876,14 +14276,14 @@
       </c>
       <c r="F22" s="195"/>
       <c r="G22" s="269" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H22" s="269" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I22" s="111"/>
       <c r="K22" s="269" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -13899,7 +14299,7 @@
       </c>
       <c r="I23" s="111"/>
       <c r="K23" s="269" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="126" customFormat="1">
@@ -13918,7 +14318,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="126" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X24" s="126" t="e">
         <f>#REF!*1.1</f>
@@ -13930,10 +14330,10 @@
     </row>
     <row r="25" spans="1:25" s="116" customFormat="1">
       <c r="A25" s="116" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C25" s="211"/>
       <c r="D25" s="211"/>
@@ -13942,15 +14342,15 @@
         <v>145.73955722402675</v>
       </c>
       <c r="J25" s="116" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K25" s="116" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="116" customFormat="1">
       <c r="A26" s="116" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B26" s="116" t="s">
         <v>23</v>
@@ -13962,33 +14362,33 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="J26" s="116" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K26" s="116" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="42" customFormat="1">
       <c r="A27" s="42" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C27" s="209"/>
       <c r="D27" s="209"/>
       <c r="E27" s="278"/>
       <c r="F27" s="279"/>
       <c r="J27" s="42" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K27" s="42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="47" customFormat="1">
       <c r="A28" s="116" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B28" s="203" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C28" s="212"/>
       <c r="D28" s="211">
@@ -14000,15 +14400,15 @@
       <c r="H28" s="276"/>
       <c r="I28" s="276"/>
       <c r="K28" s="116" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="269" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B29" s="269" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G29" s="195">
         <v>1</v>
@@ -14020,12 +14420,12 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="269" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="B30" s="204" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C30" s="218">
         <f>SUM(C14,C18,C24,C2)</f>
@@ -14037,7 +14437,7 @@
         <v>113</v>
       </c>
       <c r="K31" s="111" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -14050,7 +14450,7 @@
         <v>99</v>
       </c>
       <c r="H34" s="270" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L34" s="37" t="s">
         <v>100</v>
@@ -14059,19 +14459,19 @@
       <c r="N34" s="37"/>
       <c r="O34" s="37"/>
       <c r="P34" s="123" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
       <c r="W34" s="111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="16">
       <c r="B35" s="111" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C35" s="219"/>
       <c r="D35" s="119" t="s">
@@ -14083,7 +14483,7 @@
       <c r="L35" s="125"/>
       <c r="M35" s="37"/>
       <c r="N35" s="123" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O35" s="37" t="s">
         <v>96</v>
@@ -14098,19 +14498,19 @@
         <v>95</v>
       </c>
       <c r="B36" s="111" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C36" s="219" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="219" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E36" s="111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F36" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>94</v>
@@ -16985,7 +17385,7 @@
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="111" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AD90" s="27" t="s">
         <v>74</v>
@@ -17004,7 +17404,7 @@
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B92" s="112">
         <f>D20</f>
@@ -17047,14 +17447,14 @@
         <v>3412</v>
       </c>
       <c r="L94" s="111" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M94" s="113">
         <f>K94/B94</f>
         <v>0.29162393162393163</v>
       </c>
       <c r="N94" s="111" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -17068,7 +17468,7 @@
         <v>68</v>
       </c>
       <c r="K95" s="111" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -17143,60 +17543,60 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="B102" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="C102" s="119" t="s">
         <v>544</v>
       </c>
-      <c r="C102" s="119" t="s">
+      <c r="D102" s="119" t="s">
         <v>545</v>
       </c>
-      <c r="D102" s="119" t="s">
+      <c r="E102" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="E102" s="27" t="s">
+      <c r="G102" s="27" t="s">
         <v>547</v>
-      </c>
-      <c r="G102" s="27" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="C103" s="119" t="s">
         <v>549</v>
       </c>
-      <c r="B103" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="C103" s="119" t="s">
+      <c r="D103" s="119" t="s">
         <v>550</v>
       </c>
-      <c r="D103" s="119" t="s">
+      <c r="E103" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="E103" s="27" t="s">
+      <c r="G103" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="G103" s="27" t="s">
+      <c r="H103" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="H103" s="27" t="s">
+      <c r="J103" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="J103" s="27" t="s">
+      <c r="K103" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="L103" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="K103" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="L103" s="27" t="s">
+      <c r="M103" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="M103" s="27" t="s">
+      <c r="N103" s="27" t="s">
         <v>557</v>
-      </c>
-      <c r="N103" s="27" t="s">
-        <v>558</v>
       </c>
       <c r="O103" s="27">
         <v>-2009</v>
@@ -17204,40 +17604,40 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C104" s="119" t="s">
+        <v>549</v>
+      </c>
+      <c r="D104" s="119" t="s">
         <v>550</v>
-      </c>
-      <c r="D104" s="119" t="s">
-        <v>551</v>
       </c>
       <c r="E104" s="27">
         <v>2.7</v>
       </c>
       <c r="G104" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="H104" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="H104" s="27" t="s">
+      <c r="J104" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="J104" s="27" t="s">
+      <c r="K104" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="L104" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="K104" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="L104" s="27" t="s">
+      <c r="M104" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="M104" s="27" t="s">
+      <c r="N104" s="27" t="s">
         <v>557</v>
-      </c>
-      <c r="N104" s="27" t="s">
-        <v>558</v>
       </c>
       <c r="O104" s="27">
         <v>-2009</v>
@@ -17245,34 +17645,34 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C105" s="119" t="s">
+        <v>559</v>
+      </c>
+      <c r="D105" s="119" t="s">
         <v>560</v>
       </c>
-      <c r="D105" s="119" t="s">
+      <c r="E105" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="G105" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="H105" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="E105" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="G105" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>562</v>
-      </c>
       <c r="J105" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="K105" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="K105" s="27" t="s">
+      <c r="L105" s="27" t="s">
         <v>557</v>
-      </c>
-      <c r="L105" s="27" t="s">
-        <v>558</v>
       </c>
       <c r="M105" s="27">
         <v>-2009</v>
@@ -17280,34 +17680,34 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C106" s="119" t="s">
         <v>55</v>
       </c>
       <c r="D106" s="119" t="s">
+        <v>563</v>
+      </c>
+      <c r="E106" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="G106" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="H106" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="J106" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="K106" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="G106" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="H106" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="J106" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="K106" s="27" t="s">
+      <c r="L106" s="27" t="s">
         <v>566</v>
-      </c>
-      <c r="L106" s="27" t="s">
-        <v>567</v>
       </c>
       <c r="M106" s="27">
         <v>10</v>
@@ -17315,34 +17715,34 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="C107" s="119" t="s">
+        <v>567</v>
+      </c>
+      <c r="D107" s="119" t="s">
         <v>563</v>
       </c>
-      <c r="B107" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="C107" s="119" t="s">
+      <c r="E107" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="D107" s="119" t="s">
-        <v>564</v>
-      </c>
-      <c r="E107" s="27" t="s">
+      <c r="G107" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="H107" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="J107" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="K107" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="G107" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="H107" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="J107" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="K107" s="27" t="s">
-        <v>570</v>
-      </c>
       <c r="L107" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M107" s="27">
         <v>10</v>
@@ -17350,34 +17750,34 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="C108" s="119" t="s">
+        <v>570</v>
+      </c>
+      <c r="D108" s="119" t="s">
         <v>563</v>
       </c>
-      <c r="B108" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="C108" s="119" t="s">
+      <c r="E108" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="D108" s="119" t="s">
-        <v>564</v>
-      </c>
-      <c r="E108" s="27" t="s">
+      <c r="G108" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="H108" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="J108" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="K108" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="G108" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="H108" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="J108" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="K108" s="27" t="s">
-        <v>573</v>
-      </c>
       <c r="L108" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M108" s="27">
         <v>10</v>
@@ -17385,43 +17785,43 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C109" s="119" t="s">
+        <v>573</v>
+      </c>
+      <c r="D109" s="119" t="s">
         <v>574</v>
       </c>
-      <c r="D109" s="119" t="s">
+      <c r="E109" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="H109" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="E109" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="G109" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="H109" s="27" t="s">
+      <c r="J109" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="K109" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="J109" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="K109" s="27" t="s">
+      <c r="L109" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="L109" s="27" t="s">
+      <c r="M109" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="M109" s="27" t="s">
+      <c r="N109" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="N109" s="27" t="s">
+      <c r="O109" s="27" t="s">
         <v>580</v>
-      </c>
-      <c r="O109" s="27" t="s">
-        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -17437,10 +17837,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17468,19 +17868,19 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -17489,7 +17889,7 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="T1" s="111" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" hidden="1">
@@ -17505,7 +17905,7 @@
     </row>
     <row r="3" spans="1:20" hidden="1">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -17517,7 +17917,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:20" hidden="1">
@@ -17561,7 +17961,7 @@
         <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:20" hidden="1">
@@ -17570,7 +17970,7 @@
       </c>
       <c r="B8" s="104"/>
       <c r="H8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:20" hidden="1">
@@ -17581,915 +17981,964 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="13" customFormat="1">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:20" s="45" customFormat="1">
+      <c r="A10" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="C10" s="285">
+        <f>D13*(Globalfactors.csv!E4+Globalfactors.csv!E3)</f>
+        <v>8.4018100074660005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>941</v>
+      </c>
+      <c r="B11" t="s">
+        <v>797</v>
+      </c>
+      <c r="E11">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>944</v>
+      </c>
+      <c r="B12" t="s">
+        <v>942</v>
+      </c>
+      <c r="E12">
+        <v>0.25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>943</v>
+      </c>
+      <c r="B13" t="s">
+        <v>463</v>
+      </c>
+      <c r="D13">
+        <f>E11*E12</f>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="13" customFormat="1">
+      <c r="A14" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="B11" s="15" t="s">
+    <row r="15" spans="1:20">
+      <c r="A15" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="F11" s="227">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="227">
         <f>Parameters!F27</f>
         <v>90.21</v>
       </c>
-      <c r="G11" s="99"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="15" t="s">
+      <c r="G15" s="99"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="228">
+        <v>0.84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>818</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="9">
+        <f>F15*E16</f>
+        <v>75.776399999999995</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="I17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A18" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="228">
-        <v>0.84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>819</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A13" s="14" t="s">
+      <c r="B18" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A19" s="230" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9">
+        <f>D19*Parameters!C19*Parameters!C6</f>
+        <v>42.646957919999991</v>
+      </c>
+      <c r="D19" s="235">
+        <f>D17*E18</f>
+        <v>2.2732919999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A20" s="230" t="s">
+        <v>695</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="235"/>
+      <c r="E20" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" s="4"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="230" t="s">
         <v>426</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="9">
-        <f>F11*E12</f>
-        <v>75.776399999999995</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="I13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A15" s="230" t="s">
-        <v>697</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9">
-        <f>D15*Parameters!C19*Parameters!C6</f>
-        <v>42.646957919999991</v>
-      </c>
-      <c r="D15" s="235">
-        <f>D13*E14</f>
-        <v>2.2732919999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A16" s="230" t="s">
-        <v>696</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" s="4"/>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16"/>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="230" t="s">
-        <v>427</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="21">
-        <f>D17*Parameters!C19*Parameters!C6</f>
+      <c r="C21" s="21">
+        <f>D21*Parameters!C19*Parameters!C6</f>
         <v>7.1078263200000009</v>
       </c>
-      <c r="D17" s="236">
-        <f>D13*E16</f>
+      <c r="D21" s="236">
+        <f>D17*E20</f>
         <v>0.378882</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="B18" s="14" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="229">
+      <c r="D22" s="108"/>
+      <c r="E22" s="229">
         <v>4.19318820416827</v>
       </c>
-      <c r="F18">
+      <c r="F22">
         <f>3.6</f>
         <v>3.6</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G22" s="86">
         <f>4.5</f>
         <v>4.5</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H22" t="s">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
-        <v>865</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I22" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="230" t="s">
+      <c r="J22" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="230" t="s">
+      <c r="B23" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="110">
-        <f>E18*D13/1000</f>
+      <c r="D23" s="110">
+        <f>E22*D17/1000</f>
         <v>0.31774470663433646</v>
       </c>
-      <c r="J19" s="86"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="230" t="s">
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="230" t="s">
+        <v>676</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="D24" s="110"/>
+      <c r="E24" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
         <v>677</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" t="s">
-        <v>678</v>
-      </c>
-      <c r="J20" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>423</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="J24" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>422</v>
+      </c>
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="26">
-        <f>D19*(1-0.12)</f>
+      <c r="D25" s="26">
+        <f>D23*(1-0.12)</f>
         <v>0.27961534183821607</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="237">
-        <f>D21*G22</f>
+      <c r="D26" s="237">
+        <f>D25*G26</f>
         <v>-150.25435902513021</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G26" s="25">
         <f>Globalfactors.csv!E5</f>
         <v>-537.36092603984002</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="B23" s="16" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="234">
-        <f>C15+C17+D22</f>
+      <c r="C27" s="234">
+        <f>C19+C21+D26</f>
         <v>-100.49957478513022</v>
       </c>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:10" s="12" customFormat="1">
-      <c r="A24" s="13" t="s">
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1">
+      <c r="A28" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1">
-      <c r="A25" s="88" t="s">
-        <v>683</v>
-      </c>
-      <c r="C25" s="89"/>
-      <c r="F25" s="222">
+    <row r="29" spans="1:10" s="6" customFormat="1">
+      <c r="A29" s="88" t="s">
+        <v>682</v>
+      </c>
+      <c r="C29" s="89"/>
+      <c r="F29" s="222">
         <f>Parameters!D27</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1">
-      <c r="A26" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="B26" s="6" t="s">
+    <row r="30" spans="1:10" s="6" customFormat="1">
+      <c r="A30" s="46" t="s">
+        <v>681</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="E26" s="10">
+      <c r="C30" s="89"/>
+      <c r="E30" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F26" s="221"/>
-      <c r="H26" s="6" t="s">
+      <c r="F30" s="221"/>
+      <c r="H30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="J26" s="6" t="s">
+      <c r="I30" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1">
+      <c r="A31" s="46" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1">
-      <c r="A27" s="46" t="s">
+      <c r="B31" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D31" s="223">
+        <f>F29*1000*(1-E30)</f>
+        <v>121.49999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1">
+      <c r="A32" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D32" s="223"/>
+      <c r="E32" s="10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32" s="4"/>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>712</v>
+      </c>
+      <c r="B33" t="s">
+        <v>713</v>
+      </c>
+      <c r="D33" s="90">
+        <f>D31*E32</f>
+        <v>6.5609999999999991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>686</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="87">
+        <f>D33*Parameters!C19*Parameters!C6</f>
+        <v>123.08435999999999</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
         <v>395</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="87">
+        <f>D37+D40</f>
+        <v>17.723199999999999</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
         <v>397</v>
       </c>
-      <c r="D27" s="223">
-        <f>F25*1000*(1-E26)</f>
-        <v>121.49999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="6" customFormat="1">
-      <c r="A28" s="46" t="s">
-        <v>688</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D28" s="223"/>
-      <c r="E28" s="10">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" s="4"/>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>720</v>
-      </c>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>713</v>
-      </c>
-      <c r="B29" t="s">
-        <v>714</v>
-      </c>
-      <c r="D29" s="90">
-        <f>D27*E28</f>
-        <v>6.5609999999999991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>687</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="87">
-        <f>D29*Parameters!C19*Parameters!C6</f>
-        <v>123.08435999999999</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>396</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="87">
-        <f>D33+D36</f>
-        <v>17.723199999999999</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" t="s">
-        <v>398</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="F32" s="8">
+      <c r="C36" s="5"/>
+      <c r="F36" s="8">
         <f>Parameters!G34</f>
         <v>5600</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>689</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>688</v>
+      </c>
+      <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="9">
-        <f>F32/1000*Parameters!C$16*Parameters!$C$5*E33</f>
+      <c r="D37" s="9">
+        <f>F36/1000*Parameters!C$16*Parameters!$C$5*E37</f>
         <v>11.659999999999998</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E37" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" t="s">
+      <c r="G37" s="4"/>
+      <c r="H37" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>703</v>
-      </c>
-      <c r="B34" t="s">
-        <v>692</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10">
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>702</v>
+      </c>
+      <c r="B38" t="s">
+        <v>691</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10">
         <v>0.26</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" t="s">
-        <v>437</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>706</v>
-      </c>
-      <c r="B35" t="s">
-        <v>691</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="G38" s="6"/>
+      <c r="H38" t="s">
+        <v>436</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>705</v>
+      </c>
+      <c r="B39" t="s">
+        <v>690</v>
+      </c>
+      <c r="E39" s="10">
         <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" t="s">
-        <v>429</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="G39" s="6"/>
+      <c r="H39" t="s">
+        <v>428</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>690</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>689</v>
+      </c>
+      <c r="B40" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="9">
-        <f>E35/1000*F32*E34*Parameters!C16*Parameters!C5</f>
+      <c r="D40" s="9">
+        <f>E39/1000*F36*E38*Parameters!C16*Parameters!C5</f>
         <v>6.0632000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1">
-      <c r="A37" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="41" spans="1:10" s="3" customFormat="1">
+      <c r="A41" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="20">
-        <f>D30+D31</f>
+      <c r="C41" s="20">
+        <f>D34+D35</f>
         <v>140.80756</v>
       </c>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" s="12" customFormat="1">
-      <c r="A38" s="13" t="s">
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" s="12" customFormat="1">
+      <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1">
-      <c r="A39" s="46" t="s">
-        <v>900</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="G39" s="271">
+    <row r="43" spans="1:10" s="6" customFormat="1">
+      <c r="A43" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="G43" s="271">
         <f>Globalfactors.csv!E8</f>
         <v>0.3</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="H43" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="6" customFormat="1">
+      <c r="A44" s="46" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" s="6" customFormat="1">
-      <c r="A40" s="46" t="s">
-        <v>901</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="233">
+      <c r="E44" s="233">
         <f>Globalfactors.csv!E34</f>
         <v>20</v>
       </c>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:10" s="6" customFormat="1">
-      <c r="A41" s="46" t="s">
-        <v>903</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="E41" s="233"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>704</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="223">
-        <f>E40*G39*(Globalfactors.csv!E4+Globalfactors.csv!E3)</f>
-        <v>19.022966054640001</v>
-      </c>
-      <c r="H42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="92">
-        <f>F32*(1-E33-E34-E43)</f>
-        <v>4004</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" t="s">
-        <v>432</v>
-      </c>
-      <c r="J43" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>701</v>
-      </c>
-      <c r="B44" t="s">
-        <v>691</v>
-      </c>
-      <c r="D44" s="9">
-        <f>D43*Parameters!C$16*Parameters!$C$5/1000*E44</f>
-        <v>20.842250000000003</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H44" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>702</v>
-      </c>
-      <c r="B45" t="s">
-        <v>692</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H45" t="s">
-        <v>699</v>
-      </c>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1">
+      <c r="A45" s="46" t="s">
+        <v>901</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="E45" s="233"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="223">
+        <f>E44*G43*(Globalfactors.csv!E4+Globalfactors.csv!E3)</f>
+        <v>19.022966054640001</v>
+      </c>
+      <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="92">
+        <f>F36*(1-E37-E38-E47)</f>
+        <v>4004</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" t="s">
+        <v>431</v>
+      </c>
+      <c r="J47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>700</v>
+      </c>
+      <c r="B48" t="s">
+        <v>690</v>
+      </c>
+      <c r="D48" s="9">
+        <f>D47*Parameters!C$16*Parameters!$C$5/1000*E48</f>
+        <v>20.842250000000003</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>701</v>
+      </c>
+      <c r="B49" t="s">
         <v>691</v>
       </c>
-      <c r="D46" s="9">
-        <f>E46*E45*D43*Parameters!C16*Parameters!C5/1000</f>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>705</v>
+      </c>
+      <c r="B50" t="s">
+        <v>690</v>
+      </c>
+      <c r="D50" s="9">
+        <f>E50*E49*D47*Parameters!C16*Parameters!C5/1000</f>
         <v>3.3347600000000002</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E50" s="10">
         <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="H46" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>396</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="H50" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>395</v>
+      </c>
+      <c r="B51" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="18">
-        <f>D44+D46</f>
+      <c r="D51" s="18">
+        <f>D48+D50</f>
         <v>24.177010000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="3" customFormat="1">
-      <c r="A48" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="52" spans="1:11" s="3" customFormat="1">
+      <c r="A52" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="20">
-        <f>D42+D47</f>
+      <c r="C52" s="20">
+        <f>D46+D51</f>
         <v>43.199976054640004</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="13" customFormat="1">
-      <c r="A49" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D49" s="107"/>
-    </row>
-    <row r="50" spans="1:11" s="116" customFormat="1" ht="14">
-      <c r="A50" s="116" t="s">
-        <v>487</v>
-      </c>
-      <c r="B50" s="116" t="s">
-        <v>712</v>
-      </c>
-      <c r="C50" s="211"/>
-      <c r="D50" s="211"/>
-      <c r="F50" s="220">
+    <row r="53" spans="1:11" s="13" customFormat="1">
+      <c r="A53" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D53" s="107"/>
+    </row>
+    <row r="54" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A54" s="116" t="s">
+        <v>486</v>
+      </c>
+      <c r="B54" s="116" t="s">
+        <v>711</v>
+      </c>
+      <c r="C54" s="211"/>
+      <c r="D54" s="211"/>
+      <c r="F54" s="220">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="H50" s="116" t="s">
-        <v>669</v>
-      </c>
-      <c r="I50" s="116" t="s">
-        <v>709</v>
-      </c>
-      <c r="J50" s="116" t="s">
+      <c r="H54" s="116" t="s">
+        <v>668</v>
+      </c>
+      <c r="I54" s="116" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="116" customFormat="1" ht="14">
-      <c r="A51" s="116" t="s">
-        <v>721</v>
-      </c>
-      <c r="B51" s="116" t="s">
-        <v>711</v>
-      </c>
-      <c r="C51" s="211"/>
-      <c r="D51" s="211"/>
-      <c r="F51" s="205">
+      <c r="J54" s="116" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A55" s="116" t="s">
+        <v>720</v>
+      </c>
+      <c r="B55" s="116" t="s">
+        <v>710</v>
+      </c>
+      <c r="C55" s="211"/>
+      <c r="D55" s="211"/>
+      <c r="F55" s="205">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="I51" s="116">
+      <c r="I55" s="116">
         <f>+-3%</f>
         <v>-0.03</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="47" customFormat="1">
-      <c r="A52" s="116" t="s">
-        <v>540</v>
-      </c>
-      <c r="B52" s="231" t="s">
-        <v>710</v>
-      </c>
-      <c r="C52" s="234">
-        <f>-D58*Parameters!C17</f>
+    <row r="56" spans="1:11" s="47" customFormat="1">
+      <c r="A56" s="116" t="s">
+        <v>539</v>
+      </c>
+      <c r="B56" s="231" t="s">
+        <v>709</v>
+      </c>
+      <c r="C56" s="234">
+        <f>-D62*Parameters!C17</f>
         <v>-33.986464744643051</v>
       </c>
-      <c r="D52" s="283">
-        <f>F50*(1-F51)</f>
+      <c r="D56" s="283">
+        <f>F54*(1-F55)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F52" s="169"/>
-      <c r="J52" s="266" t="s">
-        <v>930</v>
-      </c>
-      <c r="K52" s="190"/>
-    </row>
-    <row r="53" spans="1:11" s="47" customFormat="1">
-      <c r="A53" s="116" t="s">
-        <v>921</v>
-      </c>
-      <c r="B53" s="266" t="s">
-        <v>922</v>
-      </c>
-      <c r="D53" s="234">
-        <f>F11*0.7</f>
+      <c r="F56" s="169"/>
+      <c r="J56" s="266" t="s">
+        <v>923</v>
+      </c>
+      <c r="K56" s="190"/>
+    </row>
+    <row r="57" spans="1:11" s="47" customFormat="1">
+      <c r="A57" s="116" t="s">
+        <v>914</v>
+      </c>
+      <c r="B57" s="266" t="s">
+        <v>915</v>
+      </c>
+      <c r="D57" s="234">
+        <f>F15*0.7</f>
         <v>63.146999999999991</v>
       </c>
-      <c r="F53" s="169"/>
-      <c r="J53" s="203"/>
-      <c r="K53" s="190"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="116" t="s">
-        <v>931</v>
-      </c>
-      <c r="B54" t="s">
-        <v>918</v>
-      </c>
-      <c r="D54" s="21">
-        <f>(D53)*12/16</f>
-        <v>47.360249999999994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="116" t="s">
-        <v>923</v>
-      </c>
-      <c r="B55" t="s">
-        <v>919</v>
-      </c>
-      <c r="D55" s="21">
-        <f>D53/0.6-D53</f>
-        <v>42.097999999999999</v>
-      </c>
-      <c r="J55" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="116" t="s">
-        <v>928</v>
-      </c>
-      <c r="B56" t="s">
-        <v>929</v>
-      </c>
-      <c r="D56" s="21">
-        <f>D55*12/44</f>
-        <v>11.481272727272726</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="116" t="s">
-        <v>924</v>
-      </c>
-      <c r="B57" t="s">
-        <v>925</v>
-      </c>
-      <c r="D57" s="86">
-        <f>F50-D56-D54</f>
-        <v>86.898034496754022</v>
-      </c>
+      <c r="F57" s="169"/>
+      <c r="J57" s="203"/>
+      <c r="K57" s="190"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="116" t="s">
-        <v>926</v>
-      </c>
-      <c r="D58" s="86">
-        <f>D52*(F58)</f>
+        <v>924</v>
+      </c>
+      <c r="B58" t="s">
+        <v>911</v>
+      </c>
+      <c r="D58" s="21">
+        <f>(D57)*12/16</f>
+        <v>47.360249999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="116" t="s">
+        <v>916</v>
+      </c>
+      <c r="B59" t="s">
+        <v>912</v>
+      </c>
+      <c r="D59" s="21">
+        <f>D57/0.6-D57</f>
+        <v>42.097999999999999</v>
+      </c>
+      <c r="J59" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="116" t="s">
+        <v>921</v>
+      </c>
+      <c r="B60" t="s">
+        <v>922</v>
+      </c>
+      <c r="D60" s="21">
+        <f>D59*12/44</f>
+        <v>11.481272727272726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="116" t="s">
+        <v>917</v>
+      </c>
+      <c r="B61" t="s">
+        <v>918</v>
+      </c>
+      <c r="D61" s="86">
+        <f>F54-D60-D58</f>
+        <v>86.898034496754022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="116" t="s">
+        <v>919</v>
+      </c>
+      <c r="D62" s="86">
+        <f>D56*(F62)</f>
         <v>9.2690358394481045</v>
       </c>
-      <c r="E58">
+      <c r="E62">
         <v>1</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F62" s="10">
         <v>0.4</v>
       </c>
-      <c r="G58" s="53">
-        <f>D58/D57</f>
+      <c r="G62" s="53">
+        <f>D62/D61</f>
         <v>0.10666565582440578</v>
       </c>
-      <c r="I58" t="s">
-        <v>927</v>
-      </c>
-      <c r="J58" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="44" customFormat="1">
-      <c r="A60" s="45" t="s">
-        <v>389</v>
-      </c>
-      <c r="C60" s="183">
-        <f>C23+C37+C48+C52</f>
+      <c r="I62" t="s">
+        <v>920</v>
+      </c>
+      <c r="J62" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="44" customFormat="1">
+      <c r="A64" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="C64" s="183">
+        <f>C27+C41+C52+C56</f>
         <v>49.521496524866727</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="45" customFormat="1">
-      <c r="A61" s="45" t="s">
+    <row r="65" spans="1:9" s="45" customFormat="1">
+      <c r="A65" s="45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" t="s">
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="93">
-        <f>D43-D43*E44-D43*E45-D43*0.02</f>
+      <c r="C66" s="91"/>
+      <c r="D66" s="93">
+        <f>D47-D47*E48-D47*E49-D47*0.02</f>
         <v>3073.0699999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1">
-      <c r="A63" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B63" s="6" t="s">
+    <row r="67" spans="1:9" s="6" customFormat="1">
+      <c r="A67" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="18">
-        <f>D62*E63</f>
+      <c r="D67" s="18">
+        <f>D66*E67</f>
         <v>1229.2280000000001</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E67" s="10">
         <v>0.4</v>
       </c>
-      <c r="H63" s="94">
+      <c r="H67" s="94">
         <f>-'[2]Fertilizer literature'!I1</f>
         <v>0</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" t="s">
+      <c r="I67" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>399</v>
+      </c>
+      <c r="B68" t="s">
         <v>400</v>
       </c>
-      <c r="B64" t="s">
-        <v>401</v>
-      </c>
-      <c r="D64" s="18">
-        <f>G64*D63/1000</f>
+      <c r="D68" s="18">
+        <f>G68*D67/1000</f>
         <v>-8.3587504000000017</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G68" s="4">
         <f>Globalfactors.csv!E6</f>
         <v>-6.8</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I68" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69" t="s">
+        <v>400</v>
+      </c>
+      <c r="D69" s="18">
+        <f>G69*D67/1000</f>
+        <v>-6.6378312000000008</v>
+      </c>
+      <c r="G69">
+        <v>-5.4</v>
+      </c>
+      <c r="I69" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>405</v>
-      </c>
-      <c r="B65" t="s">
-        <v>401</v>
-      </c>
-      <c r="D65" s="18">
-        <f>G65*D63/1000</f>
-        <v>-6.6378312000000008</v>
-      </c>
-      <c r="G65">
-        <v>-5.4</v>
-      </c>
-      <c r="I65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="3" customFormat="1">
-      <c r="A66" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="B66" s="3" t="s">
+    <row r="70" spans="1:9" s="3" customFormat="1">
+      <c r="A70" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="20">
-        <f>D64+D65</f>
+      <c r="C70" s="20">
+        <f>D68+D69</f>
         <v>-14.996581600000003</v>
       </c>
-      <c r="D66" s="238"/>
-    </row>
-    <row r="67" spans="1:9" s="6" customFormat="1">
-      <c r="A67" s="88" t="s">
-        <v>719</v>
-      </c>
-      <c r="C67" s="239">
-        <f>C60+C66</f>
+      <c r="D70" s="238"/>
+    </row>
+    <row r="71" spans="1:9" s="6" customFormat="1">
+      <c r="A71" s="88" t="s">
+        <v>718</v>
+      </c>
+      <c r="C71" s="239">
+        <f>C64+C70</f>
         <v>34.524914924866721</v>
       </c>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" s="6" customFormat="1">
-      <c r="A68" s="88"/>
-      <c r="C68" s="108"/>
-    </row>
-    <row r="69" spans="1:9" s="6" customFormat="1">
-      <c r="A69" s="88"/>
-      <c r="C69" s="108"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="C70" s="86"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="7"/>
-      <c r="C71" s="86"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H72" s="104"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="7"/>
-    </row>
-    <row r="78" spans="1:9" ht="16">
-      <c r="F78" s="75"/>
-      <c r="G78" s="75"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:9" s="6" customFormat="1">
+      <c r="A72" s="88"/>
+      <c r="C72" s="108"/>
+    </row>
+    <row r="73" spans="1:9" s="6" customFormat="1">
+      <c r="A73" s="88"/>
+      <c r="C73" s="108"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="C74" s="86"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="7"/>
+      <c r="C75" s="86"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H76" s="104"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="82" spans="6:7" ht="16">
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18534,19 +18983,19 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -18555,7 +19004,7 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="T1" s="111" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" hidden="1">
@@ -18608,7 +19057,7 @@
         <v>143</v>
       </c>
       <c r="H4" s="81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I4" s="52" t="s">
         <v>85</v>
@@ -18656,10 +19105,10 @@
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1">
       <c r="A8" s="46" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C8" s="232"/>
       <c r="E8" s="235">
@@ -18669,7 +19118,7 @@
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1">
       <c r="A9" s="46" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
@@ -18692,7 +19141,7 @@
         <v>19.022966054640001</v>
       </c>
       <c r="G10" s="240" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
@@ -18700,7 +19149,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -18711,12 +19160,12 @@
         <v>5600</v>
       </c>
       <c r="H11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -18728,17 +19177,17 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C13" s="18"/>
       <c r="E13" s="4">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -18755,32 +19204,32 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="4">
         <v>0.01</v>
       </c>
       <c r="H15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10">
         <v>0.2</v>
       </c>
       <c r="H16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -18797,16 +19246,16 @@
     </row>
     <row r="18" spans="1:11" s="13" customFormat="1">
       <c r="A18" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18" s="107"/>
     </row>
     <row r="19" spans="1:11" s="116" customFormat="1" ht="14">
       <c r="A19" s="116" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="211"/>
@@ -18815,18 +19264,18 @@
         <v>145.73955722402675</v>
       </c>
       <c r="H19" s="116" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I19" s="116" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J19" s="116" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="116" customFormat="1" ht="14">
       <c r="A20" s="116" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C20" s="211"/>
       <c r="D20" s="211"/>
@@ -18837,10 +19286,10 @@
     </row>
     <row r="21" spans="1:11" s="116" customFormat="1" ht="14">
       <c r="A21" s="116" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C21" s="211"/>
       <c r="D21" s="211"/>
@@ -18855,10 +19304,10 @@
     </row>
     <row r="22" spans="1:11" s="47" customFormat="1" ht="14">
       <c r="A22" s="116" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B22" s="231" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D22" s="211">
         <f>F19*(1-F21)</f>
@@ -18866,13 +19315,13 @@
       </c>
       <c r="F22" s="169"/>
       <c r="J22" s="203" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K22" s="190"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="116" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C23" s="234">
         <f>-D23*Parameters!C17</f>
@@ -18894,18 +19343,18 @@
         <v>0.11130000000000002</v>
       </c>
       <c r="H23" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="I23" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="J23" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="44" customFormat="1">
       <c r="A24" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C24" s="183">
         <f>C23+C7</f>
@@ -18923,7 +19372,7 @@
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1">
       <c r="A26" s="88" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B26" s="88" t="s">
         <v>23</v>
@@ -18936,7 +19385,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -18946,7 +19395,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="93">
@@ -18959,7 +19408,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
@@ -18974,15 +19423,15 @@
       </c>
       <c r="G28" s="94"/>
       <c r="H28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D29" s="9">
         <f>F29*D28/1000</f>
@@ -18992,40 +19441,40 @@
         <v>-6.8</v>
       </c>
       <c r="G29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D30" s="9">
         <f>F30*D28/1000</f>
         <v>-9.2836800000000004</v>
       </c>
       <c r="F30" s="10">
-        <f>AD!G65</f>
+        <f>AD!G69</f>
         <v>-5.4</v>
       </c>
       <c r="G30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
+        <v>610</v>
+      </c>
+      <c r="B31" t="s">
         <v>611</v>
-      </c>
-      <c r="B31" t="s">
-        <v>612</v>
       </c>
       <c r="D31" s="9">
         <f>F31*D28/1000</f>
@@ -19035,24 +19484,24 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D32" s="9"/>
       <c r="F32" s="4">
         <v>0.75</v>
       </c>
       <c r="G32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="44" customFormat="1">
       <c r="A33" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" s="95">
         <f>C24+C25</f>
@@ -19075,7 +19524,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19097,19 +19546,19 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -19118,7 +19567,7 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="T1" s="111" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="45">
@@ -19141,7 +19590,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J2" s="43" t="s">
         <v>5</v>
@@ -19149,7 +19598,7 @@
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" hidden="1">
       <c r="A3" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C3" s="11">
         <f>C7</f>
@@ -19160,7 +19609,7 @@
     </row>
     <row r="4" spans="1:20" hidden="1">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -19174,7 +19623,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:20" hidden="1">
@@ -19195,10 +19644,10 @@
     </row>
     <row r="6" spans="1:20" hidden="1">
       <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="J6" t="s">
         <v>443</v>
-      </c>
-      <c r="J6" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:20" hidden="1">
@@ -19230,7 +19679,7 @@
         <v>3.3040000000000003</v>
       </c>
       <c r="J9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:20" hidden="1">
@@ -19238,7 +19687,7 @@
         <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:20" hidden="1">
@@ -19251,7 +19700,7 @@
     </row>
     <row r="12" spans="1:20" s="13" customFormat="1">
       <c r="A12" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C12" s="40">
         <f>C14</f>
@@ -19260,10 +19709,10 @@
     </row>
     <row r="13" spans="1:20" s="46" customFormat="1">
       <c r="A13" s="46" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C13" s="109"/>
       <c r="E13" s="272">
@@ -19271,19 +19720,19 @@
         <v>3</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I13" s="46">
         <f>Globalfactors.csv!F43</f>
         <v>0.4</v>
       </c>
       <c r="J13" s="192" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="46" customFormat="1">
       <c r="A14" s="46" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>30</v>
@@ -19297,10 +19746,10 @@
         <v>3.1704943424400001</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="46" customFormat="1">
@@ -19308,7 +19757,7 @@
     </row>
     <row r="16" spans="1:20" s="13" customFormat="1">
       <c r="A16" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C16" s="40">
         <f>C22+C26</f>
@@ -19317,10 +19766,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -19329,16 +19778,16 @@
         <v>145.73955722402675</v>
       </c>
       <c r="I17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="177">
@@ -19350,22 +19799,22 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="H18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I18">
         <f>Globalfactors.csv!F45</f>
         <v>0.4</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="177"/>
@@ -19377,10 +19826,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="243">
@@ -19388,17 +19837,17 @@
         <v>1.6905788637987105</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="175">
@@ -19407,12 +19856,12 @@
       </c>
       <c r="E21" s="6"/>
       <c r="J21" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1">
       <c r="A22" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>30</v>
@@ -19439,32 +19888,32 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E24" s="4">
         <f>Globalfactors.csv!E47</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H24" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I24">
         <f>Globalfactors.csv!F47</f>
         <v>1E-3</v>
       </c>
       <c r="J24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C25" s="177"/>
       <c r="D25" s="21">
@@ -19475,7 +19924,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="15" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>30</v>
@@ -19486,12 +19935,12 @@
       </c>
       <c r="D26" s="21"/>
       <c r="J26" s="186" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="13" customFormat="1">
       <c r="A27" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C27" s="40">
         <f>C33</f>
@@ -19500,26 +19949,26 @@
     </row>
     <row r="28" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A28" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>603</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>604</v>
       </c>
       <c r="D28" s="110">
         <f>F17*(1-E18)</f>
         <v>61.210614034091243</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K28" s="108"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A29" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>605</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>606</v>
       </c>
       <c r="D29" s="110">
         <f>D28*F29</f>
@@ -19530,13 +19979,13 @@
         <v>0.1</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K29" s="108"/>
     </row>
     <row r="30" spans="1:11" s="6" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="86"/>
@@ -19545,14 +19994,15 @@
         <v>61.210614034091236</v>
       </c>
       <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
       <c r="J30" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="K30" s="108"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="14" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D31" s="86">
         <f>F17*(1-F31)</f>
@@ -19567,16 +20017,16 @@
         <v>0.37857142857142867</v>
       </c>
       <c r="H31" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I31" s="104"/>
       <c r="J31" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="14" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="86"/>
@@ -19593,19 +20043,19 @@
         <v>7.5714285714285734E-2</v>
       </c>
       <c r="H32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I32" s="86"/>
       <c r="J32" s="7" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C33" s="86">
         <f>D32*-44/12</f>
@@ -19615,12 +20065,12 @@
       <c r="F33" s="273"/>
       <c r="I33" s="168"/>
       <c r="J33" s="7" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="45" customFormat="1">
       <c r="A34" s="171" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B34" s="171"/>
       <c r="C34" s="184">
@@ -19635,10 +20085,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B35" t="s">
         <v>620</v>
-      </c>
-      <c r="B35" t="s">
-        <v>621</v>
       </c>
       <c r="C35" s="86"/>
       <c r="D35">
@@ -19649,7 +20099,7 @@
         <v>0.4</v>
       </c>
       <c r="H35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J35" s="7"/>
     </row>
@@ -19669,7 +20119,7 @@
         <v>30</v>
       </c>
       <c r="J36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="46" customFormat="1">
@@ -19677,7 +20127,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="174">
@@ -19688,15 +20138,15 @@
         <v>0.38</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J37" s="181" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -19706,15 +20156,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
@@ -19730,17 +20180,17 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="14" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C40" s="86"/>
       <c r="D40" s="86"/>
       <c r="J40" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1">
       <c r="A41" s="246" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C41" s="245">
         <f>C12+C16+C27+C34</f>
@@ -19750,7 +20200,7 @@
     </row>
     <row r="42" spans="1:10" s="45" customFormat="1">
       <c r="A42" s="171" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B42" s="171"/>
       <c r="C42" s="183">
@@ -19763,7 +20213,7 @@
     </row>
     <row r="43" spans="1:10" s="46" customFormat="1">
       <c r="A43" s="14" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="5"/>
@@ -19775,10 +20225,10 @@
     </row>
     <row r="44" spans="1:10" s="46" customFormat="1">
       <c r="A44" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="174">
@@ -19790,7 +20240,7 @@
     </row>
     <row r="45" spans="1:10" s="88" customFormat="1">
       <c r="A45" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B45" s="88" t="s">
         <v>30</v>
@@ -19806,15 +20256,15 @@
         <v>6.8</v>
       </c>
       <c r="H45" s="88" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J45" s="178" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="88" customFormat="1">
       <c r="A46" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>30</v>
@@ -19830,32 +20280,32 @@
         <v>-5.4</v>
       </c>
       <c r="H46" s="88" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J46" s="178"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B47" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H47" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B48" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="45" customFormat="1">
       <c r="A50" s="171" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B50" s="45" t="s">
         <v>30</v>
@@ -19867,7 +20317,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -19875,10 +20325,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="B52" t="s">
         <v>623</v>
-      </c>
-      <c r="B52" t="s">
-        <v>624</v>
       </c>
       <c r="D52">
         <f>D35</f>
@@ -19887,10 +20337,10 @@
     </row>
     <row r="53" spans="1:10" ht="255">
       <c r="A53" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B53" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C53">
         <f>F53*D52/1000</f>
@@ -19900,10 +20350,10 @@
         <v>-970</v>
       </c>
       <c r="H53" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -19925,7 +20375,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A35"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19997,7 +20447,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -20009,7 +20459,7 @@
     </row>
     <row r="5" spans="1:8" s="45" customFormat="1">
       <c r="A5" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5" s="84">
         <f>F7*E6</f>
@@ -20018,7 +20468,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6" s="82"/>
       <c r="E6" s="106">
@@ -20028,7 +20478,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -20040,7 +20490,7 @@
     </row>
     <row r="8" spans="1:8" s="44" customFormat="1">
       <c r="A8" s="44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>30</v>
@@ -20052,7 +20502,7 @@
     </row>
     <row r="18" spans="1:14" ht="17">
       <c r="A18" s="68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -20060,13 +20510,13 @@
     </row>
     <row r="19" spans="1:14" ht="45">
       <c r="B19" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>2</v>
@@ -20082,7 +20532,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B20">
         <v>88</v>
@@ -20095,7 +20545,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J20" s="51"/>
       <c r="K20" s="73"/>
@@ -20105,7 +20555,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21">
         <v>22</v>
@@ -20118,7 +20568,7 @@
         <v>0.19573863636363639</v>
       </c>
       <c r="E21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F21" s="82">
         <v>-110.52727272727275</v>
@@ -20144,7 +20594,7 @@
         <v>7.3217975206611566E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F22" s="82">
         <v>-37.995041322314044</v>
@@ -20157,7 +20607,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B23">
         <v>92</v>
@@ -20170,7 +20620,7 @@
         <v>1.0573347107438016</v>
       </c>
       <c r="E23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F23" s="82">
         <v>-620.59214876033047</v>
@@ -20197,7 +20647,7 @@
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1">
       <c r="A26" s="148" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -20210,7 +20660,7 @@
     </row>
     <row r="27" spans="1:14" ht="16" thickBot="1">
       <c r="A27" s="148" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J27" s="51"/>
       <c r="K27" s="51"/>
@@ -20220,7 +20670,7 @@
     </row>
     <row r="28" spans="1:14" ht="16" thickBot="1">
       <c r="A28" s="148" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J28" s="51"/>
       <c r="K28" s="51"/>
@@ -20230,37 +20680,37 @@
     </row>
     <row r="29" spans="1:14" ht="16" thickBot="1">
       <c r="A29" s="148" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16" thickBot="1">
       <c r="A30" s="148" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16" thickBot="1">
       <c r="A31" s="148" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16" thickBot="1">
       <c r="A32" s="148" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16" thickBot="1">
       <c r="A33" s="148" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16" thickBot="1">
       <c r="A34" s="148" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16" thickBot="1">
       <c r="A35" s="149" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16" thickTop="1"/>
@@ -20306,19 +20756,19 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -20327,12 +20777,12 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="T1" s="111" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C2" s="208"/>
       <c r="D2" s="208"/>
@@ -20341,103 +20791,103 @@
     </row>
     <row r="3" spans="1:20">
       <c r="B3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H3">
         <f>2.6/16</f>
         <v>0.16250000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G4">
         <v>-1225</v>
       </c>
       <c r="H4" s="259" t="s">
+        <v>751</v>
+      </c>
+      <c r="I4" t="s">
         <v>752</v>
       </c>
-      <c r="I4" t="s">
-        <v>753</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G5">
         <v>6.8</v>
       </c>
       <c r="H5" s="259" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I5">
         <v>6.8</v>
       </c>
       <c r="J5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6" s="259" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G7">
         <f>-1081*1.1</f>
         <v>-1189.1000000000001</v>
       </c>
       <c r="H7" s="259" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I7" s="258" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C8">
         <f>G7*H3</f>
@@ -20504,10 +20954,10 @@
         <v>-177</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -20547,7 +20997,7 @@
         <v>55</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -20592,40 +21042,40 @@
     <row r="46" spans="1:13">
       <c r="A46" s="55"/>
       <c r="B46" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>416</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="E46" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="F46" s="70" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="I46" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="J46" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="K46" s="70" t="s">
+        <v>419</v>
+      </c>
+      <c r="L46" s="70" t="s">
         <v>418</v>
       </c>
-      <c r="C46" s="70" t="s">
-        <v>417</v>
-      </c>
-      <c r="D46" s="70" t="s">
-        <v>413</v>
-      </c>
-      <c r="E46" s="70" t="s">
-        <v>415</v>
-      </c>
-      <c r="F46" s="70" t="s">
-        <v>411</v>
-      </c>
-      <c r="G46" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="H46" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="I46" s="70" t="s">
-        <v>414</v>
-      </c>
-      <c r="J46" s="70" t="s">
-        <v>416</v>
-      </c>
-      <c r="K46" s="70" t="s">
+      <c r="M46" s="70" t="s">
         <v>420</v>
-      </c>
-      <c r="L46" s="70" t="s">
-        <v>419</v>
-      </c>
-      <c r="M46" s="70" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -20758,7 +21208,7 @@
     </row>
     <row r="83" spans="2:8">
       <c r="B83" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -20828,13 +21278,13 @@
     </row>
     <row r="91" spans="2:8" ht="45">
       <c r="C91" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>2</v>
@@ -20842,7 +21292,7 @@
     </row>
     <row r="92" spans="2:8">
       <c r="B92" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C92">
         <v>88</v>
@@ -20854,12 +21304,12 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C93">
         <v>22</v>
@@ -20871,7 +21321,7 @@
         <v>0.19573863636363639</v>
       </c>
       <c r="F93" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="2:8">
@@ -20888,12 +21338,12 @@
         <v>7.3217975206611566E-2</v>
       </c>
       <c r="F94" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C95">
         <v>92</v>
@@ -20905,7 +21355,7 @@
         <v>1.0573347107438016</v>
       </c>
       <c r="F95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15740" tabRatio="500" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="984">
   <si>
     <t>Hauling</t>
   </si>
@@ -4476,7 +4476,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4926,6 +4926,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="445">
     <cellStyle name="Bad 2" xfId="17"/>
@@ -5698,11 +5704,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138986168"/>
-        <c:axId val="2091208856"/>
+        <c:axId val="-2056725448"/>
+        <c:axId val="-2056301992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138986168"/>
+        <c:axId val="-2056725448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5712,7 +5718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091208856"/>
+        <c:crossAx val="-2056301992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5720,7 +5726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091208856"/>
+        <c:axId val="-2056301992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5731,7 +5737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138986168"/>
+        <c:crossAx val="-2056725448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6213,11 +6219,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2091284840"/>
-        <c:axId val="2091287816"/>
+        <c:axId val="-2057231944"/>
+        <c:axId val="-2057079672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2091284840"/>
+        <c:axId val="-2057231944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6227,7 +6233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091287816"/>
+        <c:crossAx val="-2057079672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6235,7 +6241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091287816"/>
+        <c:axId val="-2057079672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6264,7 +6270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091284840"/>
+        <c:crossAx val="-2057231944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7316,11 +7322,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="-2091616280"/>
-        <c:axId val="-2091619112"/>
+        <c:axId val="2088838840"/>
+        <c:axId val="2088947176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2091616280"/>
+        <c:axId val="2088838840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7340,7 +7346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091619112"/>
+        <c:crossAx val="2088947176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7348,7 +7354,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2091619112"/>
+        <c:axId val="2088947176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7377,7 +7383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091616280"/>
+        <c:crossAx val="2088838840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7891,27 +7897,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:W87"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="38.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="15" width="11" customWidth="1"/>
+    <col min="12" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="44" customFormat="1" ht="13" customHeight="1">
+    <row r="1" spans="1:21" s="44" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>659</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>662</v>
       </c>
@@ -7946,7 +7952,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>664</v>
       </c>
@@ -7961,7 +7967,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>663</v>
       </c>
@@ -7976,7 +7982,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -7997,7 +8003,7 @@
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -8018,7 +8024,7 @@
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>642</v>
       </c>
@@ -8035,7 +8041,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="47" customFormat="1">
+    <row r="8" spans="1:21" s="47" customFormat="1">
       <c r="A8" s="116" t="s">
         <v>650</v>
       </c>
@@ -8056,7 +8062,7 @@
       <c r="I8" s="105"/>
       <c r="J8" s="105"/>
     </row>
-    <row r="9" spans="1:20" s="47" customFormat="1">
+    <row r="9" spans="1:21" s="47" customFormat="1">
       <c r="A9" s="116" t="s">
         <v>783</v>
       </c>
@@ -8068,7 +8074,7 @@
       <c r="I9" s="105"/>
       <c r="J9" s="105"/>
     </row>
-    <row r="10" spans="1:20" s="105" customFormat="1" ht="14">
+    <row r="10" spans="1:21" s="105" customFormat="1" ht="14">
       <c r="A10" s="105" t="s">
         <v>459</v>
       </c>
@@ -8093,7 +8099,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="105" customFormat="1" ht="14">
+    <row r="11" spans="1:21" s="105" customFormat="1" ht="14">
       <c r="A11" s="105" t="s">
         <v>461</v>
       </c>
@@ -8118,7 +8124,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="27" customFormat="1" ht="14">
+    <row r="12" spans="1:21" s="27" customFormat="1" ht="14">
       <c r="A12" s="111" t="s">
         <v>460</v>
       </c>
@@ -8143,9 +8149,9 @@
         <v>458</v>
       </c>
       <c r="N12" s="111"/>
-      <c r="T12" s="119"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="119"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>643</v>
       </c>
@@ -8161,8 +8167,9 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>424</v>
       </c>
@@ -8179,7 +8186,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" s="43" t="s">
         <v>781</v>
       </c>
@@ -8187,7 +8194,7 @@
       <c r="C15" s="197"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>598</v>
       </c>
@@ -8207,7 +8214,7 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>706</v>
       </c>
@@ -8227,7 +8234,7 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>724</v>
       </c>
@@ -8247,7 +8254,7 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>423</v>
       </c>
@@ -8266,7 +8273,7 @@
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:19" s="45" customFormat="1">
+    <row r="20" spans="1:20" s="45" customFormat="1">
       <c r="A20" s="27" t="s">
         <v>134</v>
       </c>
@@ -8279,29 +8286,29 @@
       <c r="E20" s="27"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
-      <c r="R21" s="69"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="S21" s="69"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
-      <c r="R22" s="69"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="S22" s="69"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
-      <c r="R23" s="69" t="s">
+      <c r="S23" s="69" t="s">
         <v>766</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="44" customFormat="1">
+    <row r="24" spans="1:20" s="44" customFormat="1">
       <c r="A24" s="45" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="37" thickBot="1">
+    <row r="25" spans="1:20" ht="37" thickBot="1">
       <c r="A25" s="158" t="s">
         <v>661</v>
       </c>
@@ -8348,16 +8355,19 @@
         <v>533</v>
       </c>
       <c r="P25" s="164" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q25" s="164" t="s">
         <v>955</v>
       </c>
-      <c r="Q25" s="164" t="s">
+      <c r="R25" s="164" t="s">
         <v>956</v>
       </c>
-      <c r="R25" s="167" t="s">
+      <c r="S25" s="167" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17" thickTop="1" thickBot="1">
+    <row r="26" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A26" s="148" t="s">
         <v>731</v>
       </c>
@@ -8375,10 +8385,11 @@
       <c r="M26" s="148"/>
       <c r="N26" s="151"/>
       <c r="O26" s="154"/>
-      <c r="P26" s="286"/>
+      <c r="P26" s="297"/>
       <c r="Q26" s="286"/>
-    </row>
-    <row r="27" spans="1:19" ht="16" thickBot="1">
+      <c r="R26" s="286"/>
+    </row>
+    <row r="27" spans="1:20" ht="16" thickBot="1">
       <c r="A27" s="148" t="s">
         <v>732</v>
       </c>
@@ -8426,13 +8437,14 @@
       <c r="O27" s="154">
         <v>0.84099999999999997</v>
       </c>
-      <c r="P27" s="286"/>
+      <c r="P27" s="297"/>
       <c r="Q27" s="286"/>
-      <c r="R27" t="s">
+      <c r="R27" s="286"/>
+      <c r="S27" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="16" thickBot="1">
+    <row r="28" spans="1:20" ht="16" thickBot="1">
       <c r="A28" s="148" t="s">
         <v>641</v>
       </c>
@@ -8462,10 +8474,11 @@
       <c r="O28" s="154" t="s">
         <v>821</v>
       </c>
-      <c r="P28" s="286"/>
+      <c r="P28" s="297"/>
       <c r="Q28" s="286"/>
-    </row>
-    <row r="29" spans="1:19" ht="16" thickBot="1">
+      <c r="R28" s="286"/>
+    </row>
+    <row r="29" spans="1:20" ht="16" thickBot="1">
       <c r="A29" s="148" t="s">
         <v>2</v>
       </c>
@@ -8493,10 +8506,11 @@
       <c r="O29" s="154" t="s">
         <v>667</v>
       </c>
-      <c r="P29" s="286"/>
+      <c r="P29" s="297"/>
       <c r="Q29" s="286"/>
-    </row>
-    <row r="30" spans="1:19" ht="16" thickBot="1">
+      <c r="R29" s="286"/>
+    </row>
+    <row r="30" spans="1:20" ht="16" thickBot="1">
       <c r="A30" s="148"/>
       <c r="B30" s="151"/>
       <c r="C30" s="154"/>
@@ -8514,10 +8528,11 @@
       <c r="M30" s="188"/>
       <c r="N30" s="151"/>
       <c r="O30" s="154"/>
-      <c r="P30" s="286"/>
+      <c r="P30" s="297"/>
       <c r="Q30" s="286"/>
-    </row>
-    <row r="31" spans="1:19" ht="16" thickBot="1">
+      <c r="R30" s="286"/>
+    </row>
+    <row r="31" spans="1:20" ht="16" thickBot="1">
       <c r="A31" s="148"/>
       <c r="B31" s="151"/>
       <c r="C31" s="154"/>
@@ -8536,10 +8551,11 @@
       <c r="M31" s="159"/>
       <c r="N31" s="151"/>
       <c r="O31" s="154"/>
-      <c r="P31" s="286"/>
+      <c r="P31" s="297"/>
       <c r="Q31" s="286"/>
-    </row>
-    <row r="32" spans="1:19" ht="16" thickBot="1">
+      <c r="R31" s="286"/>
+    </row>
+    <row r="32" spans="1:20" ht="16" thickBot="1">
       <c r="A32" s="148"/>
       <c r="B32" s="151"/>
       <c r="C32" s="154"/>
@@ -8557,10 +8573,11 @@
       <c r="M32" s="159"/>
       <c r="N32" s="151"/>
       <c r="O32" s="154"/>
-      <c r="P32" s="286"/>
+      <c r="P32" s="297"/>
       <c r="Q32" s="286"/>
-    </row>
-    <row r="33" spans="1:22" ht="16" thickBot="1">
+      <c r="R32" s="286"/>
+    </row>
+    <row r="33" spans="1:23" ht="16" thickBot="1">
       <c r="A33" s="148" t="s">
         <v>734</v>
       </c>
@@ -8578,10 +8595,11 @@
       <c r="M33" s="188"/>
       <c r="N33" s="151"/>
       <c r="O33" s="154"/>
-      <c r="P33" s="286"/>
+      <c r="P33" s="297"/>
       <c r="Q33" s="286"/>
-    </row>
-    <row r="34" spans="1:22" ht="16" thickBot="1">
+      <c r="R33" s="286"/>
+    </row>
+    <row r="34" spans="1:23" ht="16" thickBot="1">
       <c r="A34" s="148" t="s">
         <v>11</v>
       </c>
@@ -8613,13 +8631,14 @@
       <c r="M34" s="159"/>
       <c r="N34" s="151"/>
       <c r="O34" s="154"/>
-      <c r="P34" s="286"/>
+      <c r="P34" s="297"/>
       <c r="Q34" s="286"/>
-      <c r="R34" s="100" t="s">
+      <c r="R34" s="286"/>
+      <c r="S34" s="100" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16" thickBot="1">
+    <row r="35" spans="1:23" ht="16" thickBot="1">
       <c r="A35" s="149" t="s">
         <v>51</v>
       </c>
@@ -8660,16 +8679,17 @@
         <v>0.67123287671232879</v>
       </c>
       <c r="O35" s="155"/>
-      <c r="P35" s="286"/>
+      <c r="P35" s="297"/>
       <c r="Q35" s="286"/>
-      <c r="R35" s="24" t="s">
+      <c r="R35" s="286"/>
+      <c r="S35" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="17" thickTop="1" thickBot="1">
+    <row r="36" spans="1:23" ht="17" thickTop="1" thickBot="1">
       <c r="A36" s="148" t="s">
         <v>737</v>
       </c>
@@ -8687,11 +8707,12 @@
       <c r="M36" s="188"/>
       <c r="N36" s="151"/>
       <c r="O36" s="154"/>
-      <c r="P36" s="286"/>
+      <c r="P36" s="297"/>
       <c r="Q36" s="286"/>
-      <c r="R36" s="24"/>
-    </row>
-    <row r="37" spans="1:22" ht="16" thickBot="1">
+      <c r="R36" s="286"/>
+      <c r="S36" s="24"/>
+    </row>
+    <row r="37" spans="1:23" ht="16" thickBot="1">
       <c r="A37" s="148" t="s">
         <v>738</v>
       </c>
@@ -8709,11 +8730,12 @@
       <c r="M37" s="159"/>
       <c r="N37" s="151"/>
       <c r="O37" s="154"/>
-      <c r="P37" s="286"/>
+      <c r="P37" s="297"/>
       <c r="Q37" s="286"/>
-      <c r="R37" s="24"/>
-    </row>
-    <row r="38" spans="1:22" ht="16" thickBot="1">
+      <c r="R37" s="286"/>
+      <c r="S37" s="24"/>
+    </row>
+    <row r="38" spans="1:23" ht="16" thickBot="1">
       <c r="A38" s="148" t="s">
         <v>103</v>
       </c>
@@ -8750,16 +8772,17 @@
         <v>0.75268817204301086</v>
       </c>
       <c r="O38" s="154"/>
-      <c r="P38" s="286"/>
+      <c r="P38" s="297"/>
       <c r="Q38" s="286"/>
-      <c r="R38" t="s">
+      <c r="R38" s="286"/>
+      <c r="S38" t="s">
         <v>421</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16" thickBot="1">
+    <row r="39" spans="1:23" ht="16" thickBot="1">
       <c r="A39" s="247" t="s">
         <v>733</v>
       </c>
@@ -8774,11 +8797,12 @@
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
-      <c r="P39" s="287"/>
+      <c r="P39" s="59"/>
       <c r="Q39" s="287"/>
-      <c r="R39" s="24"/>
-    </row>
-    <row r="40" spans="1:22" ht="16" thickBot="1">
+      <c r="R39" s="287"/>
+      <c r="S39" s="24"/>
+    </row>
+    <row r="40" spans="1:23" ht="16" thickBot="1">
       <c r="A40" s="148" t="s">
         <v>515</v>
       </c>
@@ -8813,17 +8837,20 @@
       <c r="O40" s="263">
         <v>0.94</v>
       </c>
-      <c r="P40" s="288">
+      <c r="P40" s="165">
+        <v>0.89</v>
+      </c>
+      <c r="Q40" s="288">
         <v>1400</v>
       </c>
-      <c r="Q40" s="288">
+      <c r="R40" s="288">
         <v>1200</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16" thickBot="1">
+    <row r="41" spans="1:23" ht="16" thickBot="1">
       <c r="A41" s="148" t="s">
         <v>516</v>
       </c>
@@ -8858,17 +8885,18 @@
       <c r="O41" s="264">
         <v>0.98179823692937196</v>
       </c>
-      <c r="P41" s="288">
+      <c r="P41" s="165"/>
+      <c r="Q41" s="288">
         <v>1380</v>
       </c>
-      <c r="Q41" s="288">
+      <c r="R41" s="288">
         <v>370</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16" thickBot="1">
+    <row r="42" spans="1:23" ht="16" thickBot="1">
       <c r="A42" s="148" t="s">
         <v>517</v>
       </c>
@@ -8903,19 +8931,20 @@
       <c r="O42" s="264">
         <v>0.79927679923149053</v>
       </c>
-      <c r="P42" s="290">
+      <c r="P42" s="165"/>
+      <c r="Q42" s="290">
         <f>G42*0.36/2</f>
         <v>1434.528</v>
       </c>
-      <c r="Q42" s="290">
+      <c r="R42" s="290">
         <f>G42*0.67/2</f>
         <v>2669.8160000000003</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16" thickBot="1">
+    <row r="43" spans="1:23" ht="16" thickBot="1">
       <c r="A43" s="148" t="s">
         <v>518</v>
       </c>
@@ -8950,17 +8979,18 @@
       <c r="O43" s="264">
         <v>0.97735385922437001</v>
       </c>
-      <c r="P43" s="288">
+      <c r="P43" s="165"/>
+      <c r="Q43" s="288">
         <v>2315</v>
       </c>
-      <c r="Q43" s="288">
+      <c r="R43" s="288">
         <v>330</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16" thickBot="1">
+    <row r="44" spans="1:23" ht="16" thickBot="1">
       <c r="A44" s="148" t="s">
         <v>519</v>
       </c>
@@ -8995,19 +9025,20 @@
       <c r="O44" s="264">
         <v>0.877478471550592</v>
       </c>
-      <c r="P44" s="288">
+      <c r="P44" s="165"/>
+      <c r="Q44" s="288">
         <f>8000*0.4</f>
         <v>3200</v>
       </c>
-      <c r="Q44" s="288">
+      <c r="R44" s="288">
         <f>3000*0.4</f>
         <v>1200</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16" thickBot="1">
+    <row r="45" spans="1:23" ht="16" thickBot="1">
       <c r="A45" s="148" t="s">
         <v>669</v>
       </c>
@@ -9042,17 +9073,18 @@
       <c r="O45" s="264">
         <v>0.56096498593100275</v>
       </c>
-      <c r="P45" s="294">
+      <c r="P45" s="165"/>
+      <c r="Q45" s="294">
         <v>1200</v>
       </c>
-      <c r="Q45" s="288">
+      <c r="R45" s="288">
         <v>977</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16" thickBot="1">
+    <row r="46" spans="1:23" ht="16" thickBot="1">
       <c r="A46" s="148" t="s">
         <v>521</v>
       </c>
@@ -9087,17 +9119,18 @@
       <c r="O46" s="264">
         <v>0.82380040804253563</v>
       </c>
-      <c r="P46" s="292">
+      <c r="P46" s="298"/>
+      <c r="Q46" s="292">
         <v>1170</v>
       </c>
-      <c r="Q46" s="292">
+      <c r="R46" s="292">
         <v>740</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="16" thickBot="1">
+    <row r="47" spans="1:23" ht="16" thickBot="1">
       <c r="A47" s="148" t="s">
         <v>522</v>
       </c>
@@ -9132,17 +9165,18 @@
       <c r="O47" s="264">
         <v>0.90450759080277232</v>
       </c>
-      <c r="P47" s="289">
+      <c r="P47" s="165"/>
+      <c r="Q47" s="289">
         <v>2300</v>
       </c>
-      <c r="Q47" s="289">
+      <c r="R47" s="289">
         <v>300</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16" thickBot="1">
+    <row r="48" spans="1:23" ht="16" thickBot="1">
       <c r="A48" s="148" t="s">
         <v>523</v>
       </c>
@@ -9177,17 +9211,18 @@
       <c r="O48" s="264">
         <v>0.73736998705248713</v>
       </c>
-      <c r="P48" s="293">
+      <c r="P48" s="165"/>
+      <c r="Q48" s="293">
         <v>2010</v>
       </c>
-      <c r="Q48" s="288">
+      <c r="R48" s="288">
         <v>1630</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16" thickBot="1">
+    <row r="49" spans="1:19" ht="16" thickBot="1">
       <c r="A49" s="149" t="s">
         <v>524</v>
       </c>
@@ -9222,18 +9257,19 @@
       <c r="O49" s="265">
         <v>0.99060618444367532</v>
       </c>
-      <c r="P49" s="288">
+      <c r="P49" s="165"/>
+      <c r="Q49" s="288">
         <v>1500</v>
       </c>
-      <c r="Q49" s="291">
+      <c r="R49" s="291">
         <v>1100</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="16" thickTop="1"/>
-    <row r="54" spans="1:18" ht="16" thickBot="1">
+    <row r="50" spans="1:19" ht="16" thickTop="1"/>
+    <row r="54" spans="1:19" ht="16" thickBot="1">
       <c r="A54" s="149" t="s">
         <v>525</v>
       </c>
@@ -9261,11 +9297,12 @@
       <c r="O54" s="168"/>
       <c r="P54" s="168"/>
       <c r="Q54" s="168"/>
-    </row>
-    <row r="55" spans="1:18" ht="16" thickTop="1">
+      <c r="R54" s="168"/>
+    </row>
+    <row r="55" spans="1:19" ht="16" thickTop="1">
       <c r="A55" s="101"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:19">
       <c r="A57" t="s">
         <v>487</v>
       </c>
@@ -9276,7 +9313,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="17">
+    <row r="58" spans="1:19" ht="17">
       <c r="A58" t="s">
         <v>490</v>
       </c>
@@ -9288,7 +9325,7 @@
       </c>
       <c r="K58" s="128"/>
     </row>
-    <row r="59" spans="1:18" ht="17">
+    <row r="59" spans="1:19" ht="17">
       <c r="A59" t="s">
         <v>493</v>
       </c>
@@ -9299,11 +9336,11 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:19">
       <c r="M60" s="129"/>
       <c r="N60" s="130"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:19">
       <c r="A61" s="131"/>
       <c r="B61" s="132" t="s">
         <v>496</v>
@@ -9321,7 +9358,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:19">
       <c r="A62" s="133" t="s">
         <v>500</v>
       </c>
@@ -9341,7 +9378,7 @@
         <v>32.064999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:19">
       <c r="A64" s="135"/>
       <c r="B64" s="136" t="s">
         <v>501</v>
@@ -9862,7 +9899,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="17" thickTop="1" thickBot="1">
+    <row r="81" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A81" s="161" t="s">
         <v>532</v>
       </c>
@@ -9902,7 +9939,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="16" thickTop="1">
+    <row r="82" spans="1:18" ht="16" thickTop="1">
       <c r="A82" s="164" t="s">
         <v>533</v>
       </c>
@@ -9921,7 +9958,7 @@
         <v>0.54263731383696057</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:18">
       <c r="A83" s="167" t="s">
         <v>534</v>
       </c>
@@ -9972,7 +10009,7 @@
         <v>7.7143668844394412E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:18">
       <c r="A84" s="167" t="s">
         <v>535</v>
       </c>
@@ -10023,7 +10060,7 @@
         <v>7.4327199906501884E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:18">
       <c r="A85" s="167" t="s">
         <v>536</v>
       </c>
@@ -10074,7 +10111,7 @@
         <v>0.30667394841267392</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:18">
       <c r="A86" s="167" t="s">
         <v>537</v>
       </c>
@@ -10130,8 +10167,9 @@
       </c>
       <c r="P86" s="168"/>
       <c r="Q86" s="168"/>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86" s="168"/>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="167" t="s">
         <v>538</v>
       </c>
@@ -12020,7 +12058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -20374,8 +20412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20623,7 +20661,7 @@
         <v>381</v>
       </c>
       <c r="F23" s="82">
-        <v>-620.59214876033047</v>
+        <v>-620.59214876033002</v>
       </c>
       <c r="J23" s="51"/>
       <c r="K23" s="73"/>

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="13940" yWindow="0" windowWidth="12700" windowHeight="15640" tabRatio="500" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1002">
   <si>
     <t>Hauling</t>
   </si>
@@ -3128,9 +3128,6 @@
     <t xml:space="preserve">15%-.48% additional degradation to </t>
   </si>
   <si>
-    <t>additional  20% degradation due to fungi</t>
-  </si>
-  <si>
     <t>LA_CS_factor</t>
   </si>
   <si>
@@ -3300,6 +3297,63 @@
   </si>
   <si>
     <t>0-10.5%</t>
+  </si>
+  <si>
+    <t>source for P and K</t>
+  </si>
+  <si>
+    <t>source for TDN</t>
+  </si>
+  <si>
+    <t>blend of peaches, apples and lettuce</t>
+  </si>
+  <si>
+    <t>blend of cannery wastes</t>
+  </si>
+  <si>
+    <t>blend of melon waste and corn cobs</t>
+  </si>
+  <si>
+    <t>Beef magazine based upon dried grounds</t>
+  </si>
+  <si>
+    <t>Beef magazine, garbage, cooked</t>
+  </si>
+  <si>
+    <t>Beef magazine blend of oats and rice</t>
+  </si>
+  <si>
+    <t>Total guess</t>
+  </si>
+  <si>
+    <t>Based upon skim milk</t>
+  </si>
+  <si>
+    <t>additional  80% degradation due to fungi, Bernstadt estimated 1 to 10.5% of initial</t>
+  </si>
+  <si>
+    <t>Carbon stored</t>
+  </si>
+  <si>
+    <t>KgC/t fW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2% to  14% </t>
+  </si>
+  <si>
+    <t>based on literature</t>
+  </si>
+  <si>
+    <t>Smith et al. (2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7% to 6% </t>
+  </si>
+  <si>
+    <t>Bruun</t>
+  </si>
+  <si>
+    <t>literature</t>
   </si>
 </sst>
 </file>
@@ -4029,7 +4083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="445">
+  <cellStyleXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4475,8 +4529,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4554,7 +4616,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4925,15 +4986,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="26" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="445">
+  <cellStyles count="453">
     <cellStyle name="Bad 2" xfId="17"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="18"/>
@@ -5153,6 +5217,10 @@
     <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="19"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -5370,6 +5438,10 @@
     <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="21"/>
@@ -5704,11 +5776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2056725448"/>
-        <c:axId val="-2056301992"/>
+        <c:axId val="2114142984"/>
+        <c:axId val="2114139832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2056725448"/>
+        <c:axId val="2114142984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5718,7 +5790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2056301992"/>
+        <c:crossAx val="2114139832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5726,7 +5798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056301992"/>
+        <c:axId val="2114139832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5737,7 +5809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2056725448"/>
+        <c:crossAx val="2114142984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6219,11 +6291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2057231944"/>
-        <c:axId val="-2057079672"/>
+        <c:axId val="2114072376"/>
+        <c:axId val="2114069384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2057231944"/>
+        <c:axId val="2114072376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6233,7 +6305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057079672"/>
+        <c:crossAx val="2114069384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6241,7 +6313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057079672"/>
+        <c:axId val="2114069384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6270,7 +6342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057231944"/>
+        <c:crossAx val="2114072376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7322,11 +7394,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="2088838840"/>
-        <c:axId val="2088947176"/>
+        <c:axId val="2113939112"/>
+        <c:axId val="2113936280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2088838840"/>
+        <c:axId val="2113939112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7346,7 +7418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088947176"/>
+        <c:crossAx val="2113936280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7354,7 +7426,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088947176"/>
+        <c:axId val="2113936280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7383,7 +7455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088838840"/>
+        <c:crossAx val="2113939112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7899,8 +7971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView topLeftCell="I18" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40:R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7909,12 +7981,13 @@
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" customWidth="1"/>
     <col min="12" max="16" width="11" customWidth="1"/>
+    <col min="19" max="19" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="44" customFormat="1" ht="13" customHeight="1">
@@ -7927,7 +8000,7 @@
       <c r="C1" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="199" t="s">
+      <c r="D1" s="198" t="s">
         <v>641</v>
       </c>
       <c r="E1" s="41" t="s">
@@ -7944,7 +8017,7 @@
       <c r="B2" t="s">
         <v>665</v>
       </c>
-      <c r="C2" s="196">
+      <c r="C2" s="195">
         <f>J66</f>
         <v>0.44445499769952745</v>
       </c>
@@ -7959,7 +8032,7 @@
       <c r="B3" t="s">
         <v>665</v>
       </c>
-      <c r="C3" s="196">
+      <c r="C3" s="195">
         <f>J65</f>
         <v>0.53090857076072773</v>
       </c>
@@ -7974,7 +8047,7 @@
       <c r="B4" t="s">
         <v>665</v>
       </c>
-      <c r="C4" s="196">
+      <c r="C4" s="195">
         <f>J67</f>
         <v>0.77143668844394409</v>
       </c>
@@ -7989,7 +8062,7 @@
       <c r="B5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="197">
+      <c r="C5" s="196">
         <v>265</v>
       </c>
       <c r="D5" s="1"/>
@@ -8010,7 +8083,7 @@
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="197">
+      <c r="C6" s="196">
         <v>28</v>
       </c>
       <c r="D6" s="1"/>
@@ -8031,7 +8104,7 @@
       <c r="B7" t="s">
         <v>644</v>
       </c>
-      <c r="C7" s="194">
+      <c r="C7" s="193">
         <v>0.45</v>
       </c>
       <c r="D7" t="s">
@@ -8042,120 +8115,120 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="47" customFormat="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="115" t="s">
         <v>650</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="104" t="s">
         <v>648</v>
       </c>
-      <c r="C8" s="198" t="s">
+      <c r="C8" s="197" t="s">
         <v>465</v>
       </c>
-      <c r="F8" s="120">
+      <c r="F8" s="119">
         <f>34003/1000000</f>
         <v>3.4002999999999999E-2</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="104" t="s">
         <v>467</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="1:21" s="47" customFormat="1">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="115" t="s">
         <v>783</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="198"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-    </row>
-    <row r="10" spans="1:21" s="105" customFormat="1" ht="14">
-      <c r="A10" s="105" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="197"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="1:21" s="104" customFormat="1" ht="14">
+      <c r="A10" s="104" t="s">
         <v>459</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="110" t="s">
         <v>649</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="121">
+      <c r="C10" s="197"/>
+      <c r="D10" s="120">
         <f>F10/1000*F8</f>
         <v>2.6982740619999999</v>
       </c>
-      <c r="F10" s="117">
+      <c r="F10" s="116">
         <v>79354</v>
       </c>
-      <c r="G10" s="111" t="s">
+      <c r="G10" s="110" t="s">
         <v>589</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="105" t="s">
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="104" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="105" customFormat="1" ht="14">
-      <c r="A11" s="105" t="s">
+    <row r="11" spans="1:21" s="104" customFormat="1" ht="14">
+      <c r="A11" s="104" t="s">
         <v>461</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="110" t="s">
         <v>649</v>
       </c>
-      <c r="C11" s="198"/>
-      <c r="D11" s="121">
+      <c r="C11" s="197"/>
+      <c r="D11" s="120">
         <f>F11/1000*F8*Parameters!C5</f>
         <v>1.8021590000000001E-2</v>
       </c>
-      <c r="F11" s="117">
+      <c r="F11" s="116">
         <v>2</v>
       </c>
-      <c r="G11" s="111" t="s">
+      <c r="G11" s="110" t="s">
         <v>466</v>
       </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="105" t="s">
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="104" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="27" customFormat="1" ht="14">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="110" t="s">
         <v>460</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="110" t="s">
         <v>649</v>
       </c>
-      <c r="C12" s="195"/>
-      <c r="D12" s="122">
+      <c r="C12" s="194"/>
+      <c r="D12" s="121">
         <f>F12*Parameters!C6/1000*F8</f>
         <v>4.1986904399999997E-3</v>
       </c>
       <c r="F12" s="27">
         <v>4.41</v>
       </c>
-      <c r="G12" s="111" t="s">
+      <c r="G12" s="110" t="s">
         <v>466</v>
       </c>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="105" t="s">
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="104" t="s">
         <v>458</v>
       </c>
-      <c r="N12" s="111"/>
-      <c r="U12" s="119"/>
+      <c r="N12" s="110"/>
+      <c r="U12" s="118"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C13" s="271">
+      <c r="C13" s="270">
         <f>SUM(D10:D12)</f>
         <v>2.7204943424399999</v>
       </c>
@@ -8176,7 +8249,7 @@
       <c r="B14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="197">
+      <c r="C14" s="196">
         <v>533.66</v>
       </c>
       <c r="E14" t="s">
@@ -8191,7 +8264,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="197"/>
+      <c r="C15" s="196"/>
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:21">
@@ -8261,7 +8334,7 @@
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="197">
+      <c r="C19" s="196">
         <v>0.67</v>
       </c>
       <c r="D19" s="1"/>
@@ -8280,7 +8353,7 @@
       <c r="B20" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="195">
+      <c r="C20" s="194">
         <v>35315</v>
       </c>
       <c r="E20" s="27"/>
@@ -8288,15 +8361,15 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1"/>
-      <c r="S21" s="69"/>
+      <c r="S21" s="68"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1"/>
-      <c r="S22" s="69"/>
+      <c r="S22" s="68"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1"/>
-      <c r="S23" s="69" t="s">
+      <c r="S23" s="68" t="s">
         <v>766</v>
       </c>
       <c r="T23" t="s">
@@ -8309,379 +8382,379 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="37" thickBot="1">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="157" t="s">
         <v>661</v>
       </c>
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="157" t="s">
         <v>406</v>
       </c>
-      <c r="C25" s="158" t="s">
+      <c r="C25" s="157" t="s">
         <v>527</v>
       </c>
-      <c r="D25" s="158" t="s">
+      <c r="D25" s="157" t="s">
         <v>450</v>
       </c>
-      <c r="E25" s="158" t="s">
+      <c r="E25" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="158" t="s">
+      <c r="F25" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="158" t="s">
+      <c r="G25" s="157" t="s">
         <v>407</v>
       </c>
-      <c r="H25" s="158" t="s">
+      <c r="H25" s="157" t="s">
         <v>480</v>
       </c>
-      <c r="I25" s="158" t="s">
+      <c r="I25" s="157" t="s">
         <v>472</v>
       </c>
-      <c r="J25" s="158" t="s">
+      <c r="J25" s="157" t="s">
         <v>633</v>
       </c>
-      <c r="K25" s="158" t="s">
+      <c r="K25" s="157" t="s">
         <v>529</v>
       </c>
-      <c r="L25" s="158" t="s">
+      <c r="L25" s="157" t="s">
         <v>530</v>
       </c>
-      <c r="M25" s="158" t="s">
+      <c r="M25" s="157" t="s">
         <v>531</v>
       </c>
-      <c r="N25" s="161" t="s">
+      <c r="N25" s="160" t="s">
         <v>532</v>
       </c>
-      <c r="O25" s="158" t="s">
+      <c r="O25" s="157" t="s">
         <v>533</v>
       </c>
-      <c r="P25" s="164" t="s">
+      <c r="P25" s="163" t="s">
         <v>348</v>
       </c>
-      <c r="Q25" s="164" t="s">
+      <c r="Q25" s="163" t="s">
+        <v>954</v>
+      </c>
+      <c r="R25" s="163" t="s">
         <v>955</v>
       </c>
-      <c r="R25" s="164" t="s">
-        <v>956</v>
-      </c>
-      <c r="S25" s="167" t="s">
+      <c r="S25" s="166" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="17" thickTop="1" thickBot="1">
-      <c r="A26" s="148" t="s">
+      <c r="A26" s="147" t="s">
         <v>731</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="257"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="297"/>
-      <c r="Q26" s="286"/>
-      <c r="R26" s="286"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="295"/>
+      <c r="Q26" s="285"/>
+      <c r="R26" s="285"/>
     </row>
     <row r="27" spans="1:20" ht="16" thickBot="1">
-      <c r="A27" s="148" t="s">
+      <c r="A27" s="147" t="s">
         <v>732</v>
       </c>
-      <c r="B27" s="151">
+      <c r="B27" s="150">
         <v>0.3</v>
       </c>
-      <c r="C27" s="154">
+      <c r="C27" s="153">
         <v>0.9</v>
       </c>
-      <c r="D27" s="148">
+      <c r="D27" s="147">
         <f>C27*B27</f>
         <v>0.27</v>
       </c>
-      <c r="E27" s="257">
+      <c r="E27" s="256">
         <f>F27/D27</f>
         <v>334.11111111111109</v>
       </c>
-      <c r="F27" s="251">
+      <c r="F27" s="250">
         <f>H27*B27</f>
         <v>90.21</v>
       </c>
-      <c r="G27" s="274">
+      <c r="G27" s="273">
         <v>9000</v>
       </c>
-      <c r="H27" s="257">
+      <c r="H27" s="256">
         <v>300.7</v>
       </c>
-      <c r="I27" s="251">
+      <c r="I27" s="250">
         <v>0.14399999999999999</v>
       </c>
-      <c r="J27" s="256">
+      <c r="J27" s="255">
         <f>(Parameters!C3*Parameters!M27+Parameters!L27*Parameters!C4+Parameters!N27*Parameters!C2)*1000*B27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="K27" s="151"/>
-      <c r="L27" s="154">
+      <c r="K27" s="150"/>
+      <c r="L27" s="153">
         <v>0.1</v>
       </c>
-      <c r="M27" s="188">
+      <c r="M27" s="187">
         <v>0.1</v>
       </c>
-      <c r="N27" s="151">
+      <c r="N27" s="150">
         <v>0.8</v>
       </c>
-      <c r="O27" s="154">
+      <c r="O27" s="153">
         <v>0.84099999999999997</v>
       </c>
-      <c r="P27" s="297"/>
-      <c r="Q27" s="286"/>
-      <c r="R27" s="286"/>
+      <c r="P27" s="295"/>
+      <c r="Q27" s="285"/>
+      <c r="R27" s="285"/>
       <c r="S27" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16" thickBot="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="147" t="s">
         <v>641</v>
       </c>
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="150" t="s">
         <v>670</v>
       </c>
-      <c r="C28" s="154"/>
-      <c r="D28" s="148" t="s">
+      <c r="C28" s="153"/>
+      <c r="D28" s="147" t="s">
         <v>671</v>
       </c>
-      <c r="E28" s="257"/>
-      <c r="F28" s="251"/>
-      <c r="G28" s="148" t="s">
+      <c r="E28" s="256"/>
+      <c r="F28" s="250"/>
+      <c r="G28" s="147" t="s">
         <v>540</v>
       </c>
-      <c r="H28" s="151" t="s">
+      <c r="H28" s="150" t="s">
         <v>670</v>
       </c>
-      <c r="I28" s="154"/>
-      <c r="J28" s="148" t="s">
+      <c r="I28" s="153"/>
+      <c r="J28" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="151"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="154" t="s">
+      <c r="K28" s="150"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="153" t="s">
         <v>821</v>
       </c>
-      <c r="P28" s="297"/>
-      <c r="Q28" s="286"/>
-      <c r="R28" s="286"/>
+      <c r="P28" s="295"/>
+      <c r="Q28" s="285"/>
+      <c r="R28" s="285"/>
     </row>
     <row r="29" spans="1:20" ht="16" thickBot="1">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="151"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="257"/>
-      <c r="F29" s="251"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="148" t="s">
+      <c r="B29" s="150"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="250"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="147" t="s">
         <v>672</v>
       </c>
-      <c r="K29" s="151"/>
-      <c r="L29" s="154" t="s">
+      <c r="K29" s="150"/>
+      <c r="L29" s="153" t="s">
         <v>667</v>
       </c>
-      <c r="M29" s="159" t="s">
+      <c r="M29" s="158" t="s">
         <v>667</v>
       </c>
-      <c r="N29" s="151" t="s">
+      <c r="N29" s="150" t="s">
         <v>667</v>
       </c>
-      <c r="O29" s="154" t="s">
+      <c r="O29" s="153" t="s">
         <v>667</v>
       </c>
-      <c r="P29" s="297"/>
-      <c r="Q29" s="286"/>
-      <c r="R29" s="286"/>
+      <c r="P29" s="295"/>
+      <c r="Q29" s="285"/>
+      <c r="R29" s="285"/>
     </row>
     <row r="30" spans="1:20" ht="16" thickBot="1">
-      <c r="A30" s="148"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="257"/>
-      <c r="F30" s="251"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="148" t="s">
+      <c r="A30" s="147"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="250"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="147" t="s">
         <v>540</v>
       </c>
-      <c r="K30" s="151"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="188"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="297"/>
-      <c r="Q30" s="286"/>
-      <c r="R30" s="286"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="295"/>
+      <c r="Q30" s="285"/>
+      <c r="R30" s="285"/>
     </row>
     <row r="31" spans="1:20" ht="16" thickBot="1">
-      <c r="A31" s="148"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="257"/>
-      <c r="F31" s="251"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="148">
+      <c r="A31" s="147"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="250"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="147">
         <f>E27*D27</f>
         <v>90.21</v>
       </c>
-      <c r="K31" s="151"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="154"/>
-      <c r="P31" s="297"/>
-      <c r="Q31" s="286"/>
-      <c r="R31" s="286"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="295"/>
+      <c r="Q31" s="285"/>
+      <c r="R31" s="285"/>
     </row>
     <row r="32" spans="1:20" ht="16" thickBot="1">
-      <c r="A32" s="148"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="257"/>
-      <c r="F32" s="251"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="148" t="s">
+      <c r="A32" s="147"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="250"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="147" t="s">
         <v>670</v>
       </c>
-      <c r="K32" s="151"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="154"/>
-      <c r="P32" s="297"/>
-      <c r="Q32" s="286"/>
-      <c r="R32" s="286"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="295"/>
+      <c r="Q32" s="285"/>
+      <c r="R32" s="285"/>
     </row>
     <row r="33" spans="1:23" ht="16" thickBot="1">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="147" t="s">
         <v>734</v>
       </c>
-      <c r="B33" s="151"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="257"/>
-      <c r="F33" s="251"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="188"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="154"/>
-      <c r="P33" s="297"/>
-      <c r="Q33" s="286"/>
-      <c r="R33" s="286"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="250"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="295"/>
+      <c r="Q33" s="285"/>
+      <c r="R33" s="285"/>
     </row>
     <row r="34" spans="1:23" ht="16" thickBot="1">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="151">
+      <c r="B34" s="150">
         <v>0.18</v>
       </c>
-      <c r="C34" s="154">
+      <c r="C34" s="153">
         <f>D34/B34</f>
         <v>0.94444444444444453</v>
       </c>
-      <c r="D34" s="148">
+      <c r="D34" s="147">
         <v>0.17</v>
       </c>
-      <c r="E34" s="257">
+      <c r="E34" s="256">
         <v>887</v>
       </c>
-      <c r="F34" s="251">
+      <c r="F34" s="250">
         <v>150.79</v>
       </c>
-      <c r="G34" s="148">
+      <c r="G34" s="147">
         <f>0.0056*1000000</f>
         <v>5600</v>
       </c>
-      <c r="H34" s="151"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="159"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="297"/>
-      <c r="Q34" s="286"/>
-      <c r="R34" s="286"/>
-      <c r="S34" s="100" t="s">
+      <c r="H34" s="150"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="295"/>
+      <c r="Q34" s="285"/>
+      <c r="R34" s="285"/>
+      <c r="S34" s="99" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="16" thickBot="1">
-      <c r="A35" s="149" t="s">
+      <c r="A35" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="152">
+      <c r="B35" s="151">
         <f>(1-0.927)</f>
         <v>7.2999999999999954E-2</v>
       </c>
-      <c r="C35" s="155">
+      <c r="C35" s="154">
         <f t="shared" ref="C35" si="0">D35/B35</f>
         <v>0.68493150684931559</v>
       </c>
-      <c r="D35" s="149">
+      <c r="D35" s="148">
         <v>0.05</v>
       </c>
-      <c r="E35" s="275">
+      <c r="E35" s="274">
         <v>300</v>
       </c>
-      <c r="F35" s="252">
+      <c r="F35" s="251">
         <v>15</v>
       </c>
-      <c r="G35" s="149">
+      <c r="G35" s="148">
         <v>580</v>
       </c>
-      <c r="H35" s="152"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="155">
+      <c r="H35" s="151"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="154">
         <f>0.009/0.073</f>
         <v>0.12328767123287671</v>
       </c>
-      <c r="M35" s="159">
+      <c r="M35" s="158">
         <f>0.009/0.073</f>
         <v>0.12328767123287671</v>
       </c>
-      <c r="N35" s="152">
+      <c r="N35" s="151">
         <f>0.049/0.073</f>
         <v>0.67123287671232879</v>
       </c>
-      <c r="O35" s="155"/>
-      <c r="P35" s="297"/>
-      <c r="Q35" s="286"/>
-      <c r="R35" s="286"/>
+      <c r="O35" s="154"/>
+      <c r="P35" s="295"/>
+      <c r="Q35" s="285"/>
+      <c r="R35" s="285"/>
       <c r="S35" s="24" t="s">
         <v>52</v>
       </c>
@@ -8690,91 +8763,91 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="17" thickTop="1" thickBot="1">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="147" t="s">
         <v>737</v>
       </c>
-      <c r="B36" s="151"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="257"/>
-      <c r="F36" s="251"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="188"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="154"/>
-      <c r="P36" s="297"/>
-      <c r="Q36" s="286"/>
-      <c r="R36" s="286"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="250"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="295"/>
+      <c r="Q36" s="285"/>
+      <c r="R36" s="285"/>
       <c r="S36" s="24"/>
     </row>
     <row r="37" spans="1:23" ht="16" thickBot="1">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="147" t="s">
         <v>738</v>
       </c>
-      <c r="B37" s="151"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="257"/>
-      <c r="F37" s="251"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="159"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="154"/>
-      <c r="P37" s="297"/>
-      <c r="Q37" s="286"/>
-      <c r="R37" s="286"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="250"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="158"/>
+      <c r="N37" s="150"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="295"/>
+      <c r="Q37" s="285"/>
+      <c r="R37" s="285"/>
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:23" ht="16" thickBot="1">
-      <c r="A38" s="148" t="s">
+      <c r="A38" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="151">
+      <c r="B38" s="150">
         <f>(1-7%)</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="C38" s="154">
+      <c r="C38" s="153">
         <v>0.8</v>
       </c>
-      <c r="D38" s="148">
+      <c r="D38" s="147">
         <f>B38*C38</f>
         <v>0.74399999999999999</v>
       </c>
-      <c r="E38" s="257"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="148">
+      <c r="E38" s="256"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="147">
         <v>1100</v>
       </c>
-      <c r="H38" s="151"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="154">
+      <c r="H38" s="150"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="153">
         <f>0.029/D38</f>
         <v>3.8978494623655914E-2</v>
       </c>
-      <c r="M38" s="159">
+      <c r="M38" s="158">
         <f>0.05/D38</f>
         <v>6.7204301075268827E-2</v>
       </c>
-      <c r="N38" s="151">
+      <c r="N38" s="150">
         <f>0.56/D38</f>
         <v>0.75268817204301086</v>
       </c>
-      <c r="O38" s="154"/>
-      <c r="P38" s="297"/>
-      <c r="Q38" s="286"/>
-      <c r="R38" s="286"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="295"/>
+      <c r="Q38" s="285"/>
+      <c r="R38" s="285"/>
       <c r="S38" t="s">
         <v>421</v>
       </c>
@@ -8783,526 +8856,588 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="16" thickBot="1">
-      <c r="A39" s="247" t="s">
+      <c r="A39" s="246" t="s">
         <v>733</v>
       </c>
-      <c r="B39" s="248"/>
-      <c r="C39" s="248"/>
-      <c r="D39" s="248"/>
-      <c r="H39" s="249"/>
-      <c r="I39" s="249"/>
-      <c r="J39" s="249"/>
+      <c r="B39" s="247"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="247"/>
+      <c r="H39" s="248"/>
+      <c r="I39" s="248"/>
+      <c r="J39" s="248"/>
       <c r="K39" s="59"/>
       <c r="L39" s="59"/>
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
-      <c r="Q39" s="287"/>
-      <c r="R39" s="287"/>
-      <c r="S39" s="24"/>
+      <c r="Q39" s="286"/>
+      <c r="R39" s="286"/>
+      <c r="S39" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="T39" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="40" spans="1:23" ht="16" thickBot="1">
-      <c r="A40" s="148" t="s">
+      <c r="A40" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="B40" s="151">
+      <c r="B40" s="150">
         <v>0.91600000000000004</v>
       </c>
-      <c r="C40" s="154">
+      <c r="C40" s="153">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D40" s="157">
+      <c r="D40" s="156">
         <v>0.88900000000000001</v>
       </c>
-      <c r="E40" s="250">
+      <c r="E40" s="249">
         <v>465.3046875</v>
       </c>
-      <c r="F40" s="250"/>
-      <c r="G40" s="253">
+      <c r="F40" s="249"/>
+      <c r="G40" s="252">
         <v>14656.000000000002</v>
       </c>
-      <c r="K40" s="159">
+      <c r="K40" s="158">
         <v>0.03</v>
       </c>
-      <c r="L40" s="188">
+      <c r="L40" s="187">
         <v>0.11</v>
       </c>
-      <c r="M40" s="188">
+      <c r="M40" s="187">
         <v>0.1</v>
       </c>
-      <c r="N40" s="260">
+      <c r="N40" s="259">
         <v>0.76</v>
       </c>
-      <c r="O40" s="263">
+      <c r="O40" s="262">
         <v>0.94</v>
       </c>
-      <c r="P40" s="165">
+      <c r="P40" s="164">
         <v>0.89</v>
       </c>
-      <c r="Q40" s="288">
+      <c r="Q40" s="287">
         <v>1400</v>
       </c>
-      <c r="R40" s="288">
+      <c r="R40" s="287">
         <v>1200</v>
       </c>
       <c r="S40" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="16" thickBot="1">
+      <c r="A41" s="147" t="s">
+        <v>516</v>
+      </c>
+      <c r="B41" s="150">
+        <v>0.105</v>
+      </c>
+      <c r="C41" s="153">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="D41" s="153">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E41" s="250">
+        <v>435.97247406272294</v>
+      </c>
+      <c r="F41" s="250"/>
+      <c r="G41" s="253">
+        <v>2520</v>
+      </c>
+      <c r="K41" s="158">
+        <v>0.09</v>
+      </c>
+      <c r="L41" s="158">
+        <v>0.02</v>
+      </c>
+      <c r="M41" s="158">
+        <v>0.15</v>
+      </c>
+      <c r="N41" s="260">
+        <v>0.74</v>
+      </c>
+      <c r="O41" s="263">
+        <v>0.98179823692937196</v>
+      </c>
+      <c r="P41" s="164">
+        <v>0.7</v>
+      </c>
+      <c r="Q41" s="287">
+        <v>1380</v>
+      </c>
+      <c r="R41" s="287">
+        <v>370</v>
+      </c>
+      <c r="S41" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="16" thickBot="1">
-      <c r="A41" s="148" t="s">
-        <v>516</v>
-      </c>
-      <c r="B41" s="151">
-        <v>0.105</v>
-      </c>
-      <c r="C41" s="154">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="D41" s="154">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E41" s="251">
-        <v>435.97247406272294</v>
-      </c>
-      <c r="F41" s="251"/>
-      <c r="G41" s="254">
-        <v>2520</v>
-      </c>
-      <c r="K41" s="159">
-        <v>0.09</v>
-      </c>
-      <c r="L41" s="159">
-        <v>0.02</v>
-      </c>
-      <c r="M41" s="159">
-        <v>0.15</v>
-      </c>
-      <c r="N41" s="261">
-        <v>0.74</v>
-      </c>
-      <c r="O41" s="264">
-        <v>0.98179823692937196</v>
-      </c>
-      <c r="P41" s="165"/>
-      <c r="Q41" s="288">
-        <v>1380</v>
-      </c>
-      <c r="R41" s="288">
-        <v>370</v>
-      </c>
-      <c r="S41" t="s">
-        <v>949</v>
+      <c r="T41">
+        <v>180221</v>
+      </c>
+      <c r="U41" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="16" thickBot="1">
-      <c r="A42" s="148" t="s">
+      <c r="A42" s="147" t="s">
         <v>517</v>
       </c>
-      <c r="B42" s="151">
+      <c r="B42" s="150">
         <v>0.29299999999999998</v>
       </c>
-      <c r="C42" s="154">
+      <c r="C42" s="153">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D42" s="154">
+      <c r="D42" s="153">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E42" s="251">
+      <c r="E42" s="250">
         <v>365.25479597205384</v>
       </c>
-      <c r="F42" s="251"/>
-      <c r="G42" s="254">
+      <c r="F42" s="250"/>
+      <c r="G42" s="253">
         <v>7969.6</v>
       </c>
-      <c r="K42" s="159">
+      <c r="K42" s="158">
         <v>0.01</v>
       </c>
-      <c r="L42" s="159">
+      <c r="L42" s="158">
         <v>0.04</v>
       </c>
-      <c r="M42" s="159">
+      <c r="M42" s="158">
         <v>0.17</v>
       </c>
-      <c r="N42" s="261">
+      <c r="N42" s="260">
         <v>0.79</v>
       </c>
-      <c r="O42" s="264">
+      <c r="O42" s="263">
         <v>0.79927679923149053</v>
       </c>
-      <c r="P42" s="165"/>
-      <c r="Q42" s="290">
+      <c r="P42" s="164">
+        <v>0.2</v>
+      </c>
+      <c r="Q42" s="289">
         <f>G42*0.36/2</f>
         <v>1434.528</v>
       </c>
-      <c r="R42" s="290">
+      <c r="R42" s="289">
         <f>G42*0.67/2</f>
         <v>2669.8160000000003</v>
       </c>
       <c r="S42" t="s">
+        <v>949</v>
+      </c>
+      <c r="T42" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="16" thickBot="1">
+      <c r="A43" s="147" t="s">
+        <v>518</v>
+      </c>
+      <c r="B43" s="150">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C43" s="153">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D43" s="153">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E43" s="250">
+        <v>418.04822619567631</v>
+      </c>
+      <c r="F43" s="250"/>
+      <c r="G43" s="253">
+        <v>1232</v>
+      </c>
+      <c r="K43" s="158">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L43" s="158">
+        <v>0</v>
+      </c>
+      <c r="M43" s="158">
+        <v>0.1</v>
+      </c>
+      <c r="N43" s="260">
+        <v>0.82</v>
+      </c>
+      <c r="O43" s="263">
+        <v>0.97735385922437001</v>
+      </c>
+      <c r="P43" s="164">
+        <v>0.7</v>
+      </c>
+      <c r="Q43" s="287">
+        <v>2315</v>
+      </c>
+      <c r="R43" s="287">
+        <v>330</v>
+      </c>
+      <c r="S43" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="16" thickBot="1">
-      <c r="A43" s="148" t="s">
-        <v>518</v>
-      </c>
-      <c r="B43" s="151">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="C43" s="154">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="D43" s="154">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="E43" s="251">
-        <v>418.04822619567631</v>
-      </c>
-      <c r="F43" s="251"/>
-      <c r="G43" s="254">
-        <v>1232</v>
-      </c>
-      <c r="K43" s="159">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L43" s="159">
-        <v>0</v>
-      </c>
-      <c r="M43" s="159">
-        <v>0.1</v>
-      </c>
-      <c r="N43" s="261">
-        <v>0.82</v>
-      </c>
-      <c r="O43" s="264">
-        <v>0.97735385922437001</v>
-      </c>
-      <c r="P43" s="165"/>
-      <c r="Q43" s="288">
-        <v>2315</v>
-      </c>
-      <c r="R43" s="288">
-        <v>330</v>
-      </c>
-      <c r="S43" t="s">
-        <v>951</v>
+      <c r="T43">
+        <v>180221</v>
+      </c>
+      <c r="U43" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="16" thickBot="1">
-      <c r="A44" s="148" t="s">
+      <c r="A44" s="147" t="s">
         <v>519</v>
       </c>
-      <c r="B44" s="151">
+      <c r="B44" s="150">
         <v>0.46600000000000003</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <v>0.97099999999999997</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E44" s="251">
+      <c r="E44" s="250">
         <v>483.41632472315138</v>
       </c>
-      <c r="F44" s="251"/>
-      <c r="G44" s="254">
+      <c r="F44" s="250"/>
+      <c r="G44" s="253">
         <v>13420.8</v>
       </c>
-      <c r="K44" s="159">
+      <c r="K44" s="158">
         <v>0.03</v>
       </c>
-      <c r="L44" s="159">
+      <c r="L44" s="158">
         <v>0.19</v>
       </c>
-      <c r="M44" s="159">
+      <c r="M44" s="158">
         <v>0.18</v>
       </c>
-      <c r="N44" s="261">
+      <c r="N44" s="260">
         <v>0.61</v>
       </c>
-      <c r="O44" s="264">
+      <c r="O44" s="263">
         <v>0.877478471550592</v>
       </c>
-      <c r="P44" s="165"/>
-      <c r="Q44" s="288">
+      <c r="P44" s="164">
+        <v>0.8</v>
+      </c>
+      <c r="Q44" s="287">
         <f>8000*0.4</f>
         <v>3200</v>
       </c>
-      <c r="R44" s="288">
+      <c r="R44" s="287">
         <f>3000*0.4</f>
         <v>1200</v>
       </c>
       <c r="S44" t="s">
         <v>540</v>
       </c>
+      <c r="T44" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="45" spans="1:23" ht="16" thickBot="1">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="147" t="s">
         <v>669</v>
       </c>
-      <c r="B45" s="151">
+      <c r="B45" s="150">
         <v>0.14299999999999999</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <v>1</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E45" s="251">
+      <c r="E45" s="250">
         <v>252.28816838661476</v>
       </c>
-      <c r="F45" s="251"/>
-      <c r="G45" s="254">
+      <c r="F45" s="250"/>
+      <c r="G45" s="253">
         <v>457.59999999999997</v>
       </c>
-      <c r="K45" s="159">
+      <c r="K45" s="158">
         <v>0</v>
       </c>
-      <c r="L45" s="159">
+      <c r="L45" s="158">
         <v>0.03</v>
       </c>
-      <c r="M45" s="159">
+      <c r="M45" s="158">
         <v>0.02</v>
       </c>
-      <c r="N45" s="261">
+      <c r="N45" s="260">
         <v>0.82</v>
       </c>
-      <c r="O45" s="264">
+      <c r="O45" s="263">
         <v>0.56096498593100275</v>
       </c>
-      <c r="P45" s="165"/>
-      <c r="Q45" s="294">
+      <c r="P45" s="164">
+        <v>0.65</v>
+      </c>
+      <c r="Q45" s="293">
         <v>1200</v>
       </c>
-      <c r="R45" s="288">
+      <c r="R45" s="287">
         <v>977</v>
       </c>
       <c r="S45" t="s">
-        <v>957</v>
+        <v>956</v>
+      </c>
+      <c r="T45">
+        <v>180221</v>
+      </c>
+      <c r="U45" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16" thickBot="1">
-      <c r="A46" s="148" t="s">
+      <c r="A46" s="147" t="s">
         <v>521</v>
       </c>
-      <c r="B46" s="151">
+      <c r="B46" s="150">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <v>0.95</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E46" s="251">
+      <c r="E46" s="250">
         <v>361.81791351010088</v>
       </c>
-      <c r="F46" s="251"/>
-      <c r="G46" s="254">
+      <c r="F46" s="250"/>
+      <c r="G46" s="253">
         <v>16315.200000000003</v>
       </c>
-      <c r="K46" s="159">
+      <c r="K46" s="158">
         <v>0.05</v>
       </c>
-      <c r="L46" s="159">
+      <c r="L46" s="158">
         <v>0.02</v>
       </c>
-      <c r="M46" s="159">
+      <c r="M46" s="158">
         <v>0.11</v>
       </c>
-      <c r="N46" s="261">
+      <c r="N46" s="260">
         <v>0.82</v>
       </c>
-      <c r="O46" s="264">
+      <c r="O46" s="263">
         <v>0.82380040804253563</v>
       </c>
-      <c r="P46" s="298"/>
-      <c r="Q46" s="292">
+      <c r="P46" s="296">
+        <v>0.8</v>
+      </c>
+      <c r="Q46" s="291">
         <v>1170</v>
       </c>
-      <c r="R46" s="292">
+      <c r="R46" s="291">
         <v>740</v>
       </c>
       <c r="S46" t="s">
+        <v>952</v>
+      </c>
+      <c r="T46" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="16" thickBot="1">
+      <c r="A47" s="147" t="s">
+        <v>522</v>
+      </c>
+      <c r="B47" s="150">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C47" s="153">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D47" s="153">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E47" s="250">
+        <v>375.37065018315019</v>
+      </c>
+      <c r="F47" s="250"/>
+      <c r="G47" s="253">
+        <v>1398.3999999999999</v>
+      </c>
+      <c r="K47" s="158">
+        <v>0.11</v>
+      </c>
+      <c r="L47" s="158">
+        <v>0.02</v>
+      </c>
+      <c r="M47" s="158">
+        <v>0.23</v>
+      </c>
+      <c r="N47" s="260">
+        <v>0.66</v>
+      </c>
+      <c r="O47" s="263">
+        <v>0.90450759080277232</v>
+      </c>
+      <c r="P47" s="164">
+        <v>0.51</v>
+      </c>
+      <c r="Q47" s="288">
+        <v>2300</v>
+      </c>
+      <c r="R47" s="288">
+        <v>300</v>
+      </c>
+      <c r="S47" t="s">
+        <v>946</v>
+      </c>
+      <c r="T47">
+        <v>180221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="16" thickBot="1">
+      <c r="A48" s="147" t="s">
+        <v>523</v>
+      </c>
+      <c r="B48" s="150">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C48" s="153">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D48" s="153">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E48" s="250">
+        <v>318.40468414280525</v>
+      </c>
+      <c r="F48" s="250"/>
+      <c r="G48" s="253">
+        <v>17740.8</v>
+      </c>
+      <c r="K48" s="158">
+        <v>0.02</v>
+      </c>
+      <c r="L48" s="158">
+        <v>0.01</v>
+      </c>
+      <c r="M48" s="158">
+        <v>0.12</v>
+      </c>
+      <c r="N48" s="260">
+        <v>0.85</v>
+      </c>
+      <c r="O48" s="263">
+        <v>0.73736998705248713</v>
+      </c>
+      <c r="P48" s="164">
+        <v>0.74</v>
+      </c>
+      <c r="Q48" s="292">
+        <v>2010</v>
+      </c>
+      <c r="R48" s="287">
+        <v>1630</v>
+      </c>
+      <c r="S48" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="16" thickBot="1">
-      <c r="A47" s="148" t="s">
-        <v>522</v>
-      </c>
-      <c r="B47" s="151">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C47" s="154">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="D47" s="154">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="E47" s="251">
-        <v>375.37065018315019</v>
-      </c>
-      <c r="F47" s="251"/>
-      <c r="G47" s="254">
-        <v>1398.3999999999999</v>
-      </c>
-      <c r="K47" s="159">
-        <v>0.11</v>
-      </c>
-      <c r="L47" s="159">
+      <c r="T48" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="16" thickBot="1">
+      <c r="A49" s="148" t="s">
+        <v>524</v>
+      </c>
+      <c r="B49" s="151">
+        <v>0.309</v>
+      </c>
+      <c r="C49" s="154">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D49" s="154">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E49" s="251">
+        <v>454.20873548774478</v>
+      </c>
+      <c r="F49" s="251"/>
+      <c r="G49" s="254">
+        <v>6921.6000000000013</v>
+      </c>
+      <c r="K49" s="159">
         <v>0.02</v>
       </c>
-      <c r="M47" s="159">
-        <v>0.23</v>
-      </c>
-      <c r="N47" s="261">
-        <v>0.66</v>
-      </c>
-      <c r="O47" s="264">
-        <v>0.90450759080277232</v>
-      </c>
-      <c r="P47" s="165"/>
-      <c r="Q47" s="289">
-        <v>2300</v>
-      </c>
-      <c r="R47" s="289">
-        <v>300</v>
-      </c>
-      <c r="S47" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="16" thickBot="1">
-      <c r="A48" s="148" t="s">
-        <v>523</v>
-      </c>
-      <c r="B48" s="151">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="C48" s="154">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D48" s="154">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="E48" s="251">
-        <v>318.40468414280525</v>
-      </c>
-      <c r="F48" s="251"/>
-      <c r="G48" s="254">
-        <v>17740.8</v>
-      </c>
-      <c r="K48" s="159">
-        <v>0.02</v>
-      </c>
-      <c r="L48" s="159">
+      <c r="L49" s="159">
+        <v>0.05</v>
+      </c>
+      <c r="M49" s="159">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N49" s="261">
+        <v>0.79</v>
+      </c>
+      <c r="O49" s="264">
+        <v>0.99060618444367532</v>
+      </c>
+      <c r="P49" s="164">
+        <v>0.93</v>
+      </c>
+      <c r="Q49" s="287">
+        <v>1500</v>
+      </c>
+      <c r="R49" s="290">
+        <v>1100</v>
+      </c>
+      <c r="S49" t="s">
+        <v>951</v>
+      </c>
+      <c r="T49">
+        <v>180221</v>
+      </c>
+      <c r="U49" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="16" thickTop="1"/>
+    <row r="54" spans="1:21" ht="16" thickBot="1">
+      <c r="A54" s="148" t="s">
+        <v>525</v>
+      </c>
+      <c r="B54" s="151">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C54" s="154">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D54" s="154">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K54" s="159">
+        <v>0.16</v>
+      </c>
+      <c r="L54" s="159">
         <v>0.01</v>
       </c>
-      <c r="M48" s="159">
-        <v>0.12</v>
-      </c>
-      <c r="N48" s="261">
-        <v>0.85</v>
-      </c>
-      <c r="O48" s="264">
-        <v>0.73736998705248713</v>
-      </c>
-      <c r="P48" s="165"/>
-      <c r="Q48" s="293">
-        <v>2010</v>
-      </c>
-      <c r="R48" s="288">
-        <v>1630</v>
-      </c>
-      <c r="S48" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="16" thickBot="1">
-      <c r="A49" s="149" t="s">
-        <v>524</v>
-      </c>
-      <c r="B49" s="152">
-        <v>0.309</v>
-      </c>
-      <c r="C49" s="155">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D49" s="155">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E49" s="252">
-        <v>454.20873548774478</v>
-      </c>
-      <c r="F49" s="252"/>
-      <c r="G49" s="255">
-        <v>6921.6000000000013</v>
-      </c>
-      <c r="K49" s="160">
-        <v>0.02</v>
-      </c>
-      <c r="L49" s="160">
-        <v>0.05</v>
-      </c>
-      <c r="M49" s="160">
+      <c r="M54" s="159">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N49" s="262">
-        <v>0.79</v>
-      </c>
-      <c r="O49" s="265">
-        <v>0.99060618444367532</v>
-      </c>
-      <c r="P49" s="165"/>
-      <c r="Q49" s="288">
-        <v>1500</v>
-      </c>
-      <c r="R49" s="291">
-        <v>1100</v>
-      </c>
-      <c r="S49" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="16" thickTop="1"/>
-    <row r="54" spans="1:19" ht="16" thickBot="1">
-      <c r="A54" s="149" t="s">
-        <v>525</v>
-      </c>
-      <c r="B54" s="152">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="C54" s="155">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="D54" s="155">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="K54" s="160">
-        <v>0.16</v>
-      </c>
-      <c r="L54" s="160">
-        <v>0.01</v>
-      </c>
-      <c r="M54" s="160">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N54" s="163">
+      <c r="N54" s="162">
         <v>0.69</v>
       </c>
-      <c r="O54" s="168"/>
-      <c r="P54" s="168"/>
-      <c r="Q54" s="168"/>
-      <c r="R54" s="168"/>
-    </row>
-    <row r="55" spans="1:19" ht="16" thickTop="1">
-      <c r="A55" s="101"/>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="O54" s="167"/>
+      <c r="P54" s="167"/>
+      <c r="Q54" s="167"/>
+      <c r="R54" s="167"/>
+    </row>
+    <row r="55" spans="1:21" ht="16" thickTop="1">
+      <c r="A55" s="100"/>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>487</v>
       </c>
@@ -9313,104 +9448,104 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="17">
+    <row r="58" spans="1:21" ht="17">
       <c r="A58" t="s">
         <v>490</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="126" t="s">
         <v>491</v>
       </c>
       <c r="C58" t="s">
         <v>492</v>
       </c>
-      <c r="K58" s="128"/>
-    </row>
-    <row r="59" spans="1:19" ht="17">
+      <c r="K58" s="127"/>
+    </row>
+    <row r="59" spans="1:21" ht="17">
       <c r="A59" t="s">
         <v>493</v>
       </c>
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="126" t="s">
         <v>494</v>
       </c>
-      <c r="C59" s="128" t="s">
+      <c r="C59" s="127" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
-      <c r="M60" s="129"/>
-      <c r="N60" s="130"/>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="131"/>
-      <c r="B61" s="132" t="s">
+    <row r="60" spans="1:21">
+      <c r="M60" s="128"/>
+      <c r="N60" s="129"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="130"/>
+      <c r="B61" s="131" t="s">
         <v>496</v>
       </c>
-      <c r="C61" s="132" t="s">
+      <c r="C61" s="131" t="s">
         <v>497</v>
       </c>
-      <c r="D61" s="132" t="s">
+      <c r="D61" s="131" t="s">
         <v>498</v>
       </c>
-      <c r="E61" s="132" t="s">
+      <c r="E61" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="132" t="s">
+      <c r="F61" s="131" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="133" t="s">
+    <row r="62" spans="1:21">
+      <c r="A62" s="132" t="s">
         <v>500</v>
       </c>
-      <c r="B62" s="134">
+      <c r="B62" s="133">
         <v>12.0107</v>
       </c>
-      <c r="C62" s="134">
+      <c r="C62" s="133">
         <v>1.0079400000000001</v>
       </c>
-      <c r="D62" s="134">
+      <c r="D62" s="133">
         <v>15.9994</v>
       </c>
-      <c r="E62" s="134">
+      <c r="E62" s="133">
         <v>14.0067</v>
       </c>
-      <c r="F62" s="134">
+      <c r="F62" s="133">
         <v>32.064999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="135"/>
-      <c r="B64" s="136" t="s">
+    <row r="64" spans="1:21">
+      <c r="A64" s="134"/>
+      <c r="B64" s="135" t="s">
         <v>501</v>
       </c>
-      <c r="C64" s="136" t="s">
+      <c r="C64" s="135" t="s">
         <v>502</v>
       </c>
-      <c r="D64" s="136" t="s">
+      <c r="D64" s="135" t="s">
         <v>503</v>
       </c>
-      <c r="E64" s="136" t="s">
+      <c r="E64" s="135" t="s">
         <v>504</v>
       </c>
-      <c r="F64" s="137" t="s">
+      <c r="F64" s="136" t="s">
         <v>505</v>
       </c>
-      <c r="G64" s="137" t="s">
+      <c r="G64" s="136" t="s">
         <v>506</v>
       </c>
-      <c r="H64" s="138" t="s">
+      <c r="H64" s="137" t="s">
         <v>507</v>
       </c>
-      <c r="I64" s="139" t="s">
+      <c r="I64" s="138" t="s">
         <v>508</v>
       </c>
-      <c r="J64" s="140" t="s">
+      <c r="J64" s="139" t="s">
         <v>509</v>
       </c>
-      <c r="K64" s="140" t="s">
+      <c r="K64" s="139" t="s">
         <v>510</v>
       </c>
-      <c r="L64" s="140" t="s">
+      <c r="L64" s="139" t="s">
         <v>511</v>
       </c>
     </row>
@@ -9418,40 +9553,40 @@
       <c r="A65" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="B65" s="141">
+      <c r="B65" s="140">
         <v>5</v>
       </c>
-      <c r="C65" s="141">
+      <c r="C65" s="140">
         <v>7</v>
       </c>
-      <c r="D65" s="141">
+      <c r="D65" s="140">
         <v>2</v>
       </c>
-      <c r="E65" s="141">
+      <c r="E65" s="140">
         <v>1</v>
       </c>
-      <c r="F65" s="141"/>
-      <c r="G65" s="142">
+      <c r="F65" s="140"/>
+      <c r="G65" s="141">
         <f>carbon*B65+hydrogen*C65+oxygen*D65+nitrogen*E65+Sulfur*F65</f>
         <v>113.11458</v>
       </c>
-      <c r="H65" s="129">
+      <c r="H65" s="128">
         <f>($B65/2+$C65/8-$D65/4-3/8*$E65-$F65/4)*22.4/(carbon*$B65+hydrogen*$C65+oxygen*$D65+nitrogen*$E65)*1000</f>
         <v>495.07322575038518</v>
       </c>
-      <c r="I65" s="143">
+      <c r="I65" s="142">
         <f>H65/350</f>
         <v>1.4144949307153862</v>
       </c>
-      <c r="J65" s="143">
+      <c r="J65" s="142">
         <f>carbon*B65/G65</f>
         <v>0.53090857076072773</v>
       </c>
-      <c r="K65" s="142">
+      <c r="K65" s="141">
         <f>nitrogen*E65/G65</f>
         <v>0.12382753841281999</v>
       </c>
-      <c r="L65" s="69">
+      <c r="L65" s="68">
         <f>350/H65</f>
         <v>0.706966125</v>
       </c>
@@ -9460,38 +9595,38 @@
       <c r="A66" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="B66" s="141">
+      <c r="B66" s="140">
         <v>6</v>
       </c>
-      <c r="C66" s="141">
+      <c r="C66" s="140">
         <v>10</v>
       </c>
-      <c r="D66" s="141">
+      <c r="D66" s="140">
         <v>5</v>
       </c>
-      <c r="E66" s="141"/>
-      <c r="F66" s="141"/>
-      <c r="G66" s="142">
+      <c r="E66" s="140"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="141">
         <f>carbon*B66+hydrogen*C66+oxygen*D66+nitrogen*E66+Sulfur*F66</f>
         <v>162.14060000000001</v>
       </c>
-      <c r="H66" s="129">
+      <c r="H66" s="128">
         <f>($B66/2+$C66/8-$D66/4-3/8*$E66-$F66/4)*22.4/(carbon*$B66+hydrogen*$C66+oxygen*$D66+nitrogen*$E66)*1000</f>
         <v>414.45510871428866</v>
       </c>
-      <c r="I66" s="143">
+      <c r="I66" s="142">
         <f>H66/350</f>
         <v>1.1841574534693962</v>
       </c>
-      <c r="J66" s="143">
+      <c r="J66" s="142">
         <f>carbon*B66/G66</f>
         <v>0.44445499769952745</v>
       </c>
-      <c r="K66" s="142">
+      <c r="K66" s="141">
         <f>nitrogen*E66/G66</f>
         <v>0</v>
       </c>
-      <c r="L66" s="69">
+      <c r="L66" s="68">
         <f>350/H66</f>
         <v>0.84448229166666677</v>
       </c>
@@ -9500,722 +9635,722 @@
       <c r="A67" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="B67" s="144">
+      <c r="B67" s="143">
         <v>57</v>
       </c>
-      <c r="C67" s="141">
+      <c r="C67" s="140">
         <v>106</v>
       </c>
-      <c r="D67" s="141">
+      <c r="D67" s="140">
         <v>6</v>
       </c>
-      <c r="E67" s="141"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="142">
+      <c r="E67" s="140"/>
+      <c r="F67" s="140"/>
+      <c r="G67" s="141">
         <f>carbon*B67+hydrogen*C67+oxygen*D67+nitrogen*E67+Sulfur*F67</f>
         <v>887.44794000000002</v>
       </c>
-      <c r="H67" s="129">
+      <c r="H67" s="128">
         <f>($B67/2+$C67/8-$D67/4-3/8*$E67-$F67/4)*22.4/(carbon*$B67+hydrogen*$C67+oxygen*$D67+nitrogen*$E67)*1000</f>
         <v>1015.9469185313561</v>
       </c>
-      <c r="I67" s="143">
+      <c r="I67" s="142">
         <f>H67/350</f>
         <v>2.9027054815181605</v>
       </c>
-      <c r="J67" s="143">
+      <c r="J67" s="142">
         <f>carbon*B67/G67</f>
         <v>0.77143668844394409</v>
       </c>
-      <c r="K67" s="142">
+      <c r="K67" s="141">
         <f>nitrogen*E67/G67</f>
         <v>0</v>
       </c>
-      <c r="L67" s="69">
+      <c r="L67" s="68">
         <f>350/H67</f>
         <v>0.34450618788819881</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="145" t="s">
+      <c r="A68" s="144" t="s">
         <v>512</v>
       </c>
-      <c r="B68" s="141">
+      <c r="B68" s="140">
         <v>40</v>
       </c>
-      <c r="C68" s="141">
+      <c r="C68" s="140">
         <v>46</v>
       </c>
-      <c r="D68" s="141">
+      <c r="D68" s="140">
         <v>16</v>
       </c>
-      <c r="E68" s="141"/>
-      <c r="F68" s="141"/>
-      <c r="G68" s="142">
+      <c r="E68" s="140"/>
+      <c r="F68" s="140"/>
+      <c r="G68" s="141">
         <f t="shared" ref="G68" si="1">carbon*B68+hydrogen*C68+oxygen*D68+nitrogen*E68+Sulfur*F68</f>
         <v>782.78363999999999</v>
       </c>
-      <c r="H68" s="129">
+      <c r="H68" s="128">
         <f t="shared" ref="H68:H69" si="2">($B68/2+$C68/8-$D68/4-3/8*$E68-$F68/4)*22.4/(carbon*$B68+hydrogen*$C68+oxygen*$D68+nitrogen*$E68)*1000</f>
         <v>622.39420333312023</v>
       </c>
-      <c r="I68" s="143">
+      <c r="I68" s="142">
         <f>H68/350</f>
         <v>1.7782691523803436</v>
       </c>
-      <c r="J68" s="142"/>
-      <c r="K68" s="142"/>
-      <c r="L68" s="69">
+      <c r="J68" s="141"/>
+      <c r="K68" s="141"/>
+      <c r="L68" s="68">
         <f>350/H68</f>
         <v>0.56234456896551721</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="145" t="s">
+      <c r="A69" s="144" t="s">
         <v>513</v>
       </c>
-      <c r="B69" s="146">
+      <c r="B69" s="145">
         <v>6</v>
       </c>
-      <c r="C69" s="146">
+      <c r="C69" s="145">
         <v>12</v>
       </c>
-      <c r="D69" s="146">
+      <c r="D69" s="145">
         <v>6</v>
       </c>
       <c r="E69" s="50"/>
       <c r="F69" s="50"/>
-      <c r="G69" s="142">
+      <c r="G69" s="141">
         <f>carbon*B69+hydrogen*C69+oxygen*D69+nitrogen*E69+Sulfur*F69</f>
         <v>180.15588</v>
       </c>
-      <c r="H69" s="129">
+      <c r="H69" s="128">
         <f t="shared" si="2"/>
         <v>373.01030640798393</v>
       </c>
-      <c r="I69" s="143">
+      <c r="I69" s="142">
         <f>H69/350</f>
         <v>1.0657437325942398</v>
       </c>
-      <c r="J69" s="142">
+      <c r="J69" s="141">
         <f>carbon*B69/G69</f>
         <v>0.40001025778342625</v>
       </c>
-      <c r="K69" s="142">
+      <c r="K69" s="141">
         <f>nitrogen*E69/G69</f>
         <v>0</v>
       </c>
-      <c r="L69" s="69">
+      <c r="L69" s="68">
         <f>350/H69</f>
         <v>0.93831187500000024</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="50"/>
-      <c r="B70" s="141"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="141"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="140"/>
     </row>
     <row r="72" spans="1:14" ht="16" thickBot="1"/>
     <row r="73" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A73" s="147" t="s">
+      <c r="A73" s="146" t="s">
         <v>514</v>
       </c>
-      <c r="B73" s="148" t="s">
+      <c r="B73" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="C73" s="148" t="s">
+      <c r="C73" s="147" t="s">
         <v>516</v>
       </c>
-      <c r="D73" s="148" t="s">
+      <c r="D73" s="147" t="s">
         <v>517</v>
       </c>
-      <c r="E73" s="148" t="s">
+      <c r="E73" s="147" t="s">
         <v>518</v>
       </c>
-      <c r="F73" s="148" t="s">
+      <c r="F73" s="147" t="s">
         <v>519</v>
       </c>
-      <c r="G73" s="148" t="s">
+      <c r="G73" s="147" t="s">
         <v>520</v>
       </c>
-      <c r="H73" s="148" t="s">
+      <c r="H73" s="147" t="s">
         <v>521</v>
       </c>
-      <c r="I73" s="148"/>
-      <c r="J73" s="148"/>
-      <c r="K73" s="148" t="s">
+      <c r="I73" s="147"/>
+      <c r="J73" s="147"/>
+      <c r="K73" s="147" t="s">
         <v>522</v>
       </c>
-      <c r="L73" s="148" t="s">
+      <c r="L73" s="147" t="s">
         <v>523</v>
       </c>
-      <c r="M73" s="149" t="s">
+      <c r="M73" s="148" t="s">
         <v>524</v>
       </c>
-      <c r="N73" s="149" t="s">
+      <c r="N73" s="148" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16" thickBot="1">
-      <c r="A75" s="150" t="s">
+      <c r="A75" s="149" t="s">
         <v>526</v>
       </c>
-      <c r="B75" s="151">
+      <c r="B75" s="150">
         <v>0.91600000000000004</v>
       </c>
-      <c r="C75" s="151">
+      <c r="C75" s="150">
         <v>0.105</v>
       </c>
-      <c r="D75" s="151">
+      <c r="D75" s="150">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E75" s="151">
+      <c r="E75" s="150">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F75" s="151">
+      <c r="F75" s="150">
         <v>0.46600000000000003</v>
       </c>
-      <c r="G75" s="151">
+      <c r="G75" s="150">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H75" s="151">
+      <c r="H75" s="150">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I75" s="151"/>
-      <c r="J75" s="151"/>
-      <c r="K75" s="151">
+      <c r="I75" s="150"/>
+      <c r="J75" s="150"/>
+      <c r="K75" s="150">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L75" s="151">
+      <c r="L75" s="150">
         <v>0.92400000000000004</v>
       </c>
-      <c r="M75" s="152">
+      <c r="M75" s="151">
         <v>0.309</v>
       </c>
-      <c r="N75" s="152">
+      <c r="N75" s="151">
         <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16" thickBot="1">
-      <c r="A76" s="153" t="s">
+      <c r="A76" s="152" t="s">
         <v>527</v>
       </c>
-      <c r="B76" s="154">
+      <c r="B76" s="153">
         <v>0.97899999999999998</v>
       </c>
-      <c r="C76" s="154">
+      <c r="C76" s="153">
         <v>0.90700000000000003</v>
       </c>
-      <c r="D76" s="154">
+      <c r="D76" s="153">
         <v>0.99299999999999999</v>
       </c>
-      <c r="E76" s="154">
+      <c r="E76" s="153">
         <v>0.93300000000000005</v>
       </c>
-      <c r="F76" s="154">
+      <c r="F76" s="153">
         <v>0.97099999999999997</v>
       </c>
-      <c r="G76" s="154">
+      <c r="G76" s="153">
         <v>1</v>
       </c>
-      <c r="H76" s="154">
+      <c r="H76" s="153">
         <v>0.95</v>
       </c>
-      <c r="I76" s="154"/>
-      <c r="J76" s="154"/>
-      <c r="K76" s="154">
+      <c r="I76" s="153"/>
+      <c r="J76" s="153"/>
+      <c r="K76" s="153">
         <v>0.90600000000000003</v>
       </c>
-      <c r="L76" s="154">
+      <c r="L76" s="153">
         <v>0.97799999999999998</v>
       </c>
-      <c r="M76" s="155">
+      <c r="M76" s="154">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N76" s="155">
+      <c r="N76" s="154">
         <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16" thickBot="1">
-      <c r="A77" s="156" t="s">
+      <c r="A77" s="155" t="s">
         <v>528</v>
       </c>
-      <c r="B77" s="157">
+      <c r="B77" s="156">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C77" s="154">
+      <c r="C77" s="153">
         <v>0.14299999999999999</v>
       </c>
-      <c r="D77" s="154">
+      <c r="D77" s="153">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E77" s="154">
+      <c r="E77" s="153">
         <v>0.91100000000000003</v>
       </c>
-      <c r="F77" s="154">
+      <c r="F77" s="153">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G77" s="154">
+      <c r="G77" s="153">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H77" s="154">
+      <c r="H77" s="153">
         <v>0.29099999999999998</v>
       </c>
-      <c r="I77" s="154"/>
-      <c r="J77" s="154"/>
-      <c r="K77" s="154">
+      <c r="I77" s="153"/>
+      <c r="J77" s="153"/>
+      <c r="K77" s="153">
         <v>0.45200000000000001</v>
       </c>
-      <c r="L77" s="154">
+      <c r="L77" s="153">
         <v>0.90400000000000003</v>
       </c>
-      <c r="M77" s="155">
+      <c r="M77" s="154">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="N77" s="155">
+      <c r="N77" s="154">
         <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A78" s="158" t="s">
+      <c r="A78" s="157" t="s">
         <v>529</v>
       </c>
-      <c r="B78" s="159">
+      <c r="B78" s="158">
         <v>0.03</v>
       </c>
-      <c r="C78" s="159">
+      <c r="C78" s="158">
         <v>0.09</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <v>0.01</v>
       </c>
-      <c r="E78" s="159">
+      <c r="E78" s="158">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="158">
         <v>0.03</v>
       </c>
-      <c r="G78" s="159">
+      <c r="G78" s="158">
         <v>0</v>
       </c>
-      <c r="H78" s="159">
+      <c r="H78" s="158">
         <v>0.05</v>
       </c>
-      <c r="I78" s="159"/>
-      <c r="J78" s="159"/>
-      <c r="K78" s="159">
+      <c r="I78" s="158"/>
+      <c r="J78" s="158"/>
+      <c r="K78" s="158">
         <v>0.11</v>
       </c>
-      <c r="L78" s="159">
+      <c r="L78" s="158">
         <v>0.02</v>
       </c>
-      <c r="M78" s="160">
+      <c r="M78" s="159">
         <v>0.02</v>
       </c>
-      <c r="N78" s="160">
+      <c r="N78" s="159">
         <v>0.16</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A79" s="158" t="s">
+      <c r="A79" s="157" t="s">
         <v>530</v>
       </c>
-      <c r="B79" s="188">
+      <c r="B79" s="187">
         <v>0.11</v>
       </c>
-      <c r="C79" s="159">
+      <c r="C79" s="158">
         <v>0.02</v>
       </c>
-      <c r="D79" s="159">
+      <c r="D79" s="158">
         <v>0.04</v>
       </c>
-      <c r="E79" s="159">
+      <c r="E79" s="158">
         <v>0</v>
       </c>
-      <c r="F79" s="159">
+      <c r="F79" s="158">
         <v>0.19</v>
       </c>
-      <c r="G79" s="159">
+      <c r="G79" s="158">
         <v>0.03</v>
       </c>
-      <c r="H79" s="159">
+      <c r="H79" s="158">
         <v>0.02</v>
       </c>
-      <c r="I79" s="159"/>
-      <c r="J79" s="159"/>
-      <c r="K79" s="159">
+      <c r="I79" s="158"/>
+      <c r="J79" s="158"/>
+      <c r="K79" s="158">
         <v>0.02</v>
       </c>
-      <c r="L79" s="159">
+      <c r="L79" s="158">
         <v>0.01</v>
       </c>
-      <c r="M79" s="160">
+      <c r="M79" s="159">
         <v>0.05</v>
       </c>
-      <c r="N79" s="160">
+      <c r="N79" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A80" s="158" t="s">
+      <c r="A80" s="157" t="s">
         <v>531</v>
       </c>
-      <c r="B80" s="188">
+      <c r="B80" s="187">
         <v>0.1</v>
       </c>
-      <c r="C80" s="159">
+      <c r="C80" s="158">
         <v>0.15</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <v>0.17</v>
       </c>
-      <c r="E80" s="159">
+      <c r="E80" s="158">
         <v>0.1</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="158">
         <v>0.18</v>
       </c>
-      <c r="G80" s="159">
+      <c r="G80" s="158">
         <v>0.02</v>
       </c>
-      <c r="H80" s="159">
+      <c r="H80" s="158">
         <v>0.11</v>
       </c>
-      <c r="I80" s="159"/>
-      <c r="J80" s="159"/>
-      <c r="K80" s="159">
+      <c r="I80" s="158"/>
+      <c r="J80" s="158"/>
+      <c r="K80" s="158">
         <v>0.23</v>
       </c>
-      <c r="L80" s="159">
+      <c r="L80" s="158">
         <v>0.12</v>
       </c>
-      <c r="M80" s="160">
+      <c r="M80" s="159">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N80" s="160">
+      <c r="N80" s="159">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A81" s="161" t="s">
+      <c r="A81" s="160" t="s">
         <v>532</v>
       </c>
-      <c r="B81" s="189">
+      <c r="B81" s="188">
         <v>0.76</v>
       </c>
-      <c r="C81" s="162">
+      <c r="C81" s="161">
         <v>0.74</v>
       </c>
-      <c r="D81" s="162">
+      <c r="D81" s="161">
         <v>0.79</v>
       </c>
-      <c r="E81" s="162">
+      <c r="E81" s="161">
         <v>0.82</v>
       </c>
-      <c r="F81" s="162">
+      <c r="F81" s="161">
         <v>0.61</v>
       </c>
-      <c r="G81" s="162">
+      <c r="G81" s="161">
         <v>0.82</v>
       </c>
-      <c r="H81" s="162">
+      <c r="H81" s="161">
         <v>0.82</v>
       </c>
-      <c r="I81" s="162"/>
-      <c r="J81" s="162"/>
-      <c r="K81" s="162">
+      <c r="I81" s="161"/>
+      <c r="J81" s="161"/>
+      <c r="K81" s="161">
         <v>0.66</v>
       </c>
-      <c r="L81" s="162">
+      <c r="L81" s="161">
         <v>0.85</v>
       </c>
-      <c r="M81" s="163">
+      <c r="M81" s="162">
         <v>0.79</v>
       </c>
-      <c r="N81" s="163">
+      <c r="N81" s="162">
         <v>0.69</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="16" thickTop="1">
-      <c r="A82" s="164" t="s">
+      <c r="A82" s="163" t="s">
         <v>533</v>
       </c>
-      <c r="C82" s="165"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="165"/>
-      <c r="F82" s="165"/>
-      <c r="G82" s="165"/>
-      <c r="H82" s="165"/>
-      <c r="I82" s="165"/>
-      <c r="J82" s="165"/>
-      <c r="K82" s="165"/>
-      <c r="L82" s="165"/>
-      <c r="M82" s="165"/>
-      <c r="N82" s="166">
+      <c r="C82" s="164"/>
+      <c r="D82" s="164"/>
+      <c r="E82" s="164"/>
+      <c r="F82" s="164"/>
+      <c r="G82" s="164"/>
+      <c r="H82" s="164"/>
+      <c r="I82" s="164"/>
+      <c r="J82" s="164"/>
+      <c r="K82" s="164"/>
+      <c r="L82" s="164"/>
+      <c r="M82" s="164"/>
+      <c r="N82" s="165">
         <v>0.54263731383696057</v>
       </c>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="167" t="s">
+      <c r="A83" s="166" t="s">
         <v>534</v>
       </c>
-      <c r="B83" s="168">
+      <c r="B83" s="167">
         <f t="shared" ref="B83:H83" si="3">B79*$J67</f>
         <v>8.4858035728833853E-2</v>
       </c>
-      <c r="C83" s="168">
+      <c r="C83" s="167">
         <f t="shared" si="3"/>
         <v>1.5428733768878882E-2</v>
       </c>
-      <c r="D83" s="168">
+      <c r="D83" s="167">
         <f t="shared" si="3"/>
         <v>3.0857467537757765E-2</v>
       </c>
-      <c r="E83" s="168">
+      <c r="E83" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F83" s="168">
+      <c r="F83" s="167">
         <f t="shared" si="3"/>
         <v>0.14657297080434939</v>
       </c>
-      <c r="G83" s="168">
+      <c r="G83" s="167">
         <f t="shared" si="3"/>
         <v>2.3143100653318323E-2</v>
       </c>
-      <c r="H83" s="168">
+      <c r="H83" s="167">
         <f t="shared" si="3"/>
         <v>1.5428733768878882E-2</v>
       </c>
-      <c r="I83" s="168"/>
-      <c r="J83" s="168"/>
-      <c r="K83" s="168">
+      <c r="I83" s="167"/>
+      <c r="J83" s="167"/>
+      <c r="K83" s="167">
         <f>K79*$J67</f>
         <v>1.5428733768878882E-2</v>
       </c>
-      <c r="L83" s="168">
+      <c r="L83" s="167">
         <f>L79*$J67</f>
         <v>7.7143668844394412E-3</v>
       </c>
-      <c r="M83" s="168">
+      <c r="M83" s="167">
         <f>M79*$J67</f>
         <v>3.8571834422197207E-2</v>
       </c>
-      <c r="N83" s="168">
+      <c r="N83" s="167">
         <f>N79*$J67</f>
         <v>7.7143668844394412E-3</v>
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="167" t="s">
+      <c r="A84" s="166" t="s">
         <v>535</v>
       </c>
-      <c r="B84" s="168">
+      <c r="B84" s="167">
         <f t="shared" ref="B84:H84" si="4">B80*$J65</f>
         <v>5.3090857076072778E-2</v>
       </c>
-      <c r="C84" s="168">
+      <c r="C84" s="167">
         <f t="shared" si="4"/>
         <v>7.9636285614109154E-2</v>
       </c>
-      <c r="D84" s="168">
+      <c r="D84" s="167">
         <f t="shared" si="4"/>
         <v>9.025445702932372E-2</v>
       </c>
-      <c r="E84" s="168">
+      <c r="E84" s="167">
         <f t="shared" si="4"/>
         <v>5.3090857076072778E-2</v>
       </c>
-      <c r="F84" s="168">
+      <c r="F84" s="167">
         <f t="shared" si="4"/>
         <v>9.556354273693099E-2</v>
       </c>
-      <c r="G84" s="168">
+      <c r="G84" s="167">
         <f t="shared" si="4"/>
         <v>1.0618171415214555E-2</v>
       </c>
-      <c r="H84" s="168">
+      <c r="H84" s="167">
         <f t="shared" si="4"/>
         <v>5.8399942783680048E-2</v>
       </c>
-      <c r="I84" s="168"/>
-      <c r="J84" s="168"/>
-      <c r="K84" s="168">
+      <c r="I84" s="167"/>
+      <c r="J84" s="167"/>
+      <c r="K84" s="167">
         <f>K80*$J65</f>
         <v>0.12210897127496738</v>
       </c>
-      <c r="L84" s="168">
+      <c r="L84" s="167">
         <f>L80*$J65</f>
         <v>6.3709028491287331E-2</v>
       </c>
-      <c r="M84" s="168">
+      <c r="M84" s="167">
         <f>M80*$J65</f>
         <v>7.4327199906501884E-2</v>
       </c>
-      <c r="N84" s="168">
+      <c r="N84" s="167">
         <f>N80*$J65</f>
         <v>7.4327199906501884E-2</v>
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="167" t="s">
+      <c r="A85" s="166" t="s">
         <v>536</v>
       </c>
-      <c r="B85" s="168">
+      <c r="B85" s="167">
         <f t="shared" ref="B85:H85" si="5">$J66*B81</f>
         <v>0.33778579825164085</v>
       </c>
-      <c r="C85" s="168">
+      <c r="C85" s="167">
         <f t="shared" si="5"/>
         <v>0.32889669829765034</v>
       </c>
-      <c r="D85" s="168">
+      <c r="D85" s="167">
         <f t="shared" si="5"/>
         <v>0.35111944818262669</v>
       </c>
-      <c r="E85" s="168">
+      <c r="E85" s="167">
         <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
-      <c r="F85" s="168">
+      <c r="F85" s="167">
         <f t="shared" si="5"/>
         <v>0.27111754859671172</v>
       </c>
-      <c r="G85" s="168">
+      <c r="G85" s="167">
         <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
-      <c r="H85" s="168">
+      <c r="H85" s="167">
         <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
-      <c r="I85" s="168"/>
-      <c r="J85" s="168"/>
-      <c r="K85" s="168">
+      <c r="I85" s="167"/>
+      <c r="J85" s="167"/>
+      <c r="K85" s="167">
         <f>$J66*K81</f>
         <v>0.29334029848168813</v>
       </c>
-      <c r="L85" s="168">
+      <c r="L85" s="167">
         <f>$J66*L81</f>
         <v>0.37778674804459833</v>
       </c>
-      <c r="M85" s="168">
+      <c r="M85" s="167">
         <f>$J66*M81</f>
         <v>0.35111944818262669</v>
       </c>
-      <c r="N85" s="168">
+      <c r="N85" s="167">
         <f>$J66*N81</f>
         <v>0.30667394841267392</v>
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="167" t="s">
+      <c r="A86" s="166" t="s">
         <v>537</v>
       </c>
-      <c r="B86" s="168">
+      <c r="B86" s="167">
         <f>SUM(B83:B85)</f>
         <v>0.47573469105654748</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f t="shared" ref="C86:N86" si="6">SUM(C83:C85)</f>
         <v>0.42396171768063839</v>
       </c>
-      <c r="D86" s="168">
+      <c r="D86" s="167">
         <f t="shared" si="6"/>
         <v>0.47223137274970817</v>
       </c>
-      <c r="E86" s="168">
+      <c r="E86" s="167">
         <f t="shared" si="6"/>
         <v>0.41754395518968523</v>
       </c>
-      <c r="F86" s="168">
+      <c r="F86" s="167">
         <f t="shared" si="6"/>
         <v>0.51325406213799207</v>
       </c>
-      <c r="G86" s="168">
+      <c r="G86" s="167">
         <f t="shared" si="6"/>
         <v>0.39821437018214534</v>
       </c>
-      <c r="H86" s="168">
+      <c r="H86" s="167">
         <f t="shared" si="6"/>
         <v>0.43828177466617141</v>
       </c>
-      <c r="I86" s="168"/>
-      <c r="J86" s="168"/>
-      <c r="K86" s="168">
+      <c r="I86" s="167"/>
+      <c r="J86" s="167"/>
+      <c r="K86" s="167">
         <f t="shared" si="6"/>
         <v>0.4308780035255344</v>
       </c>
-      <c r="L86" s="168">
+      <c r="L86" s="167">
         <f t="shared" si="6"/>
         <v>0.44921014342032511</v>
       </c>
-      <c r="M86" s="168">
+      <c r="M86" s="167">
         <f t="shared" si="6"/>
         <v>0.46401848251132577</v>
       </c>
-      <c r="N86" s="168">
+      <c r="N86" s="167">
         <f t="shared" si="6"/>
         <v>0.38871551520361525</v>
       </c>
-      <c r="O86" s="168">
+      <c r="O86" s="167">
         <f>(1-N82)*N86*N76</f>
         <v>0.14862740074814412</v>
       </c>
-      <c r="P86" s="168"/>
-      <c r="Q86" s="168"/>
-      <c r="R86" s="168"/>
+      <c r="P86" s="167"/>
+      <c r="Q86" s="167"/>
+      <c r="R86" s="167"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="167" t="s">
+      <c r="A87" s="166" t="s">
         <v>538</v>
       </c>
-      <c r="B87" s="187">
+      <c r="B87" s="186">
         <f>B86*B75</f>
         <v>0.43577297700779749</v>
       </c>
-      <c r="C87" s="168">
+      <c r="C87" s="167">
         <f>C86*C75</f>
         <v>4.4515980356467033E-2</v>
       </c>
-      <c r="D87" s="168">
+      <c r="D87" s="167">
         <f t="shared" ref="D87:N87" si="7">D86*D75</f>
         <v>0.13836379221566447</v>
       </c>
-      <c r="E87" s="168">
+      <c r="E87" s="167">
         <f t="shared" si="7"/>
         <v>3.2150884549605761E-2</v>
       </c>
-      <c r="F87" s="168">
+      <c r="F87" s="167">
         <f t="shared" si="7"/>
         <v>0.23917639295630433</v>
       </c>
-      <c r="G87" s="168">
+      <c r="G87" s="167">
         <f t="shared" si="7"/>
         <v>5.6944654936046779E-2</v>
       </c>
-      <c r="H87" s="168">
+      <c r="H87" s="167">
         <f t="shared" si="7"/>
         <v>0.40628720511554089</v>
       </c>
-      <c r="I87" s="168"/>
-      <c r="J87" s="168"/>
-      <c r="K87" s="168">
+      <c r="I87" s="167"/>
+      <c r="J87" s="167"/>
+      <c r="K87" s="167">
         <f t="shared" si="7"/>
         <v>1.6373364133970308E-2</v>
       </c>
-      <c r="L87" s="168">
+      <c r="L87" s="167">
         <f t="shared" si="7"/>
         <v>0.41507017252038042</v>
       </c>
-      <c r="M87" s="168">
+      <c r="M87" s="167">
         <f t="shared" si="7"/>
         <v>0.14338171109599965</v>
       </c>
-      <c r="N87" s="168">
+      <c r="N87" s="167">
         <f t="shared" si="7"/>
         <v>3.9648982550768749E-2</v>
       </c>
@@ -10246,17 +10381,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="K1" s="71"/>
+      <c r="K1" s="70"/>
       <c r="L1" s="55"/>
-      <c r="M1" s="70"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" t="s">
@@ -10271,9 +10406,9 @@
       <c r="F3" t="s">
         <v>159</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
@@ -10291,8 +10426,8 @@
         <v>16.666666666666668</v>
       </c>
       <c r="K4" s="55"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
@@ -11522,7 +11657,7 @@
         <v>342</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="67" t="s">
         <v>371</v>
       </c>
       <c r="G45" s="1"/>
@@ -11625,7 +11760,7 @@
       <c r="C48" s="59">
         <v>80.3</v>
       </c>
-      <c r="D48" s="67">
+      <c r="D48" s="66">
         <f t="shared" si="1"/>
         <v>0.21543700340522137</v>
       </c>
@@ -11863,13 +11998,13 @@
       <c r="A68" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="296">
+      <c r="B68" s="298">
         <v>90</v>
       </c>
-      <c r="C68" s="296">
+      <c r="C68" s="298">
         <v>87</v>
       </c>
-      <c r="D68" s="296">
+      <c r="D68" s="298">
         <v>99</v>
       </c>
     </row>
@@ -11877,9 +12012,9 @@
       <c r="A69" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="B69" s="296"/>
-      <c r="C69" s="296"/>
-      <c r="D69" s="296"/>
+      <c r="B69" s="298"/>
+      <c r="C69" s="298"/>
+      <c r="D69" s="298"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="64" t="s">
@@ -12056,10 +12191,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J26"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12085,13 +12220,16 @@
         <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>977</v>
+        <v>976</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
       </c>
       <c r="H3" t="s">
         <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12134,7 +12272,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G5">
         <v>1.8</v>
@@ -12192,7 +12330,12 @@
       <c r="E7" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8">
@@ -12206,24 +12349,24 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="59" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="59" t="s">
+        <v>979</v>
+      </c>
+      <c r="J9" s="59" t="s">
         <v>980</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="59" customFormat="1">
@@ -12243,114 +12386,128 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B16" t="s">
+        <v>958</v>
+      </c>
+      <c r="C16" t="s">
         <v>959</v>
       </c>
-      <c r="C16" t="s">
-        <v>960</v>
-      </c>
       <c r="D16" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F16" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>866</v>
       </c>
-      <c r="C17" s="240" t="s">
-        <v>961</v>
+      <c r="C17" s="239" t="s">
+        <v>960</v>
       </c>
       <c r="E17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>964</v>
+        <v>540</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>996</v>
       </c>
       <c r="E18" t="s">
-        <v>962</v>
-      </c>
-      <c r="F18">
-        <v>0.7</v>
+        <v>997</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E19" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>969</v>
+        <v>964</v>
+      </c>
+      <c r="E20" t="s">
+        <v>965</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>970</v>
-      </c>
-      <c r="C21" s="295">
+        <v>968</v>
+      </c>
+      <c r="C21" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>969</v>
+      </c>
+      <c r="C22" s="294">
         <v>0.08</v>
       </c>
-      <c r="E21" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="59" customFormat="1">
-      <c r="A22" s="59" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>970</v>
-      </c>
-      <c r="C23" s="295">
-        <v>0.08</v>
-      </c>
-      <c r="E23" t="s">
-        <v>973</v>
+    </row>
+    <row r="23" spans="1:6" s="59" customFormat="1">
+      <c r="A23" s="59" t="s">
+        <v>927</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>540</v>
-      </c>
-      <c r="C24" t="s">
-        <v>967</v>
+        <v>969</v>
+      </c>
+      <c r="C24" s="294">
+        <v>0.08</v>
+      </c>
+      <c r="E24" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>969</v>
+        <v>540</v>
       </c>
       <c r="C25" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>970</v>
-      </c>
-      <c r="C26" s="295">
+        <v>968</v>
+      </c>
+      <c r="C26" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>969</v>
+      </c>
+      <c r="C27" s="294">
         <v>0.08</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>7</v>
       </c>
-      <c r="E26" t="s">
-        <v>972</v>
+      <c r="E27" t="s">
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -12386,7 +12543,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12505,10 +12662,10 @@
       <c r="D4" t="s">
         <v>763</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="68">
         <v>2.7204943424399999</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="68" t="s">
         <v>853</v>
       </c>
       <c r="J4" t="s">
@@ -12542,15 +12699,15 @@
       <c r="D5" t="s">
         <v>641</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="68">
         <f>-N4</f>
         <v>-537.36092603984002</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="68">
         <f>-N6</f>
         <v>-918.79198627000005</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="68">
         <f>-N7</f>
         <v>-537.18234233351995</v>
       </c>
@@ -12576,7 +12733,7 @@
         <v>779</v>
       </c>
       <c r="B6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C6" t="s">
         <v>812</v>
@@ -12621,10 +12778,10 @@
         <v>803</v>
       </c>
       <c r="B7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D7" t="s">
         <v>641</v>
@@ -12674,13 +12831,13 @@
       <c r="D8" t="s">
         <v>641</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="68">
         <v>0.3</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="68">
         <v>0.3</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="68">
         <v>0.6</v>
       </c>
       <c r="H8" t="s">
@@ -12732,7 +12889,7 @@
         <v>782</v>
       </c>
       <c r="B11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C11" t="s">
         <v>813</v>
@@ -12773,7 +12930,7 @@
       <c r="D13" t="s">
         <v>641</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="68">
         <v>5.8295314000000005</v>
       </c>
       <c r="F13">
@@ -12994,7 +13151,7 @@
       <c r="E20" s="6">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="68">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G20">
@@ -13157,7 +13314,7 @@
         <f>3.6</f>
         <v>3.6</v>
       </c>
-      <c r="G26" s="86">
+      <c r="G26" s="85">
         <f>4.5</f>
         <v>4.5</v>
       </c>
@@ -13380,7 +13537,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D33" t="s">
         <v>641</v>
@@ -13397,10 +13554,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
+        <v>938</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>939</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>940</v>
       </c>
       <c r="D34" t="s">
         <v>641</v>
@@ -13436,13 +13593,13 @@
       <c r="D36" t="s">
         <v>641</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="68">
         <v>0.3</v>
       </c>
-      <c r="F36" s="69">
+      <c r="F36" s="68">
         <v>0.3</v>
       </c>
-      <c r="G36" s="69">
+      <c r="G36" s="68">
         <v>0.6</v>
       </c>
       <c r="H36" t="s">
@@ -13458,7 +13615,7 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D37" t="s">
         <v>641</v>
@@ -13547,7 +13704,7 @@
         <v>23</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D40" t="s">
         <v>641</v>
@@ -13565,12 +13722,12 @@
         <v>866</v>
       </c>
       <c r="I40" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>834</v>
@@ -13753,7 +13910,7 @@
         <v>793</v>
       </c>
       <c r="I48" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -13808,7 +13965,7 @@
         <v>799</v>
       </c>
       <c r="C51" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D51" t="s">
         <v>641</v>
@@ -13889,8 +14046,8 @@
   <cols>
     <col min="1" max="1" width="27.83203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="119" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="119" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="118" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="118" customWidth="1"/>
     <col min="5" max="6" width="11.33203125" style="27" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="27" customWidth="1"/>
     <col min="8" max="9" width="14.33203125" style="27" customWidth="1"/>
@@ -13910,10 +14067,10 @@
       <c r="B1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="207" t="s">
+      <c r="D1" s="206" t="s">
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
@@ -13940,7 +14097,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="111" t="s">
+      <c r="T1" s="110" t="s">
         <v>445</v>
       </c>
     </row>
@@ -13948,87 +14105,87 @@
       <c r="A2" s="42" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="209">
+      <c r="C2" s="208">
         <f>C4+C5</f>
         <v>18.482496322776335</v>
       </c>
-      <c r="D2" s="210"/>
+      <c r="D2" s="209"/>
       <c r="G2" s="54"/>
-      <c r="K2" s="268" t="s">
+      <c r="K2" s="267" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="47" customFormat="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="115" t="s">
         <v>462</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="104" t="s">
         <v>463</v>
       </c>
-      <c r="C3" s="211">
+      <c r="C3" s="210">
         <f>E3*G3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="225">
+      <c r="D3" s="211"/>
+      <c r="E3" s="224">
         <f>Globalfactors.csv!E13</f>
         <v>5.8295314000000005</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="105" t="s">
+      <c r="F3" s="117"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="104" t="s">
         <v>484</v>
       </c>
-      <c r="I3" s="267">
+      <c r="I3" s="266">
         <v>42010</v>
       </c>
-      <c r="J3" s="266" t="s">
+      <c r="J3" s="265" t="s">
         <v>764</v>
       </c>
-      <c r="K3" s="105" t="s">
+      <c r="K3" s="104" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="110" t="s">
         <v>588</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>649</v>
       </c>
-      <c r="C4" s="213">
+      <c r="C4" s="212">
         <f>E3*G4</f>
         <v>15.859207192776333</v>
       </c>
-      <c r="G4" s="194">
+      <c r="G4" s="193">
         <f>Globalfactors.csv!E4</f>
         <v>2.7204943424399999</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="K4" s="105"/>
-      <c r="M4" s="111"/>
-      <c r="Q4" s="119"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="K4" s="104"/>
+      <c r="M4" s="110"/>
+      <c r="Q4" s="118"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="110" t="s">
         <v>468</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="213">
+      <c r="C5" s="212">
         <f>G5*E3</f>
         <v>2.6232891300000003</v>
       </c>
-      <c r="G5" s="195">
+      <c r="G5" s="194">
         <f>Globalfactors.csv!E3</f>
         <v>0.45</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="110" t="s">
         <v>469</v>
       </c>
-      <c r="I5" s="111"/>
+      <c r="I5" s="110"/>
       <c r="K5" s="27" t="s">
         <v>470</v>
       </c>
@@ -14038,21 +14195,21 @@
         <v>446</v>
       </c>
       <c r="B6" s="42"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="210"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="209"/>
     </row>
     <row r="7" spans="1:28" hidden="1">
       <c r="A7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="200">
+      <c r="F7" s="199">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111" t="s">
+      <c r="H7" s="110"/>
+      <c r="I7" s="110" t="s">
         <v>651</v>
       </c>
-      <c r="K7" s="111" t="s">
+      <c r="K7" s="110" t="s">
         <v>652</v>
       </c>
     </row>
@@ -14060,61 +14217,61 @@
       <c r="A8" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="205" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="36">
         <f>Globalfactors.csv!E14</f>
         <v>0.1</v>
       </c>
-      <c r="F8" s="200"/>
-      <c r="H8" s="114" t="s">
+      <c r="F8" s="199"/>
+      <c r="H8" s="113" t="s">
         <v>653</v>
       </c>
-      <c r="I8" s="114"/>
+      <c r="I8" s="113"/>
       <c r="K8" s="27" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="110" t="s">
         <v>632</v>
       </c>
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="205" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="36">
         <v>1</v>
       </c>
-      <c r="F9" s="200"/>
-      <c r="H9" s="114" t="s">
+      <c r="F9" s="199"/>
+      <c r="H9" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="114" t="s">
+      <c r="I9" s="113" t="s">
         <v>655</v>
       </c>
-      <c r="K9" s="206" t="s">
+      <c r="K9" s="205" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="110" t="s">
         <v>631</v>
       </c>
-      <c r="B10" s="206" t="s">
+      <c r="B10" s="205" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="36">
         <v>0.9</v>
       </c>
-      <c r="F10" s="200"/>
-      <c r="H10" s="111" t="s">
+      <c r="F10" s="199"/>
+      <c r="H10" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="111" t="s">
+      <c r="I10" s="110" t="s">
         <v>657</v>
       </c>
-      <c r="K10" s="193" t="s">
+      <c r="K10" s="192" t="s">
         <v>656</v>
       </c>
       <c r="Y10" s="38" t="e">
@@ -14132,7 +14289,7 @@
       <c r="A11" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="201">
+      <c r="F11" s="200">
         <f>Parameters!E27</f>
         <v>334.11111111111109</v>
       </c>
@@ -14141,7 +14298,7 @@
       <c r="A12" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="200">
+      <c r="F12" s="199">
         <f>Parameters!D27</f>
         <v>0.27</v>
       </c>
@@ -14153,7 +14310,7 @@
       <c r="B13" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="202">
+      <c r="F13" s="201">
         <f>Parameters!F27</f>
         <v>90.21</v>
       </c>
@@ -14168,11 +14325,11 @@
       <c r="B14" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="214">
+      <c r="C14" s="213">
         <f>F13*D16*Parameters!C19*Parameters!C6</f>
         <v>580.55007993612196</v>
       </c>
-      <c r="D14" s="215"/>
+      <c r="D14" s="214"/>
       <c r="H14" s="49" t="s">
         <v>120</v>
       </c>
@@ -14190,10 +14347,10 @@
       <c r="G15" s="36">
         <v>0.7</v>
       </c>
-      <c r="K15" s="269" t="s">
+      <c r="K15" s="268" t="s">
         <v>772</v>
       </c>
-      <c r="Q15" s="111"/>
+      <c r="Q15" s="110"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1">
       <c r="A16" s="27" t="s">
@@ -14202,27 +14359,27 @@
       <c r="B16" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="213">
+      <c r="D16" s="212">
         <f>E87</f>
         <v>0.34304585198864457</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="Q16" s="111"/>
+      <c r="Q16" s="110"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="110" t="s">
         <v>479</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="213">
+      <c r="C17" s="212">
         <f>D16*F13*G15*Parameters!C19*Parameters!C6</f>
         <v>406.38505595528528</v>
       </c>
-      <c r="Q17" s="111"/>
+      <c r="Q17" s="110"/>
     </row>
     <row r="18" spans="1:25" s="37" customFormat="1">
       <c r="A18" s="42" t="s">
@@ -14231,11 +14388,11 @@
       <c r="B18" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="209">
+      <c r="C18" s="208">
         <f>-D23*Parameters!C14/1000</f>
         <v>-64.484627123483364</v>
       </c>
-      <c r="D18" s="210"/>
+      <c r="D18" s="209"/>
       <c r="G18" s="37">
         <f>Parameters!C14</f>
         <v>533.66</v>
@@ -14248,20 +14405,20 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="110" t="s">
         <v>481</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="216">
+      <c r="D19" s="215">
         <f>F87*E10</f>
         <v>0.44377569147881474</v>
       </c>
-      <c r="K19" s="111" t="s">
+      <c r="K19" s="110" t="s">
         <v>658</v>
       </c>
-      <c r="Q19" s="111"/>
+      <c r="Q19" s="110"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="27" t="s">
@@ -14270,57 +14427,57 @@
       <c r="B20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="216">
+      <c r="D20" s="215">
         <f>F13*D19</f>
         <v>40.033005128303877</v>
       </c>
-      <c r="G20" s="195">
+      <c r="G20" s="194">
         <f>Parameters!C20</f>
         <v>35315</v>
       </c>
-      <c r="H20" s="111" t="s">
+      <c r="H20" s="110" t="s">
         <v>485</v>
       </c>
-      <c r="I20" s="111"/>
-      <c r="K20" s="111" t="s">
+      <c r="I20" s="110"/>
+      <c r="K20" s="110" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="269" t="s">
+      <c r="A21" s="268" t="s">
         <v>800</v>
       </c>
-      <c r="B21" s="269" t="s">
+      <c r="B21" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="216"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="K21" s="269" t="s">
+      <c r="D21" s="215"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="K21" s="268" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="206" t="s">
+      <c r="A22" s="205" t="s">
         <v>678</v>
       </c>
-      <c r="B22" s="206" t="s">
+      <c r="B22" s="205" t="s">
         <v>679</v>
       </c>
-      <c r="D22" s="216"/>
-      <c r="E22" s="195">
+      <c r="D22" s="215"/>
+      <c r="E22" s="194">
         <v>11700</v>
       </c>
-      <c r="F22" s="195"/>
-      <c r="G22" s="269" t="s">
+      <c r="F22" s="194"/>
+      <c r="G22" s="268" t="s">
         <v>769</v>
       </c>
-      <c r="H22" s="269" t="s">
+      <c r="H22" s="268" t="s">
         <v>771</v>
       </c>
-      <c r="I22" s="111"/>
-      <c r="K22" s="269" t="s">
+      <c r="I22" s="110"/>
+      <c r="K22" s="268" t="s">
         <v>770</v>
       </c>
     </row>
@@ -14331,78 +14488,78 @@
       <c r="B23" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="213">
+      <c r="D23" s="212">
         <f>D20*G20/E22</f>
         <v>120.83466462444885</v>
       </c>
-      <c r="I23" s="111"/>
-      <c r="K23" s="269" t="s">
+      <c r="I23" s="110"/>
+      <c r="K23" s="268" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="126" customFormat="1">
-      <c r="A24" s="126" t="s">
+    <row r="24" spans="1:25" s="125" customFormat="1">
+      <c r="A24" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="217">
+      <c r="C24" s="216">
         <f>D28*-44/12</f>
         <v>-84.966161861607617</v>
       </c>
-      <c r="D24" s="217">
+      <c r="D24" s="216">
         <f>F25*G24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="126" t="s">
+      <c r="K24" s="125" t="s">
         <v>448</v>
       </c>
-      <c r="X24" s="126" t="e">
+      <c r="X24" s="125" t="e">
         <f>#REF!*1.1</f>
         <v>#REF!</v>
       </c>
-      <c r="Y24" s="126" t="s">
+      <c r="Y24" s="125" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="116" customFormat="1">
-      <c r="A25" s="116" t="s">
+    <row r="25" spans="1:25" s="115" customFormat="1">
+      <c r="A25" s="115" t="s">
         <v>486</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="115" t="s">
         <v>447</v>
       </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
-      <c r="F25" s="220">
+      <c r="C25" s="210"/>
+      <c r="D25" s="210"/>
+      <c r="F25" s="219">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="J25" s="116" t="s">
+      <c r="J25" s="115" t="s">
         <v>848</v>
       </c>
-      <c r="K25" s="116" t="s">
+      <c r="K25" s="115" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="116" customFormat="1">
-      <c r="A26" s="116" t="s">
+    <row r="26" spans="1:25" s="115" customFormat="1">
+      <c r="A26" s="115" t="s">
         <v>673</v>
       </c>
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="211"/>
-      <c r="F26" s="205">
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="F26" s="204">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="J26" s="116" t="s">
+      <c r="J26" s="115" t="s">
         <v>848</v>
       </c>
-      <c r="K26" s="116" t="s">
+      <c r="K26" s="115" t="s">
         <v>845</v>
       </c>
     </row>
@@ -14410,10 +14567,10 @@
       <c r="A27" s="42" t="s">
         <v>849</v>
       </c>
-      <c r="C27" s="209"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="278"/>
-      <c r="F27" s="279"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="208"/>
+      <c r="E27" s="277"/>
+      <c r="F27" s="278"/>
       <c r="J27" s="42" t="s">
         <v>847</v>
       </c>
@@ -14422,50 +14579,50 @@
       </c>
     </row>
     <row r="28" spans="1:25" s="47" customFormat="1">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="115" t="s">
         <v>539</v>
       </c>
-      <c r="B28" s="203" t="s">
+      <c r="B28" s="202" t="s">
         <v>603</v>
       </c>
-      <c r="C28" s="212"/>
-      <c r="D28" s="211">
+      <c r="C28" s="211"/>
+      <c r="D28" s="210">
         <f>F25*(1-F26)*G29</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F28" s="169"/>
-      <c r="G28" s="277"/>
-      <c r="H28" s="276"/>
-      <c r="I28" s="276"/>
-      <c r="K28" s="116" t="s">
+      <c r="F28" s="168"/>
+      <c r="G28" s="276"/>
+      <c r="H28" s="275"/>
+      <c r="I28" s="275"/>
+      <c r="K28" s="115" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="269" t="s">
+      <c r="A29" s="268" t="s">
         <v>768</v>
       </c>
-      <c r="B29" s="269" t="s">
+      <c r="B29" s="268" t="s">
         <v>850</v>
       </c>
-      <c r="G29" s="195">
+      <c r="G29" s="194">
         <v>1</v>
       </c>
-      <c r="H29" s="282">
+      <c r="H29" s="281">
         <f>D28/0.3/1000</f>
         <v>7.7241965328734202E-2</v>
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
-      <c r="K29" s="269" t="s">
+      <c r="K29" s="268" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="30" spans="1:25">
-      <c r="B30" s="204" t="s">
+      <c r="B30" s="203" t="s">
         <v>634</v>
       </c>
-      <c r="C30" s="218">
+      <c r="C30" s="217">
         <f>SUM(C14,C18,C24,C2)</f>
         <v>449.58178727380732</v>
       </c>
@@ -14474,12 +14631,12 @@
       <c r="A31" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="K31" s="111" t="s">
+      <c r="K31" s="110" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="C32" s="119">
+      <c r="C32" s="118">
         <v>3</v>
       </c>
     </row>
@@ -14487,40 +14644,40 @@
       <c r="A34" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="270" t="s">
+      <c r="H34" s="269" t="s">
         <v>722</v>
       </c>
       <c r="L34" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="M34" s="124"/>
+      <c r="M34" s="123"/>
       <c r="N34" s="37"/>
       <c r="O34" s="37"/>
-      <c r="P34" s="123" t="s">
+      <c r="P34" s="122" t="s">
         <v>478</v>
       </c>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
-      <c r="W34" s="111" t="s">
+      <c r="W34" s="110" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="16">
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="110" t="s">
         <v>477</v>
       </c>
-      <c r="C35" s="219"/>
-      <c r="D35" s="119" t="s">
+      <c r="C35" s="218"/>
+      <c r="D35" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="K35" s="125" t="s">
+      <c r="K35" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="L35" s="125"/>
+      <c r="L35" s="124"/>
       <c r="M35" s="37"/>
-      <c r="N35" s="123" t="s">
+      <c r="N35" s="122" t="s">
         <v>473</v>
       </c>
       <c r="O35" s="37" t="s">
@@ -14535,19 +14692,19 @@
       <c r="A36" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="110" t="s">
         <v>455</v>
       </c>
-      <c r="C36" s="219" t="s">
+      <c r="C36" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="219" t="s">
+      <c r="D36" s="218" t="s">
         <v>476</v>
       </c>
-      <c r="E36" s="111" t="s">
+      <c r="E36" s="110" t="s">
         <v>457</v>
       </c>
-      <c r="F36" s="111" t="s">
+      <c r="F36" s="110" t="s">
         <v>456</v>
       </c>
       <c r="G36" s="37" t="s">
@@ -14584,10 +14741,10 @@
         <f t="shared" ref="B37:B68" si="0">$F$7*EXP(-$F$7*A37)</f>
         <v>0.12468783572052551</v>
       </c>
-      <c r="C37" s="119">
+      <c r="C37" s="118">
         <v>0.1</v>
       </c>
-      <c r="D37" s="119">
+      <c r="D37" s="118">
         <v>0</v>
       </c>
       <c r="E37" s="29">
@@ -14640,10 +14797,10 @@
         <f t="shared" si="0"/>
         <v>0.10796566928242193</v>
       </c>
-      <c r="C38" s="119">
+      <c r="C38" s="118">
         <v>0.1</v>
       </c>
-      <c r="D38" s="119">
+      <c r="D38" s="118">
         <v>0.5</v>
       </c>
       <c r="E38" s="29">
@@ -14695,10 +14852,10 @@
         <f t="shared" si="0"/>
         <v>9.3486150242661228E-2</v>
       </c>
-      <c r="C39" s="119">
+      <c r="C39" s="118">
         <v>0.1</v>
       </c>
-      <c r="D39" s="119">
+      <c r="D39" s="118">
         <v>0.5</v>
       </c>
       <c r="E39" s="29">
@@ -14750,10 +14907,10 @@
         <f t="shared" si="0"/>
         <v>8.0948512108342419E-2</v>
       </c>
-      <c r="C40" s="119">
+      <c r="C40" s="118">
         <v>0.1</v>
       </c>
-      <c r="D40" s="119">
+      <c r="D40" s="118">
         <v>0.5</v>
       </c>
       <c r="E40" s="29">
@@ -14805,10 +14962,10 @@
         <f t="shared" si="0"/>
         <v>7.009232485823591E-2</v>
       </c>
-      <c r="C41" s="119">
+      <c r="C41" s="118">
         <v>0.1</v>
       </c>
-      <c r="D41" s="119">
+      <c r="D41" s="118">
         <v>0.75</v>
       </c>
       <c r="E41" s="29">
@@ -14860,10 +15017,10 @@
         <f t="shared" si="0"/>
         <v>6.0692085327732133E-2</v>
       </c>
-      <c r="C42" s="119">
+      <c r="C42" s="118">
         <v>0.1</v>
       </c>
-      <c r="D42" s="119">
+      <c r="D42" s="118">
         <v>0.75</v>
       </c>
       <c r="E42" s="29">
@@ -14915,10 +15072,10 @@
         <f t="shared" si="0"/>
         <v>5.2552533089447094E-2</v>
       </c>
-      <c r="C43" s="119">
+      <c r="C43" s="118">
         <v>0.1</v>
       </c>
-      <c r="D43" s="119">
+      <c r="D43" s="118">
         <v>0.75</v>
       </c>
       <c r="E43" s="29">
@@ -14970,10 +15127,10 @@
         <f t="shared" si="0"/>
         <v>4.5504594531628202E-2</v>
       </c>
-      <c r="C44" s="119">
+      <c r="C44" s="118">
         <v>0.1</v>
       </c>
-      <c r="D44" s="119">
+      <c r="D44" s="118">
         <v>0.75</v>
       </c>
       <c r="E44" s="29">
@@ -15025,10 +15182,10 @@
         <f t="shared" si="0"/>
         <v>3.9401870885338766E-2</v>
       </c>
-      <c r="C45" s="119">
+      <c r="C45" s="118">
         <v>0.1</v>
       </c>
-      <c r="D45" s="119">
+      <c r="D45" s="118">
         <v>0.75</v>
       </c>
       <c r="E45" s="29">
@@ -15080,10 +15237,10 @@
         <f t="shared" si="0"/>
         <v>3.4117597250225534E-2</v>
       </c>
-      <c r="C46" s="119">
+      <c r="C46" s="118">
         <v>0.1</v>
       </c>
-      <c r="D46" s="119">
+      <c r="D46" s="118">
         <v>0.75</v>
       </c>
       <c r="E46" s="29">
@@ -15135,10 +15292,10 @@
         <f t="shared" si="0"/>
         <v>2.9542009452188715E-2</v>
       </c>
-      <c r="C47" s="119">
+      <c r="C47" s="118">
         <v>0.1</v>
       </c>
-      <c r="D47" s="119">
+      <c r="D47" s="118">
         <v>0.75</v>
       </c>
       <c r="E47" s="29">
@@ -15190,10 +15347,10 @@
         <f t="shared" si="0"/>
         <v>2.5580064037699433E-2</v>
       </c>
-      <c r="C48" s="119">
+      <c r="C48" s="118">
         <v>0.1</v>
       </c>
-      <c r="D48" s="119">
+      <c r="D48" s="118">
         <v>0.75</v>
       </c>
       <c r="E48" s="29">
@@ -15245,10 +15402,10 @@
         <f t="shared" si="0"/>
         <v>2.214946404481382E-2</v>
       </c>
-      <c r="C49" s="119">
+      <c r="C49" s="118">
         <v>0.1</v>
       </c>
-      <c r="D49" s="119">
+      <c r="D49" s="118">
         <v>0.75</v>
       </c>
       <c r="E49" s="29">
@@ -15300,10 +15457,10 @@
         <f t="shared" si="0"/>
         <v>1.9178949542482164E-2</v>
       </c>
-      <c r="C50" s="119">
+      <c r="C50" s="118">
         <v>0.1</v>
       </c>
-      <c r="D50" s="119">
+      <c r="D50" s="118">
         <v>0.75</v>
       </c>
       <c r="E50" s="29">
@@ -15355,10 +15512,10 @@
         <f t="shared" si="0"/>
         <v>1.6606817429481006E-2</v>
       </c>
-      <c r="C51" s="119">
+      <c r="C51" s="118">
         <v>0.1</v>
       </c>
-      <c r="D51" s="119">
+      <c r="D51" s="118">
         <v>0.82499999999999996</v>
       </c>
       <c r="E51" s="29">
@@ -15410,10 +15567,10 @@
         <f t="shared" si="0"/>
         <v>1.4379639746443663E-2</v>
       </c>
-      <c r="C52" s="119">
+      <c r="C52" s="118">
         <v>0.1</v>
       </c>
-      <c r="D52" s="119">
+      <c r="D52" s="118">
         <v>0.82499999999999996</v>
       </c>
       <c r="E52" s="29">
@@ -15465,10 +15622,10 @@
         <f t="shared" si="0"/>
         <v>1.2451153877950739E-2</v>
       </c>
-      <c r="C53" s="119">
+      <c r="C53" s="118">
         <v>0.1</v>
       </c>
-      <c r="D53" s="119">
+      <c r="D53" s="118">
         <v>0.82499999999999996</v>
       </c>
       <c r="E53" s="29">
@@ -15520,10 +15677,10 @@
         <f t="shared" si="0"/>
         <v>1.0781301592117407E-2</v>
       </c>
-      <c r="C54" s="119">
+      <c r="C54" s="118">
         <v>0.1</v>
       </c>
-      <c r="D54" s="119">
+      <c r="D54" s="118">
         <v>0.9</v>
       </c>
       <c r="E54" s="29">
@@ -15575,10 +15732,10 @@
         <f t="shared" si="0"/>
         <v>9.3353969567456611E-3</v>
       </c>
-      <c r="C55" s="119">
+      <c r="C55" s="118">
         <v>0.1</v>
       </c>
-      <c r="D55" s="119">
+      <c r="D55" s="118">
         <v>0.9</v>
       </c>
       <c r="E55" s="29">
@@ -15630,10 +15787,10 @@
         <f t="shared" si="0"/>
         <v>8.0834058481152552E-3</v>
       </c>
-      <c r="C56" s="119">
+      <c r="C56" s="118">
         <v>0.1</v>
       </c>
-      <c r="D56" s="119">
+      <c r="D56" s="118">
         <v>0.9</v>
       </c>
       <c r="E56" s="29">
@@ -15685,10 +15842,10 @@
         <f t="shared" si="0"/>
         <v>6.9993220864731295E-3</v>
       </c>
-      <c r="C57" s="119">
+      <c r="C57" s="118">
         <v>0.1</v>
       </c>
-      <c r="D57" s="119">
+      <c r="D57" s="118">
         <v>0.9</v>
       </c>
       <c r="E57" s="29">
@@ -15740,10 +15897,10 @@
         <f t="shared" si="0"/>
         <v>6.0606272393972736E-3</v>
       </c>
-      <c r="C58" s="119">
+      <c r="C58" s="118">
         <v>0.1</v>
       </c>
-      <c r="D58" s="119">
+      <c r="D58" s="118">
         <v>0.9</v>
       </c>
       <c r="E58" s="29">
@@ -15795,10 +15952,10 @@
         <f t="shared" si="0"/>
         <v>5.2478228721479815E-3</v>
       </c>
-      <c r="C59" s="119">
+      <c r="C59" s="118">
         <v>0.1</v>
       </c>
-      <c r="D59" s="119">
+      <c r="D59" s="118">
         <v>0.9</v>
       </c>
       <c r="E59" s="29">
@@ -15850,10 +16007,10 @@
         <f t="shared" si="0"/>
         <v>4.5440255289778061E-3</v>
       </c>
-      <c r="C60" s="119">
+      <c r="C60" s="118">
         <v>0.1</v>
       </c>
-      <c r="D60" s="119">
+      <c r="D60" s="118">
         <v>0.9</v>
       </c>
       <c r="E60" s="29">
@@ -15905,10 +16062,10 @@
         <f t="shared" si="0"/>
         <v>3.9346160324101294E-3</v>
       </c>
-      <c r="C61" s="119">
+      <c r="C61" s="118">
         <v>0.1</v>
       </c>
-      <c r="D61" s="119">
+      <c r="D61" s="118">
         <v>0.9</v>
       </c>
       <c r="E61" s="29">
@@ -15960,10 +16117,10 @@
         <f t="shared" si="0"/>
         <v>3.406935815781251E-3</v>
       </c>
-      <c r="C62" s="119">
+      <c r="C62" s="118">
         <v>0.1</v>
       </c>
-      <c r="D62" s="119">
+      <c r="D62" s="118">
         <v>0.9</v>
       </c>
       <c r="E62" s="29">
@@ -16015,10 +16172,10 @@
         <f t="shared" si="0"/>
         <v>2.9500239813090774E-3</v>
       </c>
-      <c r="C63" s="119">
+      <c r="C63" s="118">
         <v>0.1</v>
       </c>
-      <c r="D63" s="119">
+      <c r="D63" s="118">
         <v>0.9</v>
       </c>
       <c r="E63" s="29">
@@ -16070,10 +16227,10 @@
         <f t="shared" si="0"/>
         <v>2.5543896218963671E-3</v>
       </c>
-      <c r="C64" s="119">
+      <c r="C64" s="118">
         <v>0.1</v>
       </c>
-      <c r="D64" s="119">
+      <c r="D64" s="118">
         <v>0.9</v>
       </c>
       <c r="E64" s="29">
@@ -16125,10 +16282,10 @@
         <f t="shared" si="0"/>
         <v>2.2118146773696511E-3</v>
       </c>
-      <c r="C65" s="119">
+      <c r="C65" s="118">
         <v>0.1</v>
       </c>
-      <c r="D65" s="119">
+      <c r="D65" s="118">
         <v>0.9</v>
       </c>
       <c r="E65" s="29">
@@ -16180,10 +16337,10 @@
         <f t="shared" si="0"/>
         <v>1.9151832301119041E-3</v>
       </c>
-      <c r="C66" s="119">
+      <c r="C66" s="118">
         <v>0.1</v>
       </c>
-      <c r="D66" s="119">
+      <c r="D66" s="118">
         <v>0.9</v>
       </c>
       <c r="E66" s="29">
@@ -16235,10 +16392,10 @@
         <f t="shared" si="0"/>
         <v>1.6583336942423506E-3</v>
       </c>
-      <c r="C67" s="119">
+      <c r="C67" s="118">
         <v>0.1</v>
       </c>
-      <c r="D67" s="119">
+      <c r="D67" s="118">
         <v>0.9</v>
       </c>
       <c r="E67" s="29">
@@ -16290,10 +16447,10 @@
         <f t="shared" si="0"/>
         <v>1.4359308280382109E-3</v>
       </c>
-      <c r="C68" s="119">
+      <c r="C68" s="118">
         <v>0.1</v>
       </c>
-      <c r="D68" s="119">
+      <c r="D68" s="118">
         <v>0.9</v>
       </c>
       <c r="E68" s="29">
@@ -16345,10 +16502,10 @@
         <f t="shared" ref="B69:B86" si="8">$F$7*EXP(-$F$7*A69)</f>
         <v>1.243354911058796E-3</v>
       </c>
-      <c r="C69" s="119">
+      <c r="C69" s="118">
         <v>0.1</v>
       </c>
-      <c r="D69" s="119">
+      <c r="D69" s="118">
         <v>0.9</v>
       </c>
       <c r="E69" s="29">
@@ -16400,10 +16557,10 @@
         <f t="shared" si="8"/>
         <v>1.0766057839750539E-3</v>
       </c>
-      <c r="C70" s="119">
+      <c r="C70" s="118">
         <v>0.1</v>
       </c>
-      <c r="D70" s="119">
+      <c r="D70" s="118">
         <v>0.9</v>
       </c>
       <c r="E70" s="29">
@@ -16455,10 +16612,10 @@
         <f t="shared" si="8"/>
         <v>9.3221975783367426E-4</v>
       </c>
-      <c r="C71" s="119">
+      <c r="C71" s="118">
         <v>0.1</v>
       </c>
-      <c r="D71" s="119">
+      <c r="D71" s="118">
         <v>0.9</v>
       </c>
       <c r="E71" s="29">
@@ -16510,10 +16667,10 @@
         <f t="shared" si="8"/>
         <v>8.0719766680689817E-4</v>
       </c>
-      <c r="C72" s="119">
+      <c r="C72" s="118">
         <v>0.1</v>
       </c>
-      <c r="D72" s="119">
+      <c r="D72" s="118">
         <v>0.9</v>
       </c>
       <c r="E72" s="29">
@@ -16565,10 +16722,10 @@
         <f t="shared" si="8"/>
         <v>6.9894256995006948E-4</v>
       </c>
-      <c r="C73" s="119">
+      <c r="C73" s="118">
         <v>0.1</v>
       </c>
-      <c r="D73" s="119">
+      <c r="D73" s="118">
         <v>0.9</v>
       </c>
       <c r="E73" s="29">
@@ -16620,10 +16777,10 @@
         <f t="shared" si="8"/>
         <v>6.0520580791677909E-4</v>
       </c>
-      <c r="C74" s="119">
+      <c r="C74" s="118">
         <v>0.1</v>
       </c>
-      <c r="D74" s="119">
+      <c r="D74" s="118">
         <v>0.9</v>
       </c>
       <c r="E74" s="29">
@@ -16675,10 +16832,10 @@
         <f t="shared" si="8"/>
         <v>5.240402941294115E-4</v>
       </c>
-      <c r="C75" s="119">
+      <c r="C75" s="118">
         <v>0.1</v>
       </c>
-      <c r="D75" s="119">
+      <c r="D75" s="118">
         <v>0.9</v>
       </c>
       <c r="E75" s="29">
@@ -16730,10 +16887,10 @@
         <f t="shared" si="8"/>
         <v>4.5376007017599955E-4</v>
       </c>
-      <c r="C76" s="119">
+      <c r="C76" s="118">
         <v>0.1</v>
       </c>
-      <c r="D76" s="119">
+      <c r="D76" s="118">
         <v>0.9</v>
       </c>
       <c r="E76" s="29">
@@ -16785,10 +16942,10 @@
         <f t="shared" si="8"/>
         <v>3.9290528532388299E-4</v>
       </c>
-      <c r="C77" s="119">
+      <c r="C77" s="118">
         <v>0.1</v>
       </c>
-      <c r="D77" s="119">
+      <c r="D77" s="118">
         <v>0.9</v>
       </c>
       <c r="E77" s="29">
@@ -16840,10 +16997,10 @@
         <f t="shared" si="8"/>
         <v>3.402118727096567E-4</v>
       </c>
-      <c r="C78" s="119">
+      <c r="C78" s="118">
         <v>0.1</v>
       </c>
-      <c r="D78" s="119">
+      <c r="D78" s="118">
         <v>0.9</v>
       </c>
       <c r="E78" s="29">
@@ -16895,10 +17052,10 @@
         <f t="shared" si="8"/>
         <v>2.9458529232356952E-4</v>
       </c>
-      <c r="C79" s="119">
+      <c r="C79" s="118">
         <v>0.1</v>
       </c>
-      <c r="D79" s="119">
+      <c r="D79" s="118">
         <v>0.9</v>
       </c>
       <c r="E79" s="29">
@@ -16950,10 +17107,10 @@
         <f t="shared" si="8"/>
         <v>2.5507779538141821E-4</v>
       </c>
-      <c r="C80" s="119">
+      <c r="C80" s="118">
         <v>0.1</v>
       </c>
-      <c r="D80" s="119">
+      <c r="D80" s="118">
         <v>0.9</v>
       </c>
       <c r="E80" s="29">
@@ -17005,10 +17162,10 @@
         <f t="shared" si="8"/>
         <v>2.2086873782272285E-4</v>
       </c>
-      <c r="C81" s="119">
+      <c r="C81" s="118">
         <v>0.1</v>
       </c>
-      <c r="D81" s="119">
+      <c r="D81" s="118">
         <v>0.9</v>
       </c>
       <c r="E81" s="29">
@@ -17060,10 +17217,10 @@
         <f t="shared" si="8"/>
         <v>1.9124753400999643E-4</v>
       </c>
-      <c r="C82" s="119">
+      <c r="C82" s="118">
         <v>0.1</v>
       </c>
-      <c r="D82" s="119">
+      <c r="D82" s="118">
         <v>0.9</v>
       </c>
       <c r="E82" s="29">
@@ -17115,10 +17272,10 @@
         <f t="shared" si="8"/>
         <v>1.6559889654579202E-4</v>
       </c>
-      <c r="C83" s="119">
+      <c r="C83" s="118">
         <v>0.1</v>
       </c>
-      <c r="D83" s="119">
+      <c r="D83" s="118">
         <v>0.9</v>
       </c>
       <c r="E83" s="29">
@@ -17170,10 +17327,10 @@
         <f t="shared" si="8"/>
         <v>1.4339005561112524E-4</v>
       </c>
-      <c r="C84" s="119">
+      <c r="C84" s="118">
         <v>0.1</v>
       </c>
-      <c r="D84" s="119">
+      <c r="D84" s="118">
         <v>0.9</v>
       </c>
       <c r="E84" s="29">
@@ -17225,10 +17382,10 @@
         <f t="shared" si="8"/>
         <v>1.2415969234720137E-4</v>
       </c>
-      <c r="C85" s="119">
+      <c r="C85" s="118">
         <v>0.1</v>
       </c>
-      <c r="D85" s="119">
+      <c r="D85" s="118">
         <v>0.9</v>
       </c>
       <c r="E85" s="29">
@@ -17280,10 +17437,10 @@
         <f t="shared" si="8"/>
         <v>1.075083564062419E-4</v>
       </c>
-      <c r="C86" s="119">
+      <c r="C86" s="118">
         <v>0.1</v>
       </c>
-      <c r="D86" s="119">
+      <c r="D86" s="118">
         <v>0.9</v>
       </c>
       <c r="E86" s="29">
@@ -17324,18 +17481,18 @@
         <f>SUM(B37:B86)</f>
         <v>0.92903328181307976</v>
       </c>
-      <c r="C87" s="119">
+      <c r="C87" s="118">
         <v>0.1</v>
       </c>
-      <c r="E87" s="226">
+      <c r="E87" s="225">
         <f>SUM(E37:E86)</f>
         <v>0.34304585198864457</v>
       </c>
-      <c r="F87" s="115">
+      <c r="F87" s="114">
         <f>SUM(F37:F86)</f>
         <v>0.49308410164312749</v>
       </c>
-      <c r="G87" s="115">
+      <c r="G87" s="114">
         <f>E87+F87+C87</f>
         <v>0.93612995363177209</v>
       </c>
@@ -17398,16 +17555,16 @@
       <c r="A88" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="111"/>
+      <c r="B88" s="110"/>
       <c r="Z88" s="36" t="e">
         <f>SUM(AA38:AA87)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA88" s="115">
+      <c r="AA88" s="114">
         <f>SUM(AB38:AB87)</f>
         <v>1.1563427736777408E-5</v>
       </c>
-      <c r="AB88" s="115" t="e">
+      <c r="AB88" s="114" t="e">
         <f>SUM(AC38:AC87)</f>
         <v>#REF!</v>
       </c>
@@ -17422,7 +17579,7 @@
       </c>
     </row>
     <row r="90" spans="1:30">
-      <c r="A90" s="111" t="s">
+      <c r="A90" s="110" t="s">
         <v>475</v>
       </c>
       <c r="AD90" s="27" t="s">
@@ -17436,22 +17593,22 @@
       <c r="B91" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D91" s="119" t="s">
+      <c r="D91" s="118" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:30">
-      <c r="A92" s="111" t="s">
+      <c r="A92" s="110" t="s">
         <v>451</v>
       </c>
-      <c r="B92" s="112">
+      <c r="B92" s="111">
         <f>D20</f>
         <v>40.033005128303877</v>
       </c>
-      <c r="C92" s="119" t="s">
+      <c r="C92" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="119" t="s">
+      <c r="D92" s="118" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17462,7 +17619,7 @@
       <c r="B93" s="27">
         <v>35315</v>
       </c>
-      <c r="C93" s="119" t="s">
+      <c r="C93" s="118" t="s">
         <v>72</v>
       </c>
     </row>
@@ -17473,25 +17630,25 @@
       <c r="B94" s="27">
         <v>11700</v>
       </c>
-      <c r="C94" s="119" t="s">
+      <c r="C94" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D94" s="119" t="s">
+      <c r="D94" s="118" t="s">
         <v>63</v>
       </c>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
-      <c r="K94" s="111">
+      <c r="K94" s="110">
         <v>3412</v>
       </c>
-      <c r="L94" s="111" t="s">
+      <c r="L94" s="110" t="s">
         <v>452</v>
       </c>
-      <c r="M94" s="113">
+      <c r="M94" s="112">
         <f>K94/B94</f>
         <v>0.29162393162393163</v>
       </c>
-      <c r="N94" s="111" t="s">
+      <c r="N94" s="110" t="s">
         <v>454</v>
       </c>
     </row>
@@ -17502,10 +17659,10 @@
       <c r="B95" s="27">
         <v>1</v>
       </c>
-      <c r="C95" s="119" t="s">
+      <c r="C95" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="K95" s="111" t="s">
+      <c r="K95" s="110" t="s">
         <v>453</v>
       </c>
     </row>
@@ -17514,7 +17671,7 @@
         <f>B92*B93/B94*B95</f>
         <v>120.83466462444885</v>
       </c>
-      <c r="C96" s="119" t="s">
+      <c r="C96" s="118" t="s">
         <v>66</v>
       </c>
     </row>
@@ -17526,10 +17683,10 @@
         <f>-D100/1000</f>
         <v>-0.53737674279288006</v>
       </c>
-      <c r="C97" s="119" t="s">
+      <c r="C97" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="D97" s="119" t="s">
+      <c r="D97" s="118" t="s">
         <v>59</v>
       </c>
       <c r="E97" s="27" t="s">
@@ -17541,10 +17698,10 @@
         <f>B96*B97</f>
         <v>-64.933738492356369</v>
       </c>
-      <c r="C98" s="119" t="s">
+      <c r="C98" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="D98" s="119">
+      <c r="D98" s="118">
         <v>1253.77</v>
       </c>
       <c r="E98" s="27">
@@ -17565,10 +17722,10 @@
         <f>#REF!+B98</f>
         <v>#REF!</v>
       </c>
-      <c r="C100" s="119" t="s">
+      <c r="C100" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="119">
+      <c r="D100" s="118">
         <v>537.37674279288001</v>
       </c>
       <c r="E100" s="28" t="s">
@@ -17586,10 +17743,10 @@
       <c r="B102" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C102" s="119" t="s">
+      <c r="C102" s="118" t="s">
         <v>544</v>
       </c>
-      <c r="D102" s="119" t="s">
+      <c r="D102" s="118" t="s">
         <v>545</v>
       </c>
       <c r="E102" s="27" t="s">
@@ -17606,10 +17763,10 @@
       <c r="B103" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C103" s="119" t="s">
+      <c r="C103" s="118" t="s">
         <v>549</v>
       </c>
-      <c r="D103" s="119" t="s">
+      <c r="D103" s="118" t="s">
         <v>550</v>
       </c>
       <c r="E103" s="27" t="s">
@@ -17647,10 +17804,10 @@
       <c r="B104" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C104" s="119" t="s">
+      <c r="C104" s="118" t="s">
         <v>549</v>
       </c>
-      <c r="D104" s="119" t="s">
+      <c r="D104" s="118" t="s">
         <v>550</v>
       </c>
       <c r="E104" s="27">
@@ -17688,10 +17845,10 @@
       <c r="B105" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C105" s="119" t="s">
+      <c r="C105" s="118" t="s">
         <v>559</v>
       </c>
-      <c r="D105" s="119" t="s">
+      <c r="D105" s="118" t="s">
         <v>560</v>
       </c>
       <c r="E105" s="27" t="s">
@@ -17723,10 +17880,10 @@
       <c r="B106" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C106" s="119" t="s">
+      <c r="C106" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="D106" s="119" t="s">
+      <c r="D106" s="118" t="s">
         <v>563</v>
       </c>
       <c r="E106" s="27" t="s">
@@ -17758,10 +17915,10 @@
       <c r="B107" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C107" s="119" t="s">
+      <c r="C107" s="118" t="s">
         <v>567</v>
       </c>
-      <c r="D107" s="119" t="s">
+      <c r="D107" s="118" t="s">
         <v>563</v>
       </c>
       <c r="E107" s="27" t="s">
@@ -17793,10 +17950,10 @@
       <c r="B108" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C108" s="119" t="s">
+      <c r="C108" s="118" t="s">
         <v>570</v>
       </c>
-      <c r="D108" s="119" t="s">
+      <c r="D108" s="118" t="s">
         <v>563</v>
       </c>
       <c r="E108" s="27" t="s">
@@ -17828,10 +17985,10 @@
       <c r="B109" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C109" s="119" t="s">
+      <c r="C109" s="118" t="s">
         <v>573</v>
       </c>
-      <c r="D109" s="119" t="s">
+      <c r="D109" s="118" t="s">
         <v>574</v>
       </c>
       <c r="E109" s="27" t="s">
@@ -17877,8 +18034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17926,7 +18083,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="111" t="s">
+      <c r="T1" s="110" t="s">
         <v>445</v>
       </c>
     </row>
@@ -18006,7 +18163,7 @@
       <c r="A8" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="104"/>
+      <c r="B8" s="103"/>
       <c r="H8" t="s">
         <v>439</v>
       </c>
@@ -18021,19 +18178,19 @@
     </row>
     <row r="10" spans="1:20" s="45" customFormat="1">
       <c r="A10" s="45" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>945</v>
-      </c>
-      <c r="C10" s="285">
+        <v>944</v>
+      </c>
+      <c r="C10" s="284">
         <f>D13*(Globalfactors.csv!E4+Globalfactors.csv!E3)</f>
         <v>8.4018100074660005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B11" t="s">
         <v>797</v>
@@ -18044,21 +18201,21 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E12">
         <v>0.25</v>
       </c>
       <c r="J12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B13" t="s">
         <v>463</v>
@@ -18082,11 +18239,11 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="F15" s="227">
+      <c r="F15" s="226">
         <f>Parameters!F27</f>
         <v>90.21</v>
       </c>
-      <c r="G15" s="99"/>
+      <c r="G15" s="98"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:20">
@@ -18098,7 +18255,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="228">
+      <c r="E16" s="227">
         <v>0.84</v>
       </c>
       <c r="H16" t="s">
@@ -18136,7 +18293,7 @@
         <v>694</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="232"/>
+      <c r="D18" s="231"/>
       <c r="E18" s="10">
         <v>0.03</v>
       </c>
@@ -18151,7 +18308,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="230" t="s">
+      <c r="A19" s="229" t="s">
         <v>696</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -18161,20 +18318,20 @@
         <f>D19*Parameters!C19*Parameters!C6</f>
         <v>42.646957919999991</v>
       </c>
-      <c r="D19" s="235">
+      <c r="D19" s="234">
         <f>D17*E18</f>
         <v>2.2732919999999996</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A20" s="230" t="s">
+      <c r="A20" s="229" t="s">
         <v>695</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="235"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="234"/>
       <c r="E20" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -18189,7 +18346,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="230" t="s">
+      <c r="A21" s="229" t="s">
         <v>426</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -18199,7 +18356,7 @@
         <f>D21*Parameters!C19*Parameters!C6</f>
         <v>7.1078263200000009</v>
       </c>
-      <c r="D21" s="236">
+      <c r="D21" s="235">
         <f>D17*E20</f>
         <v>0.378882</v>
       </c>
@@ -18211,15 +18368,15 @@
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="229">
+      <c r="D22" s="107"/>
+      <c r="E22" s="228">
         <v>4.19318820416827</v>
       </c>
       <c r="F22">
         <f>3.6</f>
         <v>3.6</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="85">
         <f>4.5</f>
         <v>4.5</v>
       </c>
@@ -18234,26 +18391,26 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="230" t="s">
+      <c r="A23" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="230" t="s">
+      <c r="B23" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="110">
+      <c r="D23" s="109">
         <f>E22*D17/1000</f>
         <v>0.31774470663433646</v>
       </c>
-      <c r="J23" s="86"/>
+      <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="230" t="s">
+      <c r="A24" s="229" t="s">
         <v>676</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="D24" s="110"/>
+      <c r="D24" s="109"/>
       <c r="E24" s="10">
         <v>0.12</v>
       </c>
@@ -18287,7 +18444,7 @@
       <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="237">
+      <c r="D26" s="236">
         <f>D25*G26</f>
         <v>-150.25435902513021</v>
       </c>
@@ -18306,7 +18463,7 @@
       <c r="B27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="234">
+      <c r="C27" s="233">
         <f>C19+C21+D26</f>
         <v>-100.49957478513022</v>
       </c>
@@ -18318,11 +18475,11 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="6" customFormat="1">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="87" t="s">
         <v>682</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="F29" s="222">
+      <c r="C29" s="88"/>
+      <c r="F29" s="221">
         <f>Parameters!D27</f>
         <v>0.27</v>
       </c>
@@ -18334,11 +18491,11 @@
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="89"/>
+      <c r="C30" s="88"/>
       <c r="E30" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F30" s="221"/>
+      <c r="F30" s="220"/>
       <c r="H30" s="6" t="s">
         <v>10</v>
       </c>
@@ -18356,7 +18513,7 @@
       <c r="B31" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D31" s="223">
+      <c r="D31" s="222">
         <f>F29*1000*(1-E30)</f>
         <v>121.49999999999999</v>
       </c>
@@ -18368,7 +18525,7 @@
       <c r="B32" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D32" s="223"/>
+      <c r="D32" s="222"/>
       <c r="E32" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
@@ -18389,7 +18546,7 @@
       <c r="B33" t="s">
         <v>713</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33" s="89">
         <f>D31*E32</f>
         <v>6.5609999999999991</v>
       </c>
@@ -18401,7 +18558,7 @@
       <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="87">
+      <c r="D34" s="86">
         <f>D33*Parameters!C19*Parameters!C6</f>
         <v>123.08435999999999</v>
       </c>
@@ -18415,7 +18572,7 @@
       <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="87">
+      <c r="D35" s="86">
         <f>D37+D40</f>
         <v>17.723199999999999</v>
       </c>
@@ -18531,7 +18688,7 @@
       <c r="B43" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="G43" s="271">
+      <c r="G43" s="270">
         <f>Globalfactors.csv!E8</f>
         <v>0.3</v>
       </c>
@@ -18552,7 +18709,7 @@
       <c r="B44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="233">
+      <c r="E44" s="232">
         <f>Globalfactors.csv!E34</f>
         <v>20</v>
       </c>
@@ -18565,7 +18722,7 @@
       <c r="B45" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="E45" s="233"/>
+      <c r="E45" s="232"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:10">
@@ -18575,7 +18732,7 @@
       <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="223">
+      <c r="D46" s="222">
         <f>E44*G43*(Globalfactors.csv!E4+Globalfactors.csv!E3)</f>
         <v>19.022966054640001</v>
       </c>
@@ -18593,7 +18750,7 @@
       <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="92">
+      <c r="D47" s="91">
         <f>F36*(1-E37-E38-E47)</f>
         <v>4004</v>
       </c>
@@ -18688,87 +18845,87 @@
       <c r="A53" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="D53" s="107"/>
-    </row>
-    <row r="54" spans="1:11" s="116" customFormat="1" ht="14">
-      <c r="A54" s="116" t="s">
+      <c r="D53" s="106"/>
+    </row>
+    <row r="54" spans="1:11" s="115" customFormat="1" ht="14">
+      <c r="A54" s="115" t="s">
         <v>486</v>
       </c>
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="115" t="s">
         <v>711</v>
       </c>
-      <c r="C54" s="211"/>
-      <c r="D54" s="211"/>
-      <c r="F54" s="220">
+      <c r="C54" s="210"/>
+      <c r="D54" s="210"/>
+      <c r="F54" s="219">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="H54" s="116" t="s">
+      <c r="H54" s="115" t="s">
         <v>668</v>
       </c>
-      <c r="I54" s="116" t="s">
+      <c r="I54" s="115" t="s">
         <v>708</v>
       </c>
-      <c r="J54" s="116" t="s">
+      <c r="J54" s="115" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="116" customFormat="1" ht="14">
-      <c r="A55" s="116" t="s">
+    <row r="55" spans="1:11" s="115" customFormat="1" ht="14">
+      <c r="A55" s="115" t="s">
         <v>720</v>
       </c>
-      <c r="B55" s="116" t="s">
+      <c r="B55" s="115" t="s">
         <v>710</v>
       </c>
-      <c r="C55" s="211"/>
-      <c r="D55" s="211"/>
-      <c r="F55" s="205">
+      <c r="C55" s="210"/>
+      <c r="D55" s="210"/>
+      <c r="F55" s="204">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="I55" s="116">
+      <c r="I55" s="115">
         <f>+-3%</f>
         <v>-0.03</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="47" customFormat="1">
-      <c r="A56" s="116" t="s">
+      <c r="A56" s="115" t="s">
         <v>539</v>
       </c>
-      <c r="B56" s="231" t="s">
+      <c r="B56" s="230" t="s">
         <v>709</v>
       </c>
-      <c r="C56" s="234">
+      <c r="C56" s="233">
         <f>-D62*Parameters!C17</f>
         <v>-33.986464744643051</v>
       </c>
-      <c r="D56" s="283">
+      <c r="D56" s="282">
         <f>F54*(1-F55)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F56" s="169"/>
-      <c r="J56" s="266" t="s">
+      <c r="F56" s="168"/>
+      <c r="J56" s="265" t="s">
         <v>923</v>
       </c>
-      <c r="K56" s="190"/>
+      <c r="K56" s="189"/>
     </row>
     <row r="57" spans="1:11" s="47" customFormat="1">
-      <c r="A57" s="116" t="s">
+      <c r="A57" s="115" t="s">
         <v>914</v>
       </c>
-      <c r="B57" s="266" t="s">
+      <c r="B57" s="265" t="s">
         <v>915</v>
       </c>
-      <c r="D57" s="234">
+      <c r="D57" s="233">
         <f>F15*0.7</f>
         <v>63.146999999999991</v>
       </c>
-      <c r="F57" s="169"/>
-      <c r="J57" s="203"/>
-      <c r="K57" s="190"/>
+      <c r="F57" s="168"/>
+      <c r="J57" s="202"/>
+      <c r="K57" s="189"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="116" t="s">
+      <c r="A58" s="115" t="s">
         <v>924</v>
       </c>
       <c r="B58" t="s">
@@ -18780,7 +18937,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="115" t="s">
         <v>916</v>
       </c>
       <c r="B59" t="s">
@@ -18795,7 +18952,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="116" t="s">
+      <c r="A60" s="115" t="s">
         <v>921</v>
       </c>
       <c r="B60" t="s">
@@ -18807,22 +18964,25 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="116" t="s">
+      <c r="A61" s="115" t="s">
         <v>917</v>
       </c>
       <c r="B61" t="s">
         <v>918</v>
       </c>
-      <c r="D61" s="86">
+      <c r="D61" s="85">
         <f>F54-D60-D58</f>
         <v>86.898034496754022</v>
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="116" t="s">
-        <v>919</v>
-      </c>
-      <c r="D62" s="86">
+      <c r="A62" s="115" t="s">
+        <v>994</v>
+      </c>
+      <c r="B62" t="s">
+        <v>995</v>
+      </c>
+      <c r="D62" s="85">
         <f>D56*(F62)</f>
         <v>9.2690358394481045</v>
       </c>
@@ -18836,18 +18996,22 @@
         <f>D62/D61</f>
         <v>0.10666565582440578</v>
       </c>
+      <c r="H62">
+        <f>D62/F54</f>
+        <v>6.3600000000000018E-2</v>
+      </c>
       <c r="I62" t="s">
         <v>920</v>
       </c>
       <c r="J62" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="44" customFormat="1">
       <c r="A64" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="C64" s="183">
+      <c r="C64" s="182">
         <f>C27+C41+C52+C56</f>
         <v>49.521496524866727</v>
       </c>
@@ -18861,8 +19025,8 @@
       <c r="A66" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="93">
+      <c r="C66" s="90"/>
+      <c r="D66" s="92">
         <f>D47-D47*E48-D47*E49-D47*0.02</f>
         <v>3073.0699999999997</v>
       </c>
@@ -18881,7 +19045,7 @@
       <c r="E67" s="10">
         <v>0.4</v>
       </c>
-      <c r="H67" s="94">
+      <c r="H67" s="93">
         <f>-'[2]Fertilizer literature'!I1</f>
         <v>0</v>
       </c>
@@ -18937,46 +19101,46 @@
         <f>D68+D69</f>
         <v>-14.996581600000003</v>
       </c>
-      <c r="D70" s="238"/>
+      <c r="D70" s="237"/>
     </row>
     <row r="71" spans="1:9" s="6" customFormat="1">
-      <c r="A71" s="88" t="s">
+      <c r="A71" s="87" t="s">
         <v>718</v>
       </c>
-      <c r="C71" s="239">
+      <c r="C71" s="238">
         <f>C64+C70</f>
         <v>34.524914924866721</v>
       </c>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:9" s="6" customFormat="1">
-      <c r="A72" s="88"/>
-      <c r="C72" s="108"/>
+      <c r="A72" s="87"/>
+      <c r="C72" s="107"/>
     </row>
     <row r="73" spans="1:9" s="6" customFormat="1">
-      <c r="A73" s="88"/>
-      <c r="C73" s="108"/>
+      <c r="A73" s="87"/>
+      <c r="C73" s="107"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="C74" s="86"/>
+      <c r="C74" s="85"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="7"/>
-      <c r="C75" s="86"/>
+      <c r="C75" s="85"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="H76" s="104"/>
+      <c r="H76" s="103"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7"/>
     </row>
     <row r="82" spans="6:7" ht="16">
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19041,7 +19205,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="111" t="s">
+      <c r="T1" s="110" t="s">
         <v>445</v>
       </c>
     </row>
@@ -19077,24 +19241,24 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="50" customFormat="1" ht="56" hidden="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="79">
         <v>1.31</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="80" t="s">
         <v>389</v>
       </c>
       <c r="I4" s="52" t="s">
@@ -19136,7 +19300,7 @@
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="284">
+      <c r="C7" s="283">
         <f>C10+C12</f>
         <v>52.836966054640001</v>
       </c>
@@ -19148,8 +19312,8 @@
       <c r="B8" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="C8" s="232"/>
-      <c r="E8" s="235">
+      <c r="C8" s="231"/>
+      <c r="E8" s="234">
         <f>Globalfactors.csv!E8</f>
         <v>0.3</v>
       </c>
@@ -19161,7 +19325,7 @@
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="232"/>
+      <c r="C9" s="231"/>
       <c r="E9" s="5">
         <f>Globalfactors.csv!E37</f>
         <v>20</v>
@@ -19178,7 +19342,7 @@
         <f>E9*E8*(Globalfactors.csv!E3+Globalfactors.csv!E4)</f>
         <v>19.022966054640001</v>
       </c>
-      <c r="G10" s="240" t="s">
+      <c r="G10" s="239" t="s">
         <v>721</v>
       </c>
       <c r="H10" t="s">
@@ -19192,7 +19356,7 @@
       <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="91"/>
       <c r="F11" s="8">
         <f>Parameters!G34</f>
         <v>5600</v>
@@ -19286,86 +19450,86 @@
       <c r="A18" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="D18" s="107"/>
-    </row>
-    <row r="19" spans="1:11" s="116" customFormat="1" ht="14">
-      <c r="A19" s="116" t="s">
+      <c r="D18" s="106"/>
+    </row>
+    <row r="19" spans="1:11" s="115" customFormat="1" ht="14">
+      <c r="A19" s="115" t="s">
         <v>486</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>711</v>
       </c>
-      <c r="C19" s="211"/>
-      <c r="D19" s="211"/>
-      <c r="F19" s="220">
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="F19" s="219">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="H19" s="116" t="s">
+      <c r="H19" s="115" t="s">
         <v>668</v>
       </c>
-      <c r="I19" s="116" t="s">
+      <c r="I19" s="115" t="s">
         <v>708</v>
       </c>
-      <c r="J19" s="116" t="s">
+      <c r="J19" s="115" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="116" customFormat="1" ht="14">
-      <c r="A20" s="116" t="s">
+    <row r="20" spans="1:11" s="115" customFormat="1" ht="14">
+      <c r="A20" s="115" t="s">
         <v>768</v>
       </c>
-      <c r="C20" s="211"/>
-      <c r="D20" s="211"/>
-      <c r="E20" s="116">
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="115">
         <v>1</v>
       </c>
-      <c r="F20" s="220"/>
-    </row>
-    <row r="21" spans="1:11" s="116" customFormat="1" ht="14">
-      <c r="A21" s="116" t="s">
+      <c r="F20" s="219"/>
+    </row>
+    <row r="21" spans="1:11" s="115" customFormat="1" ht="14">
+      <c r="A21" s="115" t="s">
         <v>720</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="115" t="s">
         <v>710</v>
       </c>
-      <c r="C21" s="211"/>
-      <c r="D21" s="211"/>
-      <c r="F21" s="205">
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="F21" s="204">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="I21" s="116">
+      <c r="I21" s="115">
         <f>+-3%</f>
         <v>-0.03</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="47" customFormat="1" ht="14">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="115" t="s">
         <v>539</v>
       </c>
-      <c r="B22" s="231" t="s">
+      <c r="B22" s="230" t="s">
         <v>709</v>
       </c>
-      <c r="D22" s="211">
+      <c r="D22" s="210">
         <f>F19*(1-F21)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F22" s="169"/>
-      <c r="J22" s="203" t="s">
+      <c r="F22" s="168"/>
+      <c r="J22" s="202" t="s">
         <v>667</v>
       </c>
-      <c r="K22" s="190"/>
+      <c r="K22" s="189"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="115" t="s">
         <v>919</v>
       </c>
-      <c r="C23" s="234">
+      <c r="C23" s="233">
         <f>-D23*Parameters!C17</f>
         <v>-59.47631330312533</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="85">
         <f>D22*(F23)</f>
         <v>16.220812719034182</v>
       </c>
@@ -19381,7 +19545,7 @@
         <v>0.11130000000000002</v>
       </c>
       <c r="H23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I23" t="s">
         <v>920</v>
@@ -19394,7 +19558,7 @@
       <c r="A24" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="C24" s="183">
+      <c r="C24" s="182">
         <f>C23+C7</f>
         <v>-6.6393472484853291</v>
       </c>
@@ -19403,21 +19567,21 @@
       <c r="A25" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="242">
+      <c r="C25" s="241">
         <f>D29+D30</f>
         <v>-20.974240000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="87" t="s">
         <v>431</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="241"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
+      <c r="C26" s="240"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="10">
         <v>0.02</v>
       </c>
@@ -19435,8 +19599,8 @@
       <c r="B27" t="s">
         <v>616</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="93">
+      <c r="C27" s="90"/>
+      <c r="D27" s="92">
         <f>F11-F11*E13-F11*E16-F11*F26</f>
         <v>4298</v>
       </c>
@@ -19459,7 +19623,7 @@
         <f>Globalfactors.csv!E7</f>
         <v>0.4</v>
       </c>
-      <c r="G28" s="94"/>
+      <c r="G28" s="93"/>
       <c r="H28" t="s">
         <v>402</v>
       </c>
@@ -19541,7 +19705,7 @@
       <c r="A33" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="C33" s="95">
+      <c r="C33" s="94">
         <f>C24+C25</f>
         <v>-27.613587248485331</v>
       </c>
@@ -19561,8 +19725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19604,7 +19768,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="111" t="s">
+      <c r="T1" s="110" t="s">
         <v>445</v>
       </c>
     </row>
@@ -19752,8 +19916,8 @@
       <c r="B13" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="E13" s="272">
+      <c r="C13" s="108"/>
+      <c r="E13" s="271">
         <f>Globalfactors.csv!E43</f>
         <v>3</v>
       </c>
@@ -19764,7 +19928,7 @@
         <f>Globalfactors.csv!F43</f>
         <v>0.4</v>
       </c>
-      <c r="J13" s="192" t="s">
+      <c r="J13" s="191" t="s">
         <v>646</v>
       </c>
     </row>
@@ -19775,7 +19939,7 @@
       <c r="B14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <f>E13*F14</f>
         <v>9.5114830273200006</v>
       </c>
@@ -19791,7 +19955,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="46" customFormat="1">
-      <c r="C15" s="173"/>
+      <c r="C15" s="172"/>
     </row>
     <row r="16" spans="1:20" s="13" customFormat="1">
       <c r="A16" s="13" t="s">
@@ -19811,7 +19975,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="F17" s="191">
+      <c r="F17" s="190">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
@@ -19828,7 +19992,7 @@
         <v>601</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="177">
+      <c r="D18" s="176">
         <f>F17*E18</f>
         <v>84.528943189935518</v>
       </c>
@@ -19855,7 +20019,7 @@
         <v>788</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="177"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="4">
         <f>Globalfactors.csv!E46</f>
         <v>0.02</v>
@@ -19870,7 +20034,7 @@
         <v>725</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="243">
+      <c r="D20" s="242">
         <f>D18*E19</f>
         <v>1.6905788637987105</v>
       </c>
@@ -19888,7 +20052,7 @@
         <v>594</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="175">
+      <c r="D21" s="174">
         <f>D20*Parameters!C18</f>
         <v>2.254105151731614</v>
       </c>
@@ -19904,7 +20068,7 @@
       <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="174">
+      <c r="C22" s="173">
         <f>D21*Parameters!C6</f>
         <v>63.114944248485187</v>
       </c>
@@ -19918,8 +20082,8 @@
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="176"/>
-      <c r="F23" s="99">
+      <c r="D23" s="175"/>
+      <c r="F23" s="98">
         <f>Parameters!G27</f>
         <v>9000</v>
       </c>
@@ -19953,7 +20117,7 @@
       <c r="B25" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="C25" s="177"/>
+      <c r="C25" s="176"/>
       <c r="D25" s="21">
         <f>E24*F23*Parameters!C16/1000</f>
         <v>7.0714285714285702E-2</v>
@@ -19967,12 +20131,12 @@
       <c r="B26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C26" s="176">
         <f>D25*Parameters!C5</f>
         <v>18.73928571428571</v>
       </c>
       <c r="D26" s="21"/>
-      <c r="J26" s="186" t="s">
+      <c r="J26" s="185" t="s">
         <v>599</v>
       </c>
     </row>
@@ -19992,14 +20156,14 @@
       <c r="B28" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="D28" s="110">
+      <c r="D28" s="109">
         <f>F17*(1-E18)</f>
         <v>61.210614034091243</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="K28" s="108"/>
+      <c r="K28" s="107"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A29" s="14" t="s">
@@ -20008,56 +20172,56 @@
       <c r="B29" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="D29" s="110">
+      <c r="D29" s="109">
         <f>D28*F29</f>
         <v>6.1210614034091249</v>
       </c>
-      <c r="E29" s="108"/>
+      <c r="E29" s="107"/>
       <c r="F29" s="6">
         <v>0.1</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="K29" s="108"/>
+      <c r="K29" s="107"/>
     </row>
     <row r="30" spans="1:11" s="6" customFormat="1">
       <c r="A30" s="14" t="s">
         <v>790</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="110">
+      <c r="C30" s="85"/>
+      <c r="D30" s="109">
         <f>F17-D18</f>
         <v>61.210614034091236</v>
       </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
       <c r="J30" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="K30" s="108"/>
+      <c r="K30" s="107"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="14" t="s">
         <v>874</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="85">
         <f>F17*(1-F31)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F31" s="280">
+      <c r="F31" s="279">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="G31" s="86">
+      <c r="G31" s="85">
         <f>D31/D30</f>
         <v>0.37857142857142867</v>
       </c>
       <c r="H31" t="s">
         <v>875</v>
       </c>
-      <c r="I31" s="104"/>
+      <c r="I31" s="103"/>
       <c r="J31" s="7" t="s">
         <v>600</v>
       </c>
@@ -20067,8 +20231,8 @@
         <v>873</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86">
+      <c r="C32" s="85"/>
+      <c r="D32" s="85">
         <f>D31*(E32)</f>
         <v>4.6345179197240522</v>
       </c>
@@ -20076,16 +20240,19 @@
         <v>0.2</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="86">
+      <c r="G32" s="85">
         <f>D32/D30</f>
         <v>7.5714285714285734E-2</v>
       </c>
       <c r="H32" t="s">
         <v>671</v>
       </c>
-      <c r="I32" s="86"/>
+      <c r="I32" s="85">
+        <f>D32/F17</f>
+        <v>3.1800000000000009E-2</v>
+      </c>
       <c r="J32" s="7" t="s">
-        <v>926</v>
+        <v>993</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -20095,31 +20262,31 @@
       <c r="B33" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="C33" s="86">
+      <c r="C33" s="85">
         <f>D32*-44/12</f>
         <v>-16.993232372321526</v>
       </c>
-      <c r="D33" s="86"/>
-      <c r="F33" s="273"/>
-      <c r="I33" s="168"/>
+      <c r="D33" s="85"/>
+      <c r="F33" s="272"/>
+      <c r="I33" s="167"/>
       <c r="J33" s="7" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="45" customFormat="1">
-      <c r="A34" s="171" t="s">
+      <c r="A34" s="170" t="s">
         <v>629</v>
       </c>
-      <c r="B34" s="171"/>
-      <c r="C34" s="184">
+      <c r="B34" s="170"/>
+      <c r="C34" s="183">
         <f>C36+C39</f>
         <v>37.105071428571421</v>
       </c>
-      <c r="D34" s="172">
+      <c r="D34" s="171">
         <v>3</v>
       </c>
-      <c r="E34" s="170"/>
-      <c r="J34" s="172"/>
+      <c r="E34" s="169"/>
+      <c r="J34" s="171"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
@@ -20128,7 +20295,7 @@
       <c r="B35" t="s">
         <v>620</v>
       </c>
-      <c r="C35" s="86"/>
+      <c r="C35" s="85"/>
       <c r="D35">
         <f>E35*1000</f>
         <v>400</v>
@@ -20168,17 +20335,17 @@
         <v>616</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="174">
+      <c r="D37" s="173">
         <f>F23/1000*(1-E37)</f>
         <v>5.58</v>
       </c>
-      <c r="E37" s="272">
+      <c r="E37" s="271">
         <v>0.38</v>
       </c>
       <c r="H37" s="46" t="s">
         <v>728</v>
       </c>
-      <c r="J37" s="181" t="s">
+      <c r="J37" s="180" t="s">
         <v>612</v>
       </c>
     </row>
@@ -20207,11 +20374,11 @@
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="281">
+      <c r="C39" s="280">
         <f>D39*Parameters!C16*Parameters!C5</f>
         <v>34.855071428571421</v>
       </c>
-      <c r="D39" s="86">
+      <c r="D39" s="85">
         <f>D37*E38</f>
         <v>8.3699999999999997E-2</v>
       </c>
@@ -20220,46 +20387,46 @@
       <c r="A40" s="14" t="s">
         <v>886</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
       <c r="J40" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1">
-      <c r="A41" s="246" t="s">
+      <c r="A41" s="245" t="s">
         <v>729</v>
       </c>
-      <c r="C41" s="245">
+      <c r="C41" s="244">
         <f>C12+C16+C27+C34</f>
         <v>111.47755204634079</v>
       </c>
-      <c r="D41" s="245"/>
+      <c r="D41" s="244"/>
     </row>
     <row r="42" spans="1:10" s="45" customFormat="1">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="170" t="s">
         <v>586</v>
       </c>
-      <c r="B42" s="171"/>
-      <c r="C42" s="183">
+      <c r="B42" s="170"/>
+      <c r="C42" s="182">
         <f>C45+C46</f>
         <v>3.1248000000000005</v>
       </c>
-      <c r="D42" s="172"/>
-      <c r="E42" s="170"/>
-      <c r="J42" s="172"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="169"/>
+      <c r="J42" s="171"/>
     </row>
     <row r="43" spans="1:10" s="46" customFormat="1">
       <c r="A43" s="14" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="5"/>
-      <c r="E43" s="180"/>
+      <c r="E43" s="179"/>
       <c r="F43" s="46">
         <v>0.4</v>
       </c>
-      <c r="J43" s="181"/>
+      <c r="J43" s="180"/>
     </row>
     <row r="44" spans="1:10" s="46" customFormat="1">
       <c r="A44" s="14" t="s">
@@ -20269,58 +20436,58 @@
         <v>603</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="174">
+      <c r="D44" s="173">
         <f>D37*F43</f>
         <v>2.2320000000000002</v>
       </c>
-      <c r="E44" s="244"/>
-      <c r="J44" s="181"/>
-    </row>
-    <row r="45" spans="1:10" s="88" customFormat="1">
+      <c r="E44" s="243"/>
+      <c r="J44" s="180"/>
+    </row>
+    <row r="45" spans="1:10" s="87" customFormat="1">
       <c r="A45" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="182">
+      <c r="C45" s="181">
         <f>D44*G45</f>
         <v>15.177600000000002</v>
       </c>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
-      <c r="G45" s="88">
+      <c r="D45" s="177"/>
+      <c r="E45" s="178"/>
+      <c r="G45" s="87">
         <f>-Globalfactors.csv!E6</f>
         <v>6.8</v>
       </c>
-      <c r="H45" s="88" t="s">
+      <c r="H45" s="87" t="s">
         <v>614</v>
       </c>
-      <c r="J45" s="178" t="s">
+      <c r="J45" s="177" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="88" customFormat="1">
+    <row r="46" spans="1:10" s="87" customFormat="1">
       <c r="A46" s="14" t="s">
         <v>617</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="182">
+      <c r="C46" s="181">
         <f>D44*G46</f>
         <v>-12.052800000000001</v>
       </c>
-      <c r="D46" s="178"/>
-      <c r="E46" s="179"/>
-      <c r="G46" s="88">
+      <c r="D46" s="177"/>
+      <c r="E46" s="178"/>
+      <c r="G46" s="87">
         <f>'Land application'!F30</f>
         <v>-5.4</v>
       </c>
-      <c r="H46" s="88" t="s">
+      <c r="H46" s="87" t="s">
         <v>613</v>
       </c>
-      <c r="J46" s="178"/>
+      <c r="J46" s="177"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
@@ -20342,7 +20509,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" s="45" customFormat="1">
-      <c r="A50" s="171" t="s">
+      <c r="A50" s="170" t="s">
         <v>587</v>
       </c>
       <c r="B50" s="45" t="s">
@@ -20395,7 +20562,7 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="C55" s="185"/>
+      <c r="C55" s="184"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20413,7 +20580,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20452,7 +20619,7 @@
       <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="82">
         <f>F3*E4</f>
         <v>5.35</v>
       </c>
@@ -20469,7 +20636,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="82"/>
+      <c r="C3" s="81"/>
       <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
@@ -20490,7 +20657,7 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="82"/>
+      <c r="C4" s="81"/>
       <c r="E4" s="8">
         <v>50</v>
       </c>
@@ -20499,7 +20666,7 @@
       <c r="A5" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="83">
         <f>F7*E6</f>
         <v>-625.9421487603305</v>
       </c>
@@ -20508,8 +20675,8 @@
       <c r="A6" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="E6" s="106">
+      <c r="C6" s="81"/>
+      <c r="E6" s="105">
         <f>D23</f>
         <v>1.0573347107438016</v>
       </c>
@@ -20521,7 +20688,7 @@
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="81"/>
       <c r="F7" s="4">
         <v>-592</v>
       </c>
@@ -20533,13 +20700,13 @@
       <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="84">
         <f>C2+C5</f>
         <v>-620.59214876033047</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="67" t="s">
         <v>371</v>
       </c>
       <c r="B18" s="1"/>
@@ -20563,10 +20730,10 @@
         <v>30</v>
       </c>
       <c r="J19" s="51"/>
-      <c r="K19" s="73"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
-      <c r="N19" s="74"/>
+      <c r="N19" s="73"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
@@ -20586,7 +20753,7 @@
         <v>379</v>
       </c>
       <c r="J20" s="51"/>
-      <c r="K20" s="73"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
@@ -20601,18 +20768,18 @@
       <c r="C21">
         <v>68.900000000000006</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="68">
         <f>B21*C21/(B$20*C$20)</f>
         <v>0.19573863636363639</v>
       </c>
       <c r="E21" t="s">
         <v>380</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="81">
         <v>-110.52727272727275</v>
       </c>
       <c r="J21" s="51"/>
-      <c r="K21" s="73"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
@@ -20627,14 +20794,14 @@
       <c r="C22">
         <v>81</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="68">
         <f>B22*C22/(B$20*C$20)</f>
         <v>7.3217975206611566E-2</v>
       </c>
       <c r="E22" t="s">
         <v>382</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="81">
         <v>-37.995041322314044</v>
       </c>
       <c r="J22" s="51"/>
@@ -20653,30 +20820,36 @@
       <c r="C23">
         <v>89</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="68">
         <f>B23*C23/(B$20*C$20)</f>
         <v>1.0573347107438016</v>
       </c>
       <c r="E23" t="s">
         <v>381</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="81">
         <v>-620.59214876033002</v>
       </c>
       <c r="J23" s="51"/>
-      <c r="K23" s="73"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="51"/>
       <c r="M23" s="51"/>
-      <c r="N23" s="74"/>
+      <c r="N23" s="73"/>
     </row>
     <row r="24" spans="1:14">
       <c r="J24" s="51"/>
-      <c r="K24" s="73"/>
+      <c r="K24" s="72"/>
       <c r="L24" s="51"/>
       <c r="M24" s="51"/>
       <c r="N24" s="51"/>
     </row>
     <row r="25" spans="1:14">
+      <c r="B25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
       <c r="J25" s="51"/>
       <c r="K25" s="51"/>
       <c r="L25" s="51"/>
@@ -20684,12 +20857,18 @@
       <c r="N25" s="51"/>
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1">
-      <c r="A26" s="148" t="s">
+      <c r="A26" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
+      <c r="B26" s="299">
+        <f>Parameters!P40</f>
+        <v>0.89</v>
+      </c>
+      <c r="C26" s="300">
+        <f>Parameters!M40*0.85+Parameters!L40*2.25*0.8+Parameters!N40*0.6</f>
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D26" s="297"/>
       <c r="J26" s="51"/>
       <c r="K26" s="51"/>
       <c r="L26" s="51"/>
@@ -20697,8 +20876,16 @@
       <c r="N26" s="51"/>
     </row>
     <row r="27" spans="1:14" ht="16" thickBot="1">
-      <c r="A27" s="148" t="s">
+      <c r="A27" s="147" t="s">
         <v>516</v>
+      </c>
+      <c r="B27" s="299">
+        <f>Parameters!P41</f>
+        <v>0.7</v>
+      </c>
+      <c r="C27" s="300">
+        <f>Parameters!M41*0.85+Parameters!L41*2.25*0.8+Parameters!N41*0.6</f>
+        <v>0.60750000000000004</v>
       </c>
       <c r="J27" s="51"/>
       <c r="K27" s="51"/>
@@ -20707,8 +20894,16 @@
       <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:14" ht="16" thickBot="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="147" t="s">
         <v>517</v>
+      </c>
+      <c r="B28" s="299">
+        <f>Parameters!P42</f>
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="300">
+        <f>Parameters!M42*0.85+Parameters!L42*2.25*0.8+Parameters!N42*0.6</f>
+        <v>0.6905</v>
       </c>
       <c r="J28" s="51"/>
       <c r="K28" s="51"/>
@@ -20717,41 +20912,97 @@
       <c r="N28" s="51"/>
     </row>
     <row r="29" spans="1:14" ht="16" thickBot="1">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="147" t="s">
         <v>518</v>
       </c>
+      <c r="B29" s="299">
+        <f>Parameters!P43</f>
+        <v>0.7</v>
+      </c>
+      <c r="C29" s="300">
+        <f>Parameters!M43*0.85+Parameters!L43*2.25*0.8+Parameters!N43*0.6</f>
+        <v>0.57699999999999996</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="16" thickBot="1">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="147" t="s">
         <v>519</v>
       </c>
+      <c r="B30" s="299">
+        <f>Parameters!P44</f>
+        <v>0.8</v>
+      </c>
+      <c r="C30" s="300">
+        <f>Parameters!M44*0.85+Parameters!L44*2.25*0.8+Parameters!N44*0.6</f>
+        <v>0.86099999999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="16" thickBot="1">
-      <c r="A31" s="148" t="s">
+      <c r="A31" s="147" t="s">
         <v>669</v>
       </c>
+      <c r="B31" s="299">
+        <f>Parameters!P45</f>
+        <v>0.65</v>
+      </c>
+      <c r="C31" s="300">
+        <f>Parameters!M45*0.85+Parameters!L45*2.25*0.8+Parameters!N45*0.6</f>
+        <v>0.56299999999999994</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="16" thickBot="1">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="147" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="16" thickBot="1">
-      <c r="A33" s="148" t="s">
+      <c r="B32" s="299">
+        <f>Parameters!P46</f>
+        <v>0.8</v>
+      </c>
+      <c r="C32" s="300">
+        <f>Parameters!M46*0.85+Parameters!L46*2.25*0.8+Parameters!N46*0.6</f>
+        <v>0.62149999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" thickBot="1">
+      <c r="A33" s="147" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="16" thickBot="1">
-      <c r="A34" s="148" t="s">
+      <c r="B33" s="299">
+        <f>Parameters!P47</f>
+        <v>0.51</v>
+      </c>
+      <c r="C33" s="300">
+        <f>Parameters!M47*0.85+Parameters!L47*2.25*0.8+Parameters!N47*0.6</f>
+        <v>0.62750000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" thickBot="1">
+      <c r="A34" s="147" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="16" thickBot="1">
-      <c r="A35" s="149" t="s">
+      <c r="B34" s="299">
+        <f>Parameters!P48</f>
+        <v>0.74</v>
+      </c>
+      <c r="C34" s="300">
+        <f>Parameters!M48*0.85+Parameters!L48*2.25*0.8+Parameters!N48*0.6</f>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" thickBot="1">
+      <c r="A35" s="148" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="16" thickTop="1"/>
+      <c r="B35" s="299">
+        <f>Parameters!P49</f>
+        <v>0.93</v>
+      </c>
+      <c r="C35" s="300">
+        <f>Parameters!M49*0.85+Parameters!L49*2.25*0.8+Parameters!N49*0.6</f>
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -20768,7 +21019,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20787,10 +21038,10 @@
       <c r="B1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="207" t="s">
+      <c r="D1" s="206" t="s">
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
@@ -20814,7 +21065,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="111" t="s">
+      <c r="T1" s="110" t="s">
         <v>445</v>
       </c>
     </row>
@@ -20822,8 +21073,8 @@
       <c r="A2" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
@@ -20849,7 +21100,7 @@
       <c r="G4">
         <v>-1225</v>
       </c>
-      <c r="H4" s="259" t="s">
+      <c r="H4" s="258" t="s">
         <v>751</v>
       </c>
       <c r="I4" t="s">
@@ -20869,7 +21120,7 @@
       <c r="G5">
         <v>6.8</v>
       </c>
-      <c r="H5" s="259" t="s">
+      <c r="H5" s="258" t="s">
         <v>748</v>
       </c>
       <c r="I5">
@@ -20889,7 +21140,7 @@
       <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6" s="259" t="s">
+      <c r="H6" s="258" t="s">
         <v>749</v>
       </c>
       <c r="I6" t="s">
@@ -20910,10 +21161,10 @@
         <f>-1081*1.1</f>
         <v>-1189.1000000000001</v>
       </c>
-      <c r="H7" s="259" t="s">
+      <c r="H7" s="258" t="s">
         <v>750</v>
       </c>
-      <c r="I7" s="258" t="s">
+      <c r="I7" s="257" t="s">
         <v>754</v>
       </c>
       <c r="J7" t="s">
@@ -20985,10 +21236,10 @@
         <v>770</v>
       </c>
       <c r="D2" s="56"/>
-      <c r="E2" s="70">
+      <c r="E2" s="69">
         <v>6</v>
       </c>
-      <c r="F2" s="97">
+      <c r="F2" s="96">
         <v>-177</v>
       </c>
       <c r="G2" s="56" t="s">
@@ -21009,7 +21260,7 @@
       <c r="E3" s="57">
         <v>7</v>
       </c>
-      <c r="F3" s="96">
+      <c r="F3" s="95">
         <v>7</v>
       </c>
       <c r="G3" s="56" t="s">
@@ -21030,7 +21281,7 @@
       <c r="E4" s="57">
         <v>8.25</v>
       </c>
-      <c r="F4" s="98"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="56" t="s">
         <v>55</v>
       </c>
@@ -21049,7 +21300,7 @@
         <v>-620.59214876033047</v>
       </c>
       <c r="E5" s="56"/>
-      <c r="F5" s="97">
+      <c r="F5" s="96">
         <v>-479</v>
       </c>
       <c r="G5" s="56" t="s">
@@ -21060,7 +21311,7 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="70"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="57"/>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
@@ -21069,7 +21320,7 @@
       <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="70"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -21079,40 +21330,40 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="55"/>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="69" t="s">
         <v>417</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="69" t="s">
         <v>416</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="69" t="s">
         <v>414</v>
       </c>
-      <c r="F46" s="70" t="s">
+      <c r="F46" s="69" t="s">
         <v>410</v>
       </c>
-      <c r="G46" s="70" t="s">
+      <c r="G46" s="69" t="s">
         <v>411</v>
       </c>
       <c r="H46" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="I46" s="70" t="s">
+      <c r="I46" s="69" t="s">
         <v>413</v>
       </c>
-      <c r="J46" s="70" t="s">
+      <c r="J46" s="69" t="s">
         <v>415</v>
       </c>
-      <c r="K46" s="70" t="s">
+      <c r="K46" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="L46" s="70" t="s">
+      <c r="L46" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="M46" s="70" t="s">
+      <c r="M46" s="69" t="s">
         <v>420</v>
       </c>
     </row>
@@ -21122,7 +21373,7 @@
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
-      <c r="D47" s="70">
+      <c r="D47" s="69">
         <f>F2-E2</f>
         <v>-183</v>
       </c>
@@ -21138,11 +21389,11 @@
         <f>C2-E2</f>
         <v>764</v>
       </c>
-      <c r="H47" s="102">
+      <c r="H47" s="101">
         <f>F2-C2</f>
         <v>-947</v>
       </c>
-      <c r="I47" s="102">
+      <c r="I47" s="101">
         <f>C2-F2</f>
         <v>947</v>
       </c>
@@ -21155,7 +21406,7 @@
       <c r="A48" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="71">
+      <c r="B48" s="70">
         <f>E3-D3</f>
         <v>44.995041322314044</v>
       </c>
@@ -21163,19 +21414,19 @@
         <f>D3-E3</f>
         <v>-44.995041322314044</v>
       </c>
-      <c r="D48" s="102">
+      <c r="D48" s="101">
         <f>H86-G86</f>
         <v>0</v>
       </c>
-      <c r="E48" s="102">
+      <c r="E48" s="101">
         <f>G86-H86</f>
         <v>0</v>
       </c>
       <c r="F48" s="57"/>
       <c r="G48" s="55"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="71">
+      <c r="H48" s="101"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="70">
         <f>F3-D3</f>
         <v>44.995041322314044</v>
       </c>
@@ -21198,12 +21449,12 @@
         <f>D4-E4</f>
         <v>-118.77727272727275</v>
       </c>
-      <c r="D49" s="102"/>
+      <c r="D49" s="101"/>
       <c r="E49" s="55"/>
       <c r="F49" s="55"/>
       <c r="G49" s="55"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="70"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="69"/>
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
       <c r="L49" s="55"/>
@@ -21215,15 +21466,15 @@
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
-      <c r="D50" s="70"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="55"/>
       <c r="F50" s="55"/>
       <c r="G50" s="55"/>
-      <c r="H50" s="102">
+      <c r="H50" s="101">
         <f>F5-C5</f>
         <v>-2403</v>
       </c>
-      <c r="I50" s="102">
+      <c r="I50" s="101">
         <f>C5-F5</f>
         <v>2403</v>
       </c>
@@ -21355,7 +21606,7 @@
       <c r="D93">
         <v>68.900000000000006</v>
       </c>
-      <c r="E93" s="69">
+      <c r="E93" s="68">
         <v>0.19573863636363639</v>
       </c>
       <c r="F93" t="s">
@@ -21372,7 +21623,7 @@
       <c r="D94">
         <v>81</v>
       </c>
-      <c r="E94" s="69">
+      <c r="E94" s="68">
         <v>7.3217975206611566E-2</v>
       </c>
       <c r="F94" t="s">
@@ -21389,7 +21640,7 @@
       <c r="D95">
         <v>89</v>
       </c>
-      <c r="E95" s="69">
+      <c r="E95" s="68">
         <v>1.0573347107438016</v>
       </c>
       <c r="F95" t="s">

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="0" windowWidth="12700" windowHeight="15640" tabRatio="500" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27280" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1007">
   <si>
     <t>Hauling</t>
   </si>
@@ -3354,6 +3354,21 @@
   </si>
   <si>
     <t>literature</t>
+  </si>
+  <si>
+    <t>Purdue w/ carb used for all fiber</t>
+  </si>
+  <si>
+    <t>Montana dept of ag.</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>NFE</t>
+  </si>
+  <si>
+    <t>Dietary fiber</t>
   </si>
 </sst>
 </file>
@@ -4538,7 +4553,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4993,9 +5008,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="26" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="453">
     <cellStyle name="Bad 2" xfId="17"/>
@@ -5776,11 +5795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2114142984"/>
-        <c:axId val="2114139832"/>
+        <c:axId val="2088997240"/>
+        <c:axId val="2089000376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2114142984"/>
+        <c:axId val="2088997240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5790,7 +5809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114139832"/>
+        <c:crossAx val="2089000376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5798,7 +5817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114139832"/>
+        <c:axId val="2089000376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5809,7 +5828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114142984"/>
+        <c:crossAx val="2088997240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6291,11 +6310,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2114072376"/>
-        <c:axId val="2114069384"/>
+        <c:axId val="-2041159336"/>
+        <c:axId val="-2041163512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2114072376"/>
+        <c:axId val="-2041159336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6305,7 +6324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114069384"/>
+        <c:crossAx val="-2041163512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6313,7 +6332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114069384"/>
+        <c:axId val="-2041163512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6342,7 +6361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114072376"/>
+        <c:crossAx val="-2041159336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7394,11 +7413,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="2113939112"/>
-        <c:axId val="2113936280"/>
+        <c:axId val="-2040941032"/>
+        <c:axId val="-2040938216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2113939112"/>
+        <c:axId val="-2040941032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7418,7 +7437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113936280"/>
+        <c:crossAx val="-2040938216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7426,7 +7445,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113936280"/>
+        <c:axId val="-2040938216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7455,7 +7474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113939112"/>
+        <c:crossAx val="-2040941032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7969,10 +7988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W87"/>
+  <dimension ref="A1:X87"/>
   <sheetViews>
-    <sheetView topLeftCell="I18" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40:R49"/>
+    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7986,11 +8005,11 @@
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="16" width="11" customWidth="1"/>
-    <col min="19" max="19" width="74.5" customWidth="1"/>
+    <col min="12" max="17" width="11" customWidth="1"/>
+    <col min="20" max="20" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="44" customFormat="1" ht="13" customHeight="1">
+    <row r="1" spans="1:22" s="44" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>659</v>
       </c>
@@ -8010,7 +8029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>662</v>
       </c>
@@ -8025,7 +8044,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>664</v>
       </c>
@@ -8040,7 +8059,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>663</v>
       </c>
@@ -8055,7 +8074,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -8076,7 +8095,7 @@
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -8097,7 +8116,7 @@
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>642</v>
       </c>
@@ -8114,7 +8133,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="47" customFormat="1">
+    <row r="8" spans="1:22" s="47" customFormat="1">
       <c r="A8" s="115" t="s">
         <v>650</v>
       </c>
@@ -8135,7 +8154,7 @@
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
     </row>
-    <row r="9" spans="1:21" s="47" customFormat="1">
+    <row r="9" spans="1:22" s="47" customFormat="1">
       <c r="A9" s="115" t="s">
         <v>783</v>
       </c>
@@ -8147,7 +8166,7 @@
       <c r="I9" s="104"/>
       <c r="J9" s="104"/>
     </row>
-    <row r="10" spans="1:21" s="104" customFormat="1" ht="14">
+    <row r="10" spans="1:22" s="104" customFormat="1" ht="14">
       <c r="A10" s="104" t="s">
         <v>459</v>
       </c>
@@ -8172,7 +8191,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="104" customFormat="1" ht="14">
+    <row r="11" spans="1:22" s="104" customFormat="1" ht="14">
       <c r="A11" s="104" t="s">
         <v>461</v>
       </c>
@@ -8197,7 +8216,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="27" customFormat="1" ht="14">
+    <row r="12" spans="1:22" s="27" customFormat="1" ht="14">
       <c r="A12" s="110" t="s">
         <v>460</v>
       </c>
@@ -8222,9 +8241,9 @@
         <v>458</v>
       </c>
       <c r="N12" s="110"/>
-      <c r="U12" s="118"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="118"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>643</v>
       </c>
@@ -8241,8 +8260,9 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>424</v>
       </c>
@@ -8259,7 +8279,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" s="43" t="s">
         <v>781</v>
       </c>
@@ -8267,7 +8287,7 @@
       <c r="C15" s="196"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>598</v>
       </c>
@@ -8287,7 +8307,7 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>706</v>
       </c>
@@ -8307,7 +8327,7 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>724</v>
       </c>
@@ -8327,7 +8347,7 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>423</v>
       </c>
@@ -8346,7 +8366,7 @@
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:20" s="45" customFormat="1">
+    <row r="20" spans="1:21" s="45" customFormat="1">
       <c r="A20" s="27" t="s">
         <v>134</v>
       </c>
@@ -8359,29 +8379,29 @@
       <c r="E20" s="27"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" s="1"/>
-      <c r="S21" s="68"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="T21" s="68"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1"/>
-      <c r="S22" s="68"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="T22" s="68"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1"/>
-      <c r="S23" s="68" t="s">
+      <c r="T23" s="68" t="s">
         <v>766</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="44" customFormat="1">
+    <row r="24" spans="1:21" s="44" customFormat="1">
       <c r="A24" s="45" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="37" thickBot="1">
+    <row r="25" spans="1:21" ht="37" thickBot="1">
       <c r="A25" s="157" t="s">
         <v>661</v>
       </c>
@@ -8428,19 +8448,22 @@
         <v>533</v>
       </c>
       <c r="P25" s="163" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q25" s="163" t="s">
         <v>348</v>
       </c>
-      <c r="Q25" s="163" t="s">
+      <c r="R25" s="163" t="s">
         <v>954</v>
       </c>
-      <c r="R25" s="163" t="s">
+      <c r="S25" s="163" t="s">
         <v>955</v>
       </c>
-      <c r="S25" s="166" t="s">
+      <c r="T25" s="166" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="17" thickTop="1" thickBot="1">
+    <row r="26" spans="1:21" ht="17" thickTop="1" thickBot="1">
       <c r="A26" s="147" t="s">
         <v>731</v>
       </c>
@@ -8459,10 +8482,11 @@
       <c r="N26" s="150"/>
       <c r="O26" s="153"/>
       <c r="P26" s="295"/>
-      <c r="Q26" s="285"/>
+      <c r="Q26" s="295"/>
       <c r="R26" s="285"/>
-    </row>
-    <row r="27" spans="1:20" ht="16" thickBot="1">
+      <c r="S26" s="285"/>
+    </row>
+    <row r="27" spans="1:21" ht="16" thickBot="1">
       <c r="A27" s="147" t="s">
         <v>732</v>
       </c>
@@ -8511,13 +8535,14 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="P27" s="295"/>
-      <c r="Q27" s="285"/>
+      <c r="Q27" s="295"/>
       <c r="R27" s="285"/>
-      <c r="S27" t="s">
+      <c r="S27" s="285"/>
+      <c r="T27" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16" thickBot="1">
+    <row r="28" spans="1:21" ht="16" thickBot="1">
       <c r="A28" s="147" t="s">
         <v>641</v>
       </c>
@@ -8548,10 +8573,11 @@
         <v>821</v>
       </c>
       <c r="P28" s="295"/>
-      <c r="Q28" s="285"/>
+      <c r="Q28" s="295"/>
       <c r="R28" s="285"/>
-    </row>
-    <row r="29" spans="1:20" ht="16" thickBot="1">
+      <c r="S28" s="285"/>
+    </row>
+    <row r="29" spans="1:21" ht="16" thickBot="1">
       <c r="A29" s="147" t="s">
         <v>2</v>
       </c>
@@ -8580,10 +8606,11 @@
         <v>667</v>
       </c>
       <c r="P29" s="295"/>
-      <c r="Q29" s="285"/>
+      <c r="Q29" s="295"/>
       <c r="R29" s="285"/>
-    </row>
-    <row r="30" spans="1:20" ht="16" thickBot="1">
+      <c r="S29" s="285"/>
+    </row>
+    <row r="30" spans="1:21" ht="16" thickBot="1">
       <c r="A30" s="147"/>
       <c r="B30" s="150"/>
       <c r="C30" s="153"/>
@@ -8602,10 +8629,11 @@
       <c r="N30" s="150"/>
       <c r="O30" s="153"/>
       <c r="P30" s="295"/>
-      <c r="Q30" s="285"/>
+      <c r="Q30" s="295"/>
       <c r="R30" s="285"/>
-    </row>
-    <row r="31" spans="1:20" ht="16" thickBot="1">
+      <c r="S30" s="285"/>
+    </row>
+    <row r="31" spans="1:21" ht="16" thickBot="1">
       <c r="A31" s="147"/>
       <c r="B31" s="150"/>
       <c r="C31" s="153"/>
@@ -8625,10 +8653,11 @@
       <c r="N31" s="150"/>
       <c r="O31" s="153"/>
       <c r="P31" s="295"/>
-      <c r="Q31" s="285"/>
+      <c r="Q31" s="295"/>
       <c r="R31" s="285"/>
-    </row>
-    <row r="32" spans="1:20" ht="16" thickBot="1">
+      <c r="S31" s="285"/>
+    </row>
+    <row r="32" spans="1:21" ht="16" thickBot="1">
       <c r="A32" s="147"/>
       <c r="B32" s="150"/>
       <c r="C32" s="153"/>
@@ -8647,10 +8676,11 @@
       <c r="N32" s="150"/>
       <c r="O32" s="153"/>
       <c r="P32" s="295"/>
-      <c r="Q32" s="285"/>
+      <c r="Q32" s="295"/>
       <c r="R32" s="285"/>
-    </row>
-    <row r="33" spans="1:23" ht="16" thickBot="1">
+      <c r="S32" s="285"/>
+    </row>
+    <row r="33" spans="1:24" ht="16" thickBot="1">
       <c r="A33" s="147" t="s">
         <v>734</v>
       </c>
@@ -8669,10 +8699,11 @@
       <c r="N33" s="150"/>
       <c r="O33" s="153"/>
       <c r="P33" s="295"/>
-      <c r="Q33" s="285"/>
+      <c r="Q33" s="295"/>
       <c r="R33" s="285"/>
-    </row>
-    <row r="34" spans="1:23" ht="16" thickBot="1">
+      <c r="S33" s="285"/>
+    </row>
+    <row r="34" spans="1:24" ht="16" thickBot="1">
       <c r="A34" s="147" t="s">
         <v>11</v>
       </c>
@@ -8705,13 +8736,14 @@
       <c r="N34" s="150"/>
       <c r="O34" s="153"/>
       <c r="P34" s="295"/>
-      <c r="Q34" s="285"/>
+      <c r="Q34" s="295"/>
       <c r="R34" s="285"/>
-      <c r="S34" s="99" t="s">
+      <c r="S34" s="285"/>
+      <c r="T34" s="99" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="16" thickBot="1">
+    <row r="35" spans="1:24" ht="16" thickBot="1">
       <c r="A35" s="148" t="s">
         <v>51</v>
       </c>
@@ -8753,16 +8785,17 @@
       </c>
       <c r="O35" s="154"/>
       <c r="P35" s="295"/>
-      <c r="Q35" s="285"/>
+      <c r="Q35" s="295"/>
       <c r="R35" s="285"/>
-      <c r="S35" s="24" t="s">
+      <c r="S35" s="285"/>
+      <c r="T35" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="17" thickTop="1" thickBot="1">
+    <row r="36" spans="1:24" ht="17" thickTop="1" thickBot="1">
       <c r="A36" s="147" t="s">
         <v>737</v>
       </c>
@@ -8781,11 +8814,12 @@
       <c r="N36" s="150"/>
       <c r="O36" s="153"/>
       <c r="P36" s="295"/>
-      <c r="Q36" s="285"/>
+      <c r="Q36" s="295"/>
       <c r="R36" s="285"/>
-      <c r="S36" s="24"/>
-    </row>
-    <row r="37" spans="1:23" ht="16" thickBot="1">
+      <c r="S36" s="285"/>
+      <c r="T36" s="24"/>
+    </row>
+    <row r="37" spans="1:24" ht="16" thickBot="1">
       <c r="A37" s="147" t="s">
         <v>738</v>
       </c>
@@ -8804,11 +8838,12 @@
       <c r="N37" s="150"/>
       <c r="O37" s="153"/>
       <c r="P37" s="295"/>
-      <c r="Q37" s="285"/>
+      <c r="Q37" s="295"/>
       <c r="R37" s="285"/>
-      <c r="S37" s="24"/>
-    </row>
-    <row r="38" spans="1:23" ht="16" thickBot="1">
+      <c r="S37" s="285"/>
+      <c r="T37" s="24"/>
+    </row>
+    <row r="38" spans="1:24" ht="16" thickBot="1">
       <c r="A38" s="147" t="s">
         <v>103</v>
       </c>
@@ -8846,16 +8881,17 @@
       </c>
       <c r="O38" s="153"/>
       <c r="P38" s="295"/>
-      <c r="Q38" s="285"/>
+      <c r="Q38" s="295"/>
       <c r="R38" s="285"/>
-      <c r="S38" t="s">
+      <c r="S38" s="285"/>
+      <c r="T38" t="s">
         <v>421</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="16" thickBot="1">
+    <row r="39" spans="1:24" ht="16" thickBot="1">
       <c r="A39" s="246" t="s">
         <v>733</v>
       </c>
@@ -8871,16 +8907,17 @@
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
-      <c r="Q39" s="286"/>
+      <c r="Q39" s="59"/>
       <c r="R39" s="286"/>
-      <c r="S39" s="24" t="s">
+      <c r="S39" s="286"/>
+      <c r="T39" s="24" t="s">
         <v>983</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="16" thickBot="1">
+    <row r="40" spans="1:24" ht="16" thickBot="1">
       <c r="A40" s="147" t="s">
         <v>515</v>
       </c>
@@ -8916,19 +8953,22 @@
         <v>0.94</v>
       </c>
       <c r="P40" s="164">
+        <v>0.04</v>
+      </c>
+      <c r="Q40" s="164">
         <v>0.89</v>
       </c>
-      <c r="Q40" s="287">
+      <c r="R40" s="287">
         <v>1400</v>
       </c>
-      <c r="R40" s="287">
+      <c r="S40" s="287">
         <v>1200</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="16" thickBot="1">
+    <row r="41" spans="1:24" ht="16" thickBot="1">
       <c r="A41" s="147" t="s">
         <v>516</v>
       </c>
@@ -8963,26 +9003,27 @@
       <c r="O41" s="263">
         <v>0.98179823692937196</v>
       </c>
-      <c r="P41" s="164">
+      <c r="P41" s="164"/>
+      <c r="Q41" s="164">
         <v>0.7</v>
       </c>
-      <c r="Q41" s="287">
+      <c r="R41" s="287">
         <v>1380</v>
       </c>
-      <c r="R41" s="287">
+      <c r="S41" s="287">
         <v>370</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>948</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>180221</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="16" thickBot="1">
+    <row r="42" spans="1:24" ht="16" thickBot="1">
       <c r="A42" s="147" t="s">
         <v>517</v>
       </c>
@@ -9017,25 +9058,26 @@
       <c r="O42" s="263">
         <v>0.79927679923149053</v>
       </c>
-      <c r="P42" s="164">
+      <c r="P42" s="164"/>
+      <c r="Q42" s="164">
         <v>0.2</v>
       </c>
-      <c r="Q42" s="289">
+      <c r="R42" s="289">
         <f>G42*0.36/2</f>
         <v>1434.528</v>
       </c>
-      <c r="R42" s="289">
+      <c r="S42" s="289">
         <f>G42*0.67/2</f>
         <v>2669.8160000000003</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>949</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="16" thickBot="1">
+    <row r="43" spans="1:24" ht="16" thickBot="1">
       <c r="A43" s="147" t="s">
         <v>518</v>
       </c>
@@ -9070,26 +9112,27 @@
       <c r="O43" s="263">
         <v>0.97735385922437001</v>
       </c>
-      <c r="P43" s="164">
+      <c r="P43" s="164"/>
+      <c r="Q43" s="164">
         <v>0.7</v>
       </c>
-      <c r="Q43" s="287">
+      <c r="R43" s="287">
         <v>2315</v>
       </c>
-      <c r="R43" s="287">
+      <c r="S43" s="287">
         <v>330</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>950</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>180221</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="16" thickBot="1">
+    <row r="44" spans="1:24" ht="16" thickBot="1">
       <c r="A44" s="147" t="s">
         <v>519</v>
       </c>
@@ -9124,25 +9167,26 @@
       <c r="O44" s="263">
         <v>0.877478471550592</v>
       </c>
-      <c r="P44" s="164">
+      <c r="P44" s="164"/>
+      <c r="Q44" s="164">
         <v>0.8</v>
       </c>
-      <c r="Q44" s="287">
+      <c r="R44" s="287">
         <f>8000*0.4</f>
         <v>3200</v>
       </c>
-      <c r="R44" s="287">
+      <c r="S44" s="287">
         <f>3000*0.4</f>
         <v>1200</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>540</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="16" thickBot="1">
+    <row r="45" spans="1:24" ht="16" thickBot="1">
       <c r="A45" s="147" t="s">
         <v>669</v>
       </c>
@@ -9177,26 +9221,27 @@
       <c r="O45" s="263">
         <v>0.56096498593100275</v>
       </c>
-      <c r="P45" s="164">
+      <c r="P45" s="164"/>
+      <c r="Q45" s="164">
         <v>0.65</v>
       </c>
-      <c r="Q45" s="293">
+      <c r="R45" s="293">
         <v>1200</v>
       </c>
-      <c r="R45" s="287">
+      <c r="S45" s="287">
         <v>977</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>956</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>180221</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="16" thickBot="1">
+    <row r="46" spans="1:24" ht="16" thickBot="1">
       <c r="A46" s="147" t="s">
         <v>521</v>
       </c>
@@ -9231,23 +9276,24 @@
       <c r="O46" s="263">
         <v>0.82380040804253563</v>
       </c>
-      <c r="P46" s="296">
+      <c r="P46" s="296"/>
+      <c r="Q46" s="296">
         <v>0.8</v>
       </c>
-      <c r="Q46" s="291">
+      <c r="R46" s="291">
         <v>1170</v>
       </c>
-      <c r="R46" s="291">
+      <c r="S46" s="291">
         <v>740</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>952</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="16" thickBot="1">
+    <row r="47" spans="1:24" ht="16" thickBot="1">
       <c r="A47" s="147" t="s">
         <v>522</v>
       </c>
@@ -9282,23 +9328,24 @@
       <c r="O47" s="263">
         <v>0.90450759080277232</v>
       </c>
-      <c r="P47" s="164">
+      <c r="P47" s="164"/>
+      <c r="Q47" s="164">
         <v>0.51</v>
       </c>
-      <c r="Q47" s="288">
+      <c r="R47" s="288">
         <v>2300</v>
       </c>
-      <c r="R47" s="288">
+      <c r="S47" s="288">
         <v>300</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>946</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>180221</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="16" thickBot="1">
+    <row r="48" spans="1:24" ht="16" thickBot="1">
       <c r="A48" s="147" t="s">
         <v>523</v>
       </c>
@@ -9333,23 +9380,24 @@
       <c r="O48" s="263">
         <v>0.73736998705248713</v>
       </c>
-      <c r="P48" s="164">
+      <c r="P48" s="164"/>
+      <c r="Q48" s="164">
         <v>0.74</v>
       </c>
-      <c r="Q48" s="292">
+      <c r="R48" s="292">
         <v>2010</v>
       </c>
-      <c r="R48" s="287">
+      <c r="S48" s="287">
         <v>1630</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>953</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16" thickBot="1">
+    <row r="49" spans="1:22" ht="16" thickBot="1">
       <c r="A49" s="148" t="s">
         <v>524</v>
       </c>
@@ -9384,27 +9432,28 @@
       <c r="O49" s="264">
         <v>0.99060618444367532</v>
       </c>
-      <c r="P49" s="164">
+      <c r="P49" s="164"/>
+      <c r="Q49" s="164">
         <v>0.93</v>
       </c>
-      <c r="Q49" s="287">
+      <c r="R49" s="287">
         <v>1500</v>
       </c>
-      <c r="R49" s="290">
+      <c r="S49" s="290">
         <v>1100</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>951</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>180221</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16" thickTop="1"/>
-    <row r="54" spans="1:21" ht="16" thickBot="1">
+    <row r="50" spans="1:22" ht="16" thickTop="1"/>
+    <row r="54" spans="1:22" ht="16" thickBot="1">
       <c r="A54" s="148" t="s">
         <v>525</v>
       </c>
@@ -9433,11 +9482,12 @@
       <c r="P54" s="167"/>
       <c r="Q54" s="167"/>
       <c r="R54" s="167"/>
-    </row>
-    <row r="55" spans="1:21" ht="16" thickTop="1">
+      <c r="S54" s="167"/>
+    </row>
+    <row r="55" spans="1:22" ht="16" thickTop="1">
       <c r="A55" s="100"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>487</v>
       </c>
@@ -9448,7 +9498,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="17">
+    <row r="58" spans="1:22" ht="17">
       <c r="A58" t="s">
         <v>490</v>
       </c>
@@ -9460,7 +9510,7 @@
       </c>
       <c r="K58" s="127"/>
     </row>
-    <row r="59" spans="1:21" ht="17">
+    <row r="59" spans="1:22" ht="17">
       <c r="A59" t="s">
         <v>493</v>
       </c>
@@ -9471,11 +9521,11 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:22">
       <c r="M60" s="128"/>
       <c r="N60" s="129"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:22">
       <c r="A61" s="130"/>
       <c r="B61" s="131" t="s">
         <v>496</v>
@@ -9493,7 +9543,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:22">
       <c r="A62" s="132" t="s">
         <v>500</v>
       </c>
@@ -9513,7 +9563,7 @@
         <v>32.064999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:22">
       <c r="A64" s="134"/>
       <c r="B64" s="135" t="s">
         <v>501</v>
@@ -10034,7 +10084,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="17" thickTop="1" thickBot="1">
+    <row r="81" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A81" s="160" t="s">
         <v>532</v>
       </c>
@@ -10074,7 +10124,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="16" thickTop="1">
+    <row r="82" spans="1:19" ht="16" thickTop="1">
       <c r="A82" s="163" t="s">
         <v>533</v>
       </c>
@@ -10093,7 +10143,7 @@
         <v>0.54263731383696057</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:19">
       <c r="A83" s="166" t="s">
         <v>534</v>
       </c>
@@ -10144,7 +10194,7 @@
         <v>7.7143668844394412E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:19">
       <c r="A84" s="166" t="s">
         <v>535</v>
       </c>
@@ -10195,7 +10245,7 @@
         <v>7.4327199906501884E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:19">
       <c r="A85" s="166" t="s">
         <v>536</v>
       </c>
@@ -10246,7 +10296,7 @@
         <v>0.30667394841267392</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:19">
       <c r="A86" s="166" t="s">
         <v>537</v>
       </c>
@@ -10303,8 +10353,9 @@
       <c r="P86" s="167"/>
       <c r="Q86" s="167"/>
       <c r="R86" s="167"/>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" s="167"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="166" t="s">
         <v>538</v>
       </c>
@@ -11998,13 +12049,13 @@
       <c r="A68" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="298">
+      <c r="B68" s="300">
         <v>90</v>
       </c>
-      <c r="C68" s="298">
+      <c r="C68" s="300">
         <v>87</v>
       </c>
-      <c r="D68" s="298">
+      <c r="D68" s="300">
         <v>99</v>
       </c>
     </row>
@@ -12012,9 +12063,9 @@
       <c r="A69" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="B69" s="298"/>
-      <c r="C69" s="298"/>
-      <c r="D69" s="298"/>
+      <c r="B69" s="300"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="300"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="64" t="s">
@@ -20579,8 +20630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20712,6 +20763,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
+      <c r="G18">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="45">
       <c r="B19" s="1" t="s">
@@ -20729,7 +20783,18 @@
       <c r="F19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="G19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J19" s="301" t="s">
+        <v>1005</v>
+      </c>
       <c r="K19" s="72"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
@@ -20778,9 +20843,30 @@
       <c r="F21" s="81">
         <v>-110.52727272727275</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="51"/>
+      <c r="G21">
+        <f>5/80</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H21">
+        <f>18/80</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I21">
+        <f>5.2/80</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J21" s="51">
+        <f>100-(80+3/80+H21+G210+I21)</f>
+        <v>19.672500000000014</v>
+      </c>
+      <c r="K21" s="72">
+        <f>0.71*G21+J21*0.7+H21*0.45+I21*2.25*0.3</f>
+        <v>13.960250000000009</v>
+      </c>
+      <c r="L21" s="302">
+        <f>K21/B21</f>
+        <v>0.63455681818181864</v>
+      </c>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
     </row>
@@ -20860,11 +20946,11 @@
       <c r="A26" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="B26" s="299">
-        <f>Parameters!P40</f>
+      <c r="B26" s="298">
+        <f>Parameters!Q40</f>
         <v>0.89</v>
       </c>
-      <c r="C26" s="300">
+      <c r="C26" s="299">
         <f>Parameters!M40*0.85+Parameters!L40*2.25*0.8+Parameters!N40*0.6</f>
         <v>0.73899999999999999</v>
       </c>
@@ -20879,13 +20965,13 @@
       <c r="A27" s="147" t="s">
         <v>516</v>
       </c>
-      <c r="B27" s="299">
-        <f>Parameters!P41</f>
+      <c r="B27" s="298">
+        <f>Parameters!Q41</f>
         <v>0.7</v>
       </c>
-      <c r="C27" s="300">
-        <f>Parameters!M41*0.85+Parameters!L41*2.25*0.8+Parameters!N41*0.6</f>
-        <v>0.60750000000000004</v>
+      <c r="C27" s="299">
+        <f>Parameters!M41*0.85+Parameters!L41*2.25*0.8+Parameters!N41*0.7</f>
+        <v>0.68149999999999999</v>
       </c>
       <c r="J27" s="51"/>
       <c r="K27" s="51"/>
@@ -20897,11 +20983,11 @@
       <c r="A28" s="147" t="s">
         <v>517</v>
       </c>
-      <c r="B28" s="299">
-        <f>Parameters!P42</f>
+      <c r="B28" s="298">
+        <f>Parameters!Q42</f>
         <v>0.2</v>
       </c>
-      <c r="C28" s="300">
+      <c r="C28" s="299">
         <f>Parameters!M42*0.85+Parameters!L42*2.25*0.8+Parameters!N42*0.6</f>
         <v>0.6905</v>
       </c>
@@ -20915,11 +21001,11 @@
       <c r="A29" s="147" t="s">
         <v>518</v>
       </c>
-      <c r="B29" s="299">
-        <f>Parameters!P43</f>
+      <c r="B29" s="298">
+        <f>Parameters!Q43</f>
         <v>0.7</v>
       </c>
-      <c r="C29" s="300">
+      <c r="C29" s="299">
         <f>Parameters!M43*0.85+Parameters!L43*2.25*0.8+Parameters!N43*0.6</f>
         <v>0.57699999999999996</v>
       </c>
@@ -20928,11 +21014,11 @@
       <c r="A30" s="147" t="s">
         <v>519</v>
       </c>
-      <c r="B30" s="299">
-        <f>Parameters!P44</f>
+      <c r="B30" s="298">
+        <f>Parameters!Q44</f>
         <v>0.8</v>
       </c>
-      <c r="C30" s="300">
+      <c r="C30" s="299">
         <f>Parameters!M44*0.85+Parameters!L44*2.25*0.8+Parameters!N44*0.6</f>
         <v>0.86099999999999999</v>
       </c>
@@ -20941,11 +21027,11 @@
       <c r="A31" s="147" t="s">
         <v>669</v>
       </c>
-      <c r="B31" s="299">
-        <f>Parameters!P45</f>
+      <c r="B31" s="298">
+        <f>Parameters!Q45</f>
         <v>0.65</v>
       </c>
-      <c r="C31" s="300">
+      <c r="C31" s="299">
         <f>Parameters!M45*0.85+Parameters!L45*2.25*0.8+Parameters!N45*0.6</f>
         <v>0.56299999999999994</v>
       </c>
@@ -20954,55 +21040,62 @@
       <c r="A32" s="147" t="s">
         <v>521</v>
       </c>
-      <c r="B32" s="299">
-        <f>Parameters!P46</f>
+      <c r="B32" s="298">
+        <f>Parameters!Q46</f>
         <v>0.8</v>
       </c>
-      <c r="C32" s="300">
+      <c r="C32" s="299">
         <f>Parameters!M46*0.85+Parameters!L46*2.25*0.8+Parameters!N46*0.6</f>
         <v>0.62149999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" thickBot="1">
+    <row r="33" spans="1:4" ht="16" thickBot="1">
       <c r="A33" s="147" t="s">
         <v>522</v>
       </c>
-      <c r="B33" s="299">
-        <f>Parameters!P47</f>
+      <c r="B33" s="298">
+        <f>Parameters!Q47</f>
         <v>0.51</v>
       </c>
-      <c r="C33" s="300">
+      <c r="C33" s="299">
         <f>Parameters!M47*0.85+Parameters!L47*2.25*0.8+Parameters!N47*0.6</f>
         <v>0.62750000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" thickBot="1">
+    <row r="34" spans="1:4" ht="16" thickBot="1">
       <c r="A34" s="147" t="s">
         <v>523</v>
       </c>
-      <c r="B34" s="299">
-        <f>Parameters!P48</f>
+      <c r="B34" s="298">
+        <f>Parameters!Q48</f>
         <v>0.74</v>
       </c>
-      <c r="C34" s="300">
+      <c r="C34" s="299">
         <f>Parameters!M48*0.85+Parameters!L48*2.25*0.8+Parameters!N48*0.6</f>
         <v>0.63</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" thickBot="1">
+    <row r="35" spans="1:4" ht="16" thickBot="1">
       <c r="A35" s="148" t="s">
         <v>524</v>
       </c>
-      <c r="B35" s="299">
-        <f>Parameters!P49</f>
+      <c r="B35" s="298">
+        <f>Parameters!Q49</f>
         <v>0.93</v>
       </c>
-      <c r="C35" s="300">
+      <c r="C35" s="299">
         <f>Parameters!M49*0.85+Parameters!L49*2.25*0.8+Parameters!N49*0.6</f>
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" thickTop="1"/>
+    <row r="36" spans="1:4" ht="16" thickTop="1">
+      <c r="C36" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27280" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="120" windowWidth="26800" windowHeight="14700" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="989">
   <si>
     <t>Hauling</t>
   </si>
@@ -3128,6 +3128,9 @@
     <t xml:space="preserve">15%-.48% additional degradation to </t>
   </si>
   <si>
+    <t>additional  20% degradation due to fungi</t>
+  </si>
+  <si>
     <t>LA_CS_factor</t>
   </si>
   <si>
@@ -3299,76 +3302,19 @@
     <t>0-10.5%</t>
   </si>
   <si>
-    <t>source for P and K</t>
-  </si>
-  <si>
-    <t>source for TDN</t>
-  </si>
-  <si>
-    <t>blend of peaches, apples and lettuce</t>
-  </si>
-  <si>
-    <t>blend of cannery wastes</t>
-  </si>
-  <si>
-    <t>blend of melon waste and corn cobs</t>
-  </si>
-  <si>
-    <t>Beef magazine based upon dried grounds</t>
-  </si>
-  <si>
-    <t>Beef magazine, garbage, cooked</t>
-  </si>
-  <si>
-    <t>Beef magazine blend of oats and rice</t>
-  </si>
-  <si>
-    <t>Total guess</t>
-  </si>
-  <si>
-    <t>Based upon skim milk</t>
-  </si>
-  <si>
-    <t>additional  80% degradation due to fungi, Bernstadt estimated 1 to 10.5% of initial</t>
-  </si>
-  <si>
-    <t>Carbon stored</t>
-  </si>
-  <si>
-    <t>KgC/t fW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2% to  14% </t>
-  </si>
-  <si>
-    <t>based on literature</t>
-  </si>
-  <si>
-    <t>Smith et al. (2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7% to 6% </t>
-  </si>
-  <si>
-    <t>Bruun</t>
-  </si>
-  <si>
-    <t>literature</t>
-  </si>
-  <si>
-    <t>Purdue w/ carb used for all fiber</t>
-  </si>
-  <si>
-    <t>Montana dept of ag.</t>
-  </si>
-  <si>
-    <t>Fat</t>
-  </si>
-  <si>
-    <t>NFE</t>
-  </si>
-  <si>
-    <t>Dietary fiber</t>
+    <t>ft3/m3</t>
+  </si>
+  <si>
+    <t>ASERTTI 0.02 to 0.04 KWh/ft3 biogas</t>
+  </si>
+  <si>
+    <t>Biological emissions</t>
+  </si>
+  <si>
+    <t>NH3 emissions</t>
+  </si>
+  <si>
+    <t>may be high?</t>
   </si>
 </sst>
 </file>
@@ -4553,7 +4499,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4631,6 +4577,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5001,20 +4948,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="26" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="453">
     <cellStyle name="Bad 2" xfId="17"/>
@@ -5795,11 +5732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2088997240"/>
-        <c:axId val="2089000376"/>
+        <c:axId val="2109805800"/>
+        <c:axId val="2109802488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2088997240"/>
+        <c:axId val="2109805800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5809,7 +5746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089000376"/>
+        <c:crossAx val="2109802488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5817,7 +5754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089000376"/>
+        <c:axId val="2109802488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5828,7 +5765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088997240"/>
+        <c:crossAx val="2109805800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6310,11 +6247,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2041159336"/>
-        <c:axId val="-2041163512"/>
+        <c:axId val="2132882008"/>
+        <c:axId val="2132879016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2041159336"/>
+        <c:axId val="2132882008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6324,7 +6261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2041163512"/>
+        <c:crossAx val="2132879016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6332,7 +6269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2041163512"/>
+        <c:axId val="2132879016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6361,7 +6298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2041159336"/>
+        <c:crossAx val="2132882008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7413,11 +7350,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="-2040941032"/>
-        <c:axId val="-2040938216"/>
+        <c:axId val="2136473288"/>
+        <c:axId val="2136476104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2040941032"/>
+        <c:axId val="2136473288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7437,7 +7374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040938216"/>
+        <c:crossAx val="2136476104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7445,7 +7382,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2040938216"/>
+        <c:axId val="2136476104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7474,7 +7411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2040941032"/>
+        <c:crossAx val="2136473288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7988,10 +7925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X87"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8000,16 +7937,15 @@
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="17" width="11" customWidth="1"/>
-    <col min="20" max="20" width="74.5" customWidth="1"/>
+    <col min="12" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="44" customFormat="1" ht="13" customHeight="1">
+    <row r="1" spans="1:20" s="44" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>659</v>
       </c>
@@ -8019,7 +7955,7 @@
       <c r="C1" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="198" t="s">
+      <c r="D1" s="199" t="s">
         <v>641</v>
       </c>
       <c r="E1" s="41" t="s">
@@ -8029,14 +7965,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>662</v>
       </c>
       <c r="B2" t="s">
         <v>665</v>
       </c>
-      <c r="C2" s="195">
+      <c r="C2" s="196">
         <f>J66</f>
         <v>0.44445499769952745</v>
       </c>
@@ -8044,14 +7980,14 @@
         <v>684</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>664</v>
       </c>
       <c r="B3" t="s">
         <v>665</v>
       </c>
-      <c r="C3" s="195">
+      <c r="C3" s="196">
         <f>J65</f>
         <v>0.53090857076072773</v>
       </c>
@@ -8059,14 +7995,14 @@
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>663</v>
       </c>
       <c r="B4" t="s">
         <v>665</v>
       </c>
-      <c r="C4" s="195">
+      <c r="C4" s="196">
         <f>J67</f>
         <v>0.77143668844394409</v>
       </c>
@@ -8074,14 +8010,14 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="196">
+      <c r="C5" s="197">
         <v>265</v>
       </c>
       <c r="D5" s="1"/>
@@ -8095,14 +8031,14 @@
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="196">
+      <c r="C6" s="197">
         <v>28</v>
       </c>
       <c r="D6" s="1"/>
@@ -8116,14 +8052,14 @@
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>642</v>
       </c>
       <c r="B7" t="s">
         <v>644</v>
       </c>
-      <c r="C7" s="193">
+      <c r="C7" s="194">
         <v>0.45</v>
       </c>
       <c r="D7" t="s">
@@ -8133,121 +8069,121 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="47" customFormat="1">
-      <c r="A8" s="115" t="s">
+    <row r="8" spans="1:20" s="47" customFormat="1">
+      <c r="A8" s="116" t="s">
         <v>650</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="105" t="s">
         <v>648</v>
       </c>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="198" t="s">
         <v>465</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="120">
         <f>34003/1000000</f>
         <v>3.4002999999999999E-2</v>
       </c>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="105" t="s">
         <v>467</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-    </row>
-    <row r="9" spans="1:22" s="47" customFormat="1">
-      <c r="A9" s="115" t="s">
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+    </row>
+    <row r="9" spans="1:20" s="47" customFormat="1">
+      <c r="A9" s="116" t="s">
         <v>783</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="197"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-    </row>
-    <row r="10" spans="1:22" s="104" customFormat="1" ht="14">
-      <c r="A10" s="104" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="198"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+    </row>
+    <row r="10" spans="1:20" s="105" customFormat="1" ht="14">
+      <c r="A10" s="105" t="s">
         <v>459</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="111" t="s">
         <v>649</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="120">
+      <c r="C10" s="198"/>
+      <c r="D10" s="121">
         <f>F10/1000*F8</f>
         <v>2.6982740619999999</v>
       </c>
-      <c r="F10" s="116">
+      <c r="F10" s="117">
         <v>79354</v>
       </c>
-      <c r="G10" s="110" t="s">
+      <c r="G10" s="111" t="s">
         <v>589</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="104" t="s">
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="105" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="104" customFormat="1" ht="14">
-      <c r="A11" s="104" t="s">
+    <row r="11" spans="1:20" s="105" customFormat="1" ht="14">
+      <c r="A11" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="111" t="s">
         <v>649</v>
       </c>
-      <c r="C11" s="197"/>
-      <c r="D11" s="120">
+      <c r="C11" s="198"/>
+      <c r="D11" s="121">
         <f>F11/1000*F8*Parameters!C5</f>
         <v>1.8021590000000001E-2</v>
       </c>
-      <c r="F11" s="116">
+      <c r="F11" s="117">
         <v>2</v>
       </c>
-      <c r="G11" s="110" t="s">
+      <c r="G11" s="111" t="s">
         <v>466</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="104" t="s">
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="105" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="27" customFormat="1" ht="14">
-      <c r="A12" s="110" t="s">
+    <row r="12" spans="1:20" s="27" customFormat="1" ht="14">
+      <c r="A12" s="111" t="s">
         <v>460</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="111" t="s">
         <v>649</v>
       </c>
-      <c r="C12" s="194"/>
-      <c r="D12" s="121">
+      <c r="C12" s="195"/>
+      <c r="D12" s="122">
         <f>F12*Parameters!C6/1000*F8</f>
         <v>4.1986904399999997E-3</v>
       </c>
       <c r="F12" s="27">
         <v>4.41</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="111" t="s">
         <v>466</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="104" t="s">
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="105" t="s">
         <v>458</v>
       </c>
-      <c r="N12" s="110"/>
-      <c r="V12" s="118"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="N12" s="111"/>
+      <c r="T12" s="119"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C13" s="270">
+      <c r="C13" s="271">
         <f>SUM(D10:D12)</f>
         <v>2.7204943424399999</v>
       </c>
@@ -8259,17 +8195,15 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="196">
+      <c r="C14" s="197">
         <v>533.66</v>
       </c>
       <c r="E14" t="s">
@@ -8279,15 +8213,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:20">
       <c r="A15" s="43" t="s">
         <v>781</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="196"/>
+      <c r="C15" s="197"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>598</v>
       </c>
@@ -8307,7 +8241,7 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>706</v>
       </c>
@@ -8327,7 +8261,7 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>724</v>
       </c>
@@ -8347,14 +8281,14 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="196">
+      <c r="C19" s="197">
         <v>0.67</v>
       </c>
       <c r="D19" s="1"/>
@@ -8366,1128 +8300,1006 @@
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:21" s="45" customFormat="1">
+    <row r="20" spans="1:19" s="45" customFormat="1">
       <c r="A20" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="194">
+      <c r="C20" s="195">
         <v>35315</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:19">
       <c r="A21" s="1"/>
-      <c r="T21" s="68"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="R21" s="69"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1"/>
-      <c r="T22" s="68"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="R22" s="69"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1"/>
-      <c r="T23" s="68" t="s">
+      <c r="R23" s="69" t="s">
         <v>766</v>
       </c>
-      <c r="U23" t="s">
+      <c r="S23" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="44" customFormat="1">
+    <row r="24" spans="1:19" s="44" customFormat="1">
       <c r="A24" s="45" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="37" thickBot="1">
-      <c r="A25" s="157" t="s">
+    <row r="25" spans="1:19" ht="37" thickBot="1">
+      <c r="A25" s="158" t="s">
         <v>661</v>
       </c>
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="158" t="s">
         <v>406</v>
       </c>
-      <c r="C25" s="157" t="s">
+      <c r="C25" s="158" t="s">
         <v>527</v>
       </c>
-      <c r="D25" s="157" t="s">
+      <c r="D25" s="158" t="s">
         <v>450</v>
       </c>
-      <c r="E25" s="157" t="s">
+      <c r="E25" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="157" t="s">
+      <c r="F25" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="157" t="s">
+      <c r="G25" s="158" t="s">
         <v>407</v>
       </c>
-      <c r="H25" s="157" t="s">
+      <c r="H25" s="158" t="s">
         <v>480</v>
       </c>
-      <c r="I25" s="157" t="s">
+      <c r="I25" s="158" t="s">
         <v>472</v>
       </c>
-      <c r="J25" s="157" t="s">
+      <c r="J25" s="158" t="s">
         <v>633</v>
       </c>
-      <c r="K25" s="157" t="s">
+      <c r="K25" s="158" t="s">
         <v>529</v>
       </c>
-      <c r="L25" s="157" t="s">
+      <c r="L25" s="158" t="s">
         <v>530</v>
       </c>
-      <c r="M25" s="157" t="s">
+      <c r="M25" s="158" t="s">
         <v>531</v>
       </c>
-      <c r="N25" s="160" t="s">
+      <c r="N25" s="161" t="s">
         <v>532</v>
       </c>
-      <c r="O25" s="157" t="s">
+      <c r="O25" s="158" t="s">
         <v>533</v>
       </c>
-      <c r="P25" s="163" t="s">
-        <v>1006</v>
-      </c>
-      <c r="Q25" s="163" t="s">
-        <v>348</v>
-      </c>
-      <c r="R25" s="163" t="s">
-        <v>954</v>
-      </c>
-      <c r="S25" s="163" t="s">
+      <c r="P25" s="164" t="s">
         <v>955</v>
       </c>
-      <c r="T25" s="166" t="s">
+      <c r="Q25" s="164" t="s">
+        <v>956</v>
+      </c>
+      <c r="R25" s="167" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="17" thickTop="1" thickBot="1">
-      <c r="A26" s="147" t="s">
+    <row r="26" spans="1:19" ht="17" thickTop="1" thickBot="1">
+      <c r="A26" s="148" t="s">
         <v>731</v>
       </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="295"/>
-      <c r="Q26" s="295"/>
-      <c r="R26" s="285"/>
-      <c r="S26" s="285"/>
-    </row>
-    <row r="27" spans="1:21" ht="16" thickBot="1">
-      <c r="A27" s="147" t="s">
+      <c r="B26" s="151"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="257"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="286"/>
+      <c r="Q26" s="286"/>
+    </row>
+    <row r="27" spans="1:19" ht="16" thickBot="1">
+      <c r="A27" s="148" t="s">
         <v>732</v>
       </c>
-      <c r="B27" s="150">
+      <c r="B27" s="151">
         <v>0.3</v>
       </c>
-      <c r="C27" s="153">
+      <c r="C27" s="154">
         <v>0.9</v>
       </c>
-      <c r="D27" s="147">
+      <c r="D27" s="148">
         <f>C27*B27</f>
         <v>0.27</v>
       </c>
-      <c r="E27" s="256">
+      <c r="E27" s="257">
         <f>F27/D27</f>
         <v>334.11111111111109</v>
       </c>
-      <c r="F27" s="250">
+      <c r="F27" s="251">
         <f>H27*B27</f>
         <v>90.21</v>
       </c>
-      <c r="G27" s="273">
+      <c r="G27" s="274">
         <v>9000</v>
       </c>
-      <c r="H27" s="256">
+      <c r="H27" s="257">
         <v>300.7</v>
       </c>
-      <c r="I27" s="250">
+      <c r="I27" s="251">
         <v>0.14399999999999999</v>
       </c>
-      <c r="J27" s="255">
+      <c r="J27" s="256">
         <f>(Parameters!C3*Parameters!M27+Parameters!L27*Parameters!C4+Parameters!N27*Parameters!C2)*1000*B27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="K27" s="150"/>
-      <c r="L27" s="153">
+      <c r="K27" s="151"/>
+      <c r="L27" s="154">
         <v>0.1</v>
       </c>
-      <c r="M27" s="187">
+      <c r="M27" s="188">
         <v>0.1</v>
       </c>
-      <c r="N27" s="150">
+      <c r="N27" s="151">
         <v>0.8</v>
       </c>
-      <c r="O27" s="153">
+      <c r="O27" s="154">
         <v>0.84099999999999997</v>
       </c>
-      <c r="P27" s="295"/>
-      <c r="Q27" s="295"/>
-      <c r="R27" s="285"/>
-      <c r="S27" s="285"/>
-      <c r="T27" t="s">
+      <c r="P27" s="296"/>
+      <c r="Q27" s="286"/>
+      <c r="R27" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16" thickBot="1">
-      <c r="A28" s="147" t="s">
+    <row r="28" spans="1:19" ht="16" thickBot="1">
+      <c r="A28" s="148" t="s">
         <v>641</v>
       </c>
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="151" t="s">
         <v>670</v>
       </c>
-      <c r="C28" s="153"/>
-      <c r="D28" s="147" t="s">
+      <c r="C28" s="154"/>
+      <c r="D28" s="148" t="s">
         <v>671</v>
       </c>
-      <c r="E28" s="256"/>
-      <c r="F28" s="250"/>
-      <c r="G28" s="147" t="s">
+      <c r="E28" s="257"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="148" t="s">
         <v>540</v>
       </c>
-      <c r="H28" s="150" t="s">
+      <c r="H28" s="151" t="s">
         <v>670</v>
       </c>
-      <c r="I28" s="153"/>
-      <c r="J28" s="147" t="s">
+      <c r="I28" s="154"/>
+      <c r="J28" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="150"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="153" t="s">
+      <c r="K28" s="151"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="154" t="s">
         <v>821</v>
       </c>
-      <c r="P28" s="295"/>
-      <c r="Q28" s="295"/>
-      <c r="R28" s="285"/>
-      <c r="S28" s="285"/>
-    </row>
-    <row r="29" spans="1:21" ht="16" thickBot="1">
-      <c r="A29" s="147" t="s">
+      <c r="P28" s="286"/>
+      <c r="Q28" s="286"/>
+    </row>
+    <row r="29" spans="1:19" ht="16" thickBot="1">
+      <c r="A29" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="147" t="s">
+      <c r="B29" s="151"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="257"/>
+      <c r="F29" s="251"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="148" t="s">
         <v>672</v>
       </c>
-      <c r="K29" s="150"/>
-      <c r="L29" s="153" t="s">
+      <c r="K29" s="151"/>
+      <c r="L29" s="154" t="s">
         <v>667</v>
       </c>
-      <c r="M29" s="158" t="s">
+      <c r="M29" s="159" t="s">
         <v>667</v>
       </c>
-      <c r="N29" s="150" t="s">
+      <c r="N29" s="151" t="s">
         <v>667</v>
       </c>
-      <c r="O29" s="153" t="s">
+      <c r="O29" s="154" t="s">
         <v>667</v>
       </c>
-      <c r="P29" s="295"/>
-      <c r="Q29" s="295"/>
-      <c r="R29" s="285"/>
-      <c r="S29" s="285"/>
-    </row>
-    <row r="30" spans="1:21" ht="16" thickBot="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="250"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="147" t="s">
+      <c r="P29" s="286"/>
+      <c r="Q29" s="286"/>
+    </row>
+    <row r="30" spans="1:19" ht="16" thickBot="1">
+      <c r="A30" s="148"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="257"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="148" t="s">
         <v>540</v>
       </c>
-      <c r="K30" s="150"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="295"/>
-      <c r="Q30" s="295"/>
-      <c r="R30" s="285"/>
-      <c r="S30" s="285"/>
-    </row>
-    <row r="31" spans="1:21" ht="16" thickBot="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="256"/>
-      <c r="F31" s="250"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="147">
+      <c r="K30" s="151"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="188"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="286"/>
+      <c r="Q30" s="286"/>
+    </row>
+    <row r="31" spans="1:19" ht="16" thickBot="1">
+      <c r="A31" s="148"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="257"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="148">
         <f>E27*D27</f>
         <v>90.21</v>
       </c>
-      <c r="K31" s="150"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="295"/>
-      <c r="Q31" s="295"/>
-      <c r="R31" s="285"/>
-      <c r="S31" s="285"/>
-    </row>
-    <row r="32" spans="1:21" ht="16" thickBot="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="256"/>
-      <c r="F32" s="250"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="147" t="s">
+      <c r="K31" s="151"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="154"/>
+      <c r="P31" s="286"/>
+      <c r="Q31" s="286"/>
+    </row>
+    <row r="32" spans="1:19" ht="16" thickBot="1">
+      <c r="A32" s="148"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="257"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="148" t="s">
         <v>670</v>
       </c>
-      <c r="K32" s="150"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="295"/>
-      <c r="Q32" s="295"/>
-      <c r="R32" s="285"/>
-      <c r="S32" s="285"/>
-    </row>
-    <row r="33" spans="1:24" ht="16" thickBot="1">
-      <c r="A33" s="147" t="s">
+      <c r="K32" s="151"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="154"/>
+      <c r="P32" s="286"/>
+      <c r="Q32" s="286"/>
+    </row>
+    <row r="33" spans="1:22" ht="16" thickBot="1">
+      <c r="A33" s="148" t="s">
         <v>734</v>
       </c>
-      <c r="B33" s="150"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="250"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="295"/>
-      <c r="Q33" s="295"/>
-      <c r="R33" s="285"/>
-      <c r="S33" s="285"/>
-    </row>
-    <row r="34" spans="1:24" ht="16" thickBot="1">
-      <c r="A34" s="147" t="s">
+      <c r="B33" s="151"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="257"/>
+      <c r="F33" s="251"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="286"/>
+      <c r="Q33" s="286"/>
+    </row>
+    <row r="34" spans="1:22" ht="16" thickBot="1">
+      <c r="A34" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="150">
+      <c r="B34" s="151">
         <v>0.18</v>
       </c>
-      <c r="C34" s="153">
+      <c r="C34" s="154">
         <f>D34/B34</f>
         <v>0.94444444444444453</v>
       </c>
-      <c r="D34" s="147">
+      <c r="D34" s="148">
         <v>0.17</v>
       </c>
-      <c r="E34" s="256">
+      <c r="E34" s="257">
         <v>887</v>
       </c>
-      <c r="F34" s="250">
+      <c r="F34" s="251">
         <v>150.79</v>
       </c>
-      <c r="G34" s="147">
+      <c r="G34" s="148">
         <f>0.0056*1000000</f>
         <v>5600</v>
       </c>
-      <c r="H34" s="150"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="295"/>
-      <c r="Q34" s="295"/>
-      <c r="R34" s="285"/>
-      <c r="S34" s="285"/>
-      <c r="T34" s="99" t="s">
+      <c r="H34" s="151"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="286"/>
+      <c r="Q34" s="286"/>
+      <c r="R34" s="100" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" thickBot="1">
-      <c r="A35" s="148" t="s">
+    <row r="35" spans="1:22" ht="16" thickBot="1">
+      <c r="A35" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="151">
+      <c r="B35" s="152">
         <f>(1-0.927)</f>
         <v>7.2999999999999954E-2</v>
       </c>
-      <c r="C35" s="154">
+      <c r="C35" s="155">
         <f t="shared" ref="C35" si="0">D35/B35</f>
         <v>0.68493150684931559</v>
       </c>
-      <c r="D35" s="148">
+      <c r="D35" s="149">
         <v>0.05</v>
       </c>
-      <c r="E35" s="274">
+      <c r="E35" s="275">
         <v>300</v>
       </c>
-      <c r="F35" s="251">
+      <c r="F35" s="252">
         <v>15</v>
       </c>
-      <c r="G35" s="148">
+      <c r="G35" s="149">
         <v>580</v>
       </c>
-      <c r="H35" s="151"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="154">
+      <c r="H35" s="152"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="155">
         <f>0.009/0.073</f>
         <v>0.12328767123287671</v>
       </c>
-      <c r="M35" s="158">
+      <c r="M35" s="159">
         <f>0.009/0.073</f>
         <v>0.12328767123287671</v>
       </c>
-      <c r="N35" s="151">
+      <c r="N35" s="152">
         <f>0.049/0.073</f>
         <v>0.67123287671232879</v>
       </c>
-      <c r="O35" s="154"/>
-      <c r="P35" s="295"/>
-      <c r="Q35" s="295"/>
-      <c r="R35" s="285"/>
-      <c r="S35" s="285"/>
-      <c r="T35" s="24" t="s">
+      <c r="O35" s="155"/>
+      <c r="P35" s="286"/>
+      <c r="Q35" s="286"/>
+      <c r="R35" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="X35" t="s">
+      <c r="V35" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="17" thickTop="1" thickBot="1">
-      <c r="A36" s="147" t="s">
+    <row r="36" spans="1:22" ht="17" thickTop="1" thickBot="1">
+      <c r="A36" s="148" t="s">
         <v>737</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="256"/>
-      <c r="F36" s="250"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="295"/>
-      <c r="Q36" s="295"/>
-      <c r="R36" s="285"/>
-      <c r="S36" s="285"/>
-      <c r="T36" s="24"/>
-    </row>
-    <row r="37" spans="1:24" ht="16" thickBot="1">
-      <c r="A37" s="147" t="s">
+      <c r="B36" s="151"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="257"/>
+      <c r="F36" s="251"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="286"/>
+      <c r="Q36" s="286"/>
+      <c r="R36" s="24"/>
+    </row>
+    <row r="37" spans="1:22" ht="16" thickBot="1">
+      <c r="A37" s="148" t="s">
         <v>738</v>
       </c>
-      <c r="B37" s="150"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="256"/>
-      <c r="F37" s="250"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="150"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="295"/>
-      <c r="Q37" s="295"/>
-      <c r="R37" s="285"/>
-      <c r="S37" s="285"/>
-      <c r="T37" s="24"/>
-    </row>
-    <row r="38" spans="1:24" ht="16" thickBot="1">
-      <c r="A38" s="147" t="s">
+      <c r="B37" s="151"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="251"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="159"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="286"/>
+      <c r="Q37" s="286"/>
+      <c r="R37" s="24"/>
+    </row>
+    <row r="38" spans="1:22" ht="16" thickBot="1">
+      <c r="A38" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="150">
+      <c r="B38" s="151">
         <f>(1-7%)</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="C38" s="153">
+      <c r="C38" s="154">
         <v>0.8</v>
       </c>
-      <c r="D38" s="147">
+      <c r="D38" s="148">
         <f>B38*C38</f>
         <v>0.74399999999999999</v>
       </c>
-      <c r="E38" s="256"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="147">
+      <c r="E38" s="257"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="148">
         <v>1100</v>
       </c>
-      <c r="H38" s="150"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="153">
+      <c r="H38" s="151"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="154">
         <f>0.029/D38</f>
         <v>3.8978494623655914E-2</v>
       </c>
-      <c r="M38" s="158">
+      <c r="M38" s="159">
         <f>0.05/D38</f>
         <v>6.7204301075268827E-2</v>
       </c>
-      <c r="N38" s="150">
+      <c r="N38" s="151">
         <f>0.56/D38</f>
         <v>0.75268817204301086</v>
       </c>
-      <c r="O38" s="153"/>
-      <c r="P38" s="295"/>
-      <c r="Q38" s="295"/>
-      <c r="R38" s="285"/>
-      <c r="S38" s="285"/>
-      <c r="T38" t="s">
+      <c r="O38" s="154"/>
+      <c r="P38" s="286"/>
+      <c r="Q38" s="286"/>
+      <c r="R38" t="s">
         <v>421</v>
       </c>
-      <c r="U38" t="s">
+      <c r="S38" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" thickBot="1">
-      <c r="A39" s="246" t="s">
+    <row r="39" spans="1:22" ht="16" thickBot="1">
+      <c r="A39" s="247" t="s">
         <v>733</v>
       </c>
-      <c r="B39" s="247"/>
-      <c r="C39" s="247"/>
-      <c r="D39" s="247"/>
-      <c r="H39" s="248"/>
-      <c r="I39" s="248"/>
-      <c r="J39" s="248"/>
+      <c r="B39" s="248"/>
+      <c r="C39" s="248"/>
+      <c r="D39" s="248"/>
+      <c r="H39" s="249"/>
+      <c r="I39" s="249"/>
+      <c r="J39" s="249"/>
       <c r="K39" s="59"/>
       <c r="L39" s="59"/>
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="286"/>
-      <c r="S39" s="286"/>
-      <c r="T39" s="24" t="s">
-        <v>983</v>
-      </c>
-      <c r="U39" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="16" thickBot="1">
-      <c r="A40" s="147" t="s">
+      <c r="P39" s="287"/>
+      <c r="Q39" s="287"/>
+      <c r="R39" s="24"/>
+    </row>
+    <row r="40" spans="1:22" ht="16" thickBot="1">
+      <c r="A40" s="148" t="s">
         <v>515</v>
       </c>
-      <c r="B40" s="150">
+      <c r="B40" s="151">
         <v>0.91600000000000004</v>
       </c>
-      <c r="C40" s="153">
+      <c r="C40" s="154">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="157">
         <v>0.88900000000000001</v>
       </c>
-      <c r="E40" s="249">
+      <c r="E40" s="250">
         <v>465.3046875</v>
       </c>
-      <c r="F40" s="249"/>
-      <c r="G40" s="252">
+      <c r="F40" s="250"/>
+      <c r="G40" s="253">
         <v>14656.000000000002</v>
       </c>
-      <c r="K40" s="158">
+      <c r="K40" s="159">
         <v>0.03</v>
       </c>
-      <c r="L40" s="187">
+      <c r="L40" s="188">
         <v>0.11</v>
       </c>
-      <c r="M40" s="187">
+      <c r="M40" s="188">
         <v>0.1</v>
       </c>
-      <c r="N40" s="259">
+      <c r="N40" s="260">
         <v>0.76</v>
       </c>
-      <c r="O40" s="262">
+      <c r="O40" s="263">
         <v>0.94</v>
       </c>
-      <c r="P40" s="164">
+      <c r="P40" s="288">
+        <v>1400</v>
+      </c>
+      <c r="Q40" s="288">
+        <v>1200</v>
+      </c>
+      <c r="R40" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="16" thickBot="1">
+      <c r="A41" s="148" t="s">
+        <v>516</v>
+      </c>
+      <c r="B41" s="151">
+        <v>0.105</v>
+      </c>
+      <c r="C41" s="154">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="D41" s="154">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E41" s="251">
+        <v>435.97247406272294</v>
+      </c>
+      <c r="F41" s="251"/>
+      <c r="G41" s="254">
+        <v>2520</v>
+      </c>
+      <c r="K41" s="159">
+        <v>0.09</v>
+      </c>
+      <c r="L41" s="159">
+        <v>0.02</v>
+      </c>
+      <c r="M41" s="159">
+        <v>0.15</v>
+      </c>
+      <c r="N41" s="261">
+        <v>0.74</v>
+      </c>
+      <c r="O41" s="264">
+        <v>0.98179823692937196</v>
+      </c>
+      <c r="P41" s="288">
+        <v>1380</v>
+      </c>
+      <c r="Q41" s="288">
+        <v>370</v>
+      </c>
+      <c r="R41" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="16" thickBot="1">
+      <c r="A42" s="148" t="s">
+        <v>517</v>
+      </c>
+      <c r="B42" s="151">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="C42" s="154">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D42" s="154">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E42" s="251">
+        <v>365.25479597205384</v>
+      </c>
+      <c r="F42" s="251"/>
+      <c r="G42" s="254">
+        <v>7969.6</v>
+      </c>
+      <c r="K42" s="159">
+        <v>0.01</v>
+      </c>
+      <c r="L42" s="159">
         <v>0.04</v>
       </c>
-      <c r="Q40" s="164">
-        <v>0.89</v>
-      </c>
-      <c r="R40" s="287">
-        <v>1400</v>
-      </c>
-      <c r="S40" s="287">
-        <v>1200</v>
-      </c>
-      <c r="T40" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="16" thickBot="1">
-      <c r="A41" s="147" t="s">
-        <v>516</v>
-      </c>
-      <c r="B41" s="150">
-        <v>0.105</v>
-      </c>
-      <c r="C41" s="153">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="D41" s="153">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E41" s="250">
-        <v>435.97247406272294</v>
-      </c>
-      <c r="F41" s="250"/>
-      <c r="G41" s="253">
-        <v>2520</v>
-      </c>
-      <c r="K41" s="158">
-        <v>0.09</v>
-      </c>
-      <c r="L41" s="158">
-        <v>0.02</v>
-      </c>
-      <c r="M41" s="158">
-        <v>0.15</v>
-      </c>
-      <c r="N41" s="260">
-        <v>0.74</v>
-      </c>
-      <c r="O41" s="263">
-        <v>0.98179823692937196</v>
-      </c>
-      <c r="P41" s="164"/>
-      <c r="Q41" s="164">
-        <v>0.7</v>
-      </c>
-      <c r="R41" s="287">
-        <v>1380</v>
-      </c>
-      <c r="S41" s="287">
-        <v>370</v>
-      </c>
-      <c r="T41" t="s">
-        <v>948</v>
-      </c>
-      <c r="U41">
-        <v>180221</v>
-      </c>
-      <c r="V41" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="16" thickBot="1">
-      <c r="A42" s="147" t="s">
-        <v>517</v>
-      </c>
-      <c r="B42" s="150">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="C42" s="153">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="D42" s="153">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E42" s="250">
-        <v>365.25479597205384</v>
-      </c>
-      <c r="F42" s="250"/>
-      <c r="G42" s="253">
-        <v>7969.6</v>
-      </c>
-      <c r="K42" s="158">
-        <v>0.01</v>
-      </c>
-      <c r="L42" s="158">
-        <v>0.04</v>
-      </c>
-      <c r="M42" s="158">
+      <c r="M42" s="159">
         <v>0.17</v>
       </c>
-      <c r="N42" s="260">
+      <c r="N42" s="261">
         <v>0.79</v>
       </c>
-      <c r="O42" s="263">
+      <c r="O42" s="264">
         <v>0.79927679923149053</v>
       </c>
-      <c r="P42" s="164"/>
-      <c r="Q42" s="164">
-        <v>0.2</v>
-      </c>
-      <c r="R42" s="289">
+      <c r="P42" s="290">
         <f>G42*0.36/2</f>
         <v>1434.528</v>
       </c>
-      <c r="S42" s="289">
+      <c r="Q42" s="290">
         <f>G42*0.67/2</f>
         <v>2669.8160000000003</v>
       </c>
-      <c r="T42" t="s">
-        <v>949</v>
-      </c>
-      <c r="U42" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="16" thickBot="1">
-      <c r="A43" s="147" t="s">
+      <c r="R42" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="16" thickBot="1">
+      <c r="A43" s="148" t="s">
         <v>518</v>
       </c>
-      <c r="B43" s="150">
+      <c r="B43" s="151">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="154">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="154">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E43" s="250">
+      <c r="E43" s="251">
         <v>418.04822619567631</v>
       </c>
-      <c r="F43" s="250"/>
-      <c r="G43" s="253">
+      <c r="F43" s="251"/>
+      <c r="G43" s="254">
         <v>1232</v>
       </c>
-      <c r="K43" s="158">
+      <c r="K43" s="159">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L43" s="158">
+      <c r="L43" s="159">
         <v>0</v>
       </c>
-      <c r="M43" s="158">
+      <c r="M43" s="159">
         <v>0.1</v>
       </c>
-      <c r="N43" s="260">
+      <c r="N43" s="261">
         <v>0.82</v>
       </c>
-      <c r="O43" s="263">
+      <c r="O43" s="264">
         <v>0.97735385922437001</v>
       </c>
-      <c r="P43" s="164"/>
-      <c r="Q43" s="164">
-        <v>0.7</v>
-      </c>
-      <c r="R43" s="287">
+      <c r="P43" s="288">
         <v>2315</v>
       </c>
-      <c r="S43" s="287">
+      <c r="Q43" s="288">
         <v>330</v>
       </c>
-      <c r="T43" t="s">
-        <v>950</v>
-      </c>
-      <c r="U43">
-        <v>180221</v>
-      </c>
-      <c r="V43" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="16" thickBot="1">
-      <c r="A44" s="147" t="s">
+      <c r="R43" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="16" thickBot="1">
+      <c r="A44" s="148" t="s">
         <v>519</v>
       </c>
-      <c r="B44" s="150">
+      <c r="B44" s="151">
         <v>0.46600000000000003</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="154">
         <v>0.97099999999999997</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="154">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E44" s="250">
+      <c r="E44" s="251">
         <v>483.41632472315138</v>
       </c>
-      <c r="F44" s="250"/>
-      <c r="G44" s="253">
+      <c r="F44" s="251"/>
+      <c r="G44" s="254">
         <v>13420.8</v>
       </c>
-      <c r="K44" s="158">
+      <c r="K44" s="159">
         <v>0.03</v>
       </c>
-      <c r="L44" s="158">
+      <c r="L44" s="159">
         <v>0.19</v>
       </c>
-      <c r="M44" s="158">
+      <c r="M44" s="159">
         <v>0.18</v>
       </c>
-      <c r="N44" s="260">
+      <c r="N44" s="261">
         <v>0.61</v>
       </c>
-      <c r="O44" s="263">
+      <c r="O44" s="264">
         <v>0.877478471550592</v>
       </c>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="164">
-        <v>0.8</v>
-      </c>
-      <c r="R44" s="287">
+      <c r="P44" s="288">
         <f>8000*0.4</f>
         <v>3200</v>
       </c>
-      <c r="S44" s="287">
+      <c r="Q44" s="288">
         <f>3000*0.4</f>
         <v>1200</v>
       </c>
-      <c r="T44" t="s">
+      <c r="R44" t="s">
         <v>540</v>
       </c>
-      <c r="U44" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="16" thickBot="1">
-      <c r="A45" s="147" t="s">
+    </row>
+    <row r="45" spans="1:22" ht="16" thickBot="1">
+      <c r="A45" s="148" t="s">
         <v>669</v>
       </c>
-      <c r="B45" s="150">
+      <c r="B45" s="151">
         <v>0.14299999999999999</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="154">
         <v>1</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="154">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E45" s="250">
+      <c r="E45" s="251">
         <v>252.28816838661476</v>
       </c>
-      <c r="F45" s="250"/>
-      <c r="G45" s="253">
+      <c r="F45" s="251"/>
+      <c r="G45" s="254">
         <v>457.59999999999997</v>
       </c>
-      <c r="K45" s="158">
+      <c r="K45" s="159">
         <v>0</v>
       </c>
-      <c r="L45" s="158">
+      <c r="L45" s="159">
         <v>0.03</v>
       </c>
-      <c r="M45" s="158">
+      <c r="M45" s="159">
         <v>0.02</v>
       </c>
-      <c r="N45" s="260">
+      <c r="N45" s="261">
         <v>0.82</v>
       </c>
-      <c r="O45" s="263">
+      <c r="O45" s="264">
         <v>0.56096498593100275</v>
       </c>
-      <c r="P45" s="164"/>
-      <c r="Q45" s="164">
-        <v>0.65</v>
-      </c>
-      <c r="R45" s="293">
+      <c r="P45" s="294">
         <v>1200</v>
       </c>
-      <c r="S45" s="287">
+      <c r="Q45" s="288">
         <v>977</v>
       </c>
-      <c r="T45" t="s">
-        <v>956</v>
-      </c>
-      <c r="U45">
-        <v>180221</v>
-      </c>
-      <c r="V45" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="16" thickBot="1">
-      <c r="A46" s="147" t="s">
+      <c r="R45" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="16" thickBot="1">
+      <c r="A46" s="148" t="s">
         <v>521</v>
       </c>
-      <c r="B46" s="150">
+      <c r="B46" s="151">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="154">
         <v>0.95</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="154">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E46" s="250">
+      <c r="E46" s="251">
         <v>361.81791351010088</v>
       </c>
-      <c r="F46" s="250"/>
-      <c r="G46" s="253">
+      <c r="F46" s="251"/>
+      <c r="G46" s="254">
         <v>16315.200000000003</v>
       </c>
-      <c r="K46" s="158">
+      <c r="K46" s="159">
         <v>0.05</v>
       </c>
-      <c r="L46" s="158">
+      <c r="L46" s="159">
         <v>0.02</v>
       </c>
-      <c r="M46" s="158">
+      <c r="M46" s="159">
         <v>0.11</v>
       </c>
-      <c r="N46" s="260">
+      <c r="N46" s="261">
         <v>0.82</v>
       </c>
-      <c r="O46" s="263">
+      <c r="O46" s="264">
         <v>0.82380040804253563</v>
       </c>
-      <c r="P46" s="296"/>
-      <c r="Q46" s="296">
-        <v>0.8</v>
-      </c>
-      <c r="R46" s="291">
+      <c r="P46" s="292">
         <v>1170</v>
       </c>
-      <c r="S46" s="291">
+      <c r="Q46" s="292">
         <v>740</v>
       </c>
-      <c r="T46" t="s">
+      <c r="R46" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="16" thickBot="1">
+      <c r="A47" s="148" t="s">
+        <v>522</v>
+      </c>
+      <c r="B47" s="151">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C47" s="154">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D47" s="154">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E47" s="251">
+        <v>375.37065018315019</v>
+      </c>
+      <c r="F47" s="251"/>
+      <c r="G47" s="254">
+        <v>1398.3999999999999</v>
+      </c>
+      <c r="K47" s="159">
+        <v>0.11</v>
+      </c>
+      <c r="L47" s="159">
+        <v>0.02</v>
+      </c>
+      <c r="M47" s="159">
+        <v>0.23</v>
+      </c>
+      <c r="N47" s="261">
+        <v>0.66</v>
+      </c>
+      <c r="O47" s="264">
+        <v>0.90450759080277232</v>
+      </c>
+      <c r="P47" s="289">
+        <v>2300</v>
+      </c>
+      <c r="Q47" s="289">
+        <v>300</v>
+      </c>
+      <c r="R47" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="16" thickBot="1">
+      <c r="A48" s="148" t="s">
+        <v>523</v>
+      </c>
+      <c r="B48" s="151">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C48" s="154">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D48" s="154">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E48" s="251">
+        <v>318.40468414280525</v>
+      </c>
+      <c r="F48" s="251"/>
+      <c r="G48" s="254">
+        <v>17740.8</v>
+      </c>
+      <c r="K48" s="159">
+        <v>0.02</v>
+      </c>
+      <c r="L48" s="159">
+        <v>0.01</v>
+      </c>
+      <c r="M48" s="159">
+        <v>0.12</v>
+      </c>
+      <c r="N48" s="261">
+        <v>0.85</v>
+      </c>
+      <c r="O48" s="264">
+        <v>0.73736998705248713</v>
+      </c>
+      <c r="P48" s="293">
+        <v>2010</v>
+      </c>
+      <c r="Q48" s="288">
+        <v>1630</v>
+      </c>
+      <c r="R48" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="16" thickBot="1">
+      <c r="A49" s="149" t="s">
+        <v>524</v>
+      </c>
+      <c r="B49" s="152">
+        <v>0.309</v>
+      </c>
+      <c r="C49" s="155">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D49" s="155">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E49" s="252">
+        <v>454.20873548774478</v>
+      </c>
+      <c r="F49" s="252"/>
+      <c r="G49" s="255">
+        <v>6921.6000000000013</v>
+      </c>
+      <c r="K49" s="160">
+        <v>0.02</v>
+      </c>
+      <c r="L49" s="160">
+        <v>0.05</v>
+      </c>
+      <c r="M49" s="160">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N49" s="262">
+        <v>0.79</v>
+      </c>
+      <c r="O49" s="265">
+        <v>0.99060618444367532</v>
+      </c>
+      <c r="P49" s="288">
+        <v>1500</v>
+      </c>
+      <c r="Q49" s="291">
+        <v>1100</v>
+      </c>
+      <c r="R49" t="s">
         <v>952</v>
       </c>
-      <c r="U46" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="16" thickBot="1">
-      <c r="A47" s="147" t="s">
-        <v>522</v>
-      </c>
-      <c r="B47" s="150">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C47" s="153">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="D47" s="153">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="E47" s="250">
-        <v>375.37065018315019</v>
-      </c>
-      <c r="F47" s="250"/>
-      <c r="G47" s="253">
-        <v>1398.3999999999999</v>
-      </c>
-      <c r="K47" s="158">
-        <v>0.11</v>
-      </c>
-      <c r="L47" s="158">
-        <v>0.02</v>
-      </c>
-      <c r="M47" s="158">
-        <v>0.23</v>
-      </c>
-      <c r="N47" s="260">
-        <v>0.66</v>
-      </c>
-      <c r="O47" s="263">
-        <v>0.90450759080277232</v>
-      </c>
-      <c r="P47" s="164"/>
-      <c r="Q47" s="164">
-        <v>0.51</v>
-      </c>
-      <c r="R47" s="288">
-        <v>2300</v>
-      </c>
-      <c r="S47" s="288">
-        <v>300</v>
-      </c>
-      <c r="T47" t="s">
-        <v>946</v>
-      </c>
-      <c r="U47">
-        <v>180221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="16" thickBot="1">
-      <c r="A48" s="147" t="s">
-        <v>523</v>
-      </c>
-      <c r="B48" s="150">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="C48" s="153">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D48" s="153">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="E48" s="250">
-        <v>318.40468414280525</v>
-      </c>
-      <c r="F48" s="250"/>
-      <c r="G48" s="253">
-        <v>17740.8</v>
-      </c>
-      <c r="K48" s="158">
-        <v>0.02</v>
-      </c>
-      <c r="L48" s="158">
+    </row>
+    <row r="50" spans="1:18" ht="16" thickTop="1"/>
+    <row r="54" spans="1:18" ht="16" thickBot="1">
+      <c r="A54" s="149" t="s">
+        <v>525</v>
+      </c>
+      <c r="B54" s="152">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C54" s="155">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D54" s="155">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K54" s="160">
+        <v>0.16</v>
+      </c>
+      <c r="L54" s="160">
         <v>0.01</v>
       </c>
-      <c r="M48" s="158">
-        <v>0.12</v>
-      </c>
-      <c r="N48" s="260">
-        <v>0.85</v>
-      </c>
-      <c r="O48" s="263">
-        <v>0.73736998705248713</v>
-      </c>
-      <c r="P48" s="164"/>
-      <c r="Q48" s="164">
-        <v>0.74</v>
-      </c>
-      <c r="R48" s="292">
-        <v>2010</v>
-      </c>
-      <c r="S48" s="287">
-        <v>1630</v>
-      </c>
-      <c r="T48" t="s">
-        <v>953</v>
-      </c>
-      <c r="U48" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="16" thickBot="1">
-      <c r="A49" s="148" t="s">
-        <v>524</v>
-      </c>
-      <c r="B49" s="151">
-        <v>0.309</v>
-      </c>
-      <c r="C49" s="154">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D49" s="154">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E49" s="251">
-        <v>454.20873548774478</v>
-      </c>
-      <c r="F49" s="251"/>
-      <c r="G49" s="254">
-        <v>6921.6000000000013</v>
-      </c>
-      <c r="K49" s="159">
-        <v>0.02</v>
-      </c>
-      <c r="L49" s="159">
-        <v>0.05</v>
-      </c>
-      <c r="M49" s="159">
+      <c r="M54" s="160">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N49" s="261">
-        <v>0.79</v>
-      </c>
-      <c r="O49" s="264">
-        <v>0.99060618444367532</v>
-      </c>
-      <c r="P49" s="164"/>
-      <c r="Q49" s="164">
-        <v>0.93</v>
-      </c>
-      <c r="R49" s="287">
-        <v>1500</v>
-      </c>
-      <c r="S49" s="290">
-        <v>1100</v>
-      </c>
-      <c r="T49" t="s">
-        <v>951</v>
-      </c>
-      <c r="U49">
-        <v>180221</v>
-      </c>
-      <c r="V49" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="16" thickTop="1"/>
-    <row r="54" spans="1:22" ht="16" thickBot="1">
-      <c r="A54" s="148" t="s">
-        <v>525</v>
-      </c>
-      <c r="B54" s="151">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="C54" s="154">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="D54" s="154">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="K54" s="159">
-        <v>0.16</v>
-      </c>
-      <c r="L54" s="159">
-        <v>0.01</v>
-      </c>
-      <c r="M54" s="159">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N54" s="162">
+      <c r="N54" s="163">
         <v>0.69</v>
       </c>
-      <c r="O54" s="167"/>
-      <c r="P54" s="167"/>
-      <c r="Q54" s="167"/>
-      <c r="R54" s="167"/>
-      <c r="S54" s="167"/>
-    </row>
-    <row r="55" spans="1:22" ht="16" thickTop="1">
-      <c r="A55" s="100"/>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="O54" s="168"/>
+      <c r="P54" s="168"/>
+      <c r="Q54" s="168"/>
+    </row>
+    <row r="55" spans="1:18" ht="16" thickTop="1">
+      <c r="A55" s="101"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>487</v>
       </c>
@@ -9498,104 +9310,104 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="17">
+    <row r="58" spans="1:18" ht="17">
       <c r="A58" t="s">
         <v>490</v>
       </c>
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="127" t="s">
         <v>491</v>
       </c>
       <c r="C58" t="s">
         <v>492</v>
       </c>
-      <c r="K58" s="127"/>
-    </row>
-    <row r="59" spans="1:22" ht="17">
+      <c r="K58" s="128"/>
+    </row>
+    <row r="59" spans="1:18" ht="17">
       <c r="A59" t="s">
         <v>493</v>
       </c>
-      <c r="B59" s="126" t="s">
+      <c r="B59" s="127" t="s">
         <v>494</v>
       </c>
-      <c r="C59" s="127" t="s">
+      <c r="C59" s="128" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
-      <c r="M60" s="128"/>
-      <c r="N60" s="129"/>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="A61" s="130"/>
-      <c r="B61" s="131" t="s">
+    <row r="60" spans="1:18">
+      <c r="M60" s="129"/>
+      <c r="N60" s="130"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="131"/>
+      <c r="B61" s="132" t="s">
         <v>496</v>
       </c>
-      <c r="C61" s="131" t="s">
+      <c r="C61" s="132" t="s">
         <v>497</v>
       </c>
-      <c r="D61" s="131" t="s">
+      <c r="D61" s="132" t="s">
         <v>498</v>
       </c>
-      <c r="E61" s="131" t="s">
+      <c r="E61" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="131" t="s">
+      <c r="F61" s="132" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="132" t="s">
+    <row r="62" spans="1:18">
+      <c r="A62" s="133" t="s">
         <v>500</v>
       </c>
-      <c r="B62" s="133">
+      <c r="B62" s="134">
         <v>12.0107</v>
       </c>
-      <c r="C62" s="133">
+      <c r="C62" s="134">
         <v>1.0079400000000001</v>
       </c>
-      <c r="D62" s="133">
+      <c r="D62" s="134">
         <v>15.9994</v>
       </c>
-      <c r="E62" s="133">
+      <c r="E62" s="134">
         <v>14.0067</v>
       </c>
-      <c r="F62" s="133">
+      <c r="F62" s="134">
         <v>32.064999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
-      <c r="A64" s="134"/>
-      <c r="B64" s="135" t="s">
+    <row r="64" spans="1:18">
+      <c r="A64" s="135"/>
+      <c r="B64" s="136" t="s">
         <v>501</v>
       </c>
-      <c r="C64" s="135" t="s">
+      <c r="C64" s="136" t="s">
         <v>502</v>
       </c>
-      <c r="D64" s="135" t="s">
+      <c r="D64" s="136" t="s">
         <v>503</v>
       </c>
-      <c r="E64" s="135" t="s">
+      <c r="E64" s="136" t="s">
         <v>504</v>
       </c>
-      <c r="F64" s="136" t="s">
+      <c r="F64" s="137" t="s">
         <v>505</v>
       </c>
-      <c r="G64" s="136" t="s">
+      <c r="G64" s="137" t="s">
         <v>506</v>
       </c>
-      <c r="H64" s="137" t="s">
+      <c r="H64" s="138" t="s">
         <v>507</v>
       </c>
-      <c r="I64" s="138" t="s">
+      <c r="I64" s="139" t="s">
         <v>508</v>
       </c>
-      <c r="J64" s="139" t="s">
+      <c r="J64" s="140" t="s">
         <v>509</v>
       </c>
-      <c r="K64" s="139" t="s">
+      <c r="K64" s="140" t="s">
         <v>510</v>
       </c>
-      <c r="L64" s="139" t="s">
+      <c r="L64" s="140" t="s">
         <v>511</v>
       </c>
     </row>
@@ -9603,40 +9415,40 @@
       <c r="A65" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="B65" s="140">
+      <c r="B65" s="141">
         <v>5</v>
       </c>
-      <c r="C65" s="140">
+      <c r="C65" s="141">
         <v>7</v>
       </c>
-      <c r="D65" s="140">
+      <c r="D65" s="141">
         <v>2</v>
       </c>
-      <c r="E65" s="140">
+      <c r="E65" s="141">
         <v>1</v>
       </c>
-      <c r="F65" s="140"/>
-      <c r="G65" s="141">
+      <c r="F65" s="141"/>
+      <c r="G65" s="142">
         <f>carbon*B65+hydrogen*C65+oxygen*D65+nitrogen*E65+Sulfur*F65</f>
         <v>113.11458</v>
       </c>
-      <c r="H65" s="128">
+      <c r="H65" s="129">
         <f>($B65/2+$C65/8-$D65/4-3/8*$E65-$F65/4)*22.4/(carbon*$B65+hydrogen*$C65+oxygen*$D65+nitrogen*$E65)*1000</f>
         <v>495.07322575038518</v>
       </c>
-      <c r="I65" s="142">
+      <c r="I65" s="143">
         <f>H65/350</f>
         <v>1.4144949307153862</v>
       </c>
-      <c r="J65" s="142">
+      <c r="J65" s="143">
         <f>carbon*B65/G65</f>
         <v>0.53090857076072773</v>
       </c>
-      <c r="K65" s="141">
+      <c r="K65" s="142">
         <f>nitrogen*E65/G65</f>
         <v>0.12382753841281999</v>
       </c>
-      <c r="L65" s="68">
+      <c r="L65" s="69">
         <f>350/H65</f>
         <v>0.706966125</v>
       </c>
@@ -9645,38 +9457,38 @@
       <c r="A66" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="B66" s="140">
+      <c r="B66" s="141">
         <v>6</v>
       </c>
-      <c r="C66" s="140">
+      <c r="C66" s="141">
         <v>10</v>
       </c>
-      <c r="D66" s="140">
+      <c r="D66" s="141">
         <v>5</v>
       </c>
-      <c r="E66" s="140"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="141">
+      <c r="E66" s="141"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="142">
         <f>carbon*B66+hydrogen*C66+oxygen*D66+nitrogen*E66+Sulfur*F66</f>
         <v>162.14060000000001</v>
       </c>
-      <c r="H66" s="128">
+      <c r="H66" s="129">
         <f>($B66/2+$C66/8-$D66/4-3/8*$E66-$F66/4)*22.4/(carbon*$B66+hydrogen*$C66+oxygen*$D66+nitrogen*$E66)*1000</f>
         <v>414.45510871428866</v>
       </c>
-      <c r="I66" s="142">
+      <c r="I66" s="143">
         <f>H66/350</f>
         <v>1.1841574534693962</v>
       </c>
-      <c r="J66" s="142">
+      <c r="J66" s="143">
         <f>carbon*B66/G66</f>
         <v>0.44445499769952745</v>
       </c>
-      <c r="K66" s="141">
+      <c r="K66" s="142">
         <f>nitrogen*E66/G66</f>
         <v>0</v>
       </c>
-      <c r="L66" s="68">
+      <c r="L66" s="69">
         <f>350/H66</f>
         <v>0.84448229166666677</v>
       </c>
@@ -9685,723 +9497,721 @@
       <c r="A67" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="B67" s="143">
+      <c r="B67" s="144">
         <v>57</v>
       </c>
-      <c r="C67" s="140">
+      <c r="C67" s="141">
         <v>106</v>
       </c>
-      <c r="D67" s="140">
+      <c r="D67" s="141">
         <v>6</v>
       </c>
-      <c r="E67" s="140"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="141">
+      <c r="E67" s="141"/>
+      <c r="F67" s="141"/>
+      <c r="G67" s="142">
         <f>carbon*B67+hydrogen*C67+oxygen*D67+nitrogen*E67+Sulfur*F67</f>
         <v>887.44794000000002</v>
       </c>
-      <c r="H67" s="128">
+      <c r="H67" s="129">
         <f>($B67/2+$C67/8-$D67/4-3/8*$E67-$F67/4)*22.4/(carbon*$B67+hydrogen*$C67+oxygen*$D67+nitrogen*$E67)*1000</f>
         <v>1015.9469185313561</v>
       </c>
-      <c r="I67" s="142">
+      <c r="I67" s="143">
         <f>H67/350</f>
         <v>2.9027054815181605</v>
       </c>
-      <c r="J67" s="142">
+      <c r="J67" s="143">
         <f>carbon*B67/G67</f>
         <v>0.77143668844394409</v>
       </c>
-      <c r="K67" s="141">
+      <c r="K67" s="142">
         <f>nitrogen*E67/G67</f>
         <v>0</v>
       </c>
-      <c r="L67" s="68">
+      <c r="L67" s="69">
         <f>350/H67</f>
         <v>0.34450618788819881</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="144" t="s">
+      <c r="A68" s="145" t="s">
         <v>512</v>
       </c>
-      <c r="B68" s="140">
+      <c r="B68" s="141">
         <v>40</v>
       </c>
-      <c r="C68" s="140">
+      <c r="C68" s="141">
         <v>46</v>
       </c>
-      <c r="D68" s="140">
+      <c r="D68" s="141">
         <v>16</v>
       </c>
-      <c r="E68" s="140"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="141">
+      <c r="E68" s="141"/>
+      <c r="F68" s="141"/>
+      <c r="G68" s="142">
         <f t="shared" ref="G68" si="1">carbon*B68+hydrogen*C68+oxygen*D68+nitrogen*E68+Sulfur*F68</f>
         <v>782.78363999999999</v>
       </c>
-      <c r="H68" s="128">
+      <c r="H68" s="129">
         <f t="shared" ref="H68:H69" si="2">($B68/2+$C68/8-$D68/4-3/8*$E68-$F68/4)*22.4/(carbon*$B68+hydrogen*$C68+oxygen*$D68+nitrogen*$E68)*1000</f>
         <v>622.39420333312023</v>
       </c>
-      <c r="I68" s="142">
+      <c r="I68" s="143">
         <f>H68/350</f>
         <v>1.7782691523803436</v>
       </c>
-      <c r="J68" s="141"/>
-      <c r="K68" s="141"/>
-      <c r="L68" s="68">
+      <c r="J68" s="142"/>
+      <c r="K68" s="142"/>
+      <c r="L68" s="69">
         <f>350/H68</f>
         <v>0.56234456896551721</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="144" t="s">
+      <c r="A69" s="145" t="s">
         <v>513</v>
       </c>
-      <c r="B69" s="145">
+      <c r="B69" s="146">
         <v>6</v>
       </c>
-      <c r="C69" s="145">
+      <c r="C69" s="146">
         <v>12</v>
       </c>
-      <c r="D69" s="145">
+      <c r="D69" s="146">
         <v>6</v>
       </c>
       <c r="E69" s="50"/>
       <c r="F69" s="50"/>
-      <c r="G69" s="141">
+      <c r="G69" s="142">
         <f>carbon*B69+hydrogen*C69+oxygen*D69+nitrogen*E69+Sulfur*F69</f>
         <v>180.15588</v>
       </c>
-      <c r="H69" s="128">
+      <c r="H69" s="129">
         <f t="shared" si="2"/>
         <v>373.01030640798393</v>
       </c>
-      <c r="I69" s="142">
+      <c r="I69" s="143">
         <f>H69/350</f>
         <v>1.0657437325942398</v>
       </c>
-      <c r="J69" s="141">
+      <c r="J69" s="142">
         <f>carbon*B69/G69</f>
         <v>0.40001025778342625</v>
       </c>
-      <c r="K69" s="141">
+      <c r="K69" s="142">
         <f>nitrogen*E69/G69</f>
         <v>0</v>
       </c>
-      <c r="L69" s="68">
+      <c r="L69" s="69">
         <f>350/H69</f>
         <v>0.93831187500000024</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="50"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
+      <c r="B70" s="141"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="141"/>
+      <c r="F70" s="141"/>
     </row>
     <row r="72" spans="1:14" ht="16" thickBot="1"/>
     <row r="73" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A73" s="146" t="s">
+      <c r="A73" s="147" t="s">
         <v>514</v>
       </c>
-      <c r="B73" s="147" t="s">
+      <c r="B73" s="148" t="s">
         <v>515</v>
       </c>
-      <c r="C73" s="147" t="s">
+      <c r="C73" s="148" t="s">
         <v>516</v>
       </c>
-      <c r="D73" s="147" t="s">
+      <c r="D73" s="148" t="s">
         <v>517</v>
       </c>
-      <c r="E73" s="147" t="s">
+      <c r="E73" s="148" t="s">
         <v>518</v>
       </c>
-      <c r="F73" s="147" t="s">
+      <c r="F73" s="148" t="s">
         <v>519</v>
       </c>
-      <c r="G73" s="147" t="s">
+      <c r="G73" s="148" t="s">
         <v>520</v>
       </c>
-      <c r="H73" s="147" t="s">
+      <c r="H73" s="148" t="s">
         <v>521</v>
       </c>
-      <c r="I73" s="147"/>
-      <c r="J73" s="147"/>
-      <c r="K73" s="147" t="s">
+      <c r="I73" s="148"/>
+      <c r="J73" s="148"/>
+      <c r="K73" s="148" t="s">
         <v>522</v>
       </c>
-      <c r="L73" s="147" t="s">
+      <c r="L73" s="148" t="s">
         <v>523</v>
       </c>
-      <c r="M73" s="148" t="s">
+      <c r="M73" s="149" t="s">
         <v>524</v>
       </c>
-      <c r="N73" s="148" t="s">
+      <c r="N73" s="149" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16" thickBot="1">
-      <c r="A75" s="149" t="s">
+      <c r="A75" s="150" t="s">
         <v>526</v>
       </c>
-      <c r="B75" s="150">
+      <c r="B75" s="151">
         <v>0.91600000000000004</v>
       </c>
-      <c r="C75" s="150">
+      <c r="C75" s="151">
         <v>0.105</v>
       </c>
-      <c r="D75" s="150">
+      <c r="D75" s="151">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E75" s="150">
+      <c r="E75" s="151">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F75" s="150">
+      <c r="F75" s="151">
         <v>0.46600000000000003</v>
       </c>
-      <c r="G75" s="150">
+      <c r="G75" s="151">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H75" s="150">
+      <c r="H75" s="151">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I75" s="150"/>
-      <c r="J75" s="150"/>
-      <c r="K75" s="150">
+      <c r="I75" s="151"/>
+      <c r="J75" s="151"/>
+      <c r="K75" s="151">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L75" s="150">
+      <c r="L75" s="151">
         <v>0.92400000000000004</v>
       </c>
-      <c r="M75" s="151">
+      <c r="M75" s="152">
         <v>0.309</v>
       </c>
-      <c r="N75" s="151">
+      <c r="N75" s="152">
         <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16" thickBot="1">
-      <c r="A76" s="152" t="s">
+      <c r="A76" s="153" t="s">
         <v>527</v>
       </c>
-      <c r="B76" s="153">
+      <c r="B76" s="154">
         <v>0.97899999999999998</v>
       </c>
-      <c r="C76" s="153">
+      <c r="C76" s="154">
         <v>0.90700000000000003</v>
       </c>
-      <c r="D76" s="153">
+      <c r="D76" s="154">
         <v>0.99299999999999999</v>
       </c>
-      <c r="E76" s="153">
+      <c r="E76" s="154">
         <v>0.93300000000000005</v>
       </c>
-      <c r="F76" s="153">
+      <c r="F76" s="154">
         <v>0.97099999999999997</v>
       </c>
-      <c r="G76" s="153">
+      <c r="G76" s="154">
         <v>1</v>
       </c>
-      <c r="H76" s="153">
+      <c r="H76" s="154">
         <v>0.95</v>
       </c>
-      <c r="I76" s="153"/>
-      <c r="J76" s="153"/>
-      <c r="K76" s="153">
+      <c r="I76" s="154"/>
+      <c r="J76" s="154"/>
+      <c r="K76" s="154">
         <v>0.90600000000000003</v>
       </c>
-      <c r="L76" s="153">
+      <c r="L76" s="154">
         <v>0.97799999999999998</v>
       </c>
-      <c r="M76" s="154">
+      <c r="M76" s="155">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N76" s="154">
+      <c r="N76" s="155">
         <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16" thickBot="1">
-      <c r="A77" s="155" t="s">
+      <c r="A77" s="156" t="s">
         <v>528</v>
       </c>
-      <c r="B77" s="156">
+      <c r="B77" s="157">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C77" s="153">
+      <c r="C77" s="154">
         <v>0.14299999999999999</v>
       </c>
-      <c r="D77" s="153">
+      <c r="D77" s="154">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E77" s="153">
+      <c r="E77" s="154">
         <v>0.91100000000000003</v>
       </c>
-      <c r="F77" s="153">
+      <c r="F77" s="154">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G77" s="153">
+      <c r="G77" s="154">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H77" s="153">
+      <c r="H77" s="154">
         <v>0.29099999999999998</v>
       </c>
-      <c r="I77" s="153"/>
-      <c r="J77" s="153"/>
-      <c r="K77" s="153">
+      <c r="I77" s="154"/>
+      <c r="J77" s="154"/>
+      <c r="K77" s="154">
         <v>0.45200000000000001</v>
       </c>
-      <c r="L77" s="153">
+      <c r="L77" s="154">
         <v>0.90400000000000003</v>
       </c>
-      <c r="M77" s="154">
+      <c r="M77" s="155">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="N77" s="154">
+      <c r="N77" s="155">
         <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A78" s="157" t="s">
+      <c r="A78" s="158" t="s">
         <v>529</v>
       </c>
-      <c r="B78" s="158">
+      <c r="B78" s="159">
         <v>0.03</v>
       </c>
-      <c r="C78" s="158">
+      <c r="C78" s="159">
         <v>0.09</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="159">
         <v>0.01</v>
       </c>
-      <c r="E78" s="158">
+      <c r="E78" s="159">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F78" s="158">
+      <c r="F78" s="159">
         <v>0.03</v>
       </c>
-      <c r="G78" s="158">
+      <c r="G78" s="159">
         <v>0</v>
       </c>
-      <c r="H78" s="158">
+      <c r="H78" s="159">
         <v>0.05</v>
       </c>
-      <c r="I78" s="158"/>
-      <c r="J78" s="158"/>
-      <c r="K78" s="158">
+      <c r="I78" s="159"/>
+      <c r="J78" s="159"/>
+      <c r="K78" s="159">
         <v>0.11</v>
       </c>
-      <c r="L78" s="158">
+      <c r="L78" s="159">
         <v>0.02</v>
       </c>
-      <c r="M78" s="159">
+      <c r="M78" s="160">
         <v>0.02</v>
       </c>
-      <c r="N78" s="159">
+      <c r="N78" s="160">
         <v>0.16</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A79" s="157" t="s">
+      <c r="A79" s="158" t="s">
         <v>530</v>
       </c>
-      <c r="B79" s="187">
+      <c r="B79" s="188">
         <v>0.11</v>
       </c>
-      <c r="C79" s="158">
+      <c r="C79" s="159">
         <v>0.02</v>
       </c>
-      <c r="D79" s="158">
+      <c r="D79" s="159">
         <v>0.04</v>
       </c>
-      <c r="E79" s="158">
+      <c r="E79" s="159">
         <v>0</v>
       </c>
-      <c r="F79" s="158">
+      <c r="F79" s="159">
         <v>0.19</v>
       </c>
-      <c r="G79" s="158">
+      <c r="G79" s="159">
         <v>0.03</v>
       </c>
-      <c r="H79" s="158">
+      <c r="H79" s="159">
         <v>0.02</v>
       </c>
-      <c r="I79" s="158"/>
-      <c r="J79" s="158"/>
-      <c r="K79" s="158">
+      <c r="I79" s="159"/>
+      <c r="J79" s="159"/>
+      <c r="K79" s="159">
         <v>0.02</v>
       </c>
-      <c r="L79" s="158">
+      <c r="L79" s="159">
         <v>0.01</v>
       </c>
-      <c r="M79" s="159">
+      <c r="M79" s="160">
         <v>0.05</v>
       </c>
-      <c r="N79" s="159">
+      <c r="N79" s="160">
         <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A80" s="157" t="s">
+      <c r="A80" s="158" t="s">
         <v>531</v>
       </c>
-      <c r="B80" s="187">
+      <c r="B80" s="188">
         <v>0.1</v>
       </c>
-      <c r="C80" s="158">
+      <c r="C80" s="159">
         <v>0.15</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="159">
         <v>0.17</v>
       </c>
-      <c r="E80" s="158">
+      <c r="E80" s="159">
         <v>0.1</v>
       </c>
-      <c r="F80" s="158">
+      <c r="F80" s="159">
         <v>0.18</v>
       </c>
-      <c r="G80" s="158">
+      <c r="G80" s="159">
         <v>0.02</v>
       </c>
-      <c r="H80" s="158">
+      <c r="H80" s="159">
         <v>0.11</v>
       </c>
-      <c r="I80" s="158"/>
-      <c r="J80" s="158"/>
-      <c r="K80" s="158">
+      <c r="I80" s="159"/>
+      <c r="J80" s="159"/>
+      <c r="K80" s="159">
         <v>0.23</v>
       </c>
-      <c r="L80" s="158">
+      <c r="L80" s="159">
         <v>0.12</v>
       </c>
-      <c r="M80" s="159">
+      <c r="M80" s="160">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N80" s="159">
+      <c r="N80" s="160">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A81" s="160" t="s">
+    <row r="81" spans="1:17" ht="17" thickTop="1" thickBot="1">
+      <c r="A81" s="161" t="s">
         <v>532</v>
       </c>
-      <c r="B81" s="188">
+      <c r="B81" s="189">
         <v>0.76</v>
       </c>
-      <c r="C81" s="161">
+      <c r="C81" s="162">
         <v>0.74</v>
       </c>
-      <c r="D81" s="161">
+      <c r="D81" s="162">
         <v>0.79</v>
       </c>
-      <c r="E81" s="161">
+      <c r="E81" s="162">
         <v>0.82</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="162">
         <v>0.61</v>
       </c>
-      <c r="G81" s="161">
+      <c r="G81" s="162">
         <v>0.82</v>
       </c>
-      <c r="H81" s="161">
+      <c r="H81" s="162">
         <v>0.82</v>
       </c>
-      <c r="I81" s="161"/>
-      <c r="J81" s="161"/>
-      <c r="K81" s="161">
+      <c r="I81" s="162"/>
+      <c r="J81" s="162"/>
+      <c r="K81" s="162">
         <v>0.66</v>
       </c>
-      <c r="L81" s="161">
+      <c r="L81" s="162">
         <v>0.85</v>
       </c>
-      <c r="M81" s="162">
+      <c r="M81" s="163">
         <v>0.79</v>
       </c>
-      <c r="N81" s="162">
+      <c r="N81" s="163">
         <v>0.69</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="16" thickTop="1">
-      <c r="A82" s="163" t="s">
+    <row r="82" spans="1:17" ht="16" thickTop="1">
+      <c r="A82" s="164" t="s">
         <v>533</v>
       </c>
-      <c r="C82" s="164"/>
-      <c r="D82" s="164"/>
-      <c r="E82" s="164"/>
-      <c r="F82" s="164"/>
-      <c r="G82" s="164"/>
-      <c r="H82" s="164"/>
-      <c r="I82" s="164"/>
-      <c r="J82" s="164"/>
-      <c r="K82" s="164"/>
-      <c r="L82" s="164"/>
-      <c r="M82" s="164"/>
-      <c r="N82" s="165">
+      <c r="C82" s="165"/>
+      <c r="D82" s="165"/>
+      <c r="E82" s="165"/>
+      <c r="F82" s="165"/>
+      <c r="G82" s="165"/>
+      <c r="H82" s="165"/>
+      <c r="I82" s="165"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="165"/>
+      <c r="L82" s="165"/>
+      <c r="M82" s="165"/>
+      <c r="N82" s="166">
         <v>0.54263731383696057</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
-      <c r="A83" s="166" t="s">
+    <row r="83" spans="1:17">
+      <c r="A83" s="167" t="s">
         <v>534</v>
       </c>
-      <c r="B83" s="167">
+      <c r="B83" s="168">
         <f t="shared" ref="B83:H83" si="3">B79*$J67</f>
         <v>8.4858035728833853E-2</v>
       </c>
-      <c r="C83" s="167">
+      <c r="C83" s="168">
         <f t="shared" si="3"/>
         <v>1.5428733768878882E-2</v>
       </c>
-      <c r="D83" s="167">
+      <c r="D83" s="168">
         <f t="shared" si="3"/>
         <v>3.0857467537757765E-2</v>
       </c>
-      <c r="E83" s="167">
+      <c r="E83" s="168">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F83" s="167">
+      <c r="F83" s="168">
         <f t="shared" si="3"/>
         <v>0.14657297080434939</v>
       </c>
-      <c r="G83" s="167">
+      <c r="G83" s="168">
         <f t="shared" si="3"/>
         <v>2.3143100653318323E-2</v>
       </c>
-      <c r="H83" s="167">
+      <c r="H83" s="168">
         <f t="shared" si="3"/>
         <v>1.5428733768878882E-2</v>
       </c>
-      <c r="I83" s="167"/>
-      <c r="J83" s="167"/>
-      <c r="K83" s="167">
+      <c r="I83" s="168"/>
+      <c r="J83" s="168"/>
+      <c r="K83" s="168">
         <f>K79*$J67</f>
         <v>1.5428733768878882E-2</v>
       </c>
-      <c r="L83" s="167">
+      <c r="L83" s="168">
         <f>L79*$J67</f>
         <v>7.7143668844394412E-3</v>
       </c>
-      <c r="M83" s="167">
+      <c r="M83" s="168">
         <f>M79*$J67</f>
         <v>3.8571834422197207E-2</v>
       </c>
-      <c r="N83" s="167">
+      <c r="N83" s="168">
         <f>N79*$J67</f>
         <v>7.7143668844394412E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
-      <c r="A84" s="166" t="s">
+    <row r="84" spans="1:17">
+      <c r="A84" s="167" t="s">
         <v>535</v>
       </c>
-      <c r="B84" s="167">
+      <c r="B84" s="168">
         <f t="shared" ref="B84:H84" si="4">B80*$J65</f>
         <v>5.3090857076072778E-2</v>
       </c>
-      <c r="C84" s="167">
+      <c r="C84" s="168">
         <f t="shared" si="4"/>
         <v>7.9636285614109154E-2</v>
       </c>
-      <c r="D84" s="167">
+      <c r="D84" s="168">
         <f t="shared" si="4"/>
         <v>9.025445702932372E-2</v>
       </c>
-      <c r="E84" s="167">
+      <c r="E84" s="168">
         <f t="shared" si="4"/>
         <v>5.3090857076072778E-2</v>
       </c>
-      <c r="F84" s="167">
+      <c r="F84" s="168">
         <f t="shared" si="4"/>
         <v>9.556354273693099E-2</v>
       </c>
-      <c r="G84" s="167">
+      <c r="G84" s="168">
         <f t="shared" si="4"/>
         <v>1.0618171415214555E-2</v>
       </c>
-      <c r="H84" s="167">
+      <c r="H84" s="168">
         <f t="shared" si="4"/>
         <v>5.8399942783680048E-2</v>
       </c>
-      <c r="I84" s="167"/>
-      <c r="J84" s="167"/>
-      <c r="K84" s="167">
+      <c r="I84" s="168"/>
+      <c r="J84" s="168"/>
+      <c r="K84" s="168">
         <f>K80*$J65</f>
         <v>0.12210897127496738</v>
       </c>
-      <c r="L84" s="167">
+      <c r="L84" s="168">
         <f>L80*$J65</f>
         <v>6.3709028491287331E-2</v>
       </c>
-      <c r="M84" s="167">
+      <c r="M84" s="168">
         <f>M80*$J65</f>
         <v>7.4327199906501884E-2</v>
       </c>
-      <c r="N84" s="167">
+      <c r="N84" s="168">
         <f>N80*$J65</f>
         <v>7.4327199906501884E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
-      <c r="A85" s="166" t="s">
+    <row r="85" spans="1:17">
+      <c r="A85" s="167" t="s">
         <v>536</v>
       </c>
-      <c r="B85" s="167">
+      <c r="B85" s="168">
         <f t="shared" ref="B85:H85" si="5">$J66*B81</f>
         <v>0.33778579825164085</v>
       </c>
-      <c r="C85" s="167">
+      <c r="C85" s="168">
         <f t="shared" si="5"/>
         <v>0.32889669829765034</v>
       </c>
-      <c r="D85" s="167">
+      <c r="D85" s="168">
         <f t="shared" si="5"/>
         <v>0.35111944818262669</v>
       </c>
-      <c r="E85" s="167">
+      <c r="E85" s="168">
         <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
-      <c r="F85" s="167">
+      <c r="F85" s="168">
         <f t="shared" si="5"/>
         <v>0.27111754859671172</v>
       </c>
-      <c r="G85" s="167">
+      <c r="G85" s="168">
         <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
-      <c r="H85" s="167">
+      <c r="H85" s="168">
         <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
-      <c r="I85" s="167"/>
-      <c r="J85" s="167"/>
-      <c r="K85" s="167">
+      <c r="I85" s="168"/>
+      <c r="J85" s="168"/>
+      <c r="K85" s="168">
         <f>$J66*K81</f>
         <v>0.29334029848168813</v>
       </c>
-      <c r="L85" s="167">
+      <c r="L85" s="168">
         <f>$J66*L81</f>
         <v>0.37778674804459833</v>
       </c>
-      <c r="M85" s="167">
+      <c r="M85" s="168">
         <f>$J66*M81</f>
         <v>0.35111944818262669</v>
       </c>
-      <c r="N85" s="167">
+      <c r="N85" s="168">
         <f>$J66*N81</f>
         <v>0.30667394841267392</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
-      <c r="A86" s="166" t="s">
+    <row r="86" spans="1:17">
+      <c r="A86" s="167" t="s">
         <v>537</v>
       </c>
-      <c r="B86" s="167">
+      <c r="B86" s="168">
         <f>SUM(B83:B85)</f>
         <v>0.47573469105654748</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="168">
         <f t="shared" ref="C86:N86" si="6">SUM(C83:C85)</f>
         <v>0.42396171768063839</v>
       </c>
-      <c r="D86" s="167">
+      <c r="D86" s="168">
         <f t="shared" si="6"/>
         <v>0.47223137274970817</v>
       </c>
-      <c r="E86" s="167">
+      <c r="E86" s="168">
         <f t="shared" si="6"/>
         <v>0.41754395518968523</v>
       </c>
-      <c r="F86" s="167">
+      <c r="F86" s="168">
         <f t="shared" si="6"/>
         <v>0.51325406213799207</v>
       </c>
-      <c r="G86" s="167">
+      <c r="G86" s="168">
         <f t="shared" si="6"/>
         <v>0.39821437018214534</v>
       </c>
-      <c r="H86" s="167">
+      <c r="H86" s="168">
         <f t="shared" si="6"/>
         <v>0.43828177466617141</v>
       </c>
-      <c r="I86" s="167"/>
-      <c r="J86" s="167"/>
-      <c r="K86" s="167">
+      <c r="I86" s="168"/>
+      <c r="J86" s="168"/>
+      <c r="K86" s="168">
         <f t="shared" si="6"/>
         <v>0.4308780035255344</v>
       </c>
-      <c r="L86" s="167">
+      <c r="L86" s="168">
         <f t="shared" si="6"/>
         <v>0.44921014342032511</v>
       </c>
-      <c r="M86" s="167">
+      <c r="M86" s="168">
         <f t="shared" si="6"/>
         <v>0.46401848251132577</v>
       </c>
-      <c r="N86" s="167">
+      <c r="N86" s="168">
         <f t="shared" si="6"/>
         <v>0.38871551520361525</v>
       </c>
-      <c r="O86" s="167">
+      <c r="O86" s="168">
         <f>(1-N82)*N86*N76</f>
         <v>0.14862740074814412</v>
       </c>
-      <c r="P86" s="167"/>
-      <c r="Q86" s="167"/>
-      <c r="R86" s="167"/>
-      <c r="S86" s="167"/>
-    </row>
-    <row r="87" spans="1:19">
-      <c r="A87" s="166" t="s">
+      <c r="P86" s="168"/>
+      <c r="Q86" s="168"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="167" t="s">
         <v>538</v>
       </c>
-      <c r="B87" s="186">
+      <c r="B87" s="187">
         <f>B86*B75</f>
         <v>0.43577297700779749</v>
       </c>
-      <c r="C87" s="167">
+      <c r="C87" s="168">
         <f>C86*C75</f>
         <v>4.4515980356467033E-2</v>
       </c>
-      <c r="D87" s="167">
+      <c r="D87" s="168">
         <f t="shared" ref="D87:N87" si="7">D86*D75</f>
         <v>0.13836379221566447</v>
       </c>
-      <c r="E87" s="167">
+      <c r="E87" s="168">
         <f t="shared" si="7"/>
         <v>3.2150884549605761E-2</v>
       </c>
-      <c r="F87" s="167">
+      <c r="F87" s="168">
         <f t="shared" si="7"/>
         <v>0.23917639295630433</v>
       </c>
-      <c r="G87" s="167">
+      <c r="G87" s="168">
         <f t="shared" si="7"/>
         <v>5.6944654936046779E-2</v>
       </c>
-      <c r="H87" s="167">
+      <c r="H87" s="168">
         <f t="shared" si="7"/>
         <v>0.40628720511554089</v>
       </c>
-      <c r="I87" s="167"/>
-      <c r="J87" s="167"/>
-      <c r="K87" s="167">
+      <c r="I87" s="168"/>
+      <c r="J87" s="168"/>
+      <c r="K87" s="168">
         <f t="shared" si="7"/>
         <v>1.6373364133970308E-2</v>
       </c>
-      <c r="L87" s="167">
+      <c r="L87" s="168">
         <f t="shared" si="7"/>
         <v>0.41507017252038042</v>
       </c>
-      <c r="M87" s="167">
+      <c r="M87" s="168">
         <f t="shared" si="7"/>
         <v>0.14338171109599965</v>
       </c>
-      <c r="N87" s="167">
+      <c r="N87" s="168">
         <f t="shared" si="7"/>
         <v>3.9648982550768749E-2</v>
       </c>
@@ -10432,17 +10242,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="K1" s="70"/>
+      <c r="K1" s="71"/>
       <c r="L1" s="55"/>
-      <c r="M1" s="69"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" t="s">
@@ -10457,9 +10267,9 @@
       <c r="F3" t="s">
         <v>159</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
@@ -10477,8 +10287,8 @@
         <v>16.666666666666668</v>
       </c>
       <c r="K4" s="55"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
@@ -11708,7 +11518,7 @@
         <v>342</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="67" t="s">
+      <c r="F45" s="68" t="s">
         <v>371</v>
       </c>
       <c r="G45" s="1"/>
@@ -11811,7 +11621,7 @@
       <c r="C48" s="59">
         <v>80.3</v>
       </c>
-      <c r="D48" s="66">
+      <c r="D48" s="67">
         <f t="shared" si="1"/>
         <v>0.21543700340522137</v>
       </c>
@@ -12049,13 +11859,13 @@
       <c r="A68" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="300">
+      <c r="B68" s="297">
         <v>90</v>
       </c>
-      <c r="C68" s="300">
+      <c r="C68" s="297">
         <v>87</v>
       </c>
-      <c r="D68" s="300">
+      <c r="D68" s="297">
         <v>99</v>
       </c>
     </row>
@@ -12063,9 +11873,9 @@
       <c r="A69" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="B69" s="300"/>
-      <c r="C69" s="300"/>
-      <c r="D69" s="300"/>
+      <c r="B69" s="297"/>
+      <c r="C69" s="297"/>
+      <c r="D69" s="297"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="64" t="s">
@@ -12242,10 +12052,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J27"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12271,16 +12081,13 @@
         <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>976</v>
-      </c>
-      <c r="G3" t="s">
-        <v>148</v>
+        <v>977</v>
       </c>
       <c r="H3" t="s">
         <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12323,7 +12130,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G5">
         <v>1.8</v>
@@ -12381,12 +12188,7 @@
       <c r="E7" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1000</v>
-      </c>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8">
@@ -12400,24 +12202,24 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="59" t="s">
+        <v>983</v>
+      </c>
+      <c r="E9" s="59" t="s">
         <v>982</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>981</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="59" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="59" customFormat="1">
@@ -12437,128 +12239,114 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B16" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C16" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D16" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F16" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>866</v>
       </c>
-      <c r="C17" s="239" t="s">
-        <v>960</v>
+      <c r="C17" s="240" t="s">
+        <v>961</v>
       </c>
       <c r="E17" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>540</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>996</v>
+        <v>964</v>
       </c>
       <c r="E18" t="s">
-        <v>997</v>
+        <v>962</v>
+      </c>
+      <c r="F18">
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E19" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="F19">
-        <v>0.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>964</v>
-      </c>
-      <c r="E20" t="s">
-        <v>965</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
+        <v>969</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>968</v>
-      </c>
-      <c r="C21" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>969</v>
-      </c>
-      <c r="C22" s="294">
+        <v>970</v>
+      </c>
+      <c r="C21" s="295">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="59" customFormat="1">
-      <c r="A23" s="59" t="s">
-        <v>927</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>998</v>
+      <c r="E21" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="59" customFormat="1">
+      <c r="A22" s="59" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>970</v>
+      </c>
+      <c r="C23" s="295">
+        <v>0.08</v>
+      </c>
+      <c r="E23" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>969</v>
-      </c>
-      <c r="C24" s="294">
-        <v>0.08</v>
-      </c>
-      <c r="E24" t="s">
-        <v>972</v>
+        <v>540</v>
+      </c>
+      <c r="C24" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>540</v>
+        <v>969</v>
       </c>
       <c r="C25" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>968</v>
-      </c>
-      <c r="C26" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>969</v>
-      </c>
-      <c r="C27" s="294">
+        <v>970</v>
+      </c>
+      <c r="C26" s="295">
         <v>0.08</v>
       </c>
-      <c r="D27">
+      <c r="D26">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
-        <v>971</v>
+      <c r="E26" t="s">
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -12593,8 +12381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12713,10 +12501,10 @@
       <c r="D4" t="s">
         <v>763</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="69">
         <v>2.7204943424399999</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="69" t="s">
         <v>853</v>
       </c>
       <c r="J4" t="s">
@@ -12750,15 +12538,15 @@
       <c r="D5" t="s">
         <v>641</v>
       </c>
-      <c r="E5" s="68">
-        <f>-N4</f>
-        <v>-537.36092603984002</v>
-      </c>
-      <c r="F5" s="68">
+      <c r="E5" s="69">
+        <f>-N5</f>
+        <v>-692.15220789071998</v>
+      </c>
+      <c r="F5" s="69">
         <f>-N6</f>
         <v>-918.79198627000005</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="69">
         <f>-N7</f>
         <v>-537.18234233351995</v>
       </c>
@@ -12784,7 +12572,7 @@
         <v>779</v>
       </c>
       <c r="B6" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C6" t="s">
         <v>812</v>
@@ -12829,10 +12617,10 @@
         <v>803</v>
       </c>
       <c r="B7" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D7" t="s">
         <v>641</v>
@@ -12882,13 +12670,13 @@
       <c r="D8" t="s">
         <v>641</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="69">
         <v>0.3</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="69">
         <v>0.3</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="69">
         <v>0.6</v>
       </c>
       <c r="H8" t="s">
@@ -12906,7 +12694,7 @@
         <v>842</v>
       </c>
       <c r="E9">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="F9">
         <v>0.52</v>
@@ -12926,7 +12714,7 @@
         <v>842</v>
       </c>
       <c r="E10">
-        <v>0.96</v>
+        <v>-0.96</v>
       </c>
       <c r="F10">
         <v>0.38</v>
@@ -12940,7 +12728,7 @@
         <v>782</v>
       </c>
       <c r="B11" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C11" t="s">
         <v>813</v>
@@ -12981,7 +12769,7 @@
       <c r="D13" t="s">
         <v>641</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="69">
         <v>5.8295314000000005</v>
       </c>
       <c r="F13">
@@ -13202,7 +12990,7 @@
       <c r="E20" s="6">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="69">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G20">
@@ -13357,7 +13145,7 @@
       <c r="D26" t="s">
         <v>641</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="69">
         <f>AD!E22</f>
         <v>4.19318820416827</v>
       </c>
@@ -13365,7 +13153,7 @@
         <f>3.6</f>
         <v>3.6</v>
       </c>
-      <c r="G26" s="85">
+      <c r="G26" s="86">
         <f>4.5</f>
         <v>4.5</v>
       </c>
@@ -13588,7 +13376,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D33" t="s">
         <v>641</v>
@@ -13605,16 +13393,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D34" t="s">
         <v>641</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -13644,13 +13432,13 @@
       <c r="D36" t="s">
         <v>641</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="69">
         <v>0.3</v>
       </c>
-      <c r="F36" s="68">
+      <c r="F36" s="69">
         <v>0.3</v>
       </c>
-      <c r="G36" s="68">
+      <c r="G36" s="69">
         <v>0.6</v>
       </c>
       <c r="H36" t="s">
@@ -13666,7 +13454,7 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D37" t="s">
         <v>641</v>
@@ -13755,7 +13543,7 @@
         <v>23</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D40" t="s">
         <v>641</v>
@@ -13773,12 +13561,12 @@
         <v>866</v>
       </c>
       <c r="I40" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>834</v>
@@ -13961,7 +13749,7 @@
         <v>793</v>
       </c>
       <c r="I48" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -13969,7 +13757,7 @@
         <v>794</v>
       </c>
       <c r="B49" t="str">
-        <f>compost!B35</f>
+        <f>compost!B36</f>
         <v>%compost/fw</v>
       </c>
       <c r="C49" t="s">
@@ -14016,7 +13804,7 @@
         <v>799</v>
       </c>
       <c r="C51" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D51" t="s">
         <v>641</v>
@@ -14097,8 +13885,8 @@
   <cols>
     <col min="1" max="1" width="27.83203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="118" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="118" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="119" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="119" customWidth="1"/>
     <col min="5" max="6" width="11.33203125" style="27" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="27" customWidth="1"/>
     <col min="8" max="9" width="14.33203125" style="27" customWidth="1"/>
@@ -14118,10 +13906,10 @@
       <c r="B1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="207" t="s">
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
@@ -14148,7 +13936,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="110" t="s">
+      <c r="T1" s="111" t="s">
         <v>445</v>
       </c>
     </row>
@@ -14156,87 +13944,87 @@
       <c r="A2" s="42" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="208">
+      <c r="C2" s="209">
         <f>C4+C5</f>
         <v>18.482496322776335</v>
       </c>
-      <c r="D2" s="209"/>
+      <c r="D2" s="210"/>
       <c r="G2" s="54"/>
-      <c r="K2" s="267" t="s">
+      <c r="K2" s="268" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="47" customFormat="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="116" t="s">
         <v>462</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>463</v>
       </c>
-      <c r="C3" s="210">
+      <c r="C3" s="211">
         <f>E3*G3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="224">
+      <c r="D3" s="212"/>
+      <c r="E3" s="225">
         <f>Globalfactors.csv!E13</f>
         <v>5.8295314000000005</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="104" t="s">
+      <c r="F3" s="118"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="105" t="s">
         <v>484</v>
       </c>
-      <c r="I3" s="266">
+      <c r="I3" s="267">
         <v>42010</v>
       </c>
-      <c r="J3" s="265" t="s">
+      <c r="J3" s="266" t="s">
         <v>764</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="105" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>588</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="105" t="s">
         <v>649</v>
       </c>
-      <c r="C4" s="212">
+      <c r="C4" s="213">
         <f>E3*G4</f>
         <v>15.859207192776333</v>
       </c>
-      <c r="G4" s="193">
+      <c r="G4" s="194">
         <f>Globalfactors.csv!E4</f>
         <v>2.7204943424399999</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="K4" s="104"/>
-      <c r="M4" s="110"/>
-      <c r="Q4" s="118"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="K4" s="105"/>
+      <c r="M4" s="111"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>468</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="212">
+      <c r="C5" s="213">
         <f>G5*E3</f>
         <v>2.6232891300000003</v>
       </c>
-      <c r="G5" s="194">
+      <c r="G5" s="195">
         <f>Globalfactors.csv!E3</f>
         <v>0.45</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="111" t="s">
         <v>469</v>
       </c>
-      <c r="I5" s="110"/>
+      <c r="I5" s="111"/>
       <c r="K5" s="27" t="s">
         <v>470</v>
       </c>
@@ -14246,21 +14034,21 @@
         <v>446</v>
       </c>
       <c r="B6" s="42"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="210"/>
     </row>
     <row r="7" spans="1:28" hidden="1">
       <c r="A7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="199">
+      <c r="F7" s="200">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="111" t="s">
         <v>651</v>
       </c>
-      <c r="K7" s="110" t="s">
+      <c r="K7" s="111" t="s">
         <v>652</v>
       </c>
     </row>
@@ -14268,61 +14056,61 @@
       <c r="A8" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="206" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="36">
         <f>Globalfactors.csv!E14</f>
         <v>0.1</v>
       </c>
-      <c r="F8" s="199"/>
-      <c r="H8" s="113" t="s">
+      <c r="F8" s="200"/>
+      <c r="H8" s="114" t="s">
         <v>653</v>
       </c>
-      <c r="I8" s="113"/>
+      <c r="I8" s="114"/>
       <c r="K8" s="27" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>632</v>
       </c>
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="206" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="36">
         <v>1</v>
       </c>
-      <c r="F9" s="199"/>
-      <c r="H9" s="113" t="s">
+      <c r="F9" s="200"/>
+      <c r="H9" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="114" t="s">
         <v>655</v>
       </c>
-      <c r="K9" s="205" t="s">
+      <c r="K9" s="206" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>631</v>
       </c>
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="206" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="36">
         <v>0.9</v>
       </c>
-      <c r="F10" s="199"/>
-      <c r="H10" s="110" t="s">
+      <c r="F10" s="200"/>
+      <c r="H10" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="111" t="s">
         <v>657</v>
       </c>
-      <c r="K10" s="192" t="s">
+      <c r="K10" s="193" t="s">
         <v>656</v>
       </c>
       <c r="Y10" s="38" t="e">
@@ -14340,7 +14128,7 @@
       <c r="A11" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="200">
+      <c r="F11" s="201">
         <f>Parameters!E27</f>
         <v>334.11111111111109</v>
       </c>
@@ -14349,7 +14137,7 @@
       <c r="A12" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="200">
         <f>Parameters!D27</f>
         <v>0.27</v>
       </c>
@@ -14361,7 +14149,7 @@
       <c r="B13" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="201">
+      <c r="F13" s="202">
         <f>Parameters!F27</f>
         <v>90.21</v>
       </c>
@@ -14376,11 +14164,11 @@
       <c r="B14" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="213">
+      <c r="C14" s="214">
         <f>F13*D16*Parameters!C19*Parameters!C6</f>
         <v>580.55007993612196</v>
       </c>
-      <c r="D14" s="214"/>
+      <c r="D14" s="215"/>
       <c r="H14" s="49" t="s">
         <v>120</v>
       </c>
@@ -14398,10 +14186,10 @@
       <c r="G15" s="36">
         <v>0.7</v>
       </c>
-      <c r="K15" s="268" t="s">
+      <c r="K15" s="269" t="s">
         <v>772</v>
       </c>
-      <c r="Q15" s="110"/>
+      <c r="Q15" s="111"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1">
       <c r="A16" s="27" t="s">
@@ -14410,27 +14198,27 @@
       <c r="B16" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="212">
+      <c r="D16" s="213">
         <f>E87</f>
         <v>0.34304585198864457</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="Q16" s="110"/>
+      <c r="Q16" s="111"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="111" t="s">
         <v>479</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="212">
+      <c r="C17" s="213">
         <f>D16*F13*G15*Parameters!C19*Parameters!C6</f>
         <v>406.38505595528528</v>
       </c>
-      <c r="Q17" s="110"/>
+      <c r="Q17" s="111"/>
     </row>
     <row r="18" spans="1:25" s="37" customFormat="1">
       <c r="A18" s="42" t="s">
@@ -14439,11 +14227,11 @@
       <c r="B18" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="208">
+      <c r="C18" s="209">
         <f>-D23*Parameters!C14/1000</f>
         <v>-64.484627123483364</v>
       </c>
-      <c r="D18" s="209"/>
+      <c r="D18" s="210"/>
       <c r="G18" s="37">
         <f>Parameters!C14</f>
         <v>533.66</v>
@@ -14456,20 +14244,20 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="111" t="s">
         <v>481</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="215">
+      <c r="D19" s="216">
         <f>F87*E10</f>
         <v>0.44377569147881474</v>
       </c>
-      <c r="K19" s="110" t="s">
+      <c r="K19" s="111" t="s">
         <v>658</v>
       </c>
-      <c r="Q19" s="110"/>
+      <c r="Q19" s="111"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="27" t="s">
@@ -14478,57 +14266,57 @@
       <c r="B20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="215">
+      <c r="D20" s="216">
         <f>F13*D19</f>
         <v>40.033005128303877</v>
       </c>
-      <c r="G20" s="194">
+      <c r="G20" s="195">
         <f>Parameters!C20</f>
         <v>35315</v>
       </c>
-      <c r="H20" s="110" t="s">
+      <c r="H20" s="111" t="s">
         <v>485</v>
       </c>
-      <c r="I20" s="110"/>
-      <c r="K20" s="110" t="s">
+      <c r="I20" s="111"/>
+      <c r="K20" s="111" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="268" t="s">
+      <c r="A21" s="269" t="s">
         <v>800</v>
       </c>
-      <c r="B21" s="268" t="s">
+      <c r="B21" s="269" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="215"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="K21" s="268" t="s">
+      <c r="D21" s="216"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="K21" s="269" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="205" t="s">
+      <c r="A22" s="206" t="s">
         <v>678</v>
       </c>
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="206" t="s">
         <v>679</v>
       </c>
-      <c r="D22" s="215"/>
-      <c r="E22" s="194">
+      <c r="D22" s="216"/>
+      <c r="E22" s="195">
         <v>11700</v>
       </c>
-      <c r="F22" s="194"/>
-      <c r="G22" s="268" t="s">
+      <c r="F22" s="195"/>
+      <c r="G22" s="269" t="s">
         <v>769</v>
       </c>
-      <c r="H22" s="268" t="s">
+      <c r="H22" s="269" t="s">
         <v>771</v>
       </c>
-      <c r="I22" s="110"/>
-      <c r="K22" s="268" t="s">
+      <c r="I22" s="111"/>
+      <c r="K22" s="269" t="s">
         <v>770</v>
       </c>
     </row>
@@ -14539,78 +14327,78 @@
       <c r="B23" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="212">
+      <c r="D23" s="213">
         <f>D20*G20/E22</f>
         <v>120.83466462444885</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="K23" s="268" t="s">
+      <c r="I23" s="111"/>
+      <c r="K23" s="269" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="125" customFormat="1">
-      <c r="A24" s="125" t="s">
+    <row r="24" spans="1:25" s="126" customFormat="1">
+      <c r="A24" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="216">
+      <c r="C24" s="217">
         <f>D28*-44/12</f>
         <v>-84.966161861607617</v>
       </c>
-      <c r="D24" s="216">
+      <c r="D24" s="217">
         <f>F25*G24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="125" t="s">
+      <c r="K24" s="126" t="s">
         <v>448</v>
       </c>
-      <c r="X24" s="125" t="e">
+      <c r="X24" s="126" t="e">
         <f>#REF!*1.1</f>
         <v>#REF!</v>
       </c>
-      <c r="Y24" s="125" t="s">
+      <c r="Y24" s="126" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="115" customFormat="1">
-      <c r="A25" s="115" t="s">
+    <row r="25" spans="1:25" s="116" customFormat="1">
+      <c r="A25" s="116" t="s">
         <v>486</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="116" t="s">
         <v>447</v>
       </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="F25" s="219">
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="F25" s="220">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="J25" s="115" t="s">
+      <c r="J25" s="116" t="s">
         <v>848</v>
       </c>
-      <c r="K25" s="115" t="s">
+      <c r="K25" s="116" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="115" customFormat="1">
-      <c r="A26" s="115" t="s">
+    <row r="26" spans="1:25" s="116" customFormat="1">
+      <c r="A26" s="116" t="s">
         <v>673</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="F26" s="204">
+      <c r="C26" s="211"/>
+      <c r="D26" s="211"/>
+      <c r="F26" s="205">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="J26" s="115" t="s">
+      <c r="J26" s="116" t="s">
         <v>848</v>
       </c>
-      <c r="K26" s="115" t="s">
+      <c r="K26" s="116" t="s">
         <v>845</v>
       </c>
     </row>
@@ -14618,10 +14406,10 @@
       <c r="A27" s="42" t="s">
         <v>849</v>
       </c>
-      <c r="C27" s="208"/>
-      <c r="D27" s="208"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="278"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="279"/>
       <c r="J27" s="42" t="s">
         <v>847</v>
       </c>
@@ -14630,50 +14418,50 @@
       </c>
     </row>
     <row r="28" spans="1:25" s="47" customFormat="1">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="116" t="s">
         <v>539</v>
       </c>
-      <c r="B28" s="202" t="s">
+      <c r="B28" s="203" t="s">
         <v>603</v>
       </c>
-      <c r="C28" s="211"/>
-      <c r="D28" s="210">
+      <c r="C28" s="212"/>
+      <c r="D28" s="211">
         <f>F25*(1-F26)*G29</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F28" s="168"/>
-      <c r="G28" s="276"/>
-      <c r="H28" s="275"/>
-      <c r="I28" s="275"/>
-      <c r="K28" s="115" t="s">
+      <c r="F28" s="169"/>
+      <c r="G28" s="277"/>
+      <c r="H28" s="276"/>
+      <c r="I28" s="276"/>
+      <c r="K28" s="116" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="268" t="s">
+      <c r="A29" s="269" t="s">
         <v>768</v>
       </c>
-      <c r="B29" s="268" t="s">
+      <c r="B29" s="269" t="s">
         <v>850</v>
       </c>
-      <c r="G29" s="194">
+      <c r="G29" s="195">
         <v>1</v>
       </c>
-      <c r="H29" s="281">
+      <c r="H29" s="282">
         <f>D28/0.3/1000</f>
         <v>7.7241965328734202E-2</v>
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
-      <c r="K29" s="268" t="s">
+      <c r="K29" s="269" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="30" spans="1:25">
-      <c r="B30" s="203" t="s">
+      <c r="B30" s="204" t="s">
         <v>634</v>
       </c>
-      <c r="C30" s="217">
+      <c r="C30" s="218">
         <f>SUM(C14,C18,C24,C2)</f>
         <v>449.58178727380732</v>
       </c>
@@ -14682,12 +14470,12 @@
       <c r="A31" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="K31" s="110" t="s">
+      <c r="K31" s="111" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="C32" s="118">
+      <c r="C32" s="119">
         <v>3</v>
       </c>
     </row>
@@ -14695,40 +14483,40 @@
       <c r="A34" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="269" t="s">
+      <c r="H34" s="270" t="s">
         <v>722</v>
       </c>
       <c r="L34" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="M34" s="123"/>
+      <c r="M34" s="124"/>
       <c r="N34" s="37"/>
       <c r="O34" s="37"/>
-      <c r="P34" s="122" t="s">
+      <c r="P34" s="123" t="s">
         <v>478</v>
       </c>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
-      <c r="W34" s="110" t="s">
+      <c r="W34" s="111" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="16">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="111" t="s">
         <v>477</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="118" t="s">
+      <c r="C35" s="219"/>
+      <c r="D35" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="K35" s="124" t="s">
+      <c r="K35" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="L35" s="124"/>
+      <c r="L35" s="125"/>
       <c r="M35" s="37"/>
-      <c r="N35" s="122" t="s">
+      <c r="N35" s="123" t="s">
         <v>473</v>
       </c>
       <c r="O35" s="37" t="s">
@@ -14743,19 +14531,19 @@
       <c r="A36" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="111" t="s">
         <v>455</v>
       </c>
-      <c r="C36" s="218" t="s">
+      <c r="C36" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="218" t="s">
+      <c r="D36" s="219" t="s">
         <v>476</v>
       </c>
-      <c r="E36" s="110" t="s">
+      <c r="E36" s="111" t="s">
         <v>457</v>
       </c>
-      <c r="F36" s="110" t="s">
+      <c r="F36" s="111" t="s">
         <v>456</v>
       </c>
       <c r="G36" s="37" t="s">
@@ -14792,10 +14580,10 @@
         <f t="shared" ref="B37:B68" si="0">$F$7*EXP(-$F$7*A37)</f>
         <v>0.12468783572052551</v>
       </c>
-      <c r="C37" s="118">
+      <c r="C37" s="119">
         <v>0.1</v>
       </c>
-      <c r="D37" s="118">
+      <c r="D37" s="119">
         <v>0</v>
       </c>
       <c r="E37" s="29">
@@ -14848,10 +14636,10 @@
         <f t="shared" si="0"/>
         <v>0.10796566928242193</v>
       </c>
-      <c r="C38" s="118">
+      <c r="C38" s="119">
         <v>0.1</v>
       </c>
-      <c r="D38" s="118">
+      <c r="D38" s="119">
         <v>0.5</v>
       </c>
       <c r="E38" s="29">
@@ -14903,10 +14691,10 @@
         <f t="shared" si="0"/>
         <v>9.3486150242661228E-2</v>
       </c>
-      <c r="C39" s="118">
+      <c r="C39" s="119">
         <v>0.1</v>
       </c>
-      <c r="D39" s="118">
+      <c r="D39" s="119">
         <v>0.5</v>
       </c>
       <c r="E39" s="29">
@@ -14958,10 +14746,10 @@
         <f t="shared" si="0"/>
         <v>8.0948512108342419E-2</v>
       </c>
-      <c r="C40" s="118">
+      <c r="C40" s="119">
         <v>0.1</v>
       </c>
-      <c r="D40" s="118">
+      <c r="D40" s="119">
         <v>0.5</v>
       </c>
       <c r="E40" s="29">
@@ -15013,10 +14801,10 @@
         <f t="shared" si="0"/>
         <v>7.009232485823591E-2</v>
       </c>
-      <c r="C41" s="118">
+      <c r="C41" s="119">
         <v>0.1</v>
       </c>
-      <c r="D41" s="118">
+      <c r="D41" s="119">
         <v>0.75</v>
       </c>
       <c r="E41" s="29">
@@ -15068,10 +14856,10 @@
         <f t="shared" si="0"/>
         <v>6.0692085327732133E-2</v>
       </c>
-      <c r="C42" s="118">
+      <c r="C42" s="119">
         <v>0.1</v>
       </c>
-      <c r="D42" s="118">
+      <c r="D42" s="119">
         <v>0.75</v>
       </c>
       <c r="E42" s="29">
@@ -15123,10 +14911,10 @@
         <f t="shared" si="0"/>
         <v>5.2552533089447094E-2</v>
       </c>
-      <c r="C43" s="118">
+      <c r="C43" s="119">
         <v>0.1</v>
       </c>
-      <c r="D43" s="118">
+      <c r="D43" s="119">
         <v>0.75</v>
       </c>
       <c r="E43" s="29">
@@ -15178,10 +14966,10 @@
         <f t="shared" si="0"/>
         <v>4.5504594531628202E-2</v>
       </c>
-      <c r="C44" s="118">
+      <c r="C44" s="119">
         <v>0.1</v>
       </c>
-      <c r="D44" s="118">
+      <c r="D44" s="119">
         <v>0.75</v>
       </c>
       <c r="E44" s="29">
@@ -15233,10 +15021,10 @@
         <f t="shared" si="0"/>
         <v>3.9401870885338766E-2</v>
       </c>
-      <c r="C45" s="118">
+      <c r="C45" s="119">
         <v>0.1</v>
       </c>
-      <c r="D45" s="118">
+      <c r="D45" s="119">
         <v>0.75</v>
       </c>
       <c r="E45" s="29">
@@ -15288,10 +15076,10 @@
         <f t="shared" si="0"/>
         <v>3.4117597250225534E-2</v>
       </c>
-      <c r="C46" s="118">
+      <c r="C46" s="119">
         <v>0.1</v>
       </c>
-      <c r="D46" s="118">
+      <c r="D46" s="119">
         <v>0.75</v>
       </c>
       <c r="E46" s="29">
@@ -15343,10 +15131,10 @@
         <f t="shared" si="0"/>
         <v>2.9542009452188715E-2</v>
       </c>
-      <c r="C47" s="118">
+      <c r="C47" s="119">
         <v>0.1</v>
       </c>
-      <c r="D47" s="118">
+      <c r="D47" s="119">
         <v>0.75</v>
       </c>
       <c r="E47" s="29">
@@ -15398,10 +15186,10 @@
         <f t="shared" si="0"/>
         <v>2.5580064037699433E-2</v>
       </c>
-      <c r="C48" s="118">
+      <c r="C48" s="119">
         <v>0.1</v>
       </c>
-      <c r="D48" s="118">
+      <c r="D48" s="119">
         <v>0.75</v>
       </c>
       <c r="E48" s="29">
@@ -15453,10 +15241,10 @@
         <f t="shared" si="0"/>
         <v>2.214946404481382E-2</v>
       </c>
-      <c r="C49" s="118">
+      <c r="C49" s="119">
         <v>0.1</v>
       </c>
-      <c r="D49" s="118">
+      <c r="D49" s="119">
         <v>0.75</v>
       </c>
       <c r="E49" s="29">
@@ -15508,10 +15296,10 @@
         <f t="shared" si="0"/>
         <v>1.9178949542482164E-2</v>
       </c>
-      <c r="C50" s="118">
+      <c r="C50" s="119">
         <v>0.1</v>
       </c>
-      <c r="D50" s="118">
+      <c r="D50" s="119">
         <v>0.75</v>
       </c>
       <c r="E50" s="29">
@@ -15563,10 +15351,10 @@
         <f t="shared" si="0"/>
         <v>1.6606817429481006E-2</v>
       </c>
-      <c r="C51" s="118">
+      <c r="C51" s="119">
         <v>0.1</v>
       </c>
-      <c r="D51" s="118">
+      <c r="D51" s="119">
         <v>0.82499999999999996</v>
       </c>
       <c r="E51" s="29">
@@ -15618,10 +15406,10 @@
         <f t="shared" si="0"/>
         <v>1.4379639746443663E-2</v>
       </c>
-      <c r="C52" s="118">
+      <c r="C52" s="119">
         <v>0.1</v>
       </c>
-      <c r="D52" s="118">
+      <c r="D52" s="119">
         <v>0.82499999999999996</v>
       </c>
       <c r="E52" s="29">
@@ -15673,10 +15461,10 @@
         <f t="shared" si="0"/>
         <v>1.2451153877950739E-2</v>
       </c>
-      <c r="C53" s="118">
+      <c r="C53" s="119">
         <v>0.1</v>
       </c>
-      <c r="D53" s="118">
+      <c r="D53" s="119">
         <v>0.82499999999999996</v>
       </c>
       <c r="E53" s="29">
@@ -15728,10 +15516,10 @@
         <f t="shared" si="0"/>
         <v>1.0781301592117407E-2</v>
       </c>
-      <c r="C54" s="118">
+      <c r="C54" s="119">
         <v>0.1</v>
       </c>
-      <c r="D54" s="118">
+      <c r="D54" s="119">
         <v>0.9</v>
       </c>
       <c r="E54" s="29">
@@ -15783,10 +15571,10 @@
         <f t="shared" si="0"/>
         <v>9.3353969567456611E-3</v>
       </c>
-      <c r="C55" s="118">
+      <c r="C55" s="119">
         <v>0.1</v>
       </c>
-      <c r="D55" s="118">
+      <c r="D55" s="119">
         <v>0.9</v>
       </c>
       <c r="E55" s="29">
@@ -15838,10 +15626,10 @@
         <f t="shared" si="0"/>
         <v>8.0834058481152552E-3</v>
       </c>
-      <c r="C56" s="118">
+      <c r="C56" s="119">
         <v>0.1</v>
       </c>
-      <c r="D56" s="118">
+      <c r="D56" s="119">
         <v>0.9</v>
       </c>
       <c r="E56" s="29">
@@ -15893,10 +15681,10 @@
         <f t="shared" si="0"/>
         <v>6.9993220864731295E-3</v>
       </c>
-      <c r="C57" s="118">
+      <c r="C57" s="119">
         <v>0.1</v>
       </c>
-      <c r="D57" s="118">
+      <c r="D57" s="119">
         <v>0.9</v>
       </c>
       <c r="E57" s="29">
@@ -15948,10 +15736,10 @@
         <f t="shared" si="0"/>
         <v>6.0606272393972736E-3</v>
       </c>
-      <c r="C58" s="118">
+      <c r="C58" s="119">
         <v>0.1</v>
       </c>
-      <c r="D58" s="118">
+      <c r="D58" s="119">
         <v>0.9</v>
       </c>
       <c r="E58" s="29">
@@ -16003,10 +15791,10 @@
         <f t="shared" si="0"/>
         <v>5.2478228721479815E-3</v>
       </c>
-      <c r="C59" s="118">
+      <c r="C59" s="119">
         <v>0.1</v>
       </c>
-      <c r="D59" s="118">
+      <c r="D59" s="119">
         <v>0.9</v>
       </c>
       <c r="E59" s="29">
@@ -16058,10 +15846,10 @@
         <f t="shared" si="0"/>
         <v>4.5440255289778061E-3</v>
       </c>
-      <c r="C60" s="118">
+      <c r="C60" s="119">
         <v>0.1</v>
       </c>
-      <c r="D60" s="118">
+      <c r="D60" s="119">
         <v>0.9</v>
       </c>
       <c r="E60" s="29">
@@ -16113,10 +15901,10 @@
         <f t="shared" si="0"/>
         <v>3.9346160324101294E-3</v>
       </c>
-      <c r="C61" s="118">
+      <c r="C61" s="119">
         <v>0.1</v>
       </c>
-      <c r="D61" s="118">
+      <c r="D61" s="119">
         <v>0.9</v>
       </c>
       <c r="E61" s="29">
@@ -16168,10 +15956,10 @@
         <f t="shared" si="0"/>
         <v>3.406935815781251E-3</v>
       </c>
-      <c r="C62" s="118">
+      <c r="C62" s="119">
         <v>0.1</v>
       </c>
-      <c r="D62" s="118">
+      <c r="D62" s="119">
         <v>0.9</v>
       </c>
       <c r="E62" s="29">
@@ -16223,10 +16011,10 @@
         <f t="shared" si="0"/>
         <v>2.9500239813090774E-3</v>
       </c>
-      <c r="C63" s="118">
+      <c r="C63" s="119">
         <v>0.1</v>
       </c>
-      <c r="D63" s="118">
+      <c r="D63" s="119">
         <v>0.9</v>
       </c>
       <c r="E63" s="29">
@@ -16278,10 +16066,10 @@
         <f t="shared" si="0"/>
         <v>2.5543896218963671E-3</v>
       </c>
-      <c r="C64" s="118">
+      <c r="C64" s="119">
         <v>0.1</v>
       </c>
-      <c r="D64" s="118">
+      <c r="D64" s="119">
         <v>0.9</v>
       </c>
       <c r="E64" s="29">
@@ -16333,10 +16121,10 @@
         <f t="shared" si="0"/>
         <v>2.2118146773696511E-3</v>
       </c>
-      <c r="C65" s="118">
+      <c r="C65" s="119">
         <v>0.1</v>
       </c>
-      <c r="D65" s="118">
+      <c r="D65" s="119">
         <v>0.9</v>
       </c>
       <c r="E65" s="29">
@@ -16388,10 +16176,10 @@
         <f t="shared" si="0"/>
         <v>1.9151832301119041E-3</v>
       </c>
-      <c r="C66" s="118">
+      <c r="C66" s="119">
         <v>0.1</v>
       </c>
-      <c r="D66" s="118">
+      <c r="D66" s="119">
         <v>0.9</v>
       </c>
       <c r="E66" s="29">
@@ -16443,10 +16231,10 @@
         <f t="shared" si="0"/>
         <v>1.6583336942423506E-3</v>
       </c>
-      <c r="C67" s="118">
+      <c r="C67" s="119">
         <v>0.1</v>
       </c>
-      <c r="D67" s="118">
+      <c r="D67" s="119">
         <v>0.9</v>
       </c>
       <c r="E67" s="29">
@@ -16498,10 +16286,10 @@
         <f t="shared" si="0"/>
         <v>1.4359308280382109E-3</v>
       </c>
-      <c r="C68" s="118">
+      <c r="C68" s="119">
         <v>0.1</v>
       </c>
-      <c r="D68" s="118">
+      <c r="D68" s="119">
         <v>0.9</v>
       </c>
       <c r="E68" s="29">
@@ -16553,10 +16341,10 @@
         <f t="shared" ref="B69:B86" si="8">$F$7*EXP(-$F$7*A69)</f>
         <v>1.243354911058796E-3</v>
       </c>
-      <c r="C69" s="118">
+      <c r="C69" s="119">
         <v>0.1</v>
       </c>
-      <c r="D69" s="118">
+      <c r="D69" s="119">
         <v>0.9</v>
       </c>
       <c r="E69" s="29">
@@ -16608,10 +16396,10 @@
         <f t="shared" si="8"/>
         <v>1.0766057839750539E-3</v>
       </c>
-      <c r="C70" s="118">
+      <c r="C70" s="119">
         <v>0.1</v>
       </c>
-      <c r="D70" s="118">
+      <c r="D70" s="119">
         <v>0.9</v>
       </c>
       <c r="E70" s="29">
@@ -16663,10 +16451,10 @@
         <f t="shared" si="8"/>
         <v>9.3221975783367426E-4</v>
       </c>
-      <c r="C71" s="118">
+      <c r="C71" s="119">
         <v>0.1</v>
       </c>
-      <c r="D71" s="118">
+      <c r="D71" s="119">
         <v>0.9</v>
       </c>
       <c r="E71" s="29">
@@ -16718,10 +16506,10 @@
         <f t="shared" si="8"/>
         <v>8.0719766680689817E-4</v>
       </c>
-      <c r="C72" s="118">
+      <c r="C72" s="119">
         <v>0.1</v>
       </c>
-      <c r="D72" s="118">
+      <c r="D72" s="119">
         <v>0.9</v>
       </c>
       <c r="E72" s="29">
@@ -16773,10 +16561,10 @@
         <f t="shared" si="8"/>
         <v>6.9894256995006948E-4</v>
       </c>
-      <c r="C73" s="118">
+      <c r="C73" s="119">
         <v>0.1</v>
       </c>
-      <c r="D73" s="118">
+      <c r="D73" s="119">
         <v>0.9</v>
       </c>
       <c r="E73" s="29">
@@ -16828,10 +16616,10 @@
         <f t="shared" si="8"/>
         <v>6.0520580791677909E-4</v>
       </c>
-      <c r="C74" s="118">
+      <c r="C74" s="119">
         <v>0.1</v>
       </c>
-      <c r="D74" s="118">
+      <c r="D74" s="119">
         <v>0.9</v>
       </c>
       <c r="E74" s="29">
@@ -16883,10 +16671,10 @@
         <f t="shared" si="8"/>
         <v>5.240402941294115E-4</v>
       </c>
-      <c r="C75" s="118">
+      <c r="C75" s="119">
         <v>0.1</v>
       </c>
-      <c r="D75" s="118">
+      <c r="D75" s="119">
         <v>0.9</v>
       </c>
       <c r="E75" s="29">
@@ -16938,10 +16726,10 @@
         <f t="shared" si="8"/>
         <v>4.5376007017599955E-4</v>
       </c>
-      <c r="C76" s="118">
+      <c r="C76" s="119">
         <v>0.1</v>
       </c>
-      <c r="D76" s="118">
+      <c r="D76" s="119">
         <v>0.9</v>
       </c>
       <c r="E76" s="29">
@@ -16993,10 +16781,10 @@
         <f t="shared" si="8"/>
         <v>3.9290528532388299E-4</v>
       </c>
-      <c r="C77" s="118">
+      <c r="C77" s="119">
         <v>0.1</v>
       </c>
-      <c r="D77" s="118">
+      <c r="D77" s="119">
         <v>0.9</v>
       </c>
       <c r="E77" s="29">
@@ -17048,10 +16836,10 @@
         <f t="shared" si="8"/>
         <v>3.402118727096567E-4</v>
       </c>
-      <c r="C78" s="118">
+      <c r="C78" s="119">
         <v>0.1</v>
       </c>
-      <c r="D78" s="118">
+      <c r="D78" s="119">
         <v>0.9</v>
       </c>
       <c r="E78" s="29">
@@ -17103,10 +16891,10 @@
         <f t="shared" si="8"/>
         <v>2.9458529232356952E-4</v>
       </c>
-      <c r="C79" s="118">
+      <c r="C79" s="119">
         <v>0.1</v>
       </c>
-      <c r="D79" s="118">
+      <c r="D79" s="119">
         <v>0.9</v>
       </c>
       <c r="E79" s="29">
@@ -17158,10 +16946,10 @@
         <f t="shared" si="8"/>
         <v>2.5507779538141821E-4</v>
       </c>
-      <c r="C80" s="118">
+      <c r="C80" s="119">
         <v>0.1</v>
       </c>
-      <c r="D80" s="118">
+      <c r="D80" s="119">
         <v>0.9</v>
       </c>
       <c r="E80" s="29">
@@ -17213,10 +17001,10 @@
         <f t="shared" si="8"/>
         <v>2.2086873782272285E-4</v>
       </c>
-      <c r="C81" s="118">
+      <c r="C81" s="119">
         <v>0.1</v>
       </c>
-      <c r="D81" s="118">
+      <c r="D81" s="119">
         <v>0.9</v>
       </c>
       <c r="E81" s="29">
@@ -17268,10 +17056,10 @@
         <f t="shared" si="8"/>
         <v>1.9124753400999643E-4</v>
       </c>
-      <c r="C82" s="118">
+      <c r="C82" s="119">
         <v>0.1</v>
       </c>
-      <c r="D82" s="118">
+      <c r="D82" s="119">
         <v>0.9</v>
       </c>
       <c r="E82" s="29">
@@ -17323,10 +17111,10 @@
         <f t="shared" si="8"/>
         <v>1.6559889654579202E-4</v>
       </c>
-      <c r="C83" s="118">
+      <c r="C83" s="119">
         <v>0.1</v>
       </c>
-      <c r="D83" s="118">
+      <c r="D83" s="119">
         <v>0.9</v>
       </c>
       <c r="E83" s="29">
@@ -17378,10 +17166,10 @@
         <f t="shared" si="8"/>
         <v>1.4339005561112524E-4</v>
       </c>
-      <c r="C84" s="118">
+      <c r="C84" s="119">
         <v>0.1</v>
       </c>
-      <c r="D84" s="118">
+      <c r="D84" s="119">
         <v>0.9</v>
       </c>
       <c r="E84" s="29">
@@ -17433,10 +17221,10 @@
         <f t="shared" si="8"/>
         <v>1.2415969234720137E-4</v>
       </c>
-      <c r="C85" s="118">
+      <c r="C85" s="119">
         <v>0.1</v>
       </c>
-      <c r="D85" s="118">
+      <c r="D85" s="119">
         <v>0.9</v>
       </c>
       <c r="E85" s="29">
@@ -17488,10 +17276,10 @@
         <f t="shared" si="8"/>
         <v>1.075083564062419E-4</v>
       </c>
-      <c r="C86" s="118">
+      <c r="C86" s="119">
         <v>0.1</v>
       </c>
-      <c r="D86" s="118">
+      <c r="D86" s="119">
         <v>0.9</v>
       </c>
       <c r="E86" s="29">
@@ -17532,18 +17320,18 @@
         <f>SUM(B37:B86)</f>
         <v>0.92903328181307976</v>
       </c>
-      <c r="C87" s="118">
+      <c r="C87" s="119">
         <v>0.1</v>
       </c>
-      <c r="E87" s="225">
+      <c r="E87" s="226">
         <f>SUM(E37:E86)</f>
         <v>0.34304585198864457</v>
       </c>
-      <c r="F87" s="114">
+      <c r="F87" s="115">
         <f>SUM(F37:F86)</f>
         <v>0.49308410164312749</v>
       </c>
-      <c r="G87" s="114">
+      <c r="G87" s="115">
         <f>E87+F87+C87</f>
         <v>0.93612995363177209</v>
       </c>
@@ -17606,16 +17394,16 @@
       <c r="A88" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="110"/>
+      <c r="B88" s="111"/>
       <c r="Z88" s="36" t="e">
         <f>SUM(AA38:AA87)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA88" s="114">
+      <c r="AA88" s="115">
         <f>SUM(AB38:AB87)</f>
         <v>1.1563427736777408E-5</v>
       </c>
-      <c r="AB88" s="114" t="e">
+      <c r="AB88" s="115" t="e">
         <f>SUM(AC38:AC87)</f>
         <v>#REF!</v>
       </c>
@@ -17630,7 +17418,7 @@
       </c>
     </row>
     <row r="90" spans="1:30">
-      <c r="A90" s="110" t="s">
+      <c r="A90" s="111" t="s">
         <v>475</v>
       </c>
       <c r="AD90" s="27" t="s">
@@ -17644,22 +17432,22 @@
       <c r="B91" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D91" s="118" t="s">
+      <c r="D91" s="119" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:30">
-      <c r="A92" s="110" t="s">
+      <c r="A92" s="111" t="s">
         <v>451</v>
       </c>
-      <c r="B92" s="111">
+      <c r="B92" s="112">
         <f>D20</f>
         <v>40.033005128303877</v>
       </c>
-      <c r="C92" s="118" t="s">
+      <c r="C92" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="118" t="s">
+      <c r="D92" s="119" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17670,7 +17458,7 @@
       <c r="B93" s="27">
         <v>35315</v>
       </c>
-      <c r="C93" s="118" t="s">
+      <c r="C93" s="119" t="s">
         <v>72</v>
       </c>
     </row>
@@ -17681,25 +17469,25 @@
       <c r="B94" s="27">
         <v>11700</v>
       </c>
-      <c r="C94" s="118" t="s">
+      <c r="C94" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="D94" s="118" t="s">
+      <c r="D94" s="119" t="s">
         <v>63</v>
       </c>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
-      <c r="K94" s="110">
+      <c r="K94" s="111">
         <v>3412</v>
       </c>
-      <c r="L94" s="110" t="s">
+      <c r="L94" s="111" t="s">
         <v>452</v>
       </c>
-      <c r="M94" s="112">
+      <c r="M94" s="113">
         <f>K94/B94</f>
         <v>0.29162393162393163</v>
       </c>
-      <c r="N94" s="110" t="s">
+      <c r="N94" s="111" t="s">
         <v>454</v>
       </c>
     </row>
@@ -17710,10 +17498,10 @@
       <c r="B95" s="27">
         <v>1</v>
       </c>
-      <c r="C95" s="118" t="s">
+      <c r="C95" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="K95" s="110" t="s">
+      <c r="K95" s="111" t="s">
         <v>453</v>
       </c>
     </row>
@@ -17722,7 +17510,7 @@
         <f>B92*B93/B94*B95</f>
         <v>120.83466462444885</v>
       </c>
-      <c r="C96" s="118" t="s">
+      <c r="C96" s="119" t="s">
         <v>66</v>
       </c>
     </row>
@@ -17734,10 +17522,10 @@
         <f>-D100/1000</f>
         <v>-0.53737674279288006</v>
       </c>
-      <c r="C97" s="118" t="s">
+      <c r="C97" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="D97" s="118" t="s">
+      <c r="D97" s="119" t="s">
         <v>59</v>
       </c>
       <c r="E97" s="27" t="s">
@@ -17749,10 +17537,10 @@
         <f>B96*B97</f>
         <v>-64.933738492356369</v>
       </c>
-      <c r="C98" s="118" t="s">
+      <c r="C98" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="D98" s="118">
+      <c r="D98" s="119">
         <v>1253.77</v>
       </c>
       <c r="E98" s="27">
@@ -17773,10 +17561,10 @@
         <f>#REF!+B98</f>
         <v>#REF!</v>
       </c>
-      <c r="C100" s="118" t="s">
+      <c r="C100" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="118">
+      <c r="D100" s="119">
         <v>537.37674279288001</v>
       </c>
       <c r="E100" s="28" t="s">
@@ -17794,10 +17582,10 @@
       <c r="B102" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C102" s="118" t="s">
+      <c r="C102" s="119" t="s">
         <v>544</v>
       </c>
-      <c r="D102" s="118" t="s">
+      <c r="D102" s="119" t="s">
         <v>545</v>
       </c>
       <c r="E102" s="27" t="s">
@@ -17814,10 +17602,10 @@
       <c r="B103" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C103" s="118" t="s">
+      <c r="C103" s="119" t="s">
         <v>549</v>
       </c>
-      <c r="D103" s="118" t="s">
+      <c r="D103" s="119" t="s">
         <v>550</v>
       </c>
       <c r="E103" s="27" t="s">
@@ -17855,10 +17643,10 @@
       <c r="B104" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C104" s="118" t="s">
+      <c r="C104" s="119" t="s">
         <v>549</v>
       </c>
-      <c r="D104" s="118" t="s">
+      <c r="D104" s="119" t="s">
         <v>550</v>
       </c>
       <c r="E104" s="27">
@@ -17896,10 +17684,10 @@
       <c r="B105" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C105" s="118" t="s">
+      <c r="C105" s="119" t="s">
         <v>559</v>
       </c>
-      <c r="D105" s="118" t="s">
+      <c r="D105" s="119" t="s">
         <v>560</v>
       </c>
       <c r="E105" s="27" t="s">
@@ -17931,10 +17719,10 @@
       <c r="B106" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C106" s="118" t="s">
+      <c r="C106" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D106" s="118" t="s">
+      <c r="D106" s="119" t="s">
         <v>563</v>
       </c>
       <c r="E106" s="27" t="s">
@@ -17966,10 +17754,10 @@
       <c r="B107" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C107" s="118" t="s">
+      <c r="C107" s="119" t="s">
         <v>567</v>
       </c>
-      <c r="D107" s="118" t="s">
+      <c r="D107" s="119" t="s">
         <v>563</v>
       </c>
       <c r="E107" s="27" t="s">
@@ -18001,10 +17789,10 @@
       <c r="B108" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C108" s="118" t="s">
+      <c r="C108" s="119" t="s">
         <v>570</v>
       </c>
-      <c r="D108" s="118" t="s">
+      <c r="D108" s="119" t="s">
         <v>563</v>
       </c>
       <c r="E108" s="27" t="s">
@@ -18036,10 +17824,10 @@
       <c r="B109" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="C109" s="118" t="s">
+      <c r="C109" s="119" t="s">
         <v>573</v>
       </c>
-      <c r="D109" s="118" t="s">
+      <c r="D109" s="119" t="s">
         <v>574</v>
       </c>
       <c r="E109" s="27" t="s">
@@ -18085,8 +17873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18134,7 +17922,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="110" t="s">
+      <c r="T1" s="111" t="s">
         <v>445</v>
       </c>
     </row>
@@ -18214,7 +18002,7 @@
       <c r="A8" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="H8" t="s">
         <v>439</v>
       </c>
@@ -18229,19 +18017,19 @@
     </row>
     <row r="10" spans="1:20" s="45" customFormat="1">
       <c r="A10" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>945</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>944</v>
-      </c>
-      <c r="C10" s="284">
+      <c r="C10" s="285">
         <f>D13*(Globalfactors.csv!E4+Globalfactors.csv!E3)</f>
         <v>8.4018100074660005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B11" t="s">
         <v>797</v>
@@ -18252,21 +18040,21 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B12" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E12">
         <v>0.25</v>
       </c>
       <c r="J12" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B13" t="s">
         <v>463</v>
@@ -18290,11 +18078,11 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="F15" s="226">
+      <c r="F15" s="227">
         <f>Parameters!F27</f>
         <v>90.21</v>
       </c>
-      <c r="G15" s="98"/>
+      <c r="G15" s="99"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:20">
@@ -18306,7 +18094,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="227">
+      <c r="E16" s="228">
         <v>0.84</v>
       </c>
       <c r="H16" t="s">
@@ -18319,7 +18107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
+    <row r="17" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>425</v>
       </c>
@@ -18336,7 +18124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
+    <row r="18" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>693</v>
       </c>
@@ -18344,7 +18132,7 @@
         <v>694</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="231"/>
+      <c r="D18" s="232"/>
       <c r="E18" s="10">
         <v>0.03</v>
       </c>
@@ -18358,8 +18146,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="229" t="s">
+    <row r="19" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A19" s="230" t="s">
         <v>696</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -18369,20 +18157,20 @@
         <f>D19*Parameters!C19*Parameters!C6</f>
         <v>42.646957919999991</v>
       </c>
-      <c r="D19" s="234">
+      <c r="D19" s="235">
         <f>D17*E18</f>
         <v>2.2732919999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A20" s="229" t="s">
+    <row r="20" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A20" s="230" t="s">
         <v>695</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="234"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="235"/>
       <c r="E20" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -18396,8 +18184,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="229" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="230" t="s">
         <v>426</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -18407,27 +18195,27 @@
         <f>D21*Parameters!C19*Parameters!C6</f>
         <v>7.1078263200000009</v>
       </c>
-      <c r="D21" s="235">
+      <c r="D21" s="236">
         <f>D17*E20</f>
         <v>0.378882</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:12">
       <c r="A22" s="14" t="s">
         <v>392</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="228">
+      <c r="D22" s="108"/>
+      <c r="E22" s="229">
         <v>4.19318820416827</v>
       </c>
       <c r="F22">
         <f>3.6</f>
         <v>3.6</v>
       </c>
-      <c r="G22" s="85">
+      <c r="G22" s="86">
         <f>4.5</f>
         <v>4.5</v>
       </c>
@@ -18441,27 +18229,43 @@
         <v>863</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="229" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="229" t="s">
+      <c r="B23" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="109">
+      <c r="D23" s="110">
         <f>E22*D17/1000</f>
         <v>0.31774470663433646</v>
       </c>
-      <c r="J23" s="85"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="229" t="s">
+      <c r="F23" s="91">
+        <f>0.02*K23/0.6</f>
+        <v>1.1771566666666669</v>
+      </c>
+      <c r="G23" s="91">
+        <f>0.04*K23/0.6</f>
+        <v>2.3543133333333337</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>985</v>
+      </c>
+      <c r="K23">
+        <v>35.314700000000002</v>
+      </c>
+      <c r="L23" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="230" t="s">
         <v>676</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="D24" s="109"/>
+      <c r="D24" s="110"/>
       <c r="E24" s="10">
         <v>0.12</v>
       </c>
@@ -18476,7 +18280,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>422</v>
       </c>
@@ -18488,65 +18292,65 @@
         <v>0.27961534183821607</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="236">
+      <c r="D26" s="237">
         <f>D25*G26</f>
-        <v>-150.25435902513021</v>
+        <v>-193.53637621343967</v>
       </c>
       <c r="G26" s="25">
         <f>Globalfactors.csv!E5</f>
-        <v>-537.36092603984002</v>
+        <v>-692.15220789071998</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
         <v>714</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="233">
+      <c r="C27" s="234">
         <f>C19+C21+D26</f>
-        <v>-100.49957478513022</v>
+        <v>-143.78159197343967</v>
       </c>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:10" s="12" customFormat="1">
+    <row r="28" spans="1:12" s="12" customFormat="1">
       <c r="A28" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1">
-      <c r="A29" s="87" t="s">
+    <row r="29" spans="1:12" s="6" customFormat="1">
+      <c r="A29" s="88" t="s">
         <v>682</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="F29" s="221">
+      <c r="C29" s="89"/>
+      <c r="F29" s="222">
         <f>Parameters!D27</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1">
+    <row r="30" spans="1:12" s="6" customFormat="1">
       <c r="A30" s="46" t="s">
         <v>681</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="88"/>
+      <c r="C30" s="89"/>
       <c r="E30" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F30" s="220"/>
+      <c r="F30" s="221"/>
       <c r="H30" s="6" t="s">
         <v>10</v>
       </c>
@@ -18557,26 +18361,26 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1">
+    <row r="31" spans="1:12" s="6" customFormat="1">
       <c r="A31" s="46" t="s">
         <v>394</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D31" s="222">
+      <c r="D31" s="223">
         <f>F29*1000*(1-E30)</f>
         <v>121.49999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1">
+    <row r="32" spans="1:12" s="6" customFormat="1">
       <c r="A32" s="46" t="s">
         <v>687</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D32" s="222"/>
+      <c r="D32" s="223"/>
       <c r="E32" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
@@ -18597,7 +18401,7 @@
       <c r="B33" t="s">
         <v>713</v>
       </c>
-      <c r="D33" s="89">
+      <c r="D33" s="90">
         <f>D31*E32</f>
         <v>6.5609999999999991</v>
       </c>
@@ -18609,7 +18413,7 @@
       <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="86">
+      <c r="D34" s="87">
         <f>D33*Parameters!C19*Parameters!C6</f>
         <v>123.08435999999999</v>
       </c>
@@ -18623,7 +18427,7 @@
       <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="86">
+      <c r="D35" s="87">
         <f>D37+D40</f>
         <v>17.723199999999999</v>
       </c>
@@ -18739,7 +18543,7 @@
       <c r="B43" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="G43" s="270">
+      <c r="G43" s="271">
         <f>Globalfactors.csv!E8</f>
         <v>0.3</v>
       </c>
@@ -18760,9 +18564,9 @@
       <c r="B44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="232">
+      <c r="E44" s="233">
         <f>Globalfactors.csv!E34</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G44" s="10"/>
     </row>
@@ -18773,7 +18577,11 @@
       <c r="B45" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="E45" s="232"/>
+      <c r="D45" s="6">
+        <f>E44*G43</f>
+        <v>3</v>
+      </c>
+      <c r="E45" s="233"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:10">
@@ -18783,9 +18591,9 @@
       <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="222">
+      <c r="D46" s="223">
         <f>E44*G43*(Globalfactors.csv!E4+Globalfactors.csv!E3)</f>
-        <v>19.022966054640001</v>
+        <v>9.5114830273200006</v>
       </c>
       <c r="H46" t="s">
         <v>45</v>
@@ -18801,7 +18609,7 @@
       <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="91">
+      <c r="D47" s="92">
         <f>F36*(1-E37-E38-E47)</f>
         <v>4004</v>
       </c>
@@ -18889,94 +18697,94 @@
       </c>
       <c r="C52" s="20">
         <f>D46+D51</f>
-        <v>43.199976054640004</v>
+        <v>33.688493027320007</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="13" customFormat="1">
       <c r="A53" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="D53" s="106"/>
-    </row>
-    <row r="54" spans="1:11" s="115" customFormat="1" ht="14">
-      <c r="A54" s="115" t="s">
+      <c r="D53" s="107"/>
+    </row>
+    <row r="54" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A54" s="116" t="s">
         <v>486</v>
       </c>
-      <c r="B54" s="115" t="s">
+      <c r="B54" s="116" t="s">
         <v>711</v>
       </c>
-      <c r="C54" s="210"/>
-      <c r="D54" s="210"/>
-      <c r="F54" s="219">
+      <c r="C54" s="211"/>
+      <c r="D54" s="211"/>
+      <c r="F54" s="220">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="H54" s="115" t="s">
+      <c r="H54" s="116" t="s">
         <v>668</v>
       </c>
-      <c r="I54" s="115" t="s">
+      <c r="I54" s="116" t="s">
         <v>708</v>
       </c>
-      <c r="J54" s="115" t="s">
+      <c r="J54" s="116" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="115" customFormat="1" ht="14">
-      <c r="A55" s="115" t="s">
+    <row r="55" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A55" s="116" t="s">
         <v>720</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="116" t="s">
         <v>710</v>
       </c>
-      <c r="C55" s="210"/>
-      <c r="D55" s="210"/>
-      <c r="F55" s="204">
+      <c r="C55" s="211"/>
+      <c r="D55" s="211"/>
+      <c r="F55" s="205">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="I55" s="115">
+      <c r="I55" s="116">
         <f>+-3%</f>
         <v>-0.03</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="47" customFormat="1">
-      <c r="A56" s="115" t="s">
+      <c r="A56" s="116" t="s">
         <v>539</v>
       </c>
-      <c r="B56" s="230" t="s">
+      <c r="B56" s="231" t="s">
         <v>709</v>
       </c>
-      <c r="C56" s="233">
+      <c r="C56" s="234">
         <f>-D62*Parameters!C17</f>
         <v>-33.986464744643051</v>
       </c>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>F54*(1-F55)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F56" s="168"/>
-      <c r="J56" s="265" t="s">
+      <c r="F56" s="169"/>
+      <c r="J56" s="266" t="s">
         <v>923</v>
       </c>
-      <c r="K56" s="189"/>
+      <c r="K56" s="190"/>
     </row>
     <row r="57" spans="1:11" s="47" customFormat="1">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="116" t="s">
         <v>914</v>
       </c>
-      <c r="B57" s="265" t="s">
+      <c r="B57" s="266" t="s">
         <v>915</v>
       </c>
-      <c r="D57" s="233">
+      <c r="D57" s="234">
         <f>F15*0.7</f>
         <v>63.146999999999991</v>
       </c>
-      <c r="F57" s="168"/>
-      <c r="J57" s="202"/>
-      <c r="K57" s="189"/>
+      <c r="F57" s="169"/>
+      <c r="J57" s="203"/>
+      <c r="K57" s="190"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="115" t="s">
+      <c r="A58" s="116" t="s">
         <v>924</v>
       </c>
       <c r="B58" t="s">
@@ -18988,7 +18796,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="116" t="s">
         <v>916</v>
       </c>
       <c r="B59" t="s">
@@ -19003,7 +18811,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="115" t="s">
+      <c r="A60" s="116" t="s">
         <v>921</v>
       </c>
       <c r="B60" t="s">
@@ -19015,25 +18823,23 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="115" t="s">
+      <c r="A61" s="116" t="s">
         <v>917</v>
       </c>
       <c r="B61" t="s">
         <v>918</v>
       </c>
-      <c r="D61" s="85">
+      <c r="D61" s="86">
         <f>F54-D60-D58</f>
         <v>86.898034496754022</v>
       </c>
+      <c r="G61" s="86"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="115" t="s">
-        <v>994</v>
-      </c>
-      <c r="B62" t="s">
-        <v>995</v>
-      </c>
-      <c r="D62" s="85">
+      <c r="A62" s="116" t="s">
+        <v>919</v>
+      </c>
+      <c r="D62" s="86">
         <f>D56*(F62)</f>
         <v>9.2690358394481045</v>
       </c>
@@ -19047,24 +18853,20 @@
         <f>D62/D61</f>
         <v>0.10666565582440578</v>
       </c>
-      <c r="H62">
-        <f>D62/F54</f>
-        <v>6.3600000000000018E-2</v>
-      </c>
       <c r="I62" t="s">
         <v>920</v>
       </c>
       <c r="J62" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="44" customFormat="1">
       <c r="A64" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="C64" s="182">
+      <c r="C64" s="183">
         <f>C27+C41+C52+C56</f>
-        <v>49.521496524866727</v>
+        <v>-3.2720036907627232</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="45" customFormat="1">
@@ -19076,8 +18878,8 @@
       <c r="A66" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="90"/>
-      <c r="D66" s="92">
+      <c r="C66" s="91"/>
+      <c r="D66" s="93">
         <f>D47-D47*E48-D47*E49-D47*0.02</f>
         <v>3073.0699999999997</v>
       </c>
@@ -19096,7 +18898,7 @@
       <c r="E67" s="10">
         <v>0.4</v>
       </c>
-      <c r="H67" s="93">
+      <c r="H67" s="94">
         <f>-'[2]Fertilizer literature'!I1</f>
         <v>0</v>
       </c>
@@ -19152,46 +18954,46 @@
         <f>D68+D69</f>
         <v>-14.996581600000003</v>
       </c>
-      <c r="D70" s="237"/>
+      <c r="D70" s="238"/>
     </row>
     <row r="71" spans="1:9" s="6" customFormat="1">
-      <c r="A71" s="87" t="s">
+      <c r="A71" s="88" t="s">
         <v>718</v>
       </c>
-      <c r="C71" s="238">
+      <c r="C71" s="239">
         <f>C64+C70</f>
-        <v>34.524914924866721</v>
+        <v>-18.268585290762726</v>
       </c>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:9" s="6" customFormat="1">
-      <c r="A72" s="87"/>
-      <c r="C72" s="107"/>
+      <c r="A72" s="88"/>
+      <c r="C72" s="108"/>
     </row>
     <row r="73" spans="1:9" s="6" customFormat="1">
-      <c r="A73" s="87"/>
-      <c r="C73" s="107"/>
+      <c r="A73" s="88"/>
+      <c r="C73" s="108"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="C74" s="85"/>
+      <c r="C74" s="86"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="7"/>
-      <c r="C75" s="85"/>
+      <c r="C75" s="86"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="H76" s="103"/>
+      <c r="H76" s="104"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7"/>
     </row>
     <row r="82" spans="6:7" ht="16">
-      <c r="F82" s="74"/>
-      <c r="G82" s="74"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19256,7 +19058,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="110" t="s">
+      <c r="T1" s="111" t="s">
         <v>445</v>
       </c>
     </row>
@@ -19292,24 +19094,24 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="50" customFormat="1" ht="56" hidden="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="80">
         <v>1.31</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="81" t="s">
         <v>389</v>
       </c>
       <c r="I4" s="52" t="s">
@@ -19351,7 +19153,7 @@
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="283">
+      <c r="C7" s="284">
         <f>C10+C12</f>
         <v>52.836966054640001</v>
       </c>
@@ -19363,8 +19165,8 @@
       <c r="B8" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="C8" s="231"/>
-      <c r="E8" s="234">
+      <c r="C8" s="232"/>
+      <c r="E8" s="235">
         <f>Globalfactors.csv!E8</f>
         <v>0.3</v>
       </c>
@@ -19376,7 +19178,7 @@
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="231"/>
+      <c r="C9" s="232"/>
       <c r="E9" s="5">
         <f>Globalfactors.csv!E37</f>
         <v>20</v>
@@ -19393,7 +19195,7 @@
         <f>E9*E8*(Globalfactors.csv!E3+Globalfactors.csv!E4)</f>
         <v>19.022966054640001</v>
       </c>
-      <c r="G10" s="239" t="s">
+      <c r="G10" s="240" t="s">
         <v>721</v>
       </c>
       <c r="H10" t="s">
@@ -19407,7 +19209,7 @@
       <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="F11" s="8">
         <f>Parameters!G34</f>
         <v>5600</v>
@@ -19501,86 +19303,86 @@
       <c r="A18" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="D18" s="106"/>
-    </row>
-    <row r="19" spans="1:11" s="115" customFormat="1" ht="14">
-      <c r="A19" s="115" t="s">
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A19" s="116" t="s">
         <v>486</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>711</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="F19" s="219">
+      <c r="C19" s="211"/>
+      <c r="D19" s="211"/>
+      <c r="F19" s="220">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="H19" s="115" t="s">
+      <c r="H19" s="116" t="s">
         <v>668</v>
       </c>
-      <c r="I19" s="115" t="s">
+      <c r="I19" s="116" t="s">
         <v>708</v>
       </c>
-      <c r="J19" s="115" t="s">
+      <c r="J19" s="116" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="115" customFormat="1" ht="14">
-      <c r="A20" s="115" t="s">
+    <row r="20" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A20" s="116" t="s">
         <v>768</v>
       </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="115">
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="116">
         <v>1</v>
       </c>
-      <c r="F20" s="219"/>
-    </row>
-    <row r="21" spans="1:11" s="115" customFormat="1" ht="14">
-      <c r="A21" s="115" t="s">
+      <c r="F20" s="220"/>
+    </row>
+    <row r="21" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A21" s="116" t="s">
         <v>720</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="116" t="s">
         <v>710</v>
       </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="F21" s="204">
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="F21" s="205">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="I21" s="115">
+      <c r="I21" s="116">
         <f>+-3%</f>
         <v>-0.03</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="47" customFormat="1" ht="14">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="116" t="s">
         <v>539</v>
       </c>
-      <c r="B22" s="230" t="s">
+      <c r="B22" s="231" t="s">
         <v>709</v>
       </c>
-      <c r="D22" s="210">
+      <c r="D22" s="211">
         <f>F19*(1-F21)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F22" s="168"/>
-      <c r="J22" s="202" t="s">
+      <c r="F22" s="169"/>
+      <c r="J22" s="203" t="s">
         <v>667</v>
       </c>
-      <c r="K22" s="189"/>
+      <c r="K22" s="190"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="116" t="s">
         <v>919</v>
       </c>
-      <c r="C23" s="233">
+      <c r="C23" s="234">
         <f>-D23*Parameters!C17</f>
         <v>-59.47631330312533</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="86">
         <f>D22*(F23)</f>
         <v>16.220812719034182</v>
       </c>
@@ -19596,7 +19398,7 @@
         <v>0.11130000000000002</v>
       </c>
       <c r="H23" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="I23" t="s">
         <v>920</v>
@@ -19609,7 +19411,7 @@
       <c r="A24" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="C24" s="182">
+      <c r="C24" s="183">
         <f>C23+C7</f>
         <v>-6.6393472484853291</v>
       </c>
@@ -19618,21 +19420,21 @@
       <c r="A25" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="241">
+      <c r="C25" s="242">
         <f>D29+D30</f>
         <v>-20.974240000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="240"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
       <c r="F26" s="10">
         <v>0.02</v>
       </c>
@@ -19650,8 +19452,8 @@
       <c r="B27" t="s">
         <v>616</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="92">
+      <c r="C27" s="91"/>
+      <c r="D27" s="93">
         <f>F11-F11*E13-F11*E16-F11*F26</f>
         <v>4298</v>
       </c>
@@ -19674,7 +19476,7 @@
         <f>Globalfactors.csv!E7</f>
         <v>0.4</v>
       </c>
-      <c r="G28" s="93"/>
+      <c r="G28" s="94"/>
       <c r="H28" t="s">
         <v>402</v>
       </c>
@@ -19756,7 +19558,7 @@
       <c r="A33" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="C33" s="94">
+      <c r="C33" s="95">
         <f>C24+C25</f>
         <v>-27.613587248485331</v>
       </c>
@@ -19774,10 +19576,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19819,7 +19621,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="110" t="s">
+      <c r="T1" s="111" t="s">
         <v>445</v>
       </c>
     </row>
@@ -19967,8 +19769,8 @@
       <c r="B13" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="E13" s="271">
+      <c r="C13" s="109"/>
+      <c r="E13" s="272">
         <f>Globalfactors.csv!E43</f>
         <v>3</v>
       </c>
@@ -19979,7 +19781,7 @@
         <f>Globalfactors.csv!F43</f>
         <v>0.4</v>
       </c>
-      <c r="J13" s="191" t="s">
+      <c r="J13" s="192" t="s">
         <v>646</v>
       </c>
     </row>
@@ -19990,7 +19792,7 @@
       <c r="B14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="173">
         <f>E13*F14</f>
         <v>9.5114830273200006</v>
       </c>
@@ -20006,14 +19808,14 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="46" customFormat="1">
-      <c r="C15" s="172"/>
+      <c r="C15" s="173"/>
     </row>
     <row r="16" spans="1:20" s="13" customFormat="1">
       <c r="A16" s="13" t="s">
         <v>440</v>
       </c>
       <c r="C16" s="40">
-        <f>C22+C26</f>
+        <f>C22+C27</f>
         <v>81.854229962770901</v>
       </c>
     </row>
@@ -20026,7 +19828,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="F17" s="190">
+      <c r="F17" s="191">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
@@ -20043,7 +19845,7 @@
         <v>601</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="176">
+      <c r="D18" s="177">
         <f>F17*E18</f>
         <v>84.528943189935518</v>
       </c>
@@ -20070,7 +19872,7 @@
         <v>788</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="176"/>
+      <c r="D19" s="177"/>
       <c r="E19" s="4">
         <f>Globalfactors.csv!E46</f>
         <v>0.02</v>
@@ -20085,7 +19887,7 @@
         <v>725</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="242">
+      <c r="D20" s="243">
         <f>D18*E19</f>
         <v>1.6905788637987105</v>
       </c>
@@ -20093,7 +19895,9 @@
         <v>595</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15" t="s">
@@ -20103,14 +19907,11 @@
         <v>594</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="174">
+      <c r="D21" s="175">
         <f>D20*Parameters!C18</f>
         <v>2.254105151731614</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="J21" s="14" t="s">
-        <v>730</v>
-      </c>
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1">
       <c r="A22" s="14" t="s">
@@ -20119,12 +19920,15 @@
       <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="173">
+      <c r="C22" s="174">
         <f>D21*Parameters!C6</f>
         <v>63.114944248485187</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
+      <c r="J22" s="14" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
@@ -20133,487 +19937,491 @@
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="175"/>
-      <c r="F23" s="98">
+      <c r="D23" s="176"/>
+      <c r="F23" s="99">
         <f>Parameters!G27</f>
         <v>9000</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="14" t="s">
+        <v>987</v>
+      </c>
+      <c r="D24" s="176"/>
+      <c r="F24" s="99"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <f>Globalfactors.csv!E47</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>889</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <f>Globalfactors.csv!F47</f>
         <v>1E-3</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="C25" s="176"/>
-      <c r="D25" s="21">
-        <f>E24*F23*Parameters!C16/1000</f>
-        <v>7.0714285714285702E-2</v>
-      </c>
-      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C26" s="177"/>
+      <c r="D26" s="21">
+        <f>E25*F23*Parameters!C16/1000</f>
+        <v>7.0714285714285702E-2</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="176">
-        <f>D25*Parameters!C5</f>
+      <c r="C27" s="177">
+        <f>D26*Parameters!C5</f>
         <v>18.73928571428571</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="J26" s="185" t="s">
+      <c r="D27" s="21"/>
+      <c r="J27" s="186" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="13" customFormat="1">
-      <c r="A27" s="13" t="s">
+    <row r="28" spans="1:11" s="13" customFormat="1">
+      <c r="A28" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="C27" s="40">
-        <f>C33</f>
+      <c r="C28" s="40">
+        <f>C34</f>
         <v>-16.993232372321526</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" hidden="1">
-      <c r="A28" s="14" t="s">
+    <row r="29" spans="1:11" s="6" customFormat="1" hidden="1">
+      <c r="A29" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="D28" s="109">
+      <c r="D29" s="110">
         <f>F17*(1-E18)</f>
         <v>61.210614034091243</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="K28" s="107"/>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" hidden="1">
-      <c r="A29" s="14" t="s">
+      <c r="K29" s="108"/>
+    </row>
+    <row r="30" spans="1:11" s="6" customFormat="1" hidden="1">
+      <c r="A30" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="D29" s="109">
-        <f>D28*F29</f>
+      <c r="D30" s="110">
+        <f>D29*F30</f>
         <v>6.1210614034091249</v>
       </c>
-      <c r="E29" s="107"/>
-      <c r="F29" s="6">
+      <c r="E30" s="108"/>
+      <c r="F30" s="6">
         <v>0.1</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="K29" s="107"/>
-    </row>
-    <row r="30" spans="1:11" s="6" customFormat="1">
-      <c r="A30" s="14" t="s">
+      <c r="K30" s="108"/>
+    </row>
+    <row r="31" spans="1:11" s="6" customFormat="1">
+      <c r="A31" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="109">
+      <c r="B31" s="14"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="110">
         <f>F17-D18</f>
         <v>61.210614034091236</v>
       </c>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="J30" s="6" t="s">
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="J31" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="K30" s="107"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="14" t="s">
+      <c r="K31" s="108"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="14" t="s">
         <v>874</v>
       </c>
-      <c r="D31" s="85">
-        <f>F17*(1-F31)</f>
+      <c r="D32" s="86">
+        <f>F17*(1-F32)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F31" s="279">
+      <c r="F32" s="280">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="G31" s="85">
-        <f>D31/D30</f>
+      <c r="G32" s="86">
+        <f>D32/D31</f>
         <v>0.37857142857142867</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>875</v>
       </c>
-      <c r="I31" s="103"/>
-      <c r="J31" s="7" t="s">
+      <c r="I32" s="104"/>
+      <c r="J32" s="7" t="s">
         <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="14" t="s">
-        <v>873</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85">
-        <f>D31*(E32)</f>
-        <v>4.6345179197240522</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="85">
-        <f>D32/D30</f>
-        <v>7.5714285714285734E-2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>671</v>
-      </c>
-      <c r="I32" s="85">
-        <f>D32/F17</f>
-        <v>3.1800000000000009E-2</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86">
+        <f>D32*(E33)</f>
+        <v>4.6345179197240522</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="86">
+        <f>D33/D31</f>
+        <v>7.5714285714285734E-2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>671</v>
+      </c>
+      <c r="I33" s="86"/>
+      <c r="J33" s="7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="C33" s="85">
-        <f>D32*-44/12</f>
+      <c r="C34" s="86">
+        <f>D33*-44/12</f>
         <v>-16.993232372321526</v>
       </c>
-      <c r="D33" s="85"/>
-      <c r="F33" s="272"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="7" t="s">
+      <c r="D34" s="86"/>
+      <c r="F34" s="273"/>
+      <c r="I34" s="168"/>
+      <c r="J34" s="7" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="45" customFormat="1">
-      <c r="A34" s="170" t="s">
+    <row r="35" spans="1:10" s="45" customFormat="1">
+      <c r="A35" s="171" t="s">
         <v>629</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="183">
-        <f>C36+C39</f>
+      <c r="B35" s="171"/>
+      <c r="C35" s="184">
+        <f>C37+C40</f>
         <v>37.105071428571421</v>
       </c>
-      <c r="D34" s="171">
+      <c r="D35" s="172">
         <v>3</v>
       </c>
-      <c r="E34" s="169"/>
-      <c r="J34" s="171"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="14" t="s">
+      <c r="E35" s="170"/>
+      <c r="J35" s="172"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>620</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35">
-        <f>E35*1000</f>
+      <c r="C36" s="86"/>
+      <c r="D36">
+        <f>E36*1000</f>
         <v>400</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <v>0.4</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>626</v>
       </c>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>46</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="22">
-        <f>1.5*F36/20</f>
+      <c r="C37" s="22">
+        <f>1.5*F37/20</f>
         <v>2.25</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F37" s="8">
         <f>Globalfactors.csv!E50</f>
         <v>30</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J37" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="46" customFormat="1">
-      <c r="A37" s="14" t="s">
+    <row r="38" spans="1:10" s="46" customFormat="1">
+      <c r="A38" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="173">
-        <f>F23/1000*(1-E37)</f>
+      <c r="C38" s="5"/>
+      <c r="D38" s="174">
+        <f>F23/1000*(1-E38)</f>
         <v>5.58</v>
       </c>
-      <c r="E37" s="271">
+      <c r="E38" s="272">
         <v>0.38</v>
       </c>
-      <c r="H37" s="46" t="s">
+      <c r="H38" s="46" t="s">
         <v>728</v>
       </c>
-      <c r="J37" s="180" t="s">
+      <c r="J38" s="181" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="14" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <f>Globalfactors.csv!E52</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>540</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="280">
-        <f>D39*Parameters!C16*Parameters!C5</f>
-        <v>34.855071428571421</v>
-      </c>
-      <c r="D39" s="85">
-        <f>D37*E38</f>
-        <v>8.3699999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="281">
+        <f>D40*Parameters!C16*Parameters!C5</f>
+        <v>34.855071428571421</v>
+      </c>
+      <c r="D40" s="86">
+        <f>D38*E39</f>
+        <v>8.3699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="14" t="s">
         <v>886</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="J40" t="s">
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="J41" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="12" customFormat="1">
-      <c r="A41" s="245" t="s">
+    <row r="42" spans="1:10" s="12" customFormat="1">
+      <c r="A42" s="246" t="s">
         <v>729</v>
       </c>
-      <c r="C41" s="244">
-        <f>C12+C16+C27+C34</f>
+      <c r="C42" s="245">
+        <f>C12+C16+C28+C35</f>
         <v>111.47755204634079</v>
       </c>
-      <c r="D41" s="244"/>
-    </row>
-    <row r="42" spans="1:10" s="45" customFormat="1">
-      <c r="A42" s="170" t="s">
+      <c r="D42" s="245"/>
+    </row>
+    <row r="43" spans="1:10" s="45" customFormat="1">
+      <c r="A43" s="171" t="s">
         <v>586</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="182">
-        <f>C45+C46</f>
+      <c r="B43" s="171"/>
+      <c r="C43" s="183">
+        <f>C46+C47</f>
         <v>3.1248000000000005</v>
       </c>
-      <c r="D42" s="171"/>
-      <c r="E42" s="169"/>
-      <c r="J42" s="171"/>
-    </row>
-    <row r="43" spans="1:10" s="46" customFormat="1">
-      <c r="A43" s="14" t="s">
-        <v>930</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="5"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="J43" s="180"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="170"/>
+      <c r="J43" s="172"/>
     </row>
     <row r="44" spans="1:10" s="46" customFormat="1">
       <c r="A44" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="5"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="J44" s="181"/>
+    </row>
+    <row r="45" spans="1:10" s="46" customFormat="1">
+      <c r="A45" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B45" s="19" t="s">
         <v>603</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="173">
-        <f>D37*F43</f>
+      <c r="C45" s="5"/>
+      <c r="D45" s="174">
+        <f>D38*F44</f>
         <v>2.2320000000000002</v>
       </c>
-      <c r="E44" s="243"/>
-      <c r="J44" s="180"/>
-    </row>
-    <row r="45" spans="1:10" s="87" customFormat="1">
-      <c r="A45" s="14" t="s">
+      <c r="E45" s="244"/>
+      <c r="J45" s="181"/>
+    </row>
+    <row r="46" spans="1:10" s="88" customFormat="1">
+      <c r="A46" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="B45" s="87" t="s">
+      <c r="B46" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="181">
-        <f>D44*G45</f>
+      <c r="C46" s="182">
+        <f>D45*G46</f>
         <v>15.177600000000002</v>
       </c>
-      <c r="D45" s="177"/>
-      <c r="E45" s="178"/>
-      <c r="G45" s="87">
+      <c r="D46" s="178"/>
+      <c r="E46" s="179"/>
+      <c r="G46" s="88">
         <f>-Globalfactors.csv!E6</f>
         <v>6.8</v>
       </c>
-      <c r="H45" s="87" t="s">
+      <c r="H46" s="88" t="s">
         <v>614</v>
       </c>
-      <c r="J45" s="177" t="s">
+      <c r="J46" s="178" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="87" customFormat="1">
-      <c r="A46" s="14" t="s">
+    <row r="47" spans="1:10" s="88" customFormat="1">
+      <c r="A47" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B47" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="181">
-        <f>D44*G46</f>
+      <c r="C47" s="182">
+        <f>D45*G47</f>
         <v>-12.052800000000001</v>
       </c>
-      <c r="D46" s="177"/>
-      <c r="E46" s="178"/>
-      <c r="G46" s="87">
+      <c r="D47" s="178"/>
+      <c r="E47" s="179"/>
+      <c r="G47" s="88">
         <f>'Land application'!F30</f>
         <v>-5.4</v>
       </c>
-      <c r="H46" s="87" t="s">
+      <c r="H47" s="88" t="s">
         <v>613</v>
       </c>
-      <c r="J46" s="177"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
+      <c r="J47" s="178"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
         <v>639</v>
-      </c>
-      <c r="B47" t="s">
-        <v>618</v>
-      </c>
-      <c r="H47" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="14" t="s">
-        <v>640</v>
       </c>
       <c r="B48" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" s="45" customFormat="1">
-      <c r="A50" s="170" t="s">
+      <c r="H48" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B49" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="45" customFormat="1">
+      <c r="A51" s="171" t="s">
         <v>587</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B51" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="45">
-        <f>C53</f>
+      <c r="C51" s="45">
+        <f>C54</f>
         <v>-388</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>623</v>
       </c>
-      <c r="D52">
-        <f>D35</f>
+      <c r="D53">
+        <f>D36</f>
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="255">
-      <c r="A53" t="s">
+    <row r="54" spans="1:10" ht="255">
+      <c r="A54" t="s">
         <v>587</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>624</v>
       </c>
-      <c r="C53">
-        <f>F53*D52/1000</f>
+      <c r="C54">
+        <f>F54*D53/1000</f>
         <v>-388</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>-970</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
         <v>626</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="C55" s="184"/>
+    <row r="56" spans="1:10">
+      <c r="C56" s="185"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20628,10 +20436,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20670,7 +20478,7 @@
       <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="83">
         <f>F3*E4</f>
         <v>5.35</v>
       </c>
@@ -20687,7 +20495,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="82"/>
       <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
@@ -20708,7 +20516,7 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="81"/>
+      <c r="C4" s="82"/>
       <c r="E4" s="8">
         <v>50</v>
       </c>
@@ -20717,224 +20525,161 @@
       <c r="A5" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="83">
-        <f>F7*E6</f>
+      <c r="C5" s="84">
+        <f>F10*E9</f>
         <v>-625.9421487603305</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" s="45" customFormat="1">
+      <c r="A6" s="45" t="s">
+        <v>986</v>
+      </c>
+      <c r="C6" s="84"/>
+    </row>
+    <row r="7" spans="1:8" s="88" customFormat="1">
+      <c r="A7" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="241"/>
+    </row>
+    <row r="8" spans="1:8" s="88" customFormat="1">
+      <c r="A8" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="241"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="E6" s="105">
-        <f>D23</f>
+      <c r="C9" s="82"/>
+      <c r="E9" s="106">
+        <f>D26</f>
         <v>1.0573347107438016</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>387</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="F7" s="4">
+      <c r="C10" s="82"/>
+      <c r="F10" s="4">
         <v>-592</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="44" customFormat="1">
-      <c r="A8" s="44" t="s">
+    <row r="11" spans="1:8" s="44" customFormat="1">
+      <c r="A11" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C11" s="85">
         <f>C2+C5</f>
         <v>-620.59214876033047</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17">
-      <c r="A18" s="67" t="s">
+    <row r="21" spans="1:14" ht="17">
+      <c r="A21" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="G18">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="45">
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="45">
+      <c r="B22" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J19" s="301" t="s">
-        <v>1005</v>
-      </c>
-      <c r="K19" s="72"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="73"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>338</v>
-      </c>
-      <c r="B20">
-        <v>88</v>
-      </c>
-      <c r="C20">
-        <v>88</v>
-      </c>
-      <c r="D20">
-        <f>B20*C20/(B$20*C$20)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>379</v>
-      </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="D21" s="68">
-        <f>B21*C21/(B$20*C$20)</f>
-        <v>0.19573863636363639</v>
-      </c>
-      <c r="E21" t="s">
-        <v>380</v>
-      </c>
-      <c r="F21" s="81">
-        <v>-110.52727272727275</v>
-      </c>
-      <c r="G21">
-        <f>5/80</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="H21">
-        <f>18/80</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I21">
-        <f>5.2/80</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="J21" s="51">
-        <f>100-(80+3/80+H21+G210+I21)</f>
-        <v>19.672500000000014</v>
-      </c>
-      <c r="K21" s="72">
-        <f>0.71*G21+J21*0.7+H21*0.45+I21*2.25*0.3</f>
-        <v>13.960250000000009</v>
-      </c>
-      <c r="L21" s="302">
-        <f>K21/B21</f>
-        <v>0.63455681818181864</v>
-      </c>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>81</v>
-      </c>
-      <c r="D22" s="68">
-        <f>B22*C22/(B$20*C$20)</f>
-        <v>7.3217975206611566E-2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F22" s="81">
-        <v>-37.995041322314044</v>
-      </c>
       <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
+      <c r="N22" s="74"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C23">
-        <v>89</v>
-      </c>
-      <c r="D23" s="68">
-        <f>B23*C23/(B$20*C$20)</f>
-        <v>1.0573347107438016</v>
+        <v>88</v>
+      </c>
+      <c r="D23">
+        <f>B23*C23/(B$23*C$23)</f>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>381</v>
-      </c>
-      <c r="F23" s="81">
-        <v>-620.59214876033002</v>
+        <v>379</v>
       </c>
       <c r="J23" s="51"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="73"/>
       <c r="L23" s="51"/>
       <c r="M23" s="51"/>
-      <c r="N23" s="73"/>
+      <c r="N23" s="51"/>
     </row>
     <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D24" s="69">
+        <f>B24*C24/(B$23*C$23)</f>
+        <v>0.19573863636363639</v>
+      </c>
+      <c r="E24" t="s">
+        <v>380</v>
+      </c>
+      <c r="F24" s="82">
+        <v>-110.52727272727275</v>
+      </c>
       <c r="J24" s="51"/>
-      <c r="K24" s="72"/>
+      <c r="K24" s="73"/>
       <c r="L24" s="51"/>
       <c r="M24" s="51"/>
       <c r="N24" s="51"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="B25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>81</v>
+      </c>
+      <c r="D25" s="69">
+        <f>B25*C25/(B$23*C$23)</f>
+        <v>7.3217975206611566E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="82">
+        <v>-37.995041322314044</v>
       </c>
       <c r="J25" s="51"/>
       <c r="K25" s="51"/>
@@ -20942,55 +20687,40 @@
       <c r="M25" s="51"/>
       <c r="N25" s="51"/>
     </row>
-    <row r="26" spans="1:14" ht="16" thickBot="1">
-      <c r="A26" s="147" t="s">
-        <v>515</v>
-      </c>
-      <c r="B26" s="298">
-        <f>Parameters!Q40</f>
-        <v>0.89</v>
-      </c>
-      <c r="C26" s="299">
-        <f>Parameters!M40*0.85+Parameters!L40*2.25*0.8+Parameters!N40*0.6</f>
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="D26" s="297"/>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26">
+        <v>92</v>
+      </c>
+      <c r="C26">
+        <v>89</v>
+      </c>
+      <c r="D26" s="69">
+        <f>B26*C26/(B$23*C$23)</f>
+        <v>1.0573347107438016</v>
+      </c>
+      <c r="E26" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="82">
+        <v>-620.59214876033047</v>
+      </c>
       <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
+      <c r="K26" s="73"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-    </row>
-    <row r="27" spans="1:14" ht="16" thickBot="1">
-      <c r="A27" s="147" t="s">
-        <v>516</v>
-      </c>
-      <c r="B27" s="298">
-        <f>Parameters!Q41</f>
-        <v>0.7</v>
-      </c>
-      <c r="C27" s="299">
-        <f>Parameters!M41*0.85+Parameters!L41*2.25*0.8+Parameters!N41*0.7</f>
-        <v>0.68149999999999999</v>
-      </c>
+      <c r="N26" s="74"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
+      <c r="K27" s="73"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51"/>
     </row>
-    <row r="28" spans="1:14" ht="16" thickBot="1">
-      <c r="A28" s="147" t="s">
-        <v>517</v>
-      </c>
-      <c r="B28" s="298">
-        <f>Parameters!Q42</f>
-        <v>0.2</v>
-      </c>
-      <c r="C28" s="299">
-        <f>Parameters!M42*0.85+Parameters!L42*2.25*0.8+Parameters!N42*0.6</f>
-        <v>0.6905</v>
-      </c>
+    <row r="28" spans="1:14">
       <c r="J28" s="51"/>
       <c r="K28" s="51"/>
       <c r="L28" s="51"/>
@@ -20998,104 +20728,74 @@
       <c r="N28" s="51"/>
     </row>
     <row r="29" spans="1:14" ht="16" thickBot="1">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="148" t="s">
+        <v>515</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+    </row>
+    <row r="30" spans="1:14" ht="16" thickBot="1">
+      <c r="A30" s="148" t="s">
+        <v>516</v>
+      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+    </row>
+    <row r="31" spans="1:14" ht="16" thickBot="1">
+      <c r="A31" s="148" t="s">
+        <v>517</v>
+      </c>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+    </row>
+    <row r="32" spans="1:14" ht="16" thickBot="1">
+      <c r="A32" s="148" t="s">
         <v>518</v>
       </c>
-      <c r="B29" s="298">
-        <f>Parameters!Q43</f>
-        <v>0.7</v>
-      </c>
-      <c r="C29" s="299">
-        <f>Parameters!M43*0.85+Parameters!L43*2.25*0.8+Parameters!N43*0.6</f>
-        <v>0.57699999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="16" thickBot="1">
-      <c r="A30" s="147" t="s">
+    </row>
+    <row r="33" spans="1:1" ht="16" thickBot="1">
+      <c r="A33" s="148" t="s">
         <v>519</v>
       </c>
-      <c r="B30" s="298">
-        <f>Parameters!Q44</f>
-        <v>0.8</v>
-      </c>
-      <c r="C30" s="299">
-        <f>Parameters!M44*0.85+Parameters!L44*2.25*0.8+Parameters!N44*0.6</f>
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="16" thickBot="1">
-      <c r="A31" s="147" t="s">
+    </row>
+    <row r="34" spans="1:1" ht="16" thickBot="1">
+      <c r="A34" s="148" t="s">
         <v>669</v>
       </c>
-      <c r="B31" s="298">
-        <f>Parameters!Q45</f>
-        <v>0.65</v>
-      </c>
-      <c r="C31" s="299">
-        <f>Parameters!M45*0.85+Parameters!L45*2.25*0.8+Parameters!N45*0.6</f>
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="16" thickBot="1">
-      <c r="A32" s="147" t="s">
+    </row>
+    <row r="35" spans="1:1" ht="16" thickBot="1">
+      <c r="A35" s="148" t="s">
         <v>521</v>
       </c>
-      <c r="B32" s="298">
-        <f>Parameters!Q46</f>
-        <v>0.8</v>
-      </c>
-      <c r="C32" s="299">
-        <f>Parameters!M46*0.85+Parameters!L46*2.25*0.8+Parameters!N46*0.6</f>
-        <v>0.62149999999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" thickBot="1">
-      <c r="A33" s="147" t="s">
+    </row>
+    <row r="36" spans="1:1" ht="16" thickBot="1">
+      <c r="A36" s="148" t="s">
         <v>522</v>
       </c>
-      <c r="B33" s="298">
-        <f>Parameters!Q47</f>
-        <v>0.51</v>
-      </c>
-      <c r="C33" s="299">
-        <f>Parameters!M47*0.85+Parameters!L47*2.25*0.8+Parameters!N47*0.6</f>
-        <v>0.62750000000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" thickBot="1">
-      <c r="A34" s="147" t="s">
+    </row>
+    <row r="37" spans="1:1" ht="16" thickBot="1">
+      <c r="A37" s="148" t="s">
         <v>523</v>
       </c>
-      <c r="B34" s="298">
-        <f>Parameters!Q48</f>
-        <v>0.74</v>
-      </c>
-      <c r="C34" s="299">
-        <f>Parameters!M48*0.85+Parameters!L48*2.25*0.8+Parameters!N48*0.6</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" thickBot="1">
-      <c r="A35" s="148" t="s">
+    </row>
+    <row r="38" spans="1:1" ht="16" thickBot="1">
+      <c r="A38" s="149" t="s">
         <v>524</v>
       </c>
-      <c r="B35" s="298">
-        <f>Parameters!Q49</f>
-        <v>0.93</v>
-      </c>
-      <c r="C35" s="299">
-        <f>Parameters!M49*0.85+Parameters!L49*2.25*0.8+Parameters!N49*0.6</f>
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" thickTop="1">
-      <c r="C36" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1003</v>
-      </c>
-    </row>
+    </row>
+    <row r="39" spans="1:1" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -21112,7 +20812,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21131,10 +20831,10 @@
       <c r="B1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="207" t="s">
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
@@ -21158,7 +20858,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="110" t="s">
+      <c r="T1" s="111" t="s">
         <v>445</v>
       </c>
     </row>
@@ -21166,8 +20866,8 @@
       <c r="A2" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
@@ -21193,7 +20893,7 @@
       <c r="G4">
         <v>-1225</v>
       </c>
-      <c r="H4" s="258" t="s">
+      <c r="H4" s="259" t="s">
         <v>751</v>
       </c>
       <c r="I4" t="s">
@@ -21213,7 +20913,7 @@
       <c r="G5">
         <v>6.8</v>
       </c>
-      <c r="H5" s="258" t="s">
+      <c r="H5" s="259" t="s">
         <v>748</v>
       </c>
       <c r="I5">
@@ -21233,7 +20933,7 @@
       <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6" s="258" t="s">
+      <c r="H6" s="259" t="s">
         <v>749</v>
       </c>
       <c r="I6" t="s">
@@ -21254,10 +20954,10 @@
         <f>-1081*1.1</f>
         <v>-1189.1000000000001</v>
       </c>
-      <c r="H7" s="258" t="s">
+      <c r="H7" s="259" t="s">
         <v>750</v>
       </c>
-      <c r="I7" s="257" t="s">
+      <c r="I7" s="258" t="s">
         <v>754</v>
       </c>
       <c r="J7" t="s">
@@ -21329,10 +21029,10 @@
         <v>770</v>
       </c>
       <c r="D2" s="56"/>
-      <c r="E2" s="69">
+      <c r="E2" s="70">
         <v>6</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="97">
         <v>-177</v>
       </c>
       <c r="G2" s="56" t="s">
@@ -21353,7 +21053,7 @@
       <c r="E3" s="57">
         <v>7</v>
       </c>
-      <c r="F3" s="95">
+      <c r="F3" s="96">
         <v>7</v>
       </c>
       <c r="G3" s="56" t="s">
@@ -21374,7 +21074,7 @@
       <c r="E4" s="57">
         <v>8.25</v>
       </c>
-      <c r="F4" s="97"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="56" t="s">
         <v>55</v>
       </c>
@@ -21393,7 +21093,7 @@
         <v>-620.59214876033047</v>
       </c>
       <c r="E5" s="56"/>
-      <c r="F5" s="96">
+      <c r="F5" s="97">
         <v>-479</v>
       </c>
       <c r="G5" s="56" t="s">
@@ -21404,7 +21104,7 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="57"/>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
@@ -21413,7 +21113,7 @@
       <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="69"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -21423,40 +21123,40 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="55"/>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="70" t="s">
         <v>417</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="70" t="s">
         <v>412</v>
       </c>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="F46" s="69" t="s">
+      <c r="F46" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="G46" s="69" t="s">
+      <c r="G46" s="70" t="s">
         <v>411</v>
       </c>
       <c r="H46" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="I46" s="69" t="s">
+      <c r="I46" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="J46" s="69" t="s">
+      <c r="J46" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="K46" s="69" t="s">
+      <c r="K46" s="70" t="s">
         <v>419</v>
       </c>
-      <c r="L46" s="69" t="s">
+      <c r="L46" s="70" t="s">
         <v>418</v>
       </c>
-      <c r="M46" s="69" t="s">
+      <c r="M46" s="70" t="s">
         <v>420</v>
       </c>
     </row>
@@ -21466,7 +21166,7 @@
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
-      <c r="D47" s="69">
+      <c r="D47" s="70">
         <f>F2-E2</f>
         <v>-183</v>
       </c>
@@ -21482,11 +21182,11 @@
         <f>C2-E2</f>
         <v>764</v>
       </c>
-      <c r="H47" s="101">
+      <c r="H47" s="102">
         <f>F2-C2</f>
         <v>-947</v>
       </c>
-      <c r="I47" s="101">
+      <c r="I47" s="102">
         <f>C2-F2</f>
         <v>947</v>
       </c>
@@ -21499,7 +21199,7 @@
       <c r="A48" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="70">
+      <c r="B48" s="71">
         <f>E3-D3</f>
         <v>44.995041322314044</v>
       </c>
@@ -21507,19 +21207,19 @@
         <f>D3-E3</f>
         <v>-44.995041322314044</v>
       </c>
-      <c r="D48" s="101">
+      <c r="D48" s="102">
         <f>H86-G86</f>
         <v>0</v>
       </c>
-      <c r="E48" s="101">
+      <c r="E48" s="102">
         <f>G86-H86</f>
         <v>0</v>
       </c>
       <c r="F48" s="57"/>
       <c r="G48" s="55"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="70">
+      <c r="H48" s="102"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="71">
         <f>F3-D3</f>
         <v>44.995041322314044</v>
       </c>
@@ -21542,12 +21242,12 @@
         <f>D4-E4</f>
         <v>-118.77727272727275</v>
       </c>
-      <c r="D49" s="101"/>
+      <c r="D49" s="102"/>
       <c r="E49" s="55"/>
       <c r="F49" s="55"/>
       <c r="G49" s="55"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="69"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="70"/>
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
       <c r="L49" s="55"/>
@@ -21559,15 +21259,15 @@
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
-      <c r="D50" s="69"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="55"/>
       <c r="F50" s="55"/>
       <c r="G50" s="55"/>
-      <c r="H50" s="101">
+      <c r="H50" s="102">
         <f>F5-C5</f>
         <v>-2403</v>
       </c>
-      <c r="I50" s="101">
+      <c r="I50" s="102">
         <f>C5-F5</f>
         <v>2403</v>
       </c>
@@ -21699,7 +21399,7 @@
       <c r="D93">
         <v>68.900000000000006</v>
       </c>
-      <c r="E93" s="68">
+      <c r="E93" s="69">
         <v>0.19573863636363639</v>
       </c>
       <c r="F93" t="s">
@@ -21716,7 +21416,7 @@
       <c r="D94">
         <v>81</v>
       </c>
-      <c r="E94" s="68">
+      <c r="E94" s="69">
         <v>7.3217975206611566E-2</v>
       </c>
       <c r="F94" t="s">
@@ -21733,7 +21433,7 @@
       <c r="D95">
         <v>89</v>
       </c>
-      <c r="E95" s="68">
+      <c r="E95" s="69">
         <v>1.0573347107438016</v>
       </c>
       <c r="F95" t="s">

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="120" windowWidth="26800" windowHeight="14700" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="260" yWindow="120" windowWidth="26800" windowHeight="14700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="1008">
   <si>
     <t>Hauling</t>
   </si>
@@ -2223,13 +2223,6 @@
     <t xml:space="preserve"> Fruergaard et al. (2009)</t>
   </si>
   <si>
-    <t>Boldrin, 2009 (Smith et al. 2001, Recycled
-Organics Unit 2003, Komilis &amp; Ham 2004, EC 2006, Fisher
-2006, USEPA 2006, Kranert &amp; Gottschall 2007, Boldrin et al.
-2009a), but in most cases a consumption around 3 L tonne–1 ww
-is reported</t>
-  </si>
-  <si>
     <t>GREET 2014</t>
   </si>
   <si>
@@ -3315,6 +3308,70 @@
   </si>
   <si>
     <t>may be high?</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>kg corn/kg fw</t>
+  </si>
+  <si>
+    <t>% loss</t>
+  </si>
+  <si>
+    <t>AF shrinkage</t>
+  </si>
+  <si>
+    <t>AF_loss</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Displacement</t>
+  </si>
+  <si>
+    <t>3.3L Brown et al.</t>
+  </si>
+  <si>
+    <t>Boldrin, 2009 (Smith et al. 2001) 3.3L Brown et al.
+Organics Unit 2003, Komilis &amp; Ham 2004, EC 2006, Fisher
+2006, USEPA 2006, Kranert &amp; Gottschall 2007, Boldrin et al.
+2009a), but in most cases a consumption around 3 L tonne–1 ww
+is reported</t>
+  </si>
+  <si>
+    <t>Electricity use</t>
+  </si>
+  <si>
+    <t>Compost_electpert</t>
+  </si>
+  <si>
+    <t>less for open more for closed reactors</t>
+  </si>
+  <si>
+    <t>Boldrin, 2009 kWh/t</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Diesel fuel for grinding</t>
+  </si>
+  <si>
+    <t>AD_Dieselpert</t>
   </si>
 </sst>
 </file>
@@ -3713,7 +3770,7 @@
       <name val="DINMittelschrift-Alternate"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3786,6 +3843,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4044,7 +4119,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="453">
+  <cellStyleXfs count="469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4498,8 +4573,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4829,7 +4920,6 @@
     <xf numFmtId="43" fontId="15" fillId="10" borderId="0" xfId="15" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="170" fontId="38" fillId="4" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -4951,9 +5041,22 @@
     <xf numFmtId="43" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="453">
+  <cellStyles count="469">
     <cellStyle name="Bad 2" xfId="17"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="18"/>
@@ -5177,6 +5280,14 @@
     <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="19"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -5398,6 +5509,14 @@
     <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="21"/>
@@ -5732,11 +5851,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2109805800"/>
-        <c:axId val="2109802488"/>
+        <c:axId val="2078278536"/>
+        <c:axId val="2078424088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109805800"/>
+        <c:axId val="2078278536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,7 +5865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109802488"/>
+        <c:crossAx val="2078424088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5754,7 +5873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109802488"/>
+        <c:axId val="2078424088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5765,7 +5884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109805800"/>
+        <c:crossAx val="2078278536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6247,11 +6366,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2132882008"/>
-        <c:axId val="2132879016"/>
+        <c:axId val="-2140512872"/>
+        <c:axId val="2078381064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2132882008"/>
+        <c:axId val="-2140512872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6261,7 +6380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132879016"/>
+        <c:crossAx val="2078381064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6269,7 +6388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132879016"/>
+        <c:axId val="2078381064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6298,7 +6417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132882008"/>
+        <c:crossAx val="-2140512872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7350,11 +7469,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="2136473288"/>
-        <c:axId val="2136476104"/>
+        <c:axId val="-2114358552"/>
+        <c:axId val="-2114355736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136473288"/>
+        <c:axId val="-2114358552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7374,7 +7493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136476104"/>
+        <c:crossAx val="-2114355736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7382,7 +7501,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136476104"/>
+        <c:axId val="-2114355736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7411,7 +7530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136473288"/>
+        <c:crossAx val="-2114358552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7947,7 +8066,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>14</v>
@@ -7967,47 +8086,47 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C2" s="196">
         <f>J66</f>
         <v>0.44445499769952745</v>
       </c>
       <c r="F2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B3" t="s">
         <v>664</v>
-      </c>
-      <c r="B3" t="s">
-        <v>665</v>
       </c>
       <c r="C3" s="196">
         <f>J65</f>
         <v>0.53090857076072773</v>
       </c>
       <c r="F3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C4" s="196">
         <f>J67</f>
         <v>0.77143668844394409</v>
       </c>
       <c r="F4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8022,7 +8141,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -8043,7 +8162,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="23" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -8071,10 +8190,10 @@
     </row>
     <row r="8" spans="1:20" s="47" customFormat="1">
       <c r="A8" s="116" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C8" s="198" t="s">
         <v>465</v>
@@ -8092,7 +8211,7 @@
     </row>
     <row r="9" spans="1:20" s="47" customFormat="1">
       <c r="A9" s="116" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B9" s="105"/>
       <c r="C9" s="198"/>
@@ -8107,7 +8226,7 @@
         <v>459</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C10" s="198"/>
       <c r="D10" s="121">
@@ -8132,7 +8251,7 @@
         <v>461</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C11" s="198"/>
       <c r="D11" s="121">
@@ -8157,7 +8276,7 @@
         <v>460</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C12" s="195"/>
       <c r="D12" s="122">
@@ -8183,12 +8302,12 @@
       <c r="A13" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C13" s="271">
+      <c r="C13" s="270">
         <f>SUM(D10:D12)</f>
         <v>2.7204943424399999</v>
       </c>
       <c r="E13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -8215,7 +8334,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="43" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="197"/>
@@ -8243,7 +8362,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>117</v>
@@ -8263,7 +8382,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>117</v>
@@ -8324,20 +8443,20 @@
     <row r="23" spans="1:19">
       <c r="A23" s="1"/>
       <c r="R23" s="69" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="44" customFormat="1">
       <c r="A24" s="45" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="37" thickBot="1">
       <c r="A25" s="158" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B25" s="158" t="s">
         <v>406</v>
@@ -8382,23 +8501,23 @@
         <v>533</v>
       </c>
       <c r="P25" s="164" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q25" s="164" t="s">
         <v>955</v>
       </c>
-      <c r="Q25" s="164" t="s">
-        <v>956</v>
-      </c>
       <c r="R25" s="167" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A26" s="148" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B26" s="151"/>
       <c r="C26" s="154"/>
       <c r="D26" s="148"/>
-      <c r="E26" s="257"/>
+      <c r="E26" s="256"/>
       <c r="F26" s="154"/>
       <c r="G26" s="148"/>
       <c r="H26" s="151"/>
@@ -8409,12 +8528,12 @@
       <c r="M26" s="148"/>
       <c r="N26" s="151"/>
       <c r="O26" s="154"/>
-      <c r="P26" s="286"/>
-      <c r="Q26" s="286"/>
+      <c r="P26" s="285"/>
+      <c r="Q26" s="285"/>
     </row>
     <row r="27" spans="1:19" ht="16" thickBot="1">
       <c r="A27" s="148" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B27" s="151">
         <v>0.3</v>
@@ -8426,24 +8545,24 @@
         <f>C27*B27</f>
         <v>0.27</v>
       </c>
-      <c r="E27" s="257">
+      <c r="E27" s="256">
         <f>F27/D27</f>
         <v>334.11111111111109</v>
       </c>
-      <c r="F27" s="251">
+      <c r="F27" s="250">
         <f>H27*B27</f>
         <v>90.21</v>
       </c>
-      <c r="G27" s="274">
+      <c r="G27" s="273">
         <v>9000</v>
       </c>
-      <c r="H27" s="257">
+      <c r="H27" s="256">
         <v>300.7</v>
       </c>
-      <c r="I27" s="251">
+      <c r="I27" s="250">
         <v>0.14399999999999999</v>
       </c>
-      <c r="J27" s="256">
+      <c r="J27" s="255">
         <f>(Parameters!C3*Parameters!M27+Parameters!L27*Parameters!C4+Parameters!N27*Parameters!C2)*1000*B27</f>
         <v>145.73955722402675</v>
       </c>
@@ -8460,8 +8579,8 @@
       <c r="O27" s="154">
         <v>0.84099999999999997</v>
       </c>
-      <c r="P27" s="296"/>
-      <c r="Q27" s="286"/>
+      <c r="P27" s="295"/>
+      <c r="Q27" s="285"/>
       <c r="R27" t="s">
         <v>471</v>
       </c>
@@ -8471,19 +8590,19 @@
         <v>641</v>
       </c>
       <c r="B28" s="151" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C28" s="154"/>
       <c r="D28" s="148" t="s">
-        <v>671</v>
-      </c>
-      <c r="E28" s="257"/>
-      <c r="F28" s="251"/>
+        <v>670</v>
+      </c>
+      <c r="E28" s="256"/>
+      <c r="F28" s="250"/>
       <c r="G28" s="148" t="s">
         <v>540</v>
       </c>
       <c r="H28" s="151" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I28" s="154"/>
       <c r="J28" s="148" t="s">
@@ -8494,10 +8613,10 @@
       <c r="M28" s="159"/>
       <c r="N28" s="151"/>
       <c r="O28" s="154" t="s">
-        <v>821</v>
-      </c>
-      <c r="P28" s="286"/>
-      <c r="Q28" s="286"/>
+        <v>820</v>
+      </c>
+      <c r="P28" s="285"/>
+      <c r="Q28" s="285"/>
     </row>
     <row r="29" spans="1:19" ht="16" thickBot="1">
       <c r="A29" s="148" t="s">
@@ -8506,37 +8625,37 @@
       <c r="B29" s="151"/>
       <c r="C29" s="154"/>
       <c r="D29" s="148"/>
-      <c r="E29" s="257"/>
-      <c r="F29" s="251"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="250"/>
       <c r="G29" s="148"/>
       <c r="H29" s="151"/>
       <c r="I29" s="154"/>
       <c r="J29" s="148" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K29" s="151"/>
       <c r="L29" s="154" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M29" s="159" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N29" s="151" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O29" s="154" t="s">
-        <v>667</v>
-      </c>
-      <c r="P29" s="286"/>
-      <c r="Q29" s="286"/>
+        <v>666</v>
+      </c>
+      <c r="P29" s="285"/>
+      <c r="Q29" s="285"/>
     </row>
     <row r="30" spans="1:19" ht="16" thickBot="1">
       <c r="A30" s="148"/>
       <c r="B30" s="151"/>
       <c r="C30" s="154"/>
       <c r="D30" s="148"/>
-      <c r="E30" s="257"/>
-      <c r="F30" s="251"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="250"/>
       <c r="G30" s="148"/>
       <c r="H30" s="151"/>
       <c r="I30" s="154"/>
@@ -8548,16 +8667,16 @@
       <c r="M30" s="188"/>
       <c r="N30" s="151"/>
       <c r="O30" s="154"/>
-      <c r="P30" s="286"/>
-      <c r="Q30" s="286"/>
+      <c r="P30" s="285"/>
+      <c r="Q30" s="285"/>
     </row>
     <row r="31" spans="1:19" ht="16" thickBot="1">
       <c r="A31" s="148"/>
       <c r="B31" s="151"/>
       <c r="C31" s="154"/>
       <c r="D31" s="148"/>
-      <c r="E31" s="257"/>
-      <c r="F31" s="251"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="250"/>
       <c r="G31" s="148"/>
       <c r="H31" s="151"/>
       <c r="I31" s="154"/>
@@ -8570,39 +8689,39 @@
       <c r="M31" s="159"/>
       <c r="N31" s="151"/>
       <c r="O31" s="154"/>
-      <c r="P31" s="286"/>
-      <c r="Q31" s="286"/>
+      <c r="P31" s="285"/>
+      <c r="Q31" s="285"/>
     </row>
     <row r="32" spans="1:19" ht="16" thickBot="1">
       <c r="A32" s="148"/>
       <c r="B32" s="151"/>
       <c r="C32" s="154"/>
       <c r="D32" s="148"/>
-      <c r="E32" s="257"/>
-      <c r="F32" s="251"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="250"/>
       <c r="G32" s="148"/>
       <c r="H32" s="151"/>
       <c r="I32" s="154"/>
       <c r="J32" s="148" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K32" s="151"/>
       <c r="L32" s="154"/>
       <c r="M32" s="159"/>
       <c r="N32" s="151"/>
       <c r="O32" s="154"/>
-      <c r="P32" s="286"/>
-      <c r="Q32" s="286"/>
+      <c r="P32" s="285"/>
+      <c r="Q32" s="285"/>
     </row>
     <row r="33" spans="1:22" ht="16" thickBot="1">
       <c r="A33" s="148" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B33" s="151"/>
       <c r="C33" s="154"/>
       <c r="D33" s="148"/>
-      <c r="E33" s="257"/>
-      <c r="F33" s="251"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="250"/>
       <c r="G33" s="148"/>
       <c r="H33" s="151"/>
       <c r="I33" s="154"/>
@@ -8612,8 +8731,8 @@
       <c r="M33" s="188"/>
       <c r="N33" s="151"/>
       <c r="O33" s="154"/>
-      <c r="P33" s="286"/>
-      <c r="Q33" s="286"/>
+      <c r="P33" s="285"/>
+      <c r="Q33" s="285"/>
     </row>
     <row r="34" spans="1:22" ht="16" thickBot="1">
       <c r="A34" s="148" t="s">
@@ -8629,10 +8748,10 @@
       <c r="D34" s="148">
         <v>0.17</v>
       </c>
-      <c r="E34" s="257">
+      <c r="E34" s="256">
         <v>887</v>
       </c>
-      <c r="F34" s="251">
+      <c r="F34" s="250">
         <v>150.79</v>
       </c>
       <c r="G34" s="148">
@@ -8647,8 +8766,8 @@
       <c r="M34" s="159"/>
       <c r="N34" s="151"/>
       <c r="O34" s="154"/>
-      <c r="P34" s="286"/>
-      <c r="Q34" s="286"/>
+      <c r="P34" s="285"/>
+      <c r="Q34" s="285"/>
       <c r="R34" s="100" t="s">
         <v>156</v>
       </c>
@@ -8668,10 +8787,10 @@
       <c r="D35" s="149">
         <v>0.05</v>
       </c>
-      <c r="E35" s="275">
+      <c r="E35" s="274">
         <v>300</v>
       </c>
-      <c r="F35" s="252">
+      <c r="F35" s="251">
         <v>15</v>
       </c>
       <c r="G35" s="149">
@@ -8694,24 +8813,24 @@
         <v>0.67123287671232879</v>
       </c>
       <c r="O35" s="155"/>
-      <c r="P35" s="286"/>
-      <c r="Q35" s="286"/>
+      <c r="P35" s="285"/>
+      <c r="Q35" s="285"/>
       <c r="R35" s="24" t="s">
         <v>52</v>
       </c>
       <c r="V35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" thickTop="1" thickBot="1">
       <c r="A36" s="148" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B36" s="151"/>
       <c r="C36" s="154"/>
       <c r="D36" s="148"/>
-      <c r="E36" s="257"/>
-      <c r="F36" s="251"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="250"/>
       <c r="G36" s="148"/>
       <c r="H36" s="151"/>
       <c r="I36" s="154"/>
@@ -8721,19 +8840,19 @@
       <c r="M36" s="188"/>
       <c r="N36" s="151"/>
       <c r="O36" s="154"/>
-      <c r="P36" s="286"/>
-      <c r="Q36" s="286"/>
+      <c r="P36" s="285"/>
+      <c r="Q36" s="285"/>
       <c r="R36" s="24"/>
     </row>
     <row r="37" spans="1:22" ht="16" thickBot="1">
       <c r="A37" s="148" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B37" s="151"/>
       <c r="C37" s="154"/>
       <c r="D37" s="148"/>
-      <c r="E37" s="257"/>
-      <c r="F37" s="251"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="250"/>
       <c r="G37" s="148"/>
       <c r="H37" s="151"/>
       <c r="I37" s="154"/>
@@ -8743,8 +8862,8 @@
       <c r="M37" s="159"/>
       <c r="N37" s="151"/>
       <c r="O37" s="154"/>
-      <c r="P37" s="286"/>
-      <c r="Q37" s="286"/>
+      <c r="P37" s="285"/>
+      <c r="Q37" s="285"/>
       <c r="R37" s="24"/>
     </row>
     <row r="38" spans="1:22" ht="16" thickBot="1">
@@ -8762,7 +8881,7 @@
         <f>B38*C38</f>
         <v>0.74399999999999999</v>
       </c>
-      <c r="E38" s="257"/>
+      <c r="E38" s="256"/>
       <c r="F38" s="154"/>
       <c r="G38" s="148">
         <v>1100</v>
@@ -8784,32 +8903,32 @@
         <v>0.75268817204301086</v>
       </c>
       <c r="O38" s="154"/>
-      <c r="P38" s="286"/>
-      <c r="Q38" s="286"/>
+      <c r="P38" s="285"/>
+      <c r="Q38" s="285"/>
       <c r="R38" t="s">
         <v>421</v>
       </c>
       <c r="S38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="16" thickBot="1">
-      <c r="A39" s="247" t="s">
-        <v>733</v>
-      </c>
-      <c r="B39" s="248"/>
-      <c r="C39" s="248"/>
-      <c r="D39" s="248"/>
-      <c r="H39" s="249"/>
-      <c r="I39" s="249"/>
-      <c r="J39" s="249"/>
+      <c r="A39" s="246" t="s">
+        <v>732</v>
+      </c>
+      <c r="B39" s="247"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="247"/>
+      <c r="H39" s="248"/>
+      <c r="I39" s="248"/>
+      <c r="J39" s="248"/>
       <c r="K39" s="59"/>
       <c r="L39" s="59"/>
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
-      <c r="P39" s="287"/>
-      <c r="Q39" s="287"/>
+      <c r="P39" s="286"/>
+      <c r="Q39" s="286"/>
       <c r="R39" s="24"/>
     </row>
     <row r="40" spans="1:22" ht="16" thickBot="1">
@@ -8825,11 +8944,11 @@
       <c r="D40" s="157">
         <v>0.88900000000000001</v>
       </c>
-      <c r="E40" s="250">
+      <c r="E40" s="249">
         <v>465.3046875</v>
       </c>
-      <c r="F40" s="250"/>
-      <c r="G40" s="253">
+      <c r="F40" s="249"/>
+      <c r="G40" s="252">
         <v>14656.000000000002</v>
       </c>
       <c r="K40" s="159">
@@ -8841,20 +8960,20 @@
       <c r="M40" s="188">
         <v>0.1</v>
       </c>
-      <c r="N40" s="260">
+      <c r="N40" s="259">
         <v>0.76</v>
       </c>
-      <c r="O40" s="263">
+      <c r="O40" s="262">
         <v>0.94</v>
       </c>
-      <c r="P40" s="288">
+      <c r="P40" s="287">
         <v>1400</v>
       </c>
-      <c r="Q40" s="288">
+      <c r="Q40" s="287">
         <v>1200</v>
       </c>
       <c r="R40" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="16" thickBot="1">
@@ -8870,11 +8989,11 @@
       <c r="D41" s="154">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E41" s="251">
+      <c r="E41" s="250">
         <v>435.97247406272294</v>
       </c>
-      <c r="F41" s="251"/>
-      <c r="G41" s="254">
+      <c r="F41" s="250"/>
+      <c r="G41" s="253">
         <v>2520</v>
       </c>
       <c r="K41" s="159">
@@ -8886,20 +9005,20 @@
       <c r="M41" s="159">
         <v>0.15</v>
       </c>
-      <c r="N41" s="261">
+      <c r="N41" s="260">
         <v>0.74</v>
       </c>
-      <c r="O41" s="264">
+      <c r="O41" s="263">
         <v>0.98179823692937196</v>
       </c>
-      <c r="P41" s="288">
+      <c r="P41" s="287">
         <v>1380</v>
       </c>
-      <c r="Q41" s="288">
+      <c r="Q41" s="287">
         <v>370</v>
       </c>
       <c r="R41" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="16" thickBot="1">
@@ -8915,11 +9034,11 @@
       <c r="D42" s="154">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E42" s="251">
+      <c r="E42" s="250">
         <v>365.25479597205384</v>
       </c>
-      <c r="F42" s="251"/>
-      <c r="G42" s="254">
+      <c r="F42" s="250"/>
+      <c r="G42" s="253">
         <v>7969.6</v>
       </c>
       <c r="K42" s="159">
@@ -8931,22 +9050,22 @@
       <c r="M42" s="159">
         <v>0.17</v>
       </c>
-      <c r="N42" s="261">
+      <c r="N42" s="260">
         <v>0.79</v>
       </c>
-      <c r="O42" s="264">
+      <c r="O42" s="263">
         <v>0.79927679923149053</v>
       </c>
-      <c r="P42" s="290">
+      <c r="P42" s="289">
         <f>G42*0.36/2</f>
         <v>1434.528</v>
       </c>
-      <c r="Q42" s="290">
+      <c r="Q42" s="289">
         <f>G42*0.67/2</f>
         <v>2669.8160000000003</v>
       </c>
       <c r="R42" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="16" thickBot="1">
@@ -8962,11 +9081,11 @@
       <c r="D43" s="154">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E43" s="251">
+      <c r="E43" s="250">
         <v>418.04822619567631</v>
       </c>
-      <c r="F43" s="251"/>
-      <c r="G43" s="254">
+      <c r="F43" s="250"/>
+      <c r="G43" s="253">
         <v>1232</v>
       </c>
       <c r="K43" s="159">
@@ -8978,20 +9097,20 @@
       <c r="M43" s="159">
         <v>0.1</v>
       </c>
-      <c r="N43" s="261">
+      <c r="N43" s="260">
         <v>0.82</v>
       </c>
-      <c r="O43" s="264">
+      <c r="O43" s="263">
         <v>0.97735385922437001</v>
       </c>
-      <c r="P43" s="288">
+      <c r="P43" s="287">
         <v>2315</v>
       </c>
-      <c r="Q43" s="288">
+      <c r="Q43" s="287">
         <v>330</v>
       </c>
       <c r="R43" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="16" thickBot="1">
@@ -9007,11 +9126,11 @@
       <c r="D44" s="154">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E44" s="251">
+      <c r="E44" s="250">
         <v>483.41632472315138</v>
       </c>
-      <c r="F44" s="251"/>
-      <c r="G44" s="254">
+      <c r="F44" s="250"/>
+      <c r="G44" s="253">
         <v>13420.8</v>
       </c>
       <c r="K44" s="159">
@@ -9023,17 +9142,17 @@
       <c r="M44" s="159">
         <v>0.18</v>
       </c>
-      <c r="N44" s="261">
+      <c r="N44" s="260">
         <v>0.61</v>
       </c>
-      <c r="O44" s="264">
+      <c r="O44" s="263">
         <v>0.877478471550592</v>
       </c>
-      <c r="P44" s="288">
+      <c r="P44" s="287">
         <f>8000*0.4</f>
         <v>3200</v>
       </c>
-      <c r="Q44" s="288">
+      <c r="Q44" s="287">
         <f>3000*0.4</f>
         <v>1200</v>
       </c>
@@ -9043,7 +9162,7 @@
     </row>
     <row r="45" spans="1:22" ht="16" thickBot="1">
       <c r="A45" s="148" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B45" s="151">
         <v>0.14299999999999999</v>
@@ -9054,11 +9173,11 @@
       <c r="D45" s="154">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E45" s="251">
+      <c r="E45" s="250">
         <v>252.28816838661476</v>
       </c>
-      <c r="F45" s="251"/>
-      <c r="G45" s="254">
+      <c r="F45" s="250"/>
+      <c r="G45" s="253">
         <v>457.59999999999997</v>
       </c>
       <c r="K45" s="159">
@@ -9070,20 +9189,20 @@
       <c r="M45" s="159">
         <v>0.02</v>
       </c>
-      <c r="N45" s="261">
+      <c r="N45" s="260">
         <v>0.82</v>
       </c>
-      <c r="O45" s="264">
+      <c r="O45" s="263">
         <v>0.56096498593100275</v>
       </c>
-      <c r="P45" s="294">
+      <c r="P45" s="293">
         <v>1200</v>
       </c>
-      <c r="Q45" s="288">
+      <c r="Q45" s="287">
         <v>977</v>
       </c>
       <c r="R45" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="16" thickBot="1">
@@ -9099,11 +9218,11 @@
       <c r="D46" s="154">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E46" s="251">
+      <c r="E46" s="250">
         <v>361.81791351010088</v>
       </c>
-      <c r="F46" s="251"/>
-      <c r="G46" s="254">
+      <c r="F46" s="250"/>
+      <c r="G46" s="253">
         <v>16315.200000000003</v>
       </c>
       <c r="K46" s="159">
@@ -9115,20 +9234,20 @@
       <c r="M46" s="159">
         <v>0.11</v>
       </c>
-      <c r="N46" s="261">
+      <c r="N46" s="260">
         <v>0.82</v>
       </c>
-      <c r="O46" s="264">
+      <c r="O46" s="263">
         <v>0.82380040804253563</v>
       </c>
-      <c r="P46" s="292">
+      <c r="P46" s="291">
         <v>1170</v>
       </c>
-      <c r="Q46" s="292">
+      <c r="Q46" s="291">
         <v>740</v>
       </c>
       <c r="R46" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="16" thickBot="1">
@@ -9144,11 +9263,11 @@
       <c r="D47" s="154">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E47" s="251">
+      <c r="E47" s="250">
         <v>375.37065018315019</v>
       </c>
-      <c r="F47" s="251"/>
-      <c r="G47" s="254">
+      <c r="F47" s="250"/>
+      <c r="G47" s="253">
         <v>1398.3999999999999</v>
       </c>
       <c r="K47" s="159">
@@ -9160,20 +9279,20 @@
       <c r="M47" s="159">
         <v>0.23</v>
       </c>
-      <c r="N47" s="261">
+      <c r="N47" s="260">
         <v>0.66</v>
       </c>
-      <c r="O47" s="264">
+      <c r="O47" s="263">
         <v>0.90450759080277232</v>
       </c>
-      <c r="P47" s="289">
+      <c r="P47" s="288">
         <v>2300</v>
       </c>
-      <c r="Q47" s="289">
+      <c r="Q47" s="288">
         <v>300</v>
       </c>
       <c r="R47" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="16" thickBot="1">
@@ -9189,11 +9308,11 @@
       <c r="D48" s="154">
         <v>0.90400000000000003</v>
       </c>
-      <c r="E48" s="251">
+      <c r="E48" s="250">
         <v>318.40468414280525</v>
       </c>
-      <c r="F48" s="251"/>
-      <c r="G48" s="254">
+      <c r="F48" s="250"/>
+      <c r="G48" s="253">
         <v>17740.8</v>
       </c>
       <c r="K48" s="159">
@@ -9205,20 +9324,20 @@
       <c r="M48" s="159">
         <v>0.12</v>
       </c>
-      <c r="N48" s="261">
+      <c r="N48" s="260">
         <v>0.85</v>
       </c>
-      <c r="O48" s="264">
+      <c r="O48" s="263">
         <v>0.73736998705248713</v>
       </c>
-      <c r="P48" s="293">
+      <c r="P48" s="292">
         <v>2010</v>
       </c>
-      <c r="Q48" s="288">
+      <c r="Q48" s="287">
         <v>1630</v>
       </c>
       <c r="R48" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="16" thickBot="1">
@@ -9234,11 +9353,11 @@
       <c r="D49" s="155">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E49" s="252">
+      <c r="E49" s="251">
         <v>454.20873548774478</v>
       </c>
-      <c r="F49" s="252"/>
-      <c r="G49" s="255">
+      <c r="F49" s="251"/>
+      <c r="G49" s="254">
         <v>6921.6000000000013</v>
       </c>
       <c r="K49" s="160">
@@ -9250,20 +9369,20 @@
       <c r="M49" s="160">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N49" s="262">
+      <c r="N49" s="261">
         <v>0.79</v>
       </c>
-      <c r="O49" s="265">
+      <c r="O49" s="264">
         <v>0.99060618444367532</v>
       </c>
-      <c r="P49" s="288">
+      <c r="P49" s="287">
         <v>1500</v>
       </c>
-      <c r="Q49" s="291">
+      <c r="Q49" s="290">
         <v>1100</v>
       </c>
       <c r="R49" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="16" thickTop="1"/>
@@ -10324,7 +10443,7 @@
         <v>282</v>
       </c>
       <c r="F10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -11859,13 +11978,13 @@
       <c r="A68" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="297">
+      <c r="B68" s="309">
         <v>90</v>
       </c>
-      <c r="C68" s="297">
+      <c r="C68" s="309">
         <v>87</v>
       </c>
-      <c r="D68" s="297">
+      <c r="D68" s="309">
         <v>99</v>
       </c>
     </row>
@@ -11873,9 +11992,9 @@
       <c r="A69" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="B69" s="297"/>
-      <c r="C69" s="297"/>
-      <c r="D69" s="297"/>
+      <c r="B69" s="309"/>
+      <c r="C69" s="309"/>
+      <c r="D69" s="309"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="64" t="s">
@@ -12081,13 +12200,13 @@
         <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H3" t="s">
         <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12130,7 +12249,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G5">
         <v>1.8</v>
@@ -12202,24 +12321,24 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="59" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="59" t="s">
+        <v>979</v>
+      </c>
+      <c r="J9" s="59" t="s">
         <v>980</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="59" customFormat="1">
@@ -12234,43 +12353,43 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B16" t="s">
+        <v>958</v>
+      </c>
+      <c r="C16" t="s">
         <v>959</v>
       </c>
-      <c r="C16" t="s">
-        <v>960</v>
-      </c>
       <c r="D16" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F16" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>866</v>
-      </c>
-      <c r="C17" s="240" t="s">
-        <v>961</v>
+        <v>865</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>960</v>
       </c>
       <c r="E17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F18">
         <v>0.7</v>
@@ -12278,10 +12397,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>964</v>
+      </c>
+      <c r="E19" t="s">
         <v>965</v>
-      </c>
-      <c r="E19" t="s">
-        <v>966</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -12289,34 +12408,34 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>970</v>
-      </c>
-      <c r="C21" s="295">
+        <v>969</v>
+      </c>
+      <c r="C21" s="294">
         <v>0.08</v>
       </c>
       <c r="E21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="59" customFormat="1">
       <c r="A22" s="59" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>970</v>
-      </c>
-      <c r="C23" s="295">
+        <v>969</v>
+      </c>
+      <c r="C23" s="294">
         <v>0.08</v>
       </c>
       <c r="E23" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -12324,29 +12443,29 @@
         <v>540</v>
       </c>
       <c r="C24" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>970</v>
-      </c>
-      <c r="C26" s="295">
+        <v>969</v>
+      </c>
+      <c r="C26" s="294">
         <v>0.08</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -12379,1487 +12498,1690 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
-    <col min="9" max="9" width="76.1640625" customWidth="1"/>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="76.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:18">
+      <c r="D1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H1" t="s">
+        <v>762</v>
+      </c>
+      <c r="I1" t="s">
+        <v>842</v>
+      </c>
+      <c r="J1" t="s">
         <v>807</v>
       </c>
-      <c r="D1" t="s">
-        <v>823</v>
-      </c>
-      <c r="E1" t="s">
-        <v>763</v>
-      </c>
-      <c r="F1" t="s">
-        <v>843</v>
-      </c>
-      <c r="G1" t="s">
-        <v>808</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>762</v>
-      </c>
-      <c r="O1">
+      <c r="L1" t="s">
+        <v>761</v>
+      </c>
+      <c r="R1">
         <v>0.453592</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="59" customFormat="1">
-      <c r="A2" s="59" t="s">
-        <v>778</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>842</v>
+    <row r="2" spans="1:18" s="59" customFormat="1">
+      <c r="D2" s="59" t="s">
+        <v>777</v>
       </c>
       <c r="F2"/>
-      <c r="G2"/>
-      <c r="K2" s="59" t="s">
+      <c r="G2" t="s">
+        <v>841</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="N2" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="59" t="s">
-        <v>858</v>
-      </c>
-      <c r="N2"/>
       <c r="O2" s="59" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="str">
+        <v>857</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2" s="59" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D3" t="str">
         <f>Parameters!A7</f>
         <v>Provision of diesel</v>
       </c>
-      <c r="B3" t="str">
+      <c r="E3" t="str">
         <f>Parameters!B7</f>
         <v>kgCO2e/L diesel</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>808</v>
+      </c>
+      <c r="G3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H3">
+        <v>0.45</v>
+      </c>
+      <c r="I3">
+        <v>0.4</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>645</v>
+      </c>
+      <c r="N3" t="s">
+        <v>853</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>774</v>
+      </c>
+      <c r="E4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F4" t="s">
         <v>809</v>
       </c>
-      <c r="D3" t="s">
-        <v>763</v>
-      </c>
-      <c r="E3">
-        <v>0.45</v>
-      </c>
-      <c r="F3">
-        <v>0.4</v>
-      </c>
-      <c r="G3">
-        <v>0.5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>645</v>
-      </c>
-      <c r="K3" t="s">
-        <v>854</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="G4" t="s">
+        <v>762</v>
+      </c>
+      <c r="H4" s="69">
+        <v>2.7204943424399999</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>852</v>
+      </c>
+      <c r="M4" t="s">
         <v>855</v>
       </c>
-      <c r="N3" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>775</v>
-      </c>
-      <c r="B4" t="s">
-        <v>644</v>
-      </c>
-      <c r="C4" t="s">
-        <v>810</v>
-      </c>
-      <c r="D4" t="s">
-        <v>763</v>
-      </c>
-      <c r="E4" s="69">
-        <v>2.7204943424399999</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>853</v>
-      </c>
-      <c r="J4" t="s">
-        <v>856</v>
-      </c>
-      <c r="K4">
+      <c r="N4">
         <v>1180.6199999999999</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <f>45.59</f>
         <v>45.59</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>10.5</v>
       </c>
-      <c r="N4">
-        <f>K4*$O$1+L4/1000*$O$1*Parameters!$C$6+M4/1000*$O$1*Parameters!$C$5</f>
+      <c r="Q4">
+        <f>N4*$R$1+O4/1000*$R$1*Parameters!$C$6+P4/1000*$R$1*Parameters!$C$5</f>
         <v>537.36092603984002</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" s="306" customFormat="1">
       <c r="A5" t="s">
-        <v>776</v>
-      </c>
-      <c r="B5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D5" s="306" t="s">
+        <v>775</v>
+      </c>
+      <c r="E5" s="306" t="s">
+        <v>907</v>
+      </c>
+      <c r="F5" s="306" t="s">
+        <v>810</v>
+      </c>
+      <c r="G5" s="306" t="s">
+        <v>641</v>
+      </c>
+      <c r="H5" s="307">
+        <f>-Q5</f>
+        <v>-692.15220789071998</v>
+      </c>
+      <c r="I5" s="307">
+        <f>-Q6</f>
+        <v>-918.79198627000005</v>
+      </c>
+      <c r="J5" s="307">
+        <f>-Q7</f>
+        <v>-537.18234233351995</v>
+      </c>
+      <c r="M5" s="306" t="s">
+        <v>856</v>
+      </c>
+      <c r="N5" s="306">
+        <v>1520.2</v>
+      </c>
+      <c r="O5" s="306">
+        <v>31.27</v>
+      </c>
+      <c r="P5" s="306">
+        <v>18.34</v>
+      </c>
+      <c r="Q5" s="306">
+        <f>N5*$R$1+O5/1000*$R$1*Parameters!$C$6+P5/1000*$R$1*Parameters!$C$5</f>
+        <v>692.15220789071998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" hidden="1">
+      <c r="A6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>778</v>
+      </c>
+      <c r="E6" t="s">
+        <v>933</v>
+      </c>
+      <c r="F6" t="s">
+        <v>811</v>
+      </c>
+      <c r="G6" t="s">
+        <v>641</v>
+      </c>
+      <c r="H6">
+        <v>-6.8</v>
+      </c>
+      <c r="I6">
+        <v>-13</v>
+      </c>
+      <c r="J6">
+        <v>-4.7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>890</v>
+      </c>
+      <c r="L6" t="s">
+        <v>905</v>
+      </c>
+      <c r="M6" t="s">
+        <v>858</v>
+      </c>
+      <c r="N6">
+        <v>2014.87</v>
+      </c>
+      <c r="O6">
+        <v>56.1</v>
+      </c>
+      <c r="P6">
+        <v>34.53</v>
+      </c>
+      <c r="Q6">
+        <f>N6*$R$1+O6/1000*$R$1*Parameters!$C$6+P6/1000*$R$1*Parameters!$C$5</f>
+        <v>918.79198627000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="30" hidden="1">
+      <c r="A7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>802</v>
+      </c>
+      <c r="E7" t="s">
+        <v>933</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="G7" t="s">
+        <v>641</v>
+      </c>
+      <c r="H7">
+        <v>0.4</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <v>0.6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>876</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="M7" t="s">
+        <v>859</v>
+      </c>
+      <c r="N7">
+        <v>1181.7</v>
+      </c>
+      <c r="O7">
+        <v>20.12</v>
+      </c>
+      <c r="P7">
+        <v>7.63</v>
+      </c>
+      <c r="Q7">
+        <f>N7*$R$1+O7/1000*$R$1*Parameters!$C$6+P7/1000*$R$1*Parameters!$C$5</f>
+        <v>537.18234233351995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" hidden="1">
+      <c r="A8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>903</v>
+      </c>
+      <c r="E8" t="s">
+        <v>904</v>
+      </c>
+      <c r="F8" t="s">
+        <v>906</v>
+      </c>
+      <c r="G8" t="s">
+        <v>641</v>
+      </c>
+      <c r="H8" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="69">
+        <v>0.6</v>
+      </c>
+      <c r="K8" t="s">
         <v>908</v>
       </c>
-      <c r="C5" t="s">
-        <v>811</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="9" spans="1:18" hidden="1">
+      <c r="A9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>891</v>
+      </c>
+      <c r="F9" t="s">
+        <v>635</v>
+      </c>
+      <c r="G9" t="s">
+        <v>841</v>
+      </c>
+      <c r="H9">
+        <v>-1.8</v>
+      </c>
+      <c r="I9">
+        <v>0.52</v>
+      </c>
+      <c r="J9">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" hidden="1">
+      <c r="A10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>779</v>
+      </c>
+      <c r="F10" t="s">
+        <v>635</v>
+      </c>
+      <c r="G10" t="s">
+        <v>841</v>
+      </c>
+      <c r="H10">
+        <v>-0.96</v>
+      </c>
+      <c r="I10">
+        <v>0.38</v>
+      </c>
+      <c r="J10">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" hidden="1">
+      <c r="A11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>781</v>
+      </c>
+      <c r="E11" t="s">
+        <v>934</v>
+      </c>
+      <c r="F11" t="s">
+        <v>812</v>
+      </c>
+      <c r="G11" t="s">
         <v>641</v>
       </c>
-      <c r="E5" s="69">
-        <f>-N5</f>
-        <v>-692.15220789071998</v>
-      </c>
-      <c r="F5" s="69">
-        <f>-N6</f>
-        <v>-918.79198627000005</v>
-      </c>
-      <c r="G5" s="69">
-        <f>-N7</f>
-        <v>-537.18234233351995</v>
-      </c>
-      <c r="J5" t="s">
-        <v>857</v>
-      </c>
-      <c r="K5">
-        <v>1520.2</v>
-      </c>
-      <c r="L5">
-        <v>31.27</v>
-      </c>
-      <c r="M5">
-        <v>18.34</v>
-      </c>
-      <c r="N5">
-        <f>K5*$O$1+L5/1000*$O$1*Parameters!$C$6+M5/1000*$O$1*Parameters!$C$5</f>
-        <v>692.15220789071998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>779</v>
-      </c>
-      <c r="B6" t="s">
-        <v>934</v>
-      </c>
-      <c r="C6" t="s">
-        <v>812</v>
-      </c>
-      <c r="D6" t="s">
-        <v>641</v>
-      </c>
-      <c r="E6">
-        <v>-6.8</v>
-      </c>
-      <c r="F6">
-        <v>-13</v>
-      </c>
-      <c r="G6">
-        <v>-4.7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>891</v>
-      </c>
-      <c r="I6" t="s">
-        <v>906</v>
-      </c>
-      <c r="J6" t="s">
-        <v>859</v>
-      </c>
-      <c r="K6">
-        <v>2014.87</v>
-      </c>
-      <c r="L6">
-        <v>56.1</v>
-      </c>
-      <c r="M6">
-        <v>34.53</v>
-      </c>
-      <c r="N6">
-        <f>K6*$O$1+L6/1000*$O$1*Parameters!$C$6+M6/1000*$O$1*Parameters!$C$5</f>
-        <v>918.79198627000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="30">
-      <c r="A7" t="s">
-        <v>803</v>
-      </c>
-      <c r="B7" t="s">
-        <v>934</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>932</v>
-      </c>
-      <c r="D7" t="s">
-        <v>641</v>
-      </c>
-      <c r="E7">
-        <v>0.4</v>
-      </c>
-      <c r="F7">
-        <v>0.2</v>
-      </c>
-      <c r="G7">
-        <v>0.6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>877</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="J7" t="s">
-        <v>860</v>
-      </c>
-      <c r="K7">
-        <v>1181.7</v>
-      </c>
-      <c r="L7">
-        <v>20.12</v>
-      </c>
-      <c r="M7">
-        <v>7.63</v>
-      </c>
-      <c r="N7">
-        <f>K7*$O$1+L7/1000*$O$1*Parameters!$C$6+M7/1000*$O$1*Parameters!$C$5</f>
-        <v>537.18234233351995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>904</v>
-      </c>
-      <c r="B8" t="s">
-        <v>905</v>
-      </c>
-      <c r="C8" t="s">
-        <v>907</v>
-      </c>
-      <c r="D8" t="s">
-        <v>641</v>
-      </c>
-      <c r="E8" s="69">
-        <v>0.3</v>
-      </c>
-      <c r="F8" s="69">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="69">
-        <v>0.6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>892</v>
-      </c>
-      <c r="C9" t="s">
-        <v>635</v>
-      </c>
-      <c r="D9" t="s">
-        <v>842</v>
-      </c>
-      <c r="E9">
-        <v>-1.8</v>
-      </c>
-      <c r="F9">
-        <v>0.52</v>
-      </c>
-      <c r="G9">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>780</v>
-      </c>
-      <c r="C10" t="s">
-        <v>635</v>
-      </c>
-      <c r="D10" t="s">
-        <v>842</v>
-      </c>
-      <c r="E10">
-        <v>-0.96</v>
-      </c>
-      <c r="F10">
-        <v>0.38</v>
-      </c>
-      <c r="G10">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>782</v>
-      </c>
-      <c r="B11" t="s">
-        <v>935</v>
-      </c>
-      <c r="C11" t="s">
-        <v>813</v>
-      </c>
-      <c r="D11" t="s">
-        <v>641</v>
-      </c>
-      <c r="E11">
+      <c r="H11">
         <v>-388</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>-1197</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>-550</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="59" customFormat="1">
-      <c r="A12" s="59" t="s">
+    <row r="12" spans="1:18" s="59" customFormat="1">
+      <c r="D12" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="59" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="str">
+      <c r="G12" s="59" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D13" t="str">
         <f>'Landfill '!A3</f>
         <v xml:space="preserve">diesel use at landfill </v>
       </c>
-      <c r="B13" t="str">
+      <c r="E13" t="str">
         <f>'Landfill '!B3</f>
         <v>L/t</v>
       </c>
-      <c r="C13" t="s">
-        <v>814</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>813</v>
+      </c>
+      <c r="G13" t="s">
         <v>641</v>
       </c>
-      <c r="E13" s="69">
+      <c r="H13" s="69">
         <v>5.8295314000000005</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>10</v>
       </c>
-      <c r="H13" t="str">
+      <c r="K13" t="str">
         <f>'Landfill '!H3</f>
         <v>WARM v.13</v>
       </c>
-      <c r="I13" t="str">
+      <c r="L13" t="str">
         <f>'Landfill '!K3</f>
         <v>0.7 gal/1000lbs; high compared to 1–3 L diesel tonne–1 waste (Hunziker)</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="str">
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D14" t="str">
         <f>'Landfill '!A8</f>
         <v>Factor of oxidation</v>
       </c>
-      <c r="B14" t="str">
+      <c r="E14" t="str">
         <f>'Landfill '!B8</f>
         <v>%</v>
       </c>
-      <c r="C14" t="s">
-        <v>815</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>814</v>
+      </c>
+      <c r="G14" t="s">
         <v>641</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>0.1</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="G14">
-        <v>0.35</v>
-      </c>
-      <c r="H14" t="str">
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14" t="str">
         <f>'Landfill '!H8</f>
         <v xml:space="preserve">EPA biogenic </v>
       </c>
-      <c r="I14" t="str">
+      <c r="L14" t="str">
         <f>'Landfill '!K8</f>
         <v>Barlaz and Warm provide a schedule ranging from 10-35%, with 20% average)</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="44" customFormat="1">
-      <c r="A15" s="44" t="str">
+    <row r="15" spans="1:18" s="6" customFormat="1">
+      <c r="A15" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D15" s="6" t="str">
         <f>'Landfill '!A9</f>
         <v>Gas Capture factor (GC)</v>
       </c>
-      <c r="B15" s="44" t="str">
+      <c r="E15" s="6" t="str">
         <f>'Landfill '!B9</f>
         <v>%</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="F15" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>763</v>
-      </c>
-      <c r="E15" s="44">
+      <c r="G15" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="H15" s="6">
         <f>'Landfill '!E9</f>
         <v>1</v>
       </c>
-      <c r="F15" s="44">
+      <c r="I15" s="6">
         <v>0.85</v>
       </c>
-      <c r="G15" s="44">
+      <c r="J15" s="6">
         <v>0.9</v>
       </c>
-      <c r="H15" s="44" t="str">
+      <c r="K15" s="6" t="str">
         <f>'Landfill '!H9</f>
         <v>WARM</v>
       </c>
-      <c r="I15" s="44" t="str">
+      <c r="L15" s="6" t="str">
         <f>'Landfill '!K9</f>
         <v>not used:85  % Landfills in NYS  with GC recovery</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="str">
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D16" t="str">
         <f>'Landfill '!A22</f>
         <v>Heat rate of LF to E conversion</v>
       </c>
-      <c r="B16" t="str">
+      <c r="E16" t="str">
         <f>'Landfill '!B22</f>
         <v>btu/kwh</v>
       </c>
-      <c r="C16" t="s">
-        <v>817</v>
-      </c>
-      <c r="D16" t="s">
-        <v>763</v>
-      </c>
-      <c r="E16">
+      <c r="F16" t="s">
+        <v>816</v>
+      </c>
+      <c r="G16" t="s">
+        <v>762</v>
+      </c>
+      <c r="H16">
         <f>'Landfill '!E22</f>
         <v>11700</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>8979</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>13648</v>
       </c>
-      <c r="H16" t="str">
+      <c r="K16" t="str">
         <f>'Landfill '!H22</f>
         <v>EPA 2013</v>
       </c>
-      <c r="I16" t="str">
+      <c r="L16" t="str">
         <f>'Landfill '!K22</f>
         <v>29% efficiency based upon 3412 btu/kwh, 25%-38%</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>802</v>
-      </c>
-      <c r="B17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D17" t="s">
+        <v>801</v>
+      </c>
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>822</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>821</v>
+      </c>
+      <c r="G17" t="s">
         <v>641</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>0.85</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>0.8</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>0.9</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
+        <v>803</v>
+      </c>
+      <c r="L17" t="s">
         <v>804</v>
       </c>
-      <c r="I17" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>824</v>
-      </c>
-      <c r="B18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D18" t="s">
+        <v>823</v>
+      </c>
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>816</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>815</v>
+      </c>
+      <c r="G18" t="s">
         <v>641</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>0.9</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>0.85</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>0.95</v>
       </c>
-      <c r="H18" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="6" customFormat="1">
-      <c r="A19" s="6" t="s">
+      <c r="K18" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1">
+      <c r="A19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="E19" s="6" t="str">
         <f>'Landfill '!B15</f>
         <v>fraction</v>
       </c>
-      <c r="C19" t="s">
-        <v>820</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>819</v>
+      </c>
+      <c r="G19" t="s">
         <v>641</v>
       </c>
-      <c r="E19" s="6">
+      <c r="H19" s="6">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>0.7</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>1</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="I19" s="6" t="str">
+      <c r="K19" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="L19" s="6" t="str">
         <f>'Landfill '!K15</f>
         <v>not used at this time, assumed, 0.9 in CCARv. 2, could also be correction factor from Cho paper for bo to Lo</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:12" s="6" customFormat="1">
+      <c r="A20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="F20" t="s">
         <v>472</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>641</v>
       </c>
-      <c r="E20" s="6">
+      <c r="H20" s="6">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F20" s="69">
+      <c r="I20" s="69">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="59" customFormat="1">
-      <c r="A21" s="59" t="s">
-        <v>773</v>
-      </c>
+      <c r="K20" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="59" customFormat="1">
       <c r="D21" s="59" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="str">
+        <v>772</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="6" customFormat="1">
+      <c r="A22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="298" customFormat="1">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="298" t="str">
         <f>AD!A16</f>
         <v xml:space="preserve">Methane conversion factor </v>
       </c>
-      <c r="B22" t="str">
+      <c r="E23" s="298" t="str">
         <f>AD!B16</f>
         <v>%</v>
       </c>
-      <c r="C22" t="s">
-        <v>852</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F23" s="298" t="s">
+        <v>851</v>
+      </c>
+      <c r="G23" s="298" t="s">
         <v>641</v>
       </c>
-      <c r="E22">
-        <f>AD!E16</f>
+      <c r="H23" s="298">
         <v>0.84</v>
       </c>
-      <c r="F22">
+      <c r="I23" s="298">
         <v>0.7</v>
       </c>
-      <c r="G22">
+      <c r="J23" s="298">
         <v>1</v>
       </c>
-      <c r="H22" t="str">
+      <c r="K23" s="298" t="str">
         <f>AD!H16</f>
         <v>Ebner et al, 2014</v>
       </c>
-      <c r="I22" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="str">
+      <c r="L23" s="298" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="306" customFormat="1">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="306" t="str">
         <f>AD!A18</f>
         <v>Methane leaks</v>
       </c>
-      <c r="B23" t="str">
+      <c r="E24" s="306" t="str">
         <f>AD!B18</f>
         <v>% methane utilized</v>
       </c>
-      <c r="C23" t="s">
-        <v>825</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F24" s="306" t="s">
+        <v>824</v>
+      </c>
+      <c r="G24" s="306" t="s">
         <v>641</v>
       </c>
-      <c r="E23">
+      <c r="H24" s="306">
         <f>AD!E18</f>
         <v>0.03</v>
       </c>
-      <c r="F23">
+      <c r="I24" s="306">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="J24" s="306">
         <v>0.1</v>
       </c>
-      <c r="H23" t="str">
+      <c r="K24" s="306" t="str">
         <f>AD!H18</f>
         <v>Ebner et al., 2014</v>
       </c>
-      <c r="I23" t="str">
+      <c r="L24" s="306" t="str">
         <f>AD!J18</f>
         <v>3% of methane utilized</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="str">
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="str">
         <f>AD!A20</f>
         <v>Methane incomplete combustion factor</v>
       </c>
-      <c r="B24" t="str">
+      <c r="E25" t="str">
         <f>AD!B20</f>
         <v>% methane utilized</v>
       </c>
-      <c r="C24" t="s">
-        <v>826</v>
-      </c>
-      <c r="D24" t="s">
-        <v>763</v>
-      </c>
-      <c r="E24">
+      <c r="F25" t="s">
+        <v>825</v>
+      </c>
+      <c r="G25" t="s">
+        <v>762</v>
+      </c>
+      <c r="H25">
         <f>AD!E20</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H24" t="str">
+      <c r="K25" t="str">
         <f>AD!H20</f>
         <v>Dressler, 2012</v>
       </c>
-      <c r="I24" t="str">
+      <c r="L25" t="str">
         <f>AD!J20</f>
         <v>Hildesheim, Gottingen, Celle</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="12" customFormat="1">
-      <c r="A25" s="12" t="str">
+    <row r="26" spans="1:12" s="12" customFormat="1">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="12" t="str">
         <f>AD!A21</f>
         <v>Incomplete combustion CH4IC</v>
       </c>
-      <c r="B25" s="12" t="str">
+      <c r="E26" s="12" t="str">
         <f>AD!B21</f>
         <v>kgCO2e/t</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44" t="s">
-        <v>763</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44" t="s">
+        <v>762</v>
+      </c>
+      <c r="H26" s="12">
         <f>AD!C21</f>
         <v>7.1078263200000009</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="12">
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="12">
         <f>AD!D21</f>
         <v>0.378882</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="str">
+      <c r="L26" s="12" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="298" customFormat="1">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="298" t="str">
         <f>AD!A22</f>
         <v>Conversion Efficiency</v>
       </c>
-      <c r="B26" t="str">
+      <c r="E27" s="298" t="str">
         <f>AD!B22</f>
         <v>MWh/t</v>
       </c>
-      <c r="C26" t="s">
-        <v>827</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F27" s="298" t="s">
+        <v>826</v>
+      </c>
+      <c r="G27" s="298" t="s">
         <v>641</v>
       </c>
-      <c r="E26" s="69">
-        <f>AD!E22</f>
+      <c r="H27" s="305">
         <v>4.19318820416827</v>
       </c>
-      <c r="F26">
+      <c r="I27" s="298">
         <f>3.6</f>
         <v>3.6</v>
       </c>
-      <c r="G26" s="86">
+      <c r="J27" s="305">
         <f>4.5</f>
         <v>4.5</v>
       </c>
-      <c r="H26" t="str">
+      <c r="K27" s="298" t="str">
         <f>AD!H22</f>
         <v>Ebner et al, 2014</v>
       </c>
-      <c r="I26" t="str">
+      <c r="L27" s="298" t="str">
         <f>AD!J22</f>
         <v>KWh/m3 methane 43% efficiency, if 1m3= 9.8 KWh</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="str">
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="str">
         <f>AD!A24</f>
         <v>Parasitic load</v>
       </c>
-      <c r="B27" t="str">
+      <c r="E28" t="str">
         <f>AD!B24</f>
         <v>% KWh generated</v>
       </c>
-      <c r="C27" t="s">
-        <v>828</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F28" t="s">
+        <v>827</v>
+      </c>
+      <c r="G28" t="s">
         <v>641</v>
       </c>
-      <c r="E27">
-        <f>AD!E24</f>
+      <c r="H28">
         <v>0.12</v>
       </c>
-      <c r="F27">
+      <c r="I28">
         <v>0.1</v>
       </c>
-      <c r="G27">
+      <c r="J28">
         <v>0.2</v>
       </c>
-      <c r="H27" t="str">
+      <c r="K28" t="str">
         <f>AD!H24</f>
         <v>Ebner et al, 2015</v>
       </c>
-      <c r="I27" t="str">
+      <c r="L28" t="str">
         <f>AD!J24</f>
         <v>Parasitic load</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="str">
+    <row r="29" spans="1:12" s="298" customFormat="1">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="298" t="str">
         <f>AD!A30</f>
         <v>VS destruction</v>
       </c>
-      <c r="B28" t="str">
+      <c r="E29" s="298" t="str">
         <f>AD!B30</f>
         <v>%</v>
       </c>
-      <c r="C28" t="s">
-        <v>829</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F29" s="298" t="s">
+        <v>828</v>
+      </c>
+      <c r="G29" s="298" t="s">
         <v>641</v>
       </c>
-      <c r="E28">
-        <f>AD!E30</f>
+      <c r="H29" s="298">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F28">
+      <c r="I29" s="298">
         <v>0.4</v>
       </c>
-      <c r="G28">
+      <c r="J29" s="298">
         <v>0.7</v>
       </c>
-      <c r="H28" t="str">
+      <c r="K29" s="298" t="str">
         <f>AD!H30</f>
         <v>Ebner et al., 2014</v>
       </c>
-      <c r="I28" t="str">
+      <c r="L29" s="298" t="str">
         <f>AD!J30</f>
         <v>assuming a 55% reduction in VS</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="str">
+    <row r="30" spans="1:12" s="306" customFormat="1">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="306" t="str">
         <f>AD!A32</f>
         <v>Effluent residual methane factor</v>
       </c>
-      <c r="B29" t="str">
+      <c r="E30" s="306" t="str">
         <f>AD!B32</f>
         <v>m3CH4/kgVS</v>
       </c>
-      <c r="C29" t="s">
-        <v>830</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F30" s="306" t="s">
+        <v>829</v>
+      </c>
+      <c r="G30" s="306" t="s">
         <v>641</v>
       </c>
-      <c r="E29">
-        <f>AD!E32</f>
+      <c r="H30" s="306">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F29">
+      <c r="I30" s="306">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G29">
+      <c r="J30" s="306">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H29" t="str">
+      <c r="K30" s="306" t="str">
         <f>AD!H32</f>
         <v>Ebner et al., 2014</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="str">
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="str">
         <f>AD!A37</f>
         <v xml:space="preserve">Direct N2O emission factor </v>
       </c>
-      <c r="B30" t="str">
+      <c r="E31" t="str">
         <f>AD!B37</f>
         <v>kgCO2e/t</v>
       </c>
-      <c r="C30" t="s">
-        <v>831</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F31" t="s">
+        <v>830</v>
+      </c>
+      <c r="G31" t="s">
         <v>641</v>
       </c>
-      <c r="E30">
+      <c r="H31">
         <f>AD!E37</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F30">
-        <f>E30/2</f>
+      <c r="I31">
+        <f>H31/2</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G30">
-        <f>E30*2</f>
+      <c r="J31">
+        <f>H31*2</f>
         <v>0.01</v>
       </c>
-      <c r="H30" t="str">
+      <c r="K31" t="str">
         <f>AD!H37</f>
         <v>IPCC protocol, EF3=0.005</v>
       </c>
-      <c r="I30" t="str">
+      <c r="L31" t="str">
         <f>AD!I37</f>
         <v>assumes that N in is the same as N out adjusted for D losses</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="str">
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="str">
         <f>AD!A38</f>
         <v>Indirect N volitilization factor</v>
       </c>
-      <c r="B31" t="str">
+      <c r="E32" t="str">
         <f>AD!B38</f>
         <v>KgNvol/kg N</v>
       </c>
-      <c r="C31" t="s">
-        <v>832</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F32" t="s">
+        <v>831</v>
+      </c>
+      <c r="G32" t="s">
         <v>641</v>
       </c>
-      <c r="E31">
+      <c r="H32">
         <f>AD!E38</f>
         <v>0.26</v>
       </c>
-      <c r="F31">
+      <c r="I32">
         <v>0.05</v>
       </c>
-      <c r="G31">
+      <c r="J32">
         <v>0.5</v>
       </c>
-      <c r="H31" t="str">
+      <c r="K32" t="str">
         <f>AD!H38</f>
         <v>FracGASMS=0.26</v>
       </c>
-      <c r="I31">
+      <c r="L32">
         <f>AD!I38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="str">
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="str">
         <f>AD!A39</f>
         <v>Indirect N2O-N from NH3</v>
       </c>
-      <c r="B32" t="str">
+      <c r="E33" t="str">
         <f>AD!B39</f>
         <v>Kg N2O-N/kg N</v>
       </c>
-      <c r="C32" t="s">
-        <v>834</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F33" t="s">
+        <v>833</v>
+      </c>
+      <c r="G33" t="s">
         <v>641</v>
       </c>
-      <c r="E32">
+      <c r="H33">
         <f>AD!E39</f>
         <v>0.01</v>
       </c>
-      <c r="F32">
+      <c r="I33">
         <v>2E-3</v>
       </c>
-      <c r="G32">
+      <c r="J33">
         <v>0.05</v>
       </c>
-      <c r="H32" t="str">
+      <c r="K33" t="str">
         <f>AD!H39</f>
         <v>IPCC, EF4=0.01</v>
       </c>
-      <c r="I32" t="str">
+      <c r="L33" t="str">
         <f>AD!I39</f>
         <v>assumes that N is is the same as N out adjusted for D losses</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>768</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:12" s="298" customFormat="1">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="298" t="s">
+        <v>767</v>
+      </c>
+      <c r="E34" s="298" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>937</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F34" s="302" t="s">
+        <v>936</v>
+      </c>
+      <c r="G34" s="298" t="s">
         <v>641</v>
       </c>
-      <c r="E33">
+      <c r="H34" s="298">
         <v>0.4</v>
       </c>
-      <c r="F33">
+      <c r="I34" s="298">
         <v>0.15</v>
       </c>
-      <c r="G33">
+      <c r="J34" s="298">
         <v>0.48</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+    <row r="35" spans="1:12" s="298" customFormat="1">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="298" t="s">
+        <v>938</v>
+      </c>
+      <c r="F35" s="302" t="s">
         <v>939</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="G35" s="298" t="s">
         <v>641</v>
       </c>
-      <c r="E34">
+      <c r="H35" s="298">
         <v>10</v>
       </c>
-      <c r="F34">
+      <c r="I35" s="298">
         <v>10</v>
       </c>
-      <c r="G34">
+      <c r="J35" s="298">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="59" customFormat="1">
-      <c r="A35" s="59" t="s">
+    <row r="36" spans="1:12" s="59" customFormat="1">
+      <c r="D36" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="59" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>904</v>
-      </c>
-      <c r="B36" t="s">
-        <v>895</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>907</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="G36" s="59" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D37" t="s">
+        <v>903</v>
+      </c>
+      <c r="E37" t="s">
+        <v>894</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="G37" t="s">
         <v>641</v>
       </c>
-      <c r="E36" s="69">
+      <c r="H37" s="69">
         <v>0.3</v>
       </c>
-      <c r="F36" s="69">
+      <c r="I37" s="69">
         <v>0.3</v>
       </c>
-      <c r="G36" s="69">
+      <c r="J37" s="69">
         <v>0.6</v>
       </c>
-      <c r="H36" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="str">
+      <c r="K37" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D38" t="str">
         <f>'Land application'!A10</f>
         <v>Xport to field</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="C37" t="s">
-        <v>938</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="F38" t="s">
+        <v>937</v>
+      </c>
+      <c r="G38" t="s">
         <v>641</v>
       </c>
-      <c r="E37">
+      <c r="H38">
         <v>20</v>
       </c>
-      <c r="F37">
+      <c r="I38">
         <v>10</v>
       </c>
-      <c r="G37">
+      <c r="J38">
         <v>20</v>
       </c>
-      <c r="H37" t="s">
-        <v>866</v>
-      </c>
-      <c r="I37" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="str">
+      <c r="K38" t="s">
+        <v>865</v>
+      </c>
+      <c r="L38" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="308" customFormat="1">
+      <c r="A39" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D39" s="308" t="str">
         <f>'Land application'!A13</f>
         <v>Direct N2O emission factor</v>
       </c>
-      <c r="B38" t="str">
+      <c r="E39" s="308" t="str">
         <f>'Land application'!B13</f>
         <v>Kg N2O-N/kg N</v>
       </c>
-      <c r="C38" t="s">
-        <v>833</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F39" s="308" t="s">
+        <v>832</v>
+      </c>
+      <c r="G39" s="308" t="s">
         <v>641</v>
       </c>
-      <c r="E38">
+      <c r="H39" s="308">
         <f>'Land application'!E13</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F38">
+      <c r="I39" s="308">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G38">
+      <c r="J39" s="308">
         <v>0.05</v>
       </c>
-      <c r="H38" t="str">
+      <c r="K39" s="308" t="str">
         <f>'Land application'!H13</f>
         <v>IPCC EF1=0.0125</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>882</v>
-      </c>
-      <c r="B39" t="str">
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D40" t="s">
+        <v>881</v>
+      </c>
+      <c r="E40" t="str">
         <f>'Land application'!B16</f>
         <v>KgNvol/kg N</v>
       </c>
-      <c r="C39" t="s">
-        <v>835</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F40" t="s">
+        <v>834</v>
+      </c>
+      <c r="G40" t="s">
         <v>641</v>
       </c>
-      <c r="E39">
+      <c r="H40">
         <f>'Land application'!E16</f>
         <v>0.2</v>
       </c>
-      <c r="F39">
+      <c r="I40">
         <v>0.05</v>
       </c>
-      <c r="G39">
+      <c r="J40">
         <v>0.5</v>
       </c>
-      <c r="H39" t="str">
+      <c r="K40" t="str">
         <f>'Land application'!H16</f>
         <v>IPCC, FracGASM=0.20</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="str">
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D41" t="str">
         <f>'Land application'!A20</f>
         <v>Carbon storage factor</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E41" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>927</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="F41" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="G41" t="s">
         <v>641</v>
       </c>
-      <c r="E40">
+      <c r="H41">
         <v>0.2</v>
       </c>
-      <c r="F40">
+      <c r="I41">
         <v>0.15</v>
       </c>
-      <c r="G40">
+      <c r="J41">
         <v>0.48</v>
       </c>
-      <c r="H40" t="s">
-        <v>866</v>
-      </c>
-      <c r="I40" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>936</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>834</v>
-      </c>
-      <c r="D41" t="s">
-        <v>763</v>
-      </c>
-      <c r="E41">
+      <c r="K41" t="s">
+        <v>865</v>
+      </c>
+      <c r="L41" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D42" t="s">
+        <v>935</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="G42" t="s">
+        <v>762</v>
+      </c>
+      <c r="H42">
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="59" customFormat="1">
-      <c r="A42" s="59" t="s">
+    <row r="43" spans="1:12" s="59" customFormat="1">
+      <c r="D43" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="59" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>784</v>
-      </c>
-      <c r="B43" t="str">
+      <c r="G43" s="59" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D44" t="s">
+        <v>783</v>
+      </c>
+      <c r="E44" t="str">
         <f>compost!B13</f>
         <v>L/t</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>836</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="F44" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="G44" t="s">
         <v>641</v>
       </c>
-      <c r="E43">
+      <c r="H44">
         <v>3</v>
       </c>
-      <c r="F43">
+      <c r="I44">
         <v>0.4</v>
       </c>
-      <c r="G43">
+      <c r="J44">
         <v>6</v>
       </c>
-      <c r="H43" t="s">
+      <c r="K44" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D45" t="s">
+        <v>795</v>
+      </c>
+      <c r="E45" t="s">
         <v>796</v>
       </c>
-      <c r="B44" t="s">
-        <v>797</v>
-      </c>
-      <c r="C44" t="s">
-        <v>635</v>
-      </c>
-      <c r="D44" t="s">
-        <v>842</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="F45" t="s">
+        <v>998</v>
+      </c>
+      <c r="G45" t="s">
+        <v>641</v>
+      </c>
+      <c r="H45">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I45">
         <v>0.03</v>
       </c>
-      <c r="G44">
+      <c r="J45">
         <v>65</v>
       </c>
-      <c r="H44" t="s">
+      <c r="K45" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="13" customHeight="1">
-      <c r="A45" t="str">
+      <c r="L45" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="13" customHeight="1">
+      <c r="A46" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D46" t="str">
         <f>compost!A18</f>
         <v>carbon degraded</v>
       </c>
-      <c r="B45" t="str">
+      <c r="E46" t="str">
         <f>compost!B18</f>
         <v>%/initial C</v>
       </c>
-      <c r="C45" t="s">
+      <c r="F46" t="s">
+        <v>836</v>
+      </c>
+      <c r="G46" t="s">
+        <v>641</v>
+      </c>
+      <c r="H46">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I46">
+        <v>0.4</v>
+      </c>
+      <c r="J46">
+        <v>0.83</v>
+      </c>
+      <c r="K46" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D47" t="s">
+        <v>869</v>
+      </c>
+      <c r="E47" t="s">
+        <v>787</v>
+      </c>
+      <c r="F47" t="s">
         <v>837</v>
       </c>
-      <c r="D45" t="s">
+      <c r="G47" t="s">
         <v>641</v>
       </c>
-      <c r="E45">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F45">
-        <v>0.4</v>
-      </c>
-      <c r="G45">
-        <v>0.83</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="H47">
+        <v>0.02</v>
+      </c>
+      <c r="I47">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J47">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K47" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D48" t="s">
         <v>870</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E48" t="s">
         <v>788</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F48" t="s">
         <v>838</v>
       </c>
-      <c r="D46" t="s">
+      <c r="G48" t="s">
         <v>641</v>
       </c>
-      <c r="E46">
-        <v>0.02</v>
-      </c>
-      <c r="F46">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G46">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>871</v>
-      </c>
-      <c r="B47" t="s">
-        <v>789</v>
-      </c>
-      <c r="C47" t="s">
-        <v>839</v>
-      </c>
-      <c r="D47" t="s">
-        <v>641</v>
-      </c>
-      <c r="E47">
+      <c r="H48">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F47">
+      <c r="I48">
         <v>1E-3</v>
       </c>
-      <c r="G47">
+      <c r="J48">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H47" t="s">
-        <v>880</v>
-      </c>
-      <c r="I47" t="str">
+      <c r="K48" t="s">
+        <v>879</v>
+      </c>
+      <c r="L48" t="str">
         <f>compost!H20</f>
         <v xml:space="preserve">Boldrin, 2009 </v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D49" t="s">
+        <v>790</v>
+      </c>
+      <c r="E49" t="s">
         <v>791</v>
       </c>
-      <c r="B48" t="s">
+      <c r="F49" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="G49" t="s">
+        <v>641</v>
+      </c>
+      <c r="H49">
+        <v>0.7</v>
+      </c>
+      <c r="I49">
+        <v>0.25</v>
+      </c>
+      <c r="J49">
+        <v>0.9</v>
+      </c>
+      <c r="K49" t="s">
         <v>792</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>872</v>
-      </c>
-      <c r="D48" t="s">
-        <v>641</v>
-      </c>
-      <c r="E48">
-        <v>0.7</v>
-      </c>
-      <c r="F48">
-        <v>0.25</v>
-      </c>
-      <c r="G48">
-        <v>0.9</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="L49" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D50" t="s">
         <v>793</v>
       </c>
-      <c r="I48" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>794</v>
-      </c>
-      <c r="B49" t="str">
+      <c r="E50" t="str">
         <f>compost!B36</f>
         <v>%compost/fw</v>
       </c>
-      <c r="C49" t="s">
+      <c r="F50" t="s">
+        <v>839</v>
+      </c>
+      <c r="G50" t="s">
+        <v>762</v>
+      </c>
+      <c r="H50">
+        <v>0.4</v>
+      </c>
+      <c r="K50" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D51" t="s">
+        <v>794</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="D49" t="s">
-        <v>763</v>
-      </c>
-      <c r="E49">
-        <v>0.4</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G51" t="s">
+        <v>641</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D52" t="s">
+        <v>797</v>
+      </c>
+      <c r="E52" t="s">
+        <v>798</v>
+      </c>
+      <c r="F52" t="s">
+        <v>929</v>
+      </c>
+      <c r="G52" t="s">
+        <v>641</v>
+      </c>
+      <c r="H52">
+        <v>0.38</v>
+      </c>
+      <c r="I52">
+        <v>0.26</v>
+      </c>
+      <c r="J52">
+        <v>0.51</v>
+      </c>
+      <c r="K52" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>795</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="14" t="s">
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D53" t="s">
+        <v>699</v>
+      </c>
+      <c r="E53" t="s">
+        <v>883</v>
+      </c>
+      <c r="F53" t="s">
+        <v>887</v>
+      </c>
+      <c r="G53" t="s">
+        <v>762</v>
+      </c>
+      <c r="H53">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D54" t="s">
+        <v>880</v>
+      </c>
+      <c r="E54" t="s">
+        <v>884</v>
+      </c>
+      <c r="F54" t="s">
+        <v>882</v>
+      </c>
+      <c r="G54" t="s">
+        <v>762</v>
+      </c>
+      <c r="H54">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K54" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="59" customFormat="1">
+      <c r="D55" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="59" t="s">
         <v>841</v>
       </c>
-      <c r="D50" t="s">
-        <v>641</v>
-      </c>
-      <c r="E50">
-        <v>30</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>798</v>
-      </c>
-      <c r="B51" t="s">
-        <v>799</v>
-      </c>
-      <c r="C51" t="s">
-        <v>930</v>
-      </c>
-      <c r="D51" t="s">
-        <v>641</v>
-      </c>
-      <c r="E51">
-        <v>0.38</v>
-      </c>
-      <c r="F51">
-        <v>0.26</v>
-      </c>
-      <c r="G51">
-        <v>0.51</v>
-      </c>
-      <c r="H51" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>700</v>
-      </c>
-      <c r="B52" t="s">
-        <v>884</v>
-      </c>
-      <c r="C52" t="s">
-        <v>888</v>
-      </c>
-      <c r="D52" t="s">
-        <v>763</v>
-      </c>
-      <c r="E52">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H52" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>881</v>
-      </c>
-      <c r="B53" t="s">
-        <v>885</v>
-      </c>
-      <c r="C53" t="s">
-        <v>883</v>
-      </c>
-      <c r="D53" t="s">
-        <v>763</v>
-      </c>
-      <c r="E53">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H53" t="s">
-        <v>786</v>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D56" t="s">
+        <v>991</v>
+      </c>
+      <c r="E56" t="s">
+        <v>990</v>
+      </c>
+      <c r="F56" t="s">
+        <v>992</v>
+      </c>
+      <c r="G56" t="s">
+        <v>993</v>
+      </c>
+      <c r="H56">
+        <v>0.1</v>
+      </c>
+      <c r="I56">
+        <v>0.05</v>
+      </c>
+      <c r="J56">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -13877,7 +14199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD109"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -13913,13 +14235,13 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
@@ -13950,8 +14272,8 @@
       </c>
       <c r="D2" s="210"/>
       <c r="G2" s="54"/>
-      <c r="K2" s="268" t="s">
-        <v>865</v>
+      <c r="K2" s="267" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="47" customFormat="1">
@@ -13967,7 +14289,7 @@
       </c>
       <c r="D3" s="212"/>
       <c r="E3" s="225">
-        <f>Globalfactors.csv!E13</f>
+        <f>Globalfactors.csv!H13</f>
         <v>5.8295314000000005</v>
       </c>
       <c r="F3" s="118"/>
@@ -13975,11 +14297,11 @@
       <c r="H3" s="105" t="s">
         <v>484</v>
       </c>
-      <c r="I3" s="267">
+      <c r="I3" s="266">
         <v>42010</v>
       </c>
-      <c r="J3" s="266" t="s">
-        <v>764</v>
+      <c r="J3" s="265" t="s">
+        <v>763</v>
       </c>
       <c r="K3" s="105" t="s">
         <v>464</v>
@@ -13990,14 +14312,14 @@
         <v>588</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C4" s="213">
         <f>E3*G4</f>
         <v>15.859207192776333</v>
       </c>
       <c r="G4" s="194">
-        <f>Globalfactors.csv!E4</f>
+        <f>Globalfactors.csv!H4</f>
         <v>2.7204943424399999</v>
       </c>
       <c r="H4" s="111"/>
@@ -14018,7 +14340,7 @@
         <v>2.6232891300000003</v>
       </c>
       <c r="G5" s="195">
-        <f>Globalfactors.csv!E3</f>
+        <f>Globalfactors.csv!H3</f>
         <v>0.45</v>
       </c>
       <c r="H5" s="111" t="s">
@@ -14046,10 +14368,10 @@
       </c>
       <c r="H7" s="111"/>
       <c r="I7" s="111" t="s">
+        <v>650</v>
+      </c>
+      <c r="K7" s="111" t="s">
         <v>651</v>
-      </c>
-      <c r="K7" s="111" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -14060,16 +14382,16 @@
         <v>23</v>
       </c>
       <c r="E8" s="36">
-        <f>Globalfactors.csv!E14</f>
+        <f>Globalfactors.csv!H14</f>
         <v>0.1</v>
       </c>
       <c r="F8" s="200"/>
       <c r="H8" s="114" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I8" s="114"/>
       <c r="K8" s="27" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -14087,10 +14409,10 @@
         <v>119</v>
       </c>
       <c r="I9" s="114" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K9" s="206" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -14108,10 +14430,10 @@
         <v>119</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K10" s="193" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Y10" s="38" t="e">
         <f>#REF!*44/12</f>
@@ -14186,8 +14508,8 @@
       <c r="G15" s="36">
         <v>0.7</v>
       </c>
-      <c r="K15" s="269" t="s">
-        <v>772</v>
+      <c r="K15" s="268" t="s">
+        <v>771</v>
       </c>
       <c r="Q15" s="111"/>
     </row>
@@ -14255,7 +14577,7 @@
         <v>0.44377569147881474</v>
       </c>
       <c r="K19" s="111" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q19" s="111"/>
     </row>
@@ -14283,41 +14605,41 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="269" t="s">
-        <v>800</v>
-      </c>
-      <c r="B21" s="269" t="s">
+      <c r="A21" s="268" t="s">
+        <v>799</v>
+      </c>
+      <c r="B21" s="268" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="216"/>
       <c r="G21" s="195"/>
       <c r="H21" s="111"/>
       <c r="I21" s="111"/>
-      <c r="K21" s="269" t="s">
-        <v>801</v>
+      <c r="K21" s="268" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="206" t="s">
+        <v>677</v>
+      </c>
+      <c r="B22" s="206" t="s">
         <v>678</v>
-      </c>
-      <c r="B22" s="206" t="s">
-        <v>679</v>
       </c>
       <c r="D22" s="216"/>
       <c r="E22" s="195">
         <v>11700</v>
       </c>
       <c r="F22" s="195"/>
-      <c r="G22" s="269" t="s">
+      <c r="G22" s="268" t="s">
+        <v>768</v>
+      </c>
+      <c r="H22" s="268" t="s">
+        <v>770</v>
+      </c>
+      <c r="I22" s="111"/>
+      <c r="K22" s="268" t="s">
         <v>769</v>
-      </c>
-      <c r="H22" s="269" t="s">
-        <v>771</v>
-      </c>
-      <c r="I22" s="111"/>
-      <c r="K22" s="269" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -14332,7 +14654,7 @@
         <v>120.83466462444885</v>
       </c>
       <c r="I23" s="111"/>
-      <c r="K23" s="269" t="s">
+      <c r="K23" s="268" t="s">
         <v>483</v>
       </c>
     </row>
@@ -14376,15 +14698,15 @@
         <v>145.73955722402675</v>
       </c>
       <c r="J25" s="116" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K25" s="116" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="116" customFormat="1">
       <c r="A26" s="116" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B26" s="116" t="s">
         <v>23</v>
@@ -14396,22 +14718,22 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="J26" s="116" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K26" s="116" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="42" customFormat="1">
       <c r="A27" s="42" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C27" s="209"/>
       <c r="D27" s="209"/>
-      <c r="E27" s="278"/>
-      <c r="F27" s="279"/>
+      <c r="E27" s="277"/>
+      <c r="F27" s="278"/>
       <c r="J27" s="42" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K27" s="42" t="s">
         <v>635</v>
@@ -14430,31 +14752,31 @@
         <v>23.172589598620259</v>
       </c>
       <c r="F28" s="169"/>
-      <c r="G28" s="277"/>
-      <c r="H28" s="276"/>
-      <c r="I28" s="276"/>
+      <c r="G28" s="276"/>
+      <c r="H28" s="275"/>
+      <c r="I28" s="275"/>
       <c r="K28" s="116" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="269" t="s">
-        <v>768</v>
-      </c>
-      <c r="B29" s="269" t="s">
-        <v>850</v>
+      <c r="A29" s="268" t="s">
+        <v>767</v>
+      </c>
+      <c r="B29" s="268" t="s">
+        <v>849</v>
       </c>
       <c r="G29" s="195">
         <v>1</v>
       </c>
-      <c r="H29" s="282">
+      <c r="H29" s="281">
         <f>D28/0.3/1000</f>
         <v>7.7241965328734202E-2</v>
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
-      <c r="K29" s="269" t="s">
-        <v>851</v>
+      <c r="K29" s="268" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -14483,8 +14805,8 @@
       <c r="A34" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="270" t="s">
-        <v>722</v>
+      <c r="H34" s="269" t="s">
+        <v>721</v>
       </c>
       <c r="L34" s="37" t="s">
         <v>100</v>
@@ -17873,8 +18195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17902,13 +18224,13 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
@@ -18017,22 +18339,22 @@
     </row>
     <row r="10" spans="1:20" s="45" customFormat="1">
       <c r="A10" s="45" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>945</v>
-      </c>
-      <c r="C10" s="285">
-        <f>D13*(Globalfactors.csv!E4+Globalfactors.csv!E3)</f>
+        <v>944</v>
+      </c>
+      <c r="C10" s="284">
+        <f>D13*(Globalfactors.csv!H4+Globalfactors.csv!H3)</f>
         <v>8.4018100074660005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E11">
         <v>10.6</v>
@@ -18040,21 +18362,21 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E12">
         <v>0.25</v>
       </c>
       <c r="J12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B13" t="s">
         <v>463</v>
@@ -18062,6 +18384,9 @@
       <c r="D13">
         <f>E11*E12</f>
         <v>2.65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1">
@@ -18087,7 +18412,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>23</v>
@@ -18095,13 +18420,14 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="228">
+        <f>Globalfactors.csv!H23</f>
         <v>0.84</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>25</v>
@@ -18124,31 +18450,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:12" s="298" customFormat="1" ht="14" customHeight="1">
+      <c r="A18" s="302" t="s">
+        <v>692</v>
+      </c>
+      <c r="B18" s="302" t="s">
         <v>693</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="10">
+      <c r="C18" s="303"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="298">
         <v>0.03</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="298" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="I18" s="298" t="s">
+        <v>674</v>
+      </c>
+      <c r="J18" s="298" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="230" t="s">
-        <v>696</v>
+      <c r="A19" s="229" t="s">
+        <v>695</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>30</v>
@@ -18157,20 +18483,20 @@
         <f>D19*Parameters!C19*Parameters!C6</f>
         <v>42.646957919999991</v>
       </c>
-      <c r="D19" s="235">
+      <c r="D19" s="234">
         <f>D17*E18</f>
         <v>2.2732919999999996</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A20" s="230" t="s">
-        <v>695</v>
+      <c r="A20" s="229" t="s">
+        <v>694</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C20" s="89"/>
-      <c r="D20" s="235"/>
+      <c r="D20" s="234"/>
       <c r="E20" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -18185,7 +18511,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="230" t="s">
+      <c r="A21" s="229" t="s">
         <v>426</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -18195,45 +18521,46 @@
         <f>D21*Parameters!C19*Parameters!C6</f>
         <v>7.1078263200000009</v>
       </c>
-      <c r="D21" s="236">
+      <c r="D21" s="235">
         <f>D17*E20</f>
         <v>0.378882</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:12" s="298" customFormat="1">
+      <c r="A22" s="302" t="s">
         <v>392</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="302" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="229">
+      <c r="D22" s="305"/>
+      <c r="E22" s="305">
+        <f>Globalfactors.csv!H27</f>
         <v>4.19318820416827</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="298">
         <f>3.6</f>
         <v>3.6</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="305">
         <f>4.5</f>
         <v>4.5</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="298" t="s">
         <v>16</v>
       </c>
-      <c r="I22" t="s">
-        <v>864</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="I22" s="298" t="s">
         <v>863</v>
       </c>
+      <c r="J22" s="298" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="230" t="s">
+      <c r="A23" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="230" t="s">
+      <c r="B23" s="229" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="110">
@@ -18249,24 +18576,25 @@
         <v>2.3543133333333337</v>
       </c>
       <c r="J23" s="86" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K23">
         <v>35.314700000000002</v>
       </c>
       <c r="L23" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="230" t="s">
-        <v>676</v>
+      <c r="A24" s="229" t="s">
+        <v>675</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D24" s="110"/>
       <c r="E24" s="10">
+        <f>Globalfactors.csv!H28</f>
         <v>0.12</v>
       </c>
       <c r="G24" s="4"/>
@@ -18274,10 +18602,10 @@
         <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -18299,12 +18627,12 @@
       <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="237">
+      <c r="D26" s="236">
         <f>D25*G26</f>
         <v>-193.53637621343967</v>
       </c>
-      <c r="G26" s="25">
-        <f>Globalfactors.csv!E5</f>
+      <c r="G26" s="297">
+        <f>Globalfactors.csv!H5</f>
         <v>-692.15220789071998</v>
       </c>
       <c r="H26" t="s">
@@ -18313,12 +18641,12 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="234">
+      <c r="C27" s="233">
         <f>C19+C21+D26</f>
         <v>-143.78159197343967</v>
       </c>
@@ -18331,7 +18659,7 @@
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1">
       <c r="A29" s="88" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C29" s="89"/>
       <c r="F29" s="222">
@@ -18341,13 +18669,14 @@
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1">
       <c r="A30" s="46" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="89"/>
       <c r="E30" s="10">
+        <f>Globalfactors.csv!H29</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="F30" s="221"/>
@@ -18355,7 +18684,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>393</v>
@@ -18373,33 +18702,31 @@
         <v>121.49999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="6" customFormat="1">
-      <c r="A32" s="46" t="s">
-        <v>687</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="D32" s="223"/>
-      <c r="E32" s="10">
+    <row r="32" spans="1:12" s="298" customFormat="1">
+      <c r="A32" s="300" t="s">
+        <v>686</v>
+      </c>
+      <c r="B32" s="298" t="s">
+        <v>682</v>
+      </c>
+      <c r="D32" s="299"/>
+      <c r="E32" s="298">
+        <f>Globalfactors.csv!H30</f>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F32"/>
-      <c r="G32" s="4"/>
-      <c r="H32" t="s">
+      <c r="H32" s="298" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="61" t="s">
-        <v>719</v>
-      </c>
-      <c r="J32"/>
+      <c r="I32" s="301" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
+        <v>711</v>
+      </c>
+      <c r="B33" t="s">
         <v>712</v>
-      </c>
-      <c r="B33" t="s">
-        <v>713</v>
       </c>
       <c r="D33" s="90">
         <f>D31*E32</f>
@@ -18408,7 +18735,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -18450,7 +18777,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -18472,10 +18799,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="10">
@@ -18489,10 +18816,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B39" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E39" s="10">
         <f>0.01</f>
@@ -18508,7 +18835,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -18520,7 +18847,7 @@
     </row>
     <row r="41" spans="1:10" s="3" customFormat="1">
       <c r="A41" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
@@ -18538,68 +18865,68 @@
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1">
       <c r="A43" s="46" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="G43" s="270">
+        <f>Globalfactors.csv!H8</f>
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="G43" s="271">
-        <f>Globalfactors.csv!E8</f>
-        <v>0.3</v>
-      </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>896</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="233">
-        <f>Globalfactors.csv!E34</f>
+      <c r="E44" s="232">
+        <f>Globalfactors.csv!H35</f>
         <v>10</v>
       </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:10" s="6" customFormat="1">
       <c r="A45" s="46" t="s">
+        <v>900</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>901</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>902</v>
       </c>
       <c r="D45" s="6">
         <f>E44*G43</f>
         <v>3</v>
       </c>
-      <c r="E45" s="233"/>
+      <c r="E45" s="232"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
+    <row r="46" spans="1:10" s="298" customFormat="1">
+      <c r="A46" s="298" t="s">
+        <v>702</v>
+      </c>
+      <c r="B46" s="298" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="299">
+        <f>E44*G43*(Globalfactors.csv!H4+Globalfactors.csv!H3)</f>
+        <v>9.5114830273200006</v>
+      </c>
+      <c r="H46" s="298" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="298" t="s">
         <v>703</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="223">
-        <f>E44*G43*(Globalfactors.csv!E4+Globalfactors.csv!E3)</f>
-        <v>9.5114830273200006</v>
-      </c>
-      <c r="H46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -18626,16 +18953,17 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B48" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D48" s="9">
         <f>D47*Parameters!C$16*Parameters!$C$5/1000*E48</f>
         <v>20.842250000000003</v>
       </c>
       <c r="E48" s="10">
+        <f>Globalfactors.csv!H39</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H48" t="s">
@@ -18644,25 +18972,26 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B49" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="10">
+        <f>Globalfactors.csv!H40</f>
         <v>0.2</v>
       </c>
       <c r="H49" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B50" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D50" s="9">
         <f>E50*E49*D47*Parameters!C16*Parameters!C5/1000</f>
@@ -18673,7 +19002,7 @@
         <v>0.01</v>
       </c>
       <c r="H50" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -18690,7 +19019,7 @@
     </row>
     <row r="52" spans="1:11" s="3" customFormat="1">
       <c r="A52" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>30</v>
@@ -18711,7 +19040,7 @@
         <v>486</v>
       </c>
       <c r="B54" s="116" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C54" s="211"/>
       <c r="D54" s="211"/>
@@ -18720,21 +19049,21 @@
         <v>145.73955722402675</v>
       </c>
       <c r="H54" s="116" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I54" s="116" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J54" s="116" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="116" customFormat="1" ht="14">
       <c r="A55" s="116" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B55" s="116" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C55" s="211"/>
       <c r="D55" s="211"/>
@@ -18751,31 +19080,31 @@
       <c r="A56" s="116" t="s">
         <v>539</v>
       </c>
-      <c r="B56" s="231" t="s">
-        <v>709</v>
-      </c>
-      <c r="C56" s="234">
+      <c r="B56" s="230" t="s">
+        <v>708</v>
+      </c>
+      <c r="C56" s="233">
         <f>-D62*Parameters!C17</f>
         <v>-33.986464744643051</v>
       </c>
-      <c r="D56" s="283">
+      <c r="D56" s="282">
         <f>F54*(1-F55)</f>
         <v>23.172589598620259</v>
       </c>
       <c r="F56" s="169"/>
-      <c r="J56" s="266" t="s">
-        <v>923</v>
+      <c r="J56" s="265" t="s">
+        <v>922</v>
       </c>
       <c r="K56" s="190"/>
     </row>
     <row r="57" spans="1:11" s="47" customFormat="1">
       <c r="A57" s="116" t="s">
+        <v>913</v>
+      </c>
+      <c r="B57" s="265" t="s">
         <v>914</v>
       </c>
-      <c r="B57" s="266" t="s">
-        <v>915</v>
-      </c>
-      <c r="D57" s="234">
+      <c r="D57" s="233">
         <f>F15*0.7</f>
         <v>63.146999999999991</v>
       </c>
@@ -18785,10 +19114,10 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="116" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B58" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D58" s="21">
         <f>(D57)*12/16</f>
@@ -18797,25 +19126,25 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="116" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B59" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D59" s="21">
         <f>D57/0.6-D57</f>
         <v>42.097999999999999</v>
       </c>
       <c r="J59" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="116" t="s">
+        <v>920</v>
+      </c>
+      <c r="B60" t="s">
         <v>921</v>
-      </c>
-      <c r="B60" t="s">
-        <v>922</v>
       </c>
       <c r="D60" s="21">
         <f>D59*12/44</f>
@@ -18824,10 +19153,10 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="116" t="s">
+        <v>916</v>
+      </c>
+      <c r="B61" t="s">
         <v>917</v>
-      </c>
-      <c r="B61" t="s">
-        <v>918</v>
       </c>
       <c r="D61" s="86">
         <f>F54-D60-D58</f>
@@ -18837,7 +19166,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="116" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D62" s="86">
         <f>D56*(F62)</f>
@@ -18847,6 +19176,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="10">
+        <f>Globalfactors.csv!H34</f>
         <v>0.4</v>
       </c>
       <c r="G62" s="53">
@@ -18854,10 +19184,10 @@
         <v>0.10666565582440578</v>
       </c>
       <c r="I62" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J62" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="44" customFormat="1">
@@ -18865,8 +19195,8 @@
         <v>388</v>
       </c>
       <c r="C64" s="183">
-        <f>C27+C41+C52+C56</f>
-        <v>-3.2720036907627232</v>
+        <f>C27+C41+C52+C56+C10</f>
+        <v>5.1298063167032772</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="45" customFormat="1">
@@ -18918,7 +19248,7 @@
         <v>-8.3587504000000017</v>
       </c>
       <c r="G68" s="4">
-        <f>Globalfactors.csv!E6</f>
+        <f>Globalfactors.csv!H6</f>
         <v>-6.8</v>
       </c>
       <c r="I68" t="s">
@@ -18945,7 +19275,7 @@
     </row>
     <row r="70" spans="1:9" s="3" customFormat="1">
       <c r="A70" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>30</v>
@@ -18954,15 +19284,15 @@
         <f>D68+D69</f>
         <v>-14.996581600000003</v>
       </c>
-      <c r="D70" s="238"/>
+      <c r="D70" s="237"/>
     </row>
     <row r="71" spans="1:9" s="6" customFormat="1">
       <c r="A71" s="88" t="s">
-        <v>718</v>
-      </c>
-      <c r="C71" s="239">
+        <v>717</v>
+      </c>
+      <c r="C71" s="238">
         <f>C64+C70</f>
-        <v>-18.268585290762726</v>
+        <v>-9.8667752832967253</v>
       </c>
       <c r="D71" s="7"/>
     </row>
@@ -19038,13 +19368,13 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
@@ -19153,34 +19483,34 @@
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="284">
+      <c r="C7" s="283">
         <f>C10+C12</f>
         <v>52.836966054640001</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1">
       <c r="A8" s="46" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="C8" s="232"/>
-      <c r="E8" s="235">
-        <f>Globalfactors.csv!E8</f>
+        <v>894</v>
+      </c>
+      <c r="C8" s="231"/>
+      <c r="E8" s="234">
+        <f>Globalfactors.csv!H8</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1">
       <c r="A9" s="46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="232"/>
+      <c r="C9" s="231"/>
       <c r="E9" s="5">
-        <f>Globalfactors.csv!E37</f>
+        <f>Globalfactors.csv!H38</f>
         <v>20</v>
       </c>
     </row>
@@ -19192,11 +19522,11 @@
         <v>30</v>
       </c>
       <c r="C10" s="9">
-        <f>E9*E8*(Globalfactors.csv!E3+Globalfactors.csv!E4)</f>
+        <f>E9*E8*(Globalfactors.csv!H3+Globalfactors.csv!H4)</f>
         <v>19.022966054640001</v>
       </c>
-      <c r="G10" s="240" t="s">
-        <v>721</v>
+      <c r="G10" s="239" t="s">
+        <v>720</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
@@ -19232,10 +19562,10 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C13" s="18"/>
       <c r="E13" s="4">
@@ -19259,32 +19589,32 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="4">
         <v>0.01</v>
       </c>
       <c r="H15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10">
         <v>0.2</v>
       </c>
       <c r="H16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -19310,7 +19640,7 @@
         <v>486</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="211"/>
@@ -19319,18 +19649,18 @@
         <v>145.73955722402675</v>
       </c>
       <c r="H19" s="116" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I19" s="116" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J19" s="116" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="116" customFormat="1" ht="14">
       <c r="A20" s="116" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C20" s="211"/>
       <c r="D20" s="211"/>
@@ -19341,10 +19671,10 @@
     </row>
     <row r="21" spans="1:11" s="116" customFormat="1" ht="14">
       <c r="A21" s="116" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C21" s="211"/>
       <c r="D21" s="211"/>
@@ -19361,8 +19691,8 @@
       <c r="A22" s="116" t="s">
         <v>539</v>
       </c>
-      <c r="B22" s="231" t="s">
-        <v>709</v>
+      <c r="B22" s="230" t="s">
+        <v>708</v>
       </c>
       <c r="D22" s="211">
         <f>F19*(1-F21)</f>
@@ -19370,15 +19700,15 @@
       </c>
       <c r="F22" s="169"/>
       <c r="J22" s="203" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K22" s="190"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="116" t="s">
-        <v>919</v>
-      </c>
-      <c r="C23" s="234">
+        <v>918</v>
+      </c>
+      <c r="C23" s="233">
         <f>-D23*Parameters!C17</f>
         <v>-59.47631330312533</v>
       </c>
@@ -19390,7 +19720,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="10">
-        <f>Globalfactors.csv!E48</f>
+        <f>Globalfactors.csv!H49</f>
         <v>0.7</v>
       </c>
       <c r="G23" s="53">
@@ -19398,13 +19728,13 @@
         <v>0.11130000000000002</v>
       </c>
       <c r="H23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I23" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J23" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="44" customFormat="1">
@@ -19420,7 +19750,7 @@
       <c r="A25" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="242">
+      <c r="C25" s="241">
         <f>D29+D30</f>
         <v>-20.974240000000002</v>
       </c>
@@ -19432,7 +19762,7 @@
       <c r="B26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="241"/>
+      <c r="C26" s="240"/>
       <c r="D26" s="88"/>
       <c r="E26" s="88"/>
       <c r="F26" s="10">
@@ -19473,7 +19803,7 @@
         <v>1719.2</v>
       </c>
       <c r="F28" s="4">
-        <f>Globalfactors.csv!E7</f>
+        <f>Globalfactors.csv!H7</f>
         <v>0.4</v>
       </c>
       <c r="G28" s="94"/>
@@ -19539,7 +19869,7 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -19551,7 +19881,7 @@
         <v>0.75</v>
       </c>
       <c r="G32" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="44" customFormat="1">
@@ -19578,8 +19908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19601,13 +19931,13 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
@@ -19758,8 +20088,8 @@
         <v>582</v>
       </c>
       <c r="C12" s="40">
-        <f>C14</f>
-        <v>9.5114830273200006</v>
+        <f>C14+C15</f>
+        <v>9.523757207320001</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="46" customFormat="1">
@@ -19770,19 +20100,19 @@
         <v>463</v>
       </c>
       <c r="C13" s="109"/>
-      <c r="E13" s="272">
-        <f>Globalfactors.csv!E43</f>
+      <c r="E13" s="271">
+        <f>Globalfactors.csv!H44</f>
         <v>3</v>
       </c>
       <c r="H13" s="46" t="s">
         <v>540</v>
       </c>
       <c r="I13" s="46">
-        <f>Globalfactors.csv!F43</f>
+        <f>Globalfactors.csv!I44</f>
         <v>0.4</v>
       </c>
       <c r="J13" s="192" t="s">
-        <v>646</v>
+        <v>996</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="46" customFormat="1">
@@ -19808,7 +20138,23 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="46" customFormat="1">
-      <c r="C15" s="173"/>
+      <c r="A15" s="46" t="s">
+        <v>997</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="173">
+        <f>E15/1000*Parameters!C14</f>
+        <v>1.2274179999999999E-2</v>
+      </c>
+      <c r="E15" s="46">
+        <f>Globalfactors.csv!H45</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:20" s="13" customFormat="1">
       <c r="A16" s="13" t="s">
@@ -19839,7 +20185,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>601</v>
@@ -19850,31 +20196,31 @@
         <v>84.528943189935518</v>
       </c>
       <c r="E18" s="4">
-        <f>Globalfactors.csv!E45</f>
+        <f>Globalfactors.csv!H46</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="H18" t="s">
         <v>540</v>
       </c>
       <c r="I18">
-        <f>Globalfactors.csv!F45</f>
+        <f>Globalfactors.csv!I46</f>
         <v>0.4</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="177"/>
       <c r="E19" s="4">
-        <f>Globalfactors.csv!E46</f>
+        <f>Globalfactors.csv!H47</f>
         <v>0.02</v>
       </c>
       <c r="J19" s="6"/>
@@ -19884,10 +20230,10 @@
         <v>584</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="243">
+      <c r="D20" s="242">
         <f>D18*E19</f>
         <v>1.6905788637987105</v>
       </c>
@@ -19896,7 +20242,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -19915,7 +20261,7 @@
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1">
       <c r="A22" s="14" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>30</v>
@@ -19927,7 +20273,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="J22" s="14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -19945,7 +20291,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D24" s="176"/>
       <c r="F24" s="99"/>
@@ -19955,17 +20301,17 @@
         <v>628</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E25" s="4">
-        <f>Globalfactors.csv!E47</f>
+        <f>Globalfactors.csv!H48</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H25" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I25">
-        <f>Globalfactors.csv!F47</f>
+        <f>Globalfactors.csv!I48</f>
         <v>1E-3</v>
       </c>
       <c r="J25" t="s">
@@ -19988,7 +20334,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>30</v>
@@ -20049,7 +20395,7 @@
     </row>
     <row r="31" spans="1:11" s="6" customFormat="1">
       <c r="A31" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="86"/>
@@ -20060,19 +20406,19 @@
       <c r="E31" s="108"/>
       <c r="F31" s="108"/>
       <c r="J31" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K31" s="108"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D32" s="86">
         <f>F17*(1-F32)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F32" s="280">
+      <c r="F32" s="279">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
@@ -20081,7 +20427,7 @@
         <v>0.37857142857142867</v>
       </c>
       <c r="H32" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I32" s="104"/>
       <c r="J32" s="7" t="s">
@@ -20090,7 +20436,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="86"/>
@@ -20107,11 +20453,11 @@
         <v>7.5714285714285734E-2</v>
       </c>
       <c r="H33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I33" s="86"/>
       <c r="J33" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -20126,10 +20472,10 @@
         <v>-16.993232372321526</v>
       </c>
       <c r="D34" s="86"/>
-      <c r="F34" s="273"/>
+      <c r="F34" s="272"/>
       <c r="I34" s="168"/>
       <c r="J34" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="45" customFormat="1">
@@ -20179,7 +20525,7 @@
         <v>2.25</v>
       </c>
       <c r="F37" s="8">
-        <f>Globalfactors.csv!E50</f>
+        <f>Globalfactors.csv!H51</f>
         <v>30</v>
       </c>
       <c r="J37" t="s">
@@ -20198,11 +20544,11 @@
         <f>F23/1000*(1-E38)</f>
         <v>5.58</v>
       </c>
-      <c r="E38" s="272">
+      <c r="E38" s="271">
         <v>0.38</v>
       </c>
       <c r="H38" s="46" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J38" s="181" t="s">
         <v>612</v>
@@ -20216,24 +20562,24 @@
         <v>23</v>
       </c>
       <c r="E39" s="4">
-        <f>Globalfactors.csv!E52</f>
+        <f>Globalfactors.csv!H53</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H39" t="s">
         <v>540</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="281">
+      <c r="C40" s="280">
         <f>D40*Parameters!C16*Parameters!C5</f>
         <v>34.855071428571421</v>
       </c>
@@ -20244,23 +20590,23 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C41" s="86"/>
       <c r="D41" s="86"/>
       <c r="J41" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1">
-      <c r="A42" s="246" t="s">
-        <v>729</v>
-      </c>
-      <c r="C42" s="245">
+      <c r="A42" s="245" t="s">
+        <v>728</v>
+      </c>
+      <c r="C42" s="244">
         <f>C12+C16+C28+C35</f>
-        <v>111.47755204634079</v>
-      </c>
-      <c r="D42" s="245"/>
+        <v>111.4898262263408</v>
+      </c>
+      <c r="D42" s="244"/>
     </row>
     <row r="43" spans="1:10" s="45" customFormat="1">
       <c r="A43" s="171" t="s">
@@ -20277,7 +20623,7 @@
     </row>
     <row r="44" spans="1:10" s="46" customFormat="1">
       <c r="A44" s="14" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="5"/>
@@ -20299,7 +20645,7 @@
         <f>D38*F44</f>
         <v>2.2320000000000002</v>
       </c>
-      <c r="E45" s="244"/>
+      <c r="E45" s="243"/>
       <c r="J45" s="181"/>
     </row>
     <row r="46" spans="1:10" s="88" customFormat="1">
@@ -20316,7 +20662,7 @@
       <c r="D46" s="178"/>
       <c r="E46" s="179"/>
       <c r="G46" s="88">
-        <f>-Globalfactors.csv!E6</f>
+        <f>-Globalfactors.csv!H6</f>
         <v>6.8</v>
       </c>
       <c r="H46" s="88" t="s">
@@ -20436,10 +20782,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20447,7 +20793,7 @@
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="43"/>
       <c r="B1" s="43" t="s">
         <v>14</v>
@@ -20471,7 +20817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -20488,7 +20834,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20509,7 +20855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -20521,238 +20867,238 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="45" customFormat="1">
+    <row r="5" spans="1:10" s="45" customFormat="1">
       <c r="A5" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>944</v>
+      </c>
+      <c r="C5" s="284" t="e">
+        <f>D8*(Globalfactors.csv!#REF!+Globalfactors.csv!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>940</v>
+      </c>
+      <c r="B6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>943</v>
+      </c>
+      <c r="B7" t="s">
+        <v>941</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>942</v>
+      </c>
+      <c r="B8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D8">
+        <f>E6*E7</f>
+        <v>2.65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="45" customFormat="1">
+      <c r="A9" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="84">
-        <f>F10*E9</f>
-        <v>-625.9421487603305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="45" customFormat="1">
-      <c r="A6" s="45" t="s">
-        <v>986</v>
-      </c>
-      <c r="C6" s="84"/>
-    </row>
-    <row r="7" spans="1:8" s="88" customFormat="1">
-      <c r="A7" s="46" t="s">
+      <c r="C9" s="84">
+        <f>F16*E15*(1-C14)</f>
+        <v>-563.3479338842975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="45" customFormat="1">
+      <c r="A10" s="45" t="s">
+        <v>985</v>
+      </c>
+      <c r="C10" s="84"/>
+    </row>
+    <row r="11" spans="1:10" s="88" customFormat="1">
+      <c r="A11" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="241"/>
-    </row>
-    <row r="8" spans="1:8" s="88" customFormat="1">
-      <c r="A8" s="46" t="s">
+      <c r="C11" s="240"/>
+    </row>
+    <row r="12" spans="1:10" s="88" customFormat="1">
+      <c r="A12" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="C8" s="241"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="C12" s="240"/>
+    </row>
+    <row r="13" spans="1:10" s="45" customFormat="1">
+      <c r="A13" s="45" t="s">
+        <v>994</v>
+      </c>
+      <c r="C13" s="84"/>
+    </row>
+    <row r="14" spans="1:10" s="88" customFormat="1">
+      <c r="A14" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="296">
+        <f>Globalfactors.csv!H56</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>385</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="E9" s="106">
-        <f>D26</f>
+      <c r="B15" t="s">
+        <v>989</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="E15" s="106">
+        <f>D32</f>
         <v>1.0573347107438016</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>387</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="F10" s="4">
+      <c r="C16" s="82"/>
+      <c r="F16" s="4">
         <v>-592</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="44" customFormat="1">
-      <c r="A11" s="44" t="s">
+    <row r="17" spans="1:14" s="44" customFormat="1">
+      <c r="A17" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B17" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="85">
-        <f>C2+C5</f>
-        <v>-620.59214876033047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="17">
-      <c r="A21" s="68" t="s">
+      <c r="C17" s="85">
+        <f>C2+C9</f>
+        <v>-557.99793388429748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17">
+      <c r="A27" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="45">
-      <c r="B22" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="45">
+      <c r="B28" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="74"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>338</v>
-      </c>
-      <c r="B23">
-        <v>88</v>
-      </c>
-      <c r="C23">
-        <v>88</v>
-      </c>
-      <c r="D23">
-        <f>B23*C23/(B$23*C$23)</f>
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>379</v>
-      </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="D24" s="69">
-        <f>B24*C24/(B$23*C$23)</f>
-        <v>0.19573863636363639</v>
-      </c>
-      <c r="E24" t="s">
-        <v>380</v>
-      </c>
-      <c r="F24" s="82">
-        <v>-110.52727272727275</v>
-      </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>81</v>
-      </c>
-      <c r="D25" s="69">
-        <f>B25*C25/(B$23*C$23)</f>
-        <v>7.3217975206611566E-2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>382</v>
-      </c>
-      <c r="F25" s="82">
-        <v>-37.995041322314044</v>
-      </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>339</v>
-      </c>
-      <c r="B26">
-        <v>92</v>
-      </c>
-      <c r="C26">
-        <v>89</v>
-      </c>
-      <c r="D26" s="69">
-        <f>B26*C26/(B$23*C$23)</f>
-        <v>1.0573347107438016</v>
-      </c>
-      <c r="E26" t="s">
-        <v>381</v>
-      </c>
-      <c r="F26" s="82">
-        <v>-620.59214876033047</v>
-      </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="74"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="J27" s="51"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-    </row>
-    <row r="28" spans="1:14">
       <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="K28" s="73"/>
       <c r="L28" s="51"/>
       <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-    </row>
-    <row r="29" spans="1:14" ht="16" thickBot="1">
-      <c r="A29" s="148" t="s">
-        <v>515</v>
-      </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
+      <c r="N28" s="74"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>88</v>
+      </c>
+      <c r="D29">
+        <f>B29*C29/(B$29*C$29)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>379</v>
+      </c>
       <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
+      <c r="K29" s="73"/>
       <c r="L29" s="51"/>
       <c r="M29" s="51"/>
       <c r="N29" s="51"/>
     </row>
-    <row r="30" spans="1:14" ht="16" thickBot="1">
-      <c r="A30" s="148" t="s">
-        <v>516</v>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D30" s="69">
+        <f>B30*C30/(B$29*C$29)</f>
+        <v>0.19573863636363639</v>
+      </c>
+      <c r="E30" t="s">
+        <v>380</v>
+      </c>
+      <c r="F30" s="82">
+        <v>-110.52727272727275</v>
       </c>
       <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="K30" s="73"/>
       <c r="L30" s="51"/>
       <c r="M30" s="51"/>
       <c r="N30" s="51"/>
     </row>
-    <row r="31" spans="1:14" ht="16" thickBot="1">
-      <c r="A31" s="148" t="s">
-        <v>517</v>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>81</v>
+      </c>
+      <c r="D31" s="69">
+        <f>B31*C31/(B$29*C$29)</f>
+        <v>7.3217975206611566E-2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>382</v>
+      </c>
+      <c r="F31" s="82">
+        <v>-37.995041322314044</v>
       </c>
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
@@ -20760,42 +21106,115 @@
       <c r="M31" s="51"/>
       <c r="N31" s="51"/>
     </row>
-    <row r="32" spans="1:14" ht="16" thickBot="1">
-      <c r="A32" s="148" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32">
+        <v>92</v>
+      </c>
+      <c r="C32">
+        <v>89</v>
+      </c>
+      <c r="D32" s="69">
+        <f>B32*C32/(B$29*C$29)</f>
+        <v>1.0573347107438016</v>
+      </c>
+      <c r="E32" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" s="82">
+        <v>-620.59214876033047</v>
+      </c>
+      <c r="J32" s="51"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="74"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="J33" s="51"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+    </row>
+    <row r="35" spans="1:14" ht="16" thickBot="1">
+      <c r="A35" s="148" t="s">
+        <v>515</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+    </row>
+    <row r="36" spans="1:14" ht="16" thickBot="1">
+      <c r="A36" s="148" t="s">
+        <v>516</v>
+      </c>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+    </row>
+    <row r="37" spans="1:14" ht="16" thickBot="1">
+      <c r="A37" s="148" t="s">
+        <v>517</v>
+      </c>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+    </row>
+    <row r="38" spans="1:14" ht="16" thickBot="1">
+      <c r="A38" s="148" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16" thickBot="1">
-      <c r="A33" s="148" t="s">
+    <row r="39" spans="1:14" ht="16" thickBot="1">
+      <c r="A39" s="148" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="16" thickBot="1">
-      <c r="A34" s="148" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="16" thickBot="1">
-      <c r="A35" s="148" t="s">
+    <row r="40" spans="1:14" ht="16" thickBot="1">
+      <c r="A40" s="148" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="16" thickBot="1">
+      <c r="A41" s="148" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16" thickBot="1">
-      <c r="A36" s="148" t="s">
+    <row r="42" spans="1:14" ht="16" thickBot="1">
+      <c r="A42" s="148" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16" thickBot="1">
-      <c r="A37" s="148" t="s">
+    <row r="43" spans="1:14" ht="16" thickBot="1">
+      <c r="A43" s="148" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="16" thickBot="1">
-      <c r="A38" s="149" t="s">
+    <row r="44" spans="1:14" ht="16" thickBot="1">
+      <c r="A44" s="149" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16" thickTop="1"/>
+    <row r="45" spans="1:14" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -20838,13 +21257,13 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
@@ -20864,7 +21283,7 @@
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C2" s="208"/>
       <c r="D2" s="208"/>
@@ -20873,103 +21292,103 @@
     </row>
     <row r="3" spans="1:20">
       <c r="B3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H3">
         <f>2.6/16</f>
         <v>0.16250000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45">
       <c r="A4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G4">
         <v>-1225</v>
       </c>
-      <c r="H4" s="259" t="s">
+      <c r="H4" s="258" t="s">
+        <v>750</v>
+      </c>
+      <c r="I4" t="s">
         <v>751</v>
       </c>
-      <c r="I4" t="s">
-        <v>752</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G5">
         <v>6.8</v>
       </c>
-      <c r="H5" s="259" t="s">
-        <v>748</v>
+      <c r="H5" s="258" t="s">
+        <v>747</v>
       </c>
       <c r="I5">
         <v>6.8</v>
       </c>
       <c r="J5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6" s="259" t="s">
-        <v>749</v>
+      <c r="H6" s="258" t="s">
+        <v>748</v>
       </c>
       <c r="I6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G7">
         <f>-1081*1.1</f>
         <v>-1189.1000000000001</v>
       </c>
-      <c r="H7" s="259" t="s">
-        <v>750</v>
-      </c>
-      <c r="I7" s="258" t="s">
-        <v>754</v>
+      <c r="H7" s="258" t="s">
+        <v>749</v>
+      </c>
+      <c r="I7" s="257" t="s">
+        <v>753</v>
       </c>
       <c r="J7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C8">
         <f>G7*H3</f>

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="2460" windowWidth="24760" windowHeight="9220" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="640" yWindow="0" windowWidth="25600" windowHeight="15700" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1038">
   <si>
     <t>Hauling</t>
   </si>
@@ -2057,12 +2057,6 @@
     <t>N2O-N to N2O (44/28)</t>
   </si>
   <si>
-    <t>Warm  0.0396 MTCO2/st</t>
-  </si>
-  <si>
-    <t>2-14% of  C applied Smith et al. 2001,Brinkmann et al. 2004; Den Boer et al. 2005, Fisher 2006),shereas Bruun et al. (2006)</t>
-  </si>
-  <si>
     <t>%/initial C</t>
   </si>
   <si>
@@ -2172,13 +2166,7 @@
     <t>not used 400kg compost / t fw</t>
   </si>
   <si>
-    <t>does this include application as well?</t>
-  </si>
-  <si>
     <t>Assumes compost is applied with a manure spreader and transported 60km to a field. Moller,2006  based upon 20km to field and scalable</t>
-  </si>
-  <si>
-    <t>P effective</t>
   </si>
   <si>
     <t>K effective</t>
@@ -2661,9 +2649,6 @@
     <t>Diesel use</t>
   </si>
   <si>
-    <t>range for garden waste and biowaste, open closed and notn specified</t>
-  </si>
-  <si>
     <t>Boldrin, 2010</t>
   </si>
   <si>
@@ -2724,9 +2709,6 @@
     <t>accounts for availability, operating load, and parasitic losses of generating unit(s)</t>
   </si>
   <si>
-    <t>%N2O-N/N</t>
-  </si>
-  <si>
     <t>sw name</t>
   </si>
   <si>
@@ -2916,24 +2898,12 @@
     <t>Compost_CS_factor</t>
   </si>
   <si>
-    <t>CS correction factor</t>
-  </si>
-  <si>
-    <t>Remaining after AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">too much </t>
-  </si>
-  <si>
     <t>2-79kgCO2e/kg food waste</t>
   </si>
   <si>
     <t xml:space="preserve">Boldrin, 2009, </t>
   </si>
   <si>
-    <t xml:space="preserve">Initial C of food compost Boldrin, 2009 25.2 - 154.4 KgC/tFW </t>
-  </si>
-  <si>
     <t>deGuardia, 2012</t>
   </si>
   <si>
@@ -3045,9 +3015,6 @@
     <t xml:space="preserve">15%-.48% additional degradation to </t>
   </si>
   <si>
-    <t>additional  20% degradation due to fungi</t>
-  </si>
-  <si>
     <t>LA_CS_factor</t>
   </si>
   <si>
@@ -3145,9 +3112,6 @@
   </si>
   <si>
     <t>Baky and Eriksson (2003)</t>
-  </si>
-  <si>
-    <t>0 to 10.5% of initial C from Bernstadt</t>
   </si>
   <si>
     <t>% Initial C</t>
@@ -3496,6 +3460,33 @@
   </si>
   <si>
     <t>density_CO2</t>
+  </si>
+  <si>
+    <t>range for garden waste and biowaste, open closed and not specified</t>
+  </si>
+  <si>
+    <t>Range for garden waste, biowaste and not specified</t>
+  </si>
+  <si>
+    <t>2–10% ofcompost C (Smith et al. 2001,Brinkmann et al. 2004; Den Boe et al. 2005, Fisher 2006), Bruun et al. (2006) estimated 9–14% depending on the soil type and the crop rotation.</t>
+  </si>
+  <si>
+    <t>C in compost of food waste 63-386</t>
+  </si>
+  <si>
+    <t>kgN2O-N/t</t>
+  </si>
+  <si>
+    <t>Avoided P fertilizer</t>
+  </si>
+  <si>
+    <t>Net w Fertilizer</t>
+  </si>
+  <si>
+    <t>Net W Peat</t>
+  </si>
+  <si>
+    <t>2.2 to 73kgCO2e</t>
   </si>
 </sst>
 </file>
@@ -4771,7 +4762,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5037,7 +5028,6 @@
     <xf numFmtId="0" fontId="50" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="38" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5048,7 +5038,6 @@
     <xf numFmtId="43" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5057,7 +5046,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="38" fillId="4" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="15" fillId="5" borderId="0" xfId="15" applyNumberFormat="1" applyFill="1"/>
@@ -5183,7 +5171,6 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="20" fillId="12" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="15" fillId="12" borderId="0" xfId="15" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -5247,8 +5234,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="56" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="56" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="56" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="56" fillId="4" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="56" fillId="4" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="507">
     <cellStyle name="Bad 2" xfId="17"/>
@@ -6083,11 +6075,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2039066728"/>
-        <c:axId val="-2039075656"/>
+        <c:axId val="-2134947864"/>
+        <c:axId val="-2046246008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2039066728"/>
+        <c:axId val="-2134947864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6097,7 +6089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2039075656"/>
+        <c:crossAx val="-2046246008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6105,7 +6097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2039075656"/>
+        <c:axId val="-2046246008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6116,7 +6108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2039066728"/>
+        <c:crossAx val="-2134947864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6598,11 +6590,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2039164216"/>
-        <c:axId val="2129027128"/>
+        <c:axId val="-2135806616"/>
+        <c:axId val="2091018296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2039164216"/>
+        <c:axId val="-2135806616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6612,7 +6604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129027128"/>
+        <c:crossAx val="2091018296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6620,7 +6612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129027128"/>
+        <c:axId val="2091018296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6649,7 +6641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2039164216"/>
+        <c:crossAx val="-2135806616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7701,11 +7693,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="2129199128"/>
-        <c:axId val="2093704232"/>
+        <c:axId val="-2046335656"/>
+        <c:axId val="-2044059832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129199128"/>
+        <c:axId val="-2046335656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7725,7 +7717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093704232"/>
+        <c:crossAx val="-2044059832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7733,7 +7725,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093704232"/>
+        <c:axId val="-2044059832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7762,7 +7754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129199128"/>
+        <c:crossAx val="-2046335656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8278,7 +8270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -8298,7 +8290,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>14</v>
@@ -8306,8 +8298,8 @@
       <c r="C1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="199" t="s">
-        <v>633</v>
+      <c r="D1" s="196" t="s">
+        <v>629</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>2</v>
@@ -8318,47 +8310,47 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C2" s="196">
+        <v>652</v>
+      </c>
+      <c r="C2" s="193">
         <f>J66</f>
         <v>0.44445499769952745</v>
       </c>
       <c r="F2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C3" s="196">
+        <v>652</v>
+      </c>
+      <c r="C3" s="193">
         <f>J65</f>
         <v>0.53090857076072773</v>
       </c>
       <c r="F3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C4" s="196">
+        <v>652</v>
+      </c>
+      <c r="C4" s="193">
         <f>J67</f>
         <v>0.77143668844394409</v>
       </c>
       <c r="F4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8368,12 +8360,12 @@
       <c r="B5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="197">
+      <c r="C5" s="194">
         <v>265</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -8389,12 +8381,12 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="197">
+      <c r="C6" s="194">
         <v>28</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="23" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -8405,29 +8397,29 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B7" t="s">
-        <v>636</v>
-      </c>
-      <c r="C7" s="194">
+        <v>632</v>
+      </c>
+      <c r="C7" s="191">
         <v>0.45</v>
       </c>
       <c r="D7" t="s">
         <v>543</v>
       </c>
       <c r="E7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="47" customFormat="1">
       <c r="A8" s="116" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>639</v>
-      </c>
-      <c r="C8" s="198" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" s="195" t="s">
         <v>458</v>
       </c>
       <c r="F8" s="120">
@@ -8443,10 +8435,10 @@
     </row>
     <row r="9" spans="1:20" s="47" customFormat="1">
       <c r="A9" s="116" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B9" s="105"/>
-      <c r="C9" s="198"/>
+      <c r="C9" s="195"/>
       <c r="F9" s="120"/>
       <c r="G9" s="105"/>
       <c r="H9" s="105"/>
@@ -8458,9 +8450,9 @@
         <v>452</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>640</v>
-      </c>
-      <c r="C10" s="198"/>
+        <v>636</v>
+      </c>
+      <c r="C10" s="195"/>
       <c r="D10" s="121">
         <f>F10/1000*F8</f>
         <v>2.6982740619999999</v>
@@ -8483,9 +8475,9 @@
         <v>454</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>640</v>
-      </c>
-      <c r="C11" s="198"/>
+        <v>636</v>
+      </c>
+      <c r="C11" s="195"/>
       <c r="D11" s="121">
         <f>F11/1000*F8*Parameters!C5</f>
         <v>1.8021590000000001E-2</v>
@@ -8508,9 +8500,9 @@
         <v>453</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>640</v>
-      </c>
-      <c r="C12" s="195"/>
+        <v>636</v>
+      </c>
+      <c r="C12" s="192"/>
       <c r="D12" s="122">
         <f>F12*Parameters!C6/1000*F8</f>
         <v>4.1986904399999997E-3</v>
@@ -8532,14 +8524,14 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C13" s="266">
+        <v>631</v>
+      </c>
+      <c r="C13" s="263">
         <f>SUM(D10:D12)</f>
         <v>2.7204943424399999</v>
       </c>
       <c r="E13" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -8554,7 +8546,7 @@
       <c r="B14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="197">
+      <c r="C14" s="194">
         <v>533.66</v>
       </c>
       <c r="E14" t="s">
@@ -8566,10 +8558,10 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="43" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="197"/>
+      <c r="C15" s="194"/>
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:20">
@@ -8594,7 +8586,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>114</v>
@@ -8614,7 +8606,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>114</v>
@@ -8639,7 +8631,7 @@
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="197">
+      <c r="C19" s="194">
         <v>0.67</v>
       </c>
       <c r="D19" s="1"/>
@@ -8658,7 +8650,7 @@
       <c r="B20" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="195">
+      <c r="C20" s="192">
         <v>35315</v>
       </c>
       <c r="E20" s="27"/>
@@ -8666,10 +8658,10 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="C21" s="15">
         <v>1.98</v>
@@ -8683,20 +8675,20 @@
     <row r="23" spans="1:19">
       <c r="A23" s="1"/>
       <c r="R23" s="69" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="S23" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="44" customFormat="1">
       <c r="A24" s="45" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="37" thickBot="1">
       <c r="A25" s="158" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B25" s="158" t="s">
         <v>401</v>
@@ -8723,7 +8715,7 @@
         <v>465</v>
       </c>
       <c r="J25" s="158" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K25" s="158" t="s">
         <v>521</v>
@@ -8741,23 +8733,23 @@
         <v>525</v>
       </c>
       <c r="P25" s="164" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="Q25" s="164" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="R25" s="167" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A26" s="148" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B26" s="151"/>
       <c r="C26" s="154"/>
       <c r="D26" s="148"/>
-      <c r="E26" s="252"/>
+      <c r="E26" s="249"/>
       <c r="F26" s="154"/>
       <c r="G26" s="148"/>
       <c r="H26" s="151"/>
@@ -8768,12 +8760,12 @@
       <c r="M26" s="148"/>
       <c r="N26" s="151"/>
       <c r="O26" s="154"/>
-      <c r="P26" s="281"/>
-      <c r="Q26" s="281"/>
+      <c r="P26" s="277"/>
+      <c r="Q26" s="277"/>
     </row>
     <row r="27" spans="1:19" ht="16" thickBot="1">
       <c r="A27" s="148" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B27" s="151">
         <v>0.3</v>
@@ -8785,24 +8777,24 @@
         <f>C27*B27</f>
         <v>0.27</v>
       </c>
-      <c r="E27" s="252">
+      <c r="E27" s="249">
         <f>F27/D27</f>
         <v>334.11111111111109</v>
       </c>
-      <c r="F27" s="246">
+      <c r="F27" s="243">
         <f>H27*B27</f>
         <v>90.21</v>
       </c>
-      <c r="G27" s="269">
+      <c r="G27" s="266">
         <v>9000</v>
       </c>
-      <c r="H27" s="252">
+      <c r="H27" s="249">
         <v>300.7</v>
       </c>
-      <c r="I27" s="246">
+      <c r="I27" s="243">
         <v>0.14399999999999999</v>
       </c>
-      <c r="J27" s="251">
+      <c r="J27" s="248">
         <f>(Parameters!C3*Parameters!M27+Parameters!L27*Parameters!C4+Parameters!N27*Parameters!C2)*1000*B27</f>
         <v>145.73955722402675</v>
       </c>
@@ -8810,7 +8802,7 @@
       <c r="L27" s="154">
         <v>0.1</v>
       </c>
-      <c r="M27" s="188">
+      <c r="M27" s="186">
         <v>0.1</v>
       </c>
       <c r="N27" s="151">
@@ -8819,30 +8811,30 @@
       <c r="O27" s="154">
         <v>0.84099999999999997</v>
       </c>
-      <c r="P27" s="290"/>
-      <c r="Q27" s="281"/>
+      <c r="P27" s="286"/>
+      <c r="Q27" s="277"/>
       <c r="R27" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="16" thickBot="1">
       <c r="A28" s="148" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B28" s="151" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C28" s="154"/>
       <c r="D28" s="148" t="s">
-        <v>662</v>
-      </c>
-      <c r="E28" s="252"/>
-      <c r="F28" s="246"/>
+        <v>658</v>
+      </c>
+      <c r="E28" s="249"/>
+      <c r="F28" s="243"/>
       <c r="G28" s="148" t="s">
         <v>532</v>
       </c>
       <c r="H28" s="151" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I28" s="154"/>
       <c r="J28" s="148" t="s">
@@ -8853,10 +8845,10 @@
       <c r="M28" s="159"/>
       <c r="N28" s="151"/>
       <c r="O28" s="154" t="s">
-        <v>807</v>
-      </c>
-      <c r="P28" s="281"/>
-      <c r="Q28" s="281"/>
+        <v>801</v>
+      </c>
+      <c r="P28" s="277"/>
+      <c r="Q28" s="277"/>
     </row>
     <row r="29" spans="1:19" ht="16" thickBot="1">
       <c r="A29" s="148" t="s">
@@ -8865,37 +8857,37 @@
       <c r="B29" s="151"/>
       <c r="C29" s="154"/>
       <c r="D29" s="148"/>
-      <c r="E29" s="252"/>
-      <c r="F29" s="246"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="243"/>
       <c r="G29" s="148"/>
       <c r="H29" s="151"/>
       <c r="I29" s="154"/>
       <c r="J29" s="148" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K29" s="151"/>
       <c r="L29" s="154" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M29" s="159" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="N29" s="151" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="O29" s="154" t="s">
-        <v>658</v>
-      </c>
-      <c r="P29" s="281"/>
-      <c r="Q29" s="281"/>
+        <v>654</v>
+      </c>
+      <c r="P29" s="277"/>
+      <c r="Q29" s="277"/>
     </row>
     <row r="30" spans="1:19" ht="16" thickBot="1">
       <c r="A30" s="148"/>
       <c r="B30" s="151"/>
       <c r="C30" s="154"/>
       <c r="D30" s="148"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="246"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="243"/>
       <c r="G30" s="148"/>
       <c r="H30" s="151"/>
       <c r="I30" s="154"/>
@@ -8904,19 +8896,19 @@
       </c>
       <c r="K30" s="151"/>
       <c r="L30" s="154"/>
-      <c r="M30" s="188"/>
+      <c r="M30" s="186"/>
       <c r="N30" s="151"/>
       <c r="O30" s="154"/>
-      <c r="P30" s="281"/>
-      <c r="Q30" s="281"/>
+      <c r="P30" s="277"/>
+      <c r="Q30" s="277"/>
     </row>
     <row r="31" spans="1:19" ht="16" thickBot="1">
       <c r="A31" s="148"/>
       <c r="B31" s="151"/>
       <c r="C31" s="154"/>
       <c r="D31" s="148"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="246"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="243"/>
       <c r="G31" s="148"/>
       <c r="H31" s="151"/>
       <c r="I31" s="154"/>
@@ -8929,50 +8921,50 @@
       <c r="M31" s="159"/>
       <c r="N31" s="151"/>
       <c r="O31" s="154"/>
-      <c r="P31" s="281"/>
-      <c r="Q31" s="281"/>
+      <c r="P31" s="277"/>
+      <c r="Q31" s="277"/>
     </row>
     <row r="32" spans="1:19" ht="16" thickBot="1">
       <c r="A32" s="148"/>
       <c r="B32" s="151"/>
       <c r="C32" s="154"/>
       <c r="D32" s="148"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="246"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="243"/>
       <c r="G32" s="148"/>
       <c r="H32" s="151"/>
       <c r="I32" s="154"/>
       <c r="J32" s="148" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K32" s="151"/>
       <c r="L32" s="154"/>
       <c r="M32" s="159"/>
       <c r="N32" s="151"/>
       <c r="O32" s="154"/>
-      <c r="P32" s="281"/>
-      <c r="Q32" s="281"/>
+      <c r="P32" s="277"/>
+      <c r="Q32" s="277"/>
     </row>
     <row r="33" spans="1:22" ht="16" thickBot="1">
       <c r="A33" s="148" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B33" s="151"/>
       <c r="C33" s="154"/>
       <c r="D33" s="148"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="246"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="243"/>
       <c r="G33" s="148"/>
       <c r="H33" s="151"/>
       <c r="I33" s="154"/>
       <c r="J33" s="148"/>
       <c r="K33" s="151"/>
       <c r="L33" s="154"/>
-      <c r="M33" s="188"/>
+      <c r="M33" s="186"/>
       <c r="N33" s="151"/>
       <c r="O33" s="154"/>
-      <c r="P33" s="281"/>
-      <c r="Q33" s="281"/>
+      <c r="P33" s="277"/>
+      <c r="Q33" s="277"/>
     </row>
     <row r="34" spans="1:22" ht="16" thickBot="1">
       <c r="A34" s="148" t="s">
@@ -8988,10 +8980,10 @@
       <c r="D34" s="148">
         <v>0.17</v>
       </c>
-      <c r="E34" s="252">
+      <c r="E34" s="249">
         <v>887</v>
       </c>
-      <c r="F34" s="246">
+      <c r="F34" s="243">
         <v>150.79</v>
       </c>
       <c r="G34" s="148">
@@ -9006,8 +8998,8 @@
       <c r="M34" s="159"/>
       <c r="N34" s="151"/>
       <c r="O34" s="154"/>
-      <c r="P34" s="281"/>
-      <c r="Q34" s="281"/>
+      <c r="P34" s="277"/>
+      <c r="Q34" s="277"/>
       <c r="R34" s="100" t="s">
         <v>151</v>
       </c>
@@ -9027,10 +9019,10 @@
       <c r="D35" s="149">
         <v>0.05</v>
       </c>
-      <c r="E35" s="270">
+      <c r="E35" s="267">
         <v>300</v>
       </c>
-      <c r="F35" s="247">
+      <c r="F35" s="244">
         <v>15</v>
       </c>
       <c r="G35" s="149">
@@ -9053,46 +9045,46 @@
         <v>0.67123287671232879</v>
       </c>
       <c r="O35" s="155"/>
-      <c r="P35" s="281"/>
-      <c r="Q35" s="281"/>
+      <c r="P35" s="277"/>
+      <c r="Q35" s="277"/>
       <c r="R35" s="24" t="s">
         <v>50</v>
       </c>
       <c r="V35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" thickTop="1" thickBot="1">
       <c r="A36" s="148" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B36" s="151"/>
       <c r="C36" s="154"/>
       <c r="D36" s="148"/>
-      <c r="E36" s="252"/>
-      <c r="F36" s="246"/>
+      <c r="E36" s="249"/>
+      <c r="F36" s="243"/>
       <c r="G36" s="148"/>
       <c r="H36" s="151"/>
       <c r="I36" s="154"/>
       <c r="J36" s="148"/>
       <c r="K36" s="151"/>
       <c r="L36" s="154"/>
-      <c r="M36" s="188"/>
+      <c r="M36" s="186"/>
       <c r="N36" s="151"/>
       <c r="O36" s="154"/>
-      <c r="P36" s="281"/>
-      <c r="Q36" s="281"/>
+      <c r="P36" s="277"/>
+      <c r="Q36" s="277"/>
       <c r="R36" s="24"/>
     </row>
     <row r="37" spans="1:22" ht="16" thickBot="1">
       <c r="A37" s="148" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B37" s="151"/>
       <c r="C37" s="154"/>
       <c r="D37" s="148"/>
-      <c r="E37" s="252"/>
-      <c r="F37" s="246"/>
+      <c r="E37" s="249"/>
+      <c r="F37" s="243"/>
       <c r="G37" s="148"/>
       <c r="H37" s="151"/>
       <c r="I37" s="154"/>
@@ -9102,8 +9094,8 @@
       <c r="M37" s="159"/>
       <c r="N37" s="151"/>
       <c r="O37" s="154"/>
-      <c r="P37" s="281"/>
-      <c r="Q37" s="281"/>
+      <c r="P37" s="277"/>
+      <c r="Q37" s="277"/>
       <c r="R37" s="24"/>
     </row>
     <row r="38" spans="1:22" ht="16" thickBot="1">
@@ -9121,7 +9113,7 @@
         <f>B38*C38</f>
         <v>0.74399999999999999</v>
       </c>
-      <c r="E38" s="252"/>
+      <c r="E38" s="249"/>
       <c r="F38" s="154"/>
       <c r="G38" s="148">
         <v>1100</v>
@@ -9143,32 +9135,32 @@
         <v>0.75268817204301086</v>
       </c>
       <c r="O38" s="154"/>
-      <c r="P38" s="281"/>
-      <c r="Q38" s="281"/>
+      <c r="P38" s="277"/>
+      <c r="Q38" s="277"/>
       <c r="R38" t="s">
         <v>416</v>
       </c>
       <c r="S38" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="16" thickBot="1">
-      <c r="A39" s="242" t="s">
-        <v>721</v>
-      </c>
-      <c r="B39" s="243"/>
-      <c r="C39" s="243"/>
-      <c r="D39" s="243"/>
-      <c r="H39" s="244"/>
-      <c r="I39" s="244"/>
-      <c r="J39" s="244"/>
+      <c r="A39" s="239" t="s">
+        <v>717</v>
+      </c>
+      <c r="B39" s="240"/>
+      <c r="C39" s="240"/>
+      <c r="D39" s="240"/>
+      <c r="H39" s="241"/>
+      <c r="I39" s="241"/>
+      <c r="J39" s="241"/>
       <c r="K39" s="59"/>
       <c r="L39" s="59"/>
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
-      <c r="P39" s="282"/>
-      <c r="Q39" s="282"/>
+      <c r="P39" s="278"/>
+      <c r="Q39" s="278"/>
       <c r="R39" s="24"/>
     </row>
     <row r="40" spans="1:22" ht="16" thickBot="1">
@@ -9184,36 +9176,36 @@
       <c r="D40" s="157">
         <v>0.88900000000000001</v>
       </c>
-      <c r="E40" s="245">
+      <c r="E40" s="242">
         <v>465.3046875</v>
       </c>
-      <c r="F40" s="245"/>
-      <c r="G40" s="248">
+      <c r="F40" s="242"/>
+      <c r="G40" s="245">
         <v>14656.000000000002</v>
       </c>
       <c r="K40" s="159">
         <v>0.03</v>
       </c>
-      <c r="L40" s="188">
+      <c r="L40" s="186">
         <v>0.11</v>
       </c>
-      <c r="M40" s="188">
+      <c r="M40" s="186">
         <v>0.1</v>
       </c>
-      <c r="N40" s="255">
+      <c r="N40" s="252">
         <v>0.76</v>
       </c>
-      <c r="O40" s="258">
+      <c r="O40" s="255">
         <v>0.94</v>
       </c>
-      <c r="P40" s="283">
+      <c r="P40" s="279">
         <v>1400</v>
       </c>
-      <c r="Q40" s="283">
+      <c r="Q40" s="279">
         <v>1200</v>
       </c>
       <c r="R40" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="16" thickBot="1">
@@ -9229,11 +9221,11 @@
       <c r="D41" s="154">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E41" s="246">
+      <c r="E41" s="243">
         <v>435.97247406272294</v>
       </c>
-      <c r="F41" s="246"/>
-      <c r="G41" s="249">
+      <c r="F41" s="243"/>
+      <c r="G41" s="246">
         <v>2520</v>
       </c>
       <c r="K41" s="159">
@@ -9245,20 +9237,20 @@
       <c r="M41" s="159">
         <v>0.15</v>
       </c>
-      <c r="N41" s="256">
+      <c r="N41" s="253">
         <v>0.74</v>
       </c>
-      <c r="O41" s="259">
+      <c r="O41" s="256">
         <v>0.98179823692937196</v>
       </c>
-      <c r="P41" s="283">
+      <c r="P41" s="279">
         <v>1380</v>
       </c>
-      <c r="Q41" s="283">
+      <c r="Q41" s="279">
         <v>370</v>
       </c>
       <c r="R41" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="16" thickBot="1">
@@ -9274,11 +9266,11 @@
       <c r="D42" s="154">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E42" s="246">
+      <c r="E42" s="243">
         <v>365.25479597205384</v>
       </c>
-      <c r="F42" s="246"/>
-      <c r="G42" s="249">
+      <c r="F42" s="243"/>
+      <c r="G42" s="246">
         <v>7969.6</v>
       </c>
       <c r="K42" s="159">
@@ -9290,22 +9282,22 @@
       <c r="M42" s="159">
         <v>0.17</v>
       </c>
-      <c r="N42" s="256">
+      <c r="N42" s="253">
         <v>0.79</v>
       </c>
-      <c r="O42" s="259">
+      <c r="O42" s="256">
         <v>0.79927679923149053</v>
       </c>
-      <c r="P42" s="285">
+      <c r="P42" s="281">
         <f>G42*0.36/2</f>
         <v>1434.528</v>
       </c>
-      <c r="Q42" s="285">
+      <c r="Q42" s="281">
         <f>G42*0.67/2</f>
         <v>2669.8160000000003</v>
       </c>
       <c r="R42" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="16" thickBot="1">
@@ -9321,11 +9313,11 @@
       <c r="D43" s="154">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E43" s="246">
+      <c r="E43" s="243">
         <v>418.04822619567631</v>
       </c>
-      <c r="F43" s="246"/>
-      <c r="G43" s="249">
+      <c r="F43" s="243"/>
+      <c r="G43" s="246">
         <v>1232</v>
       </c>
       <c r="K43" s="159">
@@ -9337,20 +9329,20 @@
       <c r="M43" s="159">
         <v>0.1</v>
       </c>
-      <c r="N43" s="256">
+      <c r="N43" s="253">
         <v>0.82</v>
       </c>
-      <c r="O43" s="259">
+      <c r="O43" s="256">
         <v>0.97735385922437001</v>
       </c>
-      <c r="P43" s="283">
+      <c r="P43" s="279">
         <v>2315</v>
       </c>
-      <c r="Q43" s="283">
+      <c r="Q43" s="279">
         <v>330</v>
       </c>
       <c r="R43" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="16" thickBot="1">
@@ -9366,11 +9358,11 @@
       <c r="D44" s="154">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E44" s="246">
+      <c r="E44" s="243">
         <v>483.41632472315138</v>
       </c>
-      <c r="F44" s="246"/>
-      <c r="G44" s="249">
+      <c r="F44" s="243"/>
+      <c r="G44" s="246">
         <v>13420.8</v>
       </c>
       <c r="K44" s="159">
@@ -9382,17 +9374,17 @@
       <c r="M44" s="159">
         <v>0.18</v>
       </c>
-      <c r="N44" s="256">
+      <c r="N44" s="253">
         <v>0.61</v>
       </c>
-      <c r="O44" s="259">
+      <c r="O44" s="256">
         <v>0.877478471550592</v>
       </c>
-      <c r="P44" s="283">
+      <c r="P44" s="279">
         <f>8000*0.4</f>
         <v>3200</v>
       </c>
-      <c r="Q44" s="283">
+      <c r="Q44" s="279">
         <f>3000*0.4</f>
         <v>1200</v>
       </c>
@@ -9402,7 +9394,7 @@
     </row>
     <row r="45" spans="1:22" ht="16" thickBot="1">
       <c r="A45" s="148" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B45" s="151">
         <v>0.14299999999999999</v>
@@ -9413,11 +9405,11 @@
       <c r="D45" s="154">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E45" s="246">
+      <c r="E45" s="243">
         <v>252.28816838661476</v>
       </c>
-      <c r="F45" s="246"/>
-      <c r="G45" s="249">
+      <c r="F45" s="243"/>
+      <c r="G45" s="246">
         <v>457.59999999999997</v>
       </c>
       <c r="K45" s="159">
@@ -9429,20 +9421,20 @@
       <c r="M45" s="159">
         <v>0.02</v>
       </c>
-      <c r="N45" s="256">
+      <c r="N45" s="253">
         <v>0.82</v>
       </c>
-      <c r="O45" s="259">
+      <c r="O45" s="256">
         <v>0.56096498593100275</v>
       </c>
-      <c r="P45" s="289">
+      <c r="P45" s="285">
         <v>1200</v>
       </c>
-      <c r="Q45" s="283">
+      <c r="Q45" s="279">
         <v>977</v>
       </c>
       <c r="R45" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="16" thickBot="1">
@@ -9458,11 +9450,11 @@
       <c r="D46" s="154">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E46" s="246">
+      <c r="E46" s="243">
         <v>361.81791351010088</v>
       </c>
-      <c r="F46" s="246"/>
-      <c r="G46" s="249">
+      <c r="F46" s="243"/>
+      <c r="G46" s="246">
         <v>16315.200000000003</v>
       </c>
       <c r="K46" s="159">
@@ -9474,20 +9466,20 @@
       <c r="M46" s="159">
         <v>0.11</v>
       </c>
-      <c r="N46" s="256">
+      <c r="N46" s="253">
         <v>0.82</v>
       </c>
-      <c r="O46" s="259">
+      <c r="O46" s="256">
         <v>0.82380040804253563</v>
       </c>
-      <c r="P46" s="287">
+      <c r="P46" s="283">
         <v>1170</v>
       </c>
-      <c r="Q46" s="287">
+      <c r="Q46" s="283">
         <v>740</v>
       </c>
       <c r="R46" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="16" thickBot="1">
@@ -9503,11 +9495,11 @@
       <c r="D47" s="154">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E47" s="246">
+      <c r="E47" s="243">
         <v>375.37065018315019</v>
       </c>
-      <c r="F47" s="246"/>
-      <c r="G47" s="249">
+      <c r="F47" s="243"/>
+      <c r="G47" s="246">
         <v>1398.3999999999999</v>
       </c>
       <c r="K47" s="159">
@@ -9519,20 +9511,20 @@
       <c r="M47" s="159">
         <v>0.23</v>
       </c>
-      <c r="N47" s="256">
+      <c r="N47" s="253">
         <v>0.66</v>
       </c>
-      <c r="O47" s="259">
+      <c r="O47" s="256">
         <v>0.90450759080277232</v>
       </c>
-      <c r="P47" s="284">
+      <c r="P47" s="280">
         <v>2300</v>
       </c>
-      <c r="Q47" s="284">
+      <c r="Q47" s="280">
         <v>300</v>
       </c>
       <c r="R47" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="16" thickBot="1">
@@ -9548,11 +9540,11 @@
       <c r="D48" s="154">
         <v>0.90400000000000003</v>
       </c>
-      <c r="E48" s="246">
+      <c r="E48" s="243">
         <v>318.40468414280525</v>
       </c>
-      <c r="F48" s="246"/>
-      <c r="G48" s="249">
+      <c r="F48" s="243"/>
+      <c r="G48" s="246">
         <v>17740.8</v>
       </c>
       <c r="K48" s="159">
@@ -9564,20 +9556,20 @@
       <c r="M48" s="159">
         <v>0.12</v>
       </c>
-      <c r="N48" s="256">
+      <c r="N48" s="253">
         <v>0.85</v>
       </c>
-      <c r="O48" s="259">
+      <c r="O48" s="256">
         <v>0.73736998705248713</v>
       </c>
-      <c r="P48" s="288">
+      <c r="P48" s="284">
         <v>2010</v>
       </c>
-      <c r="Q48" s="283">
+      <c r="Q48" s="279">
         <v>1630</v>
       </c>
       <c r="R48" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="16" thickBot="1">
@@ -9593,11 +9585,11 @@
       <c r="D49" s="155">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E49" s="247">
+      <c r="E49" s="244">
         <v>454.20873548774478</v>
       </c>
-      <c r="F49" s="247"/>
-      <c r="G49" s="250">
+      <c r="F49" s="244"/>
+      <c r="G49" s="247">
         <v>6921.6000000000013</v>
       </c>
       <c r="K49" s="160">
@@ -9609,20 +9601,20 @@
       <c r="M49" s="160">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N49" s="257">
+      <c r="N49" s="254">
         <v>0.79</v>
       </c>
-      <c r="O49" s="260">
+      <c r="O49" s="257">
         <v>0.99060618444367532</v>
       </c>
-      <c r="P49" s="283">
+      <c r="P49" s="279">
         <v>1500</v>
       </c>
-      <c r="Q49" s="286">
+      <c r="Q49" s="282">
         <v>1100</v>
       </c>
       <c r="R49" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="16" thickTop="1"/>
@@ -10179,7 +10171,7 @@
       <c r="A79" s="158" t="s">
         <v>522</v>
       </c>
-      <c r="B79" s="188">
+      <c r="B79" s="186">
         <v>0.11</v>
       </c>
       <c r="C79" s="159">
@@ -10219,7 +10211,7 @@
       <c r="A80" s="158" t="s">
         <v>523</v>
       </c>
-      <c r="B80" s="188">
+      <c r="B80" s="186">
         <v>0.1</v>
       </c>
       <c r="C80" s="159">
@@ -10259,7 +10251,7 @@
       <c r="A81" s="161" t="s">
         <v>524</v>
       </c>
-      <c r="B81" s="189">
+      <c r="B81" s="187">
         <v>0.76</v>
       </c>
       <c r="C81" s="162">
@@ -10528,7 +10520,7 @@
       <c r="A87" s="167" t="s">
         <v>530</v>
       </c>
-      <c r="B87" s="187">
+      <c r="B87" s="185">
         <f>B86*B75</f>
         <v>0.43577297700779749</v>
       </c>
@@ -10683,7 +10675,7 @@
         <v>277</v>
       </c>
       <c r="F10" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -12218,13 +12210,13 @@
       <c r="A68" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="B68" s="321">
+      <c r="B68" s="318">
         <v>90</v>
       </c>
-      <c r="C68" s="321">
+      <c r="C68" s="318">
         <v>87</v>
       </c>
-      <c r="D68" s="321">
+      <c r="D68" s="318">
         <v>99</v>
       </c>
     </row>
@@ -12232,9 +12224,9 @@
       <c r="A69" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="B69" s="321"/>
-      <c r="C69" s="321"/>
-      <c r="D69" s="321"/>
+      <c r="B69" s="318"/>
+      <c r="C69" s="318"/>
+      <c r="D69" s="318"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="64" t="s">
@@ -12427,7 +12419,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -12440,37 +12432,37 @@
         <v>105</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="H3" s="59" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="J3" s="59" t="s">
         <v>144</v>
       </c>
       <c r="K3" s="59" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -12494,7 +12486,7 @@
       <c r="F4">
         <v>7.6</v>
       </c>
-      <c r="G4" s="313">
+      <c r="G4" s="309">
         <f>F4/J4</f>
         <v>5.6505576208178435E-2</v>
       </c>
@@ -12517,12 +12509,12 @@
         <v>0.21486988847583641</v>
       </c>
       <c r="M4" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -12541,7 +12533,7 @@
       <c r="F5">
         <v>0.5</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="309">
         <f>F5/J5</f>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12564,10 +12556,10 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="N5" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -12591,7 +12583,7 @@
       <c r="F6">
         <v>21.5</v>
       </c>
-      <c r="G6" s="313">
+      <c r="G6" s="309">
         <f>F6/J6</f>
         <v>5.8904109589041097E-2</v>
       </c>
@@ -12614,12 +12606,12 @@
         <v>-0.29205479452054794</v>
       </c>
       <c r="M6" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="B7">
         <v>112.5</v>
@@ -12635,7 +12627,7 @@
       <c r="F7">
         <v>0.24</v>
       </c>
-      <c r="G7" s="313">
+      <c r="G7" s="309">
         <f>H7/J7</f>
         <v>0.35894736842105263</v>
       </c>
@@ -12658,15 +12650,15 @@
         <v>4.7684210526315801E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="N7" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="B8">
         <v>191</v>
@@ -12685,7 +12677,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="313">
+      <c r="G8" s="309">
         <f>F8/J8</f>
         <v>0</v>
       </c>
@@ -12708,12 +12700,12 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -12729,7 +12721,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="313">
+      <c r="G9" s="309">
         <f>F9/J9</f>
         <v>0</v>
       </c>
@@ -12749,7 +12741,7 @@
         <v>0.63924050632911389</v>
       </c>
       <c r="M9" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="59" customFormat="1">
@@ -12759,7 +12751,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="B11">
         <v>97</v>
@@ -12778,7 +12770,7 @@
       <c r="F11">
         <v>7.6</v>
       </c>
-      <c r="G11" s="313">
+      <c r="G11" s="309">
         <f>F11/J11</f>
         <v>5.6505576208178435E-2</v>
       </c>
@@ -12790,12 +12782,12 @@
         <v>28.9</v>
       </c>
       <c r="M11" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="B12">
         <v>42</v>
@@ -12814,7 +12806,7 @@
       <c r="F12">
         <v>1.8</v>
       </c>
-      <c r="G12" s="313">
+      <c r="G12" s="309">
         <f>F12/J12</f>
         <v>1.5929203539823009E-2</v>
       </c>
@@ -12829,12 +12821,12 @@
         <v>14.700000000000003</v>
       </c>
       <c r="N12" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="B13">
         <v>68</v>
@@ -12853,7 +12845,7 @@
       <c r="F13">
         <v>12.3</v>
       </c>
-      <c r="G13" s="313">
+      <c r="G13" s="309">
         <f>F13/J13</f>
         <v>9.4615384615384615E-2</v>
       </c>
@@ -12870,7 +12862,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="C14" s="53">
         <f>B14/J14</f>
@@ -12887,7 +12879,7 @@
       <c r="F14">
         <v>16.5</v>
       </c>
-      <c r="G14" s="313">
+      <c r="G14" s="309">
         <f>H14/J14</f>
         <v>0</v>
       </c>
@@ -12899,55 +12891,55 @@
         <v>138.9</v>
       </c>
       <c r="N14" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="59" customFormat="1">
       <c r="A15" s="59" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1"/>
     <row r="17" spans="1:14" s="6" customFormat="1">
       <c r="A17" s="6" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="N18" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="N19" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" customHeight="1">
       <c r="N20" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="N21" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -12957,7 +12949,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -12966,15 +12958,15 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="E25" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="B26">
         <v>2.1000000000000001E-2</v>
@@ -12988,7 +12980,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="B27">
         <v>11.9</v>
@@ -13002,7 +12994,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="B28">
         <v>1.8297000000000001</v>
@@ -13021,13 +13013,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="C30" t="s">
         <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -13102,15 +13094,15 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="59" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="59" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -13145,8 +13137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13162,31 +13154,31 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="D1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G1" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="H1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="J1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="R1">
         <v>0.453592</v>
@@ -13194,11 +13186,11 @@
     </row>
     <row r="2" spans="1:18" s="59" customFormat="1">
       <c r="D2" s="59" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -13206,16 +13198,16 @@
         <v>137</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="Q2"/>
       <c r="R2" s="59" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="D3" t="str">
         <f>Parameters!A7</f>
@@ -13226,10 +13218,10 @@
         <v>kgCO2e/L diesel</v>
       </c>
       <c r="F3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H3">
         <v>0.45</v>
@@ -13241,45 +13233,45 @@
         <v>0.5</v>
       </c>
       <c r="K3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="N3" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="O3" t="s">
         <v>56</v>
       </c>
       <c r="P3" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="Q3" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="D4" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F4" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G4" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H4" s="69">
         <v>2.7204943424399999</v>
       </c>
       <c r="K4" s="69" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="M4" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="N4">
         <v>1180.6199999999999</v>
@@ -13296,66 +13288,66 @@
         <v>537.36092603984002</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="301" customFormat="1">
+    <row r="5" spans="1:18" s="297" customFormat="1">
       <c r="A5" t="s">
-        <v>958</v>
-      </c>
-      <c r="D5" s="301" t="s">
-        <v>763</v>
-      </c>
-      <c r="E5" s="301" t="s">
-        <v>891</v>
-      </c>
-      <c r="F5" s="301" t="s">
-        <v>798</v>
-      </c>
-      <c r="G5" s="301" t="s">
-        <v>633</v>
-      </c>
-      <c r="H5" s="302">
+        <v>946</v>
+      </c>
+      <c r="D5" s="297" t="s">
+        <v>759</v>
+      </c>
+      <c r="E5" s="297" t="s">
+        <v>881</v>
+      </c>
+      <c r="F5" s="297" t="s">
+        <v>792</v>
+      </c>
+      <c r="G5" s="297" t="s">
+        <v>629</v>
+      </c>
+      <c r="H5" s="298">
         <f>-Q5</f>
         <v>-692.15220789071998</v>
       </c>
-      <c r="I5" s="302">
+      <c r="I5" s="298">
         <f>-Q6</f>
         <v>-918.79198627000005</v>
       </c>
-      <c r="J5" s="302">
+      <c r="J5" s="298">
         <f>-Q7</f>
         <v>-537.18234233351995</v>
       </c>
-      <c r="M5" s="301" t="s">
-        <v>842</v>
-      </c>
-      <c r="N5" s="301">
+      <c r="M5" s="297" t="s">
+        <v>836</v>
+      </c>
+      <c r="N5" s="297">
         <v>1520.2</v>
       </c>
-      <c r="O5" s="301">
+      <c r="O5" s="297">
         <v>31.27</v>
       </c>
-      <c r="P5" s="301">
+      <c r="P5" s="297">
         <v>18.34</v>
       </c>
-      <c r="Q5" s="301">
+      <c r="Q5" s="297">
         <f>N5*$R$1+O5/1000*$R$1*Parameters!$C$6+P5/1000*$R$1*Parameters!$C$5</f>
         <v>692.15220789071998</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="D6" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E6" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="F6" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="G6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H6">
         <v>-6.8</v>
@@ -13367,13 +13359,13 @@
         <v>-4.7</v>
       </c>
       <c r="K6" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="L6" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="M6" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="N6">
         <v>2014.87</v>
@@ -13391,19 +13383,19 @@
     </row>
     <row r="7" spans="1:18" ht="30">
       <c r="A7" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="D7" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E7" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="G7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H7">
         <v>0.4</v>
@@ -13415,13 +13407,13 @@
         <v>0.6</v>
       </c>
       <c r="K7" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="M7" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="N7">
         <v>1181.7</v>
@@ -13439,19 +13431,19 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="D8" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="E8" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="F8" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="G8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H8" s="69">
         <v>0.3</v>
@@ -13463,24 +13455,24 @@
         <v>0.6</v>
       </c>
       <c r="K8" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1">
       <c r="A9" s="6" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>456</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H9" s="6">
         <v>2.65</v>
@@ -13494,16 +13486,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="D10" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G10" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="H10">
         <v>-1.8</v>
@@ -13517,16 +13509,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="D11" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G11" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="H11">
         <v>-0.96</v>
@@ -13540,19 +13532,19 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="D12" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E12" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="F12" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="G12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H12">
         <v>-388</v>
@@ -13569,12 +13561,12 @@
         <v>102</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D14" t="str">
         <f>'Landfill '!A3</f>
@@ -13585,10 +13577,10 @@
         <v>L/t</v>
       </c>
       <c r="F14" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="G14" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H14" s="69">
         <v>5.8295314000000005</v>
@@ -13610,7 +13602,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D15" t="str">
         <f>'Landfill '!A8</f>
@@ -13621,10 +13613,10 @@
         <v>%</v>
       </c>
       <c r="F15" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G15" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H15">
         <v>0.1</v>
@@ -13646,7 +13638,7 @@
     </row>
     <row r="16" spans="1:18" s="6" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>'Landfill '!A9</f>
@@ -13657,10 +13649,10 @@
         <v>%</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H16" s="6">
         <f>'Landfill '!E9</f>
@@ -13683,7 +13675,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D17" t="str">
         <f>'Landfill '!A22</f>
@@ -13694,10 +13686,10 @@
         <v>btu/kwh</v>
       </c>
       <c r="F17" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G17" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H17">
         <v>11700</v>
@@ -13719,19 +13711,19 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D18" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G18" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H18">
         <v>0.85</v>
@@ -13743,27 +13735,27 @@
         <v>0.9</v>
       </c>
       <c r="K18" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="L18" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D19" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="G19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H19">
         <v>0.95</v>
@@ -13775,12 +13767,12 @@
         <v>0.95</v>
       </c>
       <c r="K19" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1">
       <c r="A20" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>83</v>
@@ -13790,10 +13782,10 @@
         <v>fraction</v>
       </c>
       <c r="F20" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G20" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H20" s="6">
         <v>1</v>
@@ -13805,7 +13797,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="L20" s="6" t="str">
         <f>'Landfill '!K15</f>
@@ -13814,19 +13806,19 @@
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1">
       <c r="A21" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>465</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F21" t="s">
         <v>465</v>
       </c>
       <c r="G21" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H21" s="6">
         <v>0.14399999999999999</v>
@@ -13838,112 +13830,112 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="59" customFormat="1">
       <c r="D22" s="59" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="293" customFormat="1">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="289" customFormat="1">
       <c r="A23" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="293" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E23" s="293" t="s">
+      <c r="D23" s="289" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E23" s="289" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="293" t="s">
-        <v>837</v>
-      </c>
-      <c r="G23" s="293" t="s">
-        <v>633</v>
-      </c>
-      <c r="H23" s="293">
+      <c r="F23" s="289" t="s">
+        <v>831</v>
+      </c>
+      <c r="G23" s="289" t="s">
+        <v>629</v>
+      </c>
+      <c r="H23" s="289">
         <v>0.9</v>
       </c>
-      <c r="I23" s="293">
+      <c r="I23" s="289">
         <v>0.7</v>
       </c>
-      <c r="J23" s="293">
+      <c r="J23" s="289">
         <v>1</v>
       </c>
-      <c r="K23" s="293" t="e">
+      <c r="K23" s="289" t="e">
         <f>AD!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L23" s="293" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="293" customFormat="1">
+      <c r="L23" s="289" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="289" customFormat="1">
       <c r="A24" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="293" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E24" s="293" t="s">
+      <c r="D24" s="289" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E24" s="289" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="293" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G24" s="293" t="s">
-        <v>633</v>
-      </c>
-      <c r="H24" s="293">
+      <c r="F24" s="289" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G24" s="289" t="s">
+        <v>629</v>
+      </c>
+      <c r="H24" s="289">
         <v>0.03</v>
       </c>
-      <c r="I24" s="293">
+      <c r="I24" s="289">
         <v>0.02</v>
       </c>
-      <c r="J24" s="293">
+      <c r="J24" s="289">
         <v>0.12</v>
       </c>
-      <c r="K24" s="293" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="301" customFormat="1">
+      <c r="K24" s="289" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="297" customFormat="1">
       <c r="A25" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="301" t="str">
+      <c r="D25" s="297" t="str">
         <f>AD!A18</f>
         <v>Methane leaks</v>
       </c>
-      <c r="E25" s="301" t="str">
+      <c r="E25" s="297" t="str">
         <f>AD!B18</f>
         <v>% methane utilized</v>
       </c>
-      <c r="F25" s="301" t="s">
-        <v>811</v>
-      </c>
-      <c r="G25" s="301" t="s">
-        <v>633</v>
-      </c>
-      <c r="H25" s="301">
+      <c r="F25" s="297" t="s">
+        <v>805</v>
+      </c>
+      <c r="G25" s="297" t="s">
+        <v>629</v>
+      </c>
+      <c r="H25" s="297">
         <f>AD!E18</f>
         <v>0.03</v>
       </c>
-      <c r="I25" s="301">
+      <c r="I25" s="297">
         <v>0</v>
       </c>
-      <c r="J25" s="301">
+      <c r="J25" s="297">
         <v>0.1</v>
       </c>
-      <c r="K25" s="301" t="str">
+      <c r="K25" s="297" t="str">
         <f>AD!H18</f>
         <v>Ebner et al., 2014</v>
       </c>
-      <c r="L25" s="301" t="str">
+      <c r="L25" s="297" t="str">
         <f>AD!J18</f>
         <v>3% of methane utilized</v>
       </c>
@@ -13961,10 +13953,10 @@
         <v>% methane utilized</v>
       </c>
       <c r="F26" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G26" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H26">
         <f>AD!E25</f>
@@ -13993,9 +13985,9 @@
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="44" t="s">
-        <v>751</v>
-      </c>
-      <c r="H27" s="307">
+        <v>747</v>
+      </c>
+      <c r="H27" s="303">
         <f>AD!C26</f>
         <v>7.1585965079999987</v>
       </c>
@@ -14006,44 +13998,44 @@
         <v>0.38158829999999994</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="293" customFormat="1">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="289" customFormat="1">
       <c r="A28" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="293" t="str">
+      <c r="D28" s="289" t="str">
         <f>AD!A27</f>
         <v>Conversion Efficiency</v>
       </c>
-      <c r="E28" s="293" t="str">
+      <c r="E28" s="289" t="str">
         <f>AD!B27</f>
         <v>MWh/t</v>
       </c>
-      <c r="F28" s="293" t="s">
-        <v>813</v>
-      </c>
-      <c r="G28" s="293" t="s">
-        <v>633</v>
-      </c>
-      <c r="H28" s="300">
+      <c r="F28" s="289" t="s">
+        <v>807</v>
+      </c>
+      <c r="G28" s="289" t="s">
+        <v>629</v>
+      </c>
+      <c r="H28" s="296">
         <v>4.19318820416827</v>
       </c>
-      <c r="I28" s="294">
+      <c r="I28" s="290">
         <f>9.8*0.33</f>
         <v>3.2340000000000004</v>
       </c>
-      <c r="J28" s="300">
+      <c r="J28" s="296">
         <f>9.8*0.45</f>
         <v>4.41</v>
       </c>
-      <c r="K28" s="293" t="str">
+      <c r="K28" s="289" t="str">
         <f>AD!H27</f>
         <v>Ebner et al, 2014</v>
       </c>
-      <c r="L28" s="306" t="s">
-        <v>975</v>
+      <c r="L28" s="302" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -14059,10 +14051,10 @@
         <v>% KWh generated</v>
       </c>
       <c r="F29" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="G29" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H29">
         <v>0.12</v>
@@ -14082,70 +14074,70 @@
         <v>Parasitic load</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="293" customFormat="1">
+    <row r="30" spans="1:12" s="289" customFormat="1">
       <c r="A30" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="293" t="str">
+      <c r="D30" s="289" t="str">
         <f>AD!A35</f>
         <v>VS destruction</v>
       </c>
-      <c r="E30" s="293" t="str">
+      <c r="E30" s="289" t="str">
         <f>AD!B35</f>
         <v>%</v>
       </c>
-      <c r="F30" s="293" t="s">
-        <v>815</v>
-      </c>
-      <c r="G30" s="293" t="s">
-        <v>633</v>
-      </c>
-      <c r="H30" s="293">
+      <c r="F30" s="289" t="s">
+        <v>809</v>
+      </c>
+      <c r="G30" s="289" t="s">
+        <v>629</v>
+      </c>
+      <c r="H30" s="289">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I30" s="293">
+      <c r="I30" s="289">
         <v>0.4</v>
       </c>
-      <c r="J30" s="293">
+      <c r="J30" s="289">
         <v>0.7</v>
       </c>
-      <c r="K30" s="293" t="str">
+      <c r="K30" s="289" t="str">
         <f>AD!H35</f>
         <v>Ebner et al., 2014</v>
       </c>
-      <c r="L30" s="293" t="str">
+      <c r="L30" s="289" t="str">
         <f>AD!J35</f>
         <v>assuming a 55% reduction in VS</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="301" customFormat="1">
+    <row r="31" spans="1:12" s="297" customFormat="1">
       <c r="A31" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="301" t="str">
+      <c r="D31" s="297" t="str">
         <f>AD!A37</f>
         <v>Effluent residual methane factor</v>
       </c>
-      <c r="E31" s="301" t="str">
+      <c r="E31" s="297" t="str">
         <f>AD!B37</f>
         <v>m3CH4/kgVS</v>
       </c>
-      <c r="F31" s="301" t="s">
-        <v>816</v>
-      </c>
-      <c r="G31" s="301" t="s">
-        <v>633</v>
-      </c>
-      <c r="H31" s="301">
+      <c r="F31" s="297" t="s">
+        <v>810</v>
+      </c>
+      <c r="G31" s="297" t="s">
+        <v>629</v>
+      </c>
+      <c r="H31" s="297">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="I31" s="301">
+      <c r="I31" s="297">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J31" s="301">
+      <c r="J31" s="297">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="K31" s="301" t="str">
+      <c r="K31" s="297" t="str">
         <f>AD!H37</f>
         <v>Ebner et al., 2014</v>
       </c>
@@ -14163,10 +14155,10 @@
         <v>kgCO2e/t</v>
       </c>
       <c r="F32" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="G32" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H32">
         <f>AD!E42</f>
@@ -14202,10 +14194,10 @@
         <v>KgNvol/kg N</v>
       </c>
       <c r="F33" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G33" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H33">
         <f>AD!E43</f>
@@ -14226,52 +14218,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="293" customFormat="1">
+    <row r="34" spans="1:12" s="289" customFormat="1">
       <c r="A34" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="293" t="s">
-        <v>756</v>
-      </c>
-      <c r="E34" s="293" t="s">
+      <c r="D34" s="289" t="s">
+        <v>752</v>
+      </c>
+      <c r="E34" s="289" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="297" t="s">
-        <v>911</v>
-      </c>
-      <c r="G34" s="293" t="s">
-        <v>633</v>
-      </c>
-      <c r="H34" s="293">
+      <c r="F34" s="293" t="s">
+        <v>900</v>
+      </c>
+      <c r="G34" s="289" t="s">
+        <v>629</v>
+      </c>
+      <c r="H34" s="289">
         <v>0.1</v>
       </c>
-      <c r="I34" s="293">
+      <c r="I34" s="289">
         <v>0.02</v>
       </c>
-      <c r="J34" s="293">
+      <c r="J34" s="289">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="293" customFormat="1">
+    <row r="35" spans="1:12" s="289" customFormat="1">
       <c r="A35" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="293" t="s">
-        <v>913</v>
-      </c>
-      <c r="F35" s="297" t="s">
-        <v>914</v>
-      </c>
-      <c r="G35" s="293" t="s">
-        <v>633</v>
-      </c>
-      <c r="H35" s="293">
+      <c r="D35" s="289" t="s">
+        <v>902</v>
+      </c>
+      <c r="F35" s="293" t="s">
+        <v>903</v>
+      </c>
+      <c r="G35" s="289" t="s">
+        <v>629</v>
+      </c>
+      <c r="H35" s="289">
         <v>10</v>
       </c>
-      <c r="I35" s="293">
+      <c r="I35" s="289">
         <v>10</v>
       </c>
-      <c r="J35" s="293">
+      <c r="J35" s="289">
         <v>30</v>
       </c>
     </row>
@@ -14280,24 +14272,24 @@
         <v>36</v>
       </c>
       <c r="G36" s="59" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="D37" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="E37" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="G37" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H37" s="69">
         <v>0.3</v>
@@ -14309,12 +14301,12 @@
         <v>0.6</v>
       </c>
       <c r="K37" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="D38" t="str">
         <f>'Land application'!A10</f>
@@ -14324,10 +14316,10 @@
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G38" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H38">
         <v>20</v>
@@ -14339,61 +14331,61 @@
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="L38" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="303" customFormat="1">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="299" customFormat="1">
       <c r="A39" t="s">
-        <v>960</v>
-      </c>
-      <c r="D39" s="303" t="str">
+        <v>948</v>
+      </c>
+      <c r="D39" s="299" t="str">
         <f>'Land application'!A13</f>
         <v>Direct N2O emission factor</v>
       </c>
-      <c r="E39" s="303" t="str">
+      <c r="E39" s="299" t="str">
         <f>'Land application'!B13</f>
         <v>Kg N2O-N/kg N</v>
       </c>
-      <c r="F39" s="303" t="s">
-        <v>819</v>
-      </c>
-      <c r="G39" s="303" t="s">
-        <v>633</v>
-      </c>
-      <c r="H39" s="303">
+      <c r="F39" s="299" t="s">
+        <v>813</v>
+      </c>
+      <c r="G39" s="299" t="s">
+        <v>629</v>
+      </c>
+      <c r="H39" s="299">
         <f>'Land application'!E13</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="I39" s="303">
+      <c r="I39" s="299">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J39" s="303">
+      <c r="J39" s="299">
         <v>0.05</v>
       </c>
-      <c r="K39" s="303" t="str">
+      <c r="K39" s="299" t="str">
         <f>'Land application'!H13</f>
         <v>IPCC EF1=0.0125</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="D40" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="E40" t="str">
         <f>'Land application'!B16</f>
         <v>KgNvol/kg N</v>
       </c>
       <c r="F40" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G40" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H40">
         <f>'Land application'!E16</f>
@@ -14412,7 +14404,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="D41" t="str">
         <f>'Land application'!A20</f>
@@ -14422,10 +14414,10 @@
         <v>22</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="G41" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H41">
         <v>0.2</v>
@@ -14437,24 +14429,24 @@
         <v>0.48</v>
       </c>
       <c r="K41" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="L41" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="D42" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G42" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H42">
         <v>0.01</v>
@@ -14465,25 +14457,25 @@
         <v>105</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D44" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E44" t="str">
         <f>compost!B13</f>
         <v>L/t</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="G44" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -14500,19 +14492,19 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D45" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E45" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="F45" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="G45" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H45">
         <v>2.3E-2</v>
@@ -14527,12 +14519,12 @@
         <v>532</v>
       </c>
       <c r="L45" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="13" customHeight="1">
       <c r="A46" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D46" t="str">
         <f>compost!A18</f>
@@ -14543,10 +14535,10 @@
         <v>%/initial C</v>
       </c>
       <c r="F46" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="G46" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H46">
         <v>0.57999999999999996</v>
@@ -14558,24 +14550,27 @@
         <v>0.83</v>
       </c>
       <c r="K46" t="s">
-        <v>773</v>
+        <v>768</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D47" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E47" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F47" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="G47" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H47">
         <v>0.02</v>
@@ -14587,24 +14582,24 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="K47" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D48" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E48" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F48" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="G48" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H48">
         <v>5.0000000000000001E-3</v>
@@ -14616,7 +14611,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="K48" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="L48" t="str">
         <f>compost!H20</f>
@@ -14625,52 +14620,52 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D49" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E49" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G49" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H49">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="I49">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="J49">
-        <v>0.9</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K49" t="s">
-        <v>780</v>
+        <v>532</v>
       </c>
       <c r="L49" t="s">
-        <v>934</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D50" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E50" t="str">
         <f>compost!B36</f>
         <v>%compost/fw</v>
       </c>
       <c r="F50" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="G50" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H50">
         <v>0.4</v>
@@ -14681,19 +14676,19 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D51" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="G51" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H51">
         <v>30</v>
@@ -14707,19 +14702,19 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D52" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E52" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="F52" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="G52" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H52">
         <v>0.38</v>
@@ -14736,48 +14731,48 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D53" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E53" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F53" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="G53" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H53">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K53" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="D54" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="E54" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="F54" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="G54" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H54">
         <v>1.6E-2</v>
       </c>
       <c r="K54" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="59" customFormat="1">
@@ -14785,24 +14780,24 @@
         <v>103</v>
       </c>
       <c r="G55" s="59" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="D56" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="E56" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="F56" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="G56" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="H56">
         <v>0.1</v>
@@ -14814,7 +14809,7 @@
         <v>0.5</v>
       </c>
       <c r="K56" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -14861,26 +14856,26 @@
       <c r="B1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="203" t="s">
         <v>111</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>2</v>
@@ -14899,14 +14894,14 @@
       <c r="A2" s="42" t="s">
         <v>438</v>
       </c>
-      <c r="C2" s="208">
+      <c r="C2" s="205">
         <f>C4+C5</f>
         <v>18.482496322776335</v>
       </c>
-      <c r="D2" s="209"/>
+      <c r="D2" s="206"/>
       <c r="G2" s="54"/>
-      <c r="K2" s="263" t="s">
-        <v>849</v>
+      <c r="K2" s="260" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="47" customFormat="1">
@@ -14916,25 +14911,25 @@
       <c r="B3" s="105" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="210">
+      <c r="C3" s="207">
         <f>E3*G3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="223">
+      <c r="D3" s="208"/>
+      <c r="E3" s="220">
         <f>GlobalFactors.csv!H14</f>
         <v>5.8295314000000005</v>
       </c>
       <c r="F3" s="118"/>
-      <c r="G3" s="222"/>
+      <c r="G3" s="219"/>
       <c r="H3" s="105" t="s">
         <v>476</v>
       </c>
-      <c r="I3" s="262">
+      <c r="I3" s="259">
         <v>42010</v>
       </c>
-      <c r="J3" s="261" t="s">
-        <v>752</v>
+      <c r="J3" s="258" t="s">
+        <v>748</v>
       </c>
       <c r="K3" s="105" t="s">
         <v>457</v>
@@ -14945,13 +14940,13 @@
         <v>580</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>640</v>
-      </c>
-      <c r="C4" s="212">
+        <v>636</v>
+      </c>
+      <c r="C4" s="209">
         <f>E3*G4</f>
         <v>15.859207192776333</v>
       </c>
-      <c r="G4" s="194">
+      <c r="G4" s="191">
         <f>GlobalFactors.csv!H4</f>
         <v>2.7204943424399999</v>
       </c>
@@ -14968,11 +14963,11 @@
       <c r="B5" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="212">
+      <c r="C5" s="209">
         <f>G5*E3</f>
         <v>2.6232891300000003</v>
       </c>
-      <c r="G5" s="195">
+      <c r="G5" s="192">
         <f>GlobalFactors.csv!H3</f>
         <v>0.45</v>
       </c>
@@ -14989,84 +14984,84 @@
         <v>440</v>
       </c>
       <c r="B6" s="42"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="206"/>
     </row>
     <row r="7" spans="1:28" hidden="1">
       <c r="A7" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="200">
+      <c r="F7" s="197">
         <v>0.14399999999999999</v>
       </c>
       <c r="H7" s="111"/>
       <c r="I7" s="111" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K7" s="111" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="202" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="36">
         <f>GlobalFactors.csv!H15</f>
         <v>0.1</v>
       </c>
-      <c r="F8" s="200"/>
+      <c r="F8" s="197"/>
       <c r="H8" s="114" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I8" s="114"/>
       <c r="K8" s="27" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="111" t="s">
-        <v>624</v>
-      </c>
-      <c r="B9" s="205" t="s">
+        <v>622</v>
+      </c>
+      <c r="B9" s="202" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="36">
         <v>1</v>
       </c>
-      <c r="F9" s="200"/>
+      <c r="F9" s="197"/>
       <c r="H9" s="114" t="s">
         <v>116</v>
       </c>
       <c r="I9" s="114" t="s">
-        <v>646</v>
-      </c>
-      <c r="K9" s="205" t="s">
-        <v>676</v>
+        <v>642</v>
+      </c>
+      <c r="K9" s="202" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="111" t="s">
-        <v>623</v>
-      </c>
-      <c r="B10" s="205" t="s">
+        <v>621</v>
+      </c>
+      <c r="B10" s="202" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="36">
         <v>0.9</v>
       </c>
-      <c r="F10" s="200"/>
+      <c r="F10" s="197"/>
       <c r="H10" s="111" t="s">
         <v>116</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>648</v>
-      </c>
-      <c r="K10" s="193" t="s">
-        <v>647</v>
+        <v>644</v>
+      </c>
+      <c r="K10" s="190" t="s">
+        <v>643</v>
       </c>
       <c r="Y10" s="38" t="e">
         <f>#REF!*44/12</f>
@@ -15083,7 +15078,7 @@
       <c r="A11" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="201">
+      <c r="F11" s="198">
         <f>Parameters!E27</f>
         <v>334.11111111111109</v>
       </c>
@@ -15092,7 +15087,7 @@
       <c r="A12" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="200">
+      <c r="F12" s="197">
         <f>Parameters!D27</f>
         <v>0.27</v>
       </c>
@@ -15104,7 +15099,7 @@
       <c r="B13" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="202">
+      <c r="F13" s="199">
         <f>Parameters!F27</f>
         <v>90.21</v>
       </c>
@@ -15119,16 +15114,16 @@
       <c r="B14" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="213">
+      <c r="C14" s="210">
         <f>F13*D16*Parameters!C19*Parameters!C6</f>
         <v>680.18065018405377</v>
       </c>
-      <c r="D14" s="214"/>
+      <c r="D14" s="211"/>
       <c r="H14" s="49" t="s">
         <v>117</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -15142,8 +15137,8 @@
         <f>GlobalFactors.csv!H20</f>
         <v>1</v>
       </c>
-      <c r="K15" s="264" t="s">
-        <v>759</v>
+      <c r="K15" s="261" t="s">
+        <v>755</v>
       </c>
       <c r="Q15" s="111"/>
     </row>
@@ -15154,7 +15149,7 @@
       <c r="B16" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="212">
+      <c r="D16" s="209">
         <f>E87</f>
         <v>0.40191735168523723</v>
       </c>
@@ -15170,7 +15165,7 @@
       <c r="B17" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="212">
+      <c r="C17" s="209">
         <f>D16*F13*G15*Parameters!C19*Parameters!C6</f>
         <v>680.18065018405377</v>
       </c>
@@ -15183,11 +15178,11 @@
       <c r="B18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="208">
+      <c r="C18" s="205">
         <f>-D23*Parameters!C14/1000</f>
         <v>-56.785521243807985</v>
       </c>
-      <c r="D18" s="209"/>
+      <c r="D18" s="206"/>
       <c r="G18" s="37">
         <f>Parameters!C14</f>
         <v>533.66</v>
@@ -15206,12 +15201,12 @@
       <c r="B19" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="215">
+      <c r="D19" s="212">
         <f>F87*E10</f>
         <v>0.39079134175188118</v>
       </c>
       <c r="K19" s="111" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="Q19" s="111"/>
     </row>
@@ -15222,11 +15217,11 @@
       <c r="B20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="215">
+      <c r="D20" s="212">
         <f>F13*D19</f>
         <v>35.253286939437196</v>
       </c>
-      <c r="G20" s="195">
+      <c r="G20" s="192">
         <f>Parameters!C20</f>
         <v>35315</v>
       </c>
@@ -15239,40 +15234,40 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="264" t="s">
-        <v>787</v>
-      </c>
-      <c r="B21" s="264" t="s">
+      <c r="A21" s="261" t="s">
+        <v>782</v>
+      </c>
+      <c r="B21" s="261" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="215"/>
-      <c r="G21" s="195"/>
+      <c r="D21" s="212"/>
+      <c r="G21" s="192"/>
       <c r="H21" s="111"/>
       <c r="I21" s="111"/>
-      <c r="K21" s="264" t="s">
-        <v>788</v>
+      <c r="K21" s="261" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="205" t="s">
-        <v>669</v>
-      </c>
-      <c r="B22" s="205" t="s">
-        <v>670</v>
-      </c>
-      <c r="D22" s="215"/>
-      <c r="E22" s="195">
+      <c r="A22" s="202" t="s">
+        <v>665</v>
+      </c>
+      <c r="B22" s="202" t="s">
+        <v>666</v>
+      </c>
+      <c r="D22" s="212"/>
+      <c r="E22" s="192">
         <f>GlobalFactors.csv!H17</f>
         <v>11700</v>
       </c>
-      <c r="F22" s="195"/>
-      <c r="G22" s="264"/>
-      <c r="H22" s="264" t="s">
-        <v>758</v>
+      <c r="F22" s="192"/>
+      <c r="G22" s="261"/>
+      <c r="H22" s="261" t="s">
+        <v>754</v>
       </c>
       <c r="I22" s="111"/>
-      <c r="K22" s="264" t="s">
-        <v>757</v>
+      <c r="K22" s="261" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -15282,12 +15277,12 @@
       <c r="B23" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="212">
+      <c r="D23" s="209">
         <f>D20*G20/E22</f>
         <v>106.40767762959184</v>
       </c>
       <c r="I23" s="111"/>
-      <c r="K23" s="264" t="s">
+      <c r="K23" s="261" t="s">
         <v>475</v>
       </c>
     </row>
@@ -15298,11 +15293,11 @@
       <c r="B24" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="216">
+      <c r="C24" s="213">
         <f>D28*-44/12</f>
         <v>-84.966161861607617</v>
       </c>
-      <c r="D24" s="216">
+      <c r="D24" s="213">
         <f>F25*G24</f>
         <v>0</v>
       </c>
@@ -15324,92 +15319,92 @@
       <c r="B25" s="116" t="s">
         <v>441</v>
       </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="F25" s="218">
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="F25" s="215">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
       <c r="J25" s="116" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="K25" s="116" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="116" customFormat="1">
       <c r="A26" s="116" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B26" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="F26" s="204">
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
+      <c r="F26" s="201">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
       <c r="J26" s="116" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="K26" s="116" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="42" customFormat="1">
       <c r="A27" s="42" t="s">
-        <v>835</v>
-      </c>
-      <c r="C27" s="208"/>
-      <c r="D27" s="208"/>
-      <c r="E27" s="273"/>
-      <c r="F27" s="274"/>
+        <v>829</v>
+      </c>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="271"/>
       <c r="J27" s="42" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="K27" s="42" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="47" customFormat="1">
       <c r="A28" s="116" t="s">
         <v>531</v>
       </c>
-      <c r="B28" s="203" t="s">
-        <v>595</v>
-      </c>
-      <c r="C28" s="211"/>
-      <c r="D28" s="210">
+      <c r="B28" s="200" t="s">
+        <v>593</v>
+      </c>
+      <c r="C28" s="208"/>
+      <c r="D28" s="207">
         <f>F25*(1-F26)*G29</f>
         <v>23.172589598620259</v>
       </c>
       <c r="F28" s="169"/>
-      <c r="G28" s="272"/>
-      <c r="H28" s="271"/>
-      <c r="I28" s="271"/>
+      <c r="G28" s="269"/>
+      <c r="H28" s="268"/>
+      <c r="I28" s="268"/>
       <c r="K28" s="116" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="264" t="s">
-        <v>756</v>
-      </c>
-      <c r="B29" s="264" t="s">
-        <v>836</v>
-      </c>
-      <c r="G29" s="195">
+      <c r="A29" s="261" t="s">
+        <v>752</v>
+      </c>
+      <c r="B29" s="261" t="s">
+        <v>830</v>
+      </c>
+      <c r="G29" s="192">
         <v>1</v>
       </c>
-      <c r="H29" s="277">
+      <c r="H29" s="273">
         <f>D28/0.3/1000</f>
         <v>7.7241965328734202E-2</v>
       </c>
-      <c r="I29" s="310"/>
+      <c r="I29" s="306"/>
       <c r="J29" s="29"/>
-      <c r="K29" s="264" t="s">
-        <v>990</v>
+      <c r="K29" s="261" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -15417,9 +15412,9 @@
         <v>110</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>626</v>
-      </c>
-      <c r="C31" s="208">
+        <v>624</v>
+      </c>
+      <c r="C31" s="205">
         <f>SUM(C14,C18,C24,C2)</f>
         <v>556.91146340141449</v>
       </c>
@@ -15434,8 +15429,8 @@
       <c r="A34" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H34" s="265" t="s">
-        <v>710</v>
+      <c r="H34" s="262" t="s">
+        <v>706</v>
       </c>
       <c r="L34" s="37" t="s">
         <v>97</v>
@@ -15458,7 +15453,7 @@
       <c r="B35" s="111" t="s">
         <v>469</v>
       </c>
-      <c r="C35" s="217"/>
+      <c r="C35" s="214"/>
       <c r="D35" s="119" t="s">
         <v>85</v>
       </c>
@@ -15485,11 +15480,11 @@
       <c r="B36" s="111" t="s">
         <v>448</v>
       </c>
-      <c r="C36" s="217" t="s">
+      <c r="C36" s="214" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="311" t="s">
-        <v>991</v>
+      <c r="D36" s="307" t="s">
+        <v>979</v>
       </c>
       <c r="E36" s="111" t="s">
         <v>450</v>
@@ -18276,7 +18271,7 @@
       <c r="C87" s="119">
         <v>0.1</v>
       </c>
-      <c r="E87" s="224">
+      <c r="E87" s="221">
         <f>SUM(E37:E86)</f>
         <v>0.40191735168523723</v>
       </c>
@@ -18344,8 +18339,8 @@
       </c>
     </row>
     <row r="88" spans="1:30">
-      <c r="A88" s="312" t="s">
-        <v>992</v>
+      <c r="A88" s="308" t="s">
+        <v>980</v>
       </c>
       <c r="B88" s="111"/>
       <c r="Z88" s="36" t="e">
@@ -18826,8 +18821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18855,19 +18850,19 @@
         <v>111</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -18970,22 +18965,22 @@
     </row>
     <row r="10" spans="1:20" s="45" customFormat="1">
       <c r="A10" s="45" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>919</v>
-      </c>
-      <c r="C10" s="280">
+        <v>908</v>
+      </c>
+      <c r="C10" s="276">
         <f>D13*(GlobalFactors.csv!H4+GlobalFactors.csv!H3)</f>
         <v>8.4018100074660005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B11" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E11">
         <v>10.6</v>
@@ -18993,21 +18988,21 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="B12" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="E12">
         <v>0.25</v>
       </c>
       <c r="J12" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="B13" t="s">
         <v>456</v>
@@ -19017,7 +19012,7 @@
         <v>2.65</v>
       </c>
       <c r="J13" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1">
@@ -19038,7 +19033,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="F15" s="304">
+      <c r="F15" s="300">
         <f>Parameters!F27</f>
         <v>90.21</v>
       </c>
@@ -19047,161 +19042,161 @@
     </row>
     <row r="16" spans="1:20" s="15" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>971</v>
-      </c>
-      <c r="F16" s="304"/>
-      <c r="G16" s="314">
+        <v>959</v>
+      </c>
+      <c r="F16" s="300"/>
+      <c r="G16" s="310">
         <f>GlobalFactors.csv!H23</f>
         <v>0.9</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="322">
+      <c r="D17" s="317">
         <f>F15*G16</f>
         <v>81.188999999999993</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:12" s="293" customFormat="1" ht="14" customHeight="1">
-      <c r="A18" s="297" t="s">
-        <v>683</v>
-      </c>
-      <c r="B18" s="297" t="s">
-        <v>684</v>
-      </c>
-      <c r="C18" s="298"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="293">
+    <row r="18" spans="1:12" s="289" customFormat="1" ht="14" customHeight="1">
+      <c r="A18" s="293" t="s">
+        <v>679</v>
+      </c>
+      <c r="B18" s="293" t="s">
+        <v>680</v>
+      </c>
+      <c r="C18" s="294"/>
+      <c r="D18" s="295"/>
+      <c r="E18" s="289">
         <v>0.03</v>
       </c>
-      <c r="H18" s="293" t="s">
+      <c r="H18" s="289" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="293" t="s">
-        <v>666</v>
-      </c>
-      <c r="J18" s="293" t="s">
+      <c r="I18" s="289" t="s">
+        <v>662</v>
+      </c>
+      <c r="J18" s="289" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="315">
+      <c r="D19" s="311">
         <f>D17*G19</f>
         <v>2.4356699999999996</v>
       </c>
-      <c r="F19" s="304"/>
-      <c r="G19" s="314">
+      <c r="F19" s="300"/>
+      <c r="G19" s="310">
         <f>GlobalFactors.csv!H24</f>
         <v>0.03</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="C20" s="305"/>
-      <c r="D20" s="305">
+      <c r="C20" s="301"/>
+      <c r="D20" s="301">
         <f>D19*Parameters!C19</f>
         <v>1.6318988999999997</v>
       </c>
-      <c r="F20" s="304"/>
-      <c r="G20" s="314"/>
+      <c r="F20" s="300"/>
+      <c r="G20" s="310"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:12" s="15" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="315">
+      <c r="D21" s="311">
         <f>D17*0.03</f>
         <v>2.4356699999999996</v>
       </c>
-      <c r="F21" s="304"/>
-      <c r="G21" s="314">
+      <c r="F21" s="300"/>
+      <c r="G21" s="310">
         <f>GlobalFactors.csv!H25</f>
         <v>0.03</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="15" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="15" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="D22" s="315">
+      <c r="D22" s="311">
         <f>D21*Parameters!C19</f>
         <v>1.6318988999999997</v>
       </c>
-      <c r="F22" s="304"/>
-      <c r="G22" s="314"/>
+      <c r="F22" s="300"/>
+      <c r="G22" s="310"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="316">
+      <c r="D23" s="312">
         <f>D17-D21-D19</f>
         <v>76.317659999999989</v>
       </c>
-      <c r="F23" s="304"/>
-      <c r="G23" s="314"/>
+      <c r="F23" s="300"/>
+      <c r="G23" s="310"/>
       <c r="H23" s="15" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>28</v>
@@ -19210,17 +19205,17 @@
         <f>D22*Parameters!C6</f>
         <v>45.693169199999993</v>
       </c>
-      <c r="D24" s="230"/>
+      <c r="D24" s="227"/>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A25" s="225" t="s">
-        <v>685</v>
+      <c r="A25" s="222" t="s">
+        <v>681</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C25" s="89"/>
-      <c r="D25" s="230"/>
+      <c r="D25" s="227"/>
       <c r="E25" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -19235,7 +19230,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="225" t="s">
+      <c r="A26" s="222" t="s">
         <v>420</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -19245,46 +19240,46 @@
         <f>D26*Parameters!C19*Parameters!C6</f>
         <v>7.1585965079999987</v>
       </c>
-      <c r="D26" s="231">
+      <c r="D26" s="228">
         <f>D23*E25</f>
         <v>0.38158829999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="293" customFormat="1">
-      <c r="A27" s="297" t="s">
+    <row r="27" spans="1:12" s="289" customFormat="1">
+      <c r="A27" s="293" t="s">
         <v>387</v>
       </c>
-      <c r="B27" s="297" t="s">
+      <c r="B27" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="300"/>
-      <c r="E27" s="300">
+      <c r="D27" s="296"/>
+      <c r="E27" s="296">
         <f>GlobalFactors.csv!H28</f>
         <v>4.19318820416827</v>
       </c>
-      <c r="F27" s="293">
+      <c r="F27" s="289">
         <f>3.6</f>
         <v>3.6</v>
       </c>
-      <c r="G27" s="300">
+      <c r="G27" s="296">
         <f>4.5</f>
         <v>4.5</v>
       </c>
-      <c r="H27" s="293" t="s">
+      <c r="H27" s="289" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="293" t="s">
-        <v>848</v>
-      </c>
-      <c r="J27" s="293" t="s">
-        <v>974</v>
+      <c r="I27" s="289" t="s">
+        <v>842</v>
+      </c>
+      <c r="J27" s="289" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="225" t="s">
+      <c r="A28" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="225" t="s">
+      <c r="B28" s="222" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="110">
@@ -19300,21 +19295,21 @@
         <v>2.3543133333333337</v>
       </c>
       <c r="J28" s="86" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="K28">
         <v>35.314700000000002</v>
       </c>
       <c r="L28" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="225" t="s">
-        <v>667</v>
+      <c r="A29" s="222" t="s">
+        <v>663</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D29" s="110"/>
       <c r="E29" s="10">
@@ -19326,10 +19321,10 @@
         <v>31</v>
       </c>
       <c r="I29" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J29" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -19351,11 +19346,11 @@
       <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="232">
+      <c r="C31" s="229">
         <f>D30*G31</f>
         <v>-194.91877890067855</v>
       </c>
-      <c r="G31" s="292">
+      <c r="G31" s="288">
         <f>GlobalFactors.csv!H5</f>
         <v>-692.15220789071998</v>
       </c>
@@ -19365,7 +19360,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>28</v>
@@ -19383,17 +19378,17 @@
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1">
       <c r="A34" s="88" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C34" s="89"/>
-      <c r="F34" s="220">
+      <c r="F34" s="217">
         <f>Parameters!D27</f>
         <v>0.27</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="46" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>22</v>
@@ -19403,12 +19398,12 @@
         <f>GlobalFactors.csv!H30</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F35" s="219"/>
+      <c r="F35" s="216"/>
       <c r="H35" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>388</v>
@@ -19421,36 +19416,36 @@
       <c r="B36" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D36" s="221">
+      <c r="D36" s="218">
         <f>F34*1000*(1-E35)</f>
         <v>121.49999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="293" customFormat="1">
-      <c r="A37" s="295" t="s">
-        <v>678</v>
-      </c>
-      <c r="B37" s="293" t="s">
+    <row r="37" spans="1:10" s="289" customFormat="1">
+      <c r="A37" s="291" t="s">
         <v>674</v>
       </c>
-      <c r="D37" s="294"/>
-      <c r="E37" s="293">
+      <c r="B37" s="289" t="s">
+        <v>670</v>
+      </c>
+      <c r="D37" s="290"/>
+      <c r="E37" s="289">
         <f>GlobalFactors.csv!H31</f>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H37" s="293" t="s">
+      <c r="H37" s="289" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="296" t="s">
-        <v>707</v>
+      <c r="I37" s="292" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B38" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D38" s="90">
         <f>D36*E37</f>
@@ -19459,7 +19454,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -19505,7 +19500,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -19527,10 +19522,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B43" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="10">
@@ -19544,10 +19539,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B44" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E44" s="10">
         <f>0.01</f>
@@ -19563,7 +19558,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
@@ -19575,7 +19570,7 @@
     </row>
     <row r="46" spans="1:10" s="3" customFormat="1">
       <c r="A46" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>28</v>
@@ -19593,33 +19588,33 @@
     </row>
     <row r="48" spans="1:10" s="6" customFormat="1">
       <c r="A48" s="46" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="G48" s="266">
+        <v>868</v>
+      </c>
+      <c r="G48" s="263">
         <f>GlobalFactors.csv!H8</f>
         <v>0.3</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="6" customFormat="1">
       <c r="A49" s="46" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="228">
+      <c r="E49" s="225">
         <f>GlobalFactors.csv!H35</f>
         <v>10</v>
       </c>
@@ -19627,34 +19622,34 @@
     </row>
     <row r="50" spans="1:11" s="6" customFormat="1">
       <c r="A50" s="46" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="D50" s="6">
         <f>E49*G48</f>
         <v>3</v>
       </c>
-      <c r="E50" s="228"/>
+      <c r="E50" s="225"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:11" s="293" customFormat="1">
-      <c r="A51" s="293" t="s">
-        <v>692</v>
-      </c>
-      <c r="B51" s="293" t="s">
+    <row r="51" spans="1:11" s="289" customFormat="1">
+      <c r="A51" s="289" t="s">
+        <v>688</v>
+      </c>
+      <c r="B51" s="289" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="294">
+      <c r="D51" s="290">
         <f>E49*G48*(GlobalFactors.csv!H4+GlobalFactors.csv!H3)</f>
         <v>9.5114830273200006</v>
       </c>
-      <c r="H51" s="293" t="s">
+      <c r="H51" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="293" t="s">
-        <v>693</v>
+      <c r="I51" s="289" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -19681,10 +19676,10 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B53" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D53" s="9">
         <f>D52*Parameters!C$16*Parameters!$C$5/1000*E53</f>
@@ -19700,10 +19695,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B54" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="10">
@@ -19711,15 +19706,15 @@
         <v>0.2</v>
       </c>
       <c r="H54" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B55" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D55" s="9">
         <f>E55*E54*D52*Parameters!C16*Parameters!C5/1000</f>
@@ -19730,7 +19725,7 @@
         <v>0.01</v>
       </c>
       <c r="H55" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -19760,34 +19755,34 @@
         <v>478</v>
       </c>
       <c r="B58" s="116" t="s">
-        <v>700</v>
-      </c>
-      <c r="C58" s="210"/>
-      <c r="D58" s="210"/>
-      <c r="F58" s="218">
+        <v>696</v>
+      </c>
+      <c r="C58" s="207"/>
+      <c r="D58" s="207"/>
+      <c r="F58" s="215">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
       <c r="H58" s="116" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I58" s="116" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J58" s="116" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="116" customFormat="1" ht="14" hidden="1">
       <c r="A59" s="116" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B59" s="116" t="s">
-        <v>699</v>
-      </c>
-      <c r="C59" s="210"/>
-      <c r="D59" s="210"/>
-      <c r="F59" s="204">
+        <v>695</v>
+      </c>
+      <c r="C59" s="207"/>
+      <c r="D59" s="207"/>
+      <c r="F59" s="201">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
@@ -19798,13 +19793,13 @@
     </row>
     <row r="60" spans="1:11" s="47" customFormat="1" hidden="1">
       <c r="A60" s="116" t="s">
-        <v>964</v>
-      </c>
-      <c r="B60" s="226" t="s">
-        <v>698</v>
-      </c>
-      <c r="C60" s="308"/>
-      <c r="D60" s="278">
+        <v>952</v>
+      </c>
+      <c r="B60" s="223" t="s">
+        <v>694</v>
+      </c>
+      <c r="C60" s="304"/>
+      <c r="D60" s="274">
         <f>F58*(1-F59)</f>
         <v>23.172589598620259</v>
       </c>
@@ -19812,81 +19807,81 @@
         <f>D60/F58</f>
         <v>0.15900000000000003</v>
       </c>
-      <c r="J60" s="261" t="s">
-        <v>898</v>
-      </c>
-      <c r="K60" s="190"/>
+      <c r="J60" s="258" t="s">
+        <v>888</v>
+      </c>
+      <c r="K60" s="188"/>
     </row>
     <row r="61" spans="1:11" s="47" customFormat="1">
       <c r="A61" s="116" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B61" s="226"/>
-      <c r="C61" s="308"/>
-      <c r="D61" s="278"/>
+        <v>1023</v>
+      </c>
+      <c r="B61" s="223"/>
+      <c r="C61" s="304"/>
+      <c r="D61" s="274"/>
       <c r="F61" s="169"/>
       <c r="G61" s="47">
         <v>0.6</v>
       </c>
-      <c r="J61" s="261"/>
-      <c r="K61" s="190"/>
+      <c r="J61" s="258"/>
+      <c r="K61" s="188"/>
     </row>
     <row r="62" spans="1:11" s="47" customFormat="1">
       <c r="A62" s="116" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B62" s="261" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C62" s="308"/>
-      <c r="D62" s="278">
+        <v>1024</v>
+      </c>
+      <c r="B62" s="258" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C62" s="304"/>
+      <c r="D62" s="274">
         <f>D17/G61</f>
         <v>135.315</v>
       </c>
       <c r="F62" s="169"/>
-      <c r="J62" s="261"/>
-      <c r="K62" s="190"/>
+      <c r="J62" s="258"/>
+      <c r="K62" s="188"/>
     </row>
     <row r="63" spans="1:11" s="47" customFormat="1">
       <c r="A63" s="116" t="s">
-        <v>966</v>
-      </c>
-      <c r="B63" s="261" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C63" s="308"/>
-      <c r="D63" s="278">
+        <v>954</v>
+      </c>
+      <c r="B63" s="258" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C63" s="304"/>
+      <c r="D63" s="274">
         <f>D62*G61</f>
         <v>81.188999999999993</v>
       </c>
       <c r="F63" s="169"/>
-      <c r="J63" s="261"/>
-      <c r="K63" s="190"/>
+      <c r="J63" s="258"/>
+      <c r="K63" s="188"/>
     </row>
     <row r="64" spans="1:11" s="47" customFormat="1">
       <c r="A64" s="116" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B64" s="261" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C64" s="308"/>
-      <c r="D64" s="278">
+        <v>1025</v>
+      </c>
+      <c r="B64" s="258" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C64" s="304"/>
+      <c r="D64" s="274">
         <f>D62*(1-G61)</f>
         <v>54.126000000000005</v>
       </c>
       <c r="F64" s="169"/>
-      <c r="J64" s="261"/>
-      <c r="K64" s="190"/>
-    </row>
-    <row r="65" spans="1:10" s="318" customFormat="1">
-      <c r="A65" s="317" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B65" s="318" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D65" s="319">
+      <c r="J64" s="258"/>
+      <c r="K64" s="188"/>
+    </row>
+    <row r="65" spans="1:10" s="314" customFormat="1">
+      <c r="A65" s="313" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B65" s="314" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D65" s="315">
         <f>D63*Parameters!C19*F65</f>
         <v>40.797472499999998</v>
       </c>
@@ -19895,17 +19890,17 @@
         <v>0.75</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="15" customFormat="1">
-      <c r="A66" s="317" t="s">
-        <v>976</v>
+      <c r="A66" s="313" t="s">
+        <v>964</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D66" s="238">
+        <v>1012</v>
+      </c>
+      <c r="D66" s="235">
         <f>D64*Parameters!C21*AD!F66</f>
         <v>29.228040000000007</v>
       </c>
@@ -19914,40 +19909,40 @@
         <v>0.27272727272727276</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="15" customFormat="1">
-      <c r="A67" s="317" t="s">
-        <v>1022</v>
+      <c r="A67" s="313" t="s">
+        <v>1010</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D67" s="238">
+        <v>1011</v>
+      </c>
+      <c r="D67" s="235">
         <f>D39/Parameters!C18</f>
         <v>3.2969024999999998</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="15" customFormat="1">
-      <c r="A68" s="317" t="s">
-        <v>894</v>
+      <c r="A68" s="313" t="s">
+        <v>884</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D68" s="315">
+        <v>885</v>
+      </c>
+      <c r="D68" s="311">
         <f>F58-D65-D66-D67</f>
         <v>72.417142224026747</v>
       </c>
-      <c r="G68" s="315"/>
+      <c r="G68" s="311"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="116" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="D69" s="86">
         <f>D68*F69</f>
@@ -19959,24 +19954,24 @@
       </c>
       <c r="G69" s="53"/>
       <c r="I69" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="J69" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="15" customFormat="1">
-      <c r="A70" s="317" t="s">
-        <v>978</v>
+      <c r="A70" s="313" t="s">
+        <v>966</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="315">
+      <c r="C70" s="311">
         <f>D69*-Parameters!C17</f>
         <v>-26.552952148809808</v>
       </c>
-      <c r="E70" s="320">
+      <c r="E70" s="316">
         <f>D69/F58</f>
         <v>4.9689421049021819E-2</v>
       </c>
@@ -19985,7 +19980,7 @@
       <c r="A71" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="C71" s="183">
+      <c r="C71" s="182">
         <f>C14+C33+C47+C57+C10</f>
         <v>14.277897693297636</v>
       </c>
@@ -20066,7 +20061,7 @@
     </row>
     <row r="77" spans="1:10" s="3" customFormat="1">
       <c r="A77" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>28</v>
@@ -20075,13 +20070,13 @@
         <f>D75+D76</f>
         <v>-14.996581600000003</v>
       </c>
-      <c r="D77" s="233"/>
+      <c r="D77" s="230"/>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1">
       <c r="A78" s="88" t="s">
-        <v>706</v>
-      </c>
-      <c r="C78" s="234">
+        <v>702</v>
+      </c>
+      <c r="C78" s="231">
         <f>C71+C77</f>
         <v>-0.71868390670236693</v>
       </c>
@@ -20159,19 +20154,19 @@
         <v>111</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -20274,32 +20269,32 @@
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="279">
+      <c r="C7" s="275">
         <f>C10+C12</f>
         <v>52.836966054640001</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1">
       <c r="A8" s="46" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="C8" s="227"/>
-      <c r="E8" s="230">
+        <v>868</v>
+      </c>
+      <c r="C8" s="224"/>
+      <c r="E8" s="227">
         <f>GlobalFactors.csv!H8</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1">
       <c r="A9" s="46" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="227"/>
+      <c r="C9" s="224"/>
       <c r="E9" s="5">
         <f>GlobalFactors.csv!H38</f>
         <v>20</v>
@@ -20316,8 +20311,8 @@
         <f>E9*E8*(GlobalFactors.csv!H3+GlobalFactors.csv!H4)</f>
         <v>19.022966054640001</v>
       </c>
-      <c r="G10" s="235" t="s">
-        <v>709</v>
+      <c r="G10" s="232" t="s">
+        <v>705</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -20353,10 +20348,10 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B13" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C13" s="18"/>
       <c r="E13" s="4">
@@ -20380,32 +20375,32 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="4">
         <v>0.01</v>
       </c>
       <c r="H15" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B16" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10">
         <v>0.2</v>
       </c>
       <c r="H16" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -20431,45 +20426,45 @@
         <v>478</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>700</v>
-      </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="F19" s="218">
+        <v>696</v>
+      </c>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="F19" s="215">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
       <c r="H19" s="116" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I19" s="116" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J19" s="116" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="116" customFormat="1" ht="14">
       <c r="A20" s="116" t="s">
-        <v>756</v>
-      </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
+        <v>752</v>
+      </c>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
       <c r="E20" s="116">
         <v>1</v>
       </c>
-      <c r="F20" s="218"/>
+      <c r="F20" s="215"/>
     </row>
     <row r="21" spans="1:11" s="116" customFormat="1" ht="14">
       <c r="A21" s="116" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>699</v>
-      </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="F21" s="204">
+        <v>695</v>
+      </c>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="F21" s="201">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
@@ -20482,66 +20477,66 @@
       <c r="A22" s="116" t="s">
         <v>531</v>
       </c>
-      <c r="B22" s="226" t="s">
-        <v>698</v>
-      </c>
-      <c r="D22" s="210">
+      <c r="B22" s="223" t="s">
+        <v>694</v>
+      </c>
+      <c r="D22" s="207">
         <f>F19*(1-F21)</f>
         <v>23.172589598620259</v>
       </c>
       <c r="F22" s="169"/>
-      <c r="J22" s="203" t="s">
-        <v>658</v>
-      </c>
-      <c r="K22" s="190"/>
+      <c r="J22" s="200" t="s">
+        <v>654</v>
+      </c>
+      <c r="K22" s="188"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="116" t="s">
-        <v>896</v>
-      </c>
-      <c r="C23" s="229">
+        <v>886</v>
+      </c>
+      <c r="C23" s="226">
         <f>-D23*Parameters!C17</f>
-        <v>-59.47631330312533</v>
+        <v>-8.4966161861607628</v>
       </c>
       <c r="D23" s="86">
         <f>D22*(F23)</f>
-        <v>16.220812719034182</v>
+        <v>2.3172589598620261</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" s="10">
         <f>GlobalFactors.csv!H49</f>
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G23" s="53">
         <f>D23/F19</f>
-        <v>0.11130000000000002</v>
+        <v>1.5900000000000004E-2</v>
       </c>
       <c r="H23" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="I23" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="J23" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="44" customFormat="1">
       <c r="A24" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="C24" s="183">
+      <c r="C24" s="182">
         <f>C23+C7</f>
-        <v>-6.6393472484853291</v>
+        <v>44.340349868479237</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1">
       <c r="A25" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="237">
+      <c r="C25" s="234">
         <f>D29+D30</f>
         <v>-20.974240000000002</v>
       </c>
@@ -20553,7 +20548,7 @@
       <c r="B26" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="236"/>
+      <c r="C26" s="233"/>
       <c r="D26" s="88"/>
       <c r="E26" s="88"/>
       <c r="F26" s="10">
@@ -20571,7 +20566,7 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="93">
@@ -20604,7 +20599,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B29" t="s">
         <v>395</v>
@@ -20617,7 +20612,7 @@
         <v>-6.8</v>
       </c>
       <c r="G29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H29" t="s">
         <v>398</v>
@@ -20639,7 +20634,7 @@
         <v>-5.4</v>
       </c>
       <c r="G30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H30" t="s">
         <v>428</v>
@@ -20647,10 +20642,10 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D31" s="9">
         <f>F31*D28/1000</f>
@@ -20660,19 +20655,19 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D32" s="9"/>
       <c r="F32" s="4">
         <v>0.75</v>
       </c>
       <c r="G32" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="44" customFormat="1">
@@ -20681,7 +20676,7 @@
       </c>
       <c r="C33" s="95">
         <f>C24+C25</f>
-        <v>-27.613587248485331</v>
+        <v>23.366109868479235</v>
       </c>
     </row>
   </sheetData>
@@ -20699,8 +20694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20722,19 +20717,19 @@
         <v>111</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -20766,7 +20761,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J2" s="43" t="s">
         <v>5</v>
@@ -20891,7 +20886,7 @@
         <v>456</v>
       </c>
       <c r="C13" s="109"/>
-      <c r="E13" s="267">
+      <c r="E13" s="264">
         <f>GlobalFactors.csv!H44</f>
         <v>3</v>
       </c>
@@ -20902,8 +20897,8 @@
         <f>GlobalFactors.csv!I44</f>
         <v>0.4</v>
       </c>
-      <c r="J13" s="192" t="s">
-        <v>953</v>
+      <c r="J13" s="189" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="46" customFormat="1">
@@ -20930,7 +20925,7 @@
     </row>
     <row r="15" spans="1:20" s="46" customFormat="1">
       <c r="A15" s="46" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>28</v>
@@ -20944,7 +20939,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="13" customFormat="1">
@@ -20952,7 +20947,7 @@
         <v>434</v>
       </c>
       <c r="C16" s="40">
-        <f>C22+C27</f>
+        <f>C22+C28</f>
         <v>81.854229962770901</v>
       </c>
     </row>
@@ -20965,7 +20960,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="F17" s="191">
+      <c r="F17" s="320">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
@@ -20976,13 +20971,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="177">
+      <c r="D18" s="311">
         <f>F17*E18</f>
         <v>84.528943189935518</v>
       </c>
@@ -20998,18 +20993,18 @@
         <v>0.4</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>772</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="177"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="4">
         <f>GlobalFactors.csv!H47</f>
         <v>0.02</v>
@@ -21021,10 +21016,10 @@
         <v>576</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="238">
+      <c r="D20" s="235">
         <f>D18*E19</f>
         <v>1.6905788637987105</v>
       </c>
@@ -21033,7 +21028,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="5" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -21044,7 +21039,7 @@
         <v>586</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="175">
+      <c r="D21" s="319">
         <f>D20*Parameters!C18</f>
         <v>2.254105151731614</v>
       </c>
@@ -21052,19 +21047,19 @@
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1">
       <c r="A22" s="14" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="174">
+      <c r="C22" s="312">
         <f>D21*Parameters!C6</f>
         <v>63.114944248485187</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="J22" s="14" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -21074,213 +21069,202 @@
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="176"/>
-      <c r="F23" s="99">
+      <c r="D23" s="175"/>
+      <c r="F23" s="321">
         <f>Parameters!G27</f>
         <v>9000</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="C24" s="2">
+        <v>976</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.40600000000000003</v>
       </c>
-      <c r="D24" s="309"/>
       <c r="F24" s="99"/>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E25" s="4">
+    <row r="25" spans="1:11" s="2" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="322">
+        <f>D24*GlobalFactors.csv!H42*(Parameters!C16*Parameters!C5)</f>
+        <v>1.6907000000000001</v>
+      </c>
+      <c r="D25" s="305"/>
+      <c r="F25" s="99"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D26" s="86">
+        <f>F23/1000*E26</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E26" s="4">
         <f>GlobalFactors.csv!H48</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H25" t="s">
-        <v>872</v>
-      </c>
-      <c r="I25">
-        <f>GlobalFactors.csv!I48</f>
-        <v>1E-3</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="H26" t="s">
+        <v>532</v>
+      </c>
+      <c r="I26" t="s">
+        <v>862</v>
+      </c>
+      <c r="J26" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="C26" s="177"/>
-      <c r="D26" s="21">
-        <f>E25*F23*Parameters!C16/1000</f>
-        <v>7.0714285714285702E-2</v>
-      </c>
-      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="15" t="s">
-        <v>853</v>
+        <v>390</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C27" s="176"/>
+      <c r="D27" s="21">
+        <f>D26*Parameters!C16</f>
+        <v>7.0714285714285716E-2</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="177">
-        <f>D26*Parameters!C5</f>
-        <v>18.73928571428571</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="J27" s="186" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="13" customFormat="1">
-      <c r="A28" s="13" t="s">
+      <c r="C28" s="176">
+        <f>D27*Parameters!C5</f>
+        <v>18.739285714285714</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="H28" t="s">
+        <v>532</v>
+      </c>
+      <c r="J28" s="323" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="13" customFormat="1">
+      <c r="A29" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C29" s="40">
         <f>C34</f>
-        <v>-16.993232372321526</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" hidden="1">
-      <c r="A29" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="D29" s="110">
+        <v>-22.443891812500119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="6" customFormat="1" hidden="1">
+      <c r="A30" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D30" s="110">
         <f>F17*(1-E18)</f>
         <v>61.210614034091243</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="K29" s="108"/>
-    </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" hidden="1">
-      <c r="A30" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="D30" s="110">
-        <f>D29*F30</f>
+      <c r="J30" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="K30" s="108"/>
+    </row>
+    <row r="31" spans="1:11" s="6" customFormat="1" hidden="1">
+      <c r="A31" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D31" s="110">
+        <f>D30*F31</f>
         <v>6.1210614034091249</v>
       </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="6">
+      <c r="E31" s="108"/>
+      <c r="F31" s="6">
         <v>0.1</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="K30" s="108"/>
-    </row>
-    <row r="31" spans="1:11" s="6" customFormat="1">
-      <c r="A31" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="110">
+      <c r="J31" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="K31" s="108"/>
+    </row>
+    <row r="32" spans="1:11" s="6" customFormat="1">
+      <c r="A32" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="86"/>
+      <c r="D32" s="110">
         <f>F17-D18</f>
         <v>61.210614034091236</v>
       </c>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="J31" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="K31" s="108"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="14" t="s">
-        <v>858</v>
-      </c>
-      <c r="D32" s="86">
-        <f>F17*(1-F32)</f>
-        <v>23.172589598620259</v>
-      </c>
-      <c r="F32" s="275">
-        <f>Parameters!O27</f>
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="G32" s="86">
-        <f>D32/D31</f>
-        <v>0.37857142857142867</v>
-      </c>
-      <c r="H32" t="s">
-        <v>859</v>
-      </c>
-      <c r="I32" s="104"/>
-      <c r="J32" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="J32" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K32" s="108"/>
+    </row>
+    <row r="33" spans="1:11" s="6" customFormat="1">
       <c r="A33" s="14" t="s">
-        <v>857</v>
-      </c>
-      <c r="B33" s="14"/>
+        <v>615</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>968</v>
+      </c>
       <c r="C33" s="86"/>
-      <c r="D33" s="86">
-        <f>D32*(E33)</f>
-        <v>4.6345179197240522</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="86">
-        <f>D33/D31</f>
-        <v>7.5714285714285734E-2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>662</v>
-      </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="7" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="D33" s="110">
+        <f>D32*F33</f>
+        <v>6.121061403409124</v>
+      </c>
+      <c r="E33" s="108"/>
+      <c r="F33" s="265">
+        <f>GlobalFactors.csv!H49</f>
+        <v>0.1</v>
+      </c>
+      <c r="K33" s="108"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C34" s="86">
-        <f>D33*-44/12</f>
-        <v>-16.993232372321526</v>
+        <f>D33*-Parameters!C17</f>
+        <v>-22.443891812500119</v>
       </c>
       <c r="D34" s="86"/>
-      <c r="F34" s="268"/>
       <c r="I34" s="168"/>
       <c r="J34" s="7" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="45" customFormat="1">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="45" customFormat="1">
       <c r="A35" s="171" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B35" s="171"/>
-      <c r="C35" s="184">
+      <c r="C35" s="183">
         <f>C37+C40</f>
         <v>37.105071428571421</v>
       </c>
@@ -21290,12 +21274,12 @@
       <c r="E35" s="170"/>
       <c r="J35" s="172"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C36" s="86"/>
       <c r="D36">
@@ -21306,11 +21290,11 @@
         <v>0.4</v>
       </c>
       <c r="H36" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -21326,34 +21310,34 @@
         <v>30</v>
       </c>
       <c r="J37" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="46" customFormat="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="46" customFormat="1">
       <c r="A38" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="174">
         <f>F23/1000*(1-E38)</f>
         <v>5.58</v>
       </c>
-      <c r="E38" s="267">
+      <c r="E38" s="264">
         <v>0.38</v>
       </c>
       <c r="H38" s="46" t="s">
-        <v>716</v>
-      </c>
-      <c r="J38" s="181" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>712</v>
+      </c>
+      <c r="J38" s="180" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -21366,17 +21350,17 @@
         <v>532</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="276">
+      <c r="C40" s="272">
         <f>D40*Parameters!C16*Parameters!C5</f>
         <v>34.855071428571421</v>
       </c>
@@ -21385,129 +21369,144 @@
         <v>8.3699999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41" s="14" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="C41" s="86"/>
       <c r="D41" s="86"/>
       <c r="J41" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="12" customFormat="1">
-      <c r="A42" s="241" t="s">
-        <v>717</v>
-      </c>
-      <c r="C42" s="240">
-        <f>C12+C16+C28+C35</f>
-        <v>111.4898262263408</v>
-      </c>
-      <c r="D42" s="240"/>
-    </row>
-    <row r="43" spans="1:10" s="45" customFormat="1">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1">
+      <c r="A42" s="238" t="s">
+        <v>713</v>
+      </c>
+      <c r="C42" s="237">
+        <f>C12+C16+C29+C35</f>
+        <v>106.03916678616221</v>
+      </c>
+      <c r="D42" s="237"/>
+    </row>
+    <row r="43" spans="1:11" s="45" customFormat="1">
       <c r="A43" s="171" t="s">
         <v>578</v>
       </c>
       <c r="B43" s="171"/>
-      <c r="C43" s="183">
+      <c r="C43" s="182">
         <f>C46+C47</f>
-        <v>3.1248000000000005</v>
+        <v>-27.230400000000003</v>
       </c>
       <c r="D43" s="172"/>
       <c r="E43" s="170"/>
       <c r="J43" s="172"/>
     </row>
-    <row r="44" spans="1:10" s="46" customFormat="1">
+    <row r="44" spans="1:11" s="46" customFormat="1">
       <c r="A44" s="14" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="5"/>
-      <c r="E44" s="180"/>
+      <c r="E44" s="179"/>
       <c r="F44" s="46">
         <v>0.4</v>
       </c>
-      <c r="J44" s="181"/>
-    </row>
-    <row r="45" spans="1:10" s="46" customFormat="1">
+      <c r="J44" s="180"/>
+    </row>
+    <row r="45" spans="1:11" s="46" customFormat="1">
       <c r="A45" s="14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="174">
         <f>D38*F44</f>
         <v>2.2320000000000002</v>
       </c>
-      <c r="E45" s="239"/>
-      <c r="J45" s="181"/>
-    </row>
-    <row r="46" spans="1:10" s="88" customFormat="1">
+      <c r="E45" s="236"/>
+      <c r="J45" s="180"/>
+    </row>
+    <row r="46" spans="1:11" s="88" customFormat="1">
       <c r="A46" s="14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B46" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="182">
+      <c r="C46" s="181">
         <f>D45*G46</f>
-        <v>15.177600000000002</v>
-      </c>
-      <c r="D46" s="178"/>
-      <c r="E46" s="179"/>
+        <v>-15.177600000000002</v>
+      </c>
+      <c r="D46" s="177"/>
+      <c r="E46" s="178"/>
       <c r="G46" s="88">
-        <f>-GlobalFactors.csv!H6</f>
-        <v>6.8</v>
+        <f>GlobalFactors.csv!H6</f>
+        <v>-6.8</v>
       </c>
       <c r="H46" s="88" t="s">
-        <v>606</v>
-      </c>
-      <c r="J46" s="178" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="88" customFormat="1">
+        <v>604</v>
+      </c>
+      <c r="J46" s="177"/>
+    </row>
+    <row r="47" spans="1:11" s="88" customFormat="1">
       <c r="A47" s="14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="182">
+      <c r="C47" s="181">
         <f>D45*G47</f>
         <v>-12.052800000000001</v>
       </c>
-      <c r="D47" s="178"/>
-      <c r="E47" s="179"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="178"/>
       <c r="G47" s="88">
         <f>'Land application'!F30</f>
         <v>-5.4</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>605</v>
-      </c>
-      <c r="J47" s="178"/>
-    </row>
-    <row r="48" spans="1:10">
+        <v>603</v>
+      </c>
+      <c r="J47" s="177"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>631</v>
+        <v>1034</v>
       </c>
       <c r="B48" t="s">
-        <v>610</v>
+        <v>608</v>
+      </c>
+      <c r="F48" t="e">
+        <f>Parameters!R27+Parameters!Q28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48">
+        <f>GlobalFactors.csv!H10</f>
+        <v>-1.8</v>
       </c>
       <c r="H48" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B49" t="s">
-        <v>610</v>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="45" customFormat="1">
+      <c r="A50" s="171" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C50" s="182">
+        <f>C42+C43</f>
+        <v>78.808766786162209</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="45" customFormat="1">
@@ -21524,7 +21523,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -21532,22 +21531,22 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B53" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D53">
         <f>D36</f>
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="255">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>579</v>
       </c>
       <c r="B54" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C54">
         <f>F54*D53/1000</f>
@@ -21557,14 +21556,23 @@
         <v>-970</v>
       </c>
       <c r="H54" t="s">
-        <v>618</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="45" customFormat="1">
+      <c r="A55" s="45" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C55" s="182">
+        <f>C42+C51</f>
+        <v>-281.96083321383776</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="C56" s="185"/>
+      <c r="C56" s="184"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21666,22 +21674,22 @@
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1">
       <c r="A5" s="45" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>919</v>
-      </c>
-      <c r="C5" s="280" t="e">
+        <v>908</v>
+      </c>
+      <c r="C5" s="276" t="e">
         <f>D8*(GlobalFactors.csv!#REF!+GlobalFactors.csv!#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B6" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E6">
         <v>10.6</v>
@@ -21689,21 +21697,21 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="B7" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="E7">
         <v>0.25</v>
       </c>
       <c r="J7" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="B8" t="s">
         <v>456</v>
@@ -21713,7 +21721,7 @@
         <v>2.65</v>
       </c>
       <c r="J8" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="45" customFormat="1">
@@ -21727,7 +21735,7 @@
     </row>
     <row r="10" spans="1:10" s="45" customFormat="1">
       <c r="A10" s="45" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="C10" s="84"/>
     </row>
@@ -21735,28 +21743,28 @@
       <c r="A11" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="236"/>
+      <c r="C11" s="233"/>
     </row>
     <row r="12" spans="1:10" s="88" customFormat="1">
       <c r="A12" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="C12" s="236"/>
+      <c r="C12" s="233"/>
     </row>
     <row r="13" spans="1:10" s="45" customFormat="1">
       <c r="A13" s="45" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="C13" s="84"/>
     </row>
     <row r="14" spans="1:10" s="88" customFormat="1">
       <c r="A14" s="46" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="B14" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="291">
+      <c r="C14" s="287">
         <f>GlobalFactors.csv!H56</f>
         <v>0.1</v>
       </c>
@@ -21766,7 +21774,7 @@
         <v>380</v>
       </c>
       <c r="B15" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="C15" s="82"/>
       <c r="E15" s="106">
@@ -21988,7 +21996,7 @@
     </row>
     <row r="40" spans="1:14" ht="16" thickBot="1">
       <c r="A40" s="148" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="16" thickBot="1">
@@ -22047,26 +22055,26 @@
       <c r="B1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="203" t="s">
         <v>111</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -22080,112 +22088,112 @@
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
+        <v>723</v>
+      </c>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H3">
         <f>2.6/16</f>
         <v>0.16250000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45">
       <c r="A4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G4">
         <v>-1225</v>
       </c>
-      <c r="H4" s="254" t="s">
-        <v>739</v>
+      <c r="H4" s="251" t="s">
+        <v>735</v>
       </c>
       <c r="I4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B5" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G5">
         <v>6.8</v>
       </c>
-      <c r="H5" s="254" t="s">
-        <v>736</v>
+      <c r="H5" s="251" t="s">
+        <v>732</v>
       </c>
       <c r="I5">
         <v>6.8</v>
       </c>
       <c r="J5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B6" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6" s="254" t="s">
-        <v>737</v>
+      <c r="H6" s="251" t="s">
+        <v>733</v>
       </c>
       <c r="I6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G7">
         <f>-1081*1.1</f>
         <v>-1189.1000000000001</v>
       </c>
-      <c r="H7" s="254" t="s">
+      <c r="H7" s="251" t="s">
+        <v>734</v>
+      </c>
+      <c r="I7" s="250" t="s">
         <v>738</v>
       </c>
-      <c r="I7" s="253" t="s">
-        <v>742</v>
-      </c>
       <c r="J7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B8" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C8">
         <f>G7*H3</f>

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1039">
   <si>
     <t>Hauling</t>
   </si>
@@ -3154,9 +3154,6 @@
   </si>
   <si>
     <t>AF_loss</t>
-  </si>
-  <si>
-    <t>range</t>
   </si>
   <si>
     <t>Displacement</t>
@@ -8679,10 +8676,10 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C21" s="15">
         <v>1.98</v>
@@ -12456,34 +12453,34 @@
         <v>832</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F3" s="58" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="58" t="s">
+        <v>981</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>982</v>
       </c>
-      <c r="H3" s="58" t="s">
-        <v>983</v>
-      </c>
       <c r="I3" s="58" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J3" s="58" t="s">
         <v>144</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L3" s="58" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -12530,7 +12527,7 @@
         <v>0.21486988847583641</v>
       </c>
       <c r="M4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -12577,10 +12574,10 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -12627,12 +12624,12 @@
         <v>-0.29205479452054794</v>
       </c>
       <c r="M6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B7">
         <v>112.5</v>
@@ -12671,15 +12668,15 @@
         <v>4.7684210526315801E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="N7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B8">
         <v>191</v>
@@ -12721,12 +12718,12 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -12762,7 +12759,7 @@
         <v>0.63924050632911389</v>
       </c>
       <c r="M9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="58" customFormat="1">
@@ -12803,12 +12800,12 @@
         <v>28.9</v>
       </c>
       <c r="M11" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B12">
         <v>42</v>
@@ -12842,12 +12839,12 @@
         <v>14.700000000000003</v>
       </c>
       <c r="N12" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B13">
         <v>68</v>
@@ -12883,7 +12880,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C14" s="52">
         <f>B14/J14</f>
@@ -12912,7 +12909,7 @@
         <v>138.9</v>
       </c>
       <c r="N14" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="58" customFormat="1">
@@ -12923,10 +12920,10 @@
     <row r="16" spans="1:14" s="6" customFormat="1"/>
     <row r="17" spans="1:14" s="6" customFormat="1">
       <c r="A17" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>997</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -12934,33 +12931,33 @@
         <v>774</v>
       </c>
       <c r="N18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
+        <v>999</v>
+      </c>
+      <c r="N19" t="s">
         <v>1000</v>
-      </c>
-      <c r="N19" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" customHeight="1">
       <c r="N20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="N21" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -12970,7 +12967,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -12979,15 +12976,15 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B26">
         <v>2.1000000000000001E-2</v>
@@ -13001,7 +12998,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B27">
         <v>11.9</v>
@@ -13015,7 +13012,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B28">
         <v>1.8297000000000001</v>
@@ -13159,7 +13156,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13228,7 +13225,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D3" t="str">
         <f>Parameters!A7</f>
@@ -13271,7 +13268,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D4" t="s">
         <v>757</v>
@@ -13311,7 +13308,7 @@
     </row>
     <row r="5" spans="1:18" s="296" customFormat="1">
       <c r="A5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D5" s="296" t="s">
         <v>758</v>
@@ -13356,7 +13353,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D6" t="s">
         <v>761</v>
@@ -13404,7 +13401,7 @@
     </row>
     <row r="7" spans="1:18" ht="30">
       <c r="A7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D7" t="s">
         <v>784</v>
@@ -13431,7 +13428,7 @@
         <v>851</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M7" t="s">
         <v>838</v>
@@ -13452,7 +13449,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D8" t="s">
         <v>876</v>
@@ -13481,16 +13478,16 @@
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1">
       <c r="A9" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>456</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>746</v>
@@ -13507,7 +13504,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D10" t="s">
         <v>864</v>
@@ -13530,7 +13527,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D11" t="s">
         <v>762</v>
@@ -13553,7 +13550,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D12" t="s">
         <v>764</v>
@@ -13587,7 +13584,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D14" t="str">
         <f>'Landfill '!A3</f>
@@ -13623,7 +13620,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D15" t="str">
         <f>'Landfill '!A8</f>
@@ -13659,7 +13656,7 @@
     </row>
     <row r="16" spans="1:18" s="6" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>'Landfill '!A9</f>
@@ -13696,7 +13693,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D17" t="str">
         <f>'Landfill '!A22</f>
@@ -13732,7 +13729,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D18" t="s">
         <v>783</v>
@@ -13764,7 +13761,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D19" t="s">
         <v>803</v>
@@ -13793,7 +13790,7 @@
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1">
       <c r="A20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>83</v>
@@ -13827,7 +13824,7 @@
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1">
       <c r="A21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>465</v>
@@ -13867,7 +13864,7 @@
         <v>106</v>
       </c>
       <c r="D23" s="288" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E23" s="288" t="s">
         <v>22</v>
@@ -13900,13 +13897,13 @@
         <v>106</v>
       </c>
       <c r="D24" s="288" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E24" s="288" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="288" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G24" s="288" t="s">
         <v>628</v>
@@ -13921,7 +13918,7 @@
         <v>0.12</v>
       </c>
       <c r="K24" s="288" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="296" customFormat="1">
@@ -14056,7 +14053,7 @@
         <v>Ebner et al, 2014</v>
       </c>
       <c r="L28" s="301" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -14298,7 +14295,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D37" t="s">
         <v>876</v>
@@ -14327,7 +14324,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D38" t="str">
         <f>'Land application'!A10</f>
@@ -14360,7 +14357,7 @@
     </row>
     <row r="39" spans="1:12" s="298" customFormat="1">
       <c r="A39" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D39" s="298" t="str">
         <f>'Land application'!A13</f>
@@ -14393,7 +14390,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D40" t="s">
         <v>854</v>
@@ -14425,7 +14422,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D41" t="str">
         <f>'Land application'!A20</f>
@@ -14458,7 +14455,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D42" t="s">
         <v>898</v>
@@ -14483,7 +14480,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D44" t="s">
         <v>766</v>
@@ -14513,7 +14510,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D45" t="s">
         <v>777</v>
@@ -14522,7 +14519,7 @@
         <v>778</v>
       </c>
       <c r="F45" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G45" t="s">
         <v>628</v>
@@ -14540,12 +14537,12 @@
         <v>532</v>
       </c>
       <c r="L45" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="13" customHeight="1">
       <c r="A46" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D46" t="str">
         <f>compost!A18</f>
@@ -14574,12 +14571,12 @@
         <v>767</v>
       </c>
       <c r="L46" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D47" t="s">
         <v>847</v>
@@ -14608,7 +14605,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D48" t="s">
         <v>848</v>
@@ -14641,7 +14638,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D49" t="s">
         <v>772</v>
@@ -14668,12 +14665,12 @@
         <v>532</v>
       </c>
       <c r="L49" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D50" t="s">
         <v>775</v>
@@ -14697,7 +14694,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D51" t="s">
         <v>776</v>
@@ -14723,7 +14720,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D52" t="s">
         <v>779</v>
@@ -14752,7 +14749,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D53" t="s">
         <v>684</v>
@@ -14775,7 +14772,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D54" t="s">
         <v>853</v>
@@ -14806,7 +14803,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D56" t="s">
         <v>935</v>
@@ -14818,7 +14815,7 @@
         <v>936</v>
       </c>
       <c r="G56" t="s">
-        <v>937</v>
+        <v>628</v>
       </c>
       <c r="H56">
         <v>0.1</v>
@@ -15144,7 +15141,7 @@
         <v>117</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -15425,7 +15422,7 @@
       <c r="I29" s="305"/>
       <c r="J29" s="28"/>
       <c r="K29" s="260" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -15505,7 +15502,7 @@
         <v>94</v>
       </c>
       <c r="D36" s="306" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E36" s="110" t="s">
         <v>450</v>
@@ -18361,7 +18358,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="307" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B88" s="110"/>
       <c r="Z88" s="35" t="e">
@@ -19033,7 +19030,7 @@
         <v>2.65</v>
       </c>
       <c r="J13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1">
@@ -19063,10 +19060,10 @@
     </row>
     <row r="16" spans="1:20" s="15" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F16" s="299"/>
       <c r="G16" s="309">
@@ -19074,15 +19071,15 @@
         <v>0.9</v>
       </c>
       <c r="I16" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="J16" s="15" t="s">
         <v>959</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>21</v>
@@ -19092,7 +19089,7 @@
         <v>81.188999999999993</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I17" s="14"/>
     </row>
@@ -19120,7 +19117,7 @@
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>134</v>
@@ -19135,13 +19132,13 @@
         <v>0.03</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>586</v>
@@ -19157,7 +19154,7 @@
     </row>
     <row r="21" spans="1:12" s="15" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>21</v>
@@ -19172,16 +19169,16 @@
         <v>0.03</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="15" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="15" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>586</v>
@@ -19194,12 +19191,12 @@
       <c r="G22" s="309"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>134</v>
@@ -19211,13 +19208,13 @@
       <c r="F23" s="299"/>
       <c r="G23" s="309"/>
       <c r="H23" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>28</v>
@@ -19293,7 +19290,7 @@
         <v>841</v>
       </c>
       <c r="J27" s="288" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -19814,7 +19811,7 @@
     </row>
     <row r="60" spans="1:11" s="46" customFormat="1" hidden="1">
       <c r="A60" s="115" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B60" s="222" t="s">
         <v>693</v>
@@ -19835,7 +19832,7 @@
     </row>
     <row r="61" spans="1:11" s="46" customFormat="1">
       <c r="A61" s="115" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B61" s="222"/>
       <c r="C61" s="303"/>
@@ -19849,10 +19846,10 @@
     </row>
     <row r="62" spans="1:11" s="46" customFormat="1">
       <c r="A62" s="115" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B62" s="257" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C62" s="303"/>
       <c r="D62" s="273">
@@ -19865,10 +19862,10 @@
     </row>
     <row r="63" spans="1:11" s="46" customFormat="1">
       <c r="A63" s="115" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B63" s="257" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C63" s="303"/>
       <c r="D63" s="273">
@@ -19881,10 +19878,10 @@
     </row>
     <row r="64" spans="1:11" s="46" customFormat="1">
       <c r="A64" s="115" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B64" s="257" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C64" s="303"/>
       <c r="D64" s="273">
@@ -19897,10 +19894,10 @@
     </row>
     <row r="65" spans="1:10" s="313" customFormat="1">
       <c r="A65" s="312" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B65" s="313" t="s">
         <v>1025</v>
-      </c>
-      <c r="B65" s="313" t="s">
-        <v>1026</v>
       </c>
       <c r="D65" s="314">
         <f>D63*Parameters!C19*F65</f>
@@ -19911,15 +19908,15 @@
         <v>0.75</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="15" customFormat="1">
       <c r="A66" s="312" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D66" s="234">
         <f>D64*Parameters!C21*AD!F66</f>
@@ -19930,15 +19927,15 @@
         <v>0.27272727272727276</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="15" customFormat="1">
       <c r="A67" s="312" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>1009</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>1010</v>
       </c>
       <c r="D67" s="234">
         <f>D39/Parameters!C18</f>
@@ -19960,10 +19957,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="115" t="s">
+        <v>965</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>966</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>967</v>
       </c>
       <c r="D69" s="85">
         <f>D68*F69</f>
@@ -19978,12 +19975,12 @@
         <v>886</v>
       </c>
       <c r="J69" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="15" customFormat="1">
       <c r="A70" s="312" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>28</v>
@@ -20715,7 +20712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -20919,7 +20916,7 @@
         <v>0.4</v>
       </c>
       <c r="J13" s="188" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="45" customFormat="1">
@@ -20946,7 +20943,7 @@
     </row>
     <row r="15" spans="1:20" s="45" customFormat="1">
       <c r="A15" s="45" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>28</v>
@@ -20960,7 +20957,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="13" customFormat="1">
@@ -21014,7 +21011,7 @@
         <v>0.4</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -21101,7 +21098,7 @@
         <v>930</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D24" s="2">
         <v>0.40600000000000003</v>
@@ -21127,7 +21124,7 @@
         <v>618</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D26" s="85">
         <f>F23/1000*E26</f>
@@ -21177,7 +21174,7 @@
         <v>532</v>
       </c>
       <c r="J28" s="321" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="13" customFormat="1">
@@ -21240,7 +21237,7 @@
       <c r="E32" s="107"/>
       <c r="F32" s="107"/>
       <c r="J32" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K32" s="107"/>
     </row>
@@ -21249,7 +21246,7 @@
         <v>615</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C33" s="85"/>
       <c r="D33" s="109">
@@ -21406,10 +21403,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B43" t="s">
         <v>1037</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1038</v>
       </c>
       <c r="C43" s="85"/>
       <c r="E43" s="4"/>
@@ -21425,7 +21422,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C45" s="85"/>
       <c r="E45" s="4"/>
@@ -21570,7 +21567,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B54" t="s">
         <v>608</v>
@@ -21597,7 +21594,7 @@
     </row>
     <row r="56" spans="1:10" s="44" customFormat="1">
       <c r="A56" s="170" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C56" s="181">
         <f>C40+C41</f>
@@ -21659,7 +21656,7 @@
     </row>
     <row r="61" spans="1:10" s="44" customFormat="1">
       <c r="A61" s="44" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C61" s="181">
         <f>C40+C57</f>
@@ -21816,7 +21813,7 @@
         <v>2.65</v>
       </c>
       <c r="J8" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="44" customFormat="1">
@@ -21848,7 +21845,7 @@
     </row>
     <row r="13" spans="1:10" s="44" customFormat="1">
       <c r="A13" s="44" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C13" s="83"/>
     </row>

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febner\Documents\CourseraDataScience\fracGasm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="300" windowWidth="17800" windowHeight="15200" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="285" yWindow="300" windowWidth="17805" windowHeight="15195" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -65,7 +70,7 @@
     <definedName name="xxx">#REF!</definedName>
     <definedName name="xxy">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -80,7 +85,7 @@
     <author>Rodrigo A Labatut</author>
   </authors>
   <commentList>
-    <comment ref="A69" authorId="0">
+    <comment ref="A69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3817,7 +3822,7 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="54">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5258,6 +5263,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5311,6 +5324,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5339,13 +5357,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>770.0</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-177.0</c:v>
+                  <c:v>-177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5380,6 +5398,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5408,13 +5431,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>-37.99504132231404</c:v>
+                  <c:v>-37.995041322314044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,6 +5472,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5477,7 +5505,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>-110.5272727272727</c:v>
+                  <c:v>-110.52727272727275</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.25</c:v>
@@ -5515,6 +5543,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5543,13 +5576,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1924.0</c:v>
+                  <c:v>1924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-620.5921487603304</c:v>
+                  <c:v>-620.59214876033047</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>-479.0</c:v>
+                  <c:v>-479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5564,11 +5597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146076840"/>
-        <c:axId val="-2143512328"/>
+        <c:axId val="172310192"/>
+        <c:axId val="172310752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146076840"/>
+        <c:axId val="172310192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5578,7 +5611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143512328"/>
+        <c:crossAx val="172310752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5586,7 +5619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143512328"/>
+        <c:axId val="172310752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5597,7 +5630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146076840"/>
+        <c:crossAx val="172310192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5614,7 +5647,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5670,6 +5703,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5698,10 +5736,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>770.0</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>1924.0</c:v>
+                  <c:v>1924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5736,6 +5774,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5764,13 +5807,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>-37.99504132231404</c:v>
+                  <c:v>-37.995041322314044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-110.5272727272727</c:v>
+                  <c:v>-110.52727272727275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-620.5921487603304</c:v>
+                  <c:v>-620.59214876033047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5805,6 +5848,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5833,16 +5881,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5877,6 +5925,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5905,16 +5958,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5949,6 +6002,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5977,10 +6035,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.25</c:v>
@@ -6018,6 +6076,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6046,13 +6109,13 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>-177.0</c:v>
+                  <c:v>-177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>-479.0</c:v>
+                  <c:v>-479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6067,11 +6130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2143337816"/>
-        <c:axId val="-2144173896"/>
+        <c:axId val="174546688"/>
+        <c:axId val="174547248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143337816"/>
+        <c:axId val="174546688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6081,7 +6144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144173896"/>
+        <c:crossAx val="174547248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6089,7 +6152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144173896"/>
+        <c:axId val="174547248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6118,7 +6181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143337816"/>
+        <c:crossAx val="174546688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6135,7 +6198,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6162,10 +6225,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0885916280401991"/>
-          <c:y val="0.0543000085278149"/>
-          <c:w val="0.889022922501949"/>
-          <c:h val="0.931012820148384"/>
+          <c:x val="8.85916280401991E-2"/>
+          <c:y val="5.43000085278149E-2"/>
+          <c:w val="0.88902292250194903"/>
+          <c:h val="0.93101282014838405"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6211,6 +6274,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6239,10 +6307,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>44.99504132231404</c:v>
+                  <c:v>44.995041322314044</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>118.7772727272727</c:v>
+                  <c:v>118.77727272727275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6294,6 +6362,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6322,10 +6395,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>-44.99504132231404</c:v>
+                  <c:v>-44.995041322314044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-118.7772727272727</c:v>
+                  <c:v>-118.77727272727275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6377,6 +6450,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6405,10 +6483,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>-183.0</c:v>
+                  <c:v>-183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6434,7 +6512,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00118098612341309"/>
+                  <c:x val="-1.18098612341309E-3"/>
                   <c:y val="0.123972169512966"/>
                 </c:manualLayout>
               </c:layout>
@@ -6445,6 +6523,9 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -6476,6 +6557,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6504,10 +6590,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>183.0</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6559,6 +6645,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6587,7 +6678,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-764.0</c:v>
+                  <c:v>-764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6639,6 +6730,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6667,7 +6763,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>764.0</c:v>
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6719,6 +6815,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6747,10 +6848,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-947.0</c:v>
+                  <c:v>-947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2403.0</c:v>
+                  <c:v>-2403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6795,6 +6896,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6823,10 +6929,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>947.0</c:v>
+                  <c:v>947</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>2403.0</c:v>
+                  <c:v>2403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6878,6 +6984,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6906,10 +7017,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>44.99504132231404</c:v>
+                  <c:v>44.995041322314044</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>141.5921487603305</c:v>
+                  <c:v>141.59214876033047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6954,6 +7065,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6982,10 +7098,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>-44.99504132231404</c:v>
+                  <c:v>-44.995041322314044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-141.5921487603305</c:v>
+                  <c:v>-141.59214876033047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7030,6 +7146,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7058,7 +7179,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>-2544.59214876033</c:v>
+                  <c:v>-2544.5921487603305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7103,6 +7224,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7131,7 +7257,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>2544.59214876033</c:v>
+                  <c:v>2544.5921487603305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,11 +7272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="-2144268968"/>
-        <c:axId val="-2144266152"/>
+        <c:axId val="174388720"/>
+        <c:axId val="174389280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144268968"/>
+        <c:axId val="174388720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7170,7 +7296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144266152"/>
+        <c:crossAx val="174389280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7178,7 +7304,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144266152"/>
+        <c:axId val="174389280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7207,7 +7333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144268968"/>
+        <c:crossAx val="174388720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7326,7 +7452,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="2013 OVERALL (2)"/>
@@ -7345,7 +7471,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Fertilizer literature"/>
@@ -7731,21 +7857,21 @@
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="10" width="11" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
     <col min="12" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="43" customFormat="1" ht="13" customHeight="1">
+    <row r="1" spans="1:20" s="43" customFormat="1" ht="12.95" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>635</v>
       </c>
@@ -7831,7 +7957,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:20" ht="17" customHeight="1">
+    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -7902,7 +8028,7 @@
       <c r="I9" s="104"/>
       <c r="J9" s="104"/>
     </row>
-    <row r="10" spans="1:20" s="104" customFormat="1" ht="14">
+    <row r="10" spans="1:20" s="104" customFormat="1" ht="15">
       <c r="A10" s="104" t="s">
         <v>445</v>
       </c>
@@ -7927,7 +8053,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="104" customFormat="1" ht="14">
+    <row r="11" spans="1:20" s="104" customFormat="1" ht="15">
       <c r="A11" s="104" t="s">
         <v>447</v>
       </c>
@@ -7952,7 +8078,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="26" customFormat="1" ht="14">
+    <row r="12" spans="1:20" s="26" customFormat="1" ht="15">
       <c r="A12" s="110" t="s">
         <v>446</v>
       </c>
@@ -7999,7 +8125,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="30">
+    <row r="14" spans="1:20" ht="31.5">
       <c r="A14" s="1" t="s">
         <v>997</v>
       </c>
@@ -8147,7 +8273,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="37" thickBot="1">
+    <row r="25" spans="1:19" ht="24.75" thickBot="1">
       <c r="A25" s="157" t="s">
         <v>637</v>
       </c>
@@ -8203,7 +8329,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17" hidden="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:19" ht="17.25" hidden="1" thickTop="1" thickBot="1">
       <c r="A26" s="147" t="s">
         <v>702</v>
       </c>
@@ -8224,7 +8350,7 @@
       <c r="P26" s="272"/>
       <c r="Q26" s="272"/>
     </row>
-    <row r="27" spans="1:19" ht="17" thickTop="1" thickBot="1">
+    <row r="27" spans="1:19" ht="17.25" thickTop="1" thickBot="1">
       <c r="A27" s="147" t="s">
         <v>988</v>
       </c>
@@ -8282,7 +8408,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="16" hidden="1" thickBot="1">
+    <row r="28" spans="1:19" ht="16.5" hidden="1" thickBot="1">
       <c r="A28" s="147" t="s">
         <v>619</v>
       </c>
@@ -8315,7 +8441,7 @@
       <c r="P28" s="272"/>
       <c r="Q28" s="272"/>
     </row>
-    <row r="29" spans="1:19" ht="16" hidden="1" thickBot="1">
+    <row r="29" spans="1:19" ht="16.5" hidden="1" thickBot="1">
       <c r="A29" s="147" t="s">
         <v>2</v>
       </c>
@@ -8346,7 +8472,7 @@
       <c r="P29" s="272"/>
       <c r="Q29" s="272"/>
     </row>
-    <row r="30" spans="1:19" ht="16" hidden="1" thickBot="1">
+    <row r="30" spans="1:19" ht="16.5" hidden="1" thickBot="1">
       <c r="A30" s="147"/>
       <c r="B30" s="185"/>
       <c r="C30" s="307"/>
@@ -8367,7 +8493,7 @@
       <c r="P30" s="272"/>
       <c r="Q30" s="272"/>
     </row>
-    <row r="31" spans="1:19" ht="16" hidden="1" thickBot="1">
+    <row r="31" spans="1:19" ht="16.5" hidden="1" thickBot="1">
       <c r="A31" s="147"/>
       <c r="B31" s="185"/>
       <c r="C31" s="307"/>
@@ -8389,7 +8515,7 @@
       <c r="P31" s="272"/>
       <c r="Q31" s="272"/>
     </row>
-    <row r="32" spans="1:19" ht="16" hidden="1" thickBot="1">
+    <row r="32" spans="1:19" ht="16.5" hidden="1" thickBot="1">
       <c r="A32" s="147"/>
       <c r="B32" s="185"/>
       <c r="C32" s="307"/>
@@ -8410,7 +8536,7 @@
       <c r="P32" s="272"/>
       <c r="Q32" s="272"/>
     </row>
-    <row r="33" spans="1:22" ht="16" hidden="1" thickBot="1">
+    <row r="33" spans="1:22" ht="16.5" hidden="1" thickBot="1">
       <c r="A33" s="147" t="s">
         <v>704</v>
       </c>
@@ -8431,7 +8557,7 @@
       <c r="P33" s="272"/>
       <c r="Q33" s="272"/>
     </row>
-    <row r="34" spans="1:22" ht="16" thickBot="1">
+    <row r="34" spans="1:22" ht="16.5" thickBot="1">
       <c r="A34" s="147" t="s">
         <v>11</v>
       </c>
@@ -8469,7 +8595,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16" thickBot="1">
+    <row r="35" spans="1:22" ht="16.5" thickBot="1">
       <c r="A35" s="148" t="s">
         <v>48</v>
       </c>
@@ -8519,7 +8645,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="17" thickTop="1" thickBot="1">
+    <row r="36" spans="1:22" ht="17.25" thickTop="1" thickBot="1">
       <c r="A36" s="147" t="s">
         <v>707</v>
       </c>
@@ -8541,7 +8667,7 @@
       <c r="Q36" s="272"/>
       <c r="R36" s="23"/>
     </row>
-    <row r="37" spans="1:22" ht="16" thickBot="1">
+    <row r="37" spans="1:22" ht="16.5" thickBot="1">
       <c r="A37" s="147" t="s">
         <v>708</v>
       </c>
@@ -8563,7 +8689,7 @@
       <c r="Q37" s="272"/>
       <c r="R37" s="23"/>
     </row>
-    <row r="38" spans="1:22" ht="16" thickBot="1">
+    <row r="38" spans="1:22" ht="16.5" thickBot="1">
       <c r="A38" s="147" t="s">
         <v>99</v>
       </c>
@@ -8609,7 +8735,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16" thickBot="1">
+    <row r="39" spans="1:22" ht="16.5" thickBot="1">
       <c r="A39" s="147" t="s">
         <v>989</v>
       </c>
@@ -8652,7 +8778,7 @@
       <c r="P39" s="272"/>
       <c r="Q39" s="272"/>
     </row>
-    <row r="40" spans="1:22" ht="16" hidden="1" thickBot="1">
+    <row r="40" spans="1:22" ht="16.5" hidden="1" thickBot="1">
       <c r="A40" s="236" t="s">
         <v>703</v>
       </c>
@@ -8672,7 +8798,7 @@
       <c r="Q40" s="273"/>
       <c r="R40" s="23"/>
     </row>
-    <row r="41" spans="1:22" ht="16" thickBot="1">
+    <row r="41" spans="1:22" ht="16.5" thickBot="1">
       <c r="A41" s="147" t="s">
         <v>499</v>
       </c>
@@ -8717,7 +8843,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16" thickBot="1">
+    <row r="42" spans="1:22" ht="16.5" thickBot="1">
       <c r="A42" s="147" t="s">
         <v>500</v>
       </c>
@@ -8762,7 +8888,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16" thickBot="1">
+    <row r="43" spans="1:22" ht="16.5" thickBot="1">
       <c r="A43" s="147" t="s">
         <v>990</v>
       </c>
@@ -8809,7 +8935,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16" thickBot="1">
+    <row r="44" spans="1:22" ht="16.5" thickBot="1">
       <c r="A44" s="147" t="s">
         <v>502</v>
       </c>
@@ -8854,7 +8980,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16" thickBot="1">
+    <row r="45" spans="1:22" ht="16.5" thickBot="1">
       <c r="A45" s="147" t="s">
         <v>503</v>
       </c>
@@ -8901,7 +9027,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16" thickBot="1">
+    <row r="46" spans="1:22" ht="16.5" thickBot="1">
       <c r="A46" s="147" t="s">
         <v>645</v>
       </c>
@@ -8946,7 +9072,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="16" thickBot="1">
+    <row r="47" spans="1:22" ht="16.5" thickBot="1">
       <c r="A47" s="147" t="s">
         <v>991</v>
       </c>
@@ -8991,7 +9117,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16" thickBot="1">
+    <row r="48" spans="1:22" ht="16.5" thickBot="1">
       <c r="A48" s="147" t="s">
         <v>992</v>
       </c>
@@ -9036,7 +9162,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16" thickBot="1">
+    <row r="49" spans="1:18" ht="16.5" thickBot="1">
       <c r="A49" s="147" t="s">
         <v>993</v>
       </c>
@@ -9081,7 +9207,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="16" thickBot="1">
+    <row r="50" spans="1:18" ht="16.5" thickBot="1">
       <c r="A50" s="148" t="s">
         <v>994</v>
       </c>
@@ -9126,8 +9252,8 @@
         <v>878</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="16" thickTop="1"/>
-    <row r="55" spans="1:18" ht="16" thickBot="1">
+    <row r="51" spans="1:18" ht="16.5" thickTop="1"/>
+    <row r="55" spans="1:18" ht="16.5" thickBot="1">
       <c r="A55" s="148" t="s">
         <v>509</v>
       </c>
@@ -9156,7 +9282,7 @@
       <c r="P55" s="167"/>
       <c r="Q55" s="167"/>
     </row>
-    <row r="56" spans="1:18" ht="16" thickTop="1">
+    <row r="56" spans="1:18" ht="16.5" thickTop="1">
       <c r="A56" s="100"/>
     </row>
     <row r="58" spans="1:18">
@@ -9173,7 +9299,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="17">
+    <row r="59" spans="1:18" ht="18.75">
       <c r="A59" t="s">
         <v>474</v>
       </c>
@@ -9188,7 +9314,7 @@
       </c>
       <c r="K59" s="127"/>
     </row>
-    <row r="60" spans="1:18" ht="17">
+    <row r="60" spans="1:18" ht="18.75">
       <c r="A60" t="s">
         <v>477</v>
       </c>
@@ -9484,8 +9610,8 @@
       <c r="E71" s="140"/>
       <c r="F71" s="140"/>
     </row>
-    <row r="73" spans="1:14" ht="16" thickBot="1"/>
-    <row r="74" spans="1:14" ht="17" thickTop="1" thickBot="1">
+    <row r="73" spans="1:14" ht="16.5" thickBot="1"/>
+    <row r="74" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A74" s="146" t="s">
         <v>498</v>
       </c>
@@ -9525,7 +9651,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16" thickBot="1">
+    <row r="76" spans="1:14" ht="16.5" thickBot="1">
       <c r="A76" s="149" t="s">
         <v>510</v>
       </c>
@@ -9565,7 +9691,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16" thickBot="1">
+    <row r="77" spans="1:14" ht="16.5" thickBot="1">
       <c r="A77" s="152" t="s">
         <v>511</v>
       </c>
@@ -9605,7 +9731,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16" thickBot="1">
+    <row r="78" spans="1:14" ht="16.5" thickBot="1">
       <c r="A78" s="155" t="s">
         <v>512</v>
       </c>
@@ -9645,7 +9771,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="17" thickTop="1" thickBot="1">
+    <row r="79" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A79" s="157" t="s">
         <v>513</v>
       </c>
@@ -9685,7 +9811,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="17" thickTop="1" thickBot="1">
+    <row r="80" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A80" s="157" t="s">
         <v>514</v>
       </c>
@@ -9725,7 +9851,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="17" thickTop="1" thickBot="1">
+    <row r="81" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
       <c r="A81" s="157" t="s">
         <v>515</v>
       </c>
@@ -9765,7 +9891,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="17" thickTop="1" thickBot="1">
+    <row r="82" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
       <c r="A82" s="160" t="s">
         <v>516</v>
       </c>
@@ -9805,7 +9931,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="16" thickTop="1">
+    <row r="83" spans="1:17" ht="16.5" thickTop="1">
       <c r="A83" s="163" t="s">
         <v>517</v>
       </c>
@@ -10220,9 +10346,9 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -10230,7 +10356,7 @@
       <c r="L1" s="54"/>
       <c r="M1" s="69"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="57" t="s">
         <v>151</v>
       </c>
@@ -11195,7 +11321,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="1" customFormat="1" ht="30">
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="31.5">
       <c r="A38" t="s">
         <v>327</v>
       </c>
@@ -11425,7 +11551,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" ht="18.75">
       <c r="A43" t="s">
         <v>235</v>
       </c>
@@ -11490,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="60">
+    <row r="45" spans="1:19" ht="63">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>334</v>
@@ -11653,7 +11779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" ht="18.75">
       <c r="A50" s="61" t="s">
         <v>337</v>
       </c>
@@ -12023,7 +12149,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -12042,12 +12168,12 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -12557,7 +12683,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="34" customHeight="1">
+    <row r="20" spans="1:14" ht="33.950000000000003" customHeight="1">
       <c r="N20" t="s">
         <v>957</v>
       </c>
@@ -12755,7 +12881,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -12770,18 +12896,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="40.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" customWidth="1"/>
-    <col min="10" max="10" width="76.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="10" max="10" width="76.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="58" customFormat="1">
@@ -12941,12 +13067,12 @@
         <v>692.15220789071998</v>
       </c>
       <c r="G5" s="226">
+        <f>O7</f>
+        <v>537.18234233351995</v>
+      </c>
+      <c r="H5" s="226">
         <f>O6</f>
         <v>918.79198627000005</v>
-      </c>
-      <c r="H5" s="226">
-        <f>O7</f>
-        <v>537.18234233351995</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>810</v>
@@ -13131,10 +13257,10 @@
         <v>-1.8</v>
       </c>
       <c r="G10">
-        <v>0.52</v>
+        <v>-3.09</v>
       </c>
       <c r="H10">
-        <v>3.09</v>
+        <v>-0.52</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>579</v>
@@ -13160,10 +13286,10 @@
         <v>-0.96</v>
       </c>
       <c r="G11">
-        <v>0.38</v>
+        <v>-1.53</v>
       </c>
       <c r="H11">
-        <v>1.53</v>
+        <v>-0.38</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>524</v>
@@ -13997,7 +14123,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="38" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>105</v>
       </c>
@@ -14164,7 +14290,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="44" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>904</v>
       </c>
@@ -14194,7 +14320,7 @@
       </c>
       <c r="J44" s="323"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>904</v>
       </c>
@@ -14218,7 +14344,7 @@
       </c>
       <c r="J45" s="323"/>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>904</v>
       </c>
@@ -14249,7 +14375,7 @@
       </c>
       <c r="J46" s="323"/>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="47" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>904</v>
       </c>
@@ -14263,7 +14389,7 @@
         <v>1044</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>619</v>
+        <v>733</v>
       </c>
       <c r="F47" s="6">
         <v>1</v>
@@ -14273,7 +14399,7 @@
       </c>
       <c r="J47" s="323"/>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="48" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>904</v>
       </c>
@@ -14377,7 +14503,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="13" customHeight="1">
+    <row r="52" spans="1:10" ht="12.95" customHeight="1">
       <c r="A52" t="s">
         <v>907</v>
       </c>
@@ -14794,29 +14920,29 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="26" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="118" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="118" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="118" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="118" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="26" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="26" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="26" customWidth="1"/>
     <col min="11" max="11" width="36" style="26" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="26"/>
-    <col min="13" max="13" width="9.83203125" style="26" customWidth="1"/>
-    <col min="14" max="16" width="8.83203125" style="26"/>
-    <col min="17" max="17" width="10.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="26"/>
+    <col min="13" max="13" width="9.875" style="26" customWidth="1"/>
+    <col min="14" max="16" width="8.875" style="26"/>
+    <col min="17" max="17" width="10.875" style="26" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="26" customWidth="1"/>
-    <col min="19" max="23" width="8.83203125" style="26"/>
+    <col min="19" max="23" width="8.875" style="26"/>
     <col min="24" max="24" width="14.5" style="26" customWidth="1"/>
-    <col min="25" max="16384" width="8.83203125" style="26"/>
+    <col min="25" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="42" customFormat="1" ht="30">
+    <row r="1" spans="1:28" s="42" customFormat="1" ht="47.25">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -15411,7 +15537,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="16">
+    <row r="35" spans="1:23" ht="17.25">
       <c r="B35" s="110" t="s">
         <v>461</v>
       </c>
@@ -18782,25 +18908,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="42" customFormat="1" ht="30">
+    <row r="1" spans="1:20" s="42" customFormat="1" ht="31.5">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -19036,7 +19162,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:12" s="283" customFormat="1" ht="14" customHeight="1">
+    <row r="18" spans="1:12" s="283" customFormat="1" ht="14.1" customHeight="1">
       <c r="A18" s="287" t="s">
         <v>668</v>
       </c>
@@ -19156,7 +19282,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
+    <row r="24" spans="1:12" s="6" customFormat="1" ht="14.1" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>915</v>
       </c>
@@ -19169,7 +19295,7 @@
       </c>
       <c r="D24" s="226"/>
     </row>
-    <row r="25" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
+    <row r="25" spans="1:12" s="6" customFormat="1" ht="14.1" customHeight="1">
       <c r="A25" s="221" t="s">
         <v>670</v>
       </c>
@@ -19743,7 +19869,7 @@
       </c>
       <c r="D60" s="106"/>
     </row>
-    <row r="61" spans="1:11" s="115" customFormat="1" ht="14">
+    <row r="61" spans="1:11" s="115" customFormat="1" ht="15">
       <c r="A61" s="115" t="s">
         <v>470</v>
       </c>
@@ -19766,7 +19892,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="115" customFormat="1" ht="14" hidden="1">
+    <row r="62" spans="1:11" s="115" customFormat="1" ht="15" hidden="1">
       <c r="A62" s="115" t="s">
         <v>692</v>
       </c>
@@ -20162,7 +20288,7 @@
     <row r="92" spans="1:8">
       <c r="A92" s="7"/>
     </row>
-    <row r="97" spans="6:7" ht="16">
+    <row r="97" spans="6:7" ht="18">
       <c r="F97" s="74"/>
       <c r="G97" s="74"/>
     </row>
@@ -20185,20 +20311,20 @@
       <selection activeCell="A39" sqref="A39:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="42" customFormat="1" ht="30">
+    <row r="1" spans="1:20" s="42" customFormat="1" ht="31.5">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -20264,7 +20390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="49" customFormat="1" ht="56" hidden="1">
+    <row r="4" spans="1:20" s="49" customFormat="1" ht="51" hidden="1">
       <c r="A4" s="75" t="s">
         <v>1</v>
       </c>
@@ -20476,7 +20602,7 @@
       </c>
       <c r="D18" s="106"/>
     </row>
-    <row r="19" spans="1:11" s="115" customFormat="1" ht="14">
+    <row r="19" spans="1:11" s="115" customFormat="1" ht="15">
       <c r="A19" s="115" t="s">
         <v>470</v>
       </c>
@@ -20499,7 +20625,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="115" customFormat="1" ht="14">
+    <row r="20" spans="1:11" s="115" customFormat="1" ht="15">
       <c r="A20" s="115" t="s">
         <v>738</v>
       </c>
@@ -20510,7 +20636,7 @@
       </c>
       <c r="F20" s="214"/>
     </row>
-    <row r="21" spans="1:11" s="115" customFormat="1" ht="14">
+    <row r="21" spans="1:11" s="115" customFormat="1" ht="15">
       <c r="A21" s="115" t="s">
         <v>692</v>
       </c>
@@ -20528,7 +20654,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="46" customFormat="1" ht="14">
+    <row r="22" spans="1:11" s="46" customFormat="1" ht="15">
       <c r="A22" s="115" t="s">
         <v>523</v>
       </c>
@@ -20753,15 +20879,15 @@
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="45.5" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="42" customFormat="1" ht="45">
+    <row r="1" spans="1:20" s="42" customFormat="1" ht="47.25">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -20796,7 +20922,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="42" customFormat="1" ht="45">
+    <row r="2" spans="1:20" s="42" customFormat="1" ht="47.25">
       <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
@@ -22015,12 +22141,12 @@
       <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:10" ht="47.25">
       <c r="A1" s="42"/>
       <c r="B1" s="42" t="s">
         <v>14</v>
@@ -22228,7 +22354,7 @@
         <v>-557.99793388429748</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17">
+    <row r="27" spans="1:14" ht="18">
       <c r="A27" s="67" t="s">
         <v>365</v>
       </c>
@@ -22236,7 +22362,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="45">
+    <row r="28" spans="1:14" ht="47.25">
       <c r="B28" s="1" t="s">
         <v>334</v>
       </c>
@@ -22373,7 +22499,7 @@
       <c r="M34" s="50"/>
       <c r="N34" s="50"/>
     </row>
-    <row r="35" spans="1:14" ht="16" thickBot="1">
+    <row r="35" spans="1:14" ht="16.5" thickBot="1">
       <c r="A35" s="147" t="s">
         <v>499</v>
       </c>
@@ -22386,7 +22512,7 @@
       <c r="M35" s="50"/>
       <c r="N35" s="50"/>
     </row>
-    <row r="36" spans="1:14" ht="16" thickBot="1">
+    <row r="36" spans="1:14" ht="16.5" thickBot="1">
       <c r="A36" s="147" t="s">
         <v>500</v>
       </c>
@@ -22396,7 +22522,7 @@
       <c r="M36" s="50"/>
       <c r="N36" s="50"/>
     </row>
-    <row r="37" spans="1:14" ht="16" thickBot="1">
+    <row r="37" spans="1:14" ht="16.5" thickBot="1">
       <c r="A37" s="147" t="s">
         <v>501</v>
       </c>
@@ -22406,42 +22532,42 @@
       <c r="M37" s="50"/>
       <c r="N37" s="50"/>
     </row>
-    <row r="38" spans="1:14" ht="16" thickBot="1">
+    <row r="38" spans="1:14" ht="16.5" thickBot="1">
       <c r="A38" s="147" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16" thickBot="1">
+    <row r="39" spans="1:14" ht="16.5" thickBot="1">
       <c r="A39" s="147" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16" thickBot="1">
+    <row r="40" spans="1:14" ht="16.5" thickBot="1">
       <c r="A40" s="147" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16" thickBot="1">
+    <row r="41" spans="1:14" ht="16.5" thickBot="1">
       <c r="A41" s="147" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="16" thickBot="1">
+    <row r="42" spans="1:14" ht="16.5" thickBot="1">
       <c r="A42" s="147" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16" thickBot="1">
+    <row r="43" spans="1:14" ht="16.5" thickBot="1">
       <c r="A43" s="147" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16" thickBot="1">
+    <row r="44" spans="1:14" ht="16.5" thickBot="1">
       <c r="A44" s="148" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16" thickTop="1"/>
+    <row r="45" spans="1:14" ht="16.5" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -22461,19 +22587,19 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
     <col min="10" max="10" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="42" customFormat="1" ht="60">
+    <row r="1" spans="1:20" s="42" customFormat="1" ht="63">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -22529,7 +22655,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45">
+    <row r="4" spans="1:20" ht="47.25">
       <c r="A4" t="s">
         <v>714</v>
       </c>
@@ -22639,11 +22765,11 @@
   <sheetViews>
     <sheetView topLeftCell="E5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -23004,7 +23130,7 @@
       <c r="G88" s="56"/>
       <c r="H88" s="56"/>
     </row>
-    <row r="91" spans="2:8" ht="45">
+    <row r="91" spans="2:8" ht="47.25">
       <c r="C91" s="1" t="s">
         <v>334</v>
       </c>

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febner\Documents\CourseraDataScience\fracGasm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="285" yWindow="300" windowWidth="17805" windowHeight="15195" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="7920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <sheet name="Animal Feed lit" sheetId="13" r:id="rId10"/>
     <sheet name="WWTF" sheetId="6" r:id="rId11"/>
     <sheet name="carbon storage" sheetId="11" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId13"/>
+    <sheet name="N2O" sheetId="16" r:id="rId13"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId14"/>
@@ -70,7 +65,7 @@
     <definedName name="xxx">#REF!</definedName>
     <definedName name="xxy">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -85,7 +80,7 @@
     <author>Rodrigo A Labatut</author>
   </authors>
   <commentList>
-    <comment ref="A69" authorId="0" shapeId="0">
+    <comment ref="A69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1188">
   <si>
     <t>Hauling</t>
   </si>
@@ -2556,9 +2551,6 @@
     <t>LF Factors</t>
   </si>
   <si>
-    <t>Diesel combustion</t>
-  </si>
-  <si>
     <t>Compost factors</t>
   </si>
   <si>
@@ -2580,21 +2572,12 @@
     <t>Emission Factors</t>
   </si>
   <si>
-    <t>Diesel use</t>
-  </si>
-  <si>
-    <t>Boldrin, 2010</t>
-  </si>
-  <si>
     <t>Boldrin, 2012</t>
   </si>
   <si>
     <t>%CH4-C/degraded C</t>
   </si>
   <si>
-    <t>%N2O-N/degraded N</t>
-  </si>
-  <si>
     <t>Carbon remaining/applied</t>
   </si>
   <si>
@@ -2610,9 +2593,6 @@
     <t>Transport to application</t>
   </si>
   <si>
-    <t xml:space="preserve">Electricity use </t>
-  </si>
-  <si>
     <t>KWh/t</t>
   </si>
   <si>
@@ -2640,9 +2620,6 @@
     <t>sw name</t>
   </si>
   <si>
-    <t>Range High</t>
-  </si>
-  <si>
     <t>DieselprovisionkgCO2eperL</t>
   </si>
   <si>
@@ -2721,9 +2698,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>Range Lo</t>
-  </si>
-  <si>
     <t>yr-1</t>
   </si>
   <si>
@@ -2745,9 +2719,6 @@
     <t>kgC/kgTS</t>
   </si>
   <si>
-    <t>GREET 2014 (2010 dataset)</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -2790,9 +2761,6 @@
     <t>CH4 emission impacts</t>
   </si>
   <si>
-    <t>CH4 emission factor</t>
-  </si>
-  <si>
     <t>Compost_CS_factor</t>
   </si>
   <si>
@@ -2823,9 +2791,6 @@
     <t xml:space="preserve">Pretty close to Barlaz and Levis which had,  2011 had 0.08kgC/kg dry </t>
   </si>
   <si>
-    <t xml:space="preserve">Average calculated from Wood and Cowie, 2004 </t>
-  </si>
-  <si>
     <t>Production P  fertilizer</t>
   </si>
   <si>
@@ -2863,9 +2828,6 @@
   </si>
   <si>
     <t>L/t-m</t>
-  </si>
-  <si>
-    <t>range from boldrin,2009-NOT USED</t>
   </si>
   <si>
     <t>DieselspreadLpertkm</t>
@@ -3348,9 +3310,6 @@
     <t>Displacement of non-baseload grid emissions (US Avg).</t>
   </si>
   <si>
-    <t>Bernstadt.,</t>
-  </si>
-  <si>
     <t>4 to 10</t>
   </si>
   <si>
@@ -3396,9 +3355,6 @@
     <t>LA transport to field</t>
   </si>
   <si>
-    <t>LA direct N2O emission factor</t>
-  </si>
-  <si>
     <t xml:space="preserve">kgN2O-N/kg N </t>
   </si>
   <si>
@@ -3591,21 +3547,12 @@
     <t>for food waste</t>
   </si>
   <si>
-    <t>fert eq</t>
-  </si>
-  <si>
-    <t>kg nutr/A</t>
-  </si>
-  <si>
     <t>Nitrogen</t>
   </si>
   <si>
     <t>lbs fert/ Aab</t>
   </si>
   <si>
-    <t>kg/hac</t>
-  </si>
-  <si>
     <t>a estimated based upon http://fieldcrops.cals.cornell.edu/corn/fertilizers-corn</t>
   </si>
   <si>
@@ -3627,9 +3574,6 @@
     <t>K effective displacement</t>
   </si>
   <si>
-    <t>demand relative to N</t>
-  </si>
-  <si>
     <t>K_Nratio</t>
   </si>
   <si>
@@ -3651,9 +3595,6 @@
     <t>deGuardia, 2012, Beck Friis, 2000</t>
   </si>
   <si>
-    <t>not used at this time</t>
-  </si>
-  <si>
     <t>% N</t>
   </si>
   <si>
@@ -3666,15 +3607,9 @@
     <t>kg N</t>
   </si>
   <si>
-    <t>NH3 emission factor</t>
-  </si>
-  <si>
     <t>consistent with Pagans</t>
   </si>
   <si>
-    <t>%  N minus N2O</t>
-  </si>
-  <si>
     <t>N loss net of N2O</t>
   </si>
   <si>
@@ -3684,18 +3619,9 @@
     <t>Moller (heavy truck)</t>
   </si>
   <si>
-    <t>Bruun et al., 2006</t>
-  </si>
-  <si>
-    <t>Compost runoff/leaching coeff</t>
-  </si>
-  <si>
     <t>Compost volatilization coeff</t>
   </si>
   <si>
-    <t>this is leaching with an additional 0 to 30% is runoff</t>
-  </si>
-  <si>
     <t>Compost N availability</t>
   </si>
   <si>
@@ -3705,9 +3631,6 @@
     <t>Compost_N_Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">based upon </t>
-  </si>
-  <si>
     <t>could range from 0 to 1</t>
   </si>
   <si>
@@ -3717,9 +3640,6 @@
     <t>Bruun et al., 2005, suggests 20%</t>
   </si>
   <si>
-    <t>Compost_LRO</t>
-  </si>
-  <si>
     <t>Poesch 60-80, Hanson 80-100, Boldrin 40</t>
   </si>
   <si>
@@ -3805,6 +3725,192 @@
   </si>
   <si>
     <t>Net blended</t>
+  </si>
+  <si>
+    <t>kg compost/kg compost</t>
+  </si>
+  <si>
+    <t>Peat_displacement</t>
+  </si>
+  <si>
+    <t>Carbon degradation</t>
+  </si>
+  <si>
+    <t>Composting CH4 emissions</t>
+  </si>
+  <si>
+    <t>Composting direct N2O emissions</t>
+  </si>
+  <si>
+    <t>fraction degraded N</t>
+  </si>
+  <si>
+    <t>fraction of degraded N remaining</t>
+  </si>
+  <si>
+    <t>% fresh weight</t>
+  </si>
+  <si>
+    <t>kg fertilizer/ha</t>
+  </si>
+  <si>
+    <t>kg nutrient/a</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Demand relative to N</t>
+  </si>
+  <si>
+    <t>Yoshida et al., 2015</t>
+  </si>
+  <si>
+    <t>AD direct N2O emission factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fertilizer was 0.002-0.024 </t>
+  </si>
+  <si>
+    <t>Compost operation diesel  use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compost operation electricity use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composting NH3 emission </t>
+  </si>
+  <si>
+    <t>Composting N loss</t>
+  </si>
+  <si>
+    <t>Peat displacment factor</t>
+  </si>
+  <si>
+    <t>Compost land application direct N2O emission factor</t>
+  </si>
+  <si>
+    <t>assumed</t>
+  </si>
+  <si>
+    <t>% Bo</t>
+  </si>
+  <si>
+    <t>Diesel fuel combustion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fruergaard et al. 2009</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>ANL, 2015</t>
+  </si>
+  <si>
+    <t>USEPA, 2013</t>
+  </si>
+  <si>
+    <t>Boldrin et al., 2009</t>
+  </si>
+  <si>
+    <t>Bernstadt.,2012</t>
+  </si>
+  <si>
+    <t>Yoshida</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>MSW-C</t>
+  </si>
+  <si>
+    <t>MSW-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high </t>
+  </si>
+  <si>
+    <t xml:space="preserve">low </t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>runoff (NH4+)</t>
+  </si>
+  <si>
+    <t>runoff (NH4/NO3)</t>
+  </si>
+  <si>
+    <t>Leaching (NO3-)</t>
+  </si>
+  <si>
+    <t>runoff (NO3-))</t>
+  </si>
+  <si>
+    <t>EIF (kgN/kgN applied)</t>
+  </si>
+  <si>
+    <t>difference from MF (kgN/kgN applied)</t>
+  </si>
+  <si>
+    <t>runoff /leaching(NH4/NO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mineral Fertilizer N2O </t>
+  </si>
+  <si>
+    <t>Mineral Fertilizer NH3</t>
+  </si>
+  <si>
+    <t>Mineral Fertilizer NO3/NH4</t>
+  </si>
+  <si>
+    <t>MF_NH3</t>
+  </si>
+  <si>
+    <t>MF_ROL</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Compost_FracROL</t>
+  </si>
+  <si>
+    <t>Yoshida et al., 2017</t>
+  </si>
+  <si>
+    <t>Compost runoff/leaching</t>
+  </si>
+  <si>
+    <t>Yoshida et al., 2016, Hansen et al., 2006</t>
+  </si>
+  <si>
+    <t>kgN2O-N/kg N</t>
+  </si>
+  <si>
+    <t>kgNH3/kg N</t>
+  </si>
+  <si>
+    <t>kg NO3/NH4/kg N</t>
+  </si>
+  <si>
+    <t>based upon 0.15% vol of NH4 where .4-.8</t>
+  </si>
+  <si>
+    <t>Yoshida et al., 2015, Hansen et al, 2006</t>
+  </si>
+  <si>
+    <t>MF_N2O</t>
   </si>
 </sst>
 </file>
@@ -3822,7 +3928,7 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4173,7 +4279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4252,6 +4358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4510,7 +4622,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4618,8 +4730,106 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5150,9 +5360,13 @@
     <xf numFmtId="2" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="11" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="205">
     <cellStyle name="Bad 2" xfId="1"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3"/>
@@ -5203,6 +5417,55 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
@@ -5251,6 +5514,55 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="6"/>
@@ -5263,14 +5575,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -5324,11 +5628,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5357,13 +5656,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>770</c:v>
+                  <c:v>770.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-177</c:v>
+                  <c:v>-177.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5398,11 +5697,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5431,13 +5725,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>-37.995041322314044</c:v>
+                  <c:v>-37.99504132231404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5472,11 +5766,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5505,7 +5794,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>-110.52727272727275</c:v>
+                  <c:v>-110.5272727272727</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.25</c:v>
@@ -5543,11 +5832,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5576,13 +5860,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1924</c:v>
+                  <c:v>1924.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-620.59214876033047</c:v>
+                  <c:v>-620.5921487603304</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>-479</c:v>
+                  <c:v>-479.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,11 +5881,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="172310192"/>
-        <c:axId val="172310752"/>
+        <c:axId val="-2067590152"/>
+        <c:axId val="-2102110488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172310192"/>
+        <c:axId val="-2067590152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5611,7 +5895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172310752"/>
+        <c:crossAx val="-2102110488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5619,7 +5903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172310752"/>
+        <c:axId val="-2102110488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,7 +5914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172310192"/>
+        <c:crossAx val="-2067590152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5647,7 +5931,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5703,11 +5987,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5736,10 +6015,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>770</c:v>
+                  <c:v>770.0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>1924</c:v>
+                  <c:v>1924.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5774,11 +6053,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5807,13 +6081,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>-37.995041322314044</c:v>
+                  <c:v>-37.99504132231404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-110.52727272727275</c:v>
+                  <c:v>-110.5272727272727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-620.59214876033047</c:v>
+                  <c:v>-620.5921487603304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5848,11 +6122,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5881,16 +6150,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5925,11 +6194,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5958,16 +6222,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6002,11 +6266,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6035,10 +6294,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.25</c:v>
@@ -6076,11 +6335,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6109,13 +6363,13 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>-177</c:v>
+                  <c:v>-177.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>-479</c:v>
+                  <c:v>-479.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6130,11 +6384,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174546688"/>
-        <c:axId val="174547248"/>
+        <c:axId val="-2067658200"/>
+        <c:axId val="-2067587064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174546688"/>
+        <c:axId val="-2067658200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6144,7 +6398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174547248"/>
+        <c:crossAx val="-2067587064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6152,7 +6406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174547248"/>
+        <c:axId val="-2067587064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6181,7 +6435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174546688"/>
+        <c:crossAx val="-2067658200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6198,7 +6452,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6225,10 +6479,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.85916280401991E-2"/>
-          <c:y val="5.43000085278149E-2"/>
-          <c:w val="0.88902292250194903"/>
-          <c:h val="0.93101282014838405"/>
+          <c:x val="0.0885916280401991"/>
+          <c:y val="0.0543000085278149"/>
+          <c:w val="0.889022922501949"/>
+          <c:h val="0.931012820148384"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6274,11 +6528,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6307,10 +6556,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>44.995041322314044</c:v>
+                  <c:v>44.99504132231404</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>118.77727272727275</c:v>
+                  <c:v>118.7772727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6362,11 +6611,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6395,10 +6639,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>-44.995041322314044</c:v>
+                  <c:v>-44.99504132231404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-118.77727272727275</c:v>
+                  <c:v>-118.7772727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6450,11 +6694,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6483,10 +6722,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>-183</c:v>
+                  <c:v>-183.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6512,7 +6751,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.18098612341309E-3"/>
+                  <c:x val="-0.00118098612341309"/>
                   <c:y val="0.123972169512966"/>
                 </c:manualLayout>
               </c:layout>
@@ -6523,9 +6762,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -6557,11 +6793,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6590,10 +6821,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>183</c:v>
+                  <c:v>183.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6645,11 +6876,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6678,7 +6904,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-764</c:v>
+                  <c:v>-764.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6730,11 +6956,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6763,7 +6984,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>764</c:v>
+                  <c:v>764.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6815,11 +7036,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6848,10 +7064,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-947</c:v>
+                  <c:v>-947.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2403</c:v>
+                  <c:v>-2403.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6896,11 +7112,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6929,10 +7140,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>947</c:v>
+                  <c:v>947.0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>2403</c:v>
+                  <c:v>2403.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6984,11 +7195,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7017,10 +7223,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>44.995041322314044</c:v>
+                  <c:v>44.99504132231404</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>141.59214876033047</c:v>
+                  <c:v>141.5921487603305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7065,11 +7271,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7098,10 +7299,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>-44.995041322314044</c:v>
+                  <c:v>-44.99504132231404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-141.59214876033047</c:v>
+                  <c:v>-141.5921487603305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,11 +7347,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7179,7 +7375,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>-2544.5921487603305</c:v>
+                  <c:v>-2544.59214876033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7224,11 +7420,6 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7257,7 +7448,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>2544.5921487603305</c:v>
+                  <c:v>2544.59214876033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7272,11 +7463,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="174388720"/>
-        <c:axId val="174389280"/>
+        <c:axId val="-2100212792"/>
+        <c:axId val="-2100081656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174388720"/>
+        <c:axId val="-2100212792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7296,7 +7487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174389280"/>
+        <c:crossAx val="-2100081656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7304,7 +7495,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174389280"/>
+        <c:axId val="-2100081656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7333,7 +7524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174388720"/>
+        <c:crossAx val="-2100212792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7452,7 +7643,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="2013 OVERALL (2)"/>
@@ -7471,7 +7662,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Fertilizer literature"/>
@@ -7853,25 +8044,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V99"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="16.125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="10" width="11" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
     <col min="12" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="43" customFormat="1" ht="12.95" customHeight="1">
+    <row r="1" spans="1:20" s="43" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>635</v>
       </c>
@@ -7957,7 +8148,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:20" ht="17" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -7980,7 +8171,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="B7" t="s">
         <v>621</v>
@@ -8018,7 +8209,7 @@
     </row>
     <row r="9" spans="1:20" s="46" customFormat="1">
       <c r="A9" s="115" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B9" s="104"/>
       <c r="C9" s="194"/>
@@ -8028,7 +8219,7 @@
       <c r="I9" s="104"/>
       <c r="J9" s="104"/>
     </row>
-    <row r="10" spans="1:20" s="104" customFormat="1" ht="15">
+    <row r="10" spans="1:20" s="104" customFormat="1" ht="14">
       <c r="A10" s="104" t="s">
         <v>445</v>
       </c>
@@ -8053,7 +8244,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="104" customFormat="1" ht="15">
+    <row r="11" spans="1:20" s="104" customFormat="1" ht="14">
       <c r="A11" s="104" t="s">
         <v>447</v>
       </c>
@@ -8078,7 +8269,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="26" customFormat="1" ht="15">
+    <row r="12" spans="1:20" s="26" customFormat="1" ht="14">
       <c r="A12" s="110" t="s">
         <v>446</v>
       </c>
@@ -8125,15 +8316,15 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="31.5">
+    <row r="14" spans="1:20" ht="30">
       <c r="A14" s="1" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C14" s="319">
-        <f>GlobalFactors.csv!F5</f>
+        <f>GlobalFactors.csv!F8</f>
         <v>692.15220789071998</v>
       </c>
       <c r="E14" t="s">
@@ -8145,7 +8336,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="42" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="193"/>
@@ -8245,10 +8436,10 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="C21" s="15">
         <v>1.7989999999999999</v>
@@ -8273,27 +8464,27 @@
         <v>636</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="24.75" thickBot="1">
+    <row r="25" spans="1:19" ht="37" thickBot="1">
       <c r="A25" s="157" t="s">
         <v>637</v>
       </c>
       <c r="B25" s="157" t="s">
-        <v>1140</v>
+        <v>1115</v>
       </c>
       <c r="C25" s="157" t="s">
-        <v>1141</v>
+        <v>1116</v>
       </c>
       <c r="D25" s="157" t="s">
-        <v>1142</v>
+        <v>1117</v>
       </c>
       <c r="E25" s="157" t="s">
-        <v>1143</v>
+        <v>1118</v>
       </c>
       <c r="F25" s="157" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="157" t="s">
-        <v>1137</v>
+        <v>1112</v>
       </c>
       <c r="H25" s="157" t="s">
         <v>464</v>
@@ -8320,16 +8511,16 @@
         <v>517</v>
       </c>
       <c r="P25" s="163" t="s">
-        <v>1138</v>
+        <v>1113</v>
       </c>
       <c r="Q25" s="163" t="s">
-        <v>1139</v>
+        <v>1114</v>
       </c>
       <c r="R25" s="166" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.25" hidden="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:19" ht="17" hidden="1" thickTop="1" thickBot="1">
       <c r="A26" s="147" t="s">
         <v>702</v>
       </c>
@@ -8350,9 +8541,9 @@
       <c r="P26" s="272"/>
       <c r="Q26" s="272"/>
     </row>
-    <row r="27" spans="1:19" ht="17.25" thickTop="1" thickBot="1">
+    <row r="27" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A27" s="147" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B27" s="185">
         <v>0.3</v>
@@ -8405,10 +8596,10 @@
         <v>1900</v>
       </c>
       <c r="R27" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="16.5" hidden="1" thickBot="1">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="16" hidden="1" thickBot="1">
       <c r="A28" s="147" t="s">
         <v>619</v>
       </c>
@@ -8436,12 +8627,12 @@
       <c r="M28" s="158"/>
       <c r="N28" s="158"/>
       <c r="O28" s="153" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="P28" s="272"/>
       <c r="Q28" s="272"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" hidden="1" thickBot="1">
+    <row r="29" spans="1:19" ht="16" hidden="1" thickBot="1">
       <c r="A29" s="147" t="s">
         <v>2</v>
       </c>
@@ -8472,7 +8663,7 @@
       <c r="P29" s="272"/>
       <c r="Q29" s="272"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" hidden="1" thickBot="1">
+    <row r="30" spans="1:19" ht="16" hidden="1" thickBot="1">
       <c r="A30" s="147"/>
       <c r="B30" s="185"/>
       <c r="C30" s="307"/>
@@ -8493,7 +8684,7 @@
       <c r="P30" s="272"/>
       <c r="Q30" s="272"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5" hidden="1" thickBot="1">
+    <row r="31" spans="1:19" ht="16" hidden="1" thickBot="1">
       <c r="A31" s="147"/>
       <c r="B31" s="185"/>
       <c r="C31" s="307"/>
@@ -8515,7 +8706,7 @@
       <c r="P31" s="272"/>
       <c r="Q31" s="272"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5" hidden="1" thickBot="1">
+    <row r="32" spans="1:19" ht="16" hidden="1" thickBot="1">
       <c r="A32" s="147"/>
       <c r="B32" s="185"/>
       <c r="C32" s="307"/>
@@ -8536,7 +8727,7 @@
       <c r="P32" s="272"/>
       <c r="Q32" s="272"/>
     </row>
-    <row r="33" spans="1:22" ht="16.5" hidden="1" thickBot="1">
+    <row r="33" spans="1:22" ht="16" hidden="1" thickBot="1">
       <c r="A33" s="147" t="s">
         <v>704</v>
       </c>
@@ -8557,7 +8748,7 @@
       <c r="P33" s="272"/>
       <c r="Q33" s="272"/>
     </row>
-    <row r="34" spans="1:22" ht="16.5" thickBot="1">
+    <row r="34" spans="1:22" ht="16" thickBot="1">
       <c r="A34" s="147" t="s">
         <v>11</v>
       </c>
@@ -8595,7 +8786,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16.5" thickBot="1">
+    <row r="35" spans="1:22" ht="16" thickBot="1">
       <c r="A35" s="148" t="s">
         <v>48</v>
       </c>
@@ -8645,7 +8836,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="17.25" thickTop="1" thickBot="1">
+    <row r="36" spans="1:22" ht="17" thickTop="1" thickBot="1">
       <c r="A36" s="147" t="s">
         <v>707</v>
       </c>
@@ -8667,7 +8858,7 @@
       <c r="Q36" s="272"/>
       <c r="R36" s="23"/>
     </row>
-    <row r="37" spans="1:22" ht="16.5" thickBot="1">
+    <row r="37" spans="1:22" ht="16" thickBot="1">
       <c r="A37" s="147" t="s">
         <v>708</v>
       </c>
@@ -8689,7 +8880,7 @@
       <c r="Q37" s="272"/>
       <c r="R37" s="23"/>
     </row>
-    <row r="38" spans="1:22" ht="16.5" thickBot="1">
+    <row r="38" spans="1:22" ht="16" thickBot="1">
       <c r="A38" s="147" t="s">
         <v>99</v>
       </c>
@@ -8735,9 +8926,9 @@
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16.5" thickBot="1">
+    <row r="39" spans="1:22" ht="16" thickBot="1">
       <c r="A39" s="147" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="B39" s="185">
         <v>0.23899999999999999</v>
@@ -8778,7 +8969,7 @@
       <c r="P39" s="272"/>
       <c r="Q39" s="272"/>
     </row>
-    <row r="40" spans="1:22" ht="16.5" hidden="1" thickBot="1">
+    <row r="40" spans="1:22" ht="16" hidden="1" thickBot="1">
       <c r="A40" s="236" t="s">
         <v>703</v>
       </c>
@@ -8798,7 +8989,7 @@
       <c r="Q40" s="273"/>
       <c r="R40" s="23"/>
     </row>
-    <row r="41" spans="1:22" ht="16.5" thickBot="1">
+    <row r="41" spans="1:22" ht="16" thickBot="1">
       <c r="A41" s="147" t="s">
         <v>499</v>
       </c>
@@ -8840,10 +9031,10 @@
         <v>1200</v>
       </c>
       <c r="R41" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="16.5" thickBot="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="16" thickBot="1">
       <c r="A42" s="147" t="s">
         <v>500</v>
       </c>
@@ -8885,12 +9076,12 @@
         <v>370</v>
       </c>
       <c r="R42" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="16.5" thickBot="1">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="16" thickBot="1">
       <c r="A43" s="147" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="B43" s="150">
         <v>0.29299999999999998</v>
@@ -8932,10 +9123,10 @@
         <v>2669.8160000000003</v>
       </c>
       <c r="R43" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="16.5" thickBot="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="16" thickBot="1">
       <c r="A44" s="147" t="s">
         <v>502</v>
       </c>
@@ -8977,10 +9168,10 @@
         <v>330</v>
       </c>
       <c r="R44" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="16.5" thickBot="1">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="16" thickBot="1">
       <c r="A45" s="147" t="s">
         <v>503</v>
       </c>
@@ -9027,7 +9218,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16.5" thickBot="1">
+    <row r="46" spans="1:22" ht="16" thickBot="1">
       <c r="A46" s="147" t="s">
         <v>645</v>
       </c>
@@ -9069,12 +9260,12 @@
         <v>977</v>
       </c>
       <c r="R46" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="16.5" thickBot="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="16" thickBot="1">
       <c r="A47" s="147" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="B47" s="150">
         <v>0.92700000000000005</v>
@@ -9114,12 +9305,12 @@
         <v>740</v>
       </c>
       <c r="R47" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="16.5" thickBot="1">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="16" thickBot="1">
       <c r="A48" s="147" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="B48" s="150">
         <v>3.7999999999999999E-2</v>
@@ -9159,12 +9350,12 @@
         <v>300</v>
       </c>
       <c r="R48" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="16.5" thickBot="1">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="16" thickBot="1">
       <c r="A49" s="147" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="B49" s="150">
         <v>0.92400000000000004</v>
@@ -9204,12 +9395,12 @@
         <v>1630</v>
       </c>
       <c r="R49" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="16.5" thickBot="1">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="16" thickBot="1">
       <c r="A50" s="148" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="B50" s="151">
         <v>0.309</v>
@@ -9249,11 +9440,11 @@
         <v>1100</v>
       </c>
       <c r="R50" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="16.5" thickTop="1"/>
-    <row r="55" spans="1:18" ht="16.5" thickBot="1">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="16" thickTop="1"/>
+    <row r="55" spans="1:18" ht="16" thickBot="1">
       <c r="A55" s="148" t="s">
         <v>509</v>
       </c>
@@ -9282,7 +9473,7 @@
       <c r="P55" s="167"/>
       <c r="Q55" s="167"/>
     </row>
-    <row r="56" spans="1:18" ht="16.5" thickTop="1">
+    <row r="56" spans="1:18" ht="16" thickTop="1">
       <c r="A56" s="100"/>
     </row>
     <row r="58" spans="1:18">
@@ -9299,7 +9490,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="18.75">
+    <row r="59" spans="1:18" ht="17">
       <c r="A59" t="s">
         <v>474</v>
       </c>
@@ -9314,7 +9505,7 @@
       </c>
       <c r="K59" s="127"/>
     </row>
-    <row r="60" spans="1:18" ht="18.75">
+    <row r="60" spans="1:18" ht="17">
       <c r="A60" t="s">
         <v>477</v>
       </c>
@@ -9610,8 +9801,8 @@
       <c r="E71" s="140"/>
       <c r="F71" s="140"/>
     </row>
-    <row r="73" spans="1:14" ht="16.5" thickBot="1"/>
-    <row r="74" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+    <row r="73" spans="1:14" ht="16" thickBot="1"/>
+    <row r="74" spans="1:14" ht="17" thickTop="1" thickBot="1">
       <c r="A74" s="146" t="s">
         <v>498</v>
       </c>
@@ -9651,7 +9842,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16.5" thickBot="1">
+    <row r="76" spans="1:14" ht="16" thickBot="1">
       <c r="A76" s="149" t="s">
         <v>510</v>
       </c>
@@ -9691,7 +9882,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16.5" thickBot="1">
+    <row r="77" spans="1:14" ht="16" thickBot="1">
       <c r="A77" s="152" t="s">
         <v>511</v>
       </c>
@@ -9731,7 +9922,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16.5" thickBot="1">
+    <row r="78" spans="1:14" ht="16" thickBot="1">
       <c r="A78" s="155" t="s">
         <v>512</v>
       </c>
@@ -9771,7 +9962,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+    <row r="79" spans="1:14" ht="17" thickTop="1" thickBot="1">
       <c r="A79" s="157" t="s">
         <v>513</v>
       </c>
@@ -9811,7 +10002,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+    <row r="80" spans="1:14" ht="17" thickTop="1" thickBot="1">
       <c r="A80" s="157" t="s">
         <v>514</v>
       </c>
@@ -9851,7 +10042,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
+    <row r="81" spans="1:17" ht="17" thickTop="1" thickBot="1">
       <c r="A81" s="157" t="s">
         <v>515</v>
       </c>
@@ -9891,7 +10082,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
+    <row r="82" spans="1:17" ht="17" thickTop="1" thickBot="1">
       <c r="A82" s="160" t="s">
         <v>516</v>
       </c>
@@ -9931,7 +10122,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="16.5" thickTop="1">
+    <row r="83" spans="1:17" ht="16" thickTop="1">
       <c r="A83" s="163" t="s">
         <v>517</v>
       </c>
@@ -10213,27 +10404,27 @@
     </row>
     <row r="93" spans="1:17">
       <c r="B93" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="C93" t="s">
-        <v>1083</v>
+        <v>1134</v>
       </c>
       <c r="D93" t="s">
-        <v>1080</v>
+        <v>1135</v>
       </c>
       <c r="E93" t="s">
-        <v>1079</v>
+        <v>1136</v>
       </c>
       <c r="F93" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="G93" t="s">
-        <v>1091</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -10243,7 +10434,7 @@
         <v>80.357142857142847</v>
       </c>
       <c r="E94">
-        <f>GlobalFactors.csv!F38</f>
+        <f>GlobalFactors.csv!F42</f>
         <v>0.65</v>
       </c>
       <c r="F94" s="90">
@@ -10257,7 +10448,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="B95">
         <v>40</v>
@@ -10271,7 +10462,7 @@
         <v>15.527950310559005</v>
       </c>
       <c r="E95">
-        <f>GlobalFactors.csv!F45</f>
+        <f>GlobalFactors.csv!F54</f>
         <v>1</v>
       </c>
       <c r="F95" s="90">
@@ -10285,7 +10476,7 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="B96">
         <v>40</v>
@@ -10299,7 +10490,7 @@
         <v>29.761904761904759</v>
       </c>
       <c r="E96">
-        <f>GlobalFactors.csv!F47</f>
+        <f>GlobalFactors.csv!F56</f>
         <v>1</v>
       </c>
       <c r="F96" s="90">
@@ -10313,17 +10504,17 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
@@ -10346,9 +10537,9 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -10356,7 +10547,7 @@
       <c r="L1" s="54"/>
       <c r="M1" s="69"/>
     </row>
-    <row r="2" spans="1:14" ht="16.5">
+    <row r="2" spans="1:14">
       <c r="A2" s="57" t="s">
         <v>151</v>
       </c>
@@ -11321,7 +11512,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="1" customFormat="1" ht="31.5">
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="30">
       <c r="A38" t="s">
         <v>327</v>
       </c>
@@ -11551,7 +11742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="18.75">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>235</v>
       </c>
@@ -11616,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="63">
+    <row r="45" spans="1:19" ht="60">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>334</v>
@@ -11779,7 +11970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18.75">
+    <row r="50" spans="1:11">
       <c r="A50" s="61" t="s">
         <v>337</v>
       </c>
@@ -11969,13 +12160,13 @@
       <c r="A68" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="B68" s="356">
+      <c r="B68" s="357">
         <v>90</v>
       </c>
-      <c r="C68" s="356">
+      <c r="C68" s="357">
         <v>87</v>
       </c>
-      <c r="D68" s="356">
+      <c r="D68" s="357">
         <v>99</v>
       </c>
     </row>
@@ -11983,9 +12174,9 @@
       <c r="A69" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="B69" s="356"/>
-      <c r="C69" s="356"/>
-      <c r="D69" s="356"/>
+      <c r="B69" s="357"/>
+      <c r="C69" s="357"/>
+      <c r="D69" s="357"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="63" t="s">
@@ -12149,7 +12340,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -12168,17 +12359,17 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -12191,37 +12382,37 @@
         <v>104</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="F3" s="58" t="s">
         <v>142</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="J3" s="58" t="s">
         <v>143</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="L3" s="58" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -12268,12 +12459,12 @@
         <v>0.21486988847583641</v>
       </c>
       <c r="M4" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -12315,10 +12506,10 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="N5" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -12365,12 +12556,12 @@
         <v>-0.29205479452054794</v>
       </c>
       <c r="M6" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="B7">
         <v>112.5</v>
@@ -12409,15 +12600,15 @@
         <v>4.7684210526315801E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="N7" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="B8">
         <v>191</v>
@@ -12459,12 +12650,12 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -12500,7 +12691,7 @@
         <v>0.63924050632911389</v>
       </c>
       <c r="M9" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="58" customFormat="1">
@@ -12510,7 +12701,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="B11">
         <v>97</v>
@@ -12541,12 +12732,12 @@
         <v>28.9</v>
       </c>
       <c r="M11" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="B12">
         <v>42</v>
@@ -12580,12 +12771,12 @@
         <v>14.700000000000003</v>
       </c>
       <c r="N12" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="B13">
         <v>68</v>
@@ -12621,7 +12812,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="C14" s="52">
         <f>B14/J14</f>
@@ -12650,55 +12841,55 @@
         <v>138.9</v>
       </c>
       <c r="N14" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="58" customFormat="1">
       <c r="A15" s="58" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1"/>
     <row r="17" spans="1:14" s="6" customFormat="1">
       <c r="A17" s="6" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="N18" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="N19" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="33.950000000000003" customHeight="1">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="34" customHeight="1">
       <c r="N20" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="N21" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -12708,7 +12899,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
@@ -12717,15 +12908,15 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="E25" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="B26">
         <v>2.1000000000000001E-2</v>
@@ -12739,7 +12930,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="B27">
         <v>11.9</v>
@@ -12753,7 +12944,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="B28">
         <v>1.8297000000000001</v>
@@ -12772,13 +12963,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="C30" t="s">
         <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -12853,15 +13044,15 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="58" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="58" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -12877,13 +13068,557 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A24:D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1" s="358" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="358" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F1" s="358"/>
+      <c r="G1" s="358"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D3">
+        <f>(C3+B3)/2</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">(C4+B4)/2</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <f>B4-B3</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <f>C4-C3</f>
+        <v>2.6999999999999996E-2</v>
+      </c>
+      <c r="G4" s="60">
+        <f>D4-D3</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.4499999999999996E-2</v>
+      </c>
+      <c r="E5">
+        <f>B5-B3</f>
+        <v>5.9999999999999984E-3</v>
+      </c>
+      <c r="F5">
+        <f>C5-C3</f>
+        <v>2.6999999999999996E-2</v>
+      </c>
+      <c r="G5" s="60">
+        <f>D5-D3</f>
+        <v>1.6499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="58" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="1">(C6-B6)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D7">
+        <f>(C7+B7)/2</f>
+        <v>7.1000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D9" si="2">(C8+B8)/2</f>
+        <v>0.20700000000000002</v>
+      </c>
+      <c r="E8">
+        <f>B8-B7</f>
+        <v>1.6999999999999998E-2</v>
+      </c>
+      <c r="F8">
+        <f>C8-C7</f>
+        <v>0.255</v>
+      </c>
+      <c r="G8" s="60">
+        <f>D8-D7</f>
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C9">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.10250000000000001</v>
+      </c>
+      <c r="E9">
+        <f>B9-B7</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="F9">
+        <f>C9-C7</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G9" s="60">
+        <f>D9-D7</f>
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="356" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D11">
+        <f>(C11+B11)/2</f>
+        <v>3.5E-4</v>
+      </c>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C12">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D13" si="3">(C12+B12)/2</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E12">
+        <f>B12-B11</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F12">
+        <f>C12-C11</f>
+        <v>7.5299999999999992E-2</v>
+      </c>
+      <c r="G12" s="60">
+        <f>D12-D11</f>
+        <v>7.4649999999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="E13">
+        <f>B13-B11</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="F13">
+        <f>C13-C11</f>
+        <v>1.5300000000000001E-2</v>
+      </c>
+      <c r="G13" s="60">
+        <f>D13-D11</f>
+        <v>1.5650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="356" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B15">
+        <v>0.06</v>
+      </c>
+      <c r="C15">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D15">
+        <f>(C15+B15)/2</f>
+        <v>0.2235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B16">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="4">(C16+B16)/2</f>
+        <v>0.39449999999999996</v>
+      </c>
+      <c r="E16">
+        <f>B16-B15</f>
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="F16">
+        <f>C16-C15</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="G16" s="60">
+        <f>D16-D15</f>
+        <v>0.17099999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B17">
+        <v>0.127</v>
+      </c>
+      <c r="C17">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="E17">
+        <f>B17-B15</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F17">
+        <f>C17-C15</f>
+        <v>0.20099999999999996</v>
+      </c>
+      <c r="G17" s="60">
+        <f>D17-D15</f>
+        <v>0.13399999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="58" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B19">
+        <f>B11+B15</f>
+        <v>0.06</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D19" si="5">C11+C15</f>
+        <v>0.38769999999999999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>0.22384999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:D21" si="6">B12+B16</f>
+        <v>0.246</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="6"/>
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>0.46949999999999997</v>
+      </c>
+      <c r="E20">
+        <f>B20-B19</f>
+        <v>0.186</v>
+      </c>
+      <c r="F20">
+        <f>C20-C19</f>
+        <v>0.30529999999999996</v>
+      </c>
+      <c r="G20">
+        <f>D20-D19</f>
+        <v>0.24564999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="6"/>
+        <v>0.14300000000000002</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="6"/>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>0.3735</v>
+      </c>
+      <c r="E21">
+        <f>B21-B19</f>
+        <v>8.3000000000000018E-2</v>
+      </c>
+      <c r="F21">
+        <f>C21-C19</f>
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="G21">
+        <f>D21-D19</f>
+        <v>0.14965000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="58" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B23">
+        <f>B19+B7</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:D23" si="7">C19+C7</f>
+        <v>0.52469999999999994</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="7"/>
+        <v>0.29485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:D25" si="8">B20+B8</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="E24">
+        <f>B24-B23</f>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F24">
+        <f>C24-C23</f>
+        <v>0.47530000000000006</v>
+      </c>
+      <c r="G24">
+        <f>D24-D23</f>
+        <v>0.38164999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="8"/>
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="8"/>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="E25">
+        <f>B25-B23</f>
+        <v>8.7000000000000022E-2</v>
+      </c>
+      <c r="F25">
+        <f>C25-C23</f>
+        <v>0.2753000000000001</v>
+      </c>
+      <c r="G25">
+        <f>D25-D23</f>
+        <v>0.18114999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="58" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E29">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12894,20 +13629,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
-    <col min="10" max="10" width="76.125" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="76.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="58" customFormat="1">
@@ -12918,19 +13653,19 @@
         <v>14</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F1" s="58" t="s">
         <v>733</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>798</v>
+        <v>1052</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>771</v>
+        <v>1053</v>
       </c>
       <c r="I1" s="58" t="s">
         <v>2</v>
@@ -12942,13 +13677,13 @@
         <v>0.453592</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="58" customFormat="1" hidden="1">
+    <row r="2" spans="1:16" s="58" customFormat="1">
       <c r="B2" s="58" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -12956,815 +13691,811 @@
         <v>136</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="O2"/>
       <c r="P2" s="58" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>904</v>
-      </c>
-      <c r="B3" t="str">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F3">
+        <f>N2O!D3</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <f>N2O!B3</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <f>N2O!C3</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1">
+      <c r="A4" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1">
+      <c r="A5" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F5" s="6">
+        <f>N2O!D23</f>
+        <v>0.29485</v>
+      </c>
+      <c r="G5" s="6">
+        <f>N2O!B23</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <f>N2O!C23</f>
+        <v>0.52469999999999994</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B6" t="str">
         <f>Parameters!A7</f>
         <v>Provision of diesel fuel</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C6" t="str">
         <f>Parameters!B7</f>
         <v>kgCO2e/L diesel</v>
       </c>
-      <c r="D3" t="s">
-        <v>772</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D6" t="s">
+        <v>766</v>
+      </c>
+      <c r="E6" t="s">
         <v>733</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>0.45</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>0.4</v>
       </c>
-      <c r="H3">
+      <c r="H6">
         <v>0.5</v>
       </c>
-      <c r="I3" t="s">
-        <v>622</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="I6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L6" t="s">
+        <v>799</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" t="s">
+        <v>800</v>
+      </c>
+      <c r="O6" t="s">
         <v>807</v>
       </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>808</v>
-      </c>
-      <c r="O3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>904</v>
-      </c>
-      <c r="B4" t="s">
-        <v>743</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>893</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C7" t="s">
         <v>621</v>
       </c>
-      <c r="D4" t="s">
-        <v>773</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D7" t="s">
+        <v>767</v>
+      </c>
+      <c r="E7" t="s">
         <v>733</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F7" s="68">
         <v>2.7204943424399999</v>
       </c>
-      <c r="I4" s="68" t="s">
-        <v>806</v>
-      </c>
-      <c r="K4" t="s">
-        <v>809</v>
-      </c>
-      <c r="L4">
+      <c r="I7" s="68" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K7" t="s">
+        <v>801</v>
+      </c>
+      <c r="L7">
         <v>1180.6199999999999</v>
       </c>
-      <c r="M4">
+      <c r="M7">
         <f>45.59</f>
         <v>45.59</v>
       </c>
-      <c r="N4">
+      <c r="N7">
         <v>10.5</v>
-      </c>
-      <c r="O4">
-        <f>L4*$P$1+M4/1000*$P$1*Parameters!$C$6+N4/1000*$P$1*Parameters!$C$5</f>
-        <v>537.36092603984002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="6" customFormat="1">
-      <c r="A5" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F5" s="226">
-        <f>O5</f>
-        <v>692.15220789071998</v>
-      </c>
-      <c r="G5" s="226">
-        <f>O7</f>
-        <v>537.18234233351995</v>
-      </c>
-      <c r="H5" s="226">
-        <f>O6</f>
-        <v>918.79198627000005</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1520.2</v>
-      </c>
-      <c r="M5" s="6">
-        <v>31.27</v>
-      </c>
-      <c r="N5" s="6">
-        <v>18.34</v>
-      </c>
-      <c r="O5" s="6">
-        <f>L5*$P$1+M5/1000*$P$1*Parameters!$C$6+N5/1000*$P$1*Parameters!$C$5</f>
-        <v>692.15220789071998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B6" t="s">
-        <v>746</v>
-      </c>
-      <c r="C6" t="s">
-        <v>862</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F6">
-        <v>-6.8</v>
-      </c>
-      <c r="G6">
-        <v>-13</v>
-      </c>
-      <c r="H6">
-        <v>-4.7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>832</v>
-      </c>
-      <c r="J6" t="s">
-        <v>846</v>
-      </c>
-      <c r="K6" t="s">
-        <v>812</v>
-      </c>
-      <c r="L6">
-        <v>2014.87</v>
-      </c>
-      <c r="M6">
-        <v>56.1</v>
-      </c>
-      <c r="N6">
-        <v>34.53</v>
-      </c>
-      <c r="O6">
-        <f>L6*$P$1+M6/1000*$P$1*Parameters!$C$6+N6/1000*$P$1*Parameters!$C$5</f>
-        <v>918.79198627000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>904</v>
-      </c>
-      <c r="B7" t="s">
-        <v>768</v>
-      </c>
-      <c r="C7" t="s">
-        <v>862</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E7" t="s">
-        <v>797</v>
-      </c>
-      <c r="F7">
-        <v>-5.4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" t="s">
-        <v>813</v>
-      </c>
-      <c r="L7">
-        <v>1181.7</v>
-      </c>
-      <c r="M7">
-        <v>20.12</v>
-      </c>
-      <c r="N7">
-        <v>7.63</v>
       </c>
       <c r="O7">
         <f>L7*$P$1+M7/1000*$P$1*Parameters!$C$6+N7/1000*$P$1*Parameters!$C$5</f>
+        <v>537.36092603984002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="6" customFormat="1">
+      <c r="A8" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F8" s="226">
+        <f>O8</f>
+        <v>692.15220789071998</v>
+      </c>
+      <c r="G8" s="226">
+        <f>O10</f>
         <v>537.18234233351995</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="F8" s="330">
-        <v>0.03</v>
-      </c>
-      <c r="G8" s="330">
-        <v>0.03</v>
-      </c>
-      <c r="H8" s="330">
-        <v>0.06</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="6" customFormat="1">
-      <c r="A9" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2.65</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="H9" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>998</v>
+      <c r="H8" s="226">
+        <f>O9</f>
+        <v>918.79198627000005</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1520.2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>31.27</v>
+      </c>
+      <c r="N8" s="6">
+        <v>18.34</v>
+      </c>
+      <c r="O8" s="6">
+        <f>L8*$P$1+M8/1000*$P$1*Parameters!$C$6+N8/1000*$P$1*Parameters!$C$5</f>
+        <v>692.15220789071998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C9" t="s">
+        <v>851</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>619</v>
+      </c>
+      <c r="F9">
+        <v>8.85</v>
+      </c>
+      <c r="G9">
+        <v>4.7</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K9" t="s">
+        <v>804</v>
+      </c>
+      <c r="L9">
+        <v>2014.87</v>
+      </c>
+      <c r="M9">
+        <v>56.1</v>
+      </c>
+      <c r="N9">
+        <v>34.53</v>
+      </c>
+      <c r="O9">
+        <f>L9*$P$1+M9/1000*$P$1*Parameters!$C$6+N9/1000*$P$1*Parameters!$C$5</f>
+        <v>918.79198627000005</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B10" t="s">
-        <v>833</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C10" t="s">
+        <v>851</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E10" t="s">
+        <v>791</v>
+      </c>
+      <c r="F10">
+        <v>5.4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" t="s">
+        <v>805</v>
+      </c>
+      <c r="L10">
+        <v>1181.7</v>
+      </c>
+      <c r="M10">
+        <v>20.12</v>
+      </c>
+      <c r="N10">
+        <v>7.63</v>
+      </c>
+      <c r="O10">
+        <f>L10*$P$1+M10/1000*$P$1*Parameters!$C$6+N10/1000*$P$1*Parameters!$C$5</f>
+        <v>537.18234233351995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" hidden="1">
+      <c r="A11" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="F11" s="330">
+        <v>0.03</v>
+      </c>
+      <c r="G11" s="330">
+        <v>0.03</v>
+      </c>
+      <c r="H11" s="330">
+        <v>0.06</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="6" customFormat="1">
+      <c r="A12" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>893</v>
+      </c>
+      <c r="B13" t="s">
+        <v>823</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E13" t="s">
         <v>619</v>
       </c>
-      <c r="F10">
-        <v>-1.8</v>
-      </c>
-      <c r="G10">
-        <v>-3.09</v>
-      </c>
-      <c r="H10">
-        <v>-0.52</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="F13">
+        <v>1.8</v>
+      </c>
+      <c r="G13">
+        <v>0.52</v>
+      </c>
+      <c r="H13">
+        <v>3.09</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>904</v>
-      </c>
-      <c r="B11" t="s">
-        <v>747</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>619</v>
-      </c>
-      <c r="F11">
-        <v>-0.96</v>
-      </c>
-      <c r="G11">
-        <v>-1.53</v>
-      </c>
-      <c r="H11">
-        <v>-0.38</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>904</v>
-      </c>
-      <c r="B12" t="s">
-        <v>749</v>
-      </c>
-      <c r="C12" t="s">
-        <v>863</v>
-      </c>
-      <c r="D12" t="s">
-        <v>775</v>
-      </c>
-      <c r="E12" t="s">
-        <v>619</v>
-      </c>
-      <c r="F12">
-        <v>-970</v>
-      </c>
-      <c r="G12">
-        <v>-1197</v>
-      </c>
-      <c r="H12">
-        <v>-388</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="58" customFormat="1">
-      <c r="B13" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>770</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>783</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>733</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>905</v>
-      </c>
-      <c r="B14" t="str">
+        <v>893</v>
+      </c>
+      <c r="B14" t="s">
+        <v>746</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>619</v>
+      </c>
+      <c r="F14">
+        <v>0.96</v>
+      </c>
+      <c r="G14">
+        <v>0.38</v>
+      </c>
+      <c r="H14">
+        <v>1.53</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>893</v>
+      </c>
+      <c r="B15" t="s">
+        <v>748</v>
+      </c>
+      <c r="C15" t="s">
+        <v>852</v>
+      </c>
+      <c r="D15" t="s">
+        <v>769</v>
+      </c>
+      <c r="E15" t="s">
+        <v>619</v>
+      </c>
+      <c r="F15">
+        <v>970</v>
+      </c>
+      <c r="G15">
+        <v>388</v>
+      </c>
+      <c r="H15">
+        <v>1197</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="6" customFormat="1">
+      <c r="A16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="58" customFormat="1">
+      <c r="B17" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>765</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>777</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>733</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>894</v>
+      </c>
+      <c r="B18" t="str">
         <f>'Landfill '!A3</f>
         <v xml:space="preserve">diesel use at landfill </v>
       </c>
-      <c r="C14" t="str">
+      <c r="C18" t="str">
         <f>'Landfill '!B3</f>
         <v>L/t</v>
       </c>
-      <c r="D14" t="s">
-        <v>776</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D18" t="s">
+        <v>770</v>
+      </c>
+      <c r="E18" t="s">
         <v>619</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F18" s="68">
         <v>5.8295314000000005</v>
       </c>
-      <c r="G14">
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="H18">
         <v>6</v>
       </c>
-      <c r="I14" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J14" t="str">
+      <c r="I18" t="s">
+        <v>988</v>
+      </c>
+      <c r="J18" t="str">
         <f>'Landfill '!K3</f>
         <v>0.7 gal/1000lbs; high compared to 1–3 L diesel tonne–1 waste (Hunziker)</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>905</v>
-      </c>
-      <c r="B15" t="str">
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>894</v>
+      </c>
+      <c r="B19" t="str">
         <f>'Landfill '!A8</f>
         <v>Factor of oxidation</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C19" t="str">
         <f>'Landfill '!B8</f>
         <v>%</v>
       </c>
-      <c r="D15" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D19" t="s">
+        <v>995</v>
+      </c>
+      <c r="E19" t="s">
         <v>619</v>
       </c>
-      <c r="F15">
+      <c r="F19">
         <v>0.35</v>
       </c>
-      <c r="G15">
+      <c r="G19">
         <v>0.1</v>
       </c>
-      <c r="H15">
+      <c r="H19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I15" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="6" customFormat="1" hidden="1">
-      <c r="A16" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="B16" s="6" t="str">
+      <c r="I19" t="s">
+        <v>988</v>
+      </c>
+      <c r="J19" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" hidden="1">
+      <c r="A20" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B20" s="6" t="str">
         <f>'Landfill '!A9</f>
         <v>Gas Capture factor (GC)</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C20" s="6" t="str">
         <f>'Landfill '!B9</f>
         <v>%</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F20" s="6">
         <f>'Landfill '!E9</f>
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G20" s="6">
         <v>0.85</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H20" s="6">
         <v>0.9</v>
       </c>
-      <c r="I16" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J16" s="6" t="str">
+      <c r="I20" t="s">
+        <v>989</v>
+      </c>
+      <c r="J20" s="6" t="str">
         <f>'Landfill '!K9</f>
         <v>not used:85  % Landfills in NYS  with GC recovery</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>905</v>
-      </c>
-      <c r="B17" t="str">
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>894</v>
+      </c>
+      <c r="B21" t="str">
         <f>'Landfill '!A22</f>
         <v>Heat rate of LF to E conversion</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C21" t="str">
         <f>'Landfill '!B22</f>
         <v>btu/kwh</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D21" t="s">
+        <v>772</v>
+      </c>
+      <c r="E21" t="s">
+        <v>733</v>
+      </c>
+      <c r="F21">
+        <v>11700</v>
+      </c>
+      <c r="G21">
+        <v>8979</v>
+      </c>
+      <c r="H21">
+        <v>13648</v>
+      </c>
+      <c r="I21" t="s">
+        <v>988</v>
+      </c>
+      <c r="J21" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>894</v>
+      </c>
+      <c r="B22" t="s">
+        <v>762</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>776</v>
+      </c>
+      <c r="E22" t="s">
+        <v>619</v>
+      </c>
+      <c r="F22">
+        <v>0.85</v>
+      </c>
+      <c r="G22">
+        <v>0.8</v>
+      </c>
+      <c r="H22">
+        <v>0.9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>988</v>
+      </c>
+      <c r="J22" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>894</v>
+      </c>
+      <c r="B23" t="s">
         <v>778</v>
       </c>
-      <c r="E17" t="s">
-        <v>733</v>
-      </c>
-      <c r="F17">
-        <v>11700</v>
-      </c>
-      <c r="G17">
-        <v>8979</v>
-      </c>
-      <c r="H17">
-        <v>13648</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>905</v>
-      </c>
-      <c r="B18" t="s">
-        <v>767</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
-        <v>782</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D23" t="s">
+        <v>771</v>
+      </c>
+      <c r="E23" t="s">
         <v>619</v>
       </c>
-      <c r="F18">
+      <c r="F23">
+        <v>0.95</v>
+      </c>
+      <c r="G23">
         <v>0.85</v>
       </c>
-      <c r="G18">
-        <v>0.8</v>
-      </c>
-      <c r="H18">
-        <v>0.9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J18" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>905</v>
-      </c>
-      <c r="B19" t="s">
-        <v>784</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>777</v>
-      </c>
-      <c r="E19" t="s">
-        <v>619</v>
-      </c>
-      <c r="F19">
+      <c r="H23">
         <v>0.95</v>
       </c>
-      <c r="G19">
-        <v>0.85</v>
-      </c>
-      <c r="H19">
-        <v>0.95</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="I23" t="s">
         <v>628</v>
       </c>
-      <c r="J19" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1">
-      <c r="A20" t="s">
-        <v>905</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="J23" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1">
+      <c r="A24" t="s">
+        <v>894</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C24" s="6" t="str">
         <f>'Landfill '!B15</f>
         <v>fraction</v>
       </c>
-      <c r="D20" t="s">
-        <v>780</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D24" t="s">
+        <v>774</v>
+      </c>
+      <c r="E24" t="s">
         <v>619</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="G24">
         <v>0.7</v>
       </c>
-      <c r="H20">
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="J20" s="257" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="6" customFormat="1">
-      <c r="A21" t="s">
-        <v>905</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="I24" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="J24" s="257" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1">
+      <c r="A25" t="s">
+        <v>894</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C25" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="D25" t="s">
         <v>457</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E25" t="s">
         <v>619</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F25" s="6">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G25" s="68">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>0.22900000000000001</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="58" customFormat="1">
-      <c r="B22" s="58" t="s">
+      <c r="J25" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="58" customFormat="1">
+      <c r="B26" s="58" t="s">
         <v>741</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C26" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="58" t="s">
-        <v>770</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>783</v>
-      </c>
-      <c r="F22" s="58" t="s">
+      <c r="D26" s="58" t="s">
+        <v>765</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>777</v>
+      </c>
+      <c r="F26" s="58" t="s">
         <v>733</v>
       </c>
-      <c r="G22" s="58" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I22" s="58" t="s">
+      <c r="G26" s="58" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I26" s="58" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="6" customFormat="1">
-      <c r="A23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="6" customFormat="1">
-      <c r="A24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1">
-      <c r="A25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>967</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="6" customFormat="1">
-      <c r="A26" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="6" t="str">
-        <f>AD!A25</f>
-        <v>Methane incomplete combustion factor</v>
-      </c>
-      <c r="C26" s="6" t="str">
-        <f>AD!B25</f>
-        <v>% methane utilized</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="F26" s="6">
-        <f>AD!E25</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J26" s="6" t="str">
-        <f>AD!J25</f>
-        <v>Hildesheim, Gottingen, Celle</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1">
@@ -13772,33 +14503,31 @@
         <v>105</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1034</v>
+        <v>1009</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1026</v>
+        <v>1148</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="F27" s="107">
-        <v>4.19318820416827</v>
-      </c>
-      <c r="G27" s="88">
-        <f>9.8*0.33</f>
-        <v>3.2340000000000004</v>
-      </c>
-      <c r="H27" s="107">
-        <f>9.8*0.45</f>
-        <v>4.41</v>
+      <c r="F27" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J27" s="322" t="s">
-        <v>920</v>
+        <v>1011</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1">
@@ -13806,33 +14535,31 @@
         <v>105</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C28" s="6" t="str">
-        <f>AD!B30</f>
-        <v>MWh/t</v>
+        <v>668</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1054</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>619</v>
       </c>
       <c r="F28" s="6">
-        <v>0.12</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
         <v>0.1</v>
       </c>
-      <c r="H28" s="6">
-        <v>0.2</v>
-      </c>
       <c r="I28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="6" t="str">
-        <f>AD!J29</f>
-        <v>Parasitic load</v>
+        <v>10</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="6" customFormat="1">
@@ -13840,63 +14567,58 @@
         <v>105</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C29" s="6" t="str">
-        <f>AD!B36</f>
-        <v>kgVS/t FW</v>
+        <v>956</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1054</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>787</v>
+        <v>957</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>619</v>
       </c>
       <c r="F29" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="G29" s="6">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="H29" s="6">
-        <v>0.7</v>
+        <v>0.16</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="6" t="str">
-        <f>AD!J35</f>
-        <v>assuming a 55% reduction in VS</v>
+        <v>996</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>1068</v>
+      <c r="B30" s="6" t="str">
+        <f>AD!A25</f>
+        <v>Methane incomplete combustion factor</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>AD!B25</f>
+        <v>% methane utilized</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>619</v>
+        <v>733</v>
       </c>
       <c r="F30" s="6">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G30" s="6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H30" s="6">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="I30" s="6" t="str">
-        <f>AD!H37</f>
-        <v>Ebner et al., 2014</v>
+        <f>AD!E25</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="J30" s="6" t="str">
+        <f>AD!J25</f>
+        <v>Hildesheim, Gottingen, Celle</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1">
@@ -13904,35 +14626,33 @@
         <v>105</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1037</v>
+        <v>1014</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="F31" s="6">
-        <f>AD!E42</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G31" s="6">
-        <f>F31/2</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H31" s="6">
-        <f>F31*2</f>
-        <v>0.01</v>
+      <c r="F31" s="107">
+        <v>4.19318820416827</v>
+      </c>
+      <c r="G31" s="88">
+        <f>9.8*0.33</f>
+        <v>3.2340000000000004</v>
+      </c>
+      <c r="H31" s="107">
+        <f>9.8*0.45</f>
+        <v>4.41</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J31" s="6" t="str">
-        <f>AD!I42</f>
-        <v>assumes that N in is the same as N out adjusted for D losses</v>
+        <v>1000</v>
+      </c>
+      <c r="J31" s="322" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1">
@@ -13940,33 +14660,33 @@
         <v>105</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1035</v>
+        <v>652</v>
       </c>
       <c r="C32" s="6" t="str">
-        <f>AD!B44</f>
-        <v>Kg N2O-N/kg N</v>
+        <f>AD!B30</f>
+        <v>MWh/t</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1038</v>
+        <v>780</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>619</v>
       </c>
       <c r="F32" s="6">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="G32" s="6">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H32" s="6">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J32" s="6">
-        <f>AD!I43</f>
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="J32" s="6" t="str">
+        <f>AD!J29</f>
+        <v>Parasitic load</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1">
@@ -13974,95 +14694,99 @@
         <v>105</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>666</v>
+        <v>999</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f>AD!B36</f>
+        <v>kgVS/t FW</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>619</v>
       </c>
       <c r="F33" s="6">
-        <v>0.01</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G33" s="6">
-        <v>2E-3</v>
+        <v>0.4</v>
       </c>
       <c r="H33" s="6">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>1010</v>
+        <v>31</v>
       </c>
       <c r="J33" s="6" t="str">
-        <f>AD!I44</f>
-        <v>assumes that N is is the same as N out adjusted for D losses</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="5" customFormat="1">
-      <c r="A34" s="5" t="s">
+        <f>AD!J35</f>
+        <v>assuming a 55% reduction in VS</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1">
+      <c r="A34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="F34" s="5">
-        <v>20</v>
-      </c>
-      <c r="G34" s="5">
-        <v>10</v>
-      </c>
-      <c r="H34" s="5">
-        <v>30</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>1012</v>
+      <c r="B34" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F34" s="6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G34" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H34" s="6">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f>AD!H37</f>
+        <v>Ebner et al., 2014</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="6" t="s">
-        <v>904</v>
+        <v>105</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C35" s="6" t="str">
-        <f>'Land application'!B13</f>
-        <v>Kg N2O-N/kg N</v>
+        <v>1017</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1002</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>788</v>
+        <v>1024</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>619</v>
       </c>
       <c r="F35" s="6">
-        <f>'Land application'!E13</f>
-        <v>1.2500000000000001E-2</v>
+        <f>AD!E42</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G35" s="6">
-        <v>5.0000000000000001E-3</v>
+        <f>F35/2</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="H35" s="6">
-        <v>0.05</v>
+        <f>F35*2</f>
+        <v>0.01</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>1117</v>
+        <v>998</v>
+      </c>
+      <c r="J35" s="6" t="str">
+        <f>AD!I42</f>
+        <v>assumes that N in is the same as N out adjusted for D losses</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1">
@@ -14070,28 +14794,33 @@
         <v>105</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1016</v>
+        <v>1022</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f>AD!B44</f>
+        <v>Kg N2O-N/kg N</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>619</v>
       </c>
       <c r="F36" s="6">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="G36" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="H36" s="6">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>1010</v>
+        <v>998</v>
+      </c>
+      <c r="J36" s="6">
+        <f>AD!I43</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1">
@@ -14099,805 +14828,1120 @@
         <v>105</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1070</v>
+        <v>1018</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1071</v>
+        <v>666</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1051</v>
+        <v>783</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>619</v>
       </c>
       <c r="F37" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G37" s="6">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="H37" s="6">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A38" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="5" customFormat="1" hidden="1">
+      <c r="A38" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D38" s="14" t="s">
+      <c r="B38" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H38" s="6">
-        <v>1</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J38" s="323" t="s">
-        <v>1122</v>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F38" s="5">
+        <v>20</v>
+      </c>
+      <c r="G38" s="5">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5">
+        <v>30</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
-        <v>105</v>
+        <v>893</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>864</v>
+        <v>1139</v>
+      </c>
+      <c r="C39" s="6" t="str">
+        <f>'Land application'!B13</f>
+        <v>Kg N2O-N/kg N</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>782</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>619</v>
       </c>
       <c r="F39" s="6">
+        <f>'Land application'!E13</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1">
+      <c r="A40" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F40" s="6">
+        <f>N2O!E30</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G40" s="6">
+        <f>0.15*0.4</f>
+        <v>0.06</v>
+      </c>
+      <c r="H40" s="6">
+        <f>0.15*0.8</f>
+        <v>0.12</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1">
+      <c r="A41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F41" s="6">
+        <f>N2O!D25</f>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G41" s="6">
+        <f>N2O!B25</f>
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="H41" s="6">
+        <f>N2O!C25</f>
+        <v>0.8</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J42" s="323" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J43" s="323"/>
+    </row>
+    <row r="44" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J44" s="323"/>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F45" s="329">
+        <f>Parameters!G85</f>
+        <v>1.0618171415214555E-2</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J45" s="323"/>
+    </row>
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J46" s="323"/>
+    </row>
+    <row r="47" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F47" s="329">
+        <f>Parameters!G86</f>
+        <v>0.36445309811361248</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J47" s="323"/>
+    </row>
+    <row r="48" spans="1:10" s="6" customFormat="1">
+      <c r="A48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F48" s="6">
         <v>0.1</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G48" s="6">
         <v>0.02</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H48" s="6">
         <v>0.16</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="58" customFormat="1">
-      <c r="B40" s="58" t="s">
+      <c r="I48" s="6" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="58" customFormat="1">
+      <c r="B49" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="58" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>906</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="E49" s="58" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>895</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C50" t="s">
         <v>12</v>
       </c>
-      <c r="D41" t="s">
-        <v>865</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D50" t="s">
+        <v>854</v>
+      </c>
+      <c r="E50" t="s">
         <v>619</v>
       </c>
-      <c r="F41">
+      <c r="F50">
         <v>20</v>
       </c>
-      <c r="G41">
+      <c r="G50">
         <v>10</v>
       </c>
-      <c r="H41">
+      <c r="H50">
         <v>20</v>
       </c>
-      <c r="I41" t="s">
-        <v>818</v>
-      </c>
-      <c r="J41" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>906</v>
-      </c>
-      <c r="B42" t="s">
-        <v>825</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D42" t="s">
-        <v>790</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="I50" t="s">
+        <v>810</v>
+      </c>
+      <c r="J50" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>895</v>
+      </c>
+      <c r="B51" t="s">
+        <v>816</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D51" t="s">
+        <v>784</v>
+      </c>
+      <c r="E51" t="s">
         <v>619</v>
       </c>
-      <c r="F42">
+      <c r="F51">
         <f>'Land application'!E16</f>
         <v>0.2</v>
       </c>
-      <c r="G42">
+      <c r="G51">
         <v>0.05</v>
       </c>
-      <c r="H42">
+      <c r="H51">
         <v>0.5</v>
       </c>
-      <c r="I42" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>906</v>
-      </c>
-      <c r="B43" t="str">
+      <c r="I51" t="s">
+        <v>998</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>895</v>
+      </c>
+      <c r="B52" t="str">
         <f>'Land application'!A20</f>
         <v>Carbon storage factor</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C52" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>856</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D52" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="E52" t="s">
         <v>619</v>
       </c>
-      <c r="F43">
+      <c r="F52">
         <v>0.2</v>
       </c>
-      <c r="G43">
+      <c r="G52">
         <v>0.15</v>
       </c>
-      <c r="H43">
+      <c r="H52">
         <v>0.48</v>
       </c>
-      <c r="I43" t="s">
-        <v>818</v>
-      </c>
-      <c r="J43" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="I52" t="s">
+        <v>810</v>
+      </c>
+      <c r="J52" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F53" s="6">
         <v>1</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G53" s="6">
         <v>0</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H53" s="6">
         <v>1</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="J44" s="323"/>
-    </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="I53" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J53" s="323"/>
+    </row>
+    <row r="54" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F54" s="6">
         <v>1</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J45" s="323"/>
-    </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="I54" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J54" s="323"/>
+    </row>
+    <row r="55" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="F46" s="329">
+      <c r="F55" s="329">
         <f>Parameters!G95</f>
         <v>0.29728725380899296</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G55" s="6">
         <v>0</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H55" s="6">
         <v>1</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J46" s="323"/>
-    </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="I55" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J55" s="323"/>
+    </row>
+    <row r="56" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J56" s="323"/>
+    </row>
+    <row r="57" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J47" s="323"/>
-    </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="F48" s="329">
+      <c r="F57" s="329">
         <f>Parameters!G96</f>
         <v>0.56980056980056981</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G57" s="6">
         <v>0</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H57" s="6">
         <v>1</v>
       </c>
-      <c r="I48" s="6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J48" s="323"/>
-    </row>
-    <row r="49" spans="1:10" s="58" customFormat="1">
-      <c r="B49" s="58" t="s">
+      <c r="I57" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J57" s="323"/>
+    </row>
+    <row r="58" spans="1:10" s="58" customFormat="1">
+      <c r="B58" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="58" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>907</v>
-      </c>
-      <c r="B50" t="s">
-        <v>751</v>
-      </c>
-      <c r="C50" t="str">
+      <c r="C58" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="58" t="s">
+        <v>765</v>
+      </c>
+      <c r="E58" s="58" t="s">
+        <v>777</v>
+      </c>
+      <c r="F58" s="58" t="s">
+        <v>733</v>
+      </c>
+      <c r="G58" s="58" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H58" s="58" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I58" s="58" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>896</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C59" t="str">
         <f>compost!B13</f>
         <v>L/t</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>791</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D59" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="E59" t="s">
         <v>619</v>
       </c>
-      <c r="F50">
+      <c r="F59">
         <v>3</v>
       </c>
-      <c r="G50">
+      <c r="G59">
         <v>0.13</v>
       </c>
-      <c r="H50">
+      <c r="H59">
         <v>6</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I59" t="s">
         <v>524</v>
       </c>
-      <c r="J50" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>907</v>
-      </c>
-      <c r="B51" t="s">
-        <v>761</v>
-      </c>
-      <c r="C51" t="s">
-        <v>762</v>
-      </c>
-      <c r="D51" t="s">
-        <v>902</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="J59" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>896</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>757</v>
+      </c>
+      <c r="D60" t="s">
+        <v>891</v>
+      </c>
+      <c r="E60" t="s">
         <v>619</v>
       </c>
-      <c r="F51">
+      <c r="F60">
         <v>2.3E-2</v>
       </c>
-      <c r="G51">
+      <c r="G60">
         <v>2.3E-2</v>
       </c>
-      <c r="H51">
+      <c r="H60">
         <v>65</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I60" t="s">
         <v>524</v>
       </c>
-      <c r="J51" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A52" t="s">
-        <v>907</v>
-      </c>
-      <c r="B52" t="str">
-        <f>compost!A18</f>
-        <v>carbon degraded</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D52" t="s">
-        <v>792</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="J60" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="13" customHeight="1">
+      <c r="A61" t="s">
+        <v>896</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D61" t="s">
+        <v>786</v>
+      </c>
+      <c r="E61" t="s">
         <v>619</v>
       </c>
-      <c r="F52">
+      <c r="F61">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G52">
+      <c r="G61">
         <v>0.4</v>
       </c>
-      <c r="H52">
+      <c r="H61">
         <v>0.83</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I61" t="s">
         <v>524</v>
       </c>
-      <c r="J52" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>907</v>
-      </c>
-      <c r="B53" t="s">
-        <v>821</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D53" t="s">
-        <v>793</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="J61" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>896</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D62" t="s">
+        <v>787</v>
+      </c>
+      <c r="E62" t="s">
         <v>619</v>
       </c>
-      <c r="F53">
+      <c r="F62">
         <v>0.02</v>
       </c>
-      <c r="G53">
+      <c r="G62">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H53">
+      <c r="H62">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I53" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>907</v>
-      </c>
-      <c r="B54" t="s">
-        <v>674</v>
-      </c>
-      <c r="C54" t="s">
-        <v>755</v>
-      </c>
-      <c r="D54" t="s">
-        <v>794</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="I62" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>896</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D63" t="s">
+        <v>788</v>
+      </c>
+      <c r="E63" t="s">
         <v>619</v>
       </c>
-      <c r="F54">
+      <c r="F63">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G54">
+      <c r="G63">
         <v>1E-3</v>
       </c>
-      <c r="H54">
+      <c r="H63">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I54" t="s">
-        <v>824</v>
-      </c>
-      <c r="J54" t="str">
+      <c r="I63" t="s">
+        <v>815</v>
+      </c>
+      <c r="J63" t="str">
         <f>compost!H20</f>
         <v xml:space="preserve">Boldrin, 2009 </v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="B55" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E55" t="s">
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>896</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E64" t="s">
         <v>733</v>
       </c>
-      <c r="F55">
+      <c r="F64">
         <v>0.5</v>
       </c>
-      <c r="G55">
+      <c r="G64">
         <v>0</v>
       </c>
-      <c r="H55">
+      <c r="H64">
         <v>0.9</v>
       </c>
-      <c r="J55" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>907</v>
-      </c>
-      <c r="B56" t="s">
-        <v>763</v>
-      </c>
-      <c r="C56" t="s">
-        <v>764</v>
-      </c>
-      <c r="D56" t="s">
-        <v>859</v>
-      </c>
-      <c r="E56" t="s">
-        <v>619</v>
-      </c>
-      <c r="F56">
-        <v>0.43</v>
-      </c>
-      <c r="G56">
-        <v>0.23</v>
-      </c>
-      <c r="H56">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>907</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C57" t="str">
-        <f>compost!B51</f>
-        <v>%compost/fw</v>
-      </c>
-      <c r="D57" t="s">
-        <v>795</v>
-      </c>
-      <c r="E57" t="s">
-        <v>733</v>
-      </c>
-      <c r="F57">
-        <v>0.6</v>
-      </c>
-      <c r="I57" t="s">
-        <v>524</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="2" customFormat="1">
-      <c r="A58" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F58" s="2">
-        <v>20</v>
-      </c>
-      <c r="G58" s="2">
-        <v>10</v>
-      </c>
-      <c r="H58" s="2">
-        <v>30</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>907</v>
-      </c>
-      <c r="B59" t="s">
-        <v>674</v>
-      </c>
-      <c r="C59" t="s">
-        <v>827</v>
-      </c>
-      <c r="D59" t="s">
-        <v>829</v>
-      </c>
-      <c r="E59" t="s">
-        <v>733</v>
-      </c>
-      <c r="F59">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G59">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H59">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>907</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E60" t="s">
-        <v>619</v>
-      </c>
-      <c r="F60">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G60">
-        <v>0.03</v>
-      </c>
-      <c r="H60">
-        <v>0.87</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1110</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>907</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D61" t="s">
-        <v>826</v>
-      </c>
-      <c r="E61" t="s">
-        <v>619</v>
-      </c>
-      <c r="F61">
-        <f>0.016*0.15</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="G61">
-        <v>0.05</v>
-      </c>
-      <c r="H61">
-        <v>0.5</v>
-      </c>
-      <c r="I61" t="s">
-        <v>752</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>907</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E62" t="s">
-        <v>733</v>
-      </c>
-      <c r="F62">
-        <v>0.2</v>
-      </c>
-      <c r="G62">
-        <v>0.2</v>
-      </c>
-      <c r="H62">
-        <v>0.4</v>
-      </c>
-      <c r="I62" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>907</v>
-      </c>
-      <c r="B63" t="s">
-        <v>757</v>
-      </c>
-      <c r="C63" t="s">
-        <v>758</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>822</v>
-      </c>
-      <c r="E63" t="s">
-        <v>619</v>
-      </c>
-      <c r="F63">
-        <v>0.1</v>
-      </c>
-      <c r="G63">
-        <v>0.02</v>
-      </c>
-      <c r="H63">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I63" t="s">
-        <v>524</v>
-      </c>
-      <c r="J63" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="58" customFormat="1">
-      <c r="B64" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" s="58" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="I64" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="B65" t="s">
-        <v>896</v>
+        <v>1144</v>
       </c>
       <c r="C65" t="s">
-        <v>895</v>
+        <v>759</v>
       </c>
       <c r="D65" t="s">
-        <v>897</v>
+        <v>848</v>
       </c>
       <c r="E65" t="s">
         <v>619</v>
       </c>
       <c r="F65">
+        <v>0.43</v>
+      </c>
+      <c r="G65">
+        <v>0.23</v>
+      </c>
+      <c r="H65">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>896</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>789</v>
+      </c>
+      <c r="E66" t="s">
+        <v>733</v>
+      </c>
+      <c r="F66">
+        <v>0.6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>524</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>896</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E67" t="s">
+        <v>619</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0.2</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="2" customFormat="1" hidden="1">
+      <c r="A68" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F68" s="2">
+        <v>20</v>
+      </c>
+      <c r="G68" s="2">
+        <v>10</v>
+      </c>
+      <c r="H68" s="2">
+        <v>30</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>896</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E69" t="s">
+        <v>733</v>
+      </c>
+      <c r="F69">
+        <v>0.2</v>
+      </c>
+      <c r="G69">
+        <v>0.2</v>
+      </c>
+      <c r="H69">
+        <v>0.4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>896</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C70" t="s">
+        <v>818</v>
+      </c>
+      <c r="D70" t="s">
+        <v>820</v>
+      </c>
+      <c r="E70" t="s">
+        <v>733</v>
+      </c>
+      <c r="F70">
+        <f>N2O!D4</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G70">
+        <f>N2O!C4+N2O!B4</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H70">
+        <f>N2O!D4+N2O!C4</f>
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="15" customFormat="1">
+      <c r="A71" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="F71" s="15">
+        <f>N2O!D24</f>
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="G71" s="15">
+        <f>N2O!B24</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H71" s="15">
+        <f>N2O!C24</f>
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="15" customFormat="1">
+      <c r="A72" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="F72" s="15">
+        <f>N2O!E29</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>896</v>
+      </c>
+      <c r="B73" t="s">
+        <v>753</v>
+      </c>
+      <c r="C73" t="s">
+        <v>754</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="E73" t="s">
+        <v>619</v>
+      </c>
+      <c r="F73">
         <v>0.1</v>
       </c>
-      <c r="G65">
+      <c r="G73">
+        <v>0.02</v>
+      </c>
+      <c r="H73">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J73" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="58" customFormat="1">
+      <c r="B74" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="58" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>897</v>
+      </c>
+      <c r="B75" t="s">
+        <v>885</v>
+      </c>
+      <c r="C75" t="s">
+        <v>884</v>
+      </c>
+      <c r="D75" t="s">
+        <v>886</v>
+      </c>
+      <c r="E75" t="s">
+        <v>619</v>
+      </c>
+      <c r="F75">
+        <v>0.1</v>
+      </c>
+      <c r="G75">
         <v>0.05</v>
       </c>
-      <c r="H65">
+      <c r="H75">
         <v>0.5</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I75" t="s">
         <v>643</v>
       </c>
     </row>
@@ -14920,29 +15964,29 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="26" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="118" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="118" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="118" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="118" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="26" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="26" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="26" customWidth="1"/>
     <col min="11" max="11" width="36" style="26" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="26"/>
-    <col min="13" max="13" width="9.875" style="26" customWidth="1"/>
-    <col min="14" max="16" width="8.875" style="26"/>
-    <col min="17" max="17" width="10.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="26"/>
+    <col min="13" max="13" width="9.83203125" style="26" customWidth="1"/>
+    <col min="14" max="16" width="8.83203125" style="26"/>
+    <col min="17" max="17" width="10.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="26" customWidth="1"/>
-    <col min="19" max="23" width="8.875" style="26"/>
+    <col min="19" max="23" width="8.83203125" style="26"/>
     <col min="24" max="24" width="14.5" style="26" customWidth="1"/>
-    <col min="25" max="16384" width="8.875" style="26"/>
+    <col min="25" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="42" customFormat="1" ht="47.25">
+    <row r="1" spans="1:28" s="42" customFormat="1" ht="30">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -14991,7 +16035,7 @@
       <c r="D2" s="205"/>
       <c r="G2" s="53"/>
       <c r="K2" s="256" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="46" customFormat="1">
@@ -15007,7 +16051,7 @@
       </c>
       <c r="D3" s="207"/>
       <c r="E3" s="219">
-        <f>GlobalFactors.csv!F14</f>
+        <f>GlobalFactors.csv!F18</f>
         <v>5.8295314000000005</v>
       </c>
       <c r="F3" s="117"/>
@@ -15016,7 +16060,7 @@
         <v>468</v>
       </c>
       <c r="I3" s="320" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="J3" s="255" t="s">
         <v>734</v>
@@ -15037,7 +16081,7 @@
         <v>15.859207192776333</v>
       </c>
       <c r="G4" s="190">
-        <f>GlobalFactors.csv!F4</f>
+        <f>GlobalFactors.csv!F7</f>
         <v>2.7204943424399999</v>
       </c>
       <c r="H4" s="110"/>
@@ -15058,7 +16102,7 @@
         <v>2.6232891300000003</v>
       </c>
       <c r="G5" s="191">
-        <f>GlobalFactors.csv!F3</f>
+        <f>GlobalFactors.csv!F6</f>
         <v>0.45</v>
       </c>
       <c r="H5" s="110" t="s">
@@ -15100,7 +16144,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="35">
-        <f>GlobalFactors.csv!F15</f>
+        <f>GlobalFactors.csv!F19</f>
         <v>0.35</v>
       </c>
       <c r="F8" s="196"/>
@@ -15141,7 +16185,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="35">
-        <f>GlobalFactors.csv!F18</f>
+        <f>GlobalFactors.csv!F22</f>
         <v>0.85</v>
       </c>
       <c r="F10" s="196"/>
@@ -15214,7 +16258,7 @@
         <v>116</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -15225,7 +16269,7 @@
         <v>128</v>
       </c>
       <c r="G15" s="35">
-        <f>GlobalFactors.csv!F20</f>
+        <f>GlobalFactors.csv!F24</f>
         <v>1</v>
       </c>
       <c r="Q15" s="110"/>
@@ -15323,7 +16367,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="257" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B21" s="257" t="s">
         <v>22</v>
@@ -15333,7 +16377,7 @@
       <c r="H21" s="110"/>
       <c r="I21" s="110"/>
       <c r="K21" s="257" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -15345,7 +16389,7 @@
       </c>
       <c r="D22" s="211"/>
       <c r="E22" s="191">
-        <f>GlobalFactors.csv!F17</f>
+        <f>GlobalFactors.csv!F21</f>
         <v>11700</v>
       </c>
       <c r="F22" s="191"/>
@@ -15414,10 +16458,10 @@
         <v>145.73955722402675</v>
       </c>
       <c r="J25" s="115" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="K25" s="115" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="115" customFormat="1">
@@ -15434,22 +16478,22 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="J26" s="115" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="K26" s="115" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="41" customFormat="1">
       <c r="A27" s="41" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C27" s="204"/>
       <c r="D27" s="204"/>
       <c r="E27" s="265"/>
       <c r="F27" s="266"/>
       <c r="J27" s="41" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="K27" s="41" t="s">
         <v>616</v>
@@ -15472,7 +16516,7 @@
       <c r="H28" s="263"/>
       <c r="I28" s="263"/>
       <c r="K28" s="115" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -15480,7 +16524,7 @@
         <v>738</v>
       </c>
       <c r="B29" s="257" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="G29" s="191">
         <v>1</v>
@@ -15492,7 +16536,7 @@
       <c r="I29" s="294"/>
       <c r="J29" s="28"/>
       <c r="K29" s="257" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -15537,7 +16581,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="17.25">
+    <row r="35" spans="1:23" ht="16">
       <c r="B35" s="110" t="s">
         <v>461</v>
       </c>
@@ -15572,7 +16616,7 @@
         <v>93</v>
       </c>
       <c r="D36" s="295" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="E36" s="110" t="s">
         <v>443</v>
@@ -16444,7 +17488,7 @@
         <v>0.35</v>
       </c>
       <c r="D52" s="118">
-        <f>GlobalFactors.csv!F19</f>
+        <f>GlobalFactors.csv!F23</f>
         <v>0.95</v>
       </c>
       <c r="E52" s="321">
@@ -18427,7 +19471,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="296" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="B88" s="110"/>
       <c r="Z88" s="35" t="e">
@@ -18908,25 +19952,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="35.375" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="42" customFormat="1" ht="31.5">
+    <row r="1" spans="1:20" s="42" customFormat="1" ht="30">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -19052,22 +20096,22 @@
     </row>
     <row r="10" spans="1:20" s="44" customFormat="1">
       <c r="A10" s="44" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="C10" s="271">
-        <f>D13*(GlobalFactors.csv!F4+GlobalFactors.csv!F3)</f>
+        <f>D13*(GlobalFactors.csv!F7+GlobalFactors.csv!F6)</f>
         <v>8.4018100074660005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="B11" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E11">
         <v>10.6</v>
@@ -19075,21 +20119,21 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="B12" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="E12">
         <v>0.25</v>
       </c>
       <c r="J12" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="B13" t="s">
         <v>449</v>
@@ -19099,7 +20143,7 @@
         <v>2.65</v>
       </c>
       <c r="J13" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1">
@@ -19129,26 +20173,26 @@
     </row>
     <row r="16" spans="1:20" s="15" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="E16" s="298">
-        <f>GlobalFactors.csv!F23</f>
+        <f>GlobalFactors.csv!F27</f>
         <v>0.9</v>
       </c>
       <c r="F16" s="291"/>
       <c r="I16" s="14" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>21</v>
@@ -19158,11 +20202,11 @@
         <v>81.188999999999993</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:12" s="283" customFormat="1" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" s="283" customFormat="1" ht="14" customHeight="1">
       <c r="A18" s="287" t="s">
         <v>668</v>
       </c>
@@ -19172,7 +20216,7 @@
       <c r="C18" s="288"/>
       <c r="D18" s="289"/>
       <c r="E18" s="283">
-        <f>GlobalFactors.csv!F24</f>
+        <f>GlobalFactors.csv!F28</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H18" s="283" t="s">
@@ -19187,7 +20231,7 @@
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>133</v>
@@ -19197,18 +20241,18 @@
         <v>4.05945</v>
       </c>
       <c r="E19" s="298">
-        <f>GlobalFactors.csv!F25</f>
+        <f>GlobalFactors.csv!F29</f>
         <v>0.05</v>
       </c>
       <c r="F19" s="291"/>
       <c r="H19" s="15" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>578</v>
@@ -19224,7 +20268,7 @@
     </row>
     <row r="21" spans="1:12" s="15" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>21</v>
@@ -19234,21 +20278,21 @@
         <v>2.029725</v>
       </c>
       <c r="E21" s="324">
-        <f>GlobalFactors.csv!F24</f>
+        <f>GlobalFactors.csv!F28</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F21" s="291"/>
       <c r="H21" s="15" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="15" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="15" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>578</v>
@@ -19261,12 +20305,12 @@
       <c r="G22" s="298"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>133</v>
@@ -19278,13 +20322,13 @@
       <c r="F23" s="291"/>
       <c r="G23" s="298"/>
       <c r="H23" s="15" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:12" s="6" customFormat="1" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>28</v>
@@ -19295,7 +20339,7 @@
       </c>
       <c r="D24" s="226"/>
     </row>
-    <row r="25" spans="1:12" s="6" customFormat="1" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A25" s="221" t="s">
         <v>670</v>
       </c>
@@ -19338,11 +20382,11 @@
         <v>386</v>
       </c>
       <c r="B27" s="287" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="D27" s="290"/>
       <c r="E27" s="290">
-        <f>GlobalFactors.csv!F27</f>
+        <f>GlobalFactors.csv!F31</f>
         <v>4.19318820416827</v>
       </c>
       <c r="G27" s="290"/>
@@ -19350,10 +20394,10 @@
         <v>16</v>
       </c>
       <c r="I27" s="283" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="J27" s="283" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -19376,13 +20420,13 @@
         <v>2.3543133333333337</v>
       </c>
       <c r="J28" s="85" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="K28">
         <v>35.314700000000002</v>
       </c>
       <c r="L28" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -19394,7 +20438,7 @@
       </c>
       <c r="D29" s="109"/>
       <c r="E29" s="10">
-        <f>GlobalFactors.csv!F28</f>
+        <f>GlobalFactors.csv!F32</f>
         <v>0.12</v>
       </c>
       <c r="G29" s="4"/>
@@ -19432,7 +20476,7 @@
         <v>-191.80837285439111</v>
       </c>
       <c r="G31" s="282">
-        <f>GlobalFactors.csv!F5</f>
+        <f>GlobalFactors.csv!F8</f>
         <v>692.15220789071998</v>
       </c>
       <c r="H31" t="s">
@@ -19476,7 +20520,7 @@
       </c>
       <c r="C35" s="88"/>
       <c r="E35" s="10">
-        <f>GlobalFactors.csv!F29</f>
+        <f>GlobalFactors.csv!F33</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="F35" s="215"/>
@@ -19511,7 +20555,7 @@
       </c>
       <c r="D37" s="284"/>
       <c r="E37" s="283">
-        <f>GlobalFactors.csv!F30</f>
+        <f>GlobalFactors.csv!F34</f>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="H37" s="283" t="s">
@@ -19591,7 +20635,7 @@
         <v>18.53107142857143</v>
       </c>
       <c r="E42" s="10">
-        <f>GlobalFactors.csv!F26</f>
+        <f>GlobalFactors.csv!F30</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G42" s="4"/>
@@ -19611,7 +20655,7 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="10">
-        <f>GlobalFactors.csv!F32</f>
+        <f>GlobalFactors.csv!F36</f>
         <v>0.26</v>
       </c>
       <c r="G43" s="6"/>
@@ -19628,7 +20672,7 @@
         <v>666</v>
       </c>
       <c r="E44" s="10">
-        <f>GlobalFactors.csv!F33</f>
+        <f>GlobalFactors.csv!F37</f>
         <v>0.01</v>
       </c>
       <c r="G44" s="6"/>
@@ -19666,46 +20710,46 @@
       </c>
       <c r="C47" s="106">
         <f>C51+C53+C59</f>
-        <v>1.9409062780961428</v>
+        <v>1.9500220827532857</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="6" customFormat="1">
       <c r="A48" s="45" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="G48" s="259">
-        <f>GlobalFactors.csv!F8</f>
+        <f>GlobalFactors.csv!F11</f>
         <v>0.03</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="6" customFormat="1">
       <c r="A49" s="45" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="224">
-        <f>GlobalFactors.csv!F34</f>
+        <f>GlobalFactors.csv!F38</f>
         <v>20</v>
       </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:11" s="6" customFormat="1">
       <c r="A50" s="45" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="D50" s="6">
         <f>E49*G48</f>
@@ -19722,7 +20766,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="284">
-        <f>E49*G48*(GlobalFactors.csv!F4+GlobalFactors.csv!F3)</f>
+        <f>E49*G48*(GlobalFactors.csv!F7+GlobalFactors.csv!F6)</f>
         <v>1.902296605464</v>
       </c>
       <c r="H51" s="283" t="s">
@@ -19766,7 +20810,7 @@
         <v>3.3124290178571429E-2</v>
       </c>
       <c r="E53" s="10">
-        <f>GlobalFactors.csv!F35</f>
+        <f>GlobalFactors.csv!F39</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H53" t="s">
@@ -19782,11 +20826,11 @@
       </c>
       <c r="D54" s="9">
         <f>D52*E54</f>
-        <v>1.2727000000000002</v>
+        <v>0.47726249999999998</v>
       </c>
       <c r="E54" s="10">
-        <f>GlobalFactors.csv!F36</f>
-        <v>0.2</v>
+        <f>GlobalFactors.csv!F40</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H54" t="s">
         <v>672</v>
@@ -19794,14 +20838,14 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="B55" t="s">
         <v>666</v>
       </c>
       <c r="D55" s="9">
         <f>E44*D54*Parameters!C16*Parameters!C5/1000</f>
-        <v>5.2998864285714294E-3</v>
+        <v>1.9874574107142857E-3</v>
       </c>
       <c r="H55" t="s">
         <v>673</v>
@@ -19809,42 +20853,42 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="18">
         <f>C53+D55</f>
-        <v>3.8424176607142861E-2</v>
+        <v>3.5111747589285716E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="B57" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="D57" s="18">
         <f>D52*E57</f>
-        <v>4.4544500000000001E-2</v>
+        <v>3.029026</v>
       </c>
       <c r="E57">
-        <f>GlobalFactors.csv!F37</f>
-        <v>7.0000000000000001E-3</v>
+        <f>GlobalFactors.csv!F41</f>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="B58" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="D58" s="9">
         <f>E44*D57*Parameters!C16*Parameters!C5/1000</f>
-        <v>1.8549602500000001E-4</v>
+        <v>1.26137297E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -19856,7 +20900,7 @@
       </c>
       <c r="C59" s="18">
         <f>D55+D58</f>
-        <v>5.4853824535714291E-3</v>
+        <v>1.4601187110714285E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="13" customFormat="1">
@@ -19869,7 +20913,7 @@
       </c>
       <c r="D60" s="106"/>
     </row>
-    <row r="61" spans="1:11" s="115" customFormat="1" ht="15">
+    <row r="61" spans="1:11" s="115" customFormat="1" ht="14">
       <c r="A61" s="115" t="s">
         <v>470</v>
       </c>
@@ -19892,7 +20936,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="115" customFormat="1" ht="15" hidden="1">
+    <row r="62" spans="1:11" s="115" customFormat="1" ht="14" hidden="1">
       <c r="A62" s="115" t="s">
         <v>692</v>
       </c>
@@ -19912,7 +20956,7 @@
     </row>
     <row r="63" spans="1:11" s="46" customFormat="1" hidden="1">
       <c r="A63" s="115" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="B63" s="222" t="s">
         <v>683</v>
@@ -19927,13 +20971,13 @@
         <v>0.15900000000000003</v>
       </c>
       <c r="J63" s="255" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="K63" s="187"/>
     </row>
     <row r="64" spans="1:11" s="46" customFormat="1">
       <c r="A64" s="115" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="B64" s="222"/>
       <c r="C64" s="293"/>
@@ -19947,10 +20991,10 @@
     </row>
     <row r="65" spans="1:11" s="46" customFormat="1">
       <c r="A65" s="115" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="B65" s="255" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="C65" s="293"/>
       <c r="D65" s="269">
@@ -19963,10 +21007,10 @@
     </row>
     <row r="66" spans="1:11" s="46" customFormat="1">
       <c r="A66" s="115" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B66" s="255" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="C66" s="293"/>
       <c r="D66" s="269">
@@ -19979,10 +21023,10 @@
     </row>
     <row r="67" spans="1:11" s="46" customFormat="1">
       <c r="A67" s="115" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="B67" s="255" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="C67" s="293"/>
       <c r="D67" s="269">
@@ -19995,10 +21039,10 @@
     </row>
     <row r="68" spans="1:11" s="302" customFormat="1">
       <c r="A68" s="301" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="B68" s="302" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="D68" s="303">
         <f>D66*Parameters!C19*F68</f>
@@ -20009,15 +21053,15 @@
         <v>0.75</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="15" customFormat="1">
       <c r="A69" s="301" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="D69" s="234">
         <f>D67*Parameters!C21*AD!F69</f>
@@ -20028,15 +21072,15 @@
         <v>0.27272727272727276</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1">
       <c r="A70" s="301" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="D70" s="234">
         <f>D39/Parameters!C18</f>
@@ -20045,10 +21089,10 @@
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1">
       <c r="A71" s="301" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="D71" s="299">
         <f>D26*Parameters!C19*F68</f>
@@ -20058,10 +21102,10 @@
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1">
       <c r="A72" s="301" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="D72" s="299">
         <f>F61-D68-D69-D70-D71</f>
@@ -20071,10 +21115,10 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="115" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="D73" s="85">
         <f>D72*F73</f>
@@ -20086,15 +21130,15 @@
       </c>
       <c r="G73" s="52"/>
       <c r="I73" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="J73" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="15" customFormat="1">
       <c r="A74" s="301" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>28</v>
@@ -20114,7 +21158,7 @@
       </c>
       <c r="C75" s="181">
         <f>C14+C33+C47+C60+C10</f>
-        <v>-12.555510447428954</v>
+        <v>-12.546394642771812</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="44" customFormat="1">
@@ -20129,7 +21173,7 @@
       <c r="C77" s="90"/>
       <c r="D77" s="92">
         <f>D52-D52*E53-D52*E54-D52*E57</f>
-        <v>4.96671175</v>
+        <v>2.77766775</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="6" customFormat="1">
@@ -20141,10 +21185,10 @@
       </c>
       <c r="D78" s="18">
         <f>D77*E78</f>
-        <v>3.2283626375000001</v>
+        <v>1.8054840375000001</v>
       </c>
       <c r="E78" s="10">
-        <f>GlobalFactors.csv!F38</f>
+        <f>GlobalFactors.csv!F42</f>
         <v>0.65</v>
       </c>
       <c r="H78" s="93">
@@ -20161,11 +21205,11 @@
       </c>
       <c r="D79" s="18">
         <f>G79*D78/1000</f>
-        <v>-2.1952865935E-2</v>
+        <v>1.5978533731875001E-2</v>
       </c>
       <c r="G79" s="4">
-        <f>GlobalFactors.csv!F6</f>
-        <v>-6.8</v>
+        <f>GlobalFactors.csv!F9</f>
+        <v>8.85</v>
       </c>
       <c r="I79" t="s">
         <v>422</v>
@@ -20180,7 +21224,7 @@
       </c>
       <c r="D80" s="18">
         <f>G80*D78/1000</f>
-        <v>-1.7433158242500003E-2</v>
+        <v>-9.7496138025000012E-3</v>
       </c>
       <c r="G80">
         <v>-5.4</v>
@@ -20191,27 +21235,27 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
       <c r="D81" s="18">
-        <f>D78/GlobalFactors.csv!F48</f>
-        <v>5.6657764288125003</v>
+        <f>D78/GlobalFactors.csv!F57</f>
+        <v>3.1686244858124999</v>
       </c>
       <c r="G81" s="327">
-        <f>GlobalFactors.csv!F48</f>
+        <f>GlobalFactors.csv!F57</f>
         <v>0.56980056980056981</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="B82" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="D82" s="326">
-        <f>Parameters!Q27*GlobalFactors.csv!F10/1000</f>
-        <v>-3.42</v>
+        <f>Parameters!Q27*GlobalFactors.csv!F13/1000</f>
+        <v>3.42</v>
       </c>
       <c r="F82" s="85">
         <f>Parameters!P27+Parameters!Q27</f>
@@ -20220,20 +21264,20 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>1090</v>
+        <v>1074</v>
       </c>
       <c r="D83" s="326"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="B84" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="D84" s="326">
-        <f>Parameters!P27*GlobalFactors.csv!F11/1000</f>
-        <v>-3.1680000000000001</v>
+        <f>Parameters!P27*GlobalFactors.csv!F14/1000</f>
+        <v>3.1680000000000001</v>
       </c>
       <c r="F84" s="85">
         <f>Parameters!P27</f>
@@ -20249,7 +21293,7 @@
       </c>
       <c r="C85" s="20">
         <f>D79+D80+D82+D84</f>
-        <v>-6.6273860241775004</v>
+        <v>6.5942289199293747</v>
       </c>
       <c r="D85" s="229"/>
     </row>
@@ -20259,7 +21303,7 @@
       </c>
       <c r="C86" s="230">
         <f>C75+C85</f>
-        <v>-19.182896471606455</v>
+        <v>-5.9521657228424374</v>
       </c>
       <c r="D86" s="7"/>
     </row>
@@ -20288,7 +21332,7 @@
     <row r="92" spans="1:8">
       <c r="A92" s="7"/>
     </row>
-    <row r="97" spans="6:7" ht="18">
+    <row r="97" spans="6:7" ht="16">
       <c r="F97" s="74"/>
       <c r="G97" s="74"/>
     </row>
@@ -20311,20 +21355,20 @@
       <selection activeCell="A39" sqref="A39:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="42" customFormat="1" ht="31.5">
+    <row r="1" spans="1:20" s="42" customFormat="1" ht="30">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -20390,7 +21434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="49" customFormat="1" ht="51" hidden="1">
+    <row r="4" spans="1:20" s="49" customFormat="1" ht="56" hidden="1">
       <c r="A4" s="75" t="s">
         <v>1</v>
       </c>
@@ -20457,27 +21501,27 @@
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1">
       <c r="A8" s="45" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="C8" s="223"/>
       <c r="E8" s="226">
-        <f>GlobalFactors.csv!F8</f>
+        <f>GlobalFactors.csv!F11</f>
         <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1">
       <c r="A9" s="45" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="223"/>
       <c r="E9" s="5">
-        <f>GlobalFactors.csv!F41</f>
+        <f>GlobalFactors.csv!F50</f>
         <v>20</v>
       </c>
     </row>
@@ -20489,7 +21533,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="9">
-        <f>E9*E8*(GlobalFactors.csv!F3+GlobalFactors.csv!F4)</f>
+        <f>E9*E8*(GlobalFactors.csv!F6+GlobalFactors.csv!F7)</f>
         <v>1.902296605464</v>
       </c>
       <c r="G10" s="231" t="s">
@@ -20602,7 +21646,7 @@
       </c>
       <c r="D18" s="106"/>
     </row>
-    <row r="19" spans="1:11" s="115" customFormat="1" ht="15">
+    <row r="19" spans="1:11" s="115" customFormat="1" ht="14">
       <c r="A19" s="115" t="s">
         <v>470</v>
       </c>
@@ -20625,7 +21669,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="115" customFormat="1" ht="15">
+    <row r="20" spans="1:11" s="115" customFormat="1" ht="14">
       <c r="A20" s="115" t="s">
         <v>738</v>
       </c>
@@ -20636,7 +21680,7 @@
       </c>
       <c r="F20" s="214"/>
     </row>
-    <row r="21" spans="1:11" s="115" customFormat="1" ht="15">
+    <row r="21" spans="1:11" s="115" customFormat="1" ht="14">
       <c r="A21" s="115" t="s">
         <v>692</v>
       </c>
@@ -20654,7 +21698,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="46" customFormat="1" ht="15">
+    <row r="22" spans="1:11" s="46" customFormat="1" ht="14">
       <c r="A22" s="115" t="s">
         <v>523</v>
       </c>
@@ -20673,7 +21717,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="115" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="C23" s="225">
         <f>-D23*Parameters!C17</f>
@@ -20687,7 +21731,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="10">
-        <f>GlobalFactors.csv!F63</f>
+        <f>GlobalFactors.csv!F73</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="52">
@@ -20695,13 +21739,13 @@
         <v>1.5900000000000004E-2</v>
       </c>
       <c r="H23" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="I23" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="J23" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="43" customFormat="1">
@@ -20719,7 +21763,7 @@
       </c>
       <c r="C25" s="233">
         <f>D29+D30</f>
-        <v>283.15224000000001</v>
+        <v>-283.15224000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="44" customFormat="1">
@@ -20767,11 +21811,11 @@
       </c>
       <c r="D28" s="9">
         <f>D27*F28</f>
-        <v>-23209.200000000001</v>
+        <v>23209.200000000001</v>
       </c>
       <c r="F28" s="4">
-        <f>GlobalFactors.csv!F7</f>
-        <v>-5.4</v>
+        <f>GlobalFactors.csv!F10</f>
+        <v>5.4</v>
       </c>
       <c r="G28" s="93"/>
       <c r="H28" t="s">
@@ -20787,7 +21831,7 @@
       </c>
       <c r="D29" s="9">
         <f>F29*D28/1000</f>
-        <v>157.82256000000001</v>
+        <v>-157.82256000000001</v>
       </c>
       <c r="F29" s="4">
         <v>-6.8</v>
@@ -20808,7 +21852,7 @@
       </c>
       <c r="D30" s="9">
         <f>F30*D28/1000</f>
-        <v>125.32968000000001</v>
+        <v>-125.32968000000001</v>
       </c>
       <c r="F30" s="10">
         <f>AD!G80</f>
@@ -20830,7 +21874,7 @@
       </c>
       <c r="D31" s="9">
         <f>F31*D28/1000</f>
-        <v>-46.418399999999998</v>
+        <v>46.418399999999998</v>
       </c>
       <c r="F31" s="10">
         <v>2</v>
@@ -20857,7 +21901,7 @@
       </c>
       <c r="C33" s="94">
         <f>C24+C25</f>
-        <v>310.37192041930325</v>
+        <v>-255.93255958069676</v>
       </c>
     </row>
   </sheetData>
@@ -20875,19 +21919,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="45.5" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="42" customFormat="1" ht="47.25">
+    <row r="1" spans="1:20" s="42" customFormat="1" ht="45">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -20898,7 +21942,7 @@
         <v>110</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>636</v>
@@ -20922,7 +21966,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="42" customFormat="1" ht="47.25">
+    <row r="2" spans="1:20" s="42" customFormat="1" ht="45">
       <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
@@ -21075,11 +22119,11 @@
         <v>524</v>
       </c>
       <c r="I13" s="45">
-        <f>GlobalFactors.csv!G50</f>
+        <f>GlobalFactors.csv!G59</f>
         <v>0.13</v>
       </c>
       <c r="J13" s="188" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="45" customFormat="1">
@@ -21106,7 +22150,7 @@
     </row>
     <row r="15" spans="1:20" s="45" customFormat="1">
       <c r="A15" s="45" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>28</v>
@@ -21116,17 +22160,17 @@
         <v>1.5919500781486559E-2</v>
       </c>
       <c r="E15" s="45">
-        <f>GlobalFactors.csv!F51</f>
+        <f>GlobalFactors.csv!F60</f>
         <v>2.3E-2</v>
       </c>
       <c r="F15" s="338"/>
       <c r="H15" s="45" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="13" customFormat="1">
       <c r="A16" s="13" t="s">
-        <v>1145</v>
+        <v>1120</v>
       </c>
       <c r="C16" s="39">
         <f>C22+C26+C30</f>
@@ -21165,7 +22209,7 @@
         <v>84.528943189935518</v>
       </c>
       <c r="E18" s="4">
-        <f>GlobalFactors.csv!F52</f>
+        <f>GlobalFactors.csv!F61</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="F18" s="341"/>
@@ -21173,24 +22217,24 @@
         <v>524</v>
       </c>
       <c r="I18">
-        <f>GlobalFactors.csv!G52</f>
+        <f>GlobalFactors.csv!G61</f>
         <v>0.4</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="15" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="175"/>
       <c r="E19" s="4">
-        <f>GlobalFactors.csv!F53</f>
+        <f>GlobalFactors.csv!F62</f>
         <v>0.02</v>
       </c>
       <c r="F19" s="341"/>
@@ -21214,7 +22258,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="5" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -21234,7 +22278,7 @@
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1">
       <c r="A22" s="14" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>28</v>
@@ -21255,7 +22299,7 @@
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>1136</v>
+        <v>1111</v>
       </c>
       <c r="D23" s="174"/>
       <c r="F23" s="340">
@@ -21265,17 +22309,17 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1100</v>
+        <v>1082</v>
       </c>
       <c r="D24" s="336">
         <f>F23*E24</f>
         <v>3.827</v>
       </c>
       <c r="E24">
-        <f>GlobalFactors.csv!F56</f>
+        <f>GlobalFactors.csv!F65</f>
         <v>0.43</v>
       </c>
       <c r="F24" s="340">
@@ -21285,17 +22329,17 @@
     </row>
     <row r="25" spans="1:10" s="15" customFormat="1">
       <c r="A25" s="14" t="s">
-        <v>1101</v>
+        <v>1083</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
       <c r="D25" s="299">
         <f>F23*E25</f>
         <v>4.4500000000000005E-2</v>
       </c>
       <c r="E25" s="331">
-        <f>GlobalFactors.csv!F54</f>
+        <f>GlobalFactors.csv!F63</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F25" s="342"/>
@@ -21303,7 +22347,7 @@
         <v>524</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>580</v>
@@ -21311,7 +22355,7 @@
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>1102</v>
+        <v>1084</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>581</v>
@@ -21329,7 +22373,7 @@
     </row>
     <row r="27" spans="1:10" s="15" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="C27" s="299"/>
       <c r="D27" s="332">
@@ -21341,33 +22385,33 @@
     </row>
     <row r="28" spans="1:10" s="15" customFormat="1">
       <c r="A28" s="14" t="s">
-        <v>1132</v>
+        <v>1107</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>1103</v>
+        <v>1085</v>
       </c>
       <c r="D28" s="333">
         <f>D27*E28</f>
         <v>1.8912499999999999</v>
       </c>
       <c r="E28" s="15">
-        <f>GlobalFactors.csv!F55</f>
+        <f>GlobalFactors.csv!F64</f>
         <v>0.5</v>
       </c>
       <c r="F28" s="342"/>
       <c r="H28" s="15" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="14" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>1134</v>
+        <v>1109</v>
       </c>
       <c r="D29" s="334">
-        <f>D28*GlobalFactors.csv!F33</f>
+        <f>D28*GlobalFactors.csv!F37</f>
         <v>1.8912499999999999E-2</v>
       </c>
       <c r="F29" s="341"/>
@@ -21397,12 +22441,12 @@
     </row>
     <row r="32" spans="1:10" s="44" customFormat="1">
       <c r="A32" s="170" t="s">
-        <v>1135</v>
+        <v>1110</v>
       </c>
       <c r="B32" s="170"/>
       <c r="C32" s="182">
         <f>C39+C40+C41</f>
-        <v>-13.48728</v>
+        <v>15.567210000000001</v>
       </c>
       <c r="D32" s="171"/>
       <c r="E32" s="169"/>
@@ -21411,21 +22455,21 @@
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A33" s="5" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F33" s="344"/>
       <c r="G33" s="335">
-        <f>GlobalFactors.csv!F8</f>
+        <f>GlobalFactors.csv!F11</f>
         <v>0.03</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>616</v>
@@ -21433,13 +22477,13 @@
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A34" s="5" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="224">
-        <f>GlobalFactors.csv!F58</f>
+        <f>GlobalFactors.csv!F68</f>
         <v>20</v>
       </c>
       <c r="F34" s="344"/>
@@ -21450,10 +22494,10 @@
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A35" s="5" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="D35" s="5">
         <f>E34*G33</f>
@@ -21467,19 +22511,19 @@
     </row>
     <row r="36" spans="1:10" s="45" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="5"/>
       <c r="E36" s="338">
-        <f>GlobalFactors.csv!F62</f>
+        <f>GlobalFactors.csv!F69</f>
         <v>0.2</v>
       </c>
       <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:10" s="45" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="5"/>
@@ -21516,14 +22560,14 @@
       </c>
       <c r="C39" s="180">
         <f>D38*G39</f>
-        <v>-6.899280000000001</v>
+        <v>8.9792100000000019</v>
       </c>
       <c r="D39" s="176"/>
       <c r="E39" s="177"/>
       <c r="F39" s="345"/>
       <c r="G39" s="87">
-        <f>GlobalFactors.csv!F6</f>
-        <v>-6.8</v>
+        <f>GlobalFactors.csv!F9</f>
+        <v>8.85</v>
       </c>
       <c r="H39" s="87" t="s">
         <v>596</v>
@@ -21532,17 +22576,17 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="B40" t="s">
         <v>600</v>
       </c>
       <c r="C40" s="174">
         <f>F40*G40</f>
-        <v>-3.42</v>
+        <v>3.42</v>
       </c>
       <c r="E40">
-        <f>GlobalFactors.csv!F47</f>
+        <f>GlobalFactors.csv!F56</f>
         <v>1</v>
       </c>
       <c r="F40" s="346">
@@ -21550,8 +22594,8 @@
         <v>1.9</v>
       </c>
       <c r="G40">
-        <f>GlobalFactors.csv!F10</f>
-        <v>-1.8</v>
+        <f>GlobalFactors.csv!F13</f>
+        <v>1.8</v>
       </c>
       <c r="H40" t="s">
         <v>609</v>
@@ -21559,17 +22603,17 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="14" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="B41" t="s">
         <v>600</v>
       </c>
       <c r="C41" s="174">
         <f>F41*E41*G41</f>
-        <v>-3.1679999999999997</v>
+        <v>3.1679999999999997</v>
       </c>
       <c r="E41">
-        <f>GlobalFactors.csv!F45</f>
+        <f>GlobalFactors.csv!F54</f>
         <v>1</v>
       </c>
       <c r="F41" s="346">
@@ -21577,27 +22621,27 @@
         <v>3.3</v>
       </c>
       <c r="G41">
-        <f>GlobalFactors.csv!F11</f>
-        <v>-0.96</v>
+        <f>GlobalFactors.csv!F14</f>
+        <v>0.96</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="348" customFormat="1">
       <c r="A42" s="347" t="s">
-        <v>1146</v>
+        <v>1121</v>
       </c>
       <c r="C42" s="349">
         <f>C32+C16+C12</f>
-        <v>85.561843562300979</v>
+        <v>114.61633356230098</v>
       </c>
       <c r="F42" s="350"/>
     </row>
     <row r="43" spans="1:10" s="195" customFormat="1">
       <c r="A43" s="170" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C43" s="181">
+        <v>1122</v>
+      </c>
+      <c r="C43" s="181" t="e">
         <f>C46+C47+C48+C49</f>
-        <v>35.042849065714293</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="45" customFormat="1">
@@ -21628,8 +22672,8 @@
         <v>22</v>
       </c>
       <c r="E45" s="4">
-        <f>GlobalFactors.csv!F59</f>
-        <v>1.4999999999999999E-2</v>
+        <f>GlobalFactors.csv!F70</f>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H45" t="s">
         <v>524</v>
@@ -21647,63 +22691,63 @@
       </c>
       <c r="C46" s="267">
         <f>D46*Parameters!C16*Parameters!C5</f>
-        <v>31.688132142857146</v>
+        <v>71.826432857142862</v>
       </c>
       <c r="D46" s="85">
         <f>D44*E45</f>
-        <v>7.609500000000001E-2</v>
+        <v>0.17248200000000002</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="14" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="B47" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C47" s="267">
-        <f>D47*GlobalFactors.csv!F33*Parameters!C5*Parameters!C16</f>
-        <v>1.6266574500000004</v>
-      </c>
-      <c r="D47" s="85">
+        <v>1085</v>
+      </c>
+      <c r="C47" s="267" t="e">
+        <f>D47*GlobalFactors.csv!F37*Parameters!C5*Parameters!C16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D47" s="85" t="e">
         <f>D44*E47</f>
-        <v>0.39062100000000005</v>
-      </c>
-      <c r="E47">
-        <f>GlobalFactors.csv!F60</f>
-        <v>7.6999999999999999E-2</v>
+        <v>#REF!</v>
+      </c>
+      <c r="E47" t="e">
+        <f>GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="B48" t="s">
-        <v>1103</v>
+        <v>1085</v>
       </c>
       <c r="C48" s="85">
-        <f>D48*Parameters!C16*Parameters!C5*GlobalFactors.csv!F33</f>
-        <v>5.0701011428571433E-2</v>
+        <f>D48*Parameters!C16*Parameters!C5*GlobalFactors.csv!F37</f>
+        <v>0.33800674285714288</v>
       </c>
       <c r="D48" s="85">
         <f>D44*E48</f>
-        <v>1.2175200000000001E-2</v>
+        <v>8.1168000000000004E-2</v>
       </c>
       <c r="E48">
-        <f>GlobalFactors.csv!F61</f>
-        <v>2.3999999999999998E-3</v>
+        <f>GlobalFactors.csv!F72</f>
+        <v>1.6E-2</v>
       </c>
       <c r="J48" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="14" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C49" s="85">
+        <v>1101</v>
+      </c>
+      <c r="C49" s="85" t="e">
         <f>C47+C48</f>
-        <v>1.6773584614285719</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="44" customFormat="1">
@@ -21711,9 +22755,9 @@
         <v>570</v>
       </c>
       <c r="B50" s="170"/>
-      <c r="C50" s="181">
+      <c r="C50" s="181" t="e">
         <f>C60+C59+C61+C62</f>
-        <v>-17.797625472000004</v>
+        <v>#REF!</v>
       </c>
       <c r="D50" s="171"/>
       <c r="E50" s="169"/>
@@ -21732,57 +22776,57 @@
         <v>400</v>
       </c>
       <c r="E51" s="4">
-        <f>GlobalFactors.csv!F57</f>
+        <f>GlobalFactors.csv!F66</f>
         <v>0.6</v>
       </c>
       <c r="H51" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="I51" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A52" s="45" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="G52" s="259">
-        <f>GlobalFactors.csv!F8</f>
+        <f>GlobalFactors.csv!F11</f>
         <v>0.03</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A53" s="45" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="224">
-        <f>GlobalFactors.csv!F58</f>
+        <f>GlobalFactors.csv!F68</f>
         <v>20</v>
       </c>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A54" s="45" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="D54" s="6">
         <f>E53*G52</f>
@@ -21799,7 +22843,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="284">
-        <f>E53*G52*(GlobalFactors.csv!F3+GlobalFactors.csv!F4)</f>
+        <f>E53*G52*(GlobalFactors.csv!F6+GlobalFactors.csv!F7)</f>
         <v>1.902296605464</v>
       </c>
       <c r="H55" s="283" t="s">
@@ -21811,26 +22855,26 @@
     </row>
     <row r="56" spans="1:11" s="45" customFormat="1">
       <c r="A56" s="14" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="5"/>
       <c r="E56" s="178"/>
       <c r="F56" s="45">
-        <f>GlobalFactors.csv!F62</f>
+        <f>GlobalFactors.csv!F69</f>
         <v>0.2</v>
       </c>
       <c r="J56" s="179"/>
     </row>
     <row r="57" spans="1:11" s="45" customFormat="1">
       <c r="A57" s="14" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="108">
+      <c r="D57" s="108" t="e">
         <f>D44-D46-D47-D48</f>
-        <v>4.5941088000000008</v>
+        <v>#REF!</v>
       </c>
       <c r="E57" s="178"/>
       <c r="J57" s="179"/>
@@ -21843,9 +22887,9 @@
         <v>585</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="173">
+      <c r="D58" s="173" t="e">
         <f>D57*F56</f>
-        <v>0.91882176000000015</v>
+        <v>#REF!</v>
       </c>
       <c r="E58" s="235"/>
       <c r="J58" s="179"/>
@@ -21857,15 +22901,15 @@
       <c r="B59" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="180">
+      <c r="C59" s="180" t="e">
         <f>D58*G59</f>
-        <v>-6.2479879680000012</v>
+        <v>#REF!</v>
       </c>
       <c r="D59" s="176"/>
       <c r="E59" s="177"/>
       <c r="G59" s="87">
-        <f>GlobalFactors.csv!F6</f>
-        <v>-6.8</v>
+        <f>GlobalFactors.csv!F9</f>
+        <v>8.85</v>
       </c>
       <c r="H59" s="87" t="s">
         <v>596</v>
@@ -21879,9 +22923,9 @@
       <c r="B60" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="180">
+      <c r="C60" s="180" t="e">
         <f>D58*G60</f>
-        <v>-4.9616375040000014</v>
+        <v>#REF!</v>
       </c>
       <c r="D60" s="176"/>
       <c r="E60" s="177"/>
@@ -21896,22 +22940,22 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="B61" t="s">
         <v>600</v>
       </c>
       <c r="C61" s="174">
         <f>C40</f>
-        <v>-3.42</v>
+        <v>3.42</v>
       </c>
       <c r="F61" t="e">
         <f>Parameters!R27+Parameters!Q28</f>
         <v>#VALUE!</v>
       </c>
       <c r="G61">
-        <f>GlobalFactors.csv!F10</f>
-        <v>-1.8</v>
+        <f>GlobalFactors.csv!F13</f>
+        <v>1.8</v>
       </c>
       <c r="H61" t="s">
         <v>609</v>
@@ -21926,7 +22970,7 @@
       </c>
       <c r="C62" s="174">
         <f>C41</f>
-        <v>-3.1679999999999997</v>
+        <v>3.1679999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="13" customFormat="1">
@@ -21976,7 +23020,7 @@
     </row>
     <row r="66" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A66" s="14" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>435</v>
@@ -21989,7 +23033,7 @@
       <c r="E66" s="107"/>
       <c r="F66" s="107"/>
       <c r="J66" s="6" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="K66" s="107"/>
     </row>
@@ -21998,7 +23042,7 @@
         <v>607</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C67" s="85"/>
       <c r="D67" s="109">
@@ -22007,7 +23051,7 @@
       </c>
       <c r="E67" s="107"/>
       <c r="F67" s="261">
-        <f>GlobalFactors.csv!F63</f>
+        <f>GlobalFactors.csv!F73</f>
         <v>0.1</v>
       </c>
       <c r="K67" s="107"/>
@@ -22026,25 +23070,25 @@
       <c r="D68" s="85"/>
       <c r="I68" s="167"/>
       <c r="J68" s="7" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="44" customFormat="1">
       <c r="A69" s="170" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C69" s="181">
+        <v>1123</v>
+      </c>
+      <c r="C69" s="181" t="e">
         <f>C63+C50+C43</f>
-        <v>-5.1986682187858264</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="348" customFormat="1">
       <c r="A70" s="347" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C70" s="351">
+        <v>1124</v>
+      </c>
+      <c r="C70" s="351" t="e">
         <f>C69+C12+C16</f>
-        <v>93.850455343515151</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="44" customFormat="1">
@@ -22056,7 +23100,7 @@
       </c>
       <c r="C71" s="44">
         <f>C74</f>
-        <v>-388</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -22088,11 +23132,11 @@
       </c>
       <c r="C74">
         <f>F74*D73/1000</f>
-        <v>-388</v>
+        <v>388</v>
       </c>
       <c r="F74">
-        <f>GlobalFactors.csv!F12</f>
-        <v>-970</v>
+        <f>GlobalFactors.csv!F15</f>
+        <v>970</v>
       </c>
       <c r="H74" t="s">
         <v>608</v>
@@ -22103,11 +23147,11 @@
     </row>
     <row r="75" spans="1:11" s="348" customFormat="1">
       <c r="A75" s="348" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="C75" s="351">
         <f>C71+C16+C12</f>
-        <v>-288.95087643769904</v>
+        <v>487.04912356230096</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -22115,11 +23159,11 @@
     </row>
     <row r="77" spans="1:11" s="58" customFormat="1">
       <c r="A77" s="58" t="s">
-        <v>1150</v>
+        <v>1125</v>
       </c>
       <c r="C77" s="355">
         <f>0.21*C75+0.18*C42+0.61*C31</f>
-        <v>15.141413162300971</v>
+        <v>183.33122136230097</v>
       </c>
     </row>
   </sheetData>
@@ -22141,12 +23185,12 @@
       <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="42"/>
       <c r="B1" s="42" t="s">
         <v>14</v>
@@ -22222,10 +23266,10 @@
     </row>
     <row r="5" spans="1:10" s="44" customFormat="1">
       <c r="A5" s="44" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="C5" s="271" t="e">
         <f>D8*(GlobalFactors.csv!#REF!+GlobalFactors.csv!#REF!)</f>
@@ -22234,10 +23278,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="B6" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E6">
         <v>10.6</v>
@@ -22245,21 +23289,21 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="B7" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="E7">
         <v>0.25</v>
       </c>
       <c r="J7" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="B8" t="s">
         <v>449</v>
@@ -22269,7 +23313,7 @@
         <v>2.65</v>
       </c>
       <c r="J8" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="44" customFormat="1">
@@ -22283,7 +23327,7 @@
     </row>
     <row r="10" spans="1:10" s="44" customFormat="1">
       <c r="A10" s="44" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="C10" s="83"/>
     </row>
@@ -22301,19 +23345,19 @@
     </row>
     <row r="13" spans="1:10" s="44" customFormat="1">
       <c r="A13" s="44" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="C13" s="83"/>
     </row>
     <row r="14" spans="1:10" s="87" customFormat="1">
       <c r="A14" s="45" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="B14" s="87" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="281">
-        <f>GlobalFactors.csv!F65</f>
+        <f>GlobalFactors.csv!F75</f>
         <v>0.1</v>
       </c>
     </row>
@@ -22322,7 +23366,7 @@
         <v>379</v>
       </c>
       <c r="B15" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="C15" s="81"/>
       <c r="E15" s="105">
@@ -22354,7 +23398,7 @@
         <v>-557.99793388429748</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18">
+    <row r="27" spans="1:14" ht="17">
       <c r="A27" s="67" t="s">
         <v>365</v>
       </c>
@@ -22362,7 +23406,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="47.25">
+    <row r="28" spans="1:14" ht="45">
       <c r="B28" s="1" t="s">
         <v>334</v>
       </c>
@@ -22499,7 +23543,7 @@
       <c r="M34" s="50"/>
       <c r="N34" s="50"/>
     </row>
-    <row r="35" spans="1:14" ht="16.5" thickBot="1">
+    <row r="35" spans="1:14" ht="16" thickBot="1">
       <c r="A35" s="147" t="s">
         <v>499</v>
       </c>
@@ -22512,7 +23556,7 @@
       <c r="M35" s="50"/>
       <c r="N35" s="50"/>
     </row>
-    <row r="36" spans="1:14" ht="16.5" thickBot="1">
+    <row r="36" spans="1:14" ht="16" thickBot="1">
       <c r="A36" s="147" t="s">
         <v>500</v>
       </c>
@@ -22522,7 +23566,7 @@
       <c r="M36" s="50"/>
       <c r="N36" s="50"/>
     </row>
-    <row r="37" spans="1:14" ht="16.5" thickBot="1">
+    <row r="37" spans="1:14" ht="16" thickBot="1">
       <c r="A37" s="147" t="s">
         <v>501</v>
       </c>
@@ -22532,42 +23576,42 @@
       <c r="M37" s="50"/>
       <c r="N37" s="50"/>
     </row>
-    <row r="38" spans="1:14" ht="16.5" thickBot="1">
+    <row r="38" spans="1:14" ht="16" thickBot="1">
       <c r="A38" s="147" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16.5" thickBot="1">
+    <row r="39" spans="1:14" ht="16" thickBot="1">
       <c r="A39" s="147" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16.5" thickBot="1">
+    <row r="40" spans="1:14" ht="16" thickBot="1">
       <c r="A40" s="147" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16.5" thickBot="1">
+    <row r="41" spans="1:14" ht="16" thickBot="1">
       <c r="A41" s="147" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="16.5" thickBot="1">
+    <row r="42" spans="1:14" ht="16" thickBot="1">
       <c r="A42" s="147" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.5" thickBot="1">
+    <row r="43" spans="1:14" ht="16" thickBot="1">
       <c r="A43" s="147" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16.5" thickBot="1">
+    <row r="44" spans="1:14" ht="16" thickBot="1">
       <c r="A44" s="148" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16.5" thickTop="1"/>
+    <row r="45" spans="1:14" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -22587,19 +23631,19 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.875" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="42" customFormat="1" ht="63">
+    <row r="1" spans="1:20" s="42" customFormat="1" ht="60">
       <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
@@ -22655,7 +23699,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="47.25">
+    <row r="4" spans="1:20" ht="45">
       <c r="A4" t="s">
         <v>714</v>
       </c>
@@ -22765,11 +23809,11 @@
   <sheetViews>
     <sheetView topLeftCell="E5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -23130,7 +24174,7 @@
       <c r="G88" s="56"/>
       <c r="H88" s="56"/>
     </row>
-    <row r="91" spans="2:8" ht="47.25">
+    <row r="91" spans="2:8" ht="45">
       <c r="C91" s="1" t="s">
         <v>334</v>
       </c>

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1187">
   <si>
     <t>Hauling</t>
   </si>
@@ -3878,9 +3878,6 @@
   </si>
   <si>
     <t>MF_ROL</t>
-  </si>
-  <si>
-    <t>range</t>
   </si>
   <si>
     <t>Compost_FracROL</t>
@@ -5881,11 +5878,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2067590152"/>
-        <c:axId val="-2102110488"/>
+        <c:axId val="-2097249096"/>
+        <c:axId val="-2097245960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2067590152"/>
+        <c:axId val="-2097249096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5895,7 +5892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102110488"/>
+        <c:crossAx val="-2097245960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5903,7 +5900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102110488"/>
+        <c:axId val="-2097245960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,7 +5911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067590152"/>
+        <c:crossAx val="-2097249096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6384,11 +6381,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2067658200"/>
-        <c:axId val="-2067587064"/>
+        <c:axId val="-2068045464"/>
+        <c:axId val="-2068042488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2067658200"/>
+        <c:axId val="-2068045464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,7 +6395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067587064"/>
+        <c:crossAx val="-2068042488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6406,7 +6403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067587064"/>
+        <c:axId val="-2068042488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6435,7 +6432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067658200"/>
+        <c:crossAx val="-2068045464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7463,11 +7460,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="-2100212792"/>
-        <c:axId val="-2100081656"/>
+        <c:axId val="-2097504232"/>
+        <c:axId val="-2067864280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100212792"/>
+        <c:axId val="-2097504232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7487,7 +7484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100081656"/>
+        <c:crossAx val="-2067864280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7495,7 +7492,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100081656"/>
+        <c:axId val="-2067864280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7524,7 +7521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100212792"/>
+        <c:crossAx val="-2097504232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13631,8 +13628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13706,13 +13703,13 @@
         <v>1172</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E3" t="s">
-        <v>1177</v>
+        <v>619</v>
       </c>
       <c r="F3">
         <f>N2O!D3</f>
@@ -13735,13 +13732,13 @@
         <v>1173</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D4" t="s">
         <v>1175</v>
       </c>
       <c r="E4" t="s">
-        <v>1177</v>
+        <v>733</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -13761,13 +13758,13 @@
         <v>1174</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>1177</v>
+      <c r="E5" t="s">
+        <v>619</v>
       </c>
       <c r="F5" s="6">
         <f>N2O!D23</f>
@@ -14944,10 +14941,10 @@
         <v>0.12</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1">
@@ -15822,13 +15819,13 @@
         <v>896</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>1095</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>619</v>
@@ -15846,7 +15843,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="15" customFormat="1">
@@ -15870,7 +15867,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="I72" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J72" s="15" t="s">
         <v>1096</v>

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="7920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="14020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1177">
   <si>
     <t>Hauling</t>
   </si>
@@ -2674,9 +2674,6 @@
     <t>IPCC_EF4</t>
   </si>
   <si>
-    <t>LandApplication_FracGasM</t>
-  </si>
-  <si>
     <t>Compost_dieseLlpert</t>
   </si>
   <si>
@@ -2752,9 +2749,6 @@
     <t>a little high compared to Manfredi, 2009 (3.8-10kgCO2e), slightly lower than warm (19.25)? Did not include AR5 factors and of provision of fuel</t>
   </si>
   <si>
-    <t>Moller, 2009</t>
-  </si>
-  <si>
     <t>Percent CH4 emitted</t>
   </si>
   <si>
@@ -2770,9 +2764,6 @@
     <t>deGuardia, 2012</t>
   </si>
   <si>
-    <t>LA N volatilization factor</t>
-  </si>
-  <si>
     <t>Compost_FracGasC</t>
   </si>
   <si>
@@ -2836,9 +2827,6 @@
     <t>kgCO2e/MWh</t>
   </si>
   <si>
-    <t>based upon 20km to field- not used</t>
-  </si>
-  <si>
     <t>C remaining in digestate</t>
   </si>
   <si>
@@ -2857,15 +2845,9 @@
     <t xml:space="preserve">15%-.48% additional degradation to </t>
   </si>
   <si>
-    <t>LA_CS_factor</t>
-  </si>
-  <si>
     <t>Digestate</t>
   </si>
   <si>
-    <t>calculated from Bruun, 2006</t>
-  </si>
-  <si>
     <t>Compost_N_loss</t>
   </si>
   <si>
@@ -2882,9 +2864,6 @@
   </si>
   <si>
     <t>AD_CSfactor</t>
-  </si>
-  <si>
-    <t>LA_xportToField</t>
   </si>
   <si>
     <t>AD_xportTofield</t>
@@ -3009,9 +2988,6 @@
   </si>
   <si>
     <t>LF</t>
-  </si>
-  <si>
-    <t>LA</t>
   </si>
   <si>
     <t>CM</t>
@@ -3352,9 +3328,6 @@
     <t>Ebner et al., 2015</t>
   </si>
   <si>
-    <t>LA transport to field</t>
-  </si>
-  <si>
     <t xml:space="preserve">kgN2O-N/kg N </t>
   </si>
   <si>
@@ -3368,9 +3341,6 @@
   </si>
   <si>
     <t>AD_N_Availability</t>
-  </si>
-  <si>
-    <t>depends on TAN</t>
   </si>
   <si>
     <t>AD N volatilization factor</t>
@@ -5878,11 +5848,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2097249096"/>
-        <c:axId val="-2097245960"/>
+        <c:axId val="-2068932488"/>
+        <c:axId val="-2068929352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2097249096"/>
+        <c:axId val="-2068932488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5892,7 +5862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097245960"/>
+        <c:crossAx val="-2068929352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5900,7 +5870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097245960"/>
+        <c:axId val="-2068929352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5911,7 +5881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097249096"/>
+        <c:crossAx val="-2068932488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6381,11 +6351,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2068045464"/>
-        <c:axId val="-2068042488"/>
+        <c:axId val="-2069801368"/>
+        <c:axId val="-2069798392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2068045464"/>
+        <c:axId val="-2069801368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6395,7 +6365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068042488"/>
+        <c:crossAx val="-2069798392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6403,7 +6373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068042488"/>
+        <c:axId val="-2069798392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6432,7 +6402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068045464"/>
+        <c:crossAx val="-2069801368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7460,11 +7430,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="-2097504232"/>
-        <c:axId val="-2067864280"/>
+        <c:axId val="-2069661080"/>
+        <c:axId val="-2069658264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2097504232"/>
+        <c:axId val="-2069661080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7484,7 +7454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067864280"/>
+        <c:crossAx val="-2069658264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7492,7 +7462,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067864280"/>
+        <c:axId val="-2069658264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7521,7 +7491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097504232"/>
+        <c:crossAx val="-2069661080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8168,7 +8138,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="B7" t="s">
         <v>621</v>
@@ -8315,7 +8285,7 @@
     </row>
     <row r="14" spans="1:20" ht="30">
       <c r="A14" s="1" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>121</v>
@@ -8433,10 +8403,10 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C21" s="15">
         <v>1.7989999999999999</v>
@@ -8466,22 +8436,22 @@
         <v>637</v>
       </c>
       <c r="B25" s="157" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="C25" s="157" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="D25" s="157" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="E25" s="157" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="F25" s="157" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="157" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="H25" s="157" t="s">
         <v>464</v>
@@ -8508,10 +8478,10 @@
         <v>517</v>
       </c>
       <c r="P25" s="163" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="Q25" s="163" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="R25" s="166" t="s">
         <v>735</v>
@@ -8540,7 +8510,7 @@
     </row>
     <row r="27" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A27" s="147" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B27" s="185">
         <v>0.3</v>
@@ -8593,7 +8563,7 @@
         <v>1900</v>
       </c>
       <c r="R27" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="16" hidden="1" thickBot="1">
@@ -8925,7 +8895,7 @@
     </row>
     <row r="39" spans="1:22" ht="16" thickBot="1">
       <c r="A39" s="147" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="B39" s="185">
         <v>0.23899999999999999</v>
@@ -9028,7 +8998,7 @@
         <v>1200</v>
       </c>
       <c r="R41" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="16" thickBot="1">
@@ -9073,12 +9043,12 @@
         <v>370</v>
       </c>
       <c r="R42" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="16" thickBot="1">
       <c r="A43" s="147" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="B43" s="150">
         <v>0.29299999999999998</v>
@@ -9120,7 +9090,7 @@
         <v>2669.8160000000003</v>
       </c>
       <c r="R43" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="16" thickBot="1">
@@ -9165,7 +9135,7 @@
         <v>330</v>
       </c>
       <c r="R44" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="16" thickBot="1">
@@ -9257,12 +9227,12 @@
         <v>977</v>
       </c>
       <c r="R46" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="16" thickBot="1">
       <c r="A47" s="147" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="B47" s="150">
         <v>0.92700000000000005</v>
@@ -9302,12 +9272,12 @@
         <v>740</v>
       </c>
       <c r="R47" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="16" thickBot="1">
       <c r="A48" s="147" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="B48" s="150">
         <v>3.7999999999999999E-2</v>
@@ -9347,12 +9317,12 @@
         <v>300</v>
       </c>
       <c r="R48" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="16" thickBot="1">
       <c r="A49" s="147" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="B49" s="150">
         <v>0.92400000000000004</v>
@@ -9392,12 +9362,12 @@
         <v>1630</v>
       </c>
       <c r="R49" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="16" thickBot="1">
       <c r="A50" s="148" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B50" s="151">
         <v>0.309</v>
@@ -9437,7 +9407,7 @@
         <v>1100</v>
       </c>
       <c r="R50" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="16" thickTop="1"/>
@@ -10401,27 +10371,27 @@
     </row>
     <row r="93" spans="1:17">
       <c r="B93" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F93" t="s">
         <v>1067</v>
       </c>
-      <c r="C93" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F93" t="s">
-        <v>1077</v>
-      </c>
       <c r="G93" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -10445,7 +10415,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="B95">
         <v>40</v>
@@ -10458,22 +10428,22 @@
         <f>C95/2.3</f>
         <v>15.527950310559005</v>
       </c>
-      <c r="E95">
-        <f>GlobalFactors.csv!F54</f>
-        <v>1</v>
-      </c>
-      <c r="F95" s="90">
+      <c r="E95" t="e">
+        <f>GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F95" s="90" t="e">
         <f>D95*E95</f>
-        <v>15.527950310559005</v>
-      </c>
-      <c r="G95" s="328">
+        <v>#REF!</v>
+      </c>
+      <c r="G95" s="328" t="e">
         <f>F95/F94</f>
-        <v>0.29728725380899296</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="B96">
         <v>40</v>
@@ -10486,32 +10456,32 @@
         <f>C96/1.2</f>
         <v>29.761904761904759</v>
       </c>
-      <c r="E96">
-        <f>GlobalFactors.csv!F56</f>
-        <v>1</v>
-      </c>
-      <c r="F96" s="90">
+      <c r="E96" t="e">
+        <f>GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F96" s="90" t="e">
         <f>D96*E96</f>
-        <v>29.761904761904759</v>
-      </c>
-      <c r="G96" s="328">
+        <v>#REF!</v>
+      </c>
+      <c r="G96" s="328" t="e">
         <f>F96/F94</f>
-        <v>0.56980056980056981</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -12366,7 +12336,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -12379,37 +12349,37 @@
         <v>104</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F3" s="58" t="s">
         <v>142</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="J3" s="58" t="s">
         <v>143</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="L3" s="58" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -12456,12 +12426,12 @@
         <v>0.21486988847583641</v>
       </c>
       <c r="M4" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -12503,10 +12473,10 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="N5" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -12553,12 +12523,12 @@
         <v>-0.29205479452054794</v>
       </c>
       <c r="M6" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B7">
         <v>112.5</v>
@@ -12597,15 +12567,15 @@
         <v>4.7684210526315801E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="N7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="B8">
         <v>191</v>
@@ -12647,12 +12617,12 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -12688,7 +12658,7 @@
         <v>0.63924050632911389</v>
       </c>
       <c r="M9" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="58" customFormat="1">
@@ -12698,7 +12668,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B11">
         <v>97</v>
@@ -12729,12 +12699,12 @@
         <v>28.9</v>
       </c>
       <c r="M11" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B12">
         <v>42</v>
@@ -12768,12 +12738,12 @@
         <v>14.700000000000003</v>
       </c>
       <c r="N12" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B13">
         <v>68</v>
@@ -12809,7 +12779,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C14" s="52">
         <f>B14/J14</f>
@@ -12838,21 +12808,21 @@
         <v>138.9</v>
       </c>
       <c r="N14" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="58" customFormat="1">
       <c r="A15" s="58" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1"/>
     <row r="17" spans="1:14" s="6" customFormat="1">
       <c r="A17" s="6" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -12860,33 +12830,33 @@
         <v>755</v>
       </c>
       <c r="N18" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="N19" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" customHeight="1">
       <c r="N20" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N21" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -12896,7 +12866,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
@@ -12905,15 +12875,15 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E25" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="B26">
         <v>2.1000000000000001E-2</v>
@@ -12927,7 +12897,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="B27">
         <v>11.9</v>
@@ -12941,7 +12911,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="B28">
         <v>1.8297000000000001</v>
@@ -12960,13 +12930,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C30" t="s">
         <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -13041,15 +13011,15 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="58" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="58" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -13079,15 +13049,15 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="B1" s="358" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="C1" s="358"/>
       <c r="D1" s="358"/>
       <c r="E1" s="358" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="F1" s="358"/>
       <c r="G1" s="358"/>
@@ -13097,27 +13067,27 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="C2" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="D2" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="E2" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="F2" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="G2" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B3">
         <v>1.2E-2</v>
@@ -13132,7 +13102,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B4">
         <v>1.7000000000000001E-2</v>
@@ -13159,7 +13129,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="B5">
         <v>1.7999999999999999E-2</v>
@@ -13186,7 +13156,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="58" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6" si="1">(C6-B6)/2</f>
@@ -13195,7 +13165,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B7">
         <v>5.0000000000000001E-3</v>
@@ -13210,7 +13180,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B8">
         <v>2.1999999999999999E-2</v>
@@ -13237,7 +13207,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="B9">
         <v>8.9999999999999993E-3</v>
@@ -13264,13 +13234,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="356" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -13286,7 +13256,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B12">
         <v>7.3999999999999996E-2</v>
@@ -13313,7 +13283,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="B13">
         <v>1.6E-2</v>
@@ -13340,12 +13310,12 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="356" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B15">
         <v>0.06</v>
@@ -13360,7 +13330,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B16">
         <v>0.17199999999999999</v>
@@ -13387,7 +13357,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="B17">
         <v>0.127</v>
@@ -13414,12 +13384,12 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="58" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B19">
         <f>B11+B15</f>
@@ -13436,7 +13406,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:D21" si="6">B12+B16</f>
@@ -13465,7 +13435,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="B21">
         <f t="shared" si="6"/>
@@ -13494,12 +13464,12 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="58" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B23">
         <f>B19+B7</f>
@@ -13516,7 +13486,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:D25" si="8">B20+B8</f>
@@ -13544,7 +13514,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="B25">
         <f t="shared" si="8"/>
@@ -13573,12 +13543,12 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -13595,7 +13565,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="E29">
         <v>1.6E-2</v>
@@ -13603,7 +13573,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="E30">
         <v>7.4999999999999997E-2</v>
@@ -13626,10 +13596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A57" sqref="A49:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13659,10 +13629,10 @@
         <v>733</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="I1" s="58" t="s">
         <v>2</v>
@@ -13680,7 +13650,7 @@
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -13688,25 +13658,25 @@
         <v>136</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O2"/>
       <c r="P2" s="58" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="D3" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="E3" t="s">
         <v>619</v>
@@ -13726,16 +13696,16 @@
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="D4" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="E4" t="s">
         <v>733</v>
@@ -13752,16 +13722,16 @@
     </row>
     <row r="5" spans="1:16" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="E5" t="s">
         <v>619</v>
@@ -13779,12 +13749,12 @@
         <v>0.52469999999999994</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B6" t="str">
         <f>Parameters!A7</f>
@@ -13810,27 +13780,27 @@
         <v>0.5</v>
       </c>
       <c r="I6" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="L6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
       </c>
       <c r="N6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="O6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B7" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="C7" t="s">
         <v>621</v>
@@ -13845,10 +13815,10 @@
         <v>2.7204943424399999</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="K7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L7">
         <v>1180.6199999999999</v>
@@ -13867,13 +13837,13 @@
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>768</v>
@@ -13894,10 +13864,10 @@
         <v>918.79198627000005</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L8" s="6">
         <v>1520.2</v>
@@ -13915,16 +13885,16 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B9" t="s">
         <v>745</v>
       </c>
       <c r="C9" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D9" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="E9" t="s">
         <v>619</v>
@@ -13939,13 +13909,13 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="J9" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="K9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L9">
         <v>2014.87</v>
@@ -13963,29 +13933,29 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B10" t="s">
         <v>763</v>
       </c>
       <c r="C10" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F10">
         <v>5.4</v>
       </c>
       <c r="I10" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L10">
         <v>1181.7</v>
@@ -14003,19 +13973,19 @@
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" hidden="1">
       <c r="A11" s="2" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F11" s="330">
         <v>0.03</v>
@@ -14027,21 +13997,21 @@
         <v>0.06</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="6" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>449</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>733</v>
@@ -14056,21 +14026,21 @@
         <v>3.3</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B13" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="E13" t="s">
         <v>619</v>
@@ -14090,7 +14060,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B14" t="s">
         <v>746</v>
@@ -14099,7 +14069,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="E14" t="s">
         <v>619</v>
@@ -14119,13 +14089,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B15" t="s">
         <v>748</v>
       </c>
       <c r="C15" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D15" t="s">
         <v>769</v>
@@ -14151,7 +14121,7 @@
         <v>105</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>666</v>
@@ -14172,7 +14142,7 @@
         <v>0.05</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="58" customFormat="1">
@@ -14192,10 +14162,10 @@
         <v>733</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="H17" s="58" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="I17" s="58" t="s">
         <v>531</v>
@@ -14203,7 +14173,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B18" t="str">
         <f>'Landfill '!A3</f>
@@ -14229,7 +14199,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="J18" t="str">
         <f>'Landfill '!K3</f>
@@ -14238,7 +14208,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B19" t="str">
         <f>'Landfill '!A8</f>
@@ -14249,7 +14219,7 @@
         <v>%</v>
       </c>
       <c r="D19" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="E19" t="s">
         <v>619</v>
@@ -14264,15 +14234,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I19" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="J19" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A20" s="6" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B20" s="6" t="str">
         <f>'Landfill '!A9</f>
@@ -14299,7 +14269,7 @@
         <v>0.9</v>
       </c>
       <c r="I20" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="J20" s="6" t="str">
         <f>'Landfill '!K9</f>
@@ -14308,7 +14278,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B21" t="str">
         <f>'Landfill '!A22</f>
@@ -14334,15 +14304,15 @@
         <v>13648</v>
       </c>
       <c r="I21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="J21" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B22" t="s">
         <v>762</v>
@@ -14366,7 +14336,7 @@
         <v>0.9</v>
       </c>
       <c r="I22" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="J22" t="s">
         <v>764</v>
@@ -14374,7 +14344,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B23" t="s">
         <v>778</v>
@@ -14401,12 +14371,12 @@
         <v>628</v>
       </c>
       <c r="J23" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1">
       <c r="A24" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>82</v>
@@ -14434,18 +14404,18 @@
         <v>773</v>
       </c>
       <c r="J24" s="257" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="6" customFormat="1">
       <c r="A25" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>457</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D25" t="s">
         <v>457</v>
@@ -14466,7 +14436,7 @@
         <v>628</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="58" customFormat="1">
@@ -14486,10 +14456,10 @@
         <v>733</v>
       </c>
       <c r="G26" s="58" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="H26" s="58" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="I26" s="58" t="s">
         <v>531</v>
@@ -14500,13 +14470,13 @@
         <v>105</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>619</v>
@@ -14521,10 +14491,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1">
@@ -14535,7 +14505,7 @@
         <v>668</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>779</v>
@@ -14564,13 +14534,13 @@
         <v>105</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>619</v>
@@ -14585,7 +14555,7 @@
         <v>0.16</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1">
@@ -14601,7 +14571,7 @@
         <v>% methane utilized</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>733</v>
@@ -14611,7 +14581,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="J30" s="6" t="str">
         <f>AD!J25</f>
@@ -14623,13 +14593,13 @@
         <v>105</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>619</v>
@@ -14646,10 +14616,10 @@
         <v>4.41</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="J31" s="322" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1">
@@ -14691,7 +14661,7 @@
         <v>105</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C33" s="6" t="str">
         <f>AD!B36</f>
@@ -14725,13 +14695,13 @@
         <v>105</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>619</v>
@@ -14755,13 +14725,13 @@
         <v>105</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>619</v>
@@ -14779,7 +14749,7 @@
         <v>0.01</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="J35" s="6" t="str">
         <f>AD!I42</f>
@@ -14791,14 +14761,14 @@
         <v>105</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="C36" s="6" t="str">
         <f>AD!B44</f>
         <v>Kg N2O-N/kg N</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>619</v>
@@ -14813,7 +14783,7 @@
         <v>0.45</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="J36" s="6">
         <f>AD!I43</f>
@@ -14825,7 +14795,7 @@
         <v>105</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>666</v>
@@ -14846,7 +14816,7 @@
         <v>0.05</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="5" customFormat="1" hidden="1">
@@ -14854,13 +14824,13 @@
         <v>105</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>733</v>
@@ -14875,15 +14845,15 @@
         <v>30</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="C39" s="6" t="str">
         <f>'Land application'!B13</f>
@@ -14906,10 +14876,10 @@
         <v>0.03</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1">
@@ -14917,13 +14887,13 @@
         <v>105</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>619</v>
@@ -14941,10 +14911,10 @@
         <v>0.12</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1">
@@ -14952,13 +14922,13 @@
         <v>105</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>619</v>
@@ -14976,7 +14946,7 @@
         <v>0.8</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
@@ -14984,13 +14954,13 @@
         <v>105</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>619</v>
@@ -15005,24 +14975,24 @@
         <v>1</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="J42" s="323" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>619</v>
@@ -15037,22 +15007,22 @@
         <v>1</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="J43" s="323"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>733</v>
@@ -15061,22 +15031,22 @@
         <v>1</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="J44" s="323"/>
     </row>
     <row r="45" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>619</v>
@@ -15092,22 +15062,22 @@
         <v>1</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="J45" s="323"/>
     </row>
     <row r="46" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>733</v>
@@ -15116,22 +15086,22 @@
         <v>1</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="J46" s="323"/>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>619</v>
@@ -15147,7 +15117,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="J47" s="323"/>
     </row>
@@ -15159,10 +15129,10 @@
         <v>738</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>619</v>
@@ -15177,768 +15147,522 @@
         <v>0.16</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1">
       <c r="B49" s="58" t="s">
-        <v>36</v>
+        <v>104</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>765</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>791</v>
+        <v>777</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>733</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H49" s="58" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I49" s="58" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B50" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>854</v>
+        <v>1131</v>
+      </c>
+      <c r="C50" t="str">
+        <f>compost!B13</f>
+        <v>L/t</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>784</v>
       </c>
       <c r="E50" t="s">
         <v>619</v>
       </c>
       <c r="F50">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>0.13</v>
       </c>
       <c r="H50">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>810</v>
+        <v>524</v>
       </c>
       <c r="J50" t="s">
-        <v>838</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B51" t="s">
-        <v>816</v>
+        <v>1132</v>
       </c>
       <c r="C51" t="s">
-        <v>1003</v>
+        <v>757</v>
       </c>
       <c r="D51" t="s">
-        <v>784</v>
+        <v>884</v>
       </c>
       <c r="E51" t="s">
         <v>619</v>
       </c>
       <c r="F51">
-        <f>'Land application'!E16</f>
-        <v>0.2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G51">
-        <v>0.05</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H51">
-        <v>0.5</v>
+        <v>65</v>
       </c>
       <c r="I51" t="s">
-        <v>998</v>
+        <v>524</v>
       </c>
       <c r="J51" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="13" customHeight="1">
       <c r="A52" t="s">
-        <v>895</v>
-      </c>
-      <c r="B52" t="str">
-        <f>'Land application'!A20</f>
-        <v>Carbon storage factor</v>
+        <v>888</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1118</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>845</v>
+        <v>1051</v>
+      </c>
+      <c r="D52" t="s">
+        <v>785</v>
       </c>
       <c r="E52" t="s">
         <v>619</v>
       </c>
       <c r="F52">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G52">
+        <v>0.4</v>
+      </c>
+      <c r="H52">
+        <v>0.83</v>
+      </c>
+      <c r="I52" t="s">
+        <v>524</v>
+      </c>
+      <c r="J52" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>888</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D53" t="s">
+        <v>786</v>
+      </c>
+      <c r="E53" t="s">
+        <v>619</v>
+      </c>
+      <c r="F53">
+        <v>0.02</v>
+      </c>
+      <c r="G53">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H53">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>888</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D54" t="s">
+        <v>787</v>
+      </c>
+      <c r="E54" t="s">
+        <v>619</v>
+      </c>
+      <c r="F54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G54">
+        <v>1E-3</v>
+      </c>
+      <c r="H54">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>813</v>
+      </c>
+      <c r="J54" t="str">
+        <f>compost!H20</f>
+        <v xml:space="preserve">Boldrin, 2009 </v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>888</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E55" t="s">
+        <v>733</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.9</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>888</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>759</v>
+      </c>
+      <c r="D56" t="s">
+        <v>842</v>
+      </c>
+      <c r="E56" t="s">
+        <v>619</v>
+      </c>
+      <c r="F56">
+        <v>0.43</v>
+      </c>
+      <c r="G56">
+        <v>0.23</v>
+      </c>
+      <c r="H56">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>888</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>788</v>
+      </c>
+      <c r="E57" t="s">
+        <v>733</v>
+      </c>
+      <c r="F57">
+        <v>0.6</v>
+      </c>
+      <c r="I57" t="s">
+        <v>524</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>888</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E58" t="s">
+        <v>619</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
         <v>0.2</v>
       </c>
-      <c r="G52">
-        <v>0.15</v>
-      </c>
-      <c r="H52">
-        <v>0.48</v>
-      </c>
-      <c r="I52" t="s">
-        <v>810</v>
-      </c>
-      <c r="J52" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="2" customFormat="1" hidden="1">
+      <c r="A59" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6">
-        <v>1</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="J53" s="323"/>
-    </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J54" s="323"/>
-    </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
-      <c r="A55" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="F55" s="329">
-        <f>Parameters!G95</f>
-        <v>0.29728725380899296</v>
-      </c>
-      <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55" s="6">
-        <v>1</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J55" s="323"/>
-    </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
-      <c r="A56" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F56" s="6">
-        <v>1</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J56" s="323"/>
-    </row>
-    <row r="57" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
-      <c r="A57" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="F57" s="329">
-        <f>Parameters!G96</f>
-        <v>0.56980056980056981</v>
-      </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
-        <v>1</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J57" s="323"/>
-    </row>
-    <row r="58" spans="1:10" s="58" customFormat="1">
-      <c r="B58" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="58" t="s">
-        <v>765</v>
-      </c>
-      <c r="E58" s="58" t="s">
-        <v>777</v>
-      </c>
-      <c r="F58" s="58" t="s">
-        <v>733</v>
-      </c>
-      <c r="G58" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H58" s="58" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I58" s="58" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>896</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C59" t="str">
-        <f>compost!B13</f>
-        <v>L/t</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="E59" t="s">
-        <v>619</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59">
-        <v>0.13</v>
-      </c>
-      <c r="H59">
-        <v>6</v>
-      </c>
-      <c r="I59" t="s">
-        <v>524</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1080</v>
+      <c r="F59" s="2">
+        <v>20</v>
+      </c>
+      <c r="G59" s="2">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2">
+        <v>30</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B60" t="s">
-        <v>1142</v>
+        <v>1081</v>
       </c>
       <c r="C60" t="s">
-        <v>757</v>
+        <v>1082</v>
       </c>
       <c r="D60" t="s">
-        <v>891</v>
+        <v>1083</v>
       </c>
       <c r="E60" t="s">
-        <v>619</v>
+        <v>733</v>
       </c>
       <c r="F60">
-        <v>2.3E-2</v>
+        <v>0.2</v>
       </c>
       <c r="G60">
-        <v>2.3E-2</v>
+        <v>0.2</v>
       </c>
       <c r="H60">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="I60" t="s">
         <v>524</v>
       </c>
-      <c r="J60" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="13" customHeight="1">
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B61" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>815</v>
+      </c>
+      <c r="D61" t="s">
+        <v>817</v>
+      </c>
+      <c r="E61" t="s">
+        <v>733</v>
+      </c>
+      <c r="F61">
+        <f>N2O!D4</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G61">
+        <f>N2O!C4+N2O!B4</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H61">
+        <f>N2O!D4+N2O!C4</f>
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="I61" t="s">
         <v>1128</v>
       </c>
-      <c r="C61" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D61" t="s">
-        <v>786</v>
-      </c>
-      <c r="E61" t="s">
+    </row>
+    <row r="62" spans="1:10" s="15" customFormat="1">
+      <c r="A62" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E62" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="F61">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G61">
-        <v>0.4</v>
-      </c>
-      <c r="H61">
-        <v>0.83</v>
-      </c>
-      <c r="I61" t="s">
-        <v>524</v>
-      </c>
-      <c r="J61" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>896</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D62" t="s">
-        <v>787</v>
-      </c>
-      <c r="E62" t="s">
-        <v>619</v>
-      </c>
-      <c r="F62">
-        <v>0.02</v>
-      </c>
-      <c r="G62">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H62">
-        <v>3.5999999999999997E-2</v>
+      <c r="F62" s="15">
+        <f>N2O!D24</f>
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="G62" s="15">
+        <f>N2O!B24</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H62" s="15">
+        <f>N2O!C24</f>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>896</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D63" t="s">
-        <v>788</v>
-      </c>
-      <c r="E63" t="s">
-        <v>619</v>
-      </c>
-      <c r="F63">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G63">
-        <v>1E-3</v>
-      </c>
-      <c r="H63">
-        <v>1.7999999999999999E-2</v>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="15" customFormat="1">
+      <c r="A63" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="F63" s="15">
+        <f>N2O!E29</f>
+        <v>1.6E-2</v>
       </c>
       <c r="I63" t="s">
-        <v>815</v>
-      </c>
-      <c r="J63" t="str">
-        <f>compost!H20</f>
-        <v xml:space="preserve">Boldrin, 2009 </v>
+        <v>1168</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B64" t="s">
-        <v>1143</v>
+        <v>753</v>
       </c>
       <c r="C64" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1088</v>
+        <v>754</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>811</v>
       </c>
       <c r="E64" t="s">
-        <v>733</v>
+        <v>619</v>
       </c>
       <c r="F64">
+        <v>0.1</v>
+      </c>
+      <c r="G64">
+        <v>0.02</v>
+      </c>
+      <c r="H64">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J64" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="58" customFormat="1">
+      <c r="B65" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="58" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>889</v>
+      </c>
+      <c r="B66" t="s">
+        <v>878</v>
+      </c>
+      <c r="C66" t="s">
+        <v>877</v>
+      </c>
+      <c r="D66" t="s">
+        <v>879</v>
+      </c>
+      <c r="E66" t="s">
+        <v>619</v>
+      </c>
+      <c r="F66">
+        <v>0.1</v>
+      </c>
+      <c r="G66">
+        <v>0.05</v>
+      </c>
+      <c r="H66">
         <v>0.5</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0.9</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
-        <v>896</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C65" t="s">
-        <v>759</v>
-      </c>
-      <c r="D65" t="s">
-        <v>848</v>
-      </c>
-      <c r="E65" t="s">
-        <v>619</v>
-      </c>
-      <c r="F65">
-        <v>0.43</v>
-      </c>
-      <c r="G65">
-        <v>0.23</v>
-      </c>
-      <c r="H65">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I65" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>896</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D66" t="s">
-        <v>789</v>
-      </c>
-      <c r="E66" t="s">
-        <v>733</v>
-      </c>
-      <c r="F66">
-        <v>0.6</v>
-      </c>
       <c r="I66" t="s">
-        <v>524</v>
-      </c>
-      <c r="J66" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>896</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E67" t="s">
-        <v>619</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>0.2</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="2" customFormat="1" hidden="1">
-      <c r="A68" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F68" s="2">
-        <v>20</v>
-      </c>
-      <c r="G68" s="2">
-        <v>10</v>
-      </c>
-      <c r="H68" s="2">
-        <v>30</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>896</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E69" t="s">
-        <v>733</v>
-      </c>
-      <c r="F69">
-        <v>0.2</v>
-      </c>
-      <c r="G69">
-        <v>0.2</v>
-      </c>
-      <c r="H69">
-        <v>0.4</v>
-      </c>
-      <c r="I69" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>896</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C70" t="s">
-        <v>818</v>
-      </c>
-      <c r="D70" t="s">
-        <v>820</v>
-      </c>
-      <c r="E70" t="s">
-        <v>733</v>
-      </c>
-      <c r="F70">
-        <f>N2O!D4</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G70">
-        <f>N2O!C4+N2O!B4</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H70">
-        <f>N2O!D4+N2O!C4</f>
-        <v>8.4999999999999992E-2</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="15" customFormat="1">
-      <c r="A71" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="F71" s="15">
-        <f>N2O!D24</f>
-        <v>0.67649999999999999</v>
-      </c>
-      <c r="G71" s="15">
-        <f>N2O!B24</f>
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="H71" s="15">
-        <f>N2O!C24</f>
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="15" customFormat="1">
-      <c r="A72" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>817</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="F72" s="15">
-        <f>N2O!E29</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="I72" t="s">
-        <v>1178</v>
-      </c>
-      <c r="J72" s="15" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" t="s">
-        <v>896</v>
-      </c>
-      <c r="B73" t="s">
-        <v>753</v>
-      </c>
-      <c r="C73" t="s">
-        <v>754</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>813</v>
-      </c>
-      <c r="E73" t="s">
-        <v>619</v>
-      </c>
-      <c r="F73">
-        <v>0.1</v>
-      </c>
-      <c r="G73">
-        <v>0.02</v>
-      </c>
-      <c r="H73">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I73" t="s">
-        <v>1154</v>
-      </c>
-      <c r="J73" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="58" customFormat="1">
-      <c r="B74" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="58" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="s">
-        <v>897</v>
-      </c>
-      <c r="B75" t="s">
-        <v>885</v>
-      </c>
-      <c r="C75" t="s">
-        <v>884</v>
-      </c>
-      <c r="D75" t="s">
-        <v>886</v>
-      </c>
-      <c r="E75" t="s">
-        <v>619</v>
-      </c>
-      <c r="F75">
-        <v>0.1</v>
-      </c>
-      <c r="G75">
-        <v>0.05</v>
-      </c>
-      <c r="H75">
-        <v>0.5</v>
-      </c>
-      <c r="I75" t="s">
         <v>643</v>
       </c>
     </row>
@@ -16032,7 +15756,7 @@
       <c r="D2" s="205"/>
       <c r="G2" s="53"/>
       <c r="K2" s="256" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="46" customFormat="1">
@@ -16057,7 +15781,7 @@
         <v>468</v>
       </c>
       <c r="I3" s="320" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="J3" s="255" t="s">
         <v>734</v>
@@ -16255,7 +15979,7 @@
         <v>116</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -16455,10 +16179,10 @@
         <v>145.73955722402675</v>
       </c>
       <c r="J25" s="115" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K25" s="115" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="115" customFormat="1">
@@ -16475,22 +16199,22 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="J26" s="115" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K26" s="115" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="41" customFormat="1">
       <c r="A27" s="41" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C27" s="204"/>
       <c r="D27" s="204"/>
       <c r="E27" s="265"/>
       <c r="F27" s="266"/>
       <c r="J27" s="41" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K27" s="41" t="s">
         <v>616</v>
@@ -16513,7 +16237,7 @@
       <c r="H28" s="263"/>
       <c r="I28" s="263"/>
       <c r="K28" s="115" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -16521,7 +16245,7 @@
         <v>738</v>
       </c>
       <c r="B29" s="257" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G29" s="191">
         <v>1</v>
@@ -16533,7 +16257,7 @@
       <c r="I29" s="294"/>
       <c r="J29" s="28"/>
       <c r="K29" s="257" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -16613,7 +16337,7 @@
         <v>93</v>
       </c>
       <c r="D36" s="295" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="E36" s="110" t="s">
         <v>443</v>
@@ -19468,7 +19192,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="296" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="B88" s="110"/>
       <c r="Z88" s="35" t="e">
@@ -20093,10 +19817,10 @@
     </row>
     <row r="10" spans="1:20" s="44" customFormat="1">
       <c r="A10" s="44" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C10" s="271">
         <f>D13*(GlobalFactors.csv!F7+GlobalFactors.csv!F6)</f>
@@ -20105,7 +19829,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B11" t="s">
         <v>757</v>
@@ -20116,21 +19840,21 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B12" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E12">
         <v>0.25</v>
       </c>
       <c r="J12" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="B13" t="s">
         <v>449</v>
@@ -20140,7 +19864,7 @@
         <v>2.65</v>
       </c>
       <c r="J13" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1">
@@ -20170,10 +19894,10 @@
     </row>
     <row r="16" spans="1:20" s="15" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="E16" s="298">
         <f>GlobalFactors.csv!F27</f>
@@ -20181,15 +19905,15 @@
       </c>
       <c r="F16" s="291"/>
       <c r="I16" s="14" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>21</v>
@@ -20199,7 +19923,7 @@
         <v>81.188999999999993</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="I17" s="14"/>
     </row>
@@ -20228,7 +19952,7 @@
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>133</v>
@@ -20243,13 +19967,13 @@
       </c>
       <c r="F19" s="291"/>
       <c r="H19" s="15" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>578</v>
@@ -20265,7 +19989,7 @@
     </row>
     <row r="21" spans="1:12" s="15" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>21</v>
@@ -20280,16 +20004,16 @@
       </c>
       <c r="F21" s="291"/>
       <c r="H21" s="15" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="15" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="15" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>578</v>
@@ -20302,12 +20026,12 @@
       <c r="G22" s="298"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>133</v>
@@ -20319,13 +20043,13 @@
       <c r="F23" s="291"/>
       <c r="G23" s="298"/>
       <c r="H23" s="15" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>28</v>
@@ -20379,7 +20103,7 @@
         <v>386</v>
       </c>
       <c r="B27" s="287" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="D27" s="290"/>
       <c r="E27" s="290">
@@ -20391,10 +20115,10 @@
         <v>16</v>
       </c>
       <c r="I27" s="283" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J27" s="283" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -20417,13 +20141,13 @@
         <v>2.3543133333333337</v>
       </c>
       <c r="J28" s="85" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="K28">
         <v>35.314700000000002</v>
       </c>
       <c r="L28" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -20712,25 +20436,25 @@
     </row>
     <row r="48" spans="1:10" s="6" customFormat="1">
       <c r="A48" s="45" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G48" s="259">
         <f>GlobalFactors.csv!F11</f>
         <v>0.03</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="6" customFormat="1">
       <c r="A49" s="45" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>12</v>
@@ -20743,10 +20467,10 @@
     </row>
     <row r="50" spans="1:11" s="6" customFormat="1">
       <c r="A50" s="45" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D50" s="6">
         <f>E49*G48</f>
@@ -20835,7 +20559,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="B55" t="s">
         <v>666</v>
@@ -20850,7 +20574,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
@@ -20862,10 +20586,10 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="B57" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="D57" s="18">
         <f>D52*E57</f>
@@ -20878,10 +20602,10 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="B58" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="D58" s="9">
         <f>E44*D57*Parameters!C16*Parameters!C5/1000</f>
@@ -20953,7 +20677,7 @@
     </row>
     <row r="63" spans="1:11" s="46" customFormat="1" hidden="1">
       <c r="A63" s="115" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="B63" s="222" t="s">
         <v>683</v>
@@ -20968,13 +20692,13 @@
         <v>0.15900000000000003</v>
       </c>
       <c r="J63" s="255" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="K63" s="187"/>
     </row>
     <row r="64" spans="1:11" s="46" customFormat="1">
       <c r="A64" s="115" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="B64" s="222"/>
       <c r="C64" s="293"/>
@@ -20988,10 +20712,10 @@
     </row>
     <row r="65" spans="1:11" s="46" customFormat="1">
       <c r="A65" s="115" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="B65" s="255" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="C65" s="293"/>
       <c r="D65" s="269">
@@ -21004,10 +20728,10 @@
     </row>
     <row r="66" spans="1:11" s="46" customFormat="1">
       <c r="A66" s="115" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B66" s="255" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="C66" s="293"/>
       <c r="D66" s="269">
@@ -21020,10 +20744,10 @@
     </row>
     <row r="67" spans="1:11" s="46" customFormat="1">
       <c r="A67" s="115" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B67" s="255" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="C67" s="293"/>
       <c r="D67" s="269">
@@ -21036,10 +20760,10 @@
     </row>
     <row r="68" spans="1:11" s="302" customFormat="1">
       <c r="A68" s="301" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="B68" s="302" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D68" s="303">
         <f>D66*Parameters!C19*F68</f>
@@ -21050,15 +20774,15 @@
         <v>0.75</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="15" customFormat="1">
       <c r="A69" s="301" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="D69" s="234">
         <f>D67*Parameters!C21*AD!F69</f>
@@ -21069,15 +20793,15 @@
         <v>0.27272727272727276</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1">
       <c r="A70" s="301" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="D70" s="234">
         <f>D39/Parameters!C18</f>
@@ -21086,10 +20810,10 @@
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1">
       <c r="A71" s="301" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="D71" s="299">
         <f>D26*Parameters!C19*F68</f>
@@ -21099,10 +20823,10 @@
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1">
       <c r="A72" s="301" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D72" s="299">
         <f>F61-D68-D69-D70-D71</f>
@@ -21112,10 +20836,10 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="115" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D73" s="85">
         <f>D72*F73</f>
@@ -21127,15 +20851,15 @@
       </c>
       <c r="G73" s="52"/>
       <c r="I73" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J73" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="15" customFormat="1">
       <c r="A74" s="301" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>28</v>
@@ -21232,23 +20956,23 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D81" s="18">
-        <f>D78/GlobalFactors.csv!F57</f>
-        <v>3.1686244858124999</v>
-      </c>
-      <c r="G81" s="327">
-        <f>GlobalFactors.csv!F57</f>
-        <v>0.56980056980056981</v>
+        <v>1063</v>
+      </c>
+      <c r="D81" s="18" t="e">
+        <f>D78/GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G81" s="327" t="e">
+        <f>GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B82" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="D82" s="326">
         <f>Parameters!Q27*GlobalFactors.csv!F13/1000</f>
@@ -21261,16 +20985,16 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="D83" s="326"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="B84" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="D84" s="326">
         <f>Parameters!P27*GlobalFactors.csv!F14/1000</f>
@@ -21491,17 +21215,17 @@
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="270">
+      <c r="C7" s="270" t="e">
         <f>C10+C12</f>
-        <v>35.716296605464002</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1">
       <c r="A8" s="45" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C8" s="223"/>
       <c r="E8" s="226">
@@ -21511,15 +21235,15 @@
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1">
       <c r="A9" s="45" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="223"/>
-      <c r="E9" s="5">
-        <f>GlobalFactors.csv!F50</f>
-        <v>20</v>
+      <c r="E9" s="5" t="e">
+        <f>GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -21529,9 +21253,9 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="9" t="e">
         <f>E9*E8*(GlobalFactors.csv!F6+GlobalFactors.csv!F7)</f>
-        <v>1.902296605464</v>
+        <v>#REF!</v>
       </c>
       <c r="G10" s="231" t="s">
         <v>693</v>
@@ -21714,7 +21438,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="115" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C23" s="225">
         <f>-D23*Parameters!C17</f>
@@ -21728,7 +21452,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="10">
-        <f>GlobalFactors.csv!F73</f>
+        <f>GlobalFactors.csv!F64</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="52">
@@ -21736,22 +21460,22 @@
         <v>1.5900000000000004E-2</v>
       </c>
       <c r="H23" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="I23" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J23" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="43" customFormat="1">
       <c r="A24" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="181">
+      <c r="C24" s="181" t="e">
         <f>C23+C7</f>
-        <v>27.219680419303238</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="44" customFormat="1">
@@ -21896,9 +21620,9 @@
       <c r="A33" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="C33" s="94">
+      <c r="C33" s="94" t="e">
         <f>C24+C25</f>
-        <v>-255.93255958069676</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -22116,11 +21840,11 @@
         <v>524</v>
       </c>
       <c r="I13" s="45">
-        <f>GlobalFactors.csv!G59</f>
+        <f>GlobalFactors.csv!G50</f>
         <v>0.13</v>
       </c>
       <c r="J13" s="188" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="45" customFormat="1">
@@ -22147,7 +21871,7 @@
     </row>
     <row r="15" spans="1:20" s="45" customFormat="1">
       <c r="A15" s="45" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>28</v>
@@ -22157,17 +21881,17 @@
         <v>1.5919500781486559E-2</v>
       </c>
       <c r="E15" s="45">
-        <f>GlobalFactors.csv!F60</f>
+        <f>GlobalFactors.csv!F51</f>
         <v>2.3E-2</v>
       </c>
       <c r="F15" s="338"/>
       <c r="H15" s="45" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="13" customFormat="1">
       <c r="A16" s="13" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="C16" s="39">
         <f>C22+C26+C30</f>
@@ -22206,7 +21930,7 @@
         <v>84.528943189935518</v>
       </c>
       <c r="E18" s="4">
-        <f>GlobalFactors.csv!F61</f>
+        <f>GlobalFactors.csv!F52</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="F18" s="341"/>
@@ -22214,16 +21938,16 @@
         <v>524</v>
       </c>
       <c r="I18">
-        <f>GlobalFactors.csv!G61</f>
+        <f>GlobalFactors.csv!G52</f>
         <v>0.4</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="15" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>751</v>
@@ -22231,7 +21955,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="175"/>
       <c r="E19" s="4">
-        <f>GlobalFactors.csv!F62</f>
+        <f>GlobalFactors.csv!F53</f>
         <v>0.02</v>
       </c>
       <c r="F19" s="341"/>
@@ -22255,7 +21979,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="5" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -22275,7 +21999,7 @@
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1">
       <c r="A22" s="14" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>28</v>
@@ -22296,7 +22020,7 @@
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="D23" s="174"/>
       <c r="F23" s="340">
@@ -22309,14 +22033,14 @@
         <v>758</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="D24" s="336">
         <f>F23*E24</f>
         <v>3.827</v>
       </c>
       <c r="E24">
-        <f>GlobalFactors.csv!F65</f>
+        <f>GlobalFactors.csv!F56</f>
         <v>0.43</v>
       </c>
       <c r="F24" s="340">
@@ -22326,17 +22050,17 @@
     </row>
     <row r="25" spans="1:10" s="15" customFormat="1">
       <c r="A25" s="14" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="D25" s="299">
         <f>F23*E25</f>
         <v>4.4500000000000005E-2</v>
       </c>
       <c r="E25" s="331">
-        <f>GlobalFactors.csv!F63</f>
+        <f>GlobalFactors.csv!F54</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F25" s="342"/>
@@ -22344,7 +22068,7 @@
         <v>524</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>580</v>
@@ -22352,7 +22076,7 @@
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>581</v>
@@ -22370,7 +22094,7 @@
     </row>
     <row r="27" spans="1:10" s="15" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="C27" s="299"/>
       <c r="D27" s="332">
@@ -22382,30 +22106,30 @@
     </row>
     <row r="28" spans="1:10" s="15" customFormat="1">
       <c r="A28" s="14" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="D28" s="333">
         <f>D27*E28</f>
         <v>1.8912499999999999</v>
       </c>
       <c r="E28" s="15">
-        <f>GlobalFactors.csv!F64</f>
+        <f>GlobalFactors.csv!F55</f>
         <v>0.5</v>
       </c>
       <c r="F28" s="342"/>
       <c r="H28" s="15" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="14" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="D29" s="334">
         <f>D28*GlobalFactors.csv!F37</f>
@@ -22438,12 +22162,12 @@
     </row>
     <row r="32" spans="1:10" s="44" customFormat="1">
       <c r="A32" s="170" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="B32" s="170"/>
-      <c r="C32" s="182">
+      <c r="C32" s="182" t="e">
         <f>C39+C40+C41</f>
-        <v>15.567210000000001</v>
+        <v>#REF!</v>
       </c>
       <c r="D32" s="171"/>
       <c r="E32" s="169"/>
@@ -22452,10 +22176,10 @@
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A33" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F33" s="344"/>
       <c r="G33" s="335">
@@ -22463,10 +22187,10 @@
         <v>0.03</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>616</v>
@@ -22474,13 +22198,13 @@
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A34" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="224">
-        <f>GlobalFactors.csv!F68</f>
+        <f>GlobalFactors.csv!F59</f>
         <v>20</v>
       </c>
       <c r="F34" s="344"/>
@@ -22491,10 +22215,10 @@
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A35" s="5" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D35" s="5">
         <f>E34*G33</f>
@@ -22508,19 +22232,19 @@
     </row>
     <row r="36" spans="1:10" s="45" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="5"/>
       <c r="E36" s="338">
-        <f>GlobalFactors.csv!F69</f>
+        <f>GlobalFactors.csv!F60</f>
         <v>0.2</v>
       </c>
       <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:10" s="45" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="5"/>
@@ -22573,7 +22297,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B40" t="s">
         <v>600</v>
@@ -22582,9 +22306,9 @@
         <f>F40*G40</f>
         <v>3.42</v>
       </c>
-      <c r="E40">
-        <f>GlobalFactors.csv!F56</f>
-        <v>1</v>
+      <c r="E40" t="e">
+        <f>GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F40" s="346">
         <f>Parameters!Q27/1000</f>
@@ -22600,18 +22324,18 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="14" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="B41" t="s">
         <v>600</v>
       </c>
-      <c r="C41" s="174">
+      <c r="C41" s="174" t="e">
         <f>F41*E41*G41</f>
-        <v>3.1679999999999997</v>
-      </c>
-      <c r="E41">
-        <f>GlobalFactors.csv!F54</f>
-        <v>1</v>
+        <v>#REF!</v>
+      </c>
+      <c r="E41" t="e">
+        <f>GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F41" s="346">
         <f>Parameters!P27/1000</f>
@@ -22624,17 +22348,17 @@
     </row>
     <row r="42" spans="1:10" s="348" customFormat="1">
       <c r="A42" s="347" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C42" s="349">
+        <v>1111</v>
+      </c>
+      <c r="C42" s="349" t="e">
         <f>C32+C16+C12</f>
-        <v>114.61633356230098</v>
+        <v>#REF!</v>
       </c>
       <c r="F42" s="350"/>
     </row>
     <row r="43" spans="1:10" s="195" customFormat="1">
       <c r="A43" s="170" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="C43" s="181" t="e">
         <f>C46+C47+C48+C49</f>
@@ -22669,7 +22393,7 @@
         <v>22</v>
       </c>
       <c r="E45" s="4">
-        <f>GlobalFactors.csv!F70</f>
+        <f>GlobalFactors.csv!F61</f>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H45" t="s">
@@ -22697,10 +22421,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="14" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="B47" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="C47" s="267" t="e">
         <f>D47*GlobalFactors.csv!F37*Parameters!C5*Parameters!C16</f>
@@ -22717,10 +22441,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="B48" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="C48" s="85">
         <f>D48*Parameters!C16*Parameters!C5*GlobalFactors.csv!F37</f>
@@ -22731,16 +22455,16 @@
         <v>8.1168000000000004E-2</v>
       </c>
       <c r="E48">
-        <f>GlobalFactors.csv!F72</f>
+        <f>GlobalFactors.csv!F63</f>
         <v>1.6E-2</v>
       </c>
       <c r="J48" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="14" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="C49" s="85" t="e">
         <f>C47+C48</f>
@@ -22773,57 +22497,57 @@
         <v>400</v>
       </c>
       <c r="E51" s="4">
-        <f>GlobalFactors.csv!F66</f>
+        <f>GlobalFactors.csv!F57</f>
         <v>0.6</v>
       </c>
       <c r="H51" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="I51" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A52" s="45" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G52" s="259">
         <f>GlobalFactors.csv!F11</f>
         <v>0.03</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A53" s="45" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="224">
-        <f>GlobalFactors.csv!F68</f>
+        <f>GlobalFactors.csv!F59</f>
         <v>20</v>
       </c>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A54" s="45" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D54" s="6">
         <f>E53*G52</f>
@@ -22852,20 +22576,20 @@
     </row>
     <row r="56" spans="1:11" s="45" customFormat="1">
       <c r="A56" s="14" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="5"/>
       <c r="E56" s="178"/>
       <c r="F56" s="45">
-        <f>GlobalFactors.csv!F69</f>
+        <f>GlobalFactors.csv!F60</f>
         <v>0.2</v>
       </c>
       <c r="J56" s="179"/>
     </row>
     <row r="57" spans="1:11" s="45" customFormat="1">
       <c r="A57" s="14" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="5"/>
@@ -22937,7 +22661,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B61" t="s">
         <v>600</v>
@@ -22965,9 +22689,9 @@
       <c r="B62" t="s">
         <v>600</v>
       </c>
-      <c r="C62" s="174">
+      <c r="C62" s="174" t="e">
         <f>C41</f>
-        <v>3.1679999999999997</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="13" customFormat="1">
@@ -23030,7 +22754,7 @@
       <c r="E66" s="107"/>
       <c r="F66" s="107"/>
       <c r="J66" s="6" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="K66" s="107"/>
     </row>
@@ -23039,7 +22763,7 @@
         <v>607</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C67" s="85"/>
       <c r="D67" s="109">
@@ -23048,7 +22772,7 @@
       </c>
       <c r="E67" s="107"/>
       <c r="F67" s="261">
-        <f>GlobalFactors.csv!F73</f>
+        <f>GlobalFactors.csv!F64</f>
         <v>0.1</v>
       </c>
       <c r="K67" s="107"/>
@@ -23067,12 +22791,12 @@
       <c r="D68" s="85"/>
       <c r="I68" s="167"/>
       <c r="J68" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="44" customFormat="1">
       <c r="A69" s="170" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="C69" s="181" t="e">
         <f>C63+C50+C43</f>
@@ -23081,7 +22805,7 @@
     </row>
     <row r="70" spans="1:11" s="348" customFormat="1">
       <c r="A70" s="347" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="C70" s="351" t="e">
         <f>C69+C12+C16</f>
@@ -23144,7 +22868,7 @@
     </row>
     <row r="75" spans="1:11" s="348" customFormat="1">
       <c r="A75" s="348" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="C75" s="351">
         <f>C71+C16+C12</f>
@@ -23156,11 +22880,11 @@
     </row>
     <row r="77" spans="1:11" s="58" customFormat="1">
       <c r="A77" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C77" s="355">
+        <v>1115</v>
+      </c>
+      <c r="C77" s="355" t="e">
         <f>0.21*C75+0.18*C42+0.61*C31</f>
-        <v>183.33122136230097</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -23263,10 +22987,10 @@
     </row>
     <row r="5" spans="1:10" s="44" customFormat="1">
       <c r="A5" s="44" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C5" s="271" t="e">
         <f>D8*(GlobalFactors.csv!#REF!+GlobalFactors.csv!#REF!)</f>
@@ -23275,7 +22999,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B6" t="s">
         <v>757</v>
@@ -23286,21 +23010,21 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B7" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E7">
         <v>0.25</v>
       </c>
       <c r="J7" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="B8" t="s">
         <v>449</v>
@@ -23310,7 +23034,7 @@
         <v>2.65</v>
       </c>
       <c r="J8" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="44" customFormat="1">
@@ -23324,7 +23048,7 @@
     </row>
     <row r="10" spans="1:10" s="44" customFormat="1">
       <c r="A10" s="44" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C10" s="83"/>
     </row>
@@ -23342,19 +23066,19 @@
     </row>
     <row r="13" spans="1:10" s="44" customFormat="1">
       <c r="A13" s="44" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="C13" s="83"/>
     </row>
     <row r="14" spans="1:10" s="87" customFormat="1">
       <c r="A14" s="45" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B14" s="87" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="281">
-        <f>GlobalFactors.csv!F75</f>
+        <f>GlobalFactors.csv!F66</f>
         <v>0.1</v>
       </c>
     </row>
@@ -23363,7 +23087,7 @@
         <v>379</v>
       </c>
       <c r="B15" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C15" s="81"/>
       <c r="E15" s="105">

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="320" windowWidth="26060" windowHeight="14700" tabRatio="500" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="980">
   <si>
     <t>Hauling</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>Separation/Pretreatment</t>
-  </si>
-  <si>
-    <t>FOD model</t>
   </si>
   <si>
     <t>Intermediate results</t>
@@ -2218,12 +2215,6 @@
     <t>kg corn/kg fw</t>
   </si>
   <si>
-    <t>% loss</t>
-  </si>
-  <si>
-    <t>AF shrinkage</t>
-  </si>
-  <si>
     <t>AF_loss</t>
   </si>
   <si>
@@ -2950,12 +2941,6 @@
     <t>Net blended</t>
   </si>
   <si>
-    <t>kg compost/kg compost</t>
-  </si>
-  <si>
-    <t>Peat_displacement</t>
-  </si>
-  <si>
     <t>Carbon degradation</t>
   </si>
   <si>
@@ -3007,9 +2992,6 @@
     <t>Composting N loss</t>
   </si>
   <si>
-    <t>Peat displacment factor</t>
-  </si>
-  <si>
     <t>Compost land application direct N2O emission factor</t>
   </si>
   <si>
@@ -3106,9 +3088,6 @@
     <t>Compost_FracROL</t>
   </si>
   <si>
-    <t>Yoshida et al., 2017</t>
-  </si>
-  <si>
     <t>Compost runoff/leaching</t>
   </si>
   <si>
@@ -3251,6 +3230,39 @@
   </si>
   <si>
     <t>initial C</t>
+  </si>
+  <si>
+    <t>Yoshida et al., 2017, Bruun et al., 2005</t>
+  </si>
+  <si>
+    <t>Shrinkage factor</t>
+  </si>
+  <si>
+    <t>kgCo2e/kg Corn</t>
+  </si>
+  <si>
+    <t>Corn feed emission factor</t>
+  </si>
+  <si>
+    <t>Weideman et al., 2003</t>
+  </si>
+  <si>
+    <t>Peat substitution factor</t>
+  </si>
+  <si>
+    <t>kg compost/kg peat</t>
+  </si>
+  <si>
+    <t>Compost displacement</t>
+  </si>
+  <si>
+    <t>% displaced peat</t>
+  </si>
+  <si>
+    <t>Compost_Peat_Displacement</t>
+  </si>
+  <si>
+    <t>Peat_substitution</t>
   </si>
 </sst>
 </file>
@@ -4058,7 +4070,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="322">
+  <cellStyleXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4333,6 +4345,12 @@
     <xf numFmtId="0" fontId="53" fillId="34" borderId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4946,7 +4964,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="322">
+  <cellStyles count="328">
     <cellStyle name="20% - Accent1 2" xfId="234"/>
     <cellStyle name="20% - Accent2 2" xfId="235"/>
     <cellStyle name="20% - Accent3 2" xfId="236"/>
@@ -5107,6 +5125,9 @@
     <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
@@ -5250,6 +5271,9 @@
     <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
     <cellStyle name="Label" xfId="248"/>
     <cellStyle name="Label 2" xfId="249"/>
     <cellStyle name="Neutral 2" xfId="5"/>
@@ -5578,11 +5602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2119010632"/>
-        <c:axId val="2101633496"/>
+        <c:axId val="-2076057048"/>
+        <c:axId val="-2076053912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2119010632"/>
+        <c:axId val="-2076057048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5592,7 +5616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101633496"/>
+        <c:crossAx val="-2076053912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5600,7 +5624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101633496"/>
+        <c:axId val="-2076053912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5611,7 +5635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119010632"/>
+        <c:crossAx val="-2076057048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6081,11 +6105,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2118685768"/>
-        <c:axId val="2102185560"/>
+        <c:axId val="-2049727992"/>
+        <c:axId val="-2049008712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2118685768"/>
+        <c:axId val="-2049727992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6095,7 +6119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102185560"/>
+        <c:crossAx val="-2049008712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6103,7 +6127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102185560"/>
+        <c:axId val="-2049008712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6126,14 +6150,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118685768"/>
+        <c:crossAx val="-2049727992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7161,11 +7184,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="-2118274696"/>
-        <c:axId val="-2118504856"/>
+        <c:axId val="-2075943528"/>
+        <c:axId val="-2075940712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2118274696"/>
+        <c:axId val="-2075943528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7185,7 +7208,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118504856"/>
+        <c:crossAx val="-2075940712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7193,7 +7216,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118504856"/>
+        <c:axId val="-2075940712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7222,7 +7245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118274696"/>
+        <c:crossAx val="-2075943528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7763,16 +7786,16 @@
   <sheetData>
     <row r="1" spans="1:22" s="43" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="183" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>2</v>
@@ -7783,47 +7806,47 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C2" s="180">
         <f>J56</f>
         <v>0.44445499769952745</v>
       </c>
       <c r="F2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" t="s">
         <v>413</v>
-      </c>
-      <c r="B3" t="s">
-        <v>414</v>
       </c>
       <c r="C3" s="180">
         <f>J55</f>
         <v>0.53090857076072773</v>
       </c>
       <c r="F3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C4" s="180">
         <f>J57</f>
         <v>0.77143668844394409</v>
       </c>
       <c r="F4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -7831,14 +7854,14 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="181">
         <v>265</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -7860,7 +7883,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -7872,37 +7895,37 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="178">
         <v>0.45</v>
       </c>
       <c r="D7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="46" customFormat="1">
       <c r="A8" s="110" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C8" s="182" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F8" s="114">
         <f>34003/1000000</f>
         <v>3.4002999999999999E-2</v>
       </c>
       <c r="G8" s="99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H8" s="99"/>
       <c r="I8" s="99"/>
@@ -7910,7 +7933,7 @@
     </row>
     <row r="9" spans="1:22" s="46" customFormat="1">
       <c r="A9" s="110" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B9" s="99"/>
       <c r="C9" s="182"/>
@@ -7922,10 +7945,10 @@
     </row>
     <row r="10" spans="1:22" s="99" customFormat="1" ht="14">
       <c r="A10" s="99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C10" s="182"/>
       <c r="D10" s="115">
@@ -7936,22 +7959,22 @@
         <v>79354</v>
       </c>
       <c r="G10" s="105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H10" s="105"/>
       <c r="I10" s="105"/>
       <c r="J10" s="105"/>
       <c r="K10" s="99" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L10" s="231"/>
     </row>
     <row r="11" spans="1:22" s="99" customFormat="1" ht="14">
       <c r="A11" s="99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C11" s="182"/>
       <c r="D11" s="115">
@@ -7962,22 +7985,22 @@
         <v>2</v>
       </c>
       <c r="G11" s="105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H11" s="105"/>
       <c r="I11" s="105"/>
       <c r="J11" s="105"/>
       <c r="K11" s="99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L11" s="231"/>
     </row>
     <row r="12" spans="1:22" s="26" customFormat="1" ht="14">
       <c r="A12" s="105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C12" s="179"/>
       <c r="D12" s="116">
@@ -7988,13 +8011,13 @@
         <v>4.41</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H12" s="105"/>
       <c r="I12" s="105"/>
       <c r="J12" s="105"/>
       <c r="K12" s="99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L12" s="231"/>
       <c r="P12" s="105"/>
@@ -8002,17 +8025,17 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" t="s">
         <v>393</v>
-      </c>
-      <c r="B13" t="s">
-        <v>394</v>
       </c>
       <c r="C13" s="235">
         <f>SUM(D10:D12)</f>
         <v>2.7204943424399999</v>
       </c>
       <c r="E13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -8022,25 +8045,25 @@
     </row>
     <row r="14" spans="1:22" ht="30">
       <c r="A14" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="278">
         <f>GlobalFactors.csv!F5</f>
         <v>692.15220789071998</v>
       </c>
       <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="181"/>
@@ -8048,10 +8071,10 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="10">
         <f>44/28</f>
@@ -8069,10 +8092,10 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="10">
         <f>44/12</f>
@@ -8090,10 +8113,10 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="10">
         <f>16/12</f>
@@ -8111,7 +8134,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -8131,10 +8154,10 @@
     </row>
     <row r="20" spans="1:21" s="44" customFormat="1">
       <c r="A20" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="45" t="s">
         <v>127</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>128</v>
       </c>
       <c r="C20" s="179">
         <v>35315</v>
@@ -8145,10 +8168,10 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C21" s="15">
         <v>1.7989999999999999</v>
@@ -8162,67 +8185,67 @@
     <row r="23" spans="1:21">
       <c r="A23" s="1"/>
       <c r="T23" s="65" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="43" customFormat="1">
       <c r="A24" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="37" thickBot="1">
       <c r="A25" s="145" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B25" s="145" t="s">
+        <v>862</v>
+      </c>
+      <c r="C25" s="145" t="s">
+        <v>863</v>
+      </c>
+      <c r="D25" s="145" t="s">
+        <v>864</v>
+      </c>
+      <c r="E25" s="145" t="s">
         <v>865</v>
       </c>
-      <c r="C25" s="145" t="s">
-        <v>866</v>
-      </c>
-      <c r="D25" s="145" t="s">
-        <v>867</v>
-      </c>
-      <c r="E25" s="145" t="s">
-        <v>868</v>
-      </c>
       <c r="F25" s="145" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G25" s="145" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="145" t="s">
         <v>289</v>
       </c>
-      <c r="H25" s="145" t="s">
+      <c r="I25" s="145" t="s">
         <v>290</v>
       </c>
-      <c r="I25" s="145" t="s">
+      <c r="J25" s="148" t="s">
         <v>291</v>
       </c>
-      <c r="J25" s="148" t="s">
+      <c r="K25" s="151" t="s">
+        <v>968</v>
+      </c>
+      <c r="M25" s="332" t="s">
         <v>292</v>
       </c>
-      <c r="K25" s="151" t="s">
-        <v>975</v>
-      </c>
-      <c r="M25" s="332" t="s">
-        <v>293</v>
-      </c>
       <c r="N25" s="337" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="O25" s="337" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="P25" s="154" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="17" thickTop="1" thickBot="1">
       <c r="A26" s="135" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B26" s="173">
         <v>0.3</v>
@@ -8254,11 +8277,11 @@
         <v>0.67</v>
       </c>
       <c r="K26">
-        <f>(H26*$J$57+$J$55*I26+J26*$J$56)*B26*1000</f>
+        <f t="shared" ref="K26:K40" si="1">(H26*$J$57+$J$55*I26+J26*$J$56)*B26*1000</f>
         <v>145.62668113648343</v>
       </c>
       <c r="L26">
-        <f>E26/(H26*$D$49+$D$48*I26+J26*$D$50)</f>
+        <f t="shared" ref="L26:L40" si="2">E26/(H26*$D$49+$D$48*I26+J26*$D$50)</f>
         <v>0.67577741370747169</v>
       </c>
       <c r="M26" s="333">
@@ -8271,7 +8294,7 @@
         <v>1900</v>
       </c>
       <c r="P26" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="16" thickBot="1">
@@ -8312,11 +8335,11 @@
         <v>0.7630769230769231</v>
       </c>
       <c r="K27">
-        <f>(H27*$J$57+$J$55*I27+J27*$J$56)*B27*1000</f>
+        <f t="shared" si="1"/>
         <v>26.890318224508626</v>
       </c>
       <c r="L27">
-        <f>E27/(H27*$D$49+$D$48*I27+J27*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>1.0808713485948673</v>
       </c>
       <c r="M27" s="333">
@@ -8329,12 +8352,12 @@
         <v>80</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="17" thickTop="1" thickBot="1">
       <c r="A28" s="135" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B28" s="173">
         <v>0.32</v>
@@ -8367,11 +8390,11 @@
         <v>0.70960000000000001</v>
       </c>
       <c r="K28">
-        <f>(H28*$J$57+$J$55*I28+J28*$J$56)*B28*1000</f>
+        <f t="shared" si="1"/>
         <v>148.10252615268726</v>
       </c>
       <c r="L28">
-        <f>E28/(H28*$D$49+$D$48*I28+J28*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>0.48511044718727175</v>
       </c>
       <c r="M28" s="333">
@@ -8385,10 +8408,10 @@
         <v>117</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="T28" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="16" thickBot="1">
@@ -8426,11 +8449,11 @@
         <v>0.90399999999999991</v>
       </c>
       <c r="K29">
-        <f>(H29*$J$57+$J$55*I29+J29*$J$56)*B29*1000</f>
+        <f t="shared" si="1"/>
         <v>119.32507182308463</v>
       </c>
       <c r="L29">
-        <f>E29/(H29*$D$49+$D$48*I29+J29*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>0.50933786078098475</v>
       </c>
       <c r="M29" s="333">
@@ -8444,12 +8467,12 @@
         <v>730</v>
       </c>
       <c r="P29" s="345" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="16" thickBot="1">
       <c r="A30" s="135" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B30" s="173">
         <v>0.21</v>
@@ -8480,11 +8503,11 @@
         <v>0.62</v>
       </c>
       <c r="K30">
-        <f>(H30*$J$57+$J$55*I30+J30*$J$56)*B30*1000</f>
+        <f t="shared" si="1"/>
         <v>101.1691104667035</v>
       </c>
       <c r="L30">
-        <f>E30/(H30*$D$49+$D$48*I30+J30*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>0.92341659991782632</v>
       </c>
       <c r="M30" s="333">
@@ -8498,12 +8521,12 @@
         <v>1300</v>
       </c>
       <c r="P30" s="345" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="16" thickBot="1">
       <c r="A31" s="135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="138">
         <v>0.91600000000000004</v>
@@ -8533,11 +8556,11 @@
         <v>0.76</v>
       </c>
       <c r="K31">
-        <f>(H31*$J$57+$J$55*I31+J31*$J$56)*B31*1000</f>
+        <f t="shared" si="1"/>
         <v>435.77297700779746</v>
       </c>
       <c r="L31">
-        <f>E31/(H31*$D$49+$D$48*I31+J31*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>0.97642314915851769</v>
       </c>
       <c r="M31" s="334">
@@ -8550,12 +8573,12 @@
         <v>1200</v>
       </c>
       <c r="P31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="16" thickBot="1">
       <c r="A32" s="135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" s="138">
         <v>0.105</v>
@@ -8585,11 +8608,11 @@
         <v>0.74</v>
       </c>
       <c r="K32">
-        <f>(H32*$J$57+$J$55*I32+J32*$J$56)*B32*1000</f>
+        <f t="shared" si="1"/>
         <v>44.515980356467033</v>
       </c>
       <c r="L32">
-        <f>E32/(H32*$D$49+$D$48*I32+J32*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>1.0851024791247024</v>
       </c>
       <c r="M32" s="335">
@@ -8602,12 +8625,12 @@
         <v>370</v>
       </c>
       <c r="P32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="16" thickBot="1">
       <c r="A33" s="135" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B33" s="138">
         <v>0.29299999999999998</v>
@@ -8637,11 +8660,11 @@
         <v>0.79</v>
       </c>
       <c r="K33">
-        <f>(H33*$J$57+$J$55*I33+J33*$J$56)*B33*1000</f>
+        <f t="shared" si="1"/>
         <v>138.36379221566446</v>
       </c>
       <c r="L33">
-        <f>E33/(H33*$D$49+$D$48*I33+J33*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>0.80678284180870241</v>
       </c>
       <c r="M33" s="335">
@@ -8656,12 +8679,12 @@
         <v>2669.8160000000003</v>
       </c>
       <c r="P33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="16" thickBot="1">
       <c r="A34" s="135" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" s="138">
         <v>7.6999999999999999E-2</v>
@@ -8691,11 +8714,11 @@
         <v>0.82</v>
       </c>
       <c r="K34">
-        <f>(H34*$J$57+$J$55*I34+J34*$J$56)*B34*1000</f>
+        <f t="shared" si="1"/>
         <v>32.150884549605763</v>
       </c>
       <c r="L34">
-        <f>E34/(H34*$D$49+$D$48*I34+J34*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>1.0721934501043251</v>
       </c>
       <c r="M34" s="335">
@@ -8708,12 +8731,12 @@
         <v>330</v>
       </c>
       <c r="P34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="16" thickBot="1">
       <c r="A35" s="135" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" s="138">
         <v>0.46600000000000003</v>
@@ -8743,11 +8766,11 @@
         <v>0.61</v>
       </c>
       <c r="K35">
-        <f>(H35*$J$57+$J$55*I35+J35*$J$56)*B35*1000</f>
+        <f t="shared" si="1"/>
         <v>239.17639295630434</v>
       </c>
       <c r="L35">
-        <f>E35/(H35*$D$49+$D$48*I35+J35*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>0.90342993650255354</v>
       </c>
       <c r="M35" s="335">
@@ -8762,12 +8785,12 @@
         <v>1200</v>
       </c>
       <c r="P35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="16" thickBot="1">
       <c r="A36" s="135" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B36" s="138">
         <v>0.14299999999999999</v>
@@ -8797,11 +8820,11 @@
         <v>0.82</v>
       </c>
       <c r="K36">
-        <f>(H36*$J$57+$J$55*I36+J36*$J$56)*B36*1000</f>
+        <f t="shared" si="1"/>
         <v>56.944654936046781</v>
       </c>
       <c r="L36">
-        <f>E36/(H36*$D$49+$D$48*I36+J36*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>0.66279993796399439</v>
       </c>
       <c r="M36" s="335">
@@ -8814,12 +8837,12 @@
         <v>977</v>
       </c>
       <c r="P36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="16" thickBot="1">
       <c r="A37" s="135" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B37" s="138">
         <v>0.92700000000000005</v>
@@ -8849,11 +8872,11 @@
         <v>0.82</v>
       </c>
       <c r="K37">
-        <f>(H37*$J$57+$J$55*I37+J37*$J$56)*B37*1000</f>
+        <f t="shared" si="1"/>
         <v>406.28720511554087</v>
       </c>
       <c r="L37">
-        <f>E37/(H37*$D$49+$D$48*I37+J37*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>0.87155637498217686</v>
       </c>
       <c r="M37" s="335">
@@ -8866,12 +8889,12 @@
         <v>740</v>
       </c>
       <c r="P37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="16" thickBot="1">
       <c r="A38" s="135" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B38" s="138">
         <v>3.7999999999999999E-2</v>
@@ -8901,11 +8924,11 @@
         <v>0.66</v>
       </c>
       <c r="K38">
-        <f>(H38*$J$57+$J$55*I38+J38*$J$56)*B38*1000</f>
+        <f t="shared" si="1"/>
         <v>16.373364133970309</v>
       </c>
       <c r="L38">
-        <f>E38/(H38*$D$49+$D$48*I38+J38*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>0.91944018562472485</v>
       </c>
       <c r="M38" s="335">
@@ -8918,12 +8941,12 @@
         <v>300</v>
       </c>
       <c r="P38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="16" thickBot="1">
       <c r="A39" s="135" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B39" s="138">
         <v>0.92400000000000004</v>
@@ -8953,11 +8976,11 @@
         <v>0.85</v>
       </c>
       <c r="K39">
-        <f>(H39*$J$57+$J$55*I39+J39*$J$56)*B39*1000</f>
+        <f t="shared" si="1"/>
         <v>415.07017252038042</v>
       </c>
       <c r="L39">
-        <f>E39/(H39*$D$49+$D$48*I39+J39*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>0.75378112294407162</v>
       </c>
       <c r="M39" s="335">
@@ -8970,12 +8993,12 @@
         <v>1630</v>
       </c>
       <c r="P39" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16" thickBot="1">
       <c r="A40" s="136" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B40" s="139">
         <v>0.309</v>
@@ -9005,11 +9028,11 @@
         <v>0.79</v>
       </c>
       <c r="K40">
-        <f>(H40*$J$57+$J$55*I40+J40*$J$56)*B40*1000</f>
+        <f t="shared" si="1"/>
         <v>143.38171109599963</v>
       </c>
       <c r="L40">
-        <f>E40/(H40*$D$49+$D$48*I40+J40*$D$50)</f>
+        <f t="shared" si="2"/>
         <v>1.0138814158524627</v>
       </c>
       <c r="M40" s="336">
@@ -9022,7 +9045,7 @@
         <v>1100</v>
       </c>
       <c r="P40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16" thickTop="1"/>
@@ -9081,15 +9104,15 @@
         <v>29</v>
       </c>
       <c r="Q43" s="94" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="R43" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="16" thickBot="1">
       <c r="A45" s="136" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="139">
         <v>0.10199999999999999</v>
@@ -9122,21 +9145,21 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="D47" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" t="s">
         <v>249</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>250</v>
-      </c>
-      <c r="C48" t="s">
-        <v>251</v>
       </c>
       <c r="D48">
         <v>496</v>
@@ -9144,13 +9167,13 @@
     </row>
     <row r="49" spans="1:16" ht="17">
       <c r="A49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="B49" s="121" t="s">
+      <c r="C49" t="s">
         <v>253</v>
-      </c>
-      <c r="C49" t="s">
-        <v>254</v>
       </c>
       <c r="D49">
         <v>1014</v>
@@ -9160,13 +9183,13 @@
     </row>
     <row r="50" spans="1:16" ht="17">
       <c r="A50" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="B50" s="121" t="s">
+      <c r="C50" s="122" t="s">
         <v>256</v>
-      </c>
-      <c r="C50" s="122" t="s">
-        <v>257</v>
       </c>
       <c r="D50">
         <v>415</v>
@@ -9179,19 +9202,19 @@
     <row r="52" spans="1:16">
       <c r="A52" s="125"/>
       <c r="B52" s="126" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" s="126" t="s">
         <v>258</v>
       </c>
-      <c r="C52" s="126" t="s">
+      <c r="D52" s="126" t="s">
         <v>259</v>
-      </c>
-      <c r="D52" s="126" t="s">
-        <v>260</v>
       </c>
       <c r="E52" s="126" t="s">
         <v>50</v>
       </c>
       <c r="F52" s="126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G52" s="318"/>
       <c r="H52" s="318"/>
@@ -9203,7 +9226,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B53" s="128">
         <v>12.0107</v>
@@ -9231,41 +9254,41 @@
     <row r="54" spans="1:16">
       <c r="A54" s="54"/>
       <c r="B54" s="319" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="319" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="319" t="s">
+      <c r="D54" s="319" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="319" t="s">
+      <c r="E54" s="319" t="s">
         <v>265</v>
       </c>
-      <c r="E54" s="319" t="s">
+      <c r="F54" s="321" t="s">
         <v>266</v>
       </c>
-      <c r="F54" s="321" t="s">
+      <c r="G54" s="321" t="s">
         <v>267</v>
       </c>
-      <c r="G54" s="321" t="s">
+      <c r="H54" s="322" t="s">
         <v>268</v>
       </c>
-      <c r="H54" s="322" t="s">
+      <c r="I54" s="323" t="s">
         <v>269</v>
       </c>
-      <c r="I54" s="323" t="s">
+      <c r="J54" s="323" t="s">
+        <v>944</v>
+      </c>
+      <c r="K54" s="323" t="s">
         <v>270</v>
-      </c>
-      <c r="J54" s="323" t="s">
-        <v>951</v>
-      </c>
-      <c r="K54" s="323" t="s">
-        <v>271</v>
       </c>
       <c r="L54" s="355"/>
       <c r="N54" s="323"/>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" s="319">
         <v>5</v>
@@ -9305,7 +9328,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B56" s="319">
         <v>6</v>
@@ -9343,7 +9366,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B57" s="320">
         <v>57</v>
@@ -9381,7 +9404,7 @@
     </row>
     <row r="58" spans="1:16" hidden="1">
       <c r="A58" s="132" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B58" s="129">
         <v>40</v>
@@ -9416,7 +9439,7 @@
     </row>
     <row r="59" spans="1:16" hidden="1">
       <c r="A59" s="132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B59" s="133">
         <v>6</v>
@@ -9466,48 +9489,48 @@
     <row r="62" spans="1:16" ht="16" thickBot="1"/>
     <row r="63" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A63" s="134" t="s">
+        <v>273</v>
+      </c>
+      <c r="B63" s="135" t="s">
         <v>274</v>
       </c>
-      <c r="B63" s="135" t="s">
+      <c r="C63" s="135" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="135" t="s">
+      <c r="D63" s="135" t="s">
         <v>276</v>
       </c>
-      <c r="D63" s="135" t="s">
+      <c r="E63" s="135" t="s">
         <v>277</v>
       </c>
-      <c r="E63" s="135" t="s">
+      <c r="F63" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="F63" s="135" t="s">
+      <c r="G63" s="135" t="s">
         <v>279</v>
       </c>
-      <c r="G63" s="135" t="s">
+      <c r="H63" s="135" t="s">
         <v>280</v>
-      </c>
-      <c r="H63" s="135" t="s">
-        <v>281</v>
       </c>
       <c r="I63" s="135"/>
       <c r="J63" s="135"/>
       <c r="K63" s="135" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L63" s="356"/>
       <c r="N63" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="O63" s="136" t="s">
         <v>283</v>
       </c>
-      <c r="O63" s="136" t="s">
+      <c r="P63" s="136" t="s">
         <v>284</v>
-      </c>
-      <c r="P63" s="136" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="16" thickBot="1">
       <c r="A65" s="137" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B65" s="138">
         <v>0.91600000000000004</v>
@@ -9548,7 +9571,7 @@
     </row>
     <row r="66" spans="1:19" ht="16" thickBot="1">
       <c r="A66" s="140" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B66" s="141">
         <v>0.97899999999999998</v>
@@ -9589,7 +9612,7 @@
     </row>
     <row r="67" spans="1:19" ht="16" thickBot="1">
       <c r="A67" s="143" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B67" s="144">
         <v>0.88900000000000001</v>
@@ -9630,7 +9653,7 @@
     </row>
     <row r="68" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A68" s="145" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B68" s="146">
         <v>0.03</v>
@@ -9671,7 +9694,7 @@
     </row>
     <row r="69" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A69" s="145" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B69" s="173">
         <v>0.11</v>
@@ -9712,7 +9735,7 @@
     </row>
     <row r="70" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A70" s="145" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B70" s="173">
         <v>0.1</v>
@@ -9753,7 +9776,7 @@
     </row>
     <row r="71" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A71" s="148" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B71" s="174">
         <v>0.76</v>
@@ -9794,7 +9817,7 @@
     </row>
     <row r="72" spans="1:19" ht="16" thickTop="1">
       <c r="A72" s="151" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C72" s="152"/>
       <c r="D72" s="152"/>
@@ -9814,34 +9837,34 @@
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B73" s="155">
-        <f t="shared" ref="B73:H73" si="1">B69*$J57</f>
+        <f t="shared" ref="B73:H73" si="3">B69*$J57</f>
         <v>8.4858035728833853E-2</v>
       </c>
       <c r="C73" s="155">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5428733768878882E-2</v>
       </c>
       <c r="D73" s="155">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0857467537757765E-2</v>
       </c>
       <c r="E73" s="155">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F73" s="155">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14657297080434939</v>
       </c>
       <c r="G73" s="155">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3143100653318323E-2</v>
       </c>
       <c r="H73" s="155">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5428733768878882E-2</v>
       </c>
       <c r="I73" s="155"/>
@@ -9866,34 +9889,34 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="154" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B74" s="155">
-        <f t="shared" ref="B74:H74" si="2">B70*$J55</f>
+        <f t="shared" ref="B74:H74" si="4">B70*$J55</f>
         <v>5.3090857076072778E-2</v>
       </c>
       <c r="C74" s="155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.9636285614109154E-2</v>
       </c>
       <c r="D74" s="155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.025445702932372E-2</v>
       </c>
       <c r="E74" s="155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3090857076072778E-2</v>
       </c>
       <c r="F74" s="155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.556354273693099E-2</v>
       </c>
       <c r="G74" s="155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0618171415214555E-2</v>
       </c>
       <c r="H74" s="155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.8399942783680048E-2</v>
       </c>
       <c r="I74" s="155"/>
@@ -9918,34 +9941,34 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="154" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B75" s="155">
-        <f t="shared" ref="B75:H75" si="3">$J56*B71</f>
+        <f t="shared" ref="B75:H75" si="5">$J56*B71</f>
         <v>0.33778579825164085</v>
       </c>
       <c r="C75" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.32889669829765034</v>
       </c>
       <c r="D75" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35111944818262669</v>
       </c>
       <c r="E75" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
       <c r="F75" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.27111754859671172</v>
       </c>
       <c r="G75" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
       <c r="H75" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
       <c r="I75" s="155"/>
@@ -9970,34 +9993,34 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="154" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B76" s="155">
         <f>SUM(B73:B75)</f>
         <v>0.47573469105654748</v>
       </c>
       <c r="C76" s="155">
-        <f t="shared" ref="C76:P76" si="4">SUM(C73:C75)</f>
+        <f t="shared" ref="C76:P76" si="6">SUM(C73:C75)</f>
         <v>0.42396171768063839</v>
       </c>
       <c r="D76" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.47223137274970817</v>
       </c>
       <c r="E76" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.41754395518968523</v>
       </c>
       <c r="F76" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.51325406213799207</v>
       </c>
       <c r="G76" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.39821437018214534</v>
       </c>
       <c r="H76" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.43828177466617141</v>
       </c>
       <c r="I76" s="155"/>
@@ -10008,15 +10031,15 @@
       </c>
       <c r="L76" s="155"/>
       <c r="N76" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.44921014342032511</v>
       </c>
       <c r="O76" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.46401848251132577</v>
       </c>
       <c r="P76" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38871551520361525</v>
       </c>
       <c r="Q76" s="155">
@@ -10028,7 +10051,7 @@
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="154" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B77" s="172">
         <f>B76*B65</f>
@@ -10039,23 +10062,23 @@
         <v>4.4515980356467033E-2</v>
       </c>
       <c r="D77" s="155">
-        <f t="shared" ref="D77:P77" si="5">D76*D65</f>
+        <f t="shared" ref="D77:P77" si="7">D76*D65</f>
         <v>0.13836379221566447</v>
       </c>
       <c r="E77" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2150884549605761E-2</v>
       </c>
       <c r="F77" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23917639295630433</v>
       </c>
       <c r="G77" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6944654936046779E-2</v>
       </c>
       <c r="H77" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.40628720511554089</v>
       </c>
       <c r="I77" s="155"/>
@@ -10066,41 +10089,41 @@
       </c>
       <c r="L77" s="155"/>
       <c r="N77" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.41507017252038042</v>
       </c>
       <c r="O77" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14338171109599965</v>
       </c>
       <c r="P77" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9648982550768749E-2</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C82" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D82" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E82" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F82" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G82" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B83">
         <v>90</v>
@@ -10124,7 +10147,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B84">
         <v>40</v>
@@ -10151,7 +10174,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B85">
         <v>40</v>
@@ -10178,17 +10201,17 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -10207,8 +10230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10220,53 +10243,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45">
       <c r="A4" s="347"/>
       <c r="B4" s="347" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="347" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="D4" s="347" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="E4" s="347" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="F4" s="347" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="G4" s="347" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="H4" s="347" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="348" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B5" s="351">
         <f>Parameters!I26*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H26+Parameters!J26*'Animal Feed lit'!$B$24</f>
         <v>0.87530000000000008</v>
       </c>
       <c r="C5" s="347" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D5" s="349">
         <f>Parameters!M26</f>
@@ -10289,7 +10312,7 @@
         <v>0.81046153846153846</v>
       </c>
       <c r="C6" s="350" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D6" s="349">
         <f>Parameters!M27</f>
@@ -10310,14 +10333,14 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="348" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B7" s="351">
         <f>Parameters!I28*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H28+Parameters!J28*'Animal Feed lit'!$C$24</f>
         <v>0.694855</v>
       </c>
       <c r="C7" s="347" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D7" s="349">
         <f>Parameters!M28</f>
@@ -10341,7 +10364,7 @@
         <v>0.66959999999999986</v>
       </c>
       <c r="C8" s="347" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D8" s="349">
         <f>Parameters!M29</f>
@@ -10362,14 +10385,14 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="348" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B9" s="351">
         <f>Parameters!I30*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H30+Parameters!J30*'Animal Feed lit'!$B$24</f>
         <v>0.85050000000000003</v>
       </c>
       <c r="C9" s="347" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D9" s="349">
         <f>Parameters!M30</f>
@@ -10391,14 +10414,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="348" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="351">
         <f>Parameters!I31*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H31+Parameters!J31*'Animal Feed lit'!$B$24</f>
         <v>0.84540000000000004</v>
       </c>
       <c r="C10" s="347" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D10" s="349">
         <f>Parameters!M31</f>
@@ -10419,14 +10442,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="348" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B11" s="351">
         <f>Parameters!I32*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H32+Parameters!J32*'Animal Feed lit'!$B$24</f>
         <v>0.71109999999999995</v>
       </c>
       <c r="C11" s="347" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D11" s="349">
         <f>Parameters!M32</f>
@@ -10442,14 +10465,14 @@
     </row>
     <row r="12" spans="1:12" ht="24">
       <c r="A12" s="348" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B12" s="351">
         <f>Parameters!I33*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$28*2.25*Parameters!H30+Parameters!J33*'Animal Feed lit'!$B$24</f>
         <v>0.72910000000000008</v>
       </c>
       <c r="C12" s="347" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D12" s="349">
         <f>Parameters!M33</f>
@@ -10465,14 +10488,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="348" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="351" t="e">
         <f>Parameters!I34*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$28*2.25*Parameters!#REF!+Parameters!J34*'Animal Feed lit'!$D$24</f>
         <v>#REF!</v>
       </c>
       <c r="C13" s="347" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D13" s="349">
         <f>Parameters!M34</f>
@@ -10485,14 +10508,14 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="348" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B14" s="351">
         <f>Parameters!I35*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H35+Parameters!J35*'Animal Feed lit'!$B$24</f>
         <v>0.94639999999999991</v>
       </c>
       <c r="C14" s="347" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D14" s="349">
         <f>Parameters!M35</f>
@@ -10505,14 +10528,14 @@
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1">
       <c r="A15" s="348" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B15" s="351">
         <f>Parameters!I36*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H36+Parameters!J36*'Animal Feed lit'!$C$24</f>
         <v>0.56299999999999994</v>
       </c>
       <c r="C15" s="347" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D15" s="349">
         <f>Parameters!M36</f>
@@ -10525,14 +10548,14 @@
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1">
       <c r="A16" s="348" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B16" s="351">
         <f>Parameters!I37*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H37+Parameters!J37*'Animal Feed lit'!$B$24</f>
         <v>0.73629999999999995</v>
       </c>
       <c r="C16" s="347" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D16" s="349">
         <f>Parameters!M37</f>
@@ -10545,14 +10568,14 @@
     </row>
     <row r="17" spans="1:9" ht="17">
       <c r="A17" s="348" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B17" s="351">
         <f>Parameters!I38*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H38+Parameters!J38*'Animal Feed lit'!$C$24</f>
         <v>0.62750000000000006</v>
       </c>
       <c r="C17" s="347" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D17" s="349">
         <f>Parameters!M38</f>
@@ -10568,14 +10591,14 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="348" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B18" s="351">
         <f>Parameters!I39*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H39+Parameters!J39*'Animal Feed lit'!$B$24</f>
         <v>0.749</v>
       </c>
       <c r="C18" s="347" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D18" s="349">
         <f>Parameters!M39</f>
@@ -10591,14 +10614,14 @@
     </row>
     <row r="19" spans="1:9" ht="24">
       <c r="A19" s="348" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B19" s="351">
         <f>Parameters!I40*'Animal Feed lit'!$B$22+'Animal Feed lit'!$B$23*2.25*Parameters!H40+Parameters!J40*'Animal Feed lit'!$D$24</f>
         <v>0.92000000000000015</v>
       </c>
       <c r="C19" s="347" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D19" s="349">
         <f>Parameters!M40</f>
@@ -10618,18 +10641,18 @@
     <row r="21" spans="1:9">
       <c r="A21" s="61"/>
       <c r="B21" s="62" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="D21" s="346" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="61" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B22" s="62">
         <v>0.85</v>
@@ -10639,7 +10662,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="61" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B23" s="62">
         <v>0.8</v>
@@ -10649,7 +10672,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="61" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B24" s="62">
         <v>0.74</v>
@@ -10783,12 +10806,12 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="57" customFormat="1">
@@ -10796,42 +10819,42 @@
         <v>102</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D3" s="57" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="57" t="s">
         <v>680</v>
       </c>
-      <c r="F3" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>681</v>
-      </c>
-      <c r="H3" s="57" t="s">
+      <c r="L3" s="57" t="s">
         <v>682</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>681</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>683</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4">
         <v>98</v>
@@ -10873,12 +10896,12 @@
         <v>0.21486988847583641</v>
       </c>
       <c r="M4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -10920,15 +10943,15 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="N5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <v>113</v>
@@ -10970,12 +10993,12 @@
         <v>-0.29205479452054794</v>
       </c>
       <c r="M6" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B7">
         <v>112.5</v>
@@ -11014,15 +11037,15 @@
         <v>4.7684210526315801E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="N7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B8">
         <v>191</v>
@@ -11064,12 +11087,12 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -11105,7 +11128,7 @@
         <v>0.63924050632911389</v>
       </c>
       <c r="M9" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="57" customFormat="1">
@@ -11115,7 +11138,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B11">
         <v>97</v>
@@ -11146,12 +11169,12 @@
         <v>28.9</v>
       </c>
       <c r="M11" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B12">
         <v>42</v>
@@ -11185,12 +11208,12 @@
         <v>14.700000000000003</v>
       </c>
       <c r="N12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B13">
         <v>68</v>
@@ -11226,7 +11249,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C14" s="52">
         <f>B14/J14</f>
@@ -11255,65 +11278,65 @@
         <v>138.9</v>
       </c>
       <c r="N14" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="57" customFormat="1">
       <c r="A15" s="57" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1"/>
     <row r="17" spans="1:14" s="6" customFormat="1">
       <c r="A17" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N18" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="N19" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" customHeight="1">
       <c r="N20" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="N21" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="B24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -11322,15 +11345,15 @@
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E25" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B26">
         <v>2.1000000000000001E-2</v>
@@ -11344,7 +11367,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B27">
         <v>11.9</v>
@@ -11358,7 +11381,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B28">
         <v>1.8297000000000001</v>
@@ -11372,18 +11395,18 @@
     </row>
     <row r="29" spans="1:14">
       <c r="B29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -11402,7 +11425,7 @@
         <v>5.6505576208178435E-2</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -11421,7 +11444,7 @@
         <v>1.5929203539823009E-2</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -11440,7 +11463,7 @@
         <v>9.4615384615384615E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -11458,15 +11481,15 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="57" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="57" t="s">
+        <v>630</v>
+      </c>
+      <c r="E36" s="57" t="s">
         <v>631</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -11496,15 +11519,15 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B1" s="359" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C1" s="359"/>
       <c r="D1" s="359"/>
       <c r="E1" s="359" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F1" s="359"/>
       <c r="G1" s="359"/>
@@ -11514,27 +11537,27 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C2" t="s">
+        <v>900</v>
+      </c>
+      <c r="D2" t="s">
         <v>907</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>906</v>
       </c>
-      <c r="D2" t="s">
-        <v>913</v>
-      </c>
-      <c r="E2" t="s">
-        <v>912</v>
-      </c>
       <c r="F2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="G2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B3">
         <v>1.2E-2</v>
@@ -11549,7 +11572,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B4">
         <v>1.7000000000000001E-2</v>
@@ -11576,7 +11599,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B5">
         <v>1.7999999999999999E-2</v>
@@ -11603,7 +11626,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="57" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6" si="1">(C6-B6)/2</f>
@@ -11612,7 +11635,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B7">
         <v>5.0000000000000001E-3</v>
@@ -11627,7 +11650,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B8">
         <v>2.1999999999999999E-2</v>
@@ -11654,7 +11677,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B9">
         <v>8.9999999999999993E-3</v>
@@ -11681,13 +11704,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="313" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11703,7 +11726,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B12">
         <v>7.3999999999999996E-2</v>
@@ -11730,7 +11753,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B13">
         <v>1.6E-2</v>
@@ -11757,12 +11780,12 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="313" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B15">
         <v>0.06</v>
@@ -11777,7 +11800,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B16">
         <v>0.17199999999999999</v>
@@ -11804,7 +11827,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B17">
         <v>0.127</v>
@@ -11831,12 +11854,12 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="57" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B19">
         <f>B11+B15</f>
@@ -11853,7 +11876,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:D21" si="6">B12+B16</f>
@@ -11882,7 +11905,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B21">
         <f t="shared" si="6"/>
@@ -11911,12 +11934,12 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="57" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B23">
         <f>B19+B7</f>
@@ -11933,7 +11956,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:D25" si="8">B20+B8</f>
@@ -11961,7 +11984,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B25">
         <f t="shared" si="8"/>
@@ -11990,12 +12013,12 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="57" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12012,7 +12035,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E29">
         <v>1.6E-2</v>
@@ -12020,7 +12043,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E30">
         <v>7.4999999999999997E-2</v>
@@ -12043,49 +12066,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
     <col min="9" max="9" width="22.83203125" customWidth="1"/>
     <col min="10" max="10" width="76.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="57" customFormat="1">
       <c r="B1" s="57" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C1" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P1" s="57">
         <v>0.453592</v>
@@ -12093,28 +12116,28 @@
     </row>
     <row r="2" spans="1:16" s="57" customFormat="1" hidden="1">
       <c r="B2" s="57" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="L2" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O2"/>
       <c r="P2" s="57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B3" t="str">
         <f>Parameters!A7</f>
@@ -12125,10 +12148,10 @@
         <v>kgCO2e/L diesel</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F3">
         <v>0.45</v>
@@ -12140,45 +12163,45 @@
         <v>0.5</v>
       </c>
       <c r="I3" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="L3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M3" t="s">
         <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B4" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F4" s="65">
         <v>2.7204943424399999</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="K4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L4">
         <v>1180.6199999999999</v>
@@ -12197,19 +12220,19 @@
     </row>
     <row r="5" spans="1:16" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F5" s="214">
         <f>O5</f>
@@ -12224,10 +12247,10 @@
         <v>918.79198627000005</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L5" s="6">
         <v>1520.2</v>
@@ -12245,19 +12268,19 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D6" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F6">
         <v>8.85</v>
@@ -12269,13 +12292,13 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J6" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="K6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L6">
         <v>2014.87</v>
@@ -12293,29 +12316,29 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F7">
         <v>5.4</v>
       </c>
       <c r="I7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L7">
         <v>1181.7</v>
@@ -12333,19 +12356,19 @@
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" hidden="1">
       <c r="A8" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>596</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F8" s="288">
         <v>0.03</v>
@@ -12357,24 +12380,24 @@
         <v>0.06</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F9">
         <v>1.8</v>
@@ -12386,24 +12409,24 @@
         <v>3.09</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F10">
         <v>0.96</v>
@@ -12415,24 +12438,24 @@
         <v>1.53</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F11">
         <v>970</v>
@@ -12444,7 +12467,7 @@
         <v>1197</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="6" customFormat="1">
@@ -12452,16 +12475,16 @@
         <v>103</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F12" s="6">
         <v>0.01</v>
@@ -12473,24 +12496,24 @@
         <v>0.05</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="D13" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="E13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F13">
         <f>N2O!D3</f>
@@ -12505,24 +12528,24 @@
         <v>2.4E-2</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="6" customFormat="1">
       <c r="A14" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="D14" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="E14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -12534,24 +12557,24 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="6" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="E15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F15" s="6">
         <f>N2O!D23</f>
@@ -12566,7 +12589,7 @@
         <v>0.52469999999999994</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="57" customFormat="1">
@@ -12577,27 +12600,27 @@
         <v>14</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B17" t="str">
         <f>'Landfill '!A3</f>
@@ -12608,10 +12631,10 @@
         <v>L/t</v>
       </c>
       <c r="D17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F17" s="65">
         <v>5.8295314000000005</v>
@@ -12623,7 +12646,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J17" t="str">
         <f>'Landfill '!K3</f>
@@ -12632,7 +12655,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B18" t="str">
         <f>'Landfill '!A8</f>
@@ -12643,10 +12666,10 @@
         <v>%</v>
       </c>
       <c r="D18" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F18">
         <v>0.35</v>
@@ -12658,15 +12681,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I18" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J18" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A19" s="6" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B19" s="6" t="str">
         <f>'Landfill '!A9</f>
@@ -12677,10 +12700,10 @@
         <v>%</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F19" s="6">
         <f>'Landfill '!E9</f>
@@ -12693,7 +12716,7 @@
         <v>0.9</v>
       </c>
       <c r="I19" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J19" s="6" t="str">
         <f>'Landfill '!K9</f>
@@ -12702,7 +12725,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B20" t="str">
         <f>'Landfill '!A22</f>
@@ -12713,10 +12736,10 @@
         <v>btu/kwh</v>
       </c>
       <c r="D20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F20">
         <v>11700</v>
@@ -12728,27 +12751,27 @@
         <v>13648</v>
       </c>
       <c r="I20" t="s">
+        <v>740</v>
+      </c>
+      <c r="J20" t="s">
         <v>743</v>
-      </c>
-      <c r="J20" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F21">
         <v>0.85</v>
@@ -12760,27 +12783,27 @@
         <v>0.9</v>
       </c>
       <c r="I21" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F22">
         <v>0.95</v>
@@ -12792,15 +12815,15 @@
         <v>0.95</v>
       </c>
       <c r="I22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J22" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="6" customFormat="1">
       <c r="A23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>80</v>
@@ -12810,10 +12833,10 @@
         <v>fraction</v>
       </c>
       <c r="D23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -12825,27 +12848,27 @@
         <v>1</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J23" s="233" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1">
       <c r="A24" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F24" s="6">
         <v>0.14399999999999999</v>
@@ -12857,53 +12880,53 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="B25" s="57" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G25" s="57" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H25" s="57" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I25" s="57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1">
       <c r="A26" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F26" s="6">
         <v>2.65</v>
@@ -12915,7 +12938,7 @@
         <v>3.3</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1">
@@ -12923,16 +12946,16 @@
         <v>103</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F27" s="6">
         <v>0.9</v>
@@ -12944,10 +12967,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1">
@@ -12955,16 +12978,16 @@
         <v>103</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F28" s="6">
         <v>2.5000000000000001E-2</v>
@@ -12987,16 +13010,16 @@
         <v>103</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F29" s="6">
         <v>0.05</v>
@@ -13008,7 +13031,7 @@
         <v>0.16</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1">
@@ -13024,17 +13047,17 @@
         <v>% methane utilized</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F30" s="6">
         <f>AD!E25</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J30" s="6" t="str">
         <f>AD!J25</f>
@@ -13046,16 +13069,16 @@
         <v>103</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F31" s="102">
         <v>4.19318820416827</v>
@@ -13069,10 +13092,10 @@
         <v>4.41</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J31" s="281" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1">
@@ -13080,17 +13103,17 @@
         <v>103</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C32" s="6" t="str">
         <f>AD!B30</f>
         <v>MWh/t</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F32" s="6">
         <v>0.12</v>
@@ -13114,17 +13137,17 @@
         <v>103</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C33" s="6" t="str">
         <f>AD!B36</f>
         <v>kgVS/t FW</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F33" s="6">
         <v>0.55000000000000004</v>
@@ -13148,16 +13171,16 @@
         <v>103</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F34" s="6">
         <v>5.3999999999999999E-2</v>
@@ -13178,16 +13201,16 @@
         <v>103</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F35" s="6">
         <f>AD!E42</f>
@@ -13202,7 +13225,7 @@
         <v>0.01</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J35" s="6" t="str">
         <f>AD!I42</f>
@@ -13214,17 +13237,17 @@
         <v>103</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C36" s="6" t="str">
         <f>AD!B44</f>
         <v>Kg N2O-N/kg N</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F36" s="6">
         <v>0.26</v>
@@ -13236,7 +13259,7 @@
         <v>0.45</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J36" s="6">
         <f>AD!I43</f>
@@ -13248,16 +13271,16 @@
         <v>103</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F37" s="6">
         <v>0.01</v>
@@ -13269,7 +13292,7 @@
         <v>0.05</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="5" customFormat="1" hidden="1">
@@ -13277,16 +13300,16 @@
         <v>103</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F38" s="5">
         <v>20</v>
@@ -13298,25 +13321,25 @@
         <v>30</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C39" s="6" t="str">
         <f>'Land application'!B13</f>
         <v>Kg N2O-N/kg N</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F39" s="6">
         <f>'Land application'!E13</f>
@@ -13329,10 +13352,10 @@
         <v>0.03</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1">
@@ -13340,16 +13363,16 @@
         <v>103</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F40" s="6">
         <f>N2O!E30</f>
@@ -13364,10 +13387,10 @@
         <v>0.12</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1">
@@ -13375,16 +13398,16 @@
         <v>103</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F41" s="6">
         <f>N2O!D25</f>
@@ -13399,7 +13422,7 @@
         <v>0.8</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
@@ -13407,16 +13430,16 @@
         <v>103</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F42" s="6">
         <v>0.65</v>
@@ -13428,27 +13451,27 @@
         <v>1</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="J42" s="282" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
@@ -13460,49 +13483,49 @@
         <v>1</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="J43" s="282"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F44" s="6">
         <v>1</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J44" s="282"/>
     </row>
     <row r="45" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>392</v>
+        <v>496</v>
       </c>
       <c r="F45" s="287">
         <f>Parameters!G85</f>
@@ -13515,49 +13538,49 @@
         <v>1</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="J45" s="282"/>
     </row>
     <row r="46" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F46" s="6">
         <v>1</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J46" s="282"/>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>392</v>
+        <v>496</v>
       </c>
       <c r="F47" s="287">
         <f>Parameters!G84</f>
@@ -13570,7 +13593,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="J47" s="282"/>
     </row>
@@ -13579,16 +13602,16 @@
         <v>103</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F48" s="6">
         <v>0.1</v>
@@ -13600,7 +13623,7 @@
         <v>0.16</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="57" customFormat="1">
@@ -13611,40 +13634,40 @@
         <v>14</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E49" s="57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G49" s="57" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H49" s="57" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I49" s="57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B50" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C50" t="str">
         <f>compost!B13</f>
         <v>L/t</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -13656,27 +13679,27 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J50" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B51" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C51" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D51" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F51">
         <v>2.3E-2</v>
@@ -13688,27 +13711,27 @@
         <v>65</v>
       </c>
       <c r="I51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J51" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="13" customHeight="1">
       <c r="A52" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B52" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C52" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D52" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F52">
         <v>0.57999999999999996</v>
@@ -13720,27 +13743,27 @@
         <v>0.83</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J52" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B53" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C53" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D53" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F53">
         <v>0.02</v>
@@ -13752,24 +13775,24 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B54" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C54" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="D54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F54">
         <v>5.0000000000000001E-3</v>
@@ -13781,7 +13804,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I54" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J54" t="str">
         <f>compost!H20</f>
@@ -13790,19 +13813,19 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B55" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C55" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D55" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E55" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F55">
         <v>0.5</v>
@@ -13814,24 +13837,24 @@
         <v>0.9</v>
       </c>
       <c r="I55" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B56" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C56" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D56" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F56">
         <v>0.43</v>
@@ -13843,50 +13866,50 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I56" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B57" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C57" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D57" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F57">
         <v>0.6</v>
       </c>
       <c r="I57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J57" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B58" t="s">
-        <v>894</v>
+        <v>974</v>
       </c>
       <c r="C58" t="s">
-        <v>875</v>
+        <v>975</v>
       </c>
       <c r="D58" t="s">
-        <v>876</v>
+        <v>979</v>
       </c>
       <c r="E58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -13898,24 +13921,24 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="2" customFormat="1" hidden="1">
       <c r="A59" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F59" s="2">
         <v>20</v>
@@ -13927,24 +13950,24 @@
         <v>30</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B60" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C60" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D60" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E60" t="s">
-        <v>497</v>
+        <v>391</v>
       </c>
       <c r="F60">
         <v>0.2</v>
@@ -13956,24 +13979,24 @@
         <v>0.4</v>
       </c>
       <c r="I60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B61" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C61" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D61" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E61" t="s">
-        <v>497</v>
+        <v>391</v>
       </c>
       <c r="F61">
         <f>N2O!D4</f>
@@ -13988,24 +14011,24 @@
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="I61" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="15" customFormat="1">
       <c r="A62" s="15" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F62" s="15">
         <f>N2O!D24</f>
@@ -14020,51 +14043,57 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="15" customFormat="1">
       <c r="A63" s="15" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>497</v>
+        <v>391</v>
       </c>
       <c r="F63" s="15">
         <f>N2O!E29</f>
         <v>1.6E-2</v>
       </c>
+      <c r="G63" s="15">
+        <v>0</v>
+      </c>
+      <c r="H63" s="15">
+        <v>0.2</v>
+      </c>
       <c r="I63" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C64" t="s">
         <v>517</v>
       </c>
-      <c r="C64" t="s">
-        <v>518</v>
-      </c>
       <c r="D64" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F64">
         <v>0.1</v>
@@ -14076,51 +14105,111 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I64" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J64" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="57" customFormat="1">
-      <c r="B65" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="57" t="s">
-        <v>553</v>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>648</v>
+      </c>
+      <c r="B65" t="s">
+        <v>976</v>
+      </c>
+      <c r="C65" t="s">
+        <v>977</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="E65" t="s">
+        <v>391</v>
+      </c>
+      <c r="F65">
+        <v>0.21</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>652</v>
-      </c>
-      <c r="B66" t="s">
-        <v>641</v>
-      </c>
-      <c r="C66" t="s">
-        <v>640</v>
-      </c>
-      <c r="D66" t="s">
-        <v>642</v>
-      </c>
-      <c r="E66" t="s">
-        <v>392</v>
-      </c>
-      <c r="F66">
-        <v>0.1</v>
-      </c>
-      <c r="G66">
-        <v>0.05</v>
-      </c>
-      <c r="H66">
-        <v>0.5</v>
-      </c>
-      <c r="I66" t="s">
-        <v>416</v>
+        <v>648</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="57" customFormat="1">
       <c r="B67" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>528</v>
+      </c>
+      <c r="E67" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="F67" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G67" s="57" t="s">
+        <v>799</v>
+      </c>
+      <c r="H67" s="57" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>649</v>
+      </c>
+      <c r="B68" t="s">
+        <v>970</v>
+      </c>
+      <c r="C68" t="s">
+        <v>454</v>
+      </c>
+      <c r="D68" t="s">
+        <v>639</v>
+      </c>
+      <c r="E68" t="s">
+        <v>391</v>
+      </c>
+      <c r="F68">
+        <v>0.1</v>
+      </c>
+      <c r="G68">
+        <v>0.05</v>
+      </c>
+      <c r="H68">
+        <v>0.5</v>
+      </c>
+      <c r="I68" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="B69" t="s">
+        <v>972</v>
+      </c>
+      <c r="C69" t="s">
+        <v>971</v>
+      </c>
+      <c r="E69" t="s">
+        <v>496</v>
+      </c>
+      <c r="I69" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="57" customFormat="1">
+      <c r="B70" s="57" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14140,7 +14229,7 @@
   <dimension ref="A1:AD109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14173,22 +14262,22 @@
         <v>24</v>
       </c>
       <c r="D1" s="190" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>2</v>
@@ -14200,12 +14289,12 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="T1" s="105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="36" customFormat="1">
       <c r="A2" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="192">
         <f>C4+C5</f>
@@ -14214,15 +14303,15 @@
       <c r="D2" s="193"/>
       <c r="G2" s="53"/>
       <c r="K2" s="232" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="46" customFormat="1">
       <c r="A3" s="110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="99" t="s">
         <v>227</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>228</v>
       </c>
       <c r="C3" s="194">
         <f>E3*G3</f>
@@ -14236,24 +14325,24 @@
       <c r="F3" s="112"/>
       <c r="G3" s="206"/>
       <c r="H3" s="99" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I3" s="279" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J3" s="231" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K3" s="99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C4" s="196">
         <f>E3*G4</f>
@@ -14271,7 +14360,7 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="105" t="s">
         <v>28</v>
@@ -14285,16 +14374,16 @@
         <v>0.45</v>
       </c>
       <c r="H5" s="105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I5" s="105"/>
       <c r="K5" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="36" customFormat="1">
       <c r="A6" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="192"/>
@@ -14309,10 +14398,10 @@
       </c>
       <c r="H7" s="105"/>
       <c r="I7" s="105" t="s">
+        <v>399</v>
+      </c>
+      <c r="K7" s="105" t="s">
         <v>400</v>
-      </c>
-      <c r="K7" s="105" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -14328,16 +14417,16 @@
       </c>
       <c r="F8" s="184"/>
       <c r="H8" s="108" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I8" s="108"/>
       <c r="K8" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B9" s="189" t="s">
         <v>22</v>
@@ -14347,18 +14436,18 @@
       </c>
       <c r="F9" s="184"/>
       <c r="H9" s="108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I9" s="108" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K9" s="189" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="105" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B10" s="189" t="s">
         <v>22</v>
@@ -14369,13 +14458,13 @@
       </c>
       <c r="F10" s="184"/>
       <c r="H10" s="105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I10" s="105" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K10" s="177" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Y10" s="37" t="e">
         <f>#REF!*44/12</f>
@@ -14390,7 +14479,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="185">
         <f>Parameters!E26</f>
@@ -14399,7 +14488,7 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="184">
         <f>Parameters!D26</f>
@@ -14411,33 +14500,33 @@
         <v>76</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="186">
-        <f>Parameters!E26*Parameters!B26</f>
-        <v>100.23333333333332</v>
+        <f>Parameters!E26*Parameters!D26</f>
+        <v>90.21</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="48" customFormat="1">
       <c r="A14" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="197">
         <f>F13*D16*Parameters!C19*Parameters!C6</f>
-        <v>703.65075343316744</v>
+        <v>633.28567808985076</v>
       </c>
       <c r="D14" s="198"/>
       <c r="H14" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -14445,7 +14534,7 @@
         <v>80</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" s="35">
         <f>GlobalFactors.csv!F23</f>
@@ -14455,43 +14544,43 @@
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="196">
         <f>E87</f>
         <v>0.37420720881899283</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="105"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1">
       <c r="A17" s="105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" s="105" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="196">
         <f>D16*F13*G15*Parameters!C19*Parameters!C6</f>
-        <v>703.65075343316744</v>
+        <v>633.28567808985076</v>
       </c>
       <c r="Q17" s="105"/>
     </row>
     <row r="18" spans="1:25" s="36" customFormat="1">
       <c r="A18" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="192">
         <f>D23*Parameters!C14/1000</f>
-        <v>63.050828325271922</v>
+        <v>56.745745492744724</v>
       </c>
       <c r="D18" s="193"/>
       <c r="G18" s="36">
@@ -14507,46 +14596,46 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="199">
         <f>F87*E10</f>
         <v>0.30109508457674078</v>
       </c>
       <c r="K19" s="105" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="105"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="199">
         <f>F13*D19</f>
-        <v>30.179763977408648</v>
+        <v>27.161787579667784</v>
       </c>
       <c r="G20" s="179">
         <f>Parameters!C20</f>
         <v>35315</v>
       </c>
       <c r="H20" s="105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I20" s="105"/>
       <c r="K20" s="105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="233" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B21" s="233" t="s">
         <v>22</v>
@@ -14556,15 +14645,15 @@
       <c r="H21" s="105"/>
       <c r="I21" s="105"/>
       <c r="K21" s="233" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="189" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" s="189" t="s">
         <v>425</v>
-      </c>
-      <c r="B22" s="189" t="s">
-        <v>426</v>
       </c>
       <c r="D22" s="199"/>
       <c r="E22" s="179">
@@ -14574,11 +14663,11 @@
       <c r="F22" s="179"/>
       <c r="G22" s="233"/>
       <c r="H22" s="233" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I22" s="105"/>
       <c r="K22" s="233" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -14586,15 +14675,15 @@
         <v>13</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="196">
         <f>D20*G20/E22</f>
-        <v>91.093877338648412</v>
+        <v>81.984489604783562</v>
       </c>
       <c r="I23" s="105"/>
       <c r="K23" s="233" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="120" customFormat="1">
@@ -14613,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="120" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X24" s="120" t="e">
         <f>#REF!*1.1</f>
@@ -14625,10 +14714,10 @@
     </row>
     <row r="25" spans="1:25" s="110" customFormat="1">
       <c r="A25" s="110" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="194"/>
       <c r="D25" s="194"/>
@@ -14637,15 +14726,15 @@
         <v>145.62668113648343</v>
       </c>
       <c r="J25" s="110" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K25" s="110" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="110" customFormat="1">
       <c r="A26" s="110" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B26" s="110" t="s">
         <v>22</v>
@@ -14657,33 +14746,33 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="J26" s="110" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K26" s="110" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="41" customFormat="1">
       <c r="A27" s="41" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C27" s="192"/>
       <c r="D27" s="192"/>
       <c r="E27" s="241"/>
       <c r="F27" s="242"/>
       <c r="J27" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="46" customFormat="1">
       <c r="A28" s="110" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B28" s="187" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C28" s="195"/>
       <c r="D28" s="194">
@@ -14695,15 +14784,15 @@
       <c r="H28" s="239"/>
       <c r="I28" s="239"/>
       <c r="K28" s="110" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="233" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B29" s="233" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G29" s="178"/>
       <c r="H29" s="244">
@@ -14713,19 +14802,19 @@
       <c r="I29" s="261"/>
       <c r="J29" s="28"/>
       <c r="K29" s="233" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="41" t="s">
-        <v>107</v>
+        <v>387</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C31" s="192">
         <f>SUM(C14,C18,C24,C2)</f>
-        <v>700.28372297864587</v>
+        <v>623.61356480280199</v>
       </c>
       <c r="K31" s="105"/>
     </row>
@@ -14739,7 +14828,7 @@
         <v>93</v>
       </c>
       <c r="H34" s="234" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L34" s="36" t="s">
         <v>94</v>
@@ -14748,19 +14837,19 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="117" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
       <c r="T34" s="36"/>
       <c r="W34" s="105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="16">
       <c r="B35" s="105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C35" s="201"/>
       <c r="D35" s="113" t="s">
@@ -14772,7 +14861,7 @@
       <c r="L35" s="119"/>
       <c r="M35" s="36"/>
       <c r="N35" s="117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O35" s="36" t="s">
         <v>90</v>
@@ -14787,19 +14876,19 @@
         <v>89</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C36" s="201" t="s">
         <v>91</v>
       </c>
       <c r="D36" s="262" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E36" s="105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F36" s="105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>88</v>
@@ -17648,7 +17737,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="263" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B88" s="105"/>
       <c r="Z88" s="35" t="e">
@@ -17675,7 +17764,7 @@
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AD90" s="26" t="s">
         <v>69</v>
@@ -17694,11 +17783,11 @@
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B92" s="106">
         <f>D20</f>
-        <v>30.179763977408648</v>
+        <v>27.161787579667784</v>
       </c>
       <c r="C92" s="113" t="s">
         <v>70</v>
@@ -17737,14 +17826,14 @@
         <v>3412</v>
       </c>
       <c r="L94" s="105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M94" s="107">
         <f>K94/B94</f>
         <v>0.29162393162393163</v>
       </c>
       <c r="N94" s="105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -17758,13 +17847,13 @@
         <v>63</v>
       </c>
       <c r="K95" s="105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:30">
       <c r="B96" s="26">
         <f>B92*B93/B94*B95</f>
-        <v>91.093877338648412</v>
+        <v>81.984489604783562</v>
       </c>
       <c r="C96" s="113" t="s">
         <v>61</v>
@@ -17791,7 +17880,7 @@
     <row r="98" spans="1:15">
       <c r="B98" s="30">
         <f>B96*B97</f>
-        <v>-48.951731092617031</v>
+        <v>-44.056557983355326</v>
       </c>
       <c r="C98" s="113" t="s">
         <v>57</v>
@@ -17833,60 +17922,60 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="C102" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="C102" s="113" t="s">
+      <c r="D102" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="113" t="s">
+      <c r="E102" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="G102" s="26" t="s">
         <v>306</v>
-      </c>
-      <c r="G102" s="26" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C103" s="113" t="s">
         <v>308</v>
       </c>
-      <c r="B103" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C103" s="113" t="s">
+      <c r="D103" s="113" t="s">
         <v>309</v>
       </c>
-      <c r="D103" s="113" t="s">
+      <c r="E103" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="G103" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="G103" s="26" t="s">
+      <c r="H103" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="H103" s="26" t="s">
+      <c r="J103" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="J103" s="26" t="s">
+      <c r="K103" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="L103" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="K103" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="L103" s="26" t="s">
+      <c r="M103" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="M103" s="26" t="s">
+      <c r="N103" s="26" t="s">
         <v>316</v>
-      </c>
-      <c r="N103" s="26" t="s">
-        <v>317</v>
       </c>
       <c r="O103" s="26">
         <v>-2009</v>
@@ -17894,40 +17983,40 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C104" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="D104" s="113" t="s">
         <v>309</v>
-      </c>
-      <c r="D104" s="113" t="s">
-        <v>310</v>
       </c>
       <c r="E104" s="26">
         <v>2.7</v>
       </c>
       <c r="G104" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="H104" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="H104" s="26" t="s">
+      <c r="J104" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="J104" s="26" t="s">
+      <c r="K104" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="L104" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="K104" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="L104" s="26" t="s">
+      <c r="M104" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="M104" s="26" t="s">
+      <c r="N104" s="26" t="s">
         <v>316</v>
-      </c>
-      <c r="N104" s="26" t="s">
-        <v>317</v>
       </c>
       <c r="O104" s="26">
         <v>-2009</v>
@@ -17935,34 +18024,34 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C105" s="113" t="s">
+        <v>318</v>
+      </c>
+      <c r="D105" s="113" t="s">
         <v>319</v>
       </c>
-      <c r="D105" s="113" t="s">
+      <c r="E105" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="H105" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="E105" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="G105" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H105" s="26" t="s">
-        <v>321</v>
-      </c>
       <c r="J105" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="K105" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="K105" s="26" t="s">
+      <c r="L105" s="26" t="s">
         <v>316</v>
-      </c>
-      <c r="L105" s="26" t="s">
-        <v>317</v>
       </c>
       <c r="M105" s="26">
         <v>-2009</v>
@@ -17970,34 +18059,34 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C106" s="113" t="s">
         <v>50</v>
       </c>
       <c r="D106" s="113" t="s">
+        <v>322</v>
+      </c>
+      <c r="E106" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="G106" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="H106" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="J106" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="K106" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="G106" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="H106" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="J106" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="K106" s="26" t="s">
+      <c r="L106" s="26" t="s">
         <v>325</v>
-      </c>
-      <c r="L106" s="26" t="s">
-        <v>326</v>
       </c>
       <c r="M106" s="26">
         <v>10</v>
@@ -18005,34 +18094,34 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" s="113" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107" s="113" t="s">
         <v>322</v>
       </c>
-      <c r="B107" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C107" s="113" t="s">
+      <c r="E107" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="D107" s="113" t="s">
-        <v>323</v>
-      </c>
-      <c r="E107" s="26" t="s">
+      <c r="G107" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="H107" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="J107" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="K107" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="G107" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="H107" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="J107" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="K107" s="26" t="s">
-        <v>329</v>
-      </c>
       <c r="L107" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M107" s="26">
         <v>10</v>
@@ -18040,34 +18129,34 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C108" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" s="113" t="s">
         <v>322</v>
       </c>
-      <c r="B108" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C108" s="113" t="s">
+      <c r="E108" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="113" t="s">
-        <v>323</v>
-      </c>
-      <c r="E108" s="26" t="s">
+      <c r="G108" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="H108" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="J108" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="K108" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="G108" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="H108" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="J108" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="K108" s="26" t="s">
-        <v>332</v>
-      </c>
       <c r="L108" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M108" s="26">
         <v>10</v>
@@ -18075,43 +18164,43 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C109" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="D109" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="D109" s="113" t="s">
+      <c r="E109" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G109" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="H109" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="E109" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="G109" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H109" s="26" t="s">
+      <c r="J109" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="K109" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="J109" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="K109" s="26" t="s">
+      <c r="L109" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="L109" s="26" t="s">
+      <c r="M109" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="M109" s="26" t="s">
+      <c r="N109" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="N109" s="26" t="s">
+      <c r="O109" s="26" t="s">
         <v>339</v>
-      </c>
-      <c r="O109" s="26" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -18155,22 +18244,22 @@
         <v>24</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>5</v>
@@ -18179,7 +18268,7 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="T1" s="105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" hidden="1">
@@ -18195,7 +18284,7 @@
     </row>
     <row r="3" spans="1:20" hidden="1">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -18207,7 +18296,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:20" hidden="1">
@@ -18248,35 +18337,35 @@
     </row>
     <row r="7" spans="1:20" hidden="1">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:20" hidden="1">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="98"/>
       <c r="H8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:20" hidden="1">
       <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" t="s">
         <v>117</v>
-      </c>
-      <c r="H9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="44" customFormat="1">
       <c r="A10" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C10" s="247">
         <f>D13*(GlobalFactors.csv!F4+GlobalFactors.csv!F3)</f>
@@ -18285,10 +18374,10 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E11">
         <v>10.6</v>
@@ -18296,31 +18385,31 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E12">
         <v>0.25</v>
       </c>
       <c r="J12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D13">
         <f>E11*E12</f>
         <v>2.65</v>
       </c>
       <c r="J13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1">
@@ -18334,7 +18423,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>21</v>
@@ -18350,10 +18439,10 @@
     </row>
     <row r="16" spans="1:20" s="15" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E16" s="265">
         <f>GlobalFactors.csv!F27</f>
@@ -18361,15 +18450,15 @@
       </c>
       <c r="F16" s="258"/>
       <c r="I16" s="14" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>21</v>
@@ -18379,16 +18468,16 @@
         <v>90.21</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:12" s="250" customFormat="1" ht="14" customHeight="1">
       <c r="A18" s="254" t="s">
+        <v>438</v>
+      </c>
+      <c r="B18" s="254" t="s">
         <v>439</v>
-      </c>
-      <c r="B18" s="254" t="s">
-        <v>440</v>
       </c>
       <c r="C18" s="255"/>
       <c r="D18" s="256"/>
@@ -18400,7 +18489,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="250" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J18" s="250" t="s">
         <v>17</v>
@@ -18408,10 +18497,10 @@
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="266">
         <f>D17*E19</f>
@@ -18423,16 +18512,16 @@
       </c>
       <c r="F19" s="258"/>
       <c r="H19" s="15" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C20" s="259"/>
       <c r="D20" s="259">
@@ -18445,7 +18534,7 @@
     </row>
     <row r="21" spans="1:12" s="15" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>21</v>
@@ -18460,19 +18549,19 @@
       </c>
       <c r="F21" s="258"/>
       <c r="H21" s="15" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="15" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="15" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D22" s="266">
         <f>D21*Parameters!C19</f>
@@ -18482,15 +18571,15 @@
       <c r="G22" s="265"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="267">
         <f>D17-D21-D19</f>
@@ -18499,13 +18588,13 @@
       <c r="F23" s="258"/>
       <c r="G23" s="265"/>
       <c r="H23" s="15" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>28</v>
@@ -18518,10 +18607,10 @@
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A25" s="209" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C25" s="83"/>
       <c r="D25" s="214"/>
@@ -18540,7 +18629,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="209" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>28</v>
@@ -18556,10 +18645,10 @@
     </row>
     <row r="27" spans="1:12" s="250" customFormat="1">
       <c r="A27" s="254" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="254" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D27" s="257"/>
       <c r="E27" s="257">
@@ -18571,10 +18660,10 @@
         <v>16</v>
       </c>
       <c r="I27" s="250" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J27" s="250" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -18597,21 +18686,21 @@
         <v>2.3543133333333337</v>
       </c>
       <c r="J28" s="80" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K28">
         <v>35.314700000000002</v>
       </c>
       <c r="L28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="209" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D29" s="104"/>
       <c r="E29" s="10">
@@ -18623,15 +18712,15 @@
         <v>31</v>
       </c>
       <c r="I29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -18662,7 +18751,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>28</v>
@@ -18680,7 +18769,7 @@
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1">
       <c r="A34" s="82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C34" s="83"/>
       <c r="F34" s="204">
@@ -18690,7 +18779,7 @@
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>22</v>
@@ -18705,18 +18794,18 @@
         <v>10</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1">
       <c r="A36" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D36" s="205">
         <f>F34*1000*(1-E35)</f>
@@ -18725,10 +18814,10 @@
     </row>
     <row r="37" spans="1:10" s="250" customFormat="1">
       <c r="A37" s="252" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B37" s="250" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D37" s="251"/>
       <c r="E37" s="250">
@@ -18739,15 +18828,15 @@
         <v>10</v>
       </c>
       <c r="I37" s="253" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D38" s="84">
         <f>D36*E37</f>
@@ -18756,7 +18845,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -18774,7 +18863,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
@@ -18788,10 +18877,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" s="5"/>
       <c r="F41" s="284">
@@ -18802,7 +18891,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -18825,10 +18914,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="10">
@@ -18837,16 +18926,16 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E44" s="10">
         <f>GlobalFactors.csv!F37</f>
@@ -18854,7 +18943,7 @@
       </c>
       <c r="G44" s="6"/>
       <c r="H44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>42</v>
@@ -18862,7 +18951,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
@@ -18874,7 +18963,7 @@
     </row>
     <row r="46" spans="1:10" s="3" customFormat="1">
       <c r="A46" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>28</v>
@@ -18892,25 +18981,25 @@
     </row>
     <row r="48" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A48" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G48" s="235">
         <f>GlobalFactors.csv!F8</f>
         <v>0.03</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A49" s="45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>12</v>
@@ -18923,10 +19012,10 @@
     </row>
     <row r="50" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A50" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="D50" s="6">
         <f>E49*G48</f>
@@ -18937,7 +19026,7 @@
     </row>
     <row r="51" spans="1:11" s="250" customFormat="1" hidden="1">
       <c r="A51" s="250" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B51" s="250" t="s">
         <v>28</v>
@@ -18947,10 +19036,10 @@
         <v>43</v>
       </c>
       <c r="I51" s="250" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J51" s="250" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -18969,18 +19058,18 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B53" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="D53" s="315">
         <f>D52*E53</f>
@@ -18992,15 +19081,15 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C54" s="9">
         <f>D53*Parameters!C5*Parameters!C16</f>
@@ -19009,10 +19098,10 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D55" s="9">
         <f>D52*E55</f>
@@ -19023,15 +19112,15 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H55" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C56" s="285">
         <f>D55*E56*Parameters!C16*Parameters!C5</f>
@@ -19042,15 +19131,15 @@
         <v>0.01</v>
       </c>
       <c r="H56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B57" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="D57" s="18">
         <f>D52*E57</f>
@@ -19061,15 +19150,15 @@
         <v>0.18114999999999998</v>
       </c>
       <c r="H57" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B58" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C58" s="9">
         <f>D57*E56*Parameters!C16*Parameters!C5</f>
@@ -19078,7 +19167,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
@@ -19090,7 +19179,7 @@
     </row>
     <row r="60" spans="1:11" s="13" customFormat="1">
       <c r="A60" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C60" s="39">
         <f>C74</f>
@@ -19100,7 +19189,7 @@
     </row>
     <row r="61" spans="1:11" s="110" customFormat="1" ht="14">
       <c r="A61" s="110" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B61" s="110" t="s">
         <v>28</v>
@@ -19112,21 +19201,21 @@
         <v>145.62668113648343</v>
       </c>
       <c r="H61" s="110" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I61" s="110" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J61" s="110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="110" customFormat="1" ht="14" hidden="1">
       <c r="A62" s="110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B62" s="110" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C62" s="194"/>
       <c r="D62" s="194"/>
@@ -19141,10 +19230,10 @@
     </row>
     <row r="63" spans="1:11" s="46" customFormat="1" hidden="1">
       <c r="A63" s="110" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B63" s="210" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C63" s="260"/>
       <c r="D63" s="245">
@@ -19156,13 +19245,13 @@
         <v>0.15900000000000003</v>
       </c>
       <c r="J63" s="231" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K63" s="175"/>
     </row>
     <row r="64" spans="1:11" s="46" customFormat="1">
       <c r="A64" s="110" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B64" s="210"/>
       <c r="C64" s="260"/>
@@ -19176,10 +19265,10 @@
     </row>
     <row r="65" spans="1:11" s="46" customFormat="1">
       <c r="A65" s="110" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B65" s="231" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C65" s="260"/>
       <c r="D65" s="245">
@@ -19192,10 +19281,10 @@
     </row>
     <row r="66" spans="1:11" s="46" customFormat="1">
       <c r="A66" s="110" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B66" s="231" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C66" s="260"/>
       <c r="D66" s="245">
@@ -19208,10 +19297,10 @@
     </row>
     <row r="67" spans="1:11" s="46" customFormat="1">
       <c r="A67" s="110" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B67" s="231" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C67" s="260"/>
       <c r="D67" s="245">
@@ -19224,10 +19313,10 @@
     </row>
     <row r="68" spans="1:11" s="269" customFormat="1">
       <c r="A68" s="268" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B68" s="269" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D68" s="270">
         <f>D66*Parameters!C19*F68</f>
@@ -19238,15 +19327,15 @@
         <v>0.75</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="15" customFormat="1">
       <c r="A69" s="268" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D69" s="222">
         <f>D67*Parameters!C21*AD!F69</f>
@@ -19257,15 +19346,15 @@
         <v>0.27272727272727276</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1">
       <c r="A70" s="268" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D70" s="222">
         <f>D39/Parameters!C18</f>
@@ -19274,10 +19363,10 @@
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1">
       <c r="A71" s="268" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D71" s="266">
         <f>D26*Parameters!C19*F68</f>
@@ -19287,10 +19376,10 @@
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1">
       <c r="A72" s="268" t="s">
+        <v>597</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>598</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>599</v>
       </c>
       <c r="D72" s="266">
         <f>F61-D68-D69-D70-D71</f>
@@ -19300,10 +19389,10 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="110" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D73" s="80">
         <f>D72*F73</f>
@@ -19315,15 +19404,15 @@
       </c>
       <c r="G73" s="52"/>
       <c r="I73" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J73" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="15" customFormat="1">
       <c r="A74" s="268" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>28</v>
@@ -19339,7 +19428,7 @@
     </row>
     <row r="75" spans="1:11" s="43" customFormat="1">
       <c r="A75" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" s="169">
         <f>C14+C33+C47+C60+C10</f>
@@ -19363,7 +19452,7 @@
     </row>
     <row r="78" spans="1:11" s="6" customFormat="1">
       <c r="A78" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>46</v>
@@ -19383,10 +19472,10 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" t="s">
         <v>174</v>
-      </c>
-      <c r="B79" t="s">
-        <v>175</v>
       </c>
       <c r="C79" s="18">
         <f>G79*D78</f>
@@ -19397,12 +19486,12 @@
         <v>-8.85</v>
       </c>
       <c r="I79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D80" s="18">
         <f>F80*G80</f>
@@ -19419,10 +19508,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B81" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C81" s="285">
         <f>D80*G81</f>
@@ -19436,7 +19525,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D82" s="285">
         <f>F82*G82</f>
@@ -19453,10 +19542,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B83" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C83" s="285">
         <f>D82*G83</f>
@@ -19470,7 +19559,7 @@
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1">
       <c r="A84" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>28</v>
@@ -19483,7 +19572,7 @@
     </row>
     <row r="85" spans="1:8" s="6" customFormat="1">
       <c r="A85" s="82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C85" s="218">
         <f>C75+C84</f>
@@ -19509,7 +19598,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H90" s="98"/>
     </row>
@@ -19560,22 +19649,22 @@
         <v>24</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>5</v>
@@ -19584,7 +19673,7 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="T1" s="105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" hidden="1">
@@ -19634,10 +19723,10 @@
         <v>1.31</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I4" s="51" t="s">
         <v>79</v>
@@ -19685,10 +19774,10 @@
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1">
       <c r="A8" s="45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C8" s="211"/>
       <c r="E8" s="214">
@@ -19698,7 +19787,7 @@
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1">
       <c r="A9" s="45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
@@ -19721,7 +19810,7 @@
         <v>#REF!</v>
       </c>
       <c r="G10" s="219" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -19729,7 +19818,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -19740,12 +19829,12 @@
         <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -19757,17 +19846,17 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C13" s="18"/>
       <c r="E13" s="4">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -19784,32 +19873,32 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="4">
         <v>0.01</v>
       </c>
       <c r="H15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10">
         <v>0.2</v>
       </c>
       <c r="H16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -19826,16 +19915,16 @@
     </row>
     <row r="18" spans="1:11" s="13" customFormat="1">
       <c r="A18" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D18" s="101"/>
     </row>
     <row r="19" spans="1:11" s="110" customFormat="1" ht="14">
       <c r="A19" s="110" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" s="110" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C19" s="194"/>
       <c r="D19" s="194"/>
@@ -19844,18 +19933,18 @@
         <v>#REF!</v>
       </c>
       <c r="H19" s="110" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I19" s="110" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J19" s="110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="110" customFormat="1" ht="14">
       <c r="A20" s="110" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C20" s="194"/>
       <c r="D20" s="194"/>
@@ -19866,10 +19955,10 @@
     </row>
     <row r="21" spans="1:11" s="110" customFormat="1" ht="14">
       <c r="A21" s="110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B21" s="110" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C21" s="194"/>
       <c r="D21" s="194"/>
@@ -19884,10 +19973,10 @@
     </row>
     <row r="22" spans="1:11" s="46" customFormat="1" ht="14">
       <c r="A22" s="110" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B22" s="210" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D22" s="194" t="e">
         <f>F19*(1-F21)</f>
@@ -19895,13 +19984,13 @@
       </c>
       <c r="F22" s="156"/>
       <c r="J22" s="187" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K22" s="175"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="110" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C23" s="213" t="e">
         <f>-D23*Parameters!C17</f>
@@ -19923,18 +20012,18 @@
         <v>#REF!</v>
       </c>
       <c r="H23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="43" customFormat="1">
       <c r="A24" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="169" t="e">
         <f>C23+C7</f>
@@ -19952,7 +20041,7 @@
     </row>
     <row r="26" spans="1:11" s="44" customFormat="1">
       <c r="A26" s="82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="82" t="s">
         <v>22</v>
@@ -19965,7 +20054,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -19975,7 +20064,7 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C27" s="85"/>
       <c r="D27" s="87">
@@ -19988,7 +20077,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
@@ -20003,15 +20092,15 @@
       </c>
       <c r="G28" s="88"/>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="9">
         <f>F29*D28/1000</f>
@@ -20021,18 +20110,18 @@
         <v>-6.8</v>
       </c>
       <c r="G29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="9" t="e">
         <f>F30*D28/1000</f>
@@ -20043,18 +20132,18 @@
         <v>#REF!</v>
       </c>
       <c r="G30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" t="s">
         <v>368</v>
-      </c>
-      <c r="B31" t="s">
-        <v>369</v>
       </c>
       <c r="D31" s="9">
         <f>F31*D28/1000</f>
@@ -20064,24 +20153,24 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D32" s="9"/>
       <c r="F32" s="4">
         <v>0.75</v>
       </c>
       <c r="G32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="43" customFormat="1">
       <c r="A33" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" s="89" t="e">
         <f>C24+C25</f>
@@ -20103,7 +20192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -20123,22 +20212,22 @@
         <v>24</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>5</v>
@@ -20147,7 +20236,7 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="T1" s="105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="42" customFormat="1" ht="45">
@@ -20158,19 +20247,19 @@
         <v>24</v>
       </c>
       <c r="D2" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="42" t="s">
         <v>109</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>110</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>5</v>
@@ -20178,7 +20267,7 @@
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" hidden="1">
       <c r="A3" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="11">
         <f>C7</f>
@@ -20189,7 +20278,7 @@
     </row>
     <row r="4" spans="1:20" hidden="1">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -20203,7 +20292,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:20" hidden="1">
@@ -20224,10 +20313,10 @@
     </row>
     <row r="6" spans="1:20" hidden="1">
       <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" t="s">
         <v>209</v>
-      </c>
-      <c r="J6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:20" hidden="1">
@@ -20252,35 +20341,35 @@
     </row>
     <row r="9" spans="1:20" hidden="1">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9">
         <f>118*0.021*16/12</f>
         <v>3.3040000000000003</v>
       </c>
       <c r="J9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:20" hidden="1">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:20" hidden="1">
       <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
         <v>117</v>
-      </c>
-      <c r="J11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="13" customFormat="1">
       <c r="A12" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" s="39">
         <f>C14+C15</f>
@@ -20289,10 +20378,10 @@
     </row>
     <row r="13" spans="1:20" s="45" customFormat="1">
       <c r="A13" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="103"/>
       <c r="E13" s="236">
@@ -20300,19 +20389,19 @@
       </c>
       <c r="F13" s="295"/>
       <c r="H13" s="45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I13" s="45">
         <f>GlobalFactors.csv!G50</f>
         <v>0.13</v>
       </c>
       <c r="J13" s="176" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="45" customFormat="1">
       <c r="A14" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>28</v>
@@ -20326,15 +20415,15 @@
         <v>3.1704943424400001</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="45" customFormat="1">
       <c r="A15" s="45" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>28</v>
@@ -20349,12 +20438,12 @@
       </c>
       <c r="F15" s="295"/>
       <c r="H15" s="45" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="13" customFormat="1">
       <c r="A16" s="13" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C16" s="39">
         <f>C22+C26+C30</f>
@@ -20364,10 +20453,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -20376,16 +20465,16 @@
         <v>145.62668113648343</v>
       </c>
       <c r="I17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="266">
@@ -20398,22 +20487,22 @@
       </c>
       <c r="F18" s="298"/>
       <c r="H18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I18">
         <f>GlobalFactors.csv!G52</f>
         <v>0.4</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="163"/>
@@ -20426,10 +20515,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="222">
@@ -20438,19 +20527,19 @@
       </c>
       <c r="F20" s="298"/>
       <c r="H20" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="273">
@@ -20462,7 +20551,7 @@
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1">
       <c r="A22" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>28</v>
@@ -20475,15 +20564,15 @@
       <c r="E22" s="5"/>
       <c r="F22" s="295"/>
       <c r="J22" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D23" s="162"/>
       <c r="F23" s="297">
@@ -20493,10 +20582,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D24" s="294">
         <f>F23*E24</f>
@@ -20513,10 +20602,10 @@
     </row>
     <row r="25" spans="1:10" s="15" customFormat="1">
       <c r="A25" s="14" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D25" s="266">
         <f>F23*E25</f>
@@ -20528,21 +20617,21 @@
       </c>
       <c r="F25" s="299"/>
       <c r="H25" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C26" s="266">
         <f>D26*Parameters!C5</f>
@@ -20557,7 +20646,7 @@
     </row>
     <row r="27" spans="1:10" s="15" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C27" s="266"/>
       <c r="D27" s="290">
@@ -20569,10 +20658,10 @@
     </row>
     <row r="28" spans="1:10" s="15" customFormat="1">
       <c r="A28" s="14" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D28" s="291">
         <f>D27*E28</f>
@@ -20584,15 +20673,15 @@
       </c>
       <c r="F28" s="299"/>
       <c r="H28" s="15" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="14" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D29" s="292">
         <f>D28*GlobalFactors.csv!F37</f>
@@ -20602,7 +20691,7 @@
     </row>
     <row r="30" spans="1:10" s="15" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>28</v>
@@ -20615,7 +20704,7 @@
     </row>
     <row r="31" spans="1:10" s="309" customFormat="1">
       <c r="A31" s="309" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C31" s="310">
         <f>C12+C16</f>
@@ -20625,7 +20714,7 @@
     </row>
     <row r="32" spans="1:10" s="44" customFormat="1">
       <c r="A32" s="158" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B32" s="158"/>
       <c r="C32" s="170">
@@ -20639,10 +20728,10 @@
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A33" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F33" s="301"/>
       <c r="G33" s="293">
@@ -20650,18 +20739,18 @@
         <v>0.03</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A34" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>12</v>
@@ -20673,15 +20762,15 @@
       <c r="F34" s="301"/>
       <c r="G34" s="212"/>
       <c r="J34" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A35" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="D35" s="5">
         <f>E34*G33</f>
@@ -20690,12 +20779,12 @@
       <c r="E35" s="212"/>
       <c r="F35" s="301"/>
       <c r="J35" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="45" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="5"/>
@@ -20707,7 +20796,7 @@
     </row>
     <row r="37" spans="1:10" s="45" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="5"/>
@@ -20721,10 +20810,10 @@
     </row>
     <row r="38" spans="1:10" s="45" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="267">
@@ -20737,7 +20826,7 @@
     </row>
     <row r="39" spans="1:10" s="82" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B39" s="82" t="s">
         <v>28</v>
@@ -20754,16 +20843,16 @@
         <v>-8.85</v>
       </c>
       <c r="H39" s="82" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J39" s="164"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C40" s="80">
         <f>F40*G40</f>
@@ -20782,15 +20871,15 @@
         <v>-1.8</v>
       </c>
       <c r="H40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="14" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C41" s="80">
         <f>F41*E41*G41</f>
@@ -20811,7 +20900,7 @@
     </row>
     <row r="42" spans="1:10" s="305" customFormat="1">
       <c r="A42" s="304" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C42" s="306">
         <f>C32+C16+C12</f>
@@ -20821,7 +20910,7 @@
     </row>
     <row r="43" spans="1:10" s="183" customFormat="1">
       <c r="A43" s="158" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C43" s="169">
         <f>C46+C48+C50+C51</f>
@@ -20833,7 +20922,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="161">
@@ -20842,15 +20931,15 @@
       </c>
       <c r="E44" s="236"/>
       <c r="H44" s="45" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J44" s="167" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="14" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -20860,15 +20949,15 @@
         <v>1.6E-2</v>
       </c>
       <c r="H45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -20884,7 +20973,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="14" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -20898,10 +20987,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B48" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C48" s="243">
         <f>D48*GlobalFactors.csv!F37*Parameters!C5*Parameters!C16</f>
@@ -20914,7 +21003,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="C49" s="243"/>
       <c r="D49" s="80"/>
@@ -20925,10 +21014,10 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B50" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C50" s="80">
         <f>D50*Parameters!C16*Parameters!C5*GlobalFactors.csv!F37</f>
@@ -20939,12 +21028,12 @@
         <v>8.1168000000000004E-2</v>
       </c>
       <c r="J50" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C51" s="80">
         <f>C48+C50</f>
@@ -20953,7 +21042,7 @@
     </row>
     <row r="52" spans="1:10" s="44" customFormat="1">
       <c r="A52" s="158" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B52" s="158"/>
       <c r="C52" s="169">
@@ -20966,10 +21055,10 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B53" t="s">
         <v>376</v>
-      </c>
-      <c r="B53" t="s">
-        <v>377</v>
       </c>
       <c r="C53" s="80"/>
       <c r="D53">
@@ -20981,37 +21070,37 @@
         <v>0.6</v>
       </c>
       <c r="H53" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I53" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A54" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G54" s="235">
         <f>GlobalFactors.csv!F8</f>
         <v>0.03</v>
       </c>
       <c r="H54" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A55" s="45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>12</v>
@@ -21024,10 +21113,10 @@
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A56" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="D56" s="6">
         <f>E55*G54</f>
@@ -21038,7 +21127,7 @@
     </row>
     <row r="57" spans="1:10" s="250" customFormat="1" hidden="1">
       <c r="A57" s="250" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B57" s="250" t="s">
         <v>28</v>
@@ -21051,12 +21140,12 @@
         <v>43</v>
       </c>
       <c r="I57" s="250" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="45" customFormat="1">
       <c r="A58" s="14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="5"/>
@@ -21069,7 +21158,7 @@
     </row>
     <row r="59" spans="1:10" s="45" customFormat="1">
       <c r="A59" s="14" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="5"/>
@@ -21082,10 +21171,10 @@
     </row>
     <row r="60" spans="1:10" s="14" customFormat="1">
       <c r="A60" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D60" s="267">
         <f>D59*F58</f>
@@ -21096,7 +21185,7 @@
     </row>
     <row r="61" spans="1:10" s="14" customFormat="1">
       <c r="A61" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -21111,15 +21200,15 @@
         <v>-8.85</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="15" customFormat="1">
       <c r="A62" s="15" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C62" s="290">
         <f>C40</f>
@@ -21134,15 +21223,15 @@
         <v>-1.8</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="15" customFormat="1">
       <c r="A63" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C63" s="290">
         <f>C41</f>
@@ -21159,7 +21248,7 @@
     </row>
     <row r="64" spans="1:10" s="13" customFormat="1">
       <c r="A64" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C64" s="39">
         <f>C69</f>
@@ -21168,26 +21257,26 @@
     </row>
     <row r="65" spans="1:11" s="6" customFormat="1">
       <c r="A65" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>360</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>361</v>
       </c>
       <c r="D65" s="104">
         <f>F17*(1-E18)</f>
         <v>61.163206077323046</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K65" s="102"/>
     </row>
     <row r="66" spans="1:11" s="6" customFormat="1">
       <c r="A66" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>363</v>
       </c>
       <c r="D66" s="104">
         <f>D65*F66</f>
@@ -21198,16 +21287,16 @@
         <v>0.1</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K66" s="102"/>
     </row>
     <row r="67" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A67" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" s="80"/>
       <c r="D67" s="104">
@@ -21217,16 +21306,16 @@
       <c r="E67" s="102"/>
       <c r="F67" s="102"/>
       <c r="J67" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K67" s="102"/>
     </row>
     <row r="68" spans="1:11" s="6" customFormat="1">
       <c r="A68" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C68" s="80"/>
       <c r="D68" s="104">
@@ -21242,10 +21331,10 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C69" s="80">
         <f>D68*-Parameters!C17</f>
@@ -21254,12 +21343,12 @@
       <c r="D69" s="80"/>
       <c r="I69" s="155"/>
       <c r="J69" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="44" customFormat="1">
       <c r="A70" s="158" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C70" s="169">
         <f>C64+C52+C43</f>
@@ -21268,7 +21357,7 @@
     </row>
     <row r="71" spans="1:11" s="305" customFormat="1">
       <c r="A71" s="304" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C71" s="308">
         <f>C70+C12+C16</f>
@@ -21277,7 +21366,7 @@
     </row>
     <row r="72" spans="1:11" s="44" customFormat="1">
       <c r="A72" s="158" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B72" s="44" t="s">
         <v>28</v>
@@ -21289,7 +21378,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -21297,10 +21386,10 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B74" t="s">
         <v>379</v>
-      </c>
-      <c r="B74" t="s">
-        <v>380</v>
       </c>
       <c r="D74">
         <f>D53</f>
@@ -21309,10 +21398,10 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B75" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C75">
         <f>F75*D74/1000</f>
@@ -21323,15 +21412,15 @@
         <v>-970</v>
       </c>
       <c r="H75" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="305" customFormat="1">
       <c r="A76" s="305" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C76" s="308">
         <f>C72+C16+C12</f>
@@ -21343,7 +21432,7 @@
     </row>
     <row r="78" spans="1:11" s="57" customFormat="1">
       <c r="A78" s="57" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C78" s="312">
         <f>0.21*C76+0.18*C42+0.61*C31</f>
@@ -21366,7 +21455,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21383,13 +21472,13 @@
         <v>24</v>
       </c>
       <c r="D1" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>109</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>110</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>2</v>
@@ -21400,10 +21489,10 @@
     </row>
     <row r="2" spans="1:10" s="44" customFormat="1">
       <c r="A2" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C2" s="247">
         <f>D5*(GlobalFactors.csv!F4+GlobalFactors.csv!F3)</f>
@@ -21412,10 +21501,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E3">
         <v>10.6</v>
@@ -21423,45 +21512,45 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E4">
         <v>0.25</v>
       </c>
       <c r="J4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5">
         <f>E3*E4</f>
         <v>2.65</v>
       </c>
       <c r="J5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1">
       <c r="A6" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="78">
         <f>F13*E12*(1-C11)</f>
-        <v>-563.3479338842975</v>
+        <v>-181.63636363636365</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="44" customFormat="1">
       <c r="A7" s="44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C7" s="78"/>
     </row>
@@ -21473,44 +21562,44 @@
     </row>
     <row r="9" spans="1:10" s="82" customFormat="1">
       <c r="A9" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="220"/>
     </row>
     <row r="10" spans="1:10" s="44" customFormat="1">
       <c r="A10" s="44" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C10" s="78"/>
     </row>
     <row r="11" spans="1:10" s="82" customFormat="1">
       <c r="A11" s="45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B11" s="82" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="248">
-        <f>GlobalFactors.csv!F66</f>
+        <f>GlobalFactors.csv!F68</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C12" s="77"/>
       <c r="E12" s="100">
-        <f>D29</f>
-        <v>1.0573347107438016</v>
+        <f>(Parameters!B26*0.88)/(0.88*0.88)</f>
+        <v>0.34090909090909094</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -21522,19 +21611,19 @@
     </row>
     <row r="14" spans="1:10" s="43" customFormat="1">
       <c r="A14" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="79" t="e">
-        <f>#REF!+C6</f>
-        <v>#REF!</v>
+      <c r="C14" s="79">
+        <f>C6+C2</f>
+        <v>-173.23455362889766</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17">
       <c r="A24" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -21542,13 +21631,13 @@
     </row>
     <row r="25" spans="1:14" ht="45">
       <c r="B25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>2</v>
@@ -21564,7 +21653,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26">
         <v>88</v>
@@ -21577,7 +21666,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J26" s="50"/>
       <c r="K26" s="68"/>
@@ -21587,7 +21676,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27">
         <v>22</v>
@@ -21600,7 +21689,7 @@
         <v>0.19573863636363639</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" s="77">
         <v>-110.52727272727275</v>
@@ -21626,7 +21715,7 @@
         <v>7.3217975206611566E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" s="77">
         <v>-37.995041322314044</v>
@@ -21639,7 +21728,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29">
         <v>92</v>
@@ -21652,7 +21741,7 @@
         <v>1.0573347107438016</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="77">
         <v>-620.59214876033047</v>
@@ -21665,7 +21754,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="J30" s="50"/>
       <c r="K30" s="68"/>
@@ -21699,7 +21788,7 @@
     </row>
     <row r="34" spans="1:14" ht="16" thickBot="1">
       <c r="A34" s="135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
@@ -21709,47 +21798,47 @@
     </row>
     <row r="35" spans="1:14" ht="16" thickBot="1">
       <c r="A35" s="135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="16" thickBot="1">
       <c r="A36" s="135" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="16" thickBot="1">
       <c r="A37" s="135" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="16" thickBot="1">
       <c r="A38" s="135" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="16" thickBot="1">
       <c r="A39" s="135" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="16" thickBot="1">
       <c r="A40" s="135" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="16" thickBot="1">
       <c r="A41" s="135" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="16" thickBot="1">
       <c r="A42" s="135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="16" thickBot="1">
       <c r="A43" s="136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="16" thickTop="1"/>
@@ -21792,22 +21881,22 @@
         <v>24</v>
       </c>
       <c r="D1" s="190" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>5</v>
@@ -21816,12 +21905,12 @@
         <v>3.7854100000000002</v>
       </c>
       <c r="T1" s="105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C2" s="191"/>
       <c r="D2" s="191"/>
@@ -21830,103 +21919,103 @@
     </row>
     <row r="3" spans="1:20">
       <c r="B3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H3">
         <f>2.6/16</f>
         <v>0.16250000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G4">
         <v>-1225</v>
       </c>
       <c r="H4" s="229" t="s">
+        <v>485</v>
+      </c>
+      <c r="I4" t="s">
         <v>486</v>
       </c>
-      <c r="I4" t="s">
-        <v>487</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G5">
         <v>6.8</v>
       </c>
       <c r="H5" s="229" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I5">
         <v>6.8</v>
       </c>
       <c r="J5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6" s="229" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G7">
         <f>-1081*1.1</f>
         <v>-1189.1000000000001</v>
       </c>
       <c r="H7" s="229" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I7" s="228" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C8">
         <f>G7*H3</f>
@@ -21993,10 +22082,10 @@
         <v>-177</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -22036,7 +22125,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -22081,40 +22170,40 @@
     <row r="46" spans="1:13">
       <c r="A46" s="54"/>
       <c r="B46" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="I46" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="J46" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="K46" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="L46" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="F46" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="G46" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="H46" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="J46" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="K46" s="66" t="s">
+      <c r="M46" s="66" t="s">
         <v>191</v>
-      </c>
-      <c r="L46" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="M46" s="66" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -22247,7 +22336,7 @@
     </row>
     <row r="83" spans="2:8">
       <c r="B83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -22317,13 +22406,13 @@
     </row>
     <row r="91" spans="2:8" ht="45">
       <c r="C91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>2</v>
@@ -22331,7 +22420,7 @@
     </row>
     <row r="92" spans="2:8">
       <c r="B92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92">
         <v>88</v>
@@ -22343,12 +22432,12 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C93">
         <v>22</v>
@@ -22360,7 +22449,7 @@
         <v>0.19573863636363639</v>
       </c>
       <c r="F93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="2:8">
@@ -22377,12 +22466,12 @@
         <v>7.3217975206611566E-2</v>
       </c>
       <c r="F94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C95">
         <v>92</v>
@@ -22394,7 +22483,7 @@
         <v>1.0573347107438016</v>
       </c>
       <c r="F95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/GlobalFactors.xlsx
+++ b/GlobalFactors.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="980">
   <si>
     <t>Hauling</t>
   </si>
@@ -3253,9 +3253,6 @@
     <t>kg compost/kg peat</t>
   </si>
   <si>
-    <t>Compost displacement</t>
-  </si>
-  <si>
     <t>% displaced peat</t>
   </si>
   <si>
@@ -3263,6 +3260,9 @@
   </si>
   <si>
     <t>Peat_substitution</t>
+  </si>
+  <si>
+    <t>Compost Peat displacement</t>
   </si>
 </sst>
 </file>
@@ -3280,14 +3280,7 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3345,6 +3338,24 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3353,14 +3364,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3601,40 +3612,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -3645,7 +3622,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0D0B0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -3656,6 +3729,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0F0D0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -3721,119 +3811,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0D0B0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0F0D0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4070,509 +4047,219 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="328">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="29" borderId="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="24"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="27" applyFont="1"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="169" fontId="13" fillId="12" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" xfId="27" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" xfId="27" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="27" applyFill="1"/>
+    <xf numFmtId="169" fontId="14" fillId="31" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="19" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="19" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="23" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="38" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="37" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="39" fillId="25" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFont="1"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="30" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="27" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="13" fillId="11" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" xfId="27" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="14" fillId="30" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="27" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4587,268 +4274,268 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="44" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="13" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="37" fillId="11" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="30" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="39" fillId="30" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="44" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="19" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="23" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="8" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="27" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="27" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="27" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="25" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="25" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="25" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFont="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="23" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="13" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="24" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="25" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="13" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="23" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="23" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="26" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="21" fillId="28" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="25" fillId="30" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="14" fillId="30" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="14" fillId="26" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="26" fillId="30" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="27" fillId="30" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="14" fillId="29" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="25" fillId="28" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="43" fontId="25" fillId="25" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="28" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="12" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="14" fillId="31" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="19" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="19" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="20" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="19" fillId="30" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="22" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="46" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="9" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="44" fillId="0" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="27" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="23" fillId="11" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="23" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="10" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="11" fillId="11" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="10" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="10" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="25" fillId="30" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="30" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="25" fillId="26" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="30" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="9" fillId="25" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="13" fillId="30" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="25" borderId="0" xfId="30" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="23" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="9" fillId="26" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="9" fillId="26" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="6" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="6" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="25" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="17" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="10" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="10" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="19" fillId="28" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="9" fillId="25" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="19" fillId="30" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="31" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="19" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="9" fillId="31" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="7" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="52" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="52" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4856,11 +4543,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4873,63 +4560,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="42" fillId="0" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="42" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="42" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="44" fillId="0" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="6" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="24" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4938,361 +4625,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="1" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="1" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="328">
-    <cellStyle name="20% - Accent1 2" xfId="234"/>
-    <cellStyle name="20% - Accent2 2" xfId="235"/>
-    <cellStyle name="20% - Accent3 2" xfId="236"/>
-    <cellStyle name="20% - Accent4 2" xfId="237"/>
-    <cellStyle name="20% - Accent5 2" xfId="238"/>
-    <cellStyle name="20% - Accent6 2" xfId="239"/>
-    <cellStyle name="40% - Accent1 2" xfId="240"/>
-    <cellStyle name="40% - Accent2 2" xfId="241"/>
-    <cellStyle name="40% - Accent3 2" xfId="242"/>
-    <cellStyle name="40% - Accent4 2" xfId="243"/>
-    <cellStyle name="40% - Accent5 2" xfId="244"/>
-    <cellStyle name="40% - Accent6 2" xfId="245"/>
-    <cellStyle name="Bad 2" xfId="1"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3"/>
-    <cellStyle name="Comma 3" xfId="233"/>
-    <cellStyle name="FlowLabel" xfId="246"/>
-    <cellStyle name="FlowLabel 2" xfId="247"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="Good 2" xfId="4"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
-    <cellStyle name="Label" xfId="248"/>
-    <cellStyle name="Label 2" xfId="249"/>
-    <cellStyle name="Neutral 2" xfId="5"/>
+  <cellStyles count="38">
+    <cellStyle name="20% - Accent1 2" xfId="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="2"/>
+    <cellStyle name="20% - Accent3 2" xfId="3"/>
+    <cellStyle name="20% - Accent4 2" xfId="4"/>
+    <cellStyle name="20% - Accent5 2" xfId="5"/>
+    <cellStyle name="20% - Accent6 2" xfId="6"/>
+    <cellStyle name="40% - Accent1 2" xfId="7"/>
+    <cellStyle name="40% - Accent2 2" xfId="8"/>
+    <cellStyle name="40% - Accent3 2" xfId="9"/>
+    <cellStyle name="40% - Accent4 2" xfId="10"/>
+    <cellStyle name="40% - Accent5 2" xfId="11"/>
+    <cellStyle name="40% - Accent6 2" xfId="12"/>
+    <cellStyle name="Bad 2" xfId="13"/>
+    <cellStyle name="Comma" xfId="14" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="15"/>
+    <cellStyle name="Comma 3" xfId="16"/>
+    <cellStyle name="FlowLabel" xfId="17"/>
+    <cellStyle name="FlowLabel 2" xfId="18"/>
+    <cellStyle name="Good 2" xfId="19"/>
+    <cellStyle name="Label" xfId="20"/>
+    <cellStyle name="Label 2" xfId="21"/>
+    <cellStyle name="Neutral 2" xfId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="10"/>
-    <cellStyle name="Note 2" xfId="250"/>
-    <cellStyle name="Note 3" xfId="251"/>
-    <cellStyle name="Percent" xfId="11" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="12"/>
-    <cellStyle name="Percent 3" xfId="252"/>
-    <cellStyle name="Percent 4" xfId="253"/>
-    <cellStyle name="TimeLabel" xfId="254"/>
-    <cellStyle name="TimeLabel 2" xfId="255"/>
-    <cellStyle name="VolLabel" xfId="256"/>
-    <cellStyle name="VolLabel 2" xfId="257"/>
+    <cellStyle name="Normal 2" xfId="23"/>
+    <cellStyle name="Normal 2 2" xfId="24"/>
+    <cellStyle name="Normal 3" xfId="25"/>
+    <cellStyle name="Normal 4" xfId="26"/>
+    <cellStyle name="Normal 5" xfId="27"/>
+    <cellStyle name="Note 2" xfId="28"/>
+    <cellStyle name="Note 3" xfId="29"/>
+    <cellStyle name="Percent" xfId="30" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="31"/>
+    <cellStyle name="Percent 3" xfId="32"/>
+    <cellStyle name="Percent 4" xfId="33"/>
+    <cellStyle name="TimeLabel" xfId="34"/>
+    <cellStyle name="TimeLabel 2" xfId="35"/>
+    <cellStyle name="VolLabel" xfId="36"/>
+    <cellStyle name="VolLabel 2" xfId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5602,11 +5000,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2076057048"/>
-        <c:axId val="-2076053912"/>
+        <c:axId val="-2091860488"/>
+        <c:axId val="-2091344824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2076057048"/>
+        <c:axId val="-2091860488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5616,7 +5014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076053912"/>
+        <c:crossAx val="-2091344824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5624,7 +5022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076053912"/>
+        <c:axId val="-2091344824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,7 +5033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076057048"/>
+        <c:crossAx val="-2091860488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6105,11 +5503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2049727992"/>
-        <c:axId val="-2049008712"/>
+        <c:axId val="-2091586440"/>
+        <c:axId val="-2092681160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2049727992"/>
+        <c:axId val="-2091586440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6119,7 +5517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2049008712"/>
+        <c:crossAx val="-2092681160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6127,7 +5525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2049008712"/>
+        <c:axId val="-2092681160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6150,13 +5548,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2049727992"/>
+        <c:crossAx val="-2091586440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7184,11 +6583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="-2075943528"/>
-        <c:axId val="-2075940712"/>
+        <c:axId val="-2091336840"/>
+        <c:axId val="-2090075688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2075943528"/>
+        <c:axId val="-2091336840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7208,7 +6607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075940712"/>
+        <c:crossAx val="-2090075688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7216,7 +6615,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075940712"/>
+        <c:axId val="-2090075688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7239,13 +6638,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075943528"/>
+        <c:crossAx val="-2091336840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7279,7 +6679,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4169" name="Chart 1"/>
+        <xdr:cNvPr id="4112" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7311,7 +6711,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4170" name="Chart 2"/>
+        <xdr:cNvPr id="4113" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7343,7 +6743,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4171" name="Chart 3"/>
+        <xdr:cNvPr id="4114" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8264,7 +7664,7 @@
         <v>8900</v>
       </c>
       <c r="G26" s="173">
-        <f t="shared" ref="G26:G29" si="0">1-H26-I26-J26</f>
+        <f>1-H26-I26-J26</f>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="H26" s="173">
@@ -8277,11 +7677,11 @@
         <v>0.67</v>
       </c>
       <c r="K26">
-        <f t="shared" ref="K26:K40" si="1">(H26*$J$57+$J$55*I26+J26*$J$56)*B26*1000</f>
+        <f t="shared" ref="K26:K40" si="0">(H26*$J$57+$J$55*I26+J26*$J$56)*B26*1000</f>
         <v>145.62668113648343</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L40" si="2">E26/(H26*$D$49+$D$48*I26+J26*$D$50)</f>
+        <f t="shared" ref="L26:L40" si="1">E26/(H26*$D$49+$D$48*I26+J26*$D$50)</f>
         <v>0.67577741370747169</v>
       </c>
       <c r="M26" s="333">
@@ -8319,7 +7719,7 @@
         <v>650</v>
       </c>
       <c r="G27" s="173">
-        <f t="shared" si="0"/>
+        <f>1-H27-I27-J27</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="H27" s="277">
@@ -8335,11 +7735,11 @@
         <v>0.7630769230769231</v>
       </c>
       <c r="K27">
+        <f t="shared" si="0"/>
+        <v>26.890318224508626</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="1"/>
-        <v>26.890318224508626</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="2"/>
         <v>1.0808713485948673</v>
       </c>
       <c r="M27" s="333">
@@ -8377,7 +7777,7 @@
         <v>1068.8</v>
       </c>
       <c r="G28" s="173">
-        <f t="shared" si="0"/>
+        <f>1-H28-I28-J28</f>
         <v>3.9200000000000013E-2</v>
       </c>
       <c r="H28" s="274">
@@ -8390,11 +7790,11 @@
         <v>0.70960000000000001</v>
       </c>
       <c r="K28">
+        <f t="shared" si="0"/>
+        <v>148.10252615268726</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="1"/>
-        <v>148.10252615268726</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="2"/>
         <v>0.48511044718727175</v>
       </c>
       <c r="M28" s="333">
@@ -8435,7 +7835,7 @@
         <v>6800</v>
       </c>
       <c r="G29" s="173">
-        <f t="shared" si="0"/>
+        <f>1-H29-I29-J29</f>
         <v>0</v>
       </c>
       <c r="H29" s="274">
@@ -8449,11 +7849,11 @@
         <v>0.90399999999999991</v>
       </c>
       <c r="K29">
+        <f t="shared" si="0"/>
+        <v>119.32507182308463</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="1"/>
-        <v>119.32507182308463</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="2"/>
         <v>0.50933786078098475</v>
       </c>
       <c r="M29" s="333">
@@ -8503,11 +7903,11 @@
         <v>0.62</v>
       </c>
       <c r="K30">
+        <f t="shared" si="0"/>
+        <v>101.1691104667035</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="1"/>
-        <v>101.1691104667035</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="2"/>
         <v>0.92341659991782632</v>
       </c>
       <c r="M30" s="333">
@@ -8556,11 +7956,11 @@
         <v>0.76</v>
       </c>
       <c r="K31">
+        <f t="shared" si="0"/>
+        <v>435.77297700779746</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="1"/>
-        <v>435.77297700779746</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="2"/>
         <v>0.97642314915851769</v>
       </c>
       <c r="M31" s="334">
@@ -8608,11 +8008,11 @@
         <v>0.74</v>
       </c>
       <c r="K32">
+        <f t="shared" si="0"/>
+        <v>44.515980356467033</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="1"/>
-        <v>44.515980356467033</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="2"/>
         <v>1.0851024791247024</v>
       </c>
       <c r="M32" s="335">
@@ -8660,11 +8060,11 @@
         <v>0.79</v>
       </c>
       <c r="K33">
+        <f t="shared" si="0"/>
+        <v>138.36379221566446</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="1"/>
-        <v>138.36379221566446</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="2"/>
         <v>0.80678284180870241</v>
       </c>
       <c r="M33" s="335">
@@ -8714,11 +8114,11 @@
         <v>0.82</v>
       </c>
       <c r="K34">
+        <f t="shared" si="0"/>
+        <v>32.150884549605763</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="1"/>
-        <v>32.150884549605763</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="2"/>
         <v>1.0721934501043251</v>
       </c>
       <c r="M34" s="335">
@@ -8766,11 +8166,11 @@
         <v>0.61</v>
       </c>
       <c r="K35">
+        <f t="shared" si="0"/>
+        <v>239.17639295630434</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="1"/>
-        <v>239.17639295630434</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="2"/>
         <v>0.90342993650255354</v>
       </c>
       <c r="M35" s="335">
@@ -8820,11 +8220,11 @@
         <v>0.82</v>
       </c>
       <c r="K36">
+        <f t="shared" si="0"/>
+        <v>56.944654936046781</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="1"/>
-        <v>56.944654936046781</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="2"/>
         <v>0.66279993796399439</v>
       </c>
       <c r="M36" s="335">
@@ -8872,11 +8272,11 @@
         <v>0.82</v>
       </c>
       <c r="K37">
+        <f t="shared" si="0"/>
+        <v>406.28720511554087</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="1"/>
-        <v>406.28720511554087</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="2"/>
         <v>0.87155637498217686</v>
       </c>
       <c r="M37" s="335">
@@ -8924,11 +8324,11 @@
         <v>0.66</v>
       </c>
       <c r="K38">
+        <f t="shared" si="0"/>
+        <v>16.373364133970309</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="1"/>
-        <v>16.373364133970309</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="2"/>
         <v>0.91944018562472485</v>
       </c>
       <c r="M38" s="335">
@@ -8976,11 +8376,11 @@
         <v>0.85</v>
       </c>
       <c r="K39">
+        <f t="shared" si="0"/>
+        <v>415.07017252038042</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="1"/>
-        <v>415.07017252038042</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="2"/>
         <v>0.75378112294407162</v>
       </c>
       <c r="M39" s="335">
@@ -9028,11 +8428,11 @@
         <v>0.79</v>
       </c>
       <c r="K40">
+        <f t="shared" si="0"/>
+        <v>143.38171109599963</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="1"/>
-        <v>143.38171109599963</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="2"/>
         <v>1.0138814158524627</v>
       </c>
       <c r="M40" s="336">
@@ -9840,31 +9240,31 @@
         <v>293</v>
       </c>
       <c r="B73" s="155">
-        <f t="shared" ref="B73:H73" si="3">B69*$J57</f>
+        <f t="shared" ref="B73:H73" si="2">B69*$J57</f>
         <v>8.4858035728833853E-2</v>
       </c>
       <c r="C73" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5428733768878882E-2</v>
       </c>
       <c r="D73" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.0857467537757765E-2</v>
       </c>
       <c r="E73" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F73" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.14657297080434939</v>
       </c>
       <c r="G73" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.3143100653318323E-2</v>
       </c>
       <c r="H73" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5428733768878882E-2</v>
       </c>
       <c r="I73" s="155"/>
@@ -9892,31 +9292,31 @@
         <v>294</v>
       </c>
       <c r="B74" s="155">
-        <f t="shared" ref="B74:H74" si="4">B70*$J55</f>
+        <f t="shared" ref="B74:H74" si="3">B70*$J55</f>
         <v>5.3090857076072778E-2</v>
       </c>
       <c r="C74" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.9636285614109154E-2</v>
       </c>
       <c r="D74" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.025445702932372E-2</v>
       </c>
       <c r="E74" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.3090857076072778E-2</v>
       </c>
       <c r="F74" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.556354273693099E-2</v>
       </c>
       <c r="G74" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0618171415214555E-2</v>
       </c>
       <c r="H74" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.8399942783680048E-2</v>
       </c>
       <c r="I74" s="155"/>
@@ -9944,31 +9344,31 @@
         <v>295</v>
       </c>
       <c r="B75" s="155">
-        <f t="shared" ref="B75:H75" si="5">$J56*B71</f>
+        <f t="shared" ref="B75:H75" si="4">$J56*B71</f>
         <v>0.33778579825164085</v>
       </c>
       <c r="C75" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.32889669829765034</v>
       </c>
       <c r="D75" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.35111944818262669</v>
       </c>
       <c r="E75" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.36445309811361248</v>
       </c>
       <c r="F75" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.27111754859671172</v>
       </c>
       <c r="G75" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.36445309811361248</v>
       </c>
       <c r="H75" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.36445309811361248</v>
       </c>
       <c r="I75" s="155"/>
@@ -10000,27 +9400,27 @@
         <v>0.47573469105654748</v>
       </c>
       <c r="C76" s="155">
-        <f t="shared" ref="C76:P76" si="6">SUM(C73:C75)</f>
+        <f t="shared" ref="C76:P76" si="5">SUM(C73:C75)</f>
         <v>0.42396171768063839</v>
       </c>
       <c r="D76" s="155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.47223137274970817</v>
       </c>
       <c r="E76" s="155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.41754395518968523</v>
       </c>
       <c r="F76" s="155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.51325406213799207</v>
       </c>
       <c r="G76" s="155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.39821437018214534</v>
       </c>
       <c r="H76" s="155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.43828177466617141</v>
       </c>
       <c r="I76" s="155"/>
@@ -10031,15 +9431,15 @@
       </c>
       <c r="L76" s="155"/>
       <c r="N76" s="155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.44921014342032511</v>
       </c>
       <c r="O76" s="155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.46401848251132577</v>
       </c>
       <c r="P76" s="155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.38871551520361525</v>
       </c>
       <c r="Q76" s="155">
@@ -10062,23 +9462,23 @@
         <v>4.4515980356467033E-2</v>
       </c>
       <c r="D77" s="155">
-        <f t="shared" ref="D77:P77" si="7">D76*D65</f>
+        <f t="shared" ref="D77:P77" si="6">D76*D65</f>
         <v>0.13836379221566447</v>
       </c>
       <c r="E77" s="155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.2150884549605761E-2</v>
       </c>
       <c r="F77" s="155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.23917639295630433</v>
       </c>
       <c r="G77" s="155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.6944654936046779E-2</v>
       </c>
       <c r="H77" s="155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.40628720511554089</v>
       </c>
       <c r="I77" s="155"/>
@@ -10089,15 +9489,15 @@
       </c>
       <c r="L77" s="155"/>
       <c r="N77" s="155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.41507017252038042</v>
       </c>
       <c r="O77" s="155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.14338171109599965</v>
       </c>
       <c r="P77" s="155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.9648982550768749E-2</v>
       </c>
     </row>
@@ -10133,7 +9533,7 @@
         <v>80.357142857142847</v>
       </c>
       <c r="E83">
-        <f>GlobalFactors.csv!F42</f>
+        <f>GlobalFactors.csv!F41</f>
         <v>0.65</v>
       </c>
       <c r="F83" s="85">
@@ -11581,7 +10981,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">(C4+B4)/2</f>
+        <f>(C4+B4)/2</f>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E4">
@@ -11608,7 +11008,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>(C5+B5)/2</f>
         <v>3.4499999999999996E-2</v>
       </c>
       <c r="E5">
@@ -11629,7 +11029,7 @@
         <v>910</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6" si="1">(C6-B6)/2</f>
+        <f>(C6-B6)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -11659,7 +11059,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D9" si="2">(C8+B8)/2</f>
+        <f>(C8+B8)/2</f>
         <v>0.20700000000000002</v>
       </c>
       <c r="E8">
@@ -11686,7 +11086,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f>(C9+B9)/2</f>
         <v>0.10250000000000001</v>
       </c>
       <c r="E9">
@@ -11735,7 +11135,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D13" si="3">(C12+B12)/2</f>
+        <f>(C12+B12)/2</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E12">
@@ -11762,7 +11162,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f>(C13+B13)/2</f>
         <v>1.6E-2</v>
       </c>
       <c r="E13">
@@ -11809,7 +11209,7 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D17" si="4">(C16+B16)/2</f>
+        <f>(C16+B16)/2</f>
         <v>0.39449999999999996</v>
       </c>
       <c r="E16">
@@ -11836,7 +11236,7 @@
         <v>0.58799999999999997</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f>(C17+B17)/2</f>
         <v>0.35749999999999998</v>
       </c>
       <c r="E17">
@@ -11866,11 +11266,11 @@
         <v>0.06</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D19" si="5">C11+C15</f>
+        <f>C11+C15</f>
         <v>0.38769999999999999</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f>D11+D15</f>
         <v>0.22384999999999999</v>
       </c>
     </row>
@@ -11879,15 +11279,15 @@
         <v>903</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:D21" si="6">B12+B16</f>
+        <f t="shared" ref="B20:D21" si="0">B12+B16</f>
         <v>0.246</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.69299999999999995</v>
       </c>
       <c r="D20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.46949999999999997</v>
       </c>
       <c r="E20">
@@ -11908,15 +11308,15 @@
         <v>904</v>
       </c>
       <c r="B21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.14300000000000002</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.60399999999999998</v>
       </c>
       <c r="D21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.3735</v>
       </c>
       <c r="E21">
@@ -11946,11 +11346,11 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:D23" si="7">C19+C7</f>
+        <f>C19+C7</f>
         <v>0.52469999999999994</v>
       </c>
       <c r="D23">
-        <f t="shared" si="7"/>
+        <f>D19+D7</f>
         <v>0.29485</v>
       </c>
     </row>
@@ -11959,14 +11359,14 @@
         <v>903</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:D25" si="8">B20+B8</f>
+        <f t="shared" ref="B24:D25" si="1">B20+B8</f>
         <v>0.26800000000000002</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0.67649999999999999</v>
       </c>
       <c r="E24">
@@ -11987,15 +11387,15 @@
         <v>904</v>
       </c>
       <c r="B25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0.15200000000000002</v>
       </c>
       <c r="C25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="D25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0.47599999999999998</v>
       </c>
       <c r="E25">
@@ -12066,10 +11466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13266,96 +12666,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:10" s="5" customFormat="1" hidden="1">
+      <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="B37" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F37" s="5">
+        <v>20</v>
+      </c>
+      <c r="G37" s="5">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5">
+        <v>30</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1">
+      <c r="A38" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f>'Land application'!B13</f>
+        <v>Kg N2O-N/kg N</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="F37" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G37" s="6">
-        <v>2E-3</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" hidden="1">
-      <c r="A38" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="F38" s="5">
-        <v>20</v>
-      </c>
-      <c r="G38" s="5">
-        <v>10</v>
-      </c>
-      <c r="H38" s="5">
-        <v>30</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>752</v>
+      <c r="F38" s="6">
+        <f>'Land application'!E13</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
-        <v>646</v>
+        <v>103</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="C39" s="6" t="str">
-        <f>'Land application'!B13</f>
-        <v>Kg N2O-N/kg N</v>
+        <v>758</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>754</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>544</v>
+        <v>787</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>391</v>
       </c>
       <c r="F39" s="6">
-        <f>'Land application'!E13</f>
-        <v>1.2500000000000001E-2</v>
+        <f>N2O!E30</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G39" s="6">
-        <v>1.7999999999999999E-2</v>
+        <f>0.15*0.4</f>
+        <v>0.06</v>
       </c>
       <c r="H39" s="6">
-        <v>0.03</v>
+        <f>0.15*0.8</f>
+        <v>0.12</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>882</v>
+        <v>927</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>884</v>
+        <v>926</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1">
@@ -13363,127 +12769,116 @@
         <v>103</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>758</v>
+        <v>804</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>754</v>
+        <v>805</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>391</v>
       </c>
       <c r="F40" s="6">
-        <f>N2O!E30</f>
-        <v>7.4999999999999997E-2</v>
+        <f>N2O!D25</f>
+        <v>0.47599999999999998</v>
       </c>
       <c r="G40" s="6">
-        <f>0.15*0.4</f>
-        <v>0.06</v>
+        <f>N2O!B25</f>
+        <v>0.15200000000000002</v>
       </c>
       <c r="H40" s="6">
-        <f>0.15*0.8</f>
-        <v>0.12</v>
+        <f>N2O!C25</f>
+        <v>0.8</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="6" customFormat="1">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>804</v>
+        <v>773</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>788</v>
+        <v>806</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>757</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>391</v>
       </c>
       <c r="F41" s="6">
-        <f>N2O!D25</f>
-        <v>0.47599999999999998</v>
+        <v>0.65</v>
       </c>
       <c r="G41" s="6">
-        <f>N2O!B25</f>
-        <v>0.15200000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="H41" s="6">
-        <f>N2O!C25</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>882</v>
+        <v>770</v>
+      </c>
+      <c r="J41" s="282" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>103</v>
+        <v>646</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>757</v>
+        <v>798</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>391</v>
       </c>
       <c r="F42" s="6">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="G42" s="6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H42" s="6">
         <v>1</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="J42" s="282" t="s">
-        <v>844</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="J42" s="282"/>
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>646</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>391</v>
+        <v>496</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
       </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>1</v>
-      </c>
       <c r="I43" s="6" t="s">
-        <v>841</v>
+        <v>786</v>
       </c>
       <c r="J43" s="282"/>
     </row>
@@ -13492,22 +12887,29 @@
         <v>646</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>780</v>
+        <v>822</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="287">
+        <f>Parameters!G85</f>
+        <v>0.56980056980056981</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
         <v>1</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J44" s="282"/>
     </row>
@@ -13516,29 +12918,22 @@
         <v>646</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>818</v>
+        <v>777</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>822</v>
+        <v>781</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="F45" s="287">
-        <f>Parameters!G85</f>
-        <v>0.56980056980056981</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
+      <c r="F45" s="6">
         <v>1</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J45" s="282"/>
     </row>
@@ -13547,109 +12942,118 @@
         <v>646</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>777</v>
+        <v>819</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>781</v>
+        <v>823</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="F46" s="6">
-        <v>1</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="J46" s="282"/>
-    </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="F47" s="287">
+      <c r="F46" s="287">
         <f>Parameters!G84</f>
         <v>0.29728725380899296</v>
       </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="J46" s="282"/>
+    </row>
+    <row r="47" spans="1:10" s="6" customFormat="1">
+      <c r="A47" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.1</v>
+      </c>
       <c r="G47" s="6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H47" s="6">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="J47" s="282"/>
-    </row>
-    <row r="48" spans="1:10" s="6" customFormat="1">
-      <c r="A48" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="E48" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="57" customFormat="1">
+      <c r="B48" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>528</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G48" s="57" t="s">
+        <v>799</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>800</v>
+      </c>
+      <c r="I48" s="57" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>648</v>
+      </c>
+      <c r="B49" t="s">
+        <v>885</v>
+      </c>
+      <c r="C49" t="str">
+        <f>compost!B13</f>
+        <v>L/t</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="E49" t="s">
         <v>391</v>
       </c>
-      <c r="F48" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="57" customFormat="1">
-      <c r="B49" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>528</v>
-      </c>
-      <c r="E49" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="F49" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="G49" s="57" t="s">
-        <v>799</v>
-      </c>
-      <c r="H49" s="57" t="s">
-        <v>800</v>
-      </c>
-      <c r="I49" s="57" t="s">
-        <v>306</v>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>0.13</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>299</v>
+      </c>
+      <c r="J49" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -13657,96 +13061,92 @@
         <v>648</v>
       </c>
       <c r="B50" t="s">
-        <v>885</v>
-      </c>
-      <c r="C50" t="str">
-        <f>compost!B13</f>
-        <v>L/t</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>546</v>
+        <v>886</v>
+      </c>
+      <c r="C50" t="s">
+        <v>520</v>
+      </c>
+      <c r="D50" t="s">
+        <v>644</v>
       </c>
       <c r="E50" t="s">
         <v>391</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G50">
-        <v>0.13</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="I50" t="s">
         <v>299</v>
       </c>
       <c r="J50" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="13" customHeight="1">
       <c r="A51" t="s">
         <v>648</v>
       </c>
       <c r="B51" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="C51" t="s">
-        <v>520</v>
+        <v>808</v>
       </c>
       <c r="D51" t="s">
-        <v>644</v>
+        <v>547</v>
       </c>
       <c r="E51" t="s">
         <v>391</v>
       </c>
       <c r="F51">
-        <v>2.3E-2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G51">
-        <v>2.3E-2</v>
+        <v>0.4</v>
       </c>
       <c r="H51">
-        <v>65</v>
+        <v>0.83</v>
       </c>
       <c r="I51" t="s">
         <v>299</v>
       </c>
       <c r="J51" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="13" customHeight="1">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>648</v>
       </c>
       <c r="B52" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C52" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D52" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E52" t="s">
         <v>391</v>
       </c>
       <c r="F52">
-        <v>0.57999999999999996</v>
+        <v>0.02</v>
       </c>
       <c r="G52">
-        <v>0.4</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H52">
-        <v>0.83</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I52" t="s">
-        <v>299</v>
-      </c>
-      <c r="J52" t="s">
-        <v>724</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -13754,28 +13154,32 @@
         <v>648</v>
       </c>
       <c r="B53" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C53" t="s">
-        <v>809</v>
+        <v>875</v>
       </c>
       <c r="D53" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E53" t="s">
         <v>391</v>
       </c>
       <c r="F53">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G53">
-        <v>8.0000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H53">
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I53" t="s">
-        <v>513</v>
+        <v>575</v>
+      </c>
+      <c r="J53" t="str">
+        <f>compost!H20</f>
+        <v xml:space="preserve">Boldrin, 2009 </v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -13783,32 +13187,28 @@
         <v>648</v>
       </c>
       <c r="B54" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
       <c r="C54" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D54" t="s">
-        <v>549</v>
+        <v>835</v>
       </c>
       <c r="E54" t="s">
-        <v>391</v>
+        <v>496</v>
       </c>
       <c r="F54">
-        <v>5.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="G54">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1.7999999999999999E-2</v>
+        <v>0.9</v>
       </c>
       <c r="I54" t="s">
-        <v>575</v>
-      </c>
-      <c r="J54" t="str">
-        <f>compost!H20</f>
-        <v xml:space="preserve">Boldrin, 2009 </v>
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -13816,28 +13216,28 @@
         <v>648</v>
       </c>
       <c r="B55" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C55" t="s">
-        <v>876</v>
+        <v>522</v>
       </c>
       <c r="D55" t="s">
-        <v>835</v>
+        <v>604</v>
       </c>
       <c r="E55" t="s">
-        <v>496</v>
+        <v>391</v>
       </c>
       <c r="F55">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="H55">
-        <v>0.9</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I55" t="s">
-        <v>890</v>
+        <v>828</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -13845,28 +13245,25 @@
         <v>648</v>
       </c>
       <c r="B56" t="s">
-        <v>888</v>
+        <v>810</v>
       </c>
       <c r="C56" t="s">
-        <v>522</v>
+        <v>877</v>
       </c>
       <c r="D56" t="s">
-        <v>604</v>
+        <v>550</v>
       </c>
       <c r="E56" t="s">
-        <v>391</v>
+        <v>496</v>
       </c>
       <c r="F56">
-        <v>0.43</v>
-      </c>
-      <c r="G56">
-        <v>0.23</v>
-      </c>
-      <c r="H56">
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="I56" t="s">
-        <v>828</v>
+        <v>299</v>
+      </c>
+      <c r="J56" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -13874,83 +13271,86 @@
         <v>648</v>
       </c>
       <c r="B57" t="s">
-        <v>810</v>
+        <v>974</v>
       </c>
       <c r="C57" t="s">
-        <v>877</v>
+        <v>975</v>
       </c>
       <c r="D57" t="s">
-        <v>550</v>
+        <v>978</v>
       </c>
       <c r="E57" t="s">
-        <v>496</v>
+        <v>391</v>
       </c>
       <c r="F57">
-        <v>0.6</v>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0.2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
       </c>
       <c r="I57" t="s">
         <v>299</v>
       </c>
-      <c r="J57" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
+    </row>
+    <row r="58" spans="1:10" s="2" customFormat="1" hidden="1">
+      <c r="A58" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B58" t="s">
-        <v>974</v>
-      </c>
-      <c r="C58" t="s">
-        <v>975</v>
-      </c>
-      <c r="D58" t="s">
-        <v>979</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="B58" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="2">
+        <v>20</v>
+      </c>
+      <c r="G58" s="2">
+        <v>10</v>
+      </c>
+      <c r="H58" s="2">
+        <v>30</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>648</v>
+      </c>
+      <c r="B59" t="s">
+        <v>838</v>
+      </c>
+      <c r="C59" t="s">
+        <v>839</v>
+      </c>
+      <c r="D59" t="s">
+        <v>840</v>
+      </c>
+      <c r="E59" t="s">
+        <v>391</v>
+      </c>
+      <c r="F59">
         <v>0.2</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="G59">
+        <v>0.2</v>
+      </c>
+      <c r="H59">
+        <v>0.4</v>
+      </c>
+      <c r="I59" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="2" customFormat="1" hidden="1">
-      <c r="A59" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F59" s="2">
-        <v>20</v>
-      </c>
-      <c r="G59" s="2">
-        <v>10</v>
-      </c>
-      <c r="H59" s="2">
-        <v>30</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -13958,60 +13358,60 @@
         <v>648</v>
       </c>
       <c r="B60" t="s">
-        <v>838</v>
+        <v>889</v>
       </c>
       <c r="C60" t="s">
-        <v>839</v>
+        <v>577</v>
       </c>
       <c r="D60" t="s">
-        <v>840</v>
+        <v>579</v>
       </c>
       <c r="E60" t="s">
         <v>391</v>
       </c>
-      <c r="F60">
-        <v>0.2</v>
-      </c>
-      <c r="G60">
-        <v>0.2</v>
-      </c>
-      <c r="H60">
-        <v>0.4</v>
+      <c r="F60" s="360">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G60" s="360">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H60" s="360">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="15" customFormat="1">
+      <c r="A61" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="B61" t="s">
-        <v>889</v>
-      </c>
-      <c r="C61" t="s">
-        <v>577</v>
-      </c>
-      <c r="D61" t="s">
-        <v>579</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B61" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="F61">
-        <f>N2O!D4</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G61">
-        <f>N2O!C4+N2O!B4</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H61">
-        <f>N2O!D4+N2O!C4</f>
-        <v>8.4999999999999992E-2</v>
+      <c r="F61" s="15">
+        <f>N2O!D24</f>
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="G61" s="15">
+        <f>N2O!B24</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H61" s="15">
+        <f>N2O!C24</f>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="15" customFormat="1">
@@ -14019,64 +13419,64 @@
         <v>648</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>921</v>
+        <v>837</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>842</v>
       </c>
-      <c r="D62" s="14" t="s">
-        <v>920</v>
+      <c r="D62" s="15" t="s">
+        <v>576</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>391</v>
       </c>
       <c r="F62" s="15">
-        <f>N2O!D24</f>
-        <v>0.67649999999999999</v>
-      </c>
-      <c r="G62" s="15">
-        <f>N2O!B24</f>
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="H62" s="15">
-        <f>N2O!C24</f>
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="15" customFormat="1">
-      <c r="A63" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>837</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>842</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="F63" s="15">
         <f>N2O!E29</f>
         <v>1.6E-2</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G62" s="15">
         <v>0</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H62" s="15">
         <v>0.2</v>
       </c>
+      <c r="I62" t="s">
+        <v>969</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>648</v>
+      </c>
+      <c r="B63" t="s">
+        <v>516</v>
+      </c>
+      <c r="C63" t="s">
+        <v>517</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="E63" t="s">
+        <v>391</v>
+      </c>
+      <c r="F63">
+        <v>0.1</v>
+      </c>
+      <c r="G63">
+        <v>0.02</v>
+      </c>
+      <c r="H63">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="I63" t="s">
-        <v>969</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>843</v>
+        <v>897</v>
+      </c>
+      <c r="J63" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -14084,132 +13484,100 @@
         <v>648</v>
       </c>
       <c r="B64" t="s">
-        <v>516</v>
+        <v>979</v>
       </c>
       <c r="C64" t="s">
-        <v>517</v>
+        <v>976</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>573</v>
+        <v>977</v>
       </c>
       <c r="E64" t="s">
         <v>391</v>
       </c>
       <c r="F64">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="G64">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I64" t="s">
-        <v>897</v>
-      </c>
-      <c r="J64" t="s">
-        <v>725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>648</v>
       </c>
-      <c r="B65" t="s">
-        <v>976</v>
-      </c>
-      <c r="C65" t="s">
-        <v>977</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>978</v>
-      </c>
-      <c r="E65" t="s">
+    </row>
+    <row r="66" spans="1:9" s="57" customFormat="1">
+      <c r="B66" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="57" t="s">
+        <v>528</v>
+      </c>
+      <c r="E66" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="F66" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G66" s="57" t="s">
+        <v>799</v>
+      </c>
+      <c r="H66" s="57" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>649</v>
+      </c>
+      <c r="B67" t="s">
+        <v>970</v>
+      </c>
+      <c r="C67" t="s">
+        <v>454</v>
+      </c>
+      <c r="D67" t="s">
+        <v>639</v>
+      </c>
+      <c r="E67" t="s">
         <v>391</v>
       </c>
-      <c r="F65">
-        <v>0.21</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="57" customFormat="1">
-      <c r="B67" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="57" t="s">
-        <v>528</v>
-      </c>
-      <c r="E67" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="F67" s="57" t="s">
+      <c r="F67">
+        <v>0.1</v>
+      </c>
+      <c r="G67">
+        <v>0.05</v>
+      </c>
+      <c r="H67">
+        <v>0.5</v>
+      </c>
+      <c r="I67" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" t="s">
+        <v>972</v>
+      </c>
+      <c r="C68" t="s">
+        <v>971</v>
+      </c>
+      <c r="E68" t="s">
         <v>496</v>
       </c>
-      <c r="G67" s="57" t="s">
-        <v>799</v>
-      </c>
-      <c r="H67" s="57" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>649</v>
-      </c>
-      <c r="B68" t="s">
-        <v>970</v>
-      </c>
-      <c r="C68" t="s">
-        <v>454</v>
-      </c>
-      <c r="D68" t="s">
-        <v>639</v>
-      </c>
-      <c r="E68" t="s">
-        <v>391</v>
-      </c>
-      <c r="F68">
-        <v>0.1</v>
-      </c>
-      <c r="G68">
-        <v>0.05</v>
-      </c>
-      <c r="H68">
-        <v>0.5</v>
-      </c>
       <c r="I68" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="B69" t="s">
-        <v>972</v>
-      </c>
-      <c r="C69" t="s">
-        <v>971</v>
-      </c>
-      <c r="E69" t="s">
-        <v>496</v>
-      </c>
-      <c r="I69" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="57" customFormat="1">
-      <c r="B70" s="57" t="s">
+    <row r="69" spans="1:9" s="57" customFormat="1">
+      <c r="B69" s="57" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14229,7 +13597,7 @@
   <dimension ref="A1:AD109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18762,9 +18130,9 @@
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="101">
+      <c r="C33" s="101" t="e">
         <f>C39+D40</f>
-        <v>151.25158857142856</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1">
@@ -18868,9 +18236,9 @@
       <c r="B40" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="81">
+      <c r="D40" s="81" t="e">
         <f>D42+D45</f>
-        <v>28.167228571428574</v>
+        <v>#REF!</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -18937,9 +18305,9 @@
       <c r="B44" t="s">
         <v>436</v>
       </c>
-      <c r="E44" s="10">
-        <f>GlobalFactors.csv!F37</f>
-        <v>0.01</v>
+      <c r="E44" s="10" t="e">
+        <f>GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" t="s">
@@ -18956,9 +18324,9 @@
       <c r="B45" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="9" t="e">
         <f>E44/1000*F41*E43*Parameters!C16*Parameters!C5</f>
-        <v>9.6361571428571438</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="3" customFormat="1">
@@ -19005,7 +18373,7 @@
         <v>12</v>
       </c>
       <c r="E49" s="212">
-        <f>GlobalFactors.csv!F38</f>
+        <f>GlobalFactors.csv!F37</f>
         <v>20</v>
       </c>
       <c r="G49" s="10"/>
@@ -19076,7 +18444,7 @@
         <v>-3.499925000000001E-2</v>
       </c>
       <c r="E53" s="10">
-        <f>(GlobalFactors.csv!F39-GlobalFactors.csv!F13)</f>
+        <f>(GlobalFactors.csv!F38-GlobalFactors.csv!F13)</f>
         <v>-5.5000000000000014E-3</v>
       </c>
       <c r="G53" s="4"/>
@@ -19108,7 +18476,7 @@
         <v>0.47726249999999998</v>
       </c>
       <c r="E55" s="10">
-        <f>(GlobalFactors.csv!F40-GlobalFactors.csv!F14)</f>
+        <f>(GlobalFactors.csv!F39-GlobalFactors.csv!F14)</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H55" t="s">
@@ -19146,7 +18514,7 @@
         <v>1.152748025</v>
       </c>
       <c r="E57">
-        <f>(GlobalFactors.csv!F41-GlobalFactors.csv!F15)</f>
+        <f>(GlobalFactors.csv!F40-GlobalFactors.csv!F15)</f>
         <v>0.18114999999999998</v>
       </c>
       <c r="H57" t="s">
@@ -19430,9 +18798,9 @@
       <c r="A75" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="169">
+      <c r="C75" s="169" t="e">
         <f>C14+C33+C47+C60+C10</f>
-        <v>-35.788647173672231</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="44" customFormat="1">
@@ -19446,7 +18814,7 @@
       </c>
       <c r="C77" s="85"/>
       <c r="D77" s="87">
-        <f>D52*(1-GlobalFactors.csv!F39-GlobalFactors.csv!F40-GlobalFactors.csv!F41)</f>
+        <f>D52*(1-GlobalFactors.csv!F38-GlobalFactors.csv!F39-GlobalFactors.csv!F40)</f>
         <v>2.7776677500000009</v>
       </c>
     </row>
@@ -19462,7 +18830,7 @@
         <v>1.8054840375000005</v>
       </c>
       <c r="E78" s="10">
-        <f>GlobalFactors.csv!F42</f>
+        <f>GlobalFactors.csv!F41</f>
         <v>0.65</v>
       </c>
       <c r="H78" s="88">
@@ -19502,7 +18870,7 @@
         <v>3.3</v>
       </c>
       <c r="G80" s="80">
-        <f>GlobalFactors.csv!F47</f>
+        <f>GlobalFactors.csv!F46</f>
         <v>0.29728725380899296</v>
       </c>
     </row>
@@ -19536,7 +18904,7 @@
         <v>1.9</v>
       </c>
       <c r="G82" s="80">
-        <f>GlobalFactors.csv!F45</f>
+        <f>GlobalFactors.csv!F44</f>
         <v>0.56980056980056981</v>
       </c>
     </row>
@@ -19574,9 +18942,9 @@
       <c r="A85" s="82" t="s">
         <v>460</v>
       </c>
-      <c r="C85" s="218">
+      <c r="C85" s="218" t="e">
         <f>C75+C84</f>
-        <v>-54.572383432488891</v>
+        <v>#REF!</v>
       </c>
       <c r="D85" s="7"/>
     </row>
@@ -19625,7 +18993,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:G48"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20004,7 +19372,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="10">
-        <f>GlobalFactors.csv!F64</f>
+        <f>GlobalFactors.csv!F63</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="52" t="e">
@@ -20392,7 +19760,7 @@
         <v>299</v>
       </c>
       <c r="I13" s="45">
-        <f>GlobalFactors.csv!G50</f>
+        <f>GlobalFactors.csv!G49</f>
         <v>0.13</v>
       </c>
       <c r="J13" s="176" t="s">
@@ -20433,7 +19801,7 @@
         <v>1.5919500781486559E-2</v>
       </c>
       <c r="E15" s="45">
-        <f>GlobalFactors.csv!F51</f>
+        <f>GlobalFactors.csv!F50</f>
         <v>2.3E-2</v>
       </c>
       <c r="F15" s="295"/>
@@ -20445,9 +19813,9 @@
       <c r="A16" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="39" t="e">
         <f>C22+C26+C30</f>
-        <v>89.472838163220715</v>
+        <v>#REF!</v>
       </c>
       <c r="F16" s="296"/>
     </row>
@@ -20482,7 +19850,7 @@
         <v>84.463475059160388</v>
       </c>
       <c r="E18" s="4">
-        <f>GlobalFactors.csv!F52</f>
+        <f>GlobalFactors.csv!F51</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="F18" s="298"/>
@@ -20490,7 +19858,7 @@
         <v>299</v>
       </c>
       <c r="I18">
-        <f>GlobalFactors.csv!G52</f>
+        <f>GlobalFactors.csv!G51</f>
         <v>0.4</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -20507,7 +19875,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="163"/>
       <c r="E19" s="4">
-        <f>GlobalFactors.csv!F53</f>
+        <f>GlobalFactors.csv!F52</f>
         <v>0.02</v>
       </c>
       <c r="F19" s="298"/>
@@ -20592,7 +19960,7 @@
         <v>3.827</v>
       </c>
       <c r="E24">
-        <f>GlobalFactors.csv!F56</f>
+        <f>GlobalFactors.csv!F55</f>
         <v>0.43</v>
       </c>
       <c r="F24" s="297">
@@ -20612,7 +19980,7 @@
         <v>4.4500000000000005E-2</v>
       </c>
       <c r="E25" s="289">
-        <f>GlobalFactors.csv!F54</f>
+        <f>GlobalFactors.csv!F53</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F25" s="299"/>
@@ -20668,7 +20036,7 @@
         <v>1.8912499999999999</v>
       </c>
       <c r="E28" s="15">
-        <f>GlobalFactors.csv!F55</f>
+        <f>GlobalFactors.csv!F54</f>
         <v>0.5</v>
       </c>
       <c r="F28" s="299"/>
@@ -20683,9 +20051,9 @@
       <c r="B29" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="D29" s="292">
-        <f>D28*GlobalFactors.csv!F37</f>
-        <v>1.8912499999999999E-2</v>
+      <c r="D29" s="292" t="e">
+        <f>D28*GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F29" s="298"/>
     </row>
@@ -20696,9 +20064,9 @@
       <c r="B30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="291">
+      <c r="C30" s="291" t="e">
         <f>D29*Parameters!C16*Parameters!C5</f>
-        <v>7.8757053571428566</v>
+        <v>#REF!</v>
       </c>
       <c r="F30" s="297"/>
     </row>
@@ -20706,9 +20074,9 @@
       <c r="A31" s="309" t="s">
         <v>341</v>
       </c>
-      <c r="C31" s="310">
+      <c r="C31" s="310" t="e">
         <f>C12+C16</f>
-        <v>99.000240691322205</v>
+        <v>#REF!</v>
       </c>
       <c r="F31" s="311"/>
     </row>
@@ -20756,7 +20124,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="212">
-        <f>GlobalFactors.csv!F59</f>
+        <f>GlobalFactors.csv!F58</f>
         <v>20</v>
       </c>
       <c r="F34" s="301"/>
@@ -20789,7 +20157,7 @@
       <c r="B36" s="14"/>
       <c r="C36" s="5"/>
       <c r="E36" s="295">
-        <f>GlobalFactors.csv!F60</f>
+        <f>GlobalFactors.csv!F59</f>
         <v>0.2</v>
       </c>
       <c r="J36" s="167"/>
@@ -20859,7 +20227,7 @@
         <v>-3.42</v>
       </c>
       <c r="E40">
-        <f>GlobalFactors.csv!F46</f>
+        <f>GlobalFactors.csv!F45</f>
         <v>1</v>
       </c>
       <c r="F40" s="303">
@@ -20886,7 +20254,7 @@
         <v>-3.1679999999999997</v>
       </c>
       <c r="E41">
-        <f>GlobalFactors.csv!F44</f>
+        <f>GlobalFactors.csv!F43</f>
         <v>1</v>
       </c>
       <c r="F41" s="303">
@@ -20902,9 +20270,9 @@
       <c r="A42" s="304" t="s">
         <v>867</v>
       </c>
-      <c r="C42" s="306">
+      <c r="C42" s="306" t="e">
         <f>C32+C16+C12</f>
-        <v>83.433030691322202</v>
+        <v>#REF!</v>
       </c>
       <c r="F42" s="307"/>
     </row>
@@ -20912,9 +20280,9 @@
       <c r="A43" s="158" t="s">
         <v>868</v>
       </c>
-      <c r="C43" s="169">
+      <c r="C43" s="169" t="e">
         <f>C46+C48+C50+C51</f>
-        <v>50.601721947857143</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="45" customFormat="1">
@@ -20945,7 +20313,7 @@
         <v>22</v>
       </c>
       <c r="E45" s="4">
-        <f>(GlobalFactors.csv!F61-GlobalFactors.csv!F13)</f>
+        <f>(GlobalFactors.csv!F60-GlobalFactors.csv!F13)</f>
         <v>1.6E-2</v>
       </c>
       <c r="H45" t="s">
@@ -20981,7 +20349,7 @@
       <c r="C47" s="243"/>
       <c r="D47" s="80"/>
       <c r="E47">
-        <f>(GlobalFactors.csv!F62-GlobalFactors.csv!F15)</f>
+        <f>(GlobalFactors.csv!F61-GlobalFactors.csv!F15)</f>
         <v>0.38164999999999999</v>
       </c>
     </row>
@@ -20992,9 +20360,9 @@
       <c r="B48" t="s">
         <v>832</v>
       </c>
-      <c r="C48" s="243">
-        <f>D48*GlobalFactors.csv!F37*Parameters!C5*Parameters!C16</f>
-        <v>8.0625170882142854</v>
+      <c r="C48" s="243" t="e">
+        <f>D48*GlobalFactors.csv!#REF!*Parameters!C5*Parameters!C16</f>
+        <v>#REF!</v>
       </c>
       <c r="D48" s="80">
         <f>D44*E47</f>
@@ -21008,7 +20376,7 @@
       <c r="C49" s="243"/>
       <c r="D49" s="80"/>
       <c r="E49">
-        <f>(GlobalFactors.csv!F63-GlobalFactors.csv!F14)</f>
+        <f>(GlobalFactors.csv!F62-GlobalFactors.csv!F14)</f>
         <v>1.6E-2</v>
       </c>
     </row>
@@ -21019,9 +20387,9 @@
       <c r="B50" t="s">
         <v>832</v>
       </c>
-      <c r="C50" s="80">
-        <f>D50*Parameters!C16*Parameters!C5*GlobalFactors.csv!F37</f>
-        <v>0.33800674285714288</v>
+      <c r="C50" s="80" t="e">
+        <f>D50*Parameters!C16*Parameters!C5*GlobalFactors.csv!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D50" s="80">
         <f>E49*D44</f>
@@ -21035,9 +20403,9 @@
       <c r="A51" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="C51" s="80">
+      <c r="C51" s="80" t="e">
         <f>C48+C50</f>
-        <v>8.4005238310714283</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="44" customFormat="1">
@@ -21066,7 +20434,7 @@
         <v>400</v>
       </c>
       <c r="E53" s="4">
-        <f>GlobalFactors.csv!F57</f>
+        <f>GlobalFactors.csv!F56</f>
         <v>0.6</v>
       </c>
       <c r="H53" t="s">
@@ -21106,7 +20474,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="212">
-        <f>GlobalFactors.csv!F59</f>
+        <f>GlobalFactors.csv!F58</f>
         <v>20</v>
       </c>
       <c r="G55" s="10"/>
@@ -21151,7 +20519,7 @@
       <c r="C58" s="5"/>
       <c r="E58" s="166"/>
       <c r="F58" s="45">
-        <f>GlobalFactors.csv!F60</f>
+        <f>GlobalFactors.csv!F59</f>
         <v>0.2</v>
       </c>
       <c r="J58" s="167"/>
@@ -21163,7 +20531,7 @@
       <c r="B59" s="14"/>
       <c r="C59" s="5"/>
       <c r="D59" s="103">
-        <f>D44*(1-GlobalFactors.csv!F63-GlobalFactors.csv!F62-GlobalFactors.csv!F61)</f>
+        <f>D44*(1-GlobalFactors.csv!F62-GlobalFactors.csv!F61-GlobalFactors.csv!F60)</f>
         <v>1.3874655</v>
       </c>
       <c r="E59" s="166"/>
@@ -21324,7 +20692,7 @@
       </c>
       <c r="E68" s="102"/>
       <c r="F68" s="237">
-        <f>GlobalFactors.csv!F64</f>
+        <f>GlobalFactors.csv!F63</f>
         <v>0.1</v>
       </c>
       <c r="K68" s="102"/>
@@ -21350,18 +20718,18 @@
       <c r="A70" s="158" t="s">
         <v>869</v>
       </c>
-      <c r="C70" s="169">
+      <c r="C70" s="169" t="e">
         <f>C64+C52+C43</f>
-        <v>19.131399117838697</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="305" customFormat="1">
       <c r="A71" s="304" t="s">
         <v>870</v>
       </c>
-      <c r="C71" s="308">
+      <c r="C71" s="308" t="e">
         <f>C70+C12+C16</f>
-        <v>118.1316398091609</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="44" customFormat="1">
@@ -21422,9 +20790,9 @@
       <c r="A76" s="305" t="s">
         <v>728</v>
       </c>
-      <c r="C76" s="308">
+      <c r="C76" s="308" t="e">
         <f>C72+C16+C12</f>
-        <v>-288.99975930867777</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -21434,9 +20802,9 @@
       <c r="A78" s="57" t="s">
         <v>871</v>
       </c>
-      <c r="C78" s="312">
+      <c r="C78" s="312" t="e">
         <f>0.21*C76+0.18*C42+0.61*C31</f>
-        <v>14.718142891322216</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -21580,7 +20948,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="248">
-        <f>GlobalFactors.csv!F68</f>
+        <f>GlobalFactors.csv!F67</f>
         <v>0.1</v>
       </c>
     </row>
